--- a/Poland I Liga/Poland I Liga.xlsx
+++ b/Poland I Liga/Poland I Liga.xlsx
@@ -7781,7 +7781,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>2632525</v>
+        <v>2632523</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7793,76 +7793,76 @@
         <v>44314.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G82" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K82">
-        <v>2.75</v>
+        <v>1.833</v>
       </c>
       <c r="L82">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M82">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="N82">
+        <v>1.7</v>
+      </c>
+      <c r="O82">
         <v>3.5</v>
       </c>
-      <c r="O82">
-        <v>3.2</v>
-      </c>
       <c r="P82">
-        <v>2.05</v>
+        <v>4.5</v>
       </c>
       <c r="Q82">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R82">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S82">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T82">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U82">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="V82">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W82">
+        <v>-1</v>
+      </c>
+      <c r="X82">
         <v>2.5</v>
       </c>
-      <c r="X82">
-        <v>-1</v>
-      </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB82">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC82">
-        <v>-0</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7870,7 +7870,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>2632523</v>
+        <v>2632525</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7882,76 +7882,76 @@
         <v>44314.45833333334</v>
       </c>
       <c r="F83" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G83" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H83">
+        <v>2</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83" t="s">
+        <v>61</v>
+      </c>
+      <c r="K83">
+        <v>2.75</v>
+      </c>
+      <c r="L83">
+        <v>3.2</v>
+      </c>
+      <c r="M83">
+        <v>2.4</v>
+      </c>
+      <c r="N83">
+        <v>3.5</v>
+      </c>
+      <c r="O83">
+        <v>3.2</v>
+      </c>
+      <c r="P83">
+        <v>2.05</v>
+      </c>
+      <c r="Q83">
+        <v>0.25</v>
+      </c>
+      <c r="R83">
+        <v>2</v>
+      </c>
+      <c r="S83">
+        <v>1.85</v>
+      </c>
+      <c r="T83">
+        <v>2</v>
+      </c>
+      <c r="U83">
+        <v>1.975</v>
+      </c>
+      <c r="V83">
+        <v>1.875</v>
+      </c>
+      <c r="W83">
+        <v>2.5</v>
+      </c>
+      <c r="X83">
+        <v>-1</v>
+      </c>
+      <c r="Y83">
+        <v>-1</v>
+      </c>
+      <c r="Z83">
         <v>1</v>
       </c>
-      <c r="I83">
-        <v>1</v>
-      </c>
-      <c r="J83" t="s">
-        <v>62</v>
-      </c>
-      <c r="K83">
-        <v>1.833</v>
-      </c>
-      <c r="L83">
-        <v>3.5</v>
-      </c>
-      <c r="M83">
-        <v>3.8</v>
-      </c>
-      <c r="N83">
-        <v>1.7</v>
-      </c>
-      <c r="O83">
-        <v>3.5</v>
-      </c>
-      <c r="P83">
-        <v>4.5</v>
-      </c>
-      <c r="Q83">
-        <v>-0.75</v>
-      </c>
-      <c r="R83">
-        <v>2.1</v>
-      </c>
-      <c r="S83">
-        <v>1.775</v>
-      </c>
-      <c r="T83">
-        <v>2.25</v>
-      </c>
-      <c r="U83">
-        <v>2.1</v>
-      </c>
-      <c r="V83">
-        <v>1.775</v>
-      </c>
-      <c r="W83">
-        <v>-1</v>
-      </c>
-      <c r="X83">
-        <v>2.5</v>
-      </c>
-      <c r="Y83">
-        <v>-1</v>
-      </c>
-      <c r="Z83">
-        <v>-1</v>
-      </c>
       <c r="AA83">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC83">
-        <v>0.3875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -9650,7 +9650,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>2632544</v>
+        <v>2632542</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9662,73 +9662,73 @@
         <v>44324.45833333334</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H103">
+        <v>2</v>
+      </c>
+      <c r="I103">
         <v>1</v>
       </c>
-      <c r="I103">
-        <v>2</v>
-      </c>
       <c r="J103" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K103">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="L103">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M103">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="N103">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="O103">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P103">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q103">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R103">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S103">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T103">
         <v>2.25</v>
       </c>
       <c r="U103">
+        <v>1.9</v>
+      </c>
+      <c r="V103">
         <v>1.95</v>
       </c>
-      <c r="V103">
-        <v>1.85</v>
-      </c>
       <c r="W103">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA103">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC103">
         <v>-1</v>
@@ -9739,7 +9739,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>2632542</v>
+        <v>2632544</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9751,73 +9751,73 @@
         <v>44324.45833333334</v>
       </c>
       <c r="F104" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G104" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K104">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="L104">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M104">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="N104">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="O104">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P104">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q104">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R104">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S104">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T104">
         <v>2.25</v>
       </c>
       <c r="U104">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V104">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W104">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z104">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB104">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC104">
         <v>-1</v>
@@ -11341,7 +11341,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>2632571</v>
+        <v>2632561</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11353,76 +11353,76 @@
         <v>44338.31944444445</v>
       </c>
       <c r="F122" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G122" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H122">
+        <v>3</v>
+      </c>
+      <c r="I122">
         <v>0</v>
       </c>
-      <c r="I122">
-        <v>2</v>
-      </c>
       <c r="J122" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K122">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="L122">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M122">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="N122">
-        <v>2.9</v>
+        <v>1.75</v>
       </c>
       <c r="O122">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P122">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="Q122">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R122">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S122">
-        <v>2.125</v>
+        <v>2</v>
       </c>
       <c r="T122">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U122">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V122">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W122">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA122">
-        <v>1.125</v>
+        <v>-1</v>
       </c>
       <c r="AB122">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC122">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11430,7 +11430,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>2632561</v>
+        <v>2632571</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11442,76 +11442,76 @@
         <v>44338.31944444445</v>
       </c>
       <c r="F123" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G123" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>2</v>
+      </c>
+      <c r="J123" t="s">
+        <v>60</v>
+      </c>
+      <c r="K123">
         <v>3</v>
       </c>
-      <c r="I123">
-        <v>0</v>
-      </c>
-      <c r="J123" t="s">
-        <v>61</v>
-      </c>
-      <c r="K123">
-        <v>1.8</v>
-      </c>
       <c r="L123">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M123">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="N123">
+        <v>2.9</v>
+      </c>
+      <c r="O123">
+        <v>3.2</v>
+      </c>
+      <c r="P123">
+        <v>2.5</v>
+      </c>
+      <c r="Q123">
+        <v>0.25</v>
+      </c>
+      <c r="R123">
         <v>1.75</v>
       </c>
-      <c r="O123">
-        <v>3.8</v>
-      </c>
-      <c r="P123">
-        <v>4</v>
-      </c>
-      <c r="Q123">
-        <v>-0.5</v>
-      </c>
-      <c r="R123">
-        <v>1.8</v>
-      </c>
       <c r="S123">
-        <v>2</v>
+        <v>2.125</v>
       </c>
       <c r="T123">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U123">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V123">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W123">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z123">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>-1</v>
+        <v>1.125</v>
       </c>
       <c r="AB123">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -13655,7 +13655,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>2759298</v>
+        <v>2755807</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13667,22 +13667,22 @@
         <v>44360.31944444445</v>
       </c>
       <c r="F148" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G148" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H148">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K148">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L148">
         <v>3.6</v>
@@ -13691,52 +13691,52 @@
         <v>3.2</v>
       </c>
       <c r="N148">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="O148">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P148">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Q148">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R148">
+        <v>2.025</v>
+      </c>
+      <c r="S148">
+        <v>1.825</v>
+      </c>
+      <c r="T148">
+        <v>2.75</v>
+      </c>
+      <c r="U148">
+        <v>2</v>
+      </c>
+      <c r="V148">
         <v>1.85</v>
       </c>
-      <c r="S148">
-        <v>1.95</v>
-      </c>
-      <c r="T148">
-        <v>2.5</v>
-      </c>
-      <c r="U148">
-        <v>1.825</v>
-      </c>
-      <c r="V148">
-        <v>1.975</v>
-      </c>
       <c r="W148">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X148">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y148">
         <v>-1</v>
       </c>
       <c r="Z148">
+        <v>-1</v>
+      </c>
+      <c r="AA148">
+        <v>0.825</v>
+      </c>
+      <c r="AB148">
+        <v>-1</v>
+      </c>
+      <c r="AC148">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA148">
-        <v>-1</v>
-      </c>
-      <c r="AB148">
-        <v>0.825</v>
-      </c>
-      <c r="AC148">
-        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13833,7 +13833,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>2758744</v>
+        <v>2759298</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13845,58 +13845,58 @@
         <v>44360.31944444445</v>
       </c>
       <c r="F150" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G150" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J150" t="s">
         <v>61</v>
       </c>
       <c r="K150">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L150">
         <v>3.6</v>
       </c>
       <c r="M150">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="N150">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="O150">
         <v>3.6</v>
       </c>
       <c r="P150">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q150">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R150">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S150">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T150">
         <v>2.5</v>
       </c>
       <c r="U150">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V150">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W150">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -13905,13 +13905,13 @@
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA150">
         <v>-1</v>
       </c>
       <c r="AB150">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC150">
         <v>-1</v>
@@ -13922,7 +13922,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>2755807</v>
+        <v>3611527</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13934,76 +13934,76 @@
         <v>44360.31944444445</v>
       </c>
       <c r="F151" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G151" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I151">
         <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K151">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="L151">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M151">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="N151">
-        <v>1.727</v>
+        <v>2.625</v>
       </c>
       <c r="O151">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P151">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="Q151">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R151">
+        <v>1.925</v>
+      </c>
+      <c r="S151">
+        <v>1.875</v>
+      </c>
+      <c r="T151">
+        <v>2.25</v>
+      </c>
+      <c r="U151">
+        <v>1.775</v>
+      </c>
+      <c r="V151">
         <v>2.025</v>
       </c>
-      <c r="S151">
-        <v>1.825</v>
-      </c>
-      <c r="T151">
-        <v>2.75</v>
-      </c>
-      <c r="U151">
-        <v>2</v>
-      </c>
-      <c r="V151">
-        <v>1.85</v>
-      </c>
       <c r="W151">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X151">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y151">
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA151">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB151">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC151">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -14011,7 +14011,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>2759543</v>
+        <v>2758744</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -14023,37 +14023,37 @@
         <v>44360.31944444445</v>
       </c>
       <c r="F152" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G152" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I152">
         <v>1</v>
       </c>
       <c r="J152" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K152">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="L152">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M152">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="N152">
         <v>1.8</v>
       </c>
       <c r="O152">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P152">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q152">
         <v>-0.5</v>
@@ -14068,31 +14068,31 @@
         <v>2.5</v>
       </c>
       <c r="U152">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V152">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W152">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X152">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y152">
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA152">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB152">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC152">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14100,7 +14100,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>2761522</v>
+        <v>2759740</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14112,10 +14112,10 @@
         <v>44360.31944444445</v>
       </c>
       <c r="F153" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G153" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H153">
         <v>2</v>
@@ -14127,43 +14127,43 @@
         <v>61</v>
       </c>
       <c r="K153">
-        <v>1.45</v>
+        <v>2.3</v>
       </c>
       <c r="L153">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M153">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N153">
-        <v>1.45</v>
+        <v>2.3</v>
       </c>
       <c r="O153">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P153">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q153">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R153">
+        <v>2.025</v>
+      </c>
+      <c r="S153">
         <v>1.775</v>
-      </c>
-      <c r="S153">
-        <v>2.025</v>
       </c>
       <c r="T153">
         <v>2.5</v>
       </c>
       <c r="U153">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V153">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W153">
-        <v>0.45</v>
+        <v>1.3</v>
       </c>
       <c r="X153">
         <v>-1</v>
@@ -14172,7 +14172,7 @@
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AA153">
         <v>-1</v>
@@ -14181,7 +14181,7 @@
         <v>-1</v>
       </c>
       <c r="AC153">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14189,7 +14189,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>2759740</v>
+        <v>2759543</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14201,76 +14201,76 @@
         <v>44360.31944444445</v>
       </c>
       <c r="F154" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G154" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K154">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="L154">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M154">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="N154">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="O154">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P154">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q154">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R154">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S154">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T154">
         <v>2.5</v>
       </c>
       <c r="U154">
+        <v>1.825</v>
+      </c>
+      <c r="V154">
         <v>1.975</v>
       </c>
-      <c r="V154">
-        <v>1.825</v>
-      </c>
       <c r="W154">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X154">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y154">
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA154">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB154">
         <v>-1</v>
       </c>
       <c r="AC154">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14367,7 +14367,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>3611527</v>
+        <v>2761522</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14379,58 +14379,58 @@
         <v>44360.31944444445</v>
       </c>
       <c r="F156" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G156" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H156">
         <v>2</v>
       </c>
       <c r="I156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J156" t="s">
         <v>61</v>
       </c>
       <c r="K156">
-        <v>2.45</v>
+        <v>1.45</v>
       </c>
       <c r="L156">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M156">
-        <v>2.55</v>
+        <v>7</v>
       </c>
       <c r="N156">
-        <v>2.625</v>
+        <v>1.45</v>
       </c>
       <c r="O156">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P156">
-        <v>2.625</v>
+        <v>7</v>
       </c>
       <c r="Q156">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R156">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S156">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T156">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U156">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V156">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W156">
-        <v>1.625</v>
+        <v>0.45</v>
       </c>
       <c r="X156">
         <v>-1</v>
@@ -14439,16 +14439,16 @@
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA156">
         <v>-1</v>
       </c>
       <c r="AB156">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC156">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -26560,7 +26560,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>3723111</v>
+        <v>4270780</v>
       </c>
       <c r="C293" t="s">
         <v>28</v>
@@ -26572,73 +26572,73 @@
         <v>44505.58333333334</v>
       </c>
       <c r="F293" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G293" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="H293">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I293">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J293" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K293">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="L293">
         <v>3.25</v>
       </c>
       <c r="M293">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="N293">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="O293">
         <v>3.25</v>
       </c>
       <c r="P293">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q293">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R293">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S293">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T293">
         <v>2.25</v>
       </c>
       <c r="U293">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V293">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W293">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X293">
         <v>-1</v>
       </c>
       <c r="Y293">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z293">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA293">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB293">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC293">
         <v>-1</v>
@@ -26649,7 +26649,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>4270780</v>
+        <v>3723111</v>
       </c>
       <c r="C294" t="s">
         <v>28</v>
@@ -26661,73 +26661,73 @@
         <v>44505.58333333334</v>
       </c>
       <c r="F294" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G294" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="H294">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I294">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J294" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K294">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="L294">
         <v>3.25</v>
       </c>
       <c r="M294">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="N294">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="O294">
         <v>3.25</v>
       </c>
       <c r="P294">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="Q294">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R294">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S294">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T294">
         <v>2.25</v>
       </c>
       <c r="U294">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V294">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W294">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X294">
         <v>-1</v>
       </c>
       <c r="Y294">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z294">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA294">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB294">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC294">
         <v>-1</v>
@@ -41067,7 +41067,7 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>3945948</v>
+        <v>3951941</v>
       </c>
       <c r="C456" t="s">
         <v>28</v>
@@ -41079,13 +41079,13 @@
         <v>44703.31944444445</v>
       </c>
       <c r="F456" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G456" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H456">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I456">
         <v>0</v>
@@ -41094,43 +41094,43 @@
         <v>61</v>
       </c>
       <c r="K456">
-        <v>2.875</v>
+        <v>2.25</v>
       </c>
       <c r="L456">
         <v>3.4</v>
       </c>
       <c r="M456">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="N456">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="O456">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P456">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q456">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R456">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S456">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T456">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U456">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V456">
         <v>1.975</v>
       </c>
       <c r="W456">
-        <v>1.75</v>
+        <v>1.2</v>
       </c>
       <c r="X456">
         <v>-1</v>
@@ -41139,7 +41139,7 @@
         <v>-1</v>
       </c>
       <c r="Z456">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA456">
         <v>-1</v>
@@ -41156,7 +41156,7 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>3956530</v>
+        <v>3945948</v>
       </c>
       <c r="C457" t="s">
         <v>28</v>
@@ -41168,13 +41168,13 @@
         <v>44703.31944444445</v>
       </c>
       <c r="F457" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G457" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H457">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I457">
         <v>0</v>
@@ -41183,43 +41183,43 @@
         <v>61</v>
       </c>
       <c r="K457">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="L457">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M457">
-        <v>4.75</v>
+        <v>2.25</v>
       </c>
       <c r="N457">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="O457">
         <v>3.5</v>
       </c>
       <c r="P457">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q457">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R457">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S457">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T457">
         <v>2.75</v>
       </c>
       <c r="U457">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V457">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W457">
-        <v>1.05</v>
+        <v>1.75</v>
       </c>
       <c r="X457">
         <v>-1</v>
@@ -41228,16 +41228,16 @@
         <v>-1</v>
       </c>
       <c r="Z457">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AA457">
         <v>-1</v>
       </c>
       <c r="AB457">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC457">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="458" spans="1:29">
@@ -41245,7 +41245,7 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>3953056</v>
+        <v>3956530</v>
       </c>
       <c r="C458" t="s">
         <v>28</v>
@@ -41257,55 +41257,55 @@
         <v>44703.31944444445</v>
       </c>
       <c r="F458" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G458" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I458">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J458" t="s">
         <v>61</v>
       </c>
       <c r="K458">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="L458">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M458">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="N458">
         <v>2.05</v>
       </c>
       <c r="O458">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P458">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q458">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R458">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S458">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T458">
         <v>2.75</v>
       </c>
       <c r="U458">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V458">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W458">
         <v>1.05</v>
@@ -41317,16 +41317,16 @@
         <v>-1</v>
       </c>
       <c r="Z458">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AA458">
         <v>-1</v>
       </c>
       <c r="AB458">
-        <v>0.425</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC458">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="459" spans="1:29">
@@ -41334,7 +41334,7 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>3951940</v>
+        <v>3953056</v>
       </c>
       <c r="C459" t="s">
         <v>28</v>
@@ -41346,76 +41346,76 @@
         <v>44703.31944444445</v>
       </c>
       <c r="F459" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G459" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H459">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I459">
         <v>1</v>
       </c>
       <c r="J459" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K459">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L459">
         <v>3.4</v>
       </c>
       <c r="M459">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N459">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O459">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P459">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q459">
         <v>-0.25</v>
       </c>
       <c r="R459">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S459">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T459">
         <v>2.75</v>
       </c>
       <c r="U459">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V459">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W459">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X459">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y459">
         <v>-1</v>
       </c>
       <c r="Z459">
+        <v>0.825</v>
+      </c>
+      <c r="AA459">
+        <v>-1</v>
+      </c>
+      <c r="AB459">
+        <v>0.425</v>
+      </c>
+      <c r="AC459">
         <v>-0.5</v>
-      </c>
-      <c r="AA459">
-        <v>0.5</v>
-      </c>
-      <c r="AB459">
-        <v>-1</v>
-      </c>
-      <c r="AC459">
-        <v>0.8</v>
       </c>
     </row>
     <row r="460" spans="1:29">
@@ -41423,7 +41423,7 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>3951941</v>
+        <v>3949265</v>
       </c>
       <c r="C460" t="s">
         <v>28</v>
@@ -41435,76 +41435,76 @@
         <v>44703.31944444445</v>
       </c>
       <c r="F460" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G460" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I460">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J460" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K460">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L460">
         <v>3.4</v>
       </c>
       <c r="M460">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="N460">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O460">
         <v>3.4</v>
       </c>
       <c r="P460">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q460">
         <v>-0.25</v>
       </c>
       <c r="R460">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S460">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T460">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U460">
+        <v>1.975</v>
+      </c>
+      <c r="V460">
         <v>1.825</v>
       </c>
-      <c r="V460">
-        <v>1.975</v>
-      </c>
       <c r="W460">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X460">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y460">
         <v>-1</v>
       </c>
       <c r="Z460">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA460">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB460">
         <v>-1</v>
       </c>
       <c r="AC460">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="461" spans="1:29">
@@ -41512,7 +41512,7 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>3949265</v>
+        <v>3949266</v>
       </c>
       <c r="C461" t="s">
         <v>28</v>
@@ -41524,76 +41524,76 @@
         <v>44703.31944444445</v>
       </c>
       <c r="F461" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G461" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H461">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I461">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J461" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K461">
-        <v>2.05</v>
+        <v>3.3</v>
       </c>
       <c r="L461">
         <v>3.4</v>
       </c>
       <c r="M461">
+        <v>2.05</v>
+      </c>
+      <c r="N461">
         <v>3.3</v>
       </c>
-      <c r="N461">
-        <v>2.1</v>
-      </c>
       <c r="O461">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P461">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="Q461">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R461">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S461">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T461">
         <v>2.75</v>
       </c>
       <c r="U461">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V461">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W461">
         <v>-1</v>
       </c>
       <c r="X461">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y461">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z461">
+        <v>-1</v>
+      </c>
+      <c r="AA461">
+        <v>1.025</v>
+      </c>
+      <c r="AB461">
+        <v>0.5</v>
+      </c>
+      <c r="AC461">
         <v>-0.5</v>
-      </c>
-      <c r="AA461">
-        <v>0.4625</v>
-      </c>
-      <c r="AB461">
-        <v>-1</v>
-      </c>
-      <c r="AC461">
-        <v>0.825</v>
       </c>
     </row>
     <row r="462" spans="1:29">
@@ -41779,7 +41779,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>3949266</v>
+        <v>3951940</v>
       </c>
       <c r="C464" t="s">
         <v>28</v>
@@ -41791,46 +41791,46 @@
         <v>44703.31944444445</v>
       </c>
       <c r="F464" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G464" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I464">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J464" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K464">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="L464">
         <v>3.4</v>
       </c>
       <c r="M464">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="N464">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="O464">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P464">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="Q464">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R464">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S464">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T464">
         <v>2.75</v>
@@ -41845,22 +41845,22 @@
         <v>-1</v>
       </c>
       <c r="X464">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y464">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z464">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA464">
-        <v>1.025</v>
+        <v>0.5</v>
       </c>
       <c r="AB464">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC464">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="465" spans="1:29">
@@ -61092,7 +61092,7 @@
         <v>679</v>
       </c>
       <c r="B681">
-        <v>5139056</v>
+        <v>5139054</v>
       </c>
       <c r="C681" t="s">
         <v>28</v>
@@ -61104,76 +61104,76 @@
         <v>45004.58333333334</v>
       </c>
       <c r="F681" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G681" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H681">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I681">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J681" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K681">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="L681">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M681">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="N681">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="O681">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P681">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="Q681">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R681">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S681">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T681">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U681">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V681">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W681">
         <v>-1</v>
       </c>
       <c r="X681">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y681">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z681">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA681">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB681">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC681">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="682" spans="1:29">
@@ -61181,7 +61181,7 @@
         <v>680</v>
       </c>
       <c r="B682">
-        <v>5139054</v>
+        <v>5139056</v>
       </c>
       <c r="C682" t="s">
         <v>28</v>
@@ -61193,76 +61193,76 @@
         <v>45004.58333333334</v>
       </c>
       <c r="F682" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G682" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H682">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I682">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J682" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K682">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="L682">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M682">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="N682">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="O682">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P682">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="Q682">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R682">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S682">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T682">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U682">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V682">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W682">
         <v>-1</v>
       </c>
       <c r="X682">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y682">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z682">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA682">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB682">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC682">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="683" spans="1:29">
@@ -69102,7 +69102,7 @@
         <v>769</v>
       </c>
       <c r="B771">
-        <v>5447925</v>
+        <v>5448048</v>
       </c>
       <c r="C771" t="s">
         <v>28</v>
@@ -69114,76 +69114,76 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F771" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G771" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="H771">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I771">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J771" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K771">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="L771">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M771">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="N771">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="O771">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P771">
-        <v>1.615</v>
+        <v>3.1</v>
       </c>
       <c r="Q771">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R771">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S771">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T771">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U771">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V771">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W771">
         <v>-1</v>
       </c>
       <c r="X771">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y771">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z771">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA771">
-        <v>0.8</v>
+        <v>0.4625</v>
       </c>
       <c r="AB771">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC771">
-        <v>-0</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="772" spans="1:29">
@@ -69191,7 +69191,7 @@
         <v>770</v>
       </c>
       <c r="B772">
-        <v>5448048</v>
+        <v>5447925</v>
       </c>
       <c r="C772" t="s">
         <v>28</v>
@@ -69203,76 +69203,76 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F772" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G772" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="H772">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I772">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J772" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K772">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="L772">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M772">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="N772">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="O772">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P772">
-        <v>3.1</v>
+        <v>1.615</v>
       </c>
       <c r="Q772">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R772">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S772">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T772">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U772">
+        <v>2</v>
+      </c>
+      <c r="V772">
         <v>1.85</v>
       </c>
-      <c r="V772">
-        <v>1.95</v>
-      </c>
       <c r="W772">
         <v>-1</v>
       </c>
       <c r="X772">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y772">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z772">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA772">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
       <c r="AB772">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC772">
-        <v>0.475</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="773" spans="1:29">
@@ -75955,7 +75955,7 @@
         <v>846</v>
       </c>
       <c r="B848">
-        <v>6803740</v>
+        <v>6803738</v>
       </c>
       <c r="C848" t="s">
         <v>28</v>
@@ -75967,19 +75967,19 @@
         <v>45191.54166666666</v>
       </c>
       <c r="F848" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G848" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H848">
         <v>1</v>
       </c>
       <c r="I848">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J848" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K848">
         <v>1.85</v>
@@ -75988,55 +75988,55 @@
         <v>3.5</v>
       </c>
       <c r="M848">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="N848">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="O848">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P848">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q848">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R848">
+        <v>1.825</v>
+      </c>
+      <c r="S848">
         <v>1.975</v>
       </c>
-      <c r="S848">
+      <c r="T848">
+        <v>2.5</v>
+      </c>
+      <c r="U848">
         <v>1.825</v>
       </c>
-      <c r="T848">
-        <v>2.25</v>
-      </c>
-      <c r="U848">
-        <v>1.9</v>
-      </c>
       <c r="V848">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W848">
         <v>-1</v>
       </c>
       <c r="X848">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y848">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z848">
         <v>-1</v>
       </c>
       <c r="AA848">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB848">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC848">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="849" spans="1:29">
@@ -76044,7 +76044,7 @@
         <v>847</v>
       </c>
       <c r="B849">
-        <v>6803738</v>
+        <v>6803740</v>
       </c>
       <c r="C849" t="s">
         <v>28</v>
@@ -76056,19 +76056,19 @@
         <v>45191.54166666666</v>
       </c>
       <c r="F849" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G849" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H849">
         <v>1</v>
       </c>
       <c r="I849">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J849" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K849">
         <v>1.85</v>
@@ -76077,55 +76077,55 @@
         <v>3.5</v>
       </c>
       <c r="M849">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="N849">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="O849">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P849">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q849">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R849">
+        <v>1.975</v>
+      </c>
+      <c r="S849">
         <v>1.825</v>
       </c>
-      <c r="S849">
-        <v>1.975</v>
-      </c>
       <c r="T849">
+        <v>2.25</v>
+      </c>
+      <c r="U849">
+        <v>1.9</v>
+      </c>
+      <c r="V849">
+        <v>1.9</v>
+      </c>
+      <c r="W849">
+        <v>-1</v>
+      </c>
+      <c r="X849">
+        <v>-1</v>
+      </c>
+      <c r="Y849">
         <v>2.5</v>
       </c>
-      <c r="U849">
-        <v>1.825</v>
-      </c>
-      <c r="V849">
-        <v>1.975</v>
-      </c>
-      <c r="W849">
-        <v>-1</v>
-      </c>
-      <c r="X849">
-        <v>2.8</v>
-      </c>
-      <c r="Y849">
-        <v>-1</v>
-      </c>
       <c r="Z849">
         <v>-1</v>
       </c>
       <c r="AA849">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB849">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC849">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="850" spans="1:29">
@@ -83253,7 +83253,7 @@
         <v>928</v>
       </c>
       <c r="B930">
-        <v>6803794</v>
+        <v>6803793</v>
       </c>
       <c r="C930" t="s">
         <v>28</v>
@@ -83265,76 +83265,76 @@
         <v>45270.36111111111</v>
       </c>
       <c r="F930" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="G930" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="H930">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I930">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J930" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K930">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="L930">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M930">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="N930">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="O930">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P930">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q930">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R930">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S930">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T930">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U930">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V930">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W930">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X930">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y930">
         <v>-1</v>
       </c>
       <c r="Z930">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA930">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB930">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC930">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="931" spans="1:29">
@@ -83342,7 +83342,7 @@
         <v>929</v>
       </c>
       <c r="B931">
-        <v>6803793</v>
+        <v>6803794</v>
       </c>
       <c r="C931" t="s">
         <v>28</v>
@@ -83354,76 +83354,76 @@
         <v>45270.36111111111</v>
       </c>
       <c r="F931" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="G931" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H931">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I931">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J931" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K931">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="L931">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M931">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="N931">
-        <v>2.1</v>
+        <v>1.363</v>
       </c>
       <c r="O931">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P931">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="Q931">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R931">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S931">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T931">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U931">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V931">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W931">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X931">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y931">
         <v>-1</v>
       </c>
       <c r="Z931">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA931">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB931">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC931">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="932" spans="1:29">

--- a/Poland I Liga/Poland I Liga.xlsx
+++ b/Poland I Liga/Poland I Liga.xlsx
@@ -5645,7 +5645,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>2632502</v>
+        <v>2632496</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5657,49 +5657,49 @@
         <v>44296.45833333334</v>
       </c>
       <c r="F58" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G58" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58" t="s">
+        <v>62</v>
+      </c>
+      <c r="K58">
+        <v>3.5</v>
+      </c>
+      <c r="L58">
+        <v>3.25</v>
+      </c>
+      <c r="M58">
+        <v>1.95</v>
+      </c>
+      <c r="N58">
         <v>3</v>
       </c>
-      <c r="J58" t="s">
-        <v>60</v>
-      </c>
-      <c r="K58">
-        <v>2.15</v>
-      </c>
-      <c r="L58">
-        <v>3.2</v>
-      </c>
-      <c r="M58">
-        <v>3.1</v>
-      </c>
-      <c r="N58">
-        <v>2.4</v>
-      </c>
       <c r="O58">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P58">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="Q58">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R58">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="S58">
-        <v>2.075</v>
+        <v>2.025</v>
       </c>
       <c r="T58">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U58">
         <v>1.775</v>
@@ -5711,22 +5711,22 @@
         <v>-1</v>
       </c>
       <c r="X58">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y58">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA58">
-        <v>1.075</v>
+        <v>-0.5</v>
       </c>
       <c r="AB58">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC58">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5823,7 +5823,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>2632496</v>
+        <v>2632502</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5835,49 +5835,49 @@
         <v>44296.45833333334</v>
       </c>
       <c r="F60" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G60" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J60" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K60">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="L60">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M60">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="N60">
+        <v>2.4</v>
+      </c>
+      <c r="O60">
+        <v>3.2</v>
+      </c>
+      <c r="P60">
         <v>3</v>
       </c>
-      <c r="O60">
-        <v>2.9</v>
-      </c>
-      <c r="P60">
-        <v>2.3</v>
-      </c>
       <c r="Q60">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R60">
-        <v>1.775</v>
+        <v>1.725</v>
       </c>
       <c r="S60">
-        <v>2.025</v>
+        <v>2.075</v>
       </c>
       <c r="T60">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U60">
         <v>1.775</v>
@@ -5889,22 +5889,22 @@
         <v>-1</v>
       </c>
       <c r="X60">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y60">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z60">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA60">
-        <v>-0.5</v>
+        <v>1.075</v>
       </c>
       <c r="AB60">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC60">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5912,7 +5912,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>2632497</v>
+        <v>2632500</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5924,76 +5924,76 @@
         <v>44297.31944444445</v>
       </c>
       <c r="F61" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G61" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="s">
         <v>62</v>
       </c>
       <c r="K61">
-        <v>2.875</v>
+        <v>1.6</v>
       </c>
       <c r="L61">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M61">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="N61">
-        <v>2.9</v>
+        <v>1.727</v>
       </c>
       <c r="O61">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P61">
-        <v>2.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q61">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R61">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S61">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T61">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U61">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V61">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="W61">
         <v>-1</v>
       </c>
       <c r="X61">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB61">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC61">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -6001,7 +6001,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>2632500</v>
+        <v>2632497</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -6013,76 +6013,76 @@
         <v>44297.31944444445</v>
       </c>
       <c r="F62" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G62" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="s">
         <v>62</v>
       </c>
       <c r="K62">
-        <v>1.6</v>
+        <v>2.875</v>
       </c>
       <c r="L62">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M62">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="N62">
-        <v>1.727</v>
+        <v>2.9</v>
       </c>
       <c r="O62">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P62">
-        <v>4.75</v>
+        <v>2.25</v>
       </c>
       <c r="Q62">
+        <v>0.25</v>
+      </c>
+      <c r="R62">
+        <v>1.775</v>
+      </c>
+      <c r="S62">
+        <v>2.025</v>
+      </c>
+      <c r="T62">
+        <v>2.25</v>
+      </c>
+      <c r="U62">
+        <v>2</v>
+      </c>
+      <c r="V62">
+        <v>1.8</v>
+      </c>
+      <c r="W62">
+        <v>-1</v>
+      </c>
+      <c r="X62">
+        <v>2.1</v>
+      </c>
+      <c r="Y62">
+        <v>-1</v>
+      </c>
+      <c r="Z62">
+        <v>0.3875</v>
+      </c>
+      <c r="AA62">
         <v>-0.5</v>
       </c>
-      <c r="R62">
-        <v>1.8</v>
-      </c>
-      <c r="S62">
-        <v>2.05</v>
-      </c>
-      <c r="T62">
-        <v>2</v>
-      </c>
-      <c r="U62">
-        <v>1.8</v>
-      </c>
-      <c r="V62">
-        <v>2.05</v>
-      </c>
-      <c r="W62">
-        <v>-1</v>
-      </c>
-      <c r="X62">
-        <v>2.4</v>
-      </c>
-      <c r="Y62">
-        <v>-1</v>
-      </c>
-      <c r="Z62">
-        <v>-1</v>
-      </c>
-      <c r="AA62">
-        <v>1.05</v>
-      </c>
       <c r="AB62">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC62">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -7781,7 +7781,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>2632523</v>
+        <v>2632525</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7793,76 +7793,76 @@
         <v>44314.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G82" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H82">
+        <v>2</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82" t="s">
+        <v>61</v>
+      </c>
+      <c r="K82">
+        <v>2.75</v>
+      </c>
+      <c r="L82">
+        <v>3.2</v>
+      </c>
+      <c r="M82">
+        <v>2.4</v>
+      </c>
+      <c r="N82">
+        <v>3.5</v>
+      </c>
+      <c r="O82">
+        <v>3.2</v>
+      </c>
+      <c r="P82">
+        <v>2.05</v>
+      </c>
+      <c r="Q82">
+        <v>0.25</v>
+      </c>
+      <c r="R82">
+        <v>2</v>
+      </c>
+      <c r="S82">
+        <v>1.85</v>
+      </c>
+      <c r="T82">
+        <v>2</v>
+      </c>
+      <c r="U82">
+        <v>1.975</v>
+      </c>
+      <c r="V82">
+        <v>1.875</v>
+      </c>
+      <c r="W82">
+        <v>2.5</v>
+      </c>
+      <c r="X82">
+        <v>-1</v>
+      </c>
+      <c r="Y82">
+        <v>-1</v>
+      </c>
+      <c r="Z82">
         <v>1</v>
       </c>
-      <c r="I82">
-        <v>1</v>
-      </c>
-      <c r="J82" t="s">
-        <v>62</v>
-      </c>
-      <c r="K82">
-        <v>1.833</v>
-      </c>
-      <c r="L82">
-        <v>3.5</v>
-      </c>
-      <c r="M82">
-        <v>3.8</v>
-      </c>
-      <c r="N82">
-        <v>1.7</v>
-      </c>
-      <c r="O82">
-        <v>3.5</v>
-      </c>
-      <c r="P82">
-        <v>4.5</v>
-      </c>
-      <c r="Q82">
-        <v>-0.75</v>
-      </c>
-      <c r="R82">
-        <v>2.1</v>
-      </c>
-      <c r="S82">
-        <v>1.775</v>
-      </c>
-      <c r="T82">
-        <v>2.25</v>
-      </c>
-      <c r="U82">
-        <v>2.1</v>
-      </c>
-      <c r="V82">
-        <v>1.775</v>
-      </c>
-      <c r="W82">
-        <v>-1</v>
-      </c>
-      <c r="X82">
-        <v>2.5</v>
-      </c>
-      <c r="Y82">
-        <v>-1</v>
-      </c>
-      <c r="Z82">
-        <v>-1</v>
-      </c>
       <c r="AA82">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB82">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC82">
-        <v>0.3875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7870,7 +7870,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>2632525</v>
+        <v>2632523</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7882,76 +7882,76 @@
         <v>44314.45833333334</v>
       </c>
       <c r="F83" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G83" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K83">
-        <v>2.75</v>
+        <v>1.833</v>
       </c>
       <c r="L83">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M83">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="N83">
+        <v>1.7</v>
+      </c>
+      <c r="O83">
         <v>3.5</v>
       </c>
-      <c r="O83">
-        <v>3.2</v>
-      </c>
       <c r="P83">
-        <v>2.05</v>
+        <v>4.5</v>
       </c>
       <c r="Q83">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R83">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S83">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T83">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U83">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="V83">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W83">
+        <v>-1</v>
+      </c>
+      <c r="X83">
         <v>2.5</v>
       </c>
-      <c r="X83">
-        <v>-1</v>
-      </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB83">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC83">
-        <v>-0</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -8760,7 +8760,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>2632534</v>
+        <v>2632532</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8772,19 +8772,19 @@
         <v>44318.31944444445</v>
       </c>
       <c r="F93" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G93" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H93">
         <v>3</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J93" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K93">
         <v>2.625</v>
@@ -8796,25 +8796,25 @@
         <v>2.5</v>
       </c>
       <c r="N93">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="O93">
         <v>3.2</v>
       </c>
       <c r="P93">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="Q93">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R93">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S93">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T93">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U93">
         <v>1.975</v>
@@ -8823,19 +8823,19 @@
         <v>1.825</v>
       </c>
       <c r="W93">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X93">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.7749999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB93">
         <v>0.9750000000000001</v>
@@ -8849,7 +8849,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>2632532</v>
+        <v>2632534</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8861,19 +8861,19 @@
         <v>44318.31944444445</v>
       </c>
       <c r="F94" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G94" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H94">
         <v>3</v>
       </c>
       <c r="I94">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K94">
         <v>2.625</v>
@@ -8885,25 +8885,25 @@
         <v>2.5</v>
       </c>
       <c r="N94">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="O94">
         <v>3.2</v>
       </c>
       <c r="P94">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q94">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R94">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S94">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T94">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U94">
         <v>1.975</v>
@@ -8912,19 +8912,19 @@
         <v>1.825</v>
       </c>
       <c r="W94">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X94">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.4125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA94">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB94">
         <v>0.9750000000000001</v>
@@ -13655,7 +13655,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>2755807</v>
+        <v>2758703</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13667,61 +13667,61 @@
         <v>44360.31944444445</v>
       </c>
       <c r="F148" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G148" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148" t="s">
         <v>62</v>
       </c>
       <c r="K148">
-        <v>1.95</v>
+        <v>1.285</v>
       </c>
       <c r="L148">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M148">
-        <v>3.2</v>
+        <v>9</v>
       </c>
       <c r="N148">
-        <v>1.727</v>
+        <v>1.3</v>
       </c>
       <c r="O148">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P148">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Q148">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R148">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S148">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T148">
         <v>2.75</v>
       </c>
       <c r="U148">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V148">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W148">
         <v>-1</v>
       </c>
       <c r="X148">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y148">
         <v>-1</v>
@@ -13730,13 +13730,13 @@
         <v>-1</v>
       </c>
       <c r="AA148">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AB148">
         <v>-1</v>
       </c>
       <c r="AC148">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13744,7 +13744,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>2755798</v>
+        <v>2759543</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13756,76 +13756,76 @@
         <v>44360.31944444445</v>
       </c>
       <c r="F149" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G149" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I149">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K149">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="L149">
         <v>3.3</v>
       </c>
       <c r="M149">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="N149">
-        <v>3.7</v>
+        <v>1.8</v>
       </c>
       <c r="O149">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P149">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="Q149">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R149">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S149">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T149">
         <v>2.5</v>
       </c>
       <c r="U149">
+        <v>1.825</v>
+      </c>
+      <c r="V149">
         <v>1.975</v>
       </c>
-      <c r="V149">
-        <v>1.825</v>
-      </c>
       <c r="W149">
         <v>-1</v>
       </c>
       <c r="X149">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y149">
+        <v>-1</v>
+      </c>
+      <c r="Z149">
+        <v>-1</v>
+      </c>
+      <c r="AA149">
         <v>1</v>
       </c>
-      <c r="Z149">
-        <v>-1</v>
-      </c>
-      <c r="AA149">
-        <v>0.8</v>
-      </c>
       <c r="AB149">
+        <v>-1</v>
+      </c>
+      <c r="AC149">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC149">
-        <v>-1</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13833,7 +13833,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>2759298</v>
+        <v>2759740</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13845,13 +13845,13 @@
         <v>44360.31944444445</v>
       </c>
       <c r="F150" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G150" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H150">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I150">
         <v>0</v>
@@ -13860,43 +13860,43 @@
         <v>61</v>
       </c>
       <c r="K150">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L150">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M150">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N150">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="O150">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P150">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q150">
         <v>-0.25</v>
       </c>
       <c r="R150">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S150">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T150">
         <v>2.5</v>
       </c>
       <c r="U150">
+        <v>1.975</v>
+      </c>
+      <c r="V150">
         <v>1.825</v>
       </c>
-      <c r="V150">
-        <v>1.975</v>
-      </c>
       <c r="W150">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -13905,16 +13905,16 @@
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA150">
         <v>-1</v>
       </c>
       <c r="AB150">
+        <v>-1</v>
+      </c>
+      <c r="AC150">
         <v>0.825</v>
-      </c>
-      <c r="AC150">
-        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13922,7 +13922,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>3611527</v>
+        <v>2761522</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13934,58 +13934,58 @@
         <v>44360.31944444445</v>
       </c>
       <c r="F151" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G151" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H151">
         <v>2</v>
       </c>
       <c r="I151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J151" t="s">
         <v>61</v>
       </c>
       <c r="K151">
-        <v>2.45</v>
+        <v>1.45</v>
       </c>
       <c r="L151">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M151">
-        <v>2.55</v>
+        <v>7</v>
       </c>
       <c r="N151">
-        <v>2.625</v>
+        <v>1.45</v>
       </c>
       <c r="O151">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P151">
-        <v>2.625</v>
+        <v>7</v>
       </c>
       <c r="Q151">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R151">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S151">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T151">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U151">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V151">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W151">
-        <v>1.625</v>
+        <v>0.45</v>
       </c>
       <c r="X151">
         <v>-1</v>
@@ -13994,16 +13994,16 @@
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA151">
         <v>-1</v>
       </c>
       <c r="AB151">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC151">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -14011,7 +14011,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>2758744</v>
+        <v>3611527</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -14023,10 +14023,10 @@
         <v>44360.31944444445</v>
       </c>
       <c r="F152" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G152" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H152">
         <v>2</v>
@@ -14038,43 +14038,43 @@
         <v>61</v>
       </c>
       <c r="K152">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="L152">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M152">
-        <v>4.2</v>
+        <v>2.55</v>
       </c>
       <c r="N152">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="O152">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P152">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="Q152">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R152">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S152">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T152">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U152">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V152">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W152">
-        <v>0.8</v>
+        <v>1.625</v>
       </c>
       <c r="X152">
         <v>-1</v>
@@ -14083,13 +14083,13 @@
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA152">
         <v>-1</v>
       </c>
       <c r="AB152">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC152">
         <v>-1</v>
@@ -14100,7 +14100,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>2759740</v>
+        <v>2755807</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14112,76 +14112,76 @@
         <v>44360.31944444445</v>
       </c>
       <c r="F153" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G153" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K153">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="L153">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M153">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N153">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="O153">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P153">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q153">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R153">
         <v>2.025</v>
       </c>
       <c r="S153">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T153">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U153">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V153">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W153">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X153">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y153">
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA153">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB153">
         <v>-1</v>
       </c>
       <c r="AC153">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14189,7 +14189,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>2759543</v>
+        <v>2759298</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14201,46 +14201,46 @@
         <v>44360.31944444445</v>
       </c>
       <c r="F154" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G154" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J154" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K154">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="L154">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M154">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="N154">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="O154">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P154">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q154">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R154">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S154">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T154">
         <v>2.5</v>
@@ -14252,25 +14252,25 @@
         <v>1.975</v>
       </c>
       <c r="W154">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X154">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y154">
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA154">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB154">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC154">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14278,7 +14278,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>2758703</v>
+        <v>2758744</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14290,76 +14290,76 @@
         <v>44360.31944444445</v>
       </c>
       <c r="F155" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G155" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K155">
-        <v>1.285</v>
+        <v>1.8</v>
       </c>
       <c r="L155">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M155">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="N155">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="O155">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P155">
-        <v>10</v>
+        <v>4.2</v>
       </c>
       <c r="Q155">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R155">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S155">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T155">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U155">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V155">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W155">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X155">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y155">
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA155">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB155">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC155">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14367,7 +14367,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>2761522</v>
+        <v>2755798</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14379,76 +14379,76 @@
         <v>44360.31944444445</v>
       </c>
       <c r="F156" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G156" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J156" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K156">
-        <v>1.45</v>
+        <v>3.75</v>
       </c>
       <c r="L156">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="M156">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N156">
-        <v>1.45</v>
+        <v>3.7</v>
       </c>
       <c r="O156">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P156">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Q156">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R156">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S156">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T156">
         <v>2.5</v>
       </c>
       <c r="U156">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V156">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W156">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X156">
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z156">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA156">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB156">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC156">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -17126,7 +17126,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>3724141</v>
+        <v>3723191</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17138,10 +17138,10 @@
         <v>44425.54166666666</v>
       </c>
       <c r="F187" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G187" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -17153,34 +17153,34 @@
         <v>62</v>
       </c>
       <c r="K187">
-        <v>1.444</v>
+        <v>1.75</v>
       </c>
       <c r="L187">
+        <v>3.6</v>
+      </c>
+      <c r="M187">
         <v>4.5</v>
       </c>
-      <c r="M187">
-        <v>6.5</v>
-      </c>
       <c r="N187">
-        <v>1.333</v>
+        <v>1.909</v>
       </c>
       <c r="O187">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P187">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q187">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R187">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S187">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T187">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U187">
         <v>1.925</v>
@@ -17192,7 +17192,7 @@
         <v>-1</v>
       </c>
       <c r="X187">
-        <v>4.25</v>
+        <v>2.6</v>
       </c>
       <c r="Y187">
         <v>-1</v>
@@ -17201,13 +17201,13 @@
         <v>-1</v>
       </c>
       <c r="AA187">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB187">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC187">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17215,7 +17215,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>3723191</v>
+        <v>3724141</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17227,10 +17227,10 @@
         <v>44425.54166666666</v>
       </c>
       <c r="F188" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G188" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H188">
         <v>1</v>
@@ -17242,34 +17242,34 @@
         <v>62</v>
       </c>
       <c r="K188">
-        <v>1.75</v>
+        <v>1.444</v>
       </c>
       <c r="L188">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M188">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="N188">
-        <v>1.909</v>
+        <v>1.333</v>
       </c>
       <c r="O188">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P188">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q188">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R188">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S188">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T188">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U188">
         <v>1.925</v>
@@ -17281,7 +17281,7 @@
         <v>-1</v>
       </c>
       <c r="X188">
-        <v>2.6</v>
+        <v>4.25</v>
       </c>
       <c r="Y188">
         <v>-1</v>
@@ -17290,13 +17290,13 @@
         <v>-1</v>
       </c>
       <c r="AA188">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB188">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC188">
-        <v>0.4375</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -33591,7 +33591,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>4782190</v>
+        <v>3724248</v>
       </c>
       <c r="C372" t="s">
         <v>28</v>
@@ -33603,76 +33603,76 @@
         <v>44640.45833333334</v>
       </c>
       <c r="F372" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="G372" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H372">
         <v>0</v>
       </c>
       <c r="I372">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J372" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K372">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L372">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M372">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="N372">
-        <v>2.2</v>
+        <v>1.45</v>
       </c>
       <c r="O372">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P372">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="Q372">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R372">
+        <v>1.8</v>
+      </c>
+      <c r="S372">
+        <v>2</v>
+      </c>
+      <c r="T372">
+        <v>2.5</v>
+      </c>
+      <c r="U372">
         <v>1.95</v>
       </c>
-      <c r="S372">
+      <c r="V372">
         <v>1.85</v>
       </c>
-      <c r="T372">
-        <v>2.25</v>
-      </c>
-      <c r="U372">
-        <v>1.825</v>
-      </c>
-      <c r="V372">
-        <v>1.975</v>
-      </c>
       <c r="W372">
         <v>-1</v>
       </c>
       <c r="X372">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y372">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z372">
         <v>-1</v>
       </c>
       <c r="AA372">
+        <v>1</v>
+      </c>
+      <c r="AB372">
+        <v>-1</v>
+      </c>
+      <c r="AC372">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB372">
-        <v>0.825</v>
-      </c>
-      <c r="AC372">
-        <v>-1</v>
       </c>
     </row>
     <row r="373" spans="1:29">
@@ -33680,7 +33680,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>3724248</v>
+        <v>4782190</v>
       </c>
       <c r="C373" t="s">
         <v>28</v>
@@ -33692,76 +33692,76 @@
         <v>44640.45833333334</v>
       </c>
       <c r="F373" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="G373" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H373">
         <v>0</v>
       </c>
       <c r="I373">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J373" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K373">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L373">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M373">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="N373">
-        <v>1.45</v>
+        <v>2.2</v>
       </c>
       <c r="O373">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P373">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="Q373">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R373">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S373">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T373">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U373">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V373">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W373">
         <v>-1</v>
       </c>
       <c r="X373">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y373">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z373">
         <v>-1</v>
       </c>
       <c r="AA373">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB373">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC373">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="374" spans="1:29">
@@ -41067,7 +41067,7 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>3951941</v>
+        <v>3945948</v>
       </c>
       <c r="C456" t="s">
         <v>28</v>
@@ -41079,13 +41079,13 @@
         <v>44703.31944444445</v>
       </c>
       <c r="F456" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G456" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I456">
         <v>0</v>
@@ -41094,43 +41094,43 @@
         <v>61</v>
       </c>
       <c r="K456">
-        <v>2.25</v>
+        <v>2.875</v>
       </c>
       <c r="L456">
         <v>3.4</v>
       </c>
       <c r="M456">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="N456">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="O456">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P456">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q456">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R456">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S456">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T456">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U456">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V456">
         <v>1.975</v>
       </c>
       <c r="W456">
-        <v>1.2</v>
+        <v>1.75</v>
       </c>
       <c r="X456">
         <v>-1</v>
@@ -41139,7 +41139,7 @@
         <v>-1</v>
       </c>
       <c r="Z456">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA456">
         <v>-1</v>
@@ -41156,7 +41156,7 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>3945948</v>
+        <v>3956530</v>
       </c>
       <c r="C457" t="s">
         <v>28</v>
@@ -41168,13 +41168,13 @@
         <v>44703.31944444445</v>
       </c>
       <c r="F457" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G457" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H457">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I457">
         <v>0</v>
@@ -41183,43 +41183,43 @@
         <v>61</v>
       </c>
       <c r="K457">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="L457">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M457">
-        <v>2.25</v>
+        <v>4.75</v>
       </c>
       <c r="N457">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="O457">
         <v>3.5</v>
       </c>
       <c r="P457">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q457">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R457">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S457">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T457">
         <v>2.75</v>
       </c>
       <c r="U457">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V457">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W457">
-        <v>1.75</v>
+        <v>1.05</v>
       </c>
       <c r="X457">
         <v>-1</v>
@@ -41228,16 +41228,16 @@
         <v>-1</v>
       </c>
       <c r="Z457">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AA457">
         <v>-1</v>
       </c>
       <c r="AB457">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC457">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="458" spans="1:29">
@@ -41245,7 +41245,7 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>3956530</v>
+        <v>3953056</v>
       </c>
       <c r="C458" t="s">
         <v>28</v>
@@ -41257,55 +41257,55 @@
         <v>44703.31944444445</v>
       </c>
       <c r="F458" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G458" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="H458">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I458">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J458" t="s">
         <v>61</v>
       </c>
       <c r="K458">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="L458">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M458">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="N458">
         <v>2.05</v>
       </c>
       <c r="O458">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P458">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q458">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R458">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S458">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T458">
         <v>2.75</v>
       </c>
       <c r="U458">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V458">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W458">
         <v>1.05</v>
@@ -41317,16 +41317,16 @@
         <v>-1</v>
       </c>
       <c r="Z458">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AA458">
         <v>-1</v>
       </c>
       <c r="AB458">
-        <v>0.8999999999999999</v>
+        <v>0.425</v>
       </c>
       <c r="AC458">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="459" spans="1:29">
@@ -41334,7 +41334,7 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>3953056</v>
+        <v>3951941</v>
       </c>
       <c r="C459" t="s">
         <v>28</v>
@@ -41346,58 +41346,58 @@
         <v>44703.31944444445</v>
       </c>
       <c r="F459" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G459" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="H459">
         <v>2</v>
       </c>
       <c r="I459">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J459" t="s">
         <v>61</v>
       </c>
       <c r="K459">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="L459">
         <v>3.4</v>
       </c>
       <c r="M459">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="N459">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="O459">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P459">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q459">
         <v>-0.25</v>
       </c>
       <c r="R459">
+        <v>1.9</v>
+      </c>
+      <c r="S459">
+        <v>1.9</v>
+      </c>
+      <c r="T459">
+        <v>2.5</v>
+      </c>
+      <c r="U459">
         <v>1.825</v>
       </c>
-      <c r="S459">
+      <c r="V459">
         <v>1.975</v>
       </c>
-      <c r="T459">
-        <v>2.75</v>
-      </c>
-      <c r="U459">
-        <v>1.85</v>
-      </c>
-      <c r="V459">
-        <v>1.95</v>
-      </c>
       <c r="W459">
-        <v>1.05</v>
+        <v>1.2</v>
       </c>
       <c r="X459">
         <v>-1</v>
@@ -41406,16 +41406,16 @@
         <v>-1</v>
       </c>
       <c r="Z459">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA459">
         <v>-1</v>
       </c>
       <c r="AB459">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC459">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="460" spans="1:29">
@@ -41601,7 +41601,7 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>3945949</v>
+        <v>3956529</v>
       </c>
       <c r="C462" t="s">
         <v>28</v>
@@ -41613,76 +41613,76 @@
         <v>44703.31944444445</v>
       </c>
       <c r="F462" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G462" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462">
         <v>1</v>
       </c>
       <c r="J462" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K462">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="L462">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M462">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="N462">
-        <v>1.6</v>
+        <v>1.727</v>
       </c>
       <c r="O462">
+        <v>3.8</v>
+      </c>
+      <c r="P462">
         <v>4</v>
-      </c>
-      <c r="P462">
-        <v>5.25</v>
       </c>
       <c r="Q462">
         <v>-0.75</v>
       </c>
       <c r="R462">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S462">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T462">
         <v>2.75</v>
       </c>
       <c r="U462">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V462">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W462">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X462">
         <v>-1</v>
       </c>
       <c r="Y462">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z462">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA462">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB462">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC462">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="463" spans="1:29">
@@ -41690,7 +41690,7 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>3956529</v>
+        <v>3951940</v>
       </c>
       <c r="C463" t="s">
         <v>28</v>
@@ -41702,76 +41702,76 @@
         <v>44703.31944444445</v>
       </c>
       <c r="F463" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G463" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I463">
         <v>1</v>
       </c>
       <c r="J463" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K463">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="L463">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M463">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="N463">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="O463">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P463">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="Q463">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R463">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S463">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T463">
         <v>2.75</v>
       </c>
       <c r="U463">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V463">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W463">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X463">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y463">
         <v>-1</v>
       </c>
       <c r="Z463">
+        <v>-0.5</v>
+      </c>
+      <c r="AA463">
         <v>0.5</v>
       </c>
-      <c r="AA463">
-        <v>-0.5</v>
-      </c>
       <c r="AB463">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC463">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="464" spans="1:29">
@@ -41779,7 +41779,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>3951940</v>
+        <v>3945949</v>
       </c>
       <c r="C464" t="s">
         <v>28</v>
@@ -41791,76 +41791,76 @@
         <v>44703.31944444445</v>
       </c>
       <c r="F464" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G464" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H464">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I464">
         <v>1</v>
       </c>
       <c r="J464" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K464">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="L464">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M464">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="N464">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="O464">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P464">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="Q464">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R464">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S464">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T464">
         <v>2.75</v>
       </c>
       <c r="U464">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V464">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W464">
         <v>-1</v>
       </c>
       <c r="X464">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y464">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z464">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA464">
-        <v>0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB464">
         <v>-1</v>
       </c>
       <c r="AC464">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="465" spans="1:29">
@@ -45873,7 +45873,7 @@
         <v>508</v>
       </c>
       <c r="B510">
-        <v>5138951</v>
+        <v>5140780</v>
       </c>
       <c r="C510" t="s">
         <v>28</v>
@@ -45885,76 +45885,76 @@
         <v>44784.54166666666</v>
       </c>
       <c r="F510" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G510" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H510">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I510">
         <v>1</v>
       </c>
       <c r="J510" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K510">
-        <v>1.666</v>
+        <v>2.55</v>
       </c>
       <c r="L510">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M510">
-        <v>4.333</v>
+        <v>2.55</v>
       </c>
       <c r="N510">
-        <v>1.666</v>
+        <v>2.625</v>
       </c>
       <c r="O510">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P510">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q510">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R510">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S510">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T510">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U510">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V510">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W510">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X510">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y510">
         <v>-1</v>
       </c>
       <c r="Z510">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA510">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB510">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC510">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="511" spans="1:29">
@@ -45962,7 +45962,7 @@
         <v>509</v>
       </c>
       <c r="B511">
-        <v>5140780</v>
+        <v>5138951</v>
       </c>
       <c r="C511" t="s">
         <v>28</v>
@@ -45974,76 +45974,76 @@
         <v>44784.54166666666</v>
       </c>
       <c r="F511" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="G511" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H511">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I511">
         <v>1</v>
       </c>
       <c r="J511" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K511">
-        <v>2.55</v>
+        <v>1.666</v>
       </c>
       <c r="L511">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M511">
-        <v>2.55</v>
+        <v>4.333</v>
       </c>
       <c r="N511">
-        <v>2.625</v>
+        <v>1.666</v>
       </c>
       <c r="O511">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P511">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="Q511">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R511">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S511">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T511">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U511">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V511">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W511">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X511">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y511">
         <v>-1</v>
       </c>
       <c r="Z511">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA511">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB511">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC511">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="512" spans="1:29">
@@ -61092,7 +61092,7 @@
         <v>679</v>
       </c>
       <c r="B681">
-        <v>5139054</v>
+        <v>5139056</v>
       </c>
       <c r="C681" t="s">
         <v>28</v>
@@ -61104,76 +61104,76 @@
         <v>45004.58333333334</v>
       </c>
       <c r="F681" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G681" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H681">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I681">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J681" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K681">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="L681">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M681">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="N681">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="O681">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P681">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="Q681">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R681">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S681">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T681">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U681">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V681">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W681">
         <v>-1</v>
       </c>
       <c r="X681">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y681">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z681">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA681">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB681">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC681">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="682" spans="1:29">
@@ -61181,7 +61181,7 @@
         <v>680</v>
       </c>
       <c r="B682">
-        <v>5139056</v>
+        <v>5139054</v>
       </c>
       <c r="C682" t="s">
         <v>28</v>
@@ -61193,76 +61193,76 @@
         <v>45004.58333333334</v>
       </c>
       <c r="F682" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G682" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H682">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I682">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J682" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K682">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="L682">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M682">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="N682">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="O682">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P682">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="Q682">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R682">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S682">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T682">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U682">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V682">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W682">
         <v>-1</v>
       </c>
       <c r="X682">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y682">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z682">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA682">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB682">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC682">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="683" spans="1:29">
@@ -75955,7 +75955,7 @@
         <v>846</v>
       </c>
       <c r="B848">
-        <v>6803738</v>
+        <v>6803740</v>
       </c>
       <c r="C848" t="s">
         <v>28</v>
@@ -75967,19 +75967,19 @@
         <v>45191.54166666666</v>
       </c>
       <c r="F848" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G848" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H848">
         <v>1</v>
       </c>
       <c r="I848">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J848" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K848">
         <v>1.85</v>
@@ -75988,55 +75988,55 @@
         <v>3.5</v>
       </c>
       <c r="M848">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="N848">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="O848">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P848">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q848">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R848">
+        <v>1.975</v>
+      </c>
+      <c r="S848">
         <v>1.825</v>
       </c>
-      <c r="S848">
-        <v>1.975</v>
-      </c>
       <c r="T848">
+        <v>2.25</v>
+      </c>
+      <c r="U848">
+        <v>1.9</v>
+      </c>
+      <c r="V848">
+        <v>1.9</v>
+      </c>
+      <c r="W848">
+        <v>-1</v>
+      </c>
+      <c r="X848">
+        <v>-1</v>
+      </c>
+      <c r="Y848">
         <v>2.5</v>
       </c>
-      <c r="U848">
-        <v>1.825</v>
-      </c>
-      <c r="V848">
-        <v>1.975</v>
-      </c>
-      <c r="W848">
-        <v>-1</v>
-      </c>
-      <c r="X848">
-        <v>2.8</v>
-      </c>
-      <c r="Y848">
-        <v>-1</v>
-      </c>
       <c r="Z848">
         <v>-1</v>
       </c>
       <c r="AA848">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB848">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC848">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="849" spans="1:29">
@@ -76044,7 +76044,7 @@
         <v>847</v>
       </c>
       <c r="B849">
-        <v>6803740</v>
+        <v>6803738</v>
       </c>
       <c r="C849" t="s">
         <v>28</v>
@@ -76056,19 +76056,19 @@
         <v>45191.54166666666</v>
       </c>
       <c r="F849" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G849" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H849">
         <v>1</v>
       </c>
       <c r="I849">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J849" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K849">
         <v>1.85</v>
@@ -76077,55 +76077,55 @@
         <v>3.5</v>
       </c>
       <c r="M849">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="N849">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="O849">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P849">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q849">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R849">
+        <v>1.825</v>
+      </c>
+      <c r="S849">
         <v>1.975</v>
       </c>
-      <c r="S849">
+      <c r="T849">
+        <v>2.5</v>
+      </c>
+      <c r="U849">
         <v>1.825</v>
       </c>
-      <c r="T849">
-        <v>2.25</v>
-      </c>
-      <c r="U849">
-        <v>1.9</v>
-      </c>
       <c r="V849">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W849">
         <v>-1</v>
       </c>
       <c r="X849">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y849">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z849">
         <v>-1</v>
       </c>
       <c r="AA849">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB849">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC849">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="850" spans="1:29">
@@ -83253,7 +83253,7 @@
         <v>928</v>
       </c>
       <c r="B930">
-        <v>6803793</v>
+        <v>6803794</v>
       </c>
       <c r="C930" t="s">
         <v>28</v>
@@ -83265,76 +83265,76 @@
         <v>45270.36111111111</v>
       </c>
       <c r="F930" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="G930" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H930">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I930">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J930" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K930">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="L930">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M930">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="N930">
-        <v>2.1</v>
+        <v>1.363</v>
       </c>
       <c r="O930">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P930">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="Q930">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R930">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S930">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T930">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U930">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V930">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W930">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X930">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y930">
         <v>-1</v>
       </c>
       <c r="Z930">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA930">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB930">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC930">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="931" spans="1:29">
@@ -83342,7 +83342,7 @@
         <v>929</v>
       </c>
       <c r="B931">
-        <v>6803794</v>
+        <v>6803793</v>
       </c>
       <c r="C931" t="s">
         <v>28</v>
@@ -83354,76 +83354,76 @@
         <v>45270.36111111111</v>
       </c>
       <c r="F931" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="G931" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="H931">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I931">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J931" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K931">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="L931">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M931">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="N931">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="O931">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P931">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q931">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R931">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S931">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T931">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U931">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V931">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W931">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X931">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y931">
         <v>-1</v>
       </c>
       <c r="Z931">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA931">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB931">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC931">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="932" spans="1:29">

--- a/Poland I Liga/Poland I Liga.xlsx
+++ b/Poland I Liga/Poland I Liga.xlsx
@@ -5645,7 +5645,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>2632496</v>
+        <v>2632502</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5657,49 +5657,49 @@
         <v>44296.45833333334</v>
       </c>
       <c r="F58" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G58" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J58" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K58">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="L58">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M58">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="N58">
+        <v>2.4</v>
+      </c>
+      <c r="O58">
+        <v>3.2</v>
+      </c>
+      <c r="P58">
         <v>3</v>
       </c>
-      <c r="O58">
-        <v>2.9</v>
-      </c>
-      <c r="P58">
-        <v>2.3</v>
-      </c>
       <c r="Q58">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R58">
-        <v>1.775</v>
+        <v>1.725</v>
       </c>
       <c r="S58">
-        <v>2.025</v>
+        <v>2.075</v>
       </c>
       <c r="T58">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U58">
         <v>1.775</v>
@@ -5711,22 +5711,22 @@
         <v>-1</v>
       </c>
       <c r="X58">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z58">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
-        <v>-0.5</v>
+        <v>1.075</v>
       </c>
       <c r="AB58">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC58">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5823,7 +5823,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>2632502</v>
+        <v>2632496</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5835,49 +5835,49 @@
         <v>44296.45833333334</v>
       </c>
       <c r="F60" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G60" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60" t="s">
+        <v>62</v>
+      </c>
+      <c r="K60">
+        <v>3.5</v>
+      </c>
+      <c r="L60">
+        <v>3.25</v>
+      </c>
+      <c r="M60">
+        <v>1.95</v>
+      </c>
+      <c r="N60">
         <v>3</v>
       </c>
-      <c r="J60" t="s">
-        <v>60</v>
-      </c>
-      <c r="K60">
-        <v>2.15</v>
-      </c>
-      <c r="L60">
-        <v>3.2</v>
-      </c>
-      <c r="M60">
-        <v>3.1</v>
-      </c>
-      <c r="N60">
-        <v>2.4</v>
-      </c>
       <c r="O60">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P60">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="Q60">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R60">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="S60">
-        <v>2.075</v>
+        <v>2.025</v>
       </c>
       <c r="T60">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U60">
         <v>1.775</v>
@@ -5889,22 +5889,22 @@
         <v>-1</v>
       </c>
       <c r="X60">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y60">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA60">
-        <v>1.075</v>
+        <v>-0.5</v>
       </c>
       <c r="AB60">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC60">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5912,7 +5912,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>2632500</v>
+        <v>2632497</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5924,76 +5924,76 @@
         <v>44297.31944444445</v>
       </c>
       <c r="F61" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G61" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="s">
         <v>62</v>
       </c>
       <c r="K61">
-        <v>1.6</v>
+        <v>2.875</v>
       </c>
       <c r="L61">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M61">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="N61">
-        <v>1.727</v>
+        <v>2.9</v>
       </c>
       <c r="O61">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P61">
-        <v>4.75</v>
+        <v>2.25</v>
       </c>
       <c r="Q61">
+        <v>0.25</v>
+      </c>
+      <c r="R61">
+        <v>1.775</v>
+      </c>
+      <c r="S61">
+        <v>2.025</v>
+      </c>
+      <c r="T61">
+        <v>2.25</v>
+      </c>
+      <c r="U61">
+        <v>2</v>
+      </c>
+      <c r="V61">
+        <v>1.8</v>
+      </c>
+      <c r="W61">
+        <v>-1</v>
+      </c>
+      <c r="X61">
+        <v>2.1</v>
+      </c>
+      <c r="Y61">
+        <v>-1</v>
+      </c>
+      <c r="Z61">
+        <v>0.3875</v>
+      </c>
+      <c r="AA61">
         <v>-0.5</v>
       </c>
-      <c r="R61">
-        <v>1.8</v>
-      </c>
-      <c r="S61">
-        <v>2.05</v>
-      </c>
-      <c r="T61">
-        <v>2</v>
-      </c>
-      <c r="U61">
-        <v>1.8</v>
-      </c>
-      <c r="V61">
-        <v>2.05</v>
-      </c>
-      <c r="W61">
-        <v>-1</v>
-      </c>
-      <c r="X61">
-        <v>2.4</v>
-      </c>
-      <c r="Y61">
-        <v>-1</v>
-      </c>
-      <c r="Z61">
-        <v>-1</v>
-      </c>
-      <c r="AA61">
-        <v>1.05</v>
-      </c>
       <c r="AB61">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC61">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -6001,7 +6001,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>2632497</v>
+        <v>2632500</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -6013,76 +6013,76 @@
         <v>44297.31944444445</v>
       </c>
       <c r="F62" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G62" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
         <v>62</v>
       </c>
       <c r="K62">
-        <v>2.875</v>
+        <v>1.6</v>
       </c>
       <c r="L62">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M62">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="N62">
-        <v>2.9</v>
+        <v>1.727</v>
       </c>
       <c r="O62">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P62">
-        <v>2.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q62">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R62">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S62">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T62">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U62">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V62">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB62">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC62">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -7781,7 +7781,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>2632525</v>
+        <v>2632523</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7793,76 +7793,76 @@
         <v>44314.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G82" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K82">
-        <v>2.75</v>
+        <v>1.833</v>
       </c>
       <c r="L82">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M82">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="N82">
+        <v>1.7</v>
+      </c>
+      <c r="O82">
         <v>3.5</v>
       </c>
-      <c r="O82">
-        <v>3.2</v>
-      </c>
       <c r="P82">
-        <v>2.05</v>
+        <v>4.5</v>
       </c>
       <c r="Q82">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R82">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S82">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T82">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U82">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="V82">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W82">
+        <v>-1</v>
+      </c>
+      <c r="X82">
         <v>2.5</v>
       </c>
-      <c r="X82">
-        <v>-1</v>
-      </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB82">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC82">
-        <v>-0</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7870,7 +7870,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>2632523</v>
+        <v>2632525</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7882,76 +7882,76 @@
         <v>44314.45833333334</v>
       </c>
       <c r="F83" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G83" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H83">
+        <v>2</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83" t="s">
+        <v>61</v>
+      </c>
+      <c r="K83">
+        <v>2.75</v>
+      </c>
+      <c r="L83">
+        <v>3.2</v>
+      </c>
+      <c r="M83">
+        <v>2.4</v>
+      </c>
+      <c r="N83">
+        <v>3.5</v>
+      </c>
+      <c r="O83">
+        <v>3.2</v>
+      </c>
+      <c r="P83">
+        <v>2.05</v>
+      </c>
+      <c r="Q83">
+        <v>0.25</v>
+      </c>
+      <c r="R83">
+        <v>2</v>
+      </c>
+      <c r="S83">
+        <v>1.85</v>
+      </c>
+      <c r="T83">
+        <v>2</v>
+      </c>
+      <c r="U83">
+        <v>1.975</v>
+      </c>
+      <c r="V83">
+        <v>1.875</v>
+      </c>
+      <c r="W83">
+        <v>2.5</v>
+      </c>
+      <c r="X83">
+        <v>-1</v>
+      </c>
+      <c r="Y83">
+        <v>-1</v>
+      </c>
+      <c r="Z83">
         <v>1</v>
       </c>
-      <c r="I83">
-        <v>1</v>
-      </c>
-      <c r="J83" t="s">
-        <v>62</v>
-      </c>
-      <c r="K83">
-        <v>1.833</v>
-      </c>
-      <c r="L83">
-        <v>3.5</v>
-      </c>
-      <c r="M83">
-        <v>3.8</v>
-      </c>
-      <c r="N83">
-        <v>1.7</v>
-      </c>
-      <c r="O83">
-        <v>3.5</v>
-      </c>
-      <c r="P83">
-        <v>4.5</v>
-      </c>
-      <c r="Q83">
-        <v>-0.75</v>
-      </c>
-      <c r="R83">
-        <v>2.1</v>
-      </c>
-      <c r="S83">
-        <v>1.775</v>
-      </c>
-      <c r="T83">
-        <v>2.25</v>
-      </c>
-      <c r="U83">
-        <v>2.1</v>
-      </c>
-      <c r="V83">
-        <v>1.775</v>
-      </c>
-      <c r="W83">
-        <v>-1</v>
-      </c>
-      <c r="X83">
-        <v>2.5</v>
-      </c>
-      <c r="Y83">
-        <v>-1</v>
-      </c>
-      <c r="Z83">
-        <v>-1</v>
-      </c>
       <c r="AA83">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC83">
-        <v>0.3875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -8760,7 +8760,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>2632532</v>
+        <v>2632534</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8772,19 +8772,19 @@
         <v>44318.31944444445</v>
       </c>
       <c r="F93" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G93" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H93">
         <v>3</v>
       </c>
       <c r="I93">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K93">
         <v>2.625</v>
@@ -8796,25 +8796,25 @@
         <v>2.5</v>
       </c>
       <c r="N93">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="O93">
         <v>3.2</v>
       </c>
       <c r="P93">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q93">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R93">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S93">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T93">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U93">
         <v>1.975</v>
@@ -8823,19 +8823,19 @@
         <v>1.825</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X93">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.4125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA93">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
         <v>0.9750000000000001</v>
@@ -8849,7 +8849,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>2632534</v>
+        <v>2632532</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8861,19 +8861,19 @@
         <v>44318.31944444445</v>
       </c>
       <c r="F94" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G94" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H94">
         <v>3</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J94" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K94">
         <v>2.625</v>
@@ -8885,25 +8885,25 @@
         <v>2.5</v>
       </c>
       <c r="N94">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="O94">
         <v>3.2</v>
       </c>
       <c r="P94">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="Q94">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R94">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S94">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T94">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U94">
         <v>1.975</v>
@@ -8912,19 +8912,19 @@
         <v>1.825</v>
       </c>
       <c r="W94">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X94">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.7749999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AA94">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB94">
         <v>0.9750000000000001</v>
@@ -13655,7 +13655,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>2758703</v>
+        <v>2755807</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13667,61 +13667,61 @@
         <v>44360.31944444445</v>
       </c>
       <c r="F148" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G148" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148" t="s">
         <v>62</v>
       </c>
       <c r="K148">
-        <v>1.285</v>
+        <v>1.95</v>
       </c>
       <c r="L148">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M148">
-        <v>9</v>
+        <v>3.2</v>
       </c>
       <c r="N148">
-        <v>1.3</v>
+        <v>1.727</v>
       </c>
       <c r="O148">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P148">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="Q148">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R148">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S148">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T148">
         <v>2.75</v>
       </c>
       <c r="U148">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V148">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W148">
         <v>-1</v>
       </c>
       <c r="X148">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y148">
         <v>-1</v>
@@ -13730,13 +13730,13 @@
         <v>-1</v>
       </c>
       <c r="AA148">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AB148">
         <v>-1</v>
       </c>
       <c r="AC148">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13744,7 +13744,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>2759543</v>
+        <v>2755798</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13756,76 +13756,76 @@
         <v>44360.31944444445</v>
       </c>
       <c r="F149" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G149" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J149" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K149">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="L149">
         <v>3.3</v>
       </c>
       <c r="M149">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="N149">
+        <v>3.7</v>
+      </c>
+      <c r="O149">
+        <v>3.3</v>
+      </c>
+      <c r="P149">
+        <v>2</v>
+      </c>
+      <c r="Q149">
+        <v>0.25</v>
+      </c>
+      <c r="R149">
+        <v>2</v>
+      </c>
+      <c r="S149">
         <v>1.8</v>
-      </c>
-      <c r="O149">
-        <v>4</v>
-      </c>
-      <c r="P149">
-        <v>3.8</v>
-      </c>
-      <c r="Q149">
-        <v>-0.5</v>
-      </c>
-      <c r="R149">
-        <v>1.8</v>
-      </c>
-      <c r="S149">
-        <v>2</v>
       </c>
       <c r="T149">
         <v>2.5</v>
       </c>
       <c r="U149">
+        <v>1.975</v>
+      </c>
+      <c r="V149">
         <v>1.825</v>
       </c>
-      <c r="V149">
-        <v>1.975</v>
-      </c>
       <c r="W149">
         <v>-1</v>
       </c>
       <c r="X149">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y149">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z149">
         <v>-1</v>
       </c>
       <c r="AA149">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB149">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC149">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13833,7 +13833,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>2759740</v>
+        <v>2759298</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13845,13 +13845,13 @@
         <v>44360.31944444445</v>
       </c>
       <c r="F150" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G150" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I150">
         <v>0</v>
@@ -13860,43 +13860,43 @@
         <v>61</v>
       </c>
       <c r="K150">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L150">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M150">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N150">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="O150">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P150">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q150">
         <v>-0.25</v>
       </c>
       <c r="R150">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S150">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T150">
         <v>2.5</v>
       </c>
       <c r="U150">
+        <v>1.825</v>
+      </c>
+      <c r="V150">
         <v>1.975</v>
       </c>
-      <c r="V150">
-        <v>1.825</v>
-      </c>
       <c r="W150">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -13905,16 +13905,16 @@
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA150">
         <v>-1</v>
       </c>
       <c r="AB150">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC150">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13922,7 +13922,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>2761522</v>
+        <v>3611527</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13934,58 +13934,58 @@
         <v>44360.31944444445</v>
       </c>
       <c r="F151" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G151" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H151">
         <v>2</v>
       </c>
       <c r="I151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J151" t="s">
         <v>61</v>
       </c>
       <c r="K151">
-        <v>1.45</v>
+        <v>2.45</v>
       </c>
       <c r="L151">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M151">
-        <v>7</v>
+        <v>2.55</v>
       </c>
       <c r="N151">
-        <v>1.45</v>
+        <v>2.625</v>
       </c>
       <c r="O151">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P151">
-        <v>7</v>
+        <v>2.625</v>
       </c>
       <c r="Q151">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R151">
+        <v>1.925</v>
+      </c>
+      <c r="S151">
+        <v>1.875</v>
+      </c>
+      <c r="T151">
+        <v>2.25</v>
+      </c>
+      <c r="U151">
         <v>1.775</v>
       </c>
-      <c r="S151">
+      <c r="V151">
         <v>2.025</v>
       </c>
-      <c r="T151">
-        <v>2.5</v>
-      </c>
-      <c r="U151">
-        <v>1.9</v>
-      </c>
-      <c r="V151">
-        <v>1.9</v>
-      </c>
       <c r="W151">
-        <v>0.45</v>
+        <v>1.625</v>
       </c>
       <c r="X151">
         <v>-1</v>
@@ -13994,16 +13994,16 @@
         <v>-1</v>
       </c>
       <c r="Z151">
+        <v>0.925</v>
+      </c>
+      <c r="AA151">
+        <v>-1</v>
+      </c>
+      <c r="AB151">
         <v>0.7749999999999999</v>
       </c>
-      <c r="AA151">
-        <v>-1</v>
-      </c>
-      <c r="AB151">
-        <v>-1</v>
-      </c>
       <c r="AC151">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -14011,7 +14011,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>3611527</v>
+        <v>2758744</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -14023,10 +14023,10 @@
         <v>44360.31944444445</v>
       </c>
       <c r="F152" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G152" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H152">
         <v>2</v>
@@ -14038,43 +14038,43 @@
         <v>61</v>
       </c>
       <c r="K152">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="L152">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M152">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="N152">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="O152">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P152">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="Q152">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R152">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S152">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T152">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U152">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V152">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W152">
-        <v>1.625</v>
+        <v>0.8</v>
       </c>
       <c r="X152">
         <v>-1</v>
@@ -14083,13 +14083,13 @@
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA152">
         <v>-1</v>
       </c>
       <c r="AB152">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC152">
         <v>-1</v>
@@ -14100,7 +14100,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>2755807</v>
+        <v>2759740</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14112,76 +14112,76 @@
         <v>44360.31944444445</v>
       </c>
       <c r="F153" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G153" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K153">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="L153">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M153">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N153">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="O153">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P153">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q153">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R153">
         <v>2.025</v>
       </c>
       <c r="S153">
+        <v>1.775</v>
+      </c>
+      <c r="T153">
+        <v>2.5</v>
+      </c>
+      <c r="U153">
+        <v>1.975</v>
+      </c>
+      <c r="V153">
         <v>1.825</v>
       </c>
-      <c r="T153">
-        <v>2.75</v>
-      </c>
-      <c r="U153">
-        <v>2</v>
-      </c>
-      <c r="V153">
-        <v>1.85</v>
-      </c>
       <c r="W153">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X153">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y153">
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA153">
+        <v>-1</v>
+      </c>
+      <c r="AB153">
+        <v>-1</v>
+      </c>
+      <c r="AC153">
         <v>0.825</v>
-      </c>
-      <c r="AB153">
-        <v>-1</v>
-      </c>
-      <c r="AC153">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14189,7 +14189,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>2759298</v>
+        <v>2759543</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14201,46 +14201,46 @@
         <v>44360.31944444445</v>
       </c>
       <c r="F154" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G154" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H154">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K154">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="L154">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M154">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="N154">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O154">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P154">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q154">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R154">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S154">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T154">
         <v>2.5</v>
@@ -14252,25 +14252,25 @@
         <v>1.975</v>
       </c>
       <c r="W154">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X154">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y154">
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA154">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB154">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC154">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14278,7 +14278,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>2758744</v>
+        <v>2758703</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14290,76 +14290,76 @@
         <v>44360.31944444445</v>
       </c>
       <c r="F155" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G155" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J155" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K155">
-        <v>1.8</v>
+        <v>1.285</v>
       </c>
       <c r="L155">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M155">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="N155">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="O155">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P155">
-        <v>4.2</v>
+        <v>10</v>
       </c>
       <c r="Q155">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R155">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S155">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T155">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U155">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V155">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W155">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X155">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y155">
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA155">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB155">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC155">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14367,7 +14367,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>2755798</v>
+        <v>2761522</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14379,76 +14379,76 @@
         <v>44360.31944444445</v>
       </c>
       <c r="F156" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G156" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H156">
+        <v>2</v>
+      </c>
+      <c r="I156">
         <v>0</v>
       </c>
-      <c r="I156">
-        <v>3</v>
-      </c>
       <c r="J156" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K156">
-        <v>3.75</v>
+        <v>1.45</v>
       </c>
       <c r="L156">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="M156">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N156">
-        <v>3.7</v>
+        <v>1.45</v>
       </c>
       <c r="O156">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P156">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q156">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R156">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S156">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T156">
         <v>2.5</v>
       </c>
       <c r="U156">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V156">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W156">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X156">
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z156">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA156">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB156">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC156">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -17126,7 +17126,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>3723191</v>
+        <v>3724141</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17138,10 +17138,10 @@
         <v>44425.54166666666</v>
       </c>
       <c r="F187" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G187" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -17153,34 +17153,34 @@
         <v>62</v>
       </c>
       <c r="K187">
-        <v>1.75</v>
+        <v>1.444</v>
       </c>
       <c r="L187">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M187">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="N187">
-        <v>1.909</v>
+        <v>1.333</v>
       </c>
       <c r="O187">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P187">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q187">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R187">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S187">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T187">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U187">
         <v>1.925</v>
@@ -17192,7 +17192,7 @@
         <v>-1</v>
       </c>
       <c r="X187">
-        <v>2.6</v>
+        <v>4.25</v>
       </c>
       <c r="Y187">
         <v>-1</v>
@@ -17201,13 +17201,13 @@
         <v>-1</v>
       </c>
       <c r="AA187">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB187">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC187">
-        <v>0.4375</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17215,7 +17215,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>3724141</v>
+        <v>3723191</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17227,10 +17227,10 @@
         <v>44425.54166666666</v>
       </c>
       <c r="F188" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G188" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H188">
         <v>1</v>
@@ -17242,34 +17242,34 @@
         <v>62</v>
       </c>
       <c r="K188">
-        <v>1.444</v>
+        <v>1.75</v>
       </c>
       <c r="L188">
+        <v>3.6</v>
+      </c>
+      <c r="M188">
         <v>4.5</v>
       </c>
-      <c r="M188">
-        <v>6.5</v>
-      </c>
       <c r="N188">
-        <v>1.333</v>
+        <v>1.909</v>
       </c>
       <c r="O188">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P188">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q188">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R188">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S188">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T188">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U188">
         <v>1.925</v>
@@ -17281,7 +17281,7 @@
         <v>-1</v>
       </c>
       <c r="X188">
-        <v>4.25</v>
+        <v>2.6</v>
       </c>
       <c r="Y188">
         <v>-1</v>
@@ -17290,13 +17290,13 @@
         <v>-1</v>
       </c>
       <c r="AA188">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB188">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC188">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -33591,7 +33591,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>3724248</v>
+        <v>4782190</v>
       </c>
       <c r="C372" t="s">
         <v>28</v>
@@ -33603,76 +33603,76 @@
         <v>44640.45833333334</v>
       </c>
       <c r="F372" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="G372" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H372">
         <v>0</v>
       </c>
       <c r="I372">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J372" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K372">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L372">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M372">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="N372">
-        <v>1.45</v>
+        <v>2.2</v>
       </c>
       <c r="O372">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P372">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="Q372">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R372">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S372">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T372">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U372">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V372">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W372">
         <v>-1</v>
       </c>
       <c r="X372">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y372">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z372">
         <v>-1</v>
       </c>
       <c r="AA372">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB372">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC372">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="373" spans="1:29">
@@ -33680,7 +33680,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>4782190</v>
+        <v>3724248</v>
       </c>
       <c r="C373" t="s">
         <v>28</v>
@@ -33692,76 +33692,76 @@
         <v>44640.45833333334</v>
       </c>
       <c r="F373" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="G373" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H373">
         <v>0</v>
       </c>
       <c r="I373">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J373" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K373">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L373">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M373">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="N373">
-        <v>2.2</v>
+        <v>1.45</v>
       </c>
       <c r="O373">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P373">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="Q373">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R373">
+        <v>1.8</v>
+      </c>
+      <c r="S373">
+        <v>2</v>
+      </c>
+      <c r="T373">
+        <v>2.5</v>
+      </c>
+      <c r="U373">
         <v>1.95</v>
       </c>
-      <c r="S373">
+      <c r="V373">
         <v>1.85</v>
       </c>
-      <c r="T373">
-        <v>2.25</v>
-      </c>
-      <c r="U373">
-        <v>1.825</v>
-      </c>
-      <c r="V373">
-        <v>1.975</v>
-      </c>
       <c r="W373">
         <v>-1</v>
       </c>
       <c r="X373">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y373">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z373">
         <v>-1</v>
       </c>
       <c r="AA373">
+        <v>1</v>
+      </c>
+      <c r="AB373">
+        <v>-1</v>
+      </c>
+      <c r="AC373">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB373">
-        <v>0.825</v>
-      </c>
-      <c r="AC373">
-        <v>-1</v>
       </c>
     </row>
     <row r="374" spans="1:29">
@@ -41067,7 +41067,7 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>3945948</v>
+        <v>3951941</v>
       </c>
       <c r="C456" t="s">
         <v>28</v>
@@ -41079,13 +41079,13 @@
         <v>44703.31944444445</v>
       </c>
       <c r="F456" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G456" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H456">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I456">
         <v>0</v>
@@ -41094,43 +41094,43 @@
         <v>61</v>
       </c>
       <c r="K456">
-        <v>2.875</v>
+        <v>2.25</v>
       </c>
       <c r="L456">
         <v>3.4</v>
       </c>
       <c r="M456">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="N456">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="O456">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P456">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q456">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R456">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S456">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T456">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U456">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V456">
         <v>1.975</v>
       </c>
       <c r="W456">
-        <v>1.75</v>
+        <v>1.2</v>
       </c>
       <c r="X456">
         <v>-1</v>
@@ -41139,7 +41139,7 @@
         <v>-1</v>
       </c>
       <c r="Z456">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA456">
         <v>-1</v>
@@ -41156,7 +41156,7 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>3956530</v>
+        <v>3945948</v>
       </c>
       <c r="C457" t="s">
         <v>28</v>
@@ -41168,13 +41168,13 @@
         <v>44703.31944444445</v>
       </c>
       <c r="F457" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G457" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H457">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I457">
         <v>0</v>
@@ -41183,43 +41183,43 @@
         <v>61</v>
       </c>
       <c r="K457">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="L457">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M457">
-        <v>4.75</v>
+        <v>2.25</v>
       </c>
       <c r="N457">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="O457">
         <v>3.5</v>
       </c>
       <c r="P457">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q457">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R457">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S457">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T457">
         <v>2.75</v>
       </c>
       <c r="U457">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V457">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W457">
-        <v>1.05</v>
+        <v>1.75</v>
       </c>
       <c r="X457">
         <v>-1</v>
@@ -41228,16 +41228,16 @@
         <v>-1</v>
       </c>
       <c r="Z457">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AA457">
         <v>-1</v>
       </c>
       <c r="AB457">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC457">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="458" spans="1:29">
@@ -41245,7 +41245,7 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>3953056</v>
+        <v>3956530</v>
       </c>
       <c r="C458" t="s">
         <v>28</v>
@@ -41257,55 +41257,55 @@
         <v>44703.31944444445</v>
       </c>
       <c r="F458" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G458" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I458">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J458" t="s">
         <v>61</v>
       </c>
       <c r="K458">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="L458">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M458">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="N458">
         <v>2.05</v>
       </c>
       <c r="O458">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P458">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q458">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R458">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S458">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T458">
         <v>2.75</v>
       </c>
       <c r="U458">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V458">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W458">
         <v>1.05</v>
@@ -41317,16 +41317,16 @@
         <v>-1</v>
       </c>
       <c r="Z458">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AA458">
         <v>-1</v>
       </c>
       <c r="AB458">
-        <v>0.425</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC458">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="459" spans="1:29">
@@ -41334,7 +41334,7 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>3951941</v>
+        <v>3953056</v>
       </c>
       <c r="C459" t="s">
         <v>28</v>
@@ -41346,58 +41346,58 @@
         <v>44703.31944444445</v>
       </c>
       <c r="F459" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G459" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="H459">
         <v>2</v>
       </c>
       <c r="I459">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J459" t="s">
         <v>61</v>
       </c>
       <c r="K459">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L459">
         <v>3.4</v>
       </c>
       <c r="M459">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="N459">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O459">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P459">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q459">
         <v>-0.25</v>
       </c>
       <c r="R459">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S459">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T459">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U459">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V459">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W459">
-        <v>1.2</v>
+        <v>1.05</v>
       </c>
       <c r="X459">
         <v>-1</v>
@@ -41406,16 +41406,16 @@
         <v>-1</v>
       </c>
       <c r="Z459">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA459">
         <v>-1</v>
       </c>
       <c r="AB459">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC459">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="460" spans="1:29">
@@ -41601,7 +41601,7 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>3956529</v>
+        <v>3945949</v>
       </c>
       <c r="C462" t="s">
         <v>28</v>
@@ -41613,76 +41613,76 @@
         <v>44703.31944444445</v>
       </c>
       <c r="F462" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G462" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462">
         <v>1</v>
       </c>
       <c r="J462" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K462">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="L462">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M462">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="N462">
-        <v>1.727</v>
+        <v>1.6</v>
       </c>
       <c r="O462">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P462">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="Q462">
         <v>-0.75</v>
       </c>
       <c r="R462">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S462">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T462">
         <v>2.75</v>
       </c>
       <c r="U462">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V462">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W462">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X462">
         <v>-1</v>
       </c>
       <c r="Y462">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z462">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA462">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB462">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC462">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="463" spans="1:29">
@@ -41690,7 +41690,7 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>3951940</v>
+        <v>3956529</v>
       </c>
       <c r="C463" t="s">
         <v>28</v>
@@ -41702,76 +41702,76 @@
         <v>44703.31944444445</v>
       </c>
       <c r="F463" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G463" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H463">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I463">
         <v>1</v>
       </c>
       <c r="J463" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K463">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="L463">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M463">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="N463">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="O463">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P463">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Q463">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R463">
+        <v>2</v>
+      </c>
+      <c r="S463">
         <v>1.8</v>
-      </c>
-      <c r="S463">
-        <v>2</v>
       </c>
       <c r="T463">
         <v>2.75</v>
       </c>
       <c r="U463">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V463">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W463">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X463">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y463">
         <v>-1</v>
       </c>
       <c r="Z463">
+        <v>0.5</v>
+      </c>
+      <c r="AA463">
         <v>-0.5</v>
       </c>
-      <c r="AA463">
-        <v>0.5</v>
-      </c>
       <c r="AB463">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC463">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="464" spans="1:29">
@@ -41779,7 +41779,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>3945949</v>
+        <v>3951940</v>
       </c>
       <c r="C464" t="s">
         <v>28</v>
@@ -41791,76 +41791,76 @@
         <v>44703.31944444445</v>
       </c>
       <c r="F464" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G464" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I464">
         <v>1</v>
       </c>
       <c r="J464" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K464">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="L464">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M464">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="N464">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="O464">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P464">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q464">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R464">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S464">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T464">
         <v>2.75</v>
       </c>
       <c r="U464">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V464">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W464">
         <v>-1</v>
       </c>
       <c r="X464">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y464">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z464">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA464">
-        <v>1.025</v>
+        <v>0.5</v>
       </c>
       <c r="AB464">
         <v>-1</v>
       </c>
       <c r="AC464">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="465" spans="1:29">
@@ -45873,7 +45873,7 @@
         <v>508</v>
       </c>
       <c r="B510">
-        <v>5140780</v>
+        <v>5138951</v>
       </c>
       <c r="C510" t="s">
         <v>28</v>
@@ -45885,76 +45885,76 @@
         <v>44784.54166666666</v>
       </c>
       <c r="F510" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="G510" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H510">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I510">
         <v>1</v>
       </c>
       <c r="J510" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K510">
-        <v>2.55</v>
+        <v>1.666</v>
       </c>
       <c r="L510">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M510">
-        <v>2.55</v>
+        <v>4.333</v>
       </c>
       <c r="N510">
-        <v>2.625</v>
+        <v>1.666</v>
       </c>
       <c r="O510">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P510">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="Q510">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R510">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S510">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T510">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U510">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V510">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W510">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X510">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y510">
         <v>-1</v>
       </c>
       <c r="Z510">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA510">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB510">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC510">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="511" spans="1:29">
@@ -45962,7 +45962,7 @@
         <v>509</v>
       </c>
       <c r="B511">
-        <v>5138951</v>
+        <v>5140780</v>
       </c>
       <c r="C511" t="s">
         <v>28</v>
@@ -45974,76 +45974,76 @@
         <v>44784.54166666666</v>
       </c>
       <c r="F511" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G511" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H511">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I511">
         <v>1</v>
       </c>
       <c r="J511" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K511">
-        <v>1.666</v>
+        <v>2.55</v>
       </c>
       <c r="L511">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M511">
-        <v>4.333</v>
+        <v>2.55</v>
       </c>
       <c r="N511">
-        <v>1.666</v>
+        <v>2.625</v>
       </c>
       <c r="O511">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P511">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q511">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R511">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S511">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T511">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U511">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V511">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W511">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X511">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y511">
         <v>-1</v>
       </c>
       <c r="Z511">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA511">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB511">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC511">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="512" spans="1:29">
@@ -61092,7 +61092,7 @@
         <v>679</v>
       </c>
       <c r="B681">
-        <v>5139056</v>
+        <v>5139054</v>
       </c>
       <c r="C681" t="s">
         <v>28</v>
@@ -61104,76 +61104,76 @@
         <v>45004.58333333334</v>
       </c>
       <c r="F681" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G681" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H681">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I681">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J681" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K681">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="L681">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M681">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="N681">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="O681">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P681">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="Q681">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R681">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S681">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T681">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U681">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V681">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W681">
         <v>-1</v>
       </c>
       <c r="X681">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y681">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z681">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA681">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB681">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC681">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="682" spans="1:29">
@@ -61181,7 +61181,7 @@
         <v>680</v>
       </c>
       <c r="B682">
-        <v>5139054</v>
+        <v>5139056</v>
       </c>
       <c r="C682" t="s">
         <v>28</v>
@@ -61193,76 +61193,76 @@
         <v>45004.58333333334</v>
       </c>
       <c r="F682" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G682" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H682">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I682">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J682" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K682">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="L682">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M682">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="N682">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="O682">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P682">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="Q682">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R682">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S682">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T682">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U682">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V682">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W682">
         <v>-1</v>
       </c>
       <c r="X682">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y682">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z682">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA682">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB682">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC682">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="683" spans="1:29">
@@ -75955,7 +75955,7 @@
         <v>846</v>
       </c>
       <c r="B848">
-        <v>6803740</v>
+        <v>6803738</v>
       </c>
       <c r="C848" t="s">
         <v>28</v>
@@ -75967,19 +75967,19 @@
         <v>45191.54166666666</v>
       </c>
       <c r="F848" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G848" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H848">
         <v>1</v>
       </c>
       <c r="I848">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J848" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K848">
         <v>1.85</v>
@@ -75988,55 +75988,55 @@
         <v>3.5</v>
       </c>
       <c r="M848">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="N848">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="O848">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P848">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q848">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R848">
+        <v>1.825</v>
+      </c>
+      <c r="S848">
         <v>1.975</v>
       </c>
-      <c r="S848">
+      <c r="T848">
+        <v>2.5</v>
+      </c>
+      <c r="U848">
         <v>1.825</v>
       </c>
-      <c r="T848">
-        <v>2.25</v>
-      </c>
-      <c r="U848">
-        <v>1.9</v>
-      </c>
       <c r="V848">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W848">
         <v>-1</v>
       </c>
       <c r="X848">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y848">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z848">
         <v>-1</v>
       </c>
       <c r="AA848">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB848">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC848">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="849" spans="1:29">
@@ -76044,7 +76044,7 @@
         <v>847</v>
       </c>
       <c r="B849">
-        <v>6803738</v>
+        <v>6803740</v>
       </c>
       <c r="C849" t="s">
         <v>28</v>
@@ -76056,19 +76056,19 @@
         <v>45191.54166666666</v>
       </c>
       <c r="F849" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G849" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H849">
         <v>1</v>
       </c>
       <c r="I849">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J849" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K849">
         <v>1.85</v>
@@ -76077,55 +76077,55 @@
         <v>3.5</v>
       </c>
       <c r="M849">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="N849">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="O849">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P849">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q849">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R849">
+        <v>1.975</v>
+      </c>
+      <c r="S849">
         <v>1.825</v>
       </c>
-      <c r="S849">
-        <v>1.975</v>
-      </c>
       <c r="T849">
+        <v>2.25</v>
+      </c>
+      <c r="U849">
+        <v>1.9</v>
+      </c>
+      <c r="V849">
+        <v>1.9</v>
+      </c>
+      <c r="W849">
+        <v>-1</v>
+      </c>
+      <c r="X849">
+        <v>-1</v>
+      </c>
+      <c r="Y849">
         <v>2.5</v>
       </c>
-      <c r="U849">
-        <v>1.825</v>
-      </c>
-      <c r="V849">
-        <v>1.975</v>
-      </c>
-      <c r="W849">
-        <v>-1</v>
-      </c>
-      <c r="X849">
-        <v>2.8</v>
-      </c>
-      <c r="Y849">
-        <v>-1</v>
-      </c>
       <c r="Z849">
         <v>-1</v>
       </c>
       <c r="AA849">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB849">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC849">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="850" spans="1:29">
@@ -83253,7 +83253,7 @@
         <v>928</v>
       </c>
       <c r="B930">
-        <v>6803794</v>
+        <v>6803793</v>
       </c>
       <c r="C930" t="s">
         <v>28</v>
@@ -83265,76 +83265,76 @@
         <v>45270.36111111111</v>
       </c>
       <c r="F930" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="G930" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="H930">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I930">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J930" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K930">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="L930">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M930">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="N930">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="O930">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P930">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q930">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R930">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S930">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T930">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U930">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V930">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W930">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X930">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y930">
         <v>-1</v>
       </c>
       <c r="Z930">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA930">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB930">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC930">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="931" spans="1:29">
@@ -83342,7 +83342,7 @@
         <v>929</v>
       </c>
       <c r="B931">
-        <v>6803793</v>
+        <v>6803794</v>
       </c>
       <c r="C931" t="s">
         <v>28</v>
@@ -83354,76 +83354,76 @@
         <v>45270.36111111111</v>
       </c>
       <c r="F931" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="G931" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H931">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I931">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J931" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K931">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="L931">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M931">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="N931">
-        <v>2.1</v>
+        <v>1.363</v>
       </c>
       <c r="O931">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P931">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="Q931">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R931">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S931">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T931">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U931">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V931">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W931">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X931">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y931">
         <v>-1</v>
       </c>
       <c r="Z931">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA931">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB931">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC931">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="932" spans="1:29">

--- a/Poland I Liga/Poland I Liga.xlsx
+++ b/Poland I Liga/Poland I Liga.xlsx
@@ -60914,7 +60914,7 @@
         <v>677</v>
       </c>
       <c r="B679">
-        <v>5139054</v>
+        <v>5139053</v>
       </c>
       <c r="C679" t="s">
         <v>28</v>
@@ -60926,76 +60926,76 @@
         <v>45004.58333333334</v>
       </c>
       <c r="F679" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G679" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H679">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I679">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J679" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K679">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="L679">
         <v>3.2</v>
       </c>
       <c r="M679">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="N679">
+        <v>2.7</v>
+      </c>
+      <c r="O679">
+        <v>3.2</v>
+      </c>
+      <c r="P679">
         <v>2.375</v>
       </c>
-      <c r="O679">
-        <v>3</v>
-      </c>
-      <c r="P679">
-        <v>3</v>
-      </c>
       <c r="Q679">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R679">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S679">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="T679">
         <v>2.25</v>
       </c>
       <c r="U679">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V679">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W679">
         <v>-1</v>
       </c>
       <c r="X679">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y679">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z679">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA679">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB679">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC679">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="680" spans="1:29">
@@ -61003,7 +61003,7 @@
         <v>678</v>
       </c>
       <c r="B680">
-        <v>5139053</v>
+        <v>5140743</v>
       </c>
       <c r="C680" t="s">
         <v>28</v>
@@ -61015,76 +61015,76 @@
         <v>45004.58333333334</v>
       </c>
       <c r="F680" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G680" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I680">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J680" t="s">
         <v>62</v>
       </c>
       <c r="K680">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="L680">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M680">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="N680">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="O680">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P680">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="Q680">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R680">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S680">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T680">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U680">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V680">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W680">
         <v>-1</v>
       </c>
       <c r="X680">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Y680">
         <v>-1</v>
       </c>
       <c r="Z680">
-        <v>0</v>
+        <v>0.4125</v>
       </c>
       <c r="AA680">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB680">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC680">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="681" spans="1:29">
@@ -61181,7 +61181,7 @@
         <v>680</v>
       </c>
       <c r="B682">
-        <v>5140743</v>
+        <v>5139054</v>
       </c>
       <c r="C682" t="s">
         <v>28</v>
@@ -61193,73 +61193,73 @@
         <v>45004.58333333334</v>
       </c>
       <c r="F682" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G682" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H682">
         <v>2</v>
       </c>
       <c r="I682">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J682" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K682">
+        <v>2.15</v>
+      </c>
+      <c r="L682">
+        <v>3.2</v>
+      </c>
+      <c r="M682">
+        <v>3.1</v>
+      </c>
+      <c r="N682">
+        <v>2.375</v>
+      </c>
+      <c r="O682">
         <v>3</v>
       </c>
-      <c r="L682">
-        <v>3.3</v>
-      </c>
-      <c r="M682">
-        <v>2.2</v>
-      </c>
-      <c r="N682">
-        <v>2.9</v>
-      </c>
-      <c r="O682">
-        <v>3.3</v>
-      </c>
       <c r="P682">
+        <v>3</v>
+      </c>
+      <c r="Q682">
+        <v>-0.25</v>
+      </c>
+      <c r="R682">
+        <v>2.025</v>
+      </c>
+      <c r="S682">
+        <v>1.775</v>
+      </c>
+      <c r="T682">
         <v>2.25</v>
       </c>
-      <c r="Q682">
-        <v>0.25</v>
-      </c>
-      <c r="R682">
+      <c r="U682">
+        <v>1.975</v>
+      </c>
+      <c r="V682">
         <v>1.825</v>
       </c>
-      <c r="S682">
-        <v>1.975</v>
-      </c>
-      <c r="T682">
-        <v>2.5</v>
-      </c>
-      <c r="U682">
-        <v>1.95</v>
-      </c>
-      <c r="V682">
-        <v>1.85</v>
-      </c>
       <c r="W682">
         <v>-1</v>
       </c>
       <c r="X682">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y682">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z682">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA682">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB682">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC682">
         <v>-1</v>
@@ -62071,7 +62071,7 @@
         <v>690</v>
       </c>
       <c r="B692">
-        <v>5138224</v>
+        <v>5139063</v>
       </c>
       <c r="C692" t="s">
         <v>28</v>
@@ -62083,10 +62083,10 @@
         <v>45022.54166666666</v>
       </c>
       <c r="F692" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G692" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H692">
         <v>0</v>
@@ -62098,61 +62098,61 @@
         <v>62</v>
       </c>
       <c r="K692">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="L692">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M692">
+        <v>2.875</v>
+      </c>
+      <c r="N692">
+        <v>2.7</v>
+      </c>
+      <c r="O692">
+        <v>3.1</v>
+      </c>
+      <c r="P692">
+        <v>2.375</v>
+      </c>
+      <c r="Q692">
+        <v>0</v>
+      </c>
+      <c r="R692">
+        <v>2.05</v>
+      </c>
+      <c r="S692">
         <v>1.75</v>
       </c>
-      <c r="N692">
-        <v>4</v>
-      </c>
-      <c r="O692">
-        <v>3.4</v>
-      </c>
-      <c r="P692">
-        <v>1.8</v>
-      </c>
-      <c r="Q692">
-        <v>0.5</v>
-      </c>
-      <c r="R692">
-        <v>1.975</v>
-      </c>
-      <c r="S692">
-        <v>1.825</v>
-      </c>
       <c r="T692">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U692">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V692">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W692">
         <v>-1</v>
       </c>
       <c r="X692">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="Y692">
         <v>-1</v>
       </c>
       <c r="Z692">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA692">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB692">
         <v>-1</v>
       </c>
       <c r="AC692">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="693" spans="1:29">
@@ -62160,7 +62160,7 @@
         <v>691</v>
       </c>
       <c r="B693">
-        <v>5139063</v>
+        <v>5138224</v>
       </c>
       <c r="C693" t="s">
         <v>28</v>
@@ -62172,10 +62172,10 @@
         <v>45022.54166666666</v>
       </c>
       <c r="F693" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G693" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H693">
         <v>0</v>
@@ -62187,61 +62187,61 @@
         <v>62</v>
       </c>
       <c r="K693">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="L693">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M693">
-        <v>2.875</v>
+        <v>1.75</v>
       </c>
       <c r="N693">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="O693">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P693">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="Q693">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R693">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S693">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T693">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U693">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V693">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W693">
         <v>-1</v>
       </c>
       <c r="X693">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="Y693">
         <v>-1</v>
       </c>
       <c r="Z693">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA693">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB693">
         <v>-1</v>
       </c>
       <c r="AC693">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="694" spans="1:29">
@@ -78180,7 +78180,7 @@
         <v>871</v>
       </c>
       <c r="B873">
-        <v>6803754</v>
+        <v>6805706</v>
       </c>
       <c r="C873" t="s">
         <v>28</v>
@@ -78192,76 +78192,76 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F873" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G873" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="H873">
         <v>0</v>
       </c>
       <c r="I873">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J873" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K873">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L873">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M873">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="N873">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="O873">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P873">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="Q873">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R873">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S873">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T873">
         <v>2.5</v>
       </c>
       <c r="U873">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V873">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W873">
         <v>-1</v>
       </c>
       <c r="X873">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y873">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z873">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA873">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB873">
         <v>-1</v>
       </c>
       <c r="AC873">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="874" spans="1:29">
@@ -78269,7 +78269,7 @@
         <v>872</v>
       </c>
       <c r="B874">
-        <v>6805706</v>
+        <v>6803754</v>
       </c>
       <c r="C874" t="s">
         <v>28</v>
@@ -78281,76 +78281,76 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F874" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G874" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="H874">
         <v>0</v>
       </c>
       <c r="I874">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J874" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K874">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L874">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M874">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="N874">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="O874">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P874">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="Q874">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R874">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S874">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T874">
         <v>2.5</v>
       </c>
       <c r="U874">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V874">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W874">
         <v>-1</v>
       </c>
       <c r="X874">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y874">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z874">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA874">
+        <v>-0</v>
+      </c>
+      <c r="AB874">
+        <v>-1</v>
+      </c>
+      <c r="AC874">
         <v>0.95</v>
-      </c>
-      <c r="AB874">
-        <v>-1</v>
-      </c>
-      <c r="AC874">
-        <v>1</v>
       </c>
     </row>
     <row r="875" spans="1:29">

--- a/Poland I Liga/Poland I Liga.xlsx
+++ b/Poland I Liga/Poland I Liga.xlsx
@@ -60914,7 +60914,7 @@
         <v>677</v>
       </c>
       <c r="B679">
-        <v>5139053</v>
+        <v>5139054</v>
       </c>
       <c r="C679" t="s">
         <v>28</v>
@@ -60926,76 +60926,76 @@
         <v>45004.58333333334</v>
       </c>
       <c r="F679" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G679" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H679">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I679">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J679" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K679">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="L679">
         <v>3.2</v>
       </c>
       <c r="M679">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="N679">
-        <v>2.7</v>
+        <v>2.375</v>
       </c>
       <c r="O679">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P679">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="Q679">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R679">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S679">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="T679">
         <v>2.25</v>
       </c>
       <c r="U679">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V679">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W679">
         <v>-1</v>
       </c>
       <c r="X679">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y679">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z679">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA679">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB679">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC679">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="680" spans="1:29">
@@ -61003,7 +61003,7 @@
         <v>678</v>
       </c>
       <c r="B680">
-        <v>5140743</v>
+        <v>5139053</v>
       </c>
       <c r="C680" t="s">
         <v>28</v>
@@ -61015,76 +61015,76 @@
         <v>45004.58333333334</v>
       </c>
       <c r="F680" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G680" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H680">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I680">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J680" t="s">
         <v>62</v>
       </c>
       <c r="K680">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="L680">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M680">
+        <v>2.55</v>
+      </c>
+      <c r="N680">
+        <v>2.7</v>
+      </c>
+      <c r="O680">
+        <v>3.2</v>
+      </c>
+      <c r="P680">
+        <v>2.375</v>
+      </c>
+      <c r="Q680">
+        <v>0</v>
+      </c>
+      <c r="R680">
+        <v>2.05</v>
+      </c>
+      <c r="S680">
+        <v>1.75</v>
+      </c>
+      <c r="T680">
+        <v>2.25</v>
+      </c>
+      <c r="U680">
+        <v>1.875</v>
+      </c>
+      <c r="V680">
+        <v>1.925</v>
+      </c>
+      <c r="W680">
+        <v>-1</v>
+      </c>
+      <c r="X680">
         <v>2.2</v>
       </c>
-      <c r="N680">
-        <v>2.9</v>
-      </c>
-      <c r="O680">
-        <v>3.3</v>
-      </c>
-      <c r="P680">
-        <v>2.25</v>
-      </c>
-      <c r="Q680">
-        <v>0.25</v>
-      </c>
-      <c r="R680">
-        <v>1.825</v>
-      </c>
-      <c r="S680">
-        <v>1.975</v>
-      </c>
-      <c r="T680">
-        <v>2.5</v>
-      </c>
-      <c r="U680">
-        <v>1.95</v>
-      </c>
-      <c r="V680">
-        <v>1.85</v>
-      </c>
-      <c r="W680">
-        <v>-1</v>
-      </c>
-      <c r="X680">
-        <v>2.3</v>
-      </c>
       <c r="Y680">
         <v>-1</v>
       </c>
       <c r="Z680">
-        <v>0.4125</v>
+        <v>0</v>
       </c>
       <c r="AA680">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB680">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC680">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="681" spans="1:29">
@@ -61181,7 +61181,7 @@
         <v>680</v>
       </c>
       <c r="B682">
-        <v>5139054</v>
+        <v>5140743</v>
       </c>
       <c r="C682" t="s">
         <v>28</v>
@@ -61193,73 +61193,73 @@
         <v>45004.58333333334</v>
       </c>
       <c r="F682" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="G682" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H682">
         <v>2</v>
       </c>
       <c r="I682">
+        <v>2</v>
+      </c>
+      <c r="J682" t="s">
+        <v>62</v>
+      </c>
+      <c r="K682">
         <v>3</v>
       </c>
-      <c r="J682" t="s">
-        <v>60</v>
-      </c>
-      <c r="K682">
-        <v>2.15</v>
-      </c>
       <c r="L682">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M682">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="N682">
-        <v>2.375</v>
+        <v>2.9</v>
       </c>
       <c r="O682">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P682">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Q682">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R682">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S682">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T682">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U682">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V682">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W682">
         <v>-1</v>
       </c>
       <c r="X682">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y682">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z682">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA682">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB682">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC682">
         <v>-1</v>
@@ -78180,7 +78180,7 @@
         <v>871</v>
       </c>
       <c r="B873">
-        <v>6805706</v>
+        <v>6803754</v>
       </c>
       <c r="C873" t="s">
         <v>28</v>
@@ -78192,76 +78192,76 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F873" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G873" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="H873">
         <v>0</v>
       </c>
       <c r="I873">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J873" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K873">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L873">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M873">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="N873">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="O873">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P873">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="Q873">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R873">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S873">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T873">
         <v>2.5</v>
       </c>
       <c r="U873">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V873">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W873">
         <v>-1</v>
       </c>
       <c r="X873">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y873">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z873">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA873">
+        <v>-0</v>
+      </c>
+      <c r="AB873">
+        <v>-1</v>
+      </c>
+      <c r="AC873">
         <v>0.95</v>
-      </c>
-      <c r="AB873">
-        <v>-1</v>
-      </c>
-      <c r="AC873">
-        <v>1</v>
       </c>
     </row>
     <row r="874" spans="1:29">
@@ -78269,7 +78269,7 @@
         <v>872</v>
       </c>
       <c r="B874">
-        <v>6803754</v>
+        <v>6805706</v>
       </c>
       <c r="C874" t="s">
         <v>28</v>
@@ -78281,76 +78281,76 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F874" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G874" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="H874">
         <v>0</v>
       </c>
       <c r="I874">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J874" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K874">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L874">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M874">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="N874">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="O874">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P874">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="Q874">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R874">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S874">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T874">
         <v>2.5</v>
       </c>
       <c r="U874">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V874">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W874">
         <v>-1</v>
       </c>
       <c r="X874">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y874">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z874">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA874">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB874">
         <v>-1</v>
       </c>
       <c r="AC874">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="875" spans="1:29">

--- a/Poland I Liga/Poland I Liga.xlsx
+++ b/Poland I Liga/Poland I Liga.xlsx
@@ -45606,7 +45606,7 @@
         <v>505</v>
       </c>
       <c r="B507">
-        <v>5138952</v>
+        <v>5138953</v>
       </c>
       <c r="C507" t="s">
         <v>28</v>
@@ -45618,76 +45618,76 @@
         <v>44783.54166666666</v>
       </c>
       <c r="F507" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G507" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H507">
+        <v>1</v>
+      </c>
+      <c r="I507">
         <v>0</v>
       </c>
-      <c r="I507">
+      <c r="J507" t="s">
+        <v>61</v>
+      </c>
+      <c r="K507">
+        <v>2.3</v>
+      </c>
+      <c r="L507">
+        <v>3.3</v>
+      </c>
+      <c r="M507">
+        <v>2.7</v>
+      </c>
+      <c r="N507">
+        <v>2.3</v>
+      </c>
+      <c r="O507">
+        <v>3.3</v>
+      </c>
+      <c r="P507">
+        <v>2.75</v>
+      </c>
+      <c r="Q507">
+        <v>0</v>
+      </c>
+      <c r="R507">
+        <v>1.75</v>
+      </c>
+      <c r="S507">
+        <v>2.05</v>
+      </c>
+      <c r="T507">
+        <v>2.25</v>
+      </c>
+      <c r="U507">
+        <v>1.8</v>
+      </c>
+      <c r="V507">
+        <v>2</v>
+      </c>
+      <c r="W507">
+        <v>1.3</v>
+      </c>
+      <c r="X507">
+        <v>-1</v>
+      </c>
+      <c r="Y507">
+        <v>-1</v>
+      </c>
+      <c r="Z507">
+        <v>0.75</v>
+      </c>
+      <c r="AA507">
+        <v>-1</v>
+      </c>
+      <c r="AB507">
+        <v>-1</v>
+      </c>
+      <c r="AC507">
         <v>1</v>
-      </c>
-      <c r="J507" t="s">
-        <v>60</v>
-      </c>
-      <c r="K507">
-        <v>1.533</v>
-      </c>
-      <c r="L507">
-        <v>3.75</v>
-      </c>
-      <c r="M507">
-        <v>5.75</v>
-      </c>
-      <c r="N507">
-        <v>1.533</v>
-      </c>
-      <c r="O507">
-        <v>3.8</v>
-      </c>
-      <c r="P507">
-        <v>5.75</v>
-      </c>
-      <c r="Q507">
-        <v>-1</v>
-      </c>
-      <c r="R507">
-        <v>1.9</v>
-      </c>
-      <c r="S507">
-        <v>1.9</v>
-      </c>
-      <c r="T507">
-        <v>2.5</v>
-      </c>
-      <c r="U507">
-        <v>1.975</v>
-      </c>
-      <c r="V507">
-        <v>1.825</v>
-      </c>
-      <c r="W507">
-        <v>-1</v>
-      </c>
-      <c r="X507">
-        <v>-1</v>
-      </c>
-      <c r="Y507">
-        <v>4.75</v>
-      </c>
-      <c r="Z507">
-        <v>-1</v>
-      </c>
-      <c r="AA507">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB507">
-        <v>-1</v>
-      </c>
-      <c r="AC507">
-        <v>0.825</v>
       </c>
     </row>
     <row r="508" spans="1:29">
@@ -45695,7 +45695,7 @@
         <v>506</v>
       </c>
       <c r="B508">
-        <v>5138953</v>
+        <v>5138952</v>
       </c>
       <c r="C508" t="s">
         <v>28</v>
@@ -45707,76 +45707,76 @@
         <v>44783.54166666666</v>
       </c>
       <c r="F508" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="G508" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H508">
+        <v>0</v>
+      </c>
+      <c r="I508">
         <v>1</v>
       </c>
-      <c r="I508">
-        <v>0</v>
-      </c>
       <c r="J508" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K508">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="L508">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M508">
-        <v>2.7</v>
+        <v>5.75</v>
       </c>
       <c r="N508">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="O508">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P508">
-        <v>2.75</v>
+        <v>5.75</v>
       </c>
       <c r="Q508">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R508">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S508">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T508">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U508">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V508">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W508">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X508">
         <v>-1</v>
       </c>
       <c r="Y508">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z508">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA508">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB508">
         <v>-1</v>
       </c>
       <c r="AC508">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="509" spans="1:29">
@@ -45873,7 +45873,7 @@
         <v>508</v>
       </c>
       <c r="B510">
-        <v>5138951</v>
+        <v>5140780</v>
       </c>
       <c r="C510" t="s">
         <v>28</v>
@@ -45885,76 +45885,76 @@
         <v>44784.54166666666</v>
       </c>
       <c r="F510" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G510" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H510">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I510">
         <v>1</v>
       </c>
       <c r="J510" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K510">
-        <v>1.666</v>
+        <v>2.55</v>
       </c>
       <c r="L510">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M510">
-        <v>4.333</v>
+        <v>2.55</v>
       </c>
       <c r="N510">
-        <v>1.666</v>
+        <v>2.625</v>
       </c>
       <c r="O510">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P510">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q510">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R510">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S510">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T510">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U510">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V510">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W510">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X510">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y510">
         <v>-1</v>
       </c>
       <c r="Z510">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA510">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB510">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC510">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="511" spans="1:29">
@@ -45962,7 +45962,7 @@
         <v>509</v>
       </c>
       <c r="B511">
-        <v>5140780</v>
+        <v>5138951</v>
       </c>
       <c r="C511" t="s">
         <v>28</v>
@@ -45974,76 +45974,76 @@
         <v>44784.54166666666</v>
       </c>
       <c r="F511" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="G511" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H511">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I511">
         <v>1</v>
       </c>
       <c r="J511" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K511">
-        <v>2.55</v>
+        <v>1.666</v>
       </c>
       <c r="L511">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M511">
-        <v>2.55</v>
+        <v>4.333</v>
       </c>
       <c r="N511">
-        <v>2.625</v>
+        <v>1.666</v>
       </c>
       <c r="O511">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P511">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="Q511">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R511">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S511">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T511">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U511">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V511">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W511">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X511">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y511">
         <v>-1</v>
       </c>
       <c r="Z511">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA511">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB511">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC511">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="512" spans="1:29">
@@ -50501,7 +50501,7 @@
         <v>560</v>
       </c>
       <c r="B562">
-        <v>5144146</v>
+        <v>5138984</v>
       </c>
       <c r="C562" t="s">
         <v>28</v>
@@ -50513,73 +50513,73 @@
         <v>44821.625</v>
       </c>
       <c r="F562" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G562" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H562">
         <v>2</v>
       </c>
       <c r="I562">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J562" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K562">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="L562">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M562">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="N562">
-        <v>1.571</v>
+        <v>2.15</v>
       </c>
       <c r="O562">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P562">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q562">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R562">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S562">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T562">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U562">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V562">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W562">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X562">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y562">
         <v>-1</v>
       </c>
       <c r="Z562">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA562">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB562">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC562">
         <v>-1</v>
@@ -50590,7 +50590,7 @@
         <v>561</v>
       </c>
       <c r="B563">
-        <v>5138984</v>
+        <v>5144146</v>
       </c>
       <c r="C563" t="s">
         <v>28</v>
@@ -50602,73 +50602,73 @@
         <v>44821.625</v>
       </c>
       <c r="F563" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G563" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H563">
         <v>2</v>
       </c>
       <c r="I563">
+        <v>2</v>
+      </c>
+      <c r="J563" t="s">
+        <v>62</v>
+      </c>
+      <c r="K563">
+        <v>1.615</v>
+      </c>
+      <c r="L563">
+        <v>3.75</v>
+      </c>
+      <c r="M563">
+        <v>4.75</v>
+      </c>
+      <c r="N563">
+        <v>1.571</v>
+      </c>
+      <c r="O563">
+        <v>4</v>
+      </c>
+      <c r="P563">
+        <v>4.75</v>
+      </c>
+      <c r="Q563">
+        <v>-1</v>
+      </c>
+      <c r="R563">
+        <v>2.025</v>
+      </c>
+      <c r="S563">
+        <v>1.775</v>
+      </c>
+      <c r="T563">
+        <v>2.75</v>
+      </c>
+      <c r="U563">
+        <v>2</v>
+      </c>
+      <c r="V563">
+        <v>1.8</v>
+      </c>
+      <c r="W563">
+        <v>-1</v>
+      </c>
+      <c r="X563">
+        <v>3</v>
+      </c>
+      <c r="Y563">
+        <v>-1</v>
+      </c>
+      <c r="Z563">
+        <v>-1</v>
+      </c>
+      <c r="AA563">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB563">
         <v>1</v>
-      </c>
-      <c r="J563" t="s">
-        <v>61</v>
-      </c>
-      <c r="K563">
-        <v>2.5</v>
-      </c>
-      <c r="L563">
-        <v>3.2</v>
-      </c>
-      <c r="M563">
-        <v>2.625</v>
-      </c>
-      <c r="N563">
-        <v>2.15</v>
-      </c>
-      <c r="O563">
-        <v>3.2</v>
-      </c>
-      <c r="P563">
-        <v>3.1</v>
-      </c>
-      <c r="Q563">
-        <v>-0.25</v>
-      </c>
-      <c r="R563">
-        <v>2</v>
-      </c>
-      <c r="S563">
-        <v>1.85</v>
-      </c>
-      <c r="T563">
-        <v>2.25</v>
-      </c>
-      <c r="U563">
-        <v>1.9</v>
-      </c>
-      <c r="V563">
-        <v>1.95</v>
-      </c>
-      <c r="W563">
-        <v>1.15</v>
-      </c>
-      <c r="X563">
-        <v>-1</v>
-      </c>
-      <c r="Y563">
-        <v>-1</v>
-      </c>
-      <c r="Z563">
-        <v>1</v>
-      </c>
-      <c r="AA563">
-        <v>-1</v>
-      </c>
-      <c r="AB563">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC563">
         <v>-1</v>
@@ -56375,7 +56375,7 @@
         <v>626</v>
       </c>
       <c r="B628">
-        <v>5139019</v>
+        <v>5139023</v>
       </c>
       <c r="C628" t="s">
         <v>28</v>
@@ -56387,10 +56387,10 @@
         <v>44878.58333333334</v>
       </c>
       <c r="F628" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G628" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H628">
         <v>2</v>
@@ -56402,58 +56402,58 @@
         <v>62</v>
       </c>
       <c r="K628">
+        <v>2.375</v>
+      </c>
+      <c r="L628">
+        <v>3.25</v>
+      </c>
+      <c r="M628">
+        <v>2.625</v>
+      </c>
+      <c r="N628">
+        <v>2.8</v>
+      </c>
+      <c r="O628">
+        <v>3.3</v>
+      </c>
+      <c r="P628">
         <v>2.25</v>
       </c>
-      <c r="L628">
-        <v>3.3</v>
-      </c>
-      <c r="M628">
-        <v>3</v>
-      </c>
-      <c r="N628">
-        <v>2.5</v>
-      </c>
-      <c r="O628">
-        <v>3.2</v>
-      </c>
-      <c r="P628">
-        <v>2.625</v>
-      </c>
       <c r="Q628">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R628">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S628">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T628">
         <v>2.5</v>
       </c>
       <c r="U628">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V628">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W628">
         <v>-1</v>
       </c>
       <c r="X628">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Y628">
         <v>-1</v>
       </c>
       <c r="Z628">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA628">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB628">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC628">
         <v>-1</v>
@@ -56464,7 +56464,7 @@
         <v>627</v>
       </c>
       <c r="B629">
-        <v>5139023</v>
+        <v>5139019</v>
       </c>
       <c r="C629" t="s">
         <v>28</v>
@@ -56476,10 +56476,10 @@
         <v>44878.58333333334</v>
       </c>
       <c r="F629" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G629" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H629">
         <v>2</v>
@@ -56491,58 +56491,58 @@
         <v>62</v>
       </c>
       <c r="K629">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="L629">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M629">
+        <v>3</v>
+      </c>
+      <c r="N629">
+        <v>2.5</v>
+      </c>
+      <c r="O629">
+        <v>3.2</v>
+      </c>
+      <c r="P629">
         <v>2.625</v>
       </c>
-      <c r="N629">
-        <v>2.8</v>
-      </c>
-      <c r="O629">
-        <v>3.3</v>
-      </c>
-      <c r="P629">
-        <v>2.25</v>
-      </c>
       <c r="Q629">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R629">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S629">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T629">
         <v>2.5</v>
       </c>
       <c r="U629">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V629">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W629">
         <v>-1</v>
       </c>
       <c r="X629">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Y629">
         <v>-1</v>
       </c>
       <c r="Z629">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AA629">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB629">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC629">
         <v>-1</v>
@@ -81384,7 +81384,7 @@
         <v>907</v>
       </c>
       <c r="B909">
-        <v>6803778</v>
+        <v>6803779</v>
       </c>
       <c r="C909" t="s">
         <v>28</v>
@@ -81396,76 +81396,76 @@
         <v>45242.58333333334</v>
       </c>
       <c r="F909" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G909" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H909">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I909">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J909" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K909">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="L909">
         <v>3.4</v>
       </c>
       <c r="M909">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="N909">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="O909">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P909">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="Q909">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R909">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S909">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T909">
         <v>2.5</v>
       </c>
       <c r="U909">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V909">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W909">
         <v>-1</v>
       </c>
       <c r="X909">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y909">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z909">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA909">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB909">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC909">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="910" spans="1:29">
@@ -81473,7 +81473,7 @@
         <v>908</v>
       </c>
       <c r="B910">
-        <v>6803779</v>
+        <v>6803778</v>
       </c>
       <c r="C910" t="s">
         <v>28</v>
@@ -81485,76 +81485,76 @@
         <v>45242.58333333334</v>
       </c>
       <c r="F910" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="G910" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H910">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I910">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J910" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K910">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="L910">
         <v>3.4</v>
       </c>
       <c r="M910">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="N910">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="O910">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P910">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="Q910">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R910">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S910">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T910">
         <v>2.5</v>
       </c>
       <c r="U910">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V910">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W910">
         <v>-1</v>
       </c>
       <c r="X910">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y910">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z910">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA910">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB910">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC910">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="911" spans="1:29">

--- a/Poland I Liga/Poland I Liga.xlsx
+++ b/Poland I Liga/Poland I Liga.xlsx
@@ -50501,7 +50501,7 @@
         <v>560</v>
       </c>
       <c r="B562">
-        <v>5138984</v>
+        <v>5144146</v>
       </c>
       <c r="C562" t="s">
         <v>28</v>
@@ -50513,73 +50513,73 @@
         <v>44821.625</v>
       </c>
       <c r="F562" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G562" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H562">
         <v>2</v>
       </c>
       <c r="I562">
+        <v>2</v>
+      </c>
+      <c r="J562" t="s">
+        <v>62</v>
+      </c>
+      <c r="K562">
+        <v>1.615</v>
+      </c>
+      <c r="L562">
+        <v>3.75</v>
+      </c>
+      <c r="M562">
+        <v>4.75</v>
+      </c>
+      <c r="N562">
+        <v>1.571</v>
+      </c>
+      <c r="O562">
+        <v>4</v>
+      </c>
+      <c r="P562">
+        <v>4.75</v>
+      </c>
+      <c r="Q562">
+        <v>-1</v>
+      </c>
+      <c r="R562">
+        <v>2.025</v>
+      </c>
+      <c r="S562">
+        <v>1.775</v>
+      </c>
+      <c r="T562">
+        <v>2.75</v>
+      </c>
+      <c r="U562">
+        <v>2</v>
+      </c>
+      <c r="V562">
+        <v>1.8</v>
+      </c>
+      <c r="W562">
+        <v>-1</v>
+      </c>
+      <c r="X562">
+        <v>3</v>
+      </c>
+      <c r="Y562">
+        <v>-1</v>
+      </c>
+      <c r="Z562">
+        <v>-1</v>
+      </c>
+      <c r="AA562">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB562">
         <v>1</v>
-      </c>
-      <c r="J562" t="s">
-        <v>61</v>
-      </c>
-      <c r="K562">
-        <v>2.5</v>
-      </c>
-      <c r="L562">
-        <v>3.2</v>
-      </c>
-      <c r="M562">
-        <v>2.625</v>
-      </c>
-      <c r="N562">
-        <v>2.15</v>
-      </c>
-      <c r="O562">
-        <v>3.2</v>
-      </c>
-      <c r="P562">
-        <v>3.1</v>
-      </c>
-      <c r="Q562">
-        <v>-0.25</v>
-      </c>
-      <c r="R562">
-        <v>2</v>
-      </c>
-      <c r="S562">
-        <v>1.85</v>
-      </c>
-      <c r="T562">
-        <v>2.25</v>
-      </c>
-      <c r="U562">
-        <v>1.9</v>
-      </c>
-      <c r="V562">
-        <v>1.95</v>
-      </c>
-      <c r="W562">
-        <v>1.15</v>
-      </c>
-      <c r="X562">
-        <v>-1</v>
-      </c>
-      <c r="Y562">
-        <v>-1</v>
-      </c>
-      <c r="Z562">
-        <v>1</v>
-      </c>
-      <c r="AA562">
-        <v>-1</v>
-      </c>
-      <c r="AB562">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC562">
         <v>-1</v>
@@ -50590,7 +50590,7 @@
         <v>561</v>
       </c>
       <c r="B563">
-        <v>5144146</v>
+        <v>5138984</v>
       </c>
       <c r="C563" t="s">
         <v>28</v>
@@ -50602,73 +50602,73 @@
         <v>44821.625</v>
       </c>
       <c r="F563" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G563" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H563">
         <v>2</v>
       </c>
       <c r="I563">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J563" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K563">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="L563">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M563">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="N563">
-        <v>1.571</v>
+        <v>2.15</v>
       </c>
       <c r="O563">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P563">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q563">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R563">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S563">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T563">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U563">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V563">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W563">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X563">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y563">
         <v>-1</v>
       </c>
       <c r="Z563">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA563">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB563">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC563">
         <v>-1</v>
@@ -75955,7 +75955,7 @@
         <v>846</v>
       </c>
       <c r="B848">
-        <v>6803738</v>
+        <v>6803740</v>
       </c>
       <c r="C848" t="s">
         <v>28</v>
@@ -75967,19 +75967,19 @@
         <v>45191.54166666666</v>
       </c>
       <c r="F848" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G848" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H848">
         <v>1</v>
       </c>
       <c r="I848">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J848" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K848">
         <v>1.85</v>
@@ -75988,55 +75988,55 @@
         <v>3.5</v>
       </c>
       <c r="M848">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="N848">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="O848">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P848">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q848">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R848">
+        <v>1.975</v>
+      </c>
+      <c r="S848">
         <v>1.825</v>
       </c>
-      <c r="S848">
-        <v>1.975</v>
-      </c>
       <c r="T848">
+        <v>2.25</v>
+      </c>
+      <c r="U848">
+        <v>1.9</v>
+      </c>
+      <c r="V848">
+        <v>1.9</v>
+      </c>
+      <c r="W848">
+        <v>-1</v>
+      </c>
+      <c r="X848">
+        <v>-1</v>
+      </c>
+      <c r="Y848">
         <v>2.5</v>
       </c>
-      <c r="U848">
-        <v>1.825</v>
-      </c>
-      <c r="V848">
-        <v>1.975</v>
-      </c>
-      <c r="W848">
-        <v>-1</v>
-      </c>
-      <c r="X848">
-        <v>2.8</v>
-      </c>
-      <c r="Y848">
-        <v>-1</v>
-      </c>
       <c r="Z848">
         <v>-1</v>
       </c>
       <c r="AA848">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB848">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC848">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="849" spans="1:29">
@@ -76044,7 +76044,7 @@
         <v>847</v>
       </c>
       <c r="B849">
-        <v>6803740</v>
+        <v>6803738</v>
       </c>
       <c r="C849" t="s">
         <v>28</v>
@@ -76056,19 +76056,19 @@
         <v>45191.54166666666</v>
       </c>
       <c r="F849" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G849" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H849">
         <v>1</v>
       </c>
       <c r="I849">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J849" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K849">
         <v>1.85</v>
@@ -76077,55 +76077,55 @@
         <v>3.5</v>
       </c>
       <c r="M849">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="N849">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="O849">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P849">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q849">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R849">
+        <v>1.825</v>
+      </c>
+      <c r="S849">
         <v>1.975</v>
       </c>
-      <c r="S849">
+      <c r="T849">
+        <v>2.5</v>
+      </c>
+      <c r="U849">
         <v>1.825</v>
       </c>
-      <c r="T849">
-        <v>2.25</v>
-      </c>
-      <c r="U849">
-        <v>1.9</v>
-      </c>
       <c r="V849">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W849">
         <v>-1</v>
       </c>
       <c r="X849">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y849">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z849">
         <v>-1</v>
       </c>
       <c r="AA849">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB849">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC849">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="850" spans="1:29">

--- a/Poland I Liga/Poland I Liga.xlsx
+++ b/Poland I Liga/Poland I Liga.xlsx
@@ -35905,7 +35905,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>3724262</v>
+        <v>3724261</v>
       </c>
       <c r="C398" t="s">
         <v>28</v>
@@ -35917,73 +35917,73 @@
         <v>44661.41666666666</v>
       </c>
       <c r="F398" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G398" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I398">
         <v>2</v>
       </c>
       <c r="J398" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K398">
-        <v>1.75</v>
+        <v>2.625</v>
       </c>
       <c r="L398">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M398">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="N398">
-        <v>1.615</v>
+        <v>2.8</v>
       </c>
       <c r="O398">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="P398">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q398">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R398">
+        <v>2.025</v>
+      </c>
+      <c r="S398">
         <v>1.825</v>
       </c>
-      <c r="S398">
-        <v>1.975</v>
-      </c>
       <c r="T398">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U398">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V398">
         <v>1.9</v>
       </c>
       <c r="W398">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X398">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y398">
         <v>-1</v>
       </c>
       <c r="Z398">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA398">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB398">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC398">
         <v>-1</v>
@@ -35994,7 +35994,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>3724261</v>
+        <v>3724262</v>
       </c>
       <c r="C399" t="s">
         <v>28</v>
@@ -36006,73 +36006,73 @@
         <v>44661.41666666666</v>
       </c>
       <c r="F399" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G399" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H399">
+        <v>2</v>
+      </c>
+      <c r="I399">
+        <v>2</v>
+      </c>
+      <c r="J399" t="s">
+        <v>62</v>
+      </c>
+      <c r="K399">
+        <v>1.75</v>
+      </c>
+      <c r="L399">
+        <v>3.5</v>
+      </c>
+      <c r="M399">
         <v>4</v>
       </c>
-      <c r="I399">
-        <v>2</v>
-      </c>
-      <c r="J399" t="s">
-        <v>61</v>
-      </c>
-      <c r="K399">
-        <v>2.625</v>
-      </c>
-      <c r="L399">
-        <v>3</v>
-      </c>
-      <c r="M399">
-        <v>2.625</v>
-      </c>
       <c r="N399">
-        <v>2.8</v>
+        <v>1.615</v>
       </c>
       <c r="O399">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="P399">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="Q399">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R399">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S399">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T399">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U399">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V399">
         <v>1.9</v>
       </c>
       <c r="W399">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X399">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y399">
         <v>-1</v>
       </c>
       <c r="Z399">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA399">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB399">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC399">
         <v>-1</v>
@@ -45873,7 +45873,7 @@
         <v>508</v>
       </c>
       <c r="B510">
-        <v>5140780</v>
+        <v>5138951</v>
       </c>
       <c r="C510" t="s">
         <v>28</v>
@@ -45885,76 +45885,76 @@
         <v>44784.54166666666</v>
       </c>
       <c r="F510" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="G510" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H510">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I510">
         <v>1</v>
       </c>
       <c r="J510" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K510">
-        <v>2.55</v>
+        <v>1.666</v>
       </c>
       <c r="L510">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M510">
-        <v>2.55</v>
+        <v>4.333</v>
       </c>
       <c r="N510">
-        <v>2.625</v>
+        <v>1.666</v>
       </c>
       <c r="O510">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P510">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="Q510">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R510">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S510">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T510">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U510">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V510">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W510">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X510">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y510">
         <v>-1</v>
       </c>
       <c r="Z510">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA510">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB510">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC510">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="511" spans="1:29">
@@ -45962,7 +45962,7 @@
         <v>509</v>
       </c>
       <c r="B511">
-        <v>5138951</v>
+        <v>5140780</v>
       </c>
       <c r="C511" t="s">
         <v>28</v>
@@ -45974,76 +45974,76 @@
         <v>44784.54166666666</v>
       </c>
       <c r="F511" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G511" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H511">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I511">
         <v>1</v>
       </c>
       <c r="J511" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K511">
-        <v>1.666</v>
+        <v>2.55</v>
       </c>
       <c r="L511">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M511">
-        <v>4.333</v>
+        <v>2.55</v>
       </c>
       <c r="N511">
-        <v>1.666</v>
+        <v>2.625</v>
       </c>
       <c r="O511">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P511">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q511">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R511">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S511">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T511">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U511">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V511">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W511">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X511">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y511">
         <v>-1</v>
       </c>
       <c r="Z511">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA511">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB511">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC511">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="512" spans="1:29">
@@ -52726,7 +52726,7 @@
         <v>585</v>
       </c>
       <c r="B587">
-        <v>5138999</v>
+        <v>5139001</v>
       </c>
       <c r="C587" t="s">
         <v>28</v>
@@ -52738,76 +52738,76 @@
         <v>44849.41666666666</v>
       </c>
       <c r="F587" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G587" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H587">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I587">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J587" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K587">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="L587">
         <v>3.3</v>
       </c>
       <c r="M587">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N587">
+        <v>2.45</v>
+      </c>
+      <c r="O587">
+        <v>3.1</v>
+      </c>
+      <c r="P587">
+        <v>2.75</v>
+      </c>
+      <c r="Q587">
+        <v>0</v>
+      </c>
+      <c r="R587">
+        <v>1.825</v>
+      </c>
+      <c r="S587">
+        <v>1.975</v>
+      </c>
+      <c r="T587">
+        <v>2.25</v>
+      </c>
+      <c r="U587">
         <v>1.95</v>
       </c>
-      <c r="O587">
-        <v>3.3</v>
-      </c>
-      <c r="P587">
-        <v>3.5</v>
-      </c>
-      <c r="Q587">
+      <c r="V587">
+        <v>1.85</v>
+      </c>
+      <c r="W587">
+        <v>-1</v>
+      </c>
+      <c r="X587">
+        <v>2.1</v>
+      </c>
+      <c r="Y587">
+        <v>-1</v>
+      </c>
+      <c r="Z587">
+        <v>0</v>
+      </c>
+      <c r="AA587">
+        <v>-0</v>
+      </c>
+      <c r="AB587">
         <v>-0.5</v>
       </c>
-      <c r="R587">
-        <v>2</v>
-      </c>
-      <c r="S587">
-        <v>1.8</v>
-      </c>
-      <c r="T587">
-        <v>2.5</v>
-      </c>
-      <c r="U587">
-        <v>2</v>
-      </c>
-      <c r="V587">
-        <v>1.8</v>
-      </c>
-      <c r="W587">
-        <v>0.95</v>
-      </c>
-      <c r="X587">
-        <v>-1</v>
-      </c>
-      <c r="Y587">
-        <v>-1</v>
-      </c>
-      <c r="Z587">
-        <v>1</v>
-      </c>
-      <c r="AA587">
-        <v>-1</v>
-      </c>
-      <c r="AB587">
-        <v>1</v>
-      </c>
       <c r="AC587">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="588" spans="1:29">
@@ -52815,7 +52815,7 @@
         <v>586</v>
       </c>
       <c r="B588">
-        <v>5139001</v>
+        <v>5138999</v>
       </c>
       <c r="C588" t="s">
         <v>28</v>
@@ -52827,76 +52827,76 @@
         <v>44849.41666666666</v>
       </c>
       <c r="F588" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G588" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H588">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I588">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J588" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K588">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="L588">
         <v>3.3</v>
       </c>
       <c r="M588">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N588">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="O588">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P588">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q588">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R588">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S588">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T588">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U588">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V588">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W588">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X588">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y588">
         <v>-1</v>
       </c>
       <c r="Z588">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA588">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB588">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC588">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="589" spans="1:29">
@@ -56375,7 +56375,7 @@
         <v>626</v>
       </c>
       <c r="B628">
-        <v>5139023</v>
+        <v>5139019</v>
       </c>
       <c r="C628" t="s">
         <v>28</v>
@@ -56387,10 +56387,10 @@
         <v>44878.58333333334</v>
       </c>
       <c r="F628" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G628" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H628">
         <v>2</v>
@@ -56402,58 +56402,58 @@
         <v>62</v>
       </c>
       <c r="K628">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="L628">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M628">
+        <v>3</v>
+      </c>
+      <c r="N628">
+        <v>2.5</v>
+      </c>
+      <c r="O628">
+        <v>3.2</v>
+      </c>
+      <c r="P628">
         <v>2.625</v>
       </c>
-      <c r="N628">
-        <v>2.8</v>
-      </c>
-      <c r="O628">
-        <v>3.3</v>
-      </c>
-      <c r="P628">
-        <v>2.25</v>
-      </c>
       <c r="Q628">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R628">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S628">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T628">
         <v>2.5</v>
       </c>
       <c r="U628">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V628">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W628">
         <v>-1</v>
       </c>
       <c r="X628">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Y628">
         <v>-1</v>
       </c>
       <c r="Z628">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AA628">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB628">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC628">
         <v>-1</v>
@@ -56464,7 +56464,7 @@
         <v>627</v>
       </c>
       <c r="B629">
-        <v>5139019</v>
+        <v>5139023</v>
       </c>
       <c r="C629" t="s">
         <v>28</v>
@@ -56476,10 +56476,10 @@
         <v>44878.58333333334</v>
       </c>
       <c r="F629" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G629" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H629">
         <v>2</v>
@@ -56491,58 +56491,58 @@
         <v>62</v>
       </c>
       <c r="K629">
+        <v>2.375</v>
+      </c>
+      <c r="L629">
+        <v>3.25</v>
+      </c>
+      <c r="M629">
+        <v>2.625</v>
+      </c>
+      <c r="N629">
+        <v>2.8</v>
+      </c>
+      <c r="O629">
+        <v>3.3</v>
+      </c>
+      <c r="P629">
         <v>2.25</v>
       </c>
-      <c r="L629">
-        <v>3.3</v>
-      </c>
-      <c r="M629">
-        <v>3</v>
-      </c>
-      <c r="N629">
-        <v>2.5</v>
-      </c>
-      <c r="O629">
-        <v>3.2</v>
-      </c>
-      <c r="P629">
-        <v>2.625</v>
-      </c>
       <c r="Q629">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R629">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S629">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T629">
         <v>2.5</v>
       </c>
       <c r="U629">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V629">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W629">
         <v>-1</v>
       </c>
       <c r="X629">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Y629">
         <v>-1</v>
       </c>
       <c r="Z629">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA629">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB629">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC629">
         <v>-1</v>
@@ -60914,7 +60914,7 @@
         <v>677</v>
       </c>
       <c r="B679">
-        <v>5139054</v>
+        <v>5139053</v>
       </c>
       <c r="C679" t="s">
         <v>28</v>
@@ -60926,76 +60926,76 @@
         <v>45004.58333333334</v>
       </c>
       <c r="F679" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G679" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H679">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I679">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J679" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K679">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="L679">
         <v>3.2</v>
       </c>
       <c r="M679">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="N679">
+        <v>2.7</v>
+      </c>
+      <c r="O679">
+        <v>3.2</v>
+      </c>
+      <c r="P679">
         <v>2.375</v>
       </c>
-      <c r="O679">
-        <v>3</v>
-      </c>
-      <c r="P679">
-        <v>3</v>
-      </c>
       <c r="Q679">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R679">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S679">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="T679">
         <v>2.25</v>
       </c>
       <c r="U679">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V679">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W679">
         <v>-1</v>
       </c>
       <c r="X679">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y679">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z679">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA679">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB679">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC679">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="680" spans="1:29">
@@ -61003,7 +61003,7 @@
         <v>678</v>
       </c>
       <c r="B680">
-        <v>5139053</v>
+        <v>5140743</v>
       </c>
       <c r="C680" t="s">
         <v>28</v>
@@ -61015,76 +61015,76 @@
         <v>45004.58333333334</v>
       </c>
       <c r="F680" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G680" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I680">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J680" t="s">
         <v>62</v>
       </c>
       <c r="K680">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="L680">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M680">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="N680">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="O680">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P680">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="Q680">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R680">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S680">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T680">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U680">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V680">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W680">
         <v>-1</v>
       </c>
       <c r="X680">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Y680">
         <v>-1</v>
       </c>
       <c r="Z680">
-        <v>0</v>
+        <v>0.4125</v>
       </c>
       <c r="AA680">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB680">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC680">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="681" spans="1:29">
@@ -61181,7 +61181,7 @@
         <v>680</v>
       </c>
       <c r="B682">
-        <v>5140743</v>
+        <v>5139054</v>
       </c>
       <c r="C682" t="s">
         <v>28</v>
@@ -61193,73 +61193,73 @@
         <v>45004.58333333334</v>
       </c>
       <c r="F682" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G682" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H682">
         <v>2</v>
       </c>
       <c r="I682">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J682" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K682">
+        <v>2.15</v>
+      </c>
+      <c r="L682">
+        <v>3.2</v>
+      </c>
+      <c r="M682">
+        <v>3.1</v>
+      </c>
+      <c r="N682">
+        <v>2.375</v>
+      </c>
+      <c r="O682">
         <v>3</v>
       </c>
-      <c r="L682">
-        <v>3.3</v>
-      </c>
-      <c r="M682">
-        <v>2.2</v>
-      </c>
-      <c r="N682">
-        <v>2.9</v>
-      </c>
-      <c r="O682">
-        <v>3.3</v>
-      </c>
       <c r="P682">
+        <v>3</v>
+      </c>
+      <c r="Q682">
+        <v>-0.25</v>
+      </c>
+      <c r="R682">
+        <v>2.025</v>
+      </c>
+      <c r="S682">
+        <v>1.775</v>
+      </c>
+      <c r="T682">
         <v>2.25</v>
       </c>
-      <c r="Q682">
-        <v>0.25</v>
-      </c>
-      <c r="R682">
+      <c r="U682">
+        <v>1.975</v>
+      </c>
+      <c r="V682">
         <v>1.825</v>
       </c>
-      <c r="S682">
-        <v>1.975</v>
-      </c>
-      <c r="T682">
-        <v>2.5</v>
-      </c>
-      <c r="U682">
-        <v>1.95</v>
-      </c>
-      <c r="V682">
-        <v>1.85</v>
-      </c>
       <c r="W682">
         <v>-1</v>
       </c>
       <c r="X682">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y682">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z682">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA682">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB682">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC682">
         <v>-1</v>
@@ -75955,7 +75955,7 @@
         <v>846</v>
       </c>
       <c r="B848">
-        <v>6803740</v>
+        <v>6803738</v>
       </c>
       <c r="C848" t="s">
         <v>28</v>
@@ -75967,19 +75967,19 @@
         <v>45191.54166666666</v>
       </c>
       <c r="F848" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G848" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H848">
         <v>1</v>
       </c>
       <c r="I848">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J848" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K848">
         <v>1.85</v>
@@ -75988,55 +75988,55 @@
         <v>3.5</v>
       </c>
       <c r="M848">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="N848">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="O848">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P848">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q848">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R848">
+        <v>1.825</v>
+      </c>
+      <c r="S848">
         <v>1.975</v>
       </c>
-      <c r="S848">
+      <c r="T848">
+        <v>2.5</v>
+      </c>
+      <c r="U848">
         <v>1.825</v>
       </c>
-      <c r="T848">
-        <v>2.25</v>
-      </c>
-      <c r="U848">
-        <v>1.9</v>
-      </c>
       <c r="V848">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W848">
         <v>-1</v>
       </c>
       <c r="X848">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y848">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z848">
         <v>-1</v>
       </c>
       <c r="AA848">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB848">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC848">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="849" spans="1:29">
@@ -76044,7 +76044,7 @@
         <v>847</v>
       </c>
       <c r="B849">
-        <v>6803738</v>
+        <v>6803740</v>
       </c>
       <c r="C849" t="s">
         <v>28</v>
@@ -76056,19 +76056,19 @@
         <v>45191.54166666666</v>
       </c>
       <c r="F849" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G849" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H849">
         <v>1</v>
       </c>
       <c r="I849">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J849" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K849">
         <v>1.85</v>
@@ -76077,55 +76077,55 @@
         <v>3.5</v>
       </c>
       <c r="M849">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="N849">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="O849">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P849">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q849">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R849">
+        <v>1.975</v>
+      </c>
+      <c r="S849">
         <v>1.825</v>
       </c>
-      <c r="S849">
-        <v>1.975</v>
-      </c>
       <c r="T849">
+        <v>2.25</v>
+      </c>
+      <c r="U849">
+        <v>1.9</v>
+      </c>
+      <c r="V849">
+        <v>1.9</v>
+      </c>
+      <c r="W849">
+        <v>-1</v>
+      </c>
+      <c r="X849">
+        <v>-1</v>
+      </c>
+      <c r="Y849">
         <v>2.5</v>
       </c>
-      <c r="U849">
-        <v>1.825</v>
-      </c>
-      <c r="V849">
-        <v>1.975</v>
-      </c>
-      <c r="W849">
-        <v>-1</v>
-      </c>
-      <c r="X849">
-        <v>2.8</v>
-      </c>
-      <c r="Y849">
-        <v>-1</v>
-      </c>
       <c r="Z849">
         <v>-1</v>
       </c>
       <c r="AA849">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB849">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC849">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="850" spans="1:29">
@@ -81384,7 +81384,7 @@
         <v>907</v>
       </c>
       <c r="B909">
-        <v>6803779</v>
+        <v>6803778</v>
       </c>
       <c r="C909" t="s">
         <v>28</v>
@@ -81396,76 +81396,76 @@
         <v>45242.58333333334</v>
       </c>
       <c r="F909" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="G909" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H909">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I909">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J909" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K909">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="L909">
         <v>3.4</v>
       </c>
       <c r="M909">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="N909">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="O909">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P909">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="Q909">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R909">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S909">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T909">
         <v>2.5</v>
       </c>
       <c r="U909">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V909">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W909">
         <v>-1</v>
       </c>
       <c r="X909">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y909">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z909">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA909">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB909">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC909">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="910" spans="1:29">
@@ -81473,7 +81473,7 @@
         <v>908</v>
       </c>
       <c r="B910">
-        <v>6803778</v>
+        <v>6803779</v>
       </c>
       <c r="C910" t="s">
         <v>28</v>
@@ -81485,76 +81485,76 @@
         <v>45242.58333333334</v>
       </c>
       <c r="F910" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G910" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H910">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I910">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J910" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K910">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="L910">
         <v>3.4</v>
       </c>
       <c r="M910">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="N910">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="O910">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P910">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="Q910">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R910">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S910">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T910">
         <v>2.5</v>
       </c>
       <c r="U910">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V910">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W910">
         <v>-1</v>
       </c>
       <c r="X910">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y910">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z910">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA910">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB910">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC910">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="911" spans="1:29">

--- a/Poland I Liga/Poland I Liga.xlsx
+++ b/Poland I Liga/Poland I Liga.xlsx
@@ -78180,7 +78180,7 @@
         <v>871</v>
       </c>
       <c r="B873">
-        <v>6803754</v>
+        <v>6805706</v>
       </c>
       <c r="C873" t="s">
         <v>28</v>
@@ -78192,76 +78192,76 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F873" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G873" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="H873">
         <v>0</v>
       </c>
       <c r="I873">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J873" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K873">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L873">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M873">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="N873">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="O873">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P873">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="Q873">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R873">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S873">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T873">
         <v>2.5</v>
       </c>
       <c r="U873">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V873">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W873">
         <v>-1</v>
       </c>
       <c r="X873">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y873">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z873">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA873">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB873">
         <v>-1</v>
       </c>
       <c r="AC873">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="874" spans="1:29">
@@ -78269,7 +78269,7 @@
         <v>872</v>
       </c>
       <c r="B874">
-        <v>6805706</v>
+        <v>6803754</v>
       </c>
       <c r="C874" t="s">
         <v>28</v>
@@ -78281,76 +78281,76 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F874" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G874" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="H874">
         <v>0</v>
       </c>
       <c r="I874">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J874" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K874">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L874">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M874">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="N874">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="O874">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P874">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="Q874">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R874">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S874">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T874">
         <v>2.5</v>
       </c>
       <c r="U874">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V874">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W874">
         <v>-1</v>
       </c>
       <c r="X874">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y874">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z874">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA874">
+        <v>-0</v>
+      </c>
+      <c r="AB874">
+        <v>-1</v>
+      </c>
+      <c r="AC874">
         <v>0.95</v>
-      </c>
-      <c r="AB874">
-        <v>-1</v>
-      </c>
-      <c r="AC874">
-        <v>1</v>
       </c>
     </row>
     <row r="875" spans="1:29">
@@ -81384,7 +81384,7 @@
         <v>907</v>
       </c>
       <c r="B909">
-        <v>6803778</v>
+        <v>6803779</v>
       </c>
       <c r="C909" t="s">
         <v>28</v>
@@ -81396,76 +81396,76 @@
         <v>45242.58333333334</v>
       </c>
       <c r="F909" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G909" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H909">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I909">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J909" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K909">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="L909">
         <v>3.4</v>
       </c>
       <c r="M909">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="N909">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="O909">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P909">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="Q909">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R909">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S909">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T909">
         <v>2.5</v>
       </c>
       <c r="U909">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V909">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W909">
         <v>-1</v>
       </c>
       <c r="X909">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y909">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z909">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA909">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB909">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC909">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="910" spans="1:29">
@@ -81473,7 +81473,7 @@
         <v>908</v>
       </c>
       <c r="B910">
-        <v>6803779</v>
+        <v>6803778</v>
       </c>
       <c r="C910" t="s">
         <v>28</v>
@@ -81485,76 +81485,76 @@
         <v>45242.58333333334</v>
       </c>
       <c r="F910" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="G910" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H910">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I910">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J910" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K910">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="L910">
         <v>3.4</v>
       </c>
       <c r="M910">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="N910">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="O910">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P910">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="Q910">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R910">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S910">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T910">
         <v>2.5</v>
       </c>
       <c r="U910">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V910">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W910">
         <v>-1</v>
       </c>
       <c r="X910">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y910">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z910">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA910">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB910">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC910">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="911" spans="1:29">

--- a/Poland I Liga/Poland I Liga.xlsx
+++ b/Poland I Liga/Poland I Liga.xlsx
@@ -2619,7 +2619,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2632465</v>
+        <v>2632467</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2631,76 +2631,76 @@
         <v>44268.375</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G24" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K24">
+        <v>3.5</v>
+      </c>
+      <c r="L24">
+        <v>3.25</v>
+      </c>
+      <c r="M24">
+        <v>1.909</v>
+      </c>
+      <c r="N24">
+        <v>4.5</v>
+      </c>
+      <c r="O24">
+        <v>3.6</v>
+      </c>
+      <c r="P24">
+        <v>1.65</v>
+      </c>
+      <c r="Q24">
+        <v>0.75</v>
+      </c>
+      <c r="R24">
+        <v>1.85</v>
+      </c>
+      <c r="S24">
+        <v>1.95</v>
+      </c>
+      <c r="T24">
         <v>2.5</v>
       </c>
-      <c r="L24">
-        <v>3</v>
-      </c>
-      <c r="M24">
-        <v>2.6</v>
-      </c>
-      <c r="N24">
-        <v>3</v>
-      </c>
-      <c r="O24">
-        <v>3</v>
-      </c>
-      <c r="P24">
-        <v>2.3</v>
-      </c>
-      <c r="Q24">
-        <v>0.25</v>
-      </c>
-      <c r="R24">
-        <v>1.775</v>
-      </c>
-      <c r="S24">
-        <v>2.025</v>
-      </c>
-      <c r="T24">
-        <v>2.25</v>
-      </c>
       <c r="U24">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V24">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W24">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z24">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB24">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2708,7 +2708,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2632467</v>
+        <v>2632465</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2720,76 +2720,76 @@
         <v>44268.375</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G25" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K25">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="L25">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M25">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="N25">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="O25">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P25">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="Q25">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R25">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S25">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T25">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U25">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V25">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA25">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB25">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC25">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -4310,7 +4310,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>2632485</v>
+        <v>2632478</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4322,76 +4322,76 @@
         <v>44282.5</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G43" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K43">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="L43">
+        <v>3</v>
+      </c>
+      <c r="M43">
         <v>3.4</v>
       </c>
-      <c r="M43">
-        <v>4.5</v>
-      </c>
       <c r="N43">
-        <v>1.65</v>
+        <v>2.6</v>
       </c>
       <c r="O43">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="P43">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q43">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R43">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S43">
+        <v>2.025</v>
+      </c>
+      <c r="T43">
+        <v>1.75</v>
+      </c>
+      <c r="U43">
+        <v>1.85</v>
+      </c>
+      <c r="V43">
         <v>1.95</v>
       </c>
-      <c r="T43">
-        <v>2.25</v>
-      </c>
-      <c r="U43">
-        <v>1.95</v>
-      </c>
-      <c r="V43">
-        <v>1.9</v>
-      </c>
       <c r="W43">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z43">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
+        <v>1.025</v>
+      </c>
+      <c r="AB43">
+        <v>0.425</v>
+      </c>
+      <c r="AC43">
         <v>-0.5</v>
-      </c>
-      <c r="AB43">
-        <v>0.95</v>
-      </c>
-      <c r="AC43">
-        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4399,7 +4399,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>3361644</v>
+        <v>2632485</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4411,76 +4411,76 @@
         <v>44282.5</v>
       </c>
       <c r="F44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G44" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44">
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K44">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="L44">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M44">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="N44">
-        <v>2.9</v>
+        <v>1.65</v>
       </c>
       <c r="O44">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="P44">
-        <v>2.45</v>
+        <v>5</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R44">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S44">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T44">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U44">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V44">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X44">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AA44">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB44">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AC44">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4488,7 +4488,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>2632478</v>
+        <v>3361644</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4500,73 +4500,73 @@
         <v>44282.5</v>
       </c>
       <c r="F45" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G45" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K45">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="L45">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M45">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="N45">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="O45">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="P45">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="Q45">
         <v>0</v>
       </c>
       <c r="R45">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S45">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T45">
         <v>1.75</v>
       </c>
       <c r="U45">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V45">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y45">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA45">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB45">
-        <v>0.425</v>
+        <v>0.4875</v>
       </c>
       <c r="AC45">
         <v>-0.5</v>
@@ -4844,7 +4844,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>2632492</v>
+        <v>2662971</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4856,55 +4856,55 @@
         <v>44289.31944444445</v>
       </c>
       <c r="F49" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G49" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J49" t="s">
         <v>60</v>
       </c>
       <c r="K49">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="L49">
         <v>3.2</v>
       </c>
       <c r="M49">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="N49">
-        <v>2.875</v>
+        <v>2.55</v>
       </c>
       <c r="O49">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P49">
-        <v>2.375</v>
+        <v>2.55</v>
       </c>
       <c r="Q49">
         <v>0</v>
       </c>
       <c r="R49">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="S49">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T49">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U49">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V49">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W49">
         <v>-1</v>
@@ -4913,19 +4913,19 @@
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>1.375</v>
+        <v>1.55</v>
       </c>
       <c r="Z49">
         <v>-1</v>
       </c>
       <c r="AA49">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB49">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC49">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4933,7 +4933,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>2662971</v>
+        <v>2632492</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4945,55 +4945,55 @@
         <v>44289.31944444445</v>
       </c>
       <c r="F50" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G50" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
         <v>1</v>
-      </c>
-      <c r="I50">
-        <v>2</v>
       </c>
       <c r="J50" t="s">
         <v>60</v>
       </c>
       <c r="K50">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="L50">
         <v>3.2</v>
       </c>
       <c r="M50">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="N50">
-        <v>2.55</v>
+        <v>2.875</v>
       </c>
       <c r="O50">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P50">
-        <v>2.55</v>
+        <v>2.375</v>
       </c>
       <c r="Q50">
         <v>0</v>
       </c>
       <c r="R50">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="S50">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T50">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U50">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V50">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W50">
         <v>-1</v>
@@ -5002,19 +5002,19 @@
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>1.55</v>
+        <v>1.375</v>
       </c>
       <c r="Z50">
         <v>-1</v>
       </c>
       <c r="AA50">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB50">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5645,7 +5645,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>2632502</v>
+        <v>2632496</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5657,49 +5657,49 @@
         <v>44296.45833333334</v>
       </c>
       <c r="F58" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G58" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58" t="s">
+        <v>62</v>
+      </c>
+      <c r="K58">
+        <v>3.5</v>
+      </c>
+      <c r="L58">
+        <v>3.25</v>
+      </c>
+      <c r="M58">
+        <v>1.95</v>
+      </c>
+      <c r="N58">
         <v>3</v>
       </c>
-      <c r="J58" t="s">
-        <v>60</v>
-      </c>
-      <c r="K58">
-        <v>2.15</v>
-      </c>
-      <c r="L58">
-        <v>3.2</v>
-      </c>
-      <c r="M58">
-        <v>3.1</v>
-      </c>
-      <c r="N58">
-        <v>2.4</v>
-      </c>
       <c r="O58">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P58">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="Q58">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R58">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="S58">
-        <v>2.075</v>
+        <v>2.025</v>
       </c>
       <c r="T58">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U58">
         <v>1.775</v>
@@ -5711,22 +5711,22 @@
         <v>-1</v>
       </c>
       <c r="X58">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y58">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA58">
-        <v>1.075</v>
+        <v>-0.5</v>
       </c>
       <c r="AB58">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC58">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5823,7 +5823,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>2632496</v>
+        <v>2632502</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5835,49 +5835,49 @@
         <v>44296.45833333334</v>
       </c>
       <c r="F60" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G60" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J60" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K60">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="L60">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M60">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="N60">
+        <v>2.4</v>
+      </c>
+      <c r="O60">
+        <v>3.2</v>
+      </c>
+      <c r="P60">
         <v>3</v>
       </c>
-      <c r="O60">
-        <v>2.9</v>
-      </c>
-      <c r="P60">
-        <v>2.3</v>
-      </c>
       <c r="Q60">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R60">
-        <v>1.775</v>
+        <v>1.725</v>
       </c>
       <c r="S60">
-        <v>2.025</v>
+        <v>2.075</v>
       </c>
       <c r="T60">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U60">
         <v>1.775</v>
@@ -5889,22 +5889,22 @@
         <v>-1</v>
       </c>
       <c r="X60">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y60">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z60">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA60">
-        <v>-0.5</v>
+        <v>1.075</v>
       </c>
       <c r="AB60">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC60">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -6535,7 +6535,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>3427332</v>
+        <v>2632508</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6547,76 +6547,76 @@
         <v>44304.31944444445</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G68" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H68">
         <v>1</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K68">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="L68">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M68">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="N68">
-        <v>1.65</v>
+        <v>2.875</v>
       </c>
       <c r="O68">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P68">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="Q68">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R68">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S68">
+        <v>1.775</v>
+      </c>
+      <c r="T68">
+        <v>2</v>
+      </c>
+      <c r="U68">
+        <v>1.975</v>
+      </c>
+      <c r="V68">
+        <v>1.825</v>
+      </c>
+      <c r="W68">
         <v>1.875</v>
       </c>
-      <c r="T68">
-        <v>2.25</v>
-      </c>
-      <c r="U68">
-        <v>2</v>
-      </c>
-      <c r="V68">
-        <v>1.8</v>
-      </c>
-      <c r="W68">
-        <v>-1</v>
-      </c>
       <c r="X68">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA68">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6624,7 +6624,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>2632508</v>
+        <v>3427332</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6636,76 +6636,76 @@
         <v>44304.31944444445</v>
       </c>
       <c r="F69" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G69" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H69">
         <v>1</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K69">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="L69">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M69">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="N69">
-        <v>2.875</v>
+        <v>1.65</v>
       </c>
       <c r="O69">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P69">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="Q69">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R69">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S69">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T69">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U69">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V69">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W69">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X69">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC69">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -7781,7 +7781,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>2632525</v>
+        <v>2632523</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7793,76 +7793,76 @@
         <v>44314.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G82" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K82">
-        <v>2.75</v>
+        <v>1.833</v>
       </c>
       <c r="L82">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M82">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="N82">
+        <v>1.7</v>
+      </c>
+      <c r="O82">
         <v>3.5</v>
       </c>
-      <c r="O82">
-        <v>3.2</v>
-      </c>
       <c r="P82">
-        <v>2.05</v>
+        <v>4.5</v>
       </c>
       <c r="Q82">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R82">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S82">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T82">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U82">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="V82">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W82">
+        <v>-1</v>
+      </c>
+      <c r="X82">
         <v>2.5</v>
       </c>
-      <c r="X82">
-        <v>-1</v>
-      </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB82">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC82">
-        <v>-0</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7870,7 +7870,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>2632523</v>
+        <v>2632525</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7882,76 +7882,76 @@
         <v>44314.45833333334</v>
       </c>
       <c r="F83" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G83" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H83">
+        <v>2</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83" t="s">
+        <v>61</v>
+      </c>
+      <c r="K83">
+        <v>2.75</v>
+      </c>
+      <c r="L83">
+        <v>3.2</v>
+      </c>
+      <c r="M83">
+        <v>2.4</v>
+      </c>
+      <c r="N83">
+        <v>3.5</v>
+      </c>
+      <c r="O83">
+        <v>3.2</v>
+      </c>
+      <c r="P83">
+        <v>2.05</v>
+      </c>
+      <c r="Q83">
+        <v>0.25</v>
+      </c>
+      <c r="R83">
+        <v>2</v>
+      </c>
+      <c r="S83">
+        <v>1.85</v>
+      </c>
+      <c r="T83">
+        <v>2</v>
+      </c>
+      <c r="U83">
+        <v>1.975</v>
+      </c>
+      <c r="V83">
+        <v>1.875</v>
+      </c>
+      <c r="W83">
+        <v>2.5</v>
+      </c>
+      <c r="X83">
+        <v>-1</v>
+      </c>
+      <c r="Y83">
+        <v>-1</v>
+      </c>
+      <c r="Z83">
         <v>1</v>
       </c>
-      <c r="I83">
-        <v>1</v>
-      </c>
-      <c r="J83" t="s">
-        <v>62</v>
-      </c>
-      <c r="K83">
-        <v>1.833</v>
-      </c>
-      <c r="L83">
-        <v>3.5</v>
-      </c>
-      <c r="M83">
-        <v>3.8</v>
-      </c>
-      <c r="N83">
-        <v>1.7</v>
-      </c>
-      <c r="O83">
-        <v>3.5</v>
-      </c>
-      <c r="P83">
-        <v>4.5</v>
-      </c>
-      <c r="Q83">
-        <v>-0.75</v>
-      </c>
-      <c r="R83">
-        <v>2.1</v>
-      </c>
-      <c r="S83">
-        <v>1.775</v>
-      </c>
-      <c r="T83">
-        <v>2.25</v>
-      </c>
-      <c r="U83">
-        <v>2.1</v>
-      </c>
-      <c r="V83">
-        <v>1.775</v>
-      </c>
-      <c r="W83">
-        <v>-1</v>
-      </c>
-      <c r="X83">
-        <v>2.5</v>
-      </c>
-      <c r="Y83">
-        <v>-1</v>
-      </c>
-      <c r="Z83">
-        <v>-1</v>
-      </c>
       <c r="AA83">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC83">
-        <v>0.3875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7959,7 +7959,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>2632527</v>
+        <v>2632524</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7971,37 +7971,37 @@
         <v>44314.5</v>
       </c>
       <c r="F84" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H84">
+        <v>2</v>
+      </c>
+      <c r="I84">
         <v>3</v>
       </c>
-      <c r="I84">
-        <v>1</v>
-      </c>
       <c r="J84" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K84">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="L84">
         <v>3.2</v>
       </c>
       <c r="M84">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="N84">
-        <v>2.625</v>
+        <v>2.55</v>
       </c>
       <c r="O84">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P84">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="Q84">
         <v>0</v>
@@ -8013,31 +8013,31 @@
         <v>1.95</v>
       </c>
       <c r="T84">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U84">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V84">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W84">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z84">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB84">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC84">
         <v>-1</v>
@@ -8048,7 +8048,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>2632524</v>
+        <v>2632527</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8060,37 +8060,37 @@
         <v>44314.5</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G85" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K85">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="L85">
         <v>3.2</v>
       </c>
       <c r="M85">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="N85">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="O85">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P85">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q85">
         <v>0</v>
@@ -8102,31 +8102,31 @@
         <v>1.95</v>
       </c>
       <c r="T85">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U85">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V85">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W85">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA85">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC85">
         <v>-1</v>
@@ -8760,7 +8760,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>2632534</v>
+        <v>2632532</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8772,19 +8772,19 @@
         <v>44318.31944444445</v>
       </c>
       <c r="F93" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G93" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H93">
         <v>3</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J93" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K93">
         <v>2.625</v>
@@ -8796,25 +8796,25 @@
         <v>2.5</v>
       </c>
       <c r="N93">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="O93">
         <v>3.2</v>
       </c>
       <c r="P93">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="Q93">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R93">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S93">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T93">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U93">
         <v>1.975</v>
@@ -8823,19 +8823,19 @@
         <v>1.825</v>
       </c>
       <c r="W93">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X93">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.7749999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB93">
         <v>0.9750000000000001</v>
@@ -8849,7 +8849,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>2632532</v>
+        <v>2632534</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8861,19 +8861,19 @@
         <v>44318.31944444445</v>
       </c>
       <c r="F94" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G94" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H94">
         <v>3</v>
       </c>
       <c r="I94">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K94">
         <v>2.625</v>
@@ -8885,25 +8885,25 @@
         <v>2.5</v>
       </c>
       <c r="N94">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="O94">
         <v>3.2</v>
       </c>
       <c r="P94">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q94">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R94">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S94">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T94">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U94">
         <v>1.975</v>
@@ -8912,19 +8912,19 @@
         <v>1.825</v>
       </c>
       <c r="W94">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X94">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.4125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA94">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB94">
         <v>0.9750000000000001</v>
@@ -9650,7 +9650,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>2632544</v>
+        <v>2632542</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9662,73 +9662,73 @@
         <v>44324.45833333334</v>
       </c>
       <c r="F103" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H103">
+        <v>2</v>
+      </c>
+      <c r="I103">
         <v>1</v>
       </c>
-      <c r="I103">
-        <v>2</v>
-      </c>
       <c r="J103" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K103">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="L103">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M103">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="N103">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="O103">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P103">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q103">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R103">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S103">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T103">
         <v>2.25</v>
       </c>
       <c r="U103">
+        <v>1.9</v>
+      </c>
+      <c r="V103">
         <v>1.95</v>
       </c>
-      <c r="V103">
-        <v>1.85</v>
-      </c>
       <c r="W103">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA103">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC103">
         <v>-1</v>
@@ -9739,7 +9739,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>2632542</v>
+        <v>2632544</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9751,73 +9751,73 @@
         <v>44324.45833333334</v>
       </c>
       <c r="F104" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G104" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K104">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="L104">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M104">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="N104">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="O104">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P104">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q104">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R104">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S104">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T104">
         <v>2.25</v>
       </c>
       <c r="U104">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V104">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W104">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z104">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB104">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC104">
         <v>-1</v>
@@ -10540,7 +10540,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>2632555</v>
+        <v>2632553</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10552,13 +10552,13 @@
         <v>44331.5</v>
       </c>
       <c r="F113" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G113" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I113">
         <v>0</v>
@@ -10567,44 +10567,44 @@
         <v>61</v>
       </c>
       <c r="K113">
+        <v>2.25</v>
+      </c>
+      <c r="L113">
+        <v>3.25</v>
+      </c>
+      <c r="M113">
+        <v>2.75</v>
+      </c>
+      <c r="N113">
+        <v>2.9</v>
+      </c>
+      <c r="O113">
+        <v>3.2</v>
+      </c>
+      <c r="P113">
+        <v>2.3</v>
+      </c>
+      <c r="Q113">
+        <v>0.25</v>
+      </c>
+      <c r="R113">
         <v>1.8</v>
       </c>
-      <c r="L113">
-        <v>3.4</v>
-      </c>
-      <c r="M113">
-        <v>3.75</v>
-      </c>
-      <c r="N113">
-        <v>1.833</v>
-      </c>
-      <c r="O113">
-        <v>3.5</v>
-      </c>
-      <c r="P113">
-        <v>3.75</v>
-      </c>
-      <c r="Q113">
-        <v>-0.5</v>
-      </c>
-      <c r="R113">
+      <c r="S113">
+        <v>2</v>
+      </c>
+      <c r="T113">
+        <v>2.25</v>
+      </c>
+      <c r="U113">
+        <v>1.85</v>
+      </c>
+      <c r="V113">
+        <v>1.95</v>
+      </c>
+      <c r="W113">
         <v>1.9</v>
       </c>
-      <c r="S113">
-        <v>1.9</v>
-      </c>
-      <c r="T113">
-        <v>2</v>
-      </c>
-      <c r="U113">
-        <v>1.8</v>
-      </c>
-      <c r="V113">
-        <v>2</v>
-      </c>
-      <c r="W113">
-        <v>0.833</v>
-      </c>
       <c r="X113">
         <v>-1</v>
       </c>
@@ -10612,16 +10612,16 @@
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA113">
         <v>-1</v>
       </c>
       <c r="AB113">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC113">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10629,7 +10629,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>2632553</v>
+        <v>2632555</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10641,13 +10641,13 @@
         <v>44331.5</v>
       </c>
       <c r="F114" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G114" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I114">
         <v>0</v>
@@ -10656,43 +10656,43 @@
         <v>61</v>
       </c>
       <c r="K114">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L114">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M114">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="N114">
-        <v>2.9</v>
+        <v>1.833</v>
       </c>
       <c r="O114">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P114">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="Q114">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R114">
+        <v>1.9</v>
+      </c>
+      <c r="S114">
+        <v>1.9</v>
+      </c>
+      <c r="T114">
+        <v>2</v>
+      </c>
+      <c r="U114">
         <v>1.8</v>
       </c>
-      <c r="S114">
-        <v>2</v>
-      </c>
-      <c r="T114">
-        <v>2.25</v>
-      </c>
-      <c r="U114">
-        <v>1.85</v>
-      </c>
       <c r="V114">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W114">
-        <v>1.9</v>
+        <v>0.833</v>
       </c>
       <c r="X114">
         <v>-1</v>
@@ -10701,16 +10701,16 @@
         <v>-1</v>
       </c>
       <c r="Z114">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA114">
+        <v>-1</v>
+      </c>
+      <c r="AB114">
         <v>0.8</v>
       </c>
-      <c r="AA114">
-        <v>-1</v>
-      </c>
-      <c r="AB114">
-        <v>-1</v>
-      </c>
       <c r="AC114">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -13121,7 +13121,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>2729563</v>
+        <v>3581993</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13133,76 +13133,76 @@
         <v>44352.45833333334</v>
       </c>
       <c r="F142" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G142" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142">
+        <v>2</v>
+      </c>
+      <c r="J142" t="s">
+        <v>60</v>
+      </c>
+      <c r="K142">
+        <v>2.3</v>
+      </c>
+      <c r="L142">
+        <v>3.25</v>
+      </c>
+      <c r="M142">
+        <v>2.7</v>
+      </c>
+      <c r="N142">
+        <v>2.375</v>
+      </c>
+      <c r="O142">
+        <v>3.25</v>
+      </c>
+      <c r="P142">
+        <v>2.7</v>
+      </c>
+      <c r="Q142">
         <v>0</v>
       </c>
-      <c r="J142" t="s">
-        <v>61</v>
-      </c>
-      <c r="K142">
-        <v>2.375</v>
-      </c>
-      <c r="L142">
-        <v>3</v>
-      </c>
-      <c r="M142">
-        <v>2.875</v>
-      </c>
-      <c r="N142">
-        <v>2.15</v>
-      </c>
-      <c r="O142">
-        <v>3.3</v>
-      </c>
-      <c r="P142">
-        <v>3.1</v>
-      </c>
-      <c r="Q142">
-        <v>-0.25</v>
-      </c>
       <c r="R142">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S142">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T142">
         <v>2.25</v>
       </c>
       <c r="U142">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V142">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W142">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z142">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC142">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13210,7 +13210,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>3581993</v>
+        <v>2729563</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13222,76 +13222,76 @@
         <v>44352.45833333334</v>
       </c>
       <c r="F143" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G143" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H143">
+        <v>1</v>
+      </c>
+      <c r="I143">
         <v>0</v>
       </c>
-      <c r="I143">
-        <v>2</v>
-      </c>
       <c r="J143" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K143">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="L143">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M143">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="N143">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O143">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P143">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="Q143">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R143">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S143">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T143">
         <v>2.25</v>
       </c>
       <c r="U143">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V143">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W143">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA143">
+        <v>-1</v>
+      </c>
+      <c r="AB143">
+        <v>-1</v>
+      </c>
+      <c r="AC143">
         <v>1</v>
-      </c>
-      <c r="AB143">
-        <v>-0.5</v>
-      </c>
-      <c r="AC143">
-        <v>0.4875</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13388,7 +13388,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>2734323</v>
+        <v>2729566</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13400,55 +13400,55 @@
         <v>44353.31944444445</v>
       </c>
       <c r="F145" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G145" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
         <v>1</v>
-      </c>
-      <c r="I145">
-        <v>5</v>
       </c>
       <c r="J145" t="s">
         <v>60</v>
       </c>
       <c r="K145">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="L145">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M145">
         <v>2.3</v>
       </c>
       <c r="N145">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="O145">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P145">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q145">
         <v>0</v>
       </c>
       <c r="R145">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S145">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="T145">
         <v>2.25</v>
       </c>
       <c r="U145">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V145">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W145">
         <v>-1</v>
@@ -13457,19 +13457,19 @@
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>1.4</v>
+        <v>1.375</v>
       </c>
       <c r="Z145">
         <v>-1</v>
       </c>
       <c r="AA145">
-        <v>0.75</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB145">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13477,7 +13477,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>2729566</v>
+        <v>2734323</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13489,56 +13489,56 @@
         <v>44353.31944444445</v>
       </c>
       <c r="F146" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G146" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I146">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J146" t="s">
         <v>60</v>
       </c>
       <c r="K146">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="L146">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M146">
         <v>2.3</v>
       </c>
       <c r="N146">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="O146">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P146">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="Q146">
         <v>0</v>
       </c>
       <c r="R146">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S146">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="T146">
         <v>2.25</v>
       </c>
       <c r="U146">
+        <v>1.975</v>
+      </c>
+      <c r="V146">
         <v>1.825</v>
       </c>
-      <c r="V146">
-        <v>2.025</v>
-      </c>
       <c r="W146">
         <v>-1</v>
       </c>
@@ -13546,19 +13546,19 @@
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>1.375</v>
+        <v>1.4</v>
       </c>
       <c r="Z146">
         <v>-1</v>
       </c>
       <c r="AA146">
-        <v>0.7749999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC146">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13744,7 +13744,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>3611527</v>
+        <v>2758703</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13756,49 +13756,49 @@
         <v>44360.31944444445</v>
       </c>
       <c r="F149" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G149" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K149">
-        <v>2.45</v>
+        <v>1.285</v>
       </c>
       <c r="L149">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M149">
-        <v>2.55</v>
+        <v>9</v>
       </c>
       <c r="N149">
-        <v>2.625</v>
+        <v>1.3</v>
       </c>
       <c r="O149">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="P149">
-        <v>2.625</v>
+        <v>10</v>
       </c>
       <c r="Q149">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R149">
         <v>1.925</v>
       </c>
       <c r="S149">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T149">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U149">
         <v>1.775</v>
@@ -13807,25 +13807,25 @@
         <v>2.025</v>
       </c>
       <c r="W149">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X149">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y149">
         <v>-1</v>
       </c>
       <c r="Z149">
+        <v>-1</v>
+      </c>
+      <c r="AA149">
         <v>0.925</v>
       </c>
-      <c r="AA149">
-        <v>-1</v>
-      </c>
       <c r="AB149">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC149">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13833,7 +13833,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>2759543</v>
+        <v>2755798</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13845,76 +13845,76 @@
         <v>44360.31944444445</v>
       </c>
       <c r="F150" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G150" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J150" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K150">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="L150">
         <v>3.3</v>
       </c>
       <c r="M150">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="N150">
+        <v>3.7</v>
+      </c>
+      <c r="O150">
+        <v>3.3</v>
+      </c>
+      <c r="P150">
+        <v>2</v>
+      </c>
+      <c r="Q150">
+        <v>0.25</v>
+      </c>
+      <c r="R150">
+        <v>2</v>
+      </c>
+      <c r="S150">
         <v>1.8</v>
-      </c>
-      <c r="O150">
-        <v>4</v>
-      </c>
-      <c r="P150">
-        <v>3.8</v>
-      </c>
-      <c r="Q150">
-        <v>-0.5</v>
-      </c>
-      <c r="R150">
-        <v>1.8</v>
-      </c>
-      <c r="S150">
-        <v>2</v>
       </c>
       <c r="T150">
         <v>2.5</v>
       </c>
       <c r="U150">
+        <v>1.975</v>
+      </c>
+      <c r="V150">
         <v>1.825</v>
       </c>
-      <c r="V150">
-        <v>1.975</v>
-      </c>
       <c r="W150">
         <v>-1</v>
       </c>
       <c r="X150">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y150">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z150">
         <v>-1</v>
       </c>
       <c r="AA150">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB150">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC150">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13922,7 +13922,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>2758703</v>
+        <v>2758744</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13934,76 +13934,76 @@
         <v>44360.31944444445</v>
       </c>
       <c r="F151" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G151" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K151">
-        <v>1.285</v>
+        <v>1.8</v>
       </c>
       <c r="L151">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M151">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="N151">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="O151">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P151">
-        <v>10</v>
+        <v>4.2</v>
       </c>
       <c r="Q151">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R151">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S151">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T151">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U151">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V151">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W151">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X151">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y151">
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA151">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB151">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC151">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -14011,7 +14011,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>2759740</v>
+        <v>2761522</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -14023,10 +14023,10 @@
         <v>44360.31944444445</v>
       </c>
       <c r="F152" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G152" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H152">
         <v>2</v>
@@ -14038,43 +14038,43 @@
         <v>61</v>
       </c>
       <c r="K152">
-        <v>2.3</v>
+        <v>1.45</v>
       </c>
       <c r="L152">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M152">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N152">
-        <v>2.3</v>
+        <v>1.45</v>
       </c>
       <c r="O152">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P152">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q152">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R152">
+        <v>1.775</v>
+      </c>
+      <c r="S152">
         <v>2.025</v>
-      </c>
-      <c r="S152">
-        <v>1.775</v>
       </c>
       <c r="T152">
         <v>2.5</v>
       </c>
       <c r="U152">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V152">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W152">
-        <v>1.3</v>
+        <v>0.45</v>
       </c>
       <c r="X152">
         <v>-1</v>
@@ -14083,7 +14083,7 @@
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA152">
         <v>-1</v>
@@ -14092,7 +14092,7 @@
         <v>-1</v>
       </c>
       <c r="AC152">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14100,7 +14100,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>2759298</v>
+        <v>2759543</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14112,46 +14112,46 @@
         <v>44360.31944444445</v>
       </c>
       <c r="F153" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G153" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H153">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K153">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="L153">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M153">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="N153">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O153">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P153">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q153">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R153">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S153">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T153">
         <v>2.5</v>
@@ -14163,25 +14163,25 @@
         <v>1.975</v>
       </c>
       <c r="W153">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X153">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y153">
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA153">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB153">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC153">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14189,7 +14189,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>2755798</v>
+        <v>2759740</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14201,46 +14201,46 @@
         <v>44360.31944444445</v>
       </c>
       <c r="F154" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G154" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H154">
+        <v>2</v>
+      </c>
+      <c r="I154">
         <v>0</v>
       </c>
-      <c r="I154">
+      <c r="J154" t="s">
+        <v>61</v>
+      </c>
+      <c r="K154">
+        <v>2.3</v>
+      </c>
+      <c r="L154">
+        <v>3.4</v>
+      </c>
+      <c r="M154">
         <v>3</v>
       </c>
-      <c r="J154" t="s">
-        <v>60</v>
-      </c>
-      <c r="K154">
-        <v>3.75</v>
-      </c>
-      <c r="L154">
-        <v>3.3</v>
-      </c>
-      <c r="M154">
-        <v>2</v>
-      </c>
       <c r="N154">
-        <v>3.7</v>
+        <v>2.3</v>
       </c>
       <c r="O154">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P154">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q154">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R154">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S154">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T154">
         <v>2.5</v>
@@ -14252,25 +14252,25 @@
         <v>1.825</v>
       </c>
       <c r="W154">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X154">
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z154">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA154">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB154">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC154">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14278,7 +14278,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>2761522</v>
+        <v>3611527</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14290,58 +14290,58 @@
         <v>44360.31944444445</v>
       </c>
       <c r="F155" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G155" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H155">
         <v>2</v>
       </c>
       <c r="I155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155" t="s">
         <v>61</v>
       </c>
       <c r="K155">
-        <v>1.45</v>
+        <v>2.45</v>
       </c>
       <c r="L155">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M155">
-        <v>7</v>
+        <v>2.55</v>
       </c>
       <c r="N155">
-        <v>1.45</v>
+        <v>2.625</v>
       </c>
       <c r="O155">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P155">
-        <v>7</v>
+        <v>2.625</v>
       </c>
       <c r="Q155">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R155">
+        <v>1.925</v>
+      </c>
+      <c r="S155">
+        <v>1.875</v>
+      </c>
+      <c r="T155">
+        <v>2.25</v>
+      </c>
+      <c r="U155">
         <v>1.775</v>
       </c>
-      <c r="S155">
+      <c r="V155">
         <v>2.025</v>
       </c>
-      <c r="T155">
-        <v>2.5</v>
-      </c>
-      <c r="U155">
-        <v>1.9</v>
-      </c>
-      <c r="V155">
-        <v>1.9</v>
-      </c>
       <c r="W155">
-        <v>0.45</v>
+        <v>1.625</v>
       </c>
       <c r="X155">
         <v>-1</v>
@@ -14350,16 +14350,16 @@
         <v>-1</v>
       </c>
       <c r="Z155">
+        <v>0.925</v>
+      </c>
+      <c r="AA155">
+        <v>-1</v>
+      </c>
+      <c r="AB155">
         <v>0.7749999999999999</v>
       </c>
-      <c r="AA155">
-        <v>-1</v>
-      </c>
-      <c r="AB155">
-        <v>-1</v>
-      </c>
       <c r="AC155">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14367,7 +14367,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>2758744</v>
+        <v>2759298</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14379,58 +14379,58 @@
         <v>44360.31944444445</v>
       </c>
       <c r="F156" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G156" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J156" t="s">
         <v>61</v>
       </c>
       <c r="K156">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L156">
         <v>3.6</v>
       </c>
       <c r="M156">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="N156">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="O156">
         <v>3.6</v>
       </c>
       <c r="P156">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q156">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R156">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S156">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T156">
         <v>2.5</v>
       </c>
       <c r="U156">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V156">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W156">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="X156">
         <v>-1</v>
@@ -14439,13 +14439,13 @@
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA156">
         <v>-1</v>
       </c>
       <c r="AB156">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC156">
         <v>-1</v>
@@ -17393,7 +17393,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>3723100</v>
+        <v>3723421</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17405,76 +17405,76 @@
         <v>44426.54166666666</v>
       </c>
       <c r="F190" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G190" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J190" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K190">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="L190">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M190">
-        <v>6.5</v>
+        <v>2.25</v>
       </c>
       <c r="N190">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="O190">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="P190">
-        <v>7.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q190">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R190">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S190">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T190">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U190">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V190">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W190">
         <v>-1</v>
       </c>
       <c r="X190">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y190">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z190">
         <v>-1</v>
       </c>
       <c r="AA190">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB190">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC190">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17482,7 +17482,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>3723421</v>
+        <v>3723100</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17494,76 +17494,76 @@
         <v>44426.54166666666</v>
       </c>
       <c r="F191" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G191" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J191" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K191">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="L191">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M191">
-        <v>2.25</v>
+        <v>6.5</v>
       </c>
       <c r="N191">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="O191">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="P191">
-        <v>2.25</v>
+        <v>7.5</v>
       </c>
       <c r="Q191">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R191">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S191">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T191">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U191">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V191">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W191">
         <v>-1</v>
       </c>
       <c r="X191">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y191">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z191">
         <v>-1</v>
       </c>
       <c r="AA191">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB191">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC191">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -24157,7 +24157,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>3723436</v>
+        <v>3724192</v>
       </c>
       <c r="C266" t="s">
         <v>28</v>
@@ -24169,76 +24169,76 @@
         <v>44485.54166666666</v>
       </c>
       <c r="F266" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G266" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H266">
+        <v>0</v>
+      </c>
+      <c r="I266">
+        <v>1</v>
+      </c>
+      <c r="J266" t="s">
+        <v>60</v>
+      </c>
+      <c r="K266">
+        <v>2</v>
+      </c>
+      <c r="L266">
+        <v>3.25</v>
+      </c>
+      <c r="M266">
+        <v>3.5</v>
+      </c>
+      <c r="N266">
+        <v>1.833</v>
+      </c>
+      <c r="O266">
+        <v>3.3</v>
+      </c>
+      <c r="P266">
         <v>4</v>
       </c>
-      <c r="I266">
-        <v>0</v>
-      </c>
-      <c r="J266" t="s">
-        <v>61</v>
-      </c>
-      <c r="K266">
-        <v>1.8</v>
-      </c>
-      <c r="L266">
-        <v>3.4</v>
-      </c>
-      <c r="M266">
-        <v>4</v>
-      </c>
-      <c r="N266">
-        <v>1.65</v>
-      </c>
-      <c r="O266">
-        <v>3.6</v>
-      </c>
-      <c r="P266">
-        <v>5.25</v>
-      </c>
       <c r="Q266">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R266">
         <v>1.9</v>
       </c>
       <c r="S266">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T266">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U266">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V266">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W266">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X266">
         <v>-1</v>
       </c>
       <c r="Y266">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z266">
+        <v>-1</v>
+      </c>
+      <c r="AA266">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA266">
-        <v>-1</v>
-      </c>
       <c r="AB266">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC266">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="267" spans="1:29">
@@ -24246,7 +24246,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>3724192</v>
+        <v>3723436</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24258,76 +24258,76 @@
         <v>44485.54166666666</v>
       </c>
       <c r="F267" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G267" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H267">
+        <v>4</v>
+      </c>
+      <c r="I267">
         <v>0</v>
       </c>
-      <c r="I267">
-        <v>1</v>
-      </c>
       <c r="J267" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K267">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L267">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M267">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N267">
-        <v>1.833</v>
+        <v>1.65</v>
       </c>
       <c r="O267">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P267">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="Q267">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R267">
         <v>1.9</v>
       </c>
       <c r="S267">
+        <v>1.95</v>
+      </c>
+      <c r="T267">
+        <v>2.25</v>
+      </c>
+      <c r="U267">
+        <v>1.95</v>
+      </c>
+      <c r="V267">
         <v>1.9</v>
       </c>
-      <c r="T267">
-        <v>2.5</v>
-      </c>
-      <c r="U267">
-        <v>1.975</v>
-      </c>
-      <c r="V267">
-        <v>1.825</v>
-      </c>
       <c r="W267">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X267">
         <v>-1</v>
       </c>
       <c r="Y267">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z267">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA267">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB267">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC267">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="268" spans="1:29">
@@ -26560,7 +26560,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>4270780</v>
+        <v>3723111</v>
       </c>
       <c r="C293" t="s">
         <v>28</v>
@@ -26572,73 +26572,73 @@
         <v>44505.58333333334</v>
       </c>
       <c r="F293" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G293" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I293">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J293" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K293">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="L293">
         <v>3.25</v>
       </c>
       <c r="M293">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="N293">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="O293">
         <v>3.25</v>
       </c>
       <c r="P293">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="Q293">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R293">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S293">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T293">
         <v>2.25</v>
       </c>
       <c r="U293">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V293">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W293">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X293">
         <v>-1</v>
       </c>
       <c r="Y293">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z293">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA293">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB293">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC293">
         <v>-1</v>
@@ -26649,7 +26649,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>3723111</v>
+        <v>4270780</v>
       </c>
       <c r="C294" t="s">
         <v>28</v>
@@ -26661,73 +26661,73 @@
         <v>44505.58333333334</v>
       </c>
       <c r="F294" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G294" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="H294">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I294">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J294" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K294">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="L294">
         <v>3.25</v>
       </c>
       <c r="M294">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="N294">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="O294">
         <v>3.25</v>
       </c>
       <c r="P294">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q294">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R294">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S294">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T294">
         <v>2.25</v>
       </c>
       <c r="U294">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V294">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W294">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X294">
         <v>-1</v>
       </c>
       <c r="Y294">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z294">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA294">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB294">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC294">
         <v>-1</v>
@@ -28874,7 +28874,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>3733148</v>
+        <v>3724219</v>
       </c>
       <c r="C319" t="s">
         <v>28</v>
@@ -28886,76 +28886,76 @@
         <v>44526.58333333334</v>
       </c>
       <c r="F319" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="G319" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J319" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K319">
-        <v>1.727</v>
+        <v>3.4</v>
       </c>
       <c r="L319">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M319">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N319">
-        <v>1.75</v>
+        <v>3.75</v>
       </c>
       <c r="O319">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P319">
-        <v>4</v>
+        <v>1.85</v>
       </c>
       <c r="Q319">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R319">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S319">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T319">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U319">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V319">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W319">
         <v>-1</v>
       </c>
       <c r="X319">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y319">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z319">
         <v>-1</v>
       </c>
       <c r="AA319">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AB319">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC319">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="320" spans="1:29">
@@ -28963,7 +28963,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>3724219</v>
+        <v>3733148</v>
       </c>
       <c r="C320" t="s">
         <v>28</v>
@@ -28975,76 +28975,76 @@
         <v>44526.58333333334</v>
       </c>
       <c r="F320" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="G320" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J320" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K320">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="L320">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M320">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N320">
-        <v>3.75</v>
+        <v>1.75</v>
       </c>
       <c r="O320">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P320">
-        <v>1.85</v>
+        <v>4</v>
       </c>
       <c r="Q320">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R320">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S320">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T320">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U320">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V320">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W320">
         <v>-1</v>
       </c>
       <c r="X320">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y320">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z320">
         <v>-1</v>
       </c>
       <c r="AA320">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AB320">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC320">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="321" spans="1:29">
@@ -33591,7 +33591,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>3724248</v>
+        <v>4782190</v>
       </c>
       <c r="C372" t="s">
         <v>28</v>
@@ -33603,76 +33603,76 @@
         <v>44640.45833333334</v>
       </c>
       <c r="F372" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G372" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H372">
         <v>0</v>
       </c>
       <c r="I372">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J372" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K372">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L372">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M372">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="N372">
-        <v>1.45</v>
+        <v>2.2</v>
       </c>
       <c r="O372">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P372">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="Q372">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R372">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S372">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T372">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U372">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V372">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W372">
         <v>-1</v>
       </c>
       <c r="X372">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y372">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z372">
         <v>-1</v>
       </c>
       <c r="AA372">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB372">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC372">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="373" spans="1:29">
@@ -33680,7 +33680,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>4782190</v>
+        <v>3724248</v>
       </c>
       <c r="C373" t="s">
         <v>28</v>
@@ -33692,76 +33692,76 @@
         <v>44640.45833333334</v>
       </c>
       <c r="F373" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G373" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H373">
         <v>0</v>
       </c>
       <c r="I373">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J373" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K373">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L373">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M373">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="N373">
-        <v>2.2</v>
+        <v>1.45</v>
       </c>
       <c r="O373">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P373">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="Q373">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R373">
+        <v>1.8</v>
+      </c>
+      <c r="S373">
+        <v>2</v>
+      </c>
+      <c r="T373">
+        <v>2.5</v>
+      </c>
+      <c r="U373">
         <v>1.95</v>
       </c>
-      <c r="S373">
+      <c r="V373">
         <v>1.85</v>
       </c>
-      <c r="T373">
-        <v>2.25</v>
-      </c>
-      <c r="U373">
-        <v>1.825</v>
-      </c>
-      <c r="V373">
-        <v>1.975</v>
-      </c>
       <c r="W373">
         <v>-1</v>
       </c>
       <c r="X373">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y373">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z373">
         <v>-1</v>
       </c>
       <c r="AA373">
+        <v>1</v>
+      </c>
+      <c r="AB373">
+        <v>-1</v>
+      </c>
+      <c r="AC373">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB373">
-        <v>0.825</v>
-      </c>
-      <c r="AC373">
-        <v>-1</v>
       </c>
     </row>
     <row r="374" spans="1:29">
@@ -34748,7 +34748,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>3724285</v>
+        <v>3724249</v>
       </c>
       <c r="C385" t="s">
         <v>28</v>
@@ -34760,76 +34760,76 @@
         <v>44656.54166666666</v>
       </c>
       <c r="F385" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G385" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I385">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J385" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K385">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="L385">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="M385">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="N385">
         <v>1.727</v>
       </c>
       <c r="O385">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P385">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q385">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R385">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S385">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T385">
         <v>2.25</v>
       </c>
       <c r="U385">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V385">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W385">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X385">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y385">
         <v>-1</v>
       </c>
       <c r="Z385">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA385">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB385">
         <v>-0.5</v>
       </c>
       <c r="AC385">
-        <v>0.4625</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="386" spans="1:29">
@@ -34837,7 +34837,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>3724249</v>
+        <v>3724285</v>
       </c>
       <c r="C386" t="s">
         <v>28</v>
@@ -34849,76 +34849,76 @@
         <v>44656.54166666666</v>
       </c>
       <c r="F386" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G386" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H386">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I386">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J386" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K386">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="L386">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="M386">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="N386">
         <v>1.727</v>
       </c>
       <c r="O386">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P386">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q386">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R386">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S386">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T386">
         <v>2.25</v>
       </c>
       <c r="U386">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V386">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W386">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X386">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y386">
         <v>-1</v>
       </c>
       <c r="Z386">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA386">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB386">
         <v>-0.5</v>
       </c>
       <c r="AC386">
-        <v>0.4</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="387" spans="1:29">
@@ -37863,7 +37863,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>3724281</v>
+        <v>3724280</v>
       </c>
       <c r="C420" t="s">
         <v>28</v>
@@ -37875,73 +37875,73 @@
         <v>44677.54166666666</v>
       </c>
       <c r="F420" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G420" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H420">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I420">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J420" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K420">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="L420">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M420">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="N420">
+        <v>2.75</v>
+      </c>
+      <c r="O420">
         <v>3.1</v>
       </c>
-      <c r="O420">
-        <v>3</v>
-      </c>
       <c r="P420">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="Q420">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R420">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S420">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T420">
         <v>2.25</v>
       </c>
       <c r="U420">
-        <v>2.125</v>
+        <v>2.025</v>
       </c>
       <c r="V420">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="W420">
         <v>-1</v>
       </c>
       <c r="X420">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y420">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z420">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA420">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB420">
-        <v>1.125</v>
+        <v>1.025</v>
       </c>
       <c r="AC420">
         <v>-1</v>
@@ -37952,7 +37952,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>3724280</v>
+        <v>3724281</v>
       </c>
       <c r="C421" t="s">
         <v>28</v>
@@ -37964,73 +37964,73 @@
         <v>44677.54166666666</v>
       </c>
       <c r="F421" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G421" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H421">
+        <v>1</v>
+      </c>
+      <c r="I421">
+        <v>2</v>
+      </c>
+      <c r="J421" t="s">
+        <v>60</v>
+      </c>
+      <c r="K421">
+        <v>3.3</v>
+      </c>
+      <c r="L421">
+        <v>3.2</v>
+      </c>
+      <c r="M421">
+        <v>2</v>
+      </c>
+      <c r="N421">
+        <v>3.1</v>
+      </c>
+      <c r="O421">
         <v>3</v>
       </c>
-      <c r="I421">
-        <v>3</v>
-      </c>
-      <c r="J421" t="s">
-        <v>62</v>
-      </c>
-      <c r="K421">
-        <v>2.5</v>
-      </c>
-      <c r="L421">
-        <v>2.9</v>
-      </c>
-      <c r="M421">
-        <v>2.7</v>
-      </c>
-      <c r="N421">
-        <v>2.75</v>
-      </c>
-      <c r="O421">
-        <v>3.1</v>
-      </c>
       <c r="P421">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="Q421">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R421">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S421">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T421">
         <v>2.25</v>
       </c>
       <c r="U421">
-        <v>2.025</v>
+        <v>2.125</v>
       </c>
       <c r="V421">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="W421">
         <v>-1</v>
       </c>
       <c r="X421">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y421">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z421">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA421">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB421">
-        <v>1.025</v>
+        <v>1.125</v>
       </c>
       <c r="AC421">
         <v>-1</v>
@@ -38130,7 +38130,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>3724278</v>
+        <v>3724277</v>
       </c>
       <c r="C423" t="s">
         <v>28</v>
@@ -38142,13 +38142,13 @@
         <v>44678.54166666666</v>
       </c>
       <c r="F423" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G423" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="H423">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I423">
         <v>0</v>
@@ -38157,43 +38157,43 @@
         <v>61</v>
       </c>
       <c r="K423">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L423">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M423">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N423">
-        <v>1.833</v>
+        <v>1.85</v>
       </c>
       <c r="O423">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="P423">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="Q423">
         <v>-0.5</v>
       </c>
       <c r="R423">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S423">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T423">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U423">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V423">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W423">
-        <v>0.833</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X423">
         <v>-1</v>
@@ -38202,16 +38202,16 @@
         <v>-1</v>
       </c>
       <c r="Z423">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA423">
         <v>-1</v>
       </c>
       <c r="AB423">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC423">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="424" spans="1:29">
@@ -38219,7 +38219,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>3724277</v>
+        <v>3724278</v>
       </c>
       <c r="C424" t="s">
         <v>28</v>
@@ -38231,13 +38231,13 @@
         <v>44678.54166666666</v>
       </c>
       <c r="F424" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G424" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H424">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I424">
         <v>0</v>
@@ -38246,43 +38246,43 @@
         <v>61</v>
       </c>
       <c r="K424">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L424">
+        <v>3.1</v>
+      </c>
+      <c r="M424">
         <v>3.2</v>
       </c>
-      <c r="M424">
+      <c r="N424">
+        <v>1.833</v>
+      </c>
+      <c r="O424">
         <v>3.25</v>
       </c>
-      <c r="N424">
-        <v>1.85</v>
-      </c>
-      <c r="O424">
-        <v>2.9</v>
-      </c>
       <c r="P424">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="Q424">
         <v>-0.5</v>
       </c>
       <c r="R424">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S424">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T424">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U424">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V424">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W424">
-        <v>0.8500000000000001</v>
+        <v>0.833</v>
       </c>
       <c r="X424">
         <v>-1</v>
@@ -38291,16 +38291,16 @@
         <v>-1</v>
       </c>
       <c r="Z424">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA424">
         <v>-1</v>
       </c>
       <c r="AB424">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC424">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:29">
@@ -38397,7 +38397,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>3724282</v>
+        <v>4936875</v>
       </c>
       <c r="C426" t="s">
         <v>28</v>
@@ -38409,49 +38409,49 @@
         <v>44679.54166666666</v>
       </c>
       <c r="F426" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G426" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I426">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J426" t="s">
         <v>60</v>
       </c>
       <c r="K426">
+        <v>2.15</v>
+      </c>
+      <c r="L426">
+        <v>3</v>
+      </c>
+      <c r="M426">
+        <v>3.2</v>
+      </c>
+      <c r="N426">
         <v>2.3</v>
       </c>
-      <c r="L426">
-        <v>3.1</v>
-      </c>
-      <c r="M426">
-        <v>2.8</v>
-      </c>
-      <c r="N426">
-        <v>2.9</v>
-      </c>
       <c r="O426">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P426">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="Q426">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R426">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S426">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T426">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U426">
         <v>1.8</v>
@@ -38466,19 +38466,19 @@
         <v>-1</v>
       </c>
       <c r="Y426">
-        <v>1.375</v>
+        <v>2</v>
       </c>
       <c r="Z426">
         <v>-1</v>
       </c>
       <c r="AA426">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AB426">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC426">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="427" spans="1:29">
@@ -38486,7 +38486,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>4936875</v>
+        <v>3724282</v>
       </c>
       <c r="C427" t="s">
         <v>28</v>
@@ -38498,49 +38498,49 @@
         <v>44679.54166666666</v>
       </c>
       <c r="F427" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G427" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H427">
+        <v>0</v>
+      </c>
+      <c r="I427">
         <v>1</v>
-      </c>
-      <c r="I427">
-        <v>2</v>
       </c>
       <c r="J427" t="s">
         <v>60</v>
       </c>
       <c r="K427">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="L427">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M427">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="N427">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="O427">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P427">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="Q427">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R427">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S427">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T427">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U427">
         <v>1.8</v>
@@ -38555,19 +38555,19 @@
         <v>-1</v>
       </c>
       <c r="Y427">
-        <v>2</v>
+        <v>1.375</v>
       </c>
       <c r="Z427">
         <v>-1</v>
       </c>
       <c r="AA427">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AB427">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC427">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:29">
@@ -38931,7 +38931,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>3853515</v>
+        <v>3850372</v>
       </c>
       <c r="C432" t="s">
         <v>28</v>
@@ -38943,19 +38943,19 @@
         <v>44682.41666666666</v>
       </c>
       <c r="F432" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G432" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H432">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I432">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J432" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K432">
         <v>2.75</v>
@@ -38964,52 +38964,52 @@
         <v>3</v>
       </c>
       <c r="M432">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="N432">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="O432">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P432">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="Q432">
         <v>0.25</v>
       </c>
       <c r="R432">
-        <v>1.825</v>
+        <v>2.2</v>
       </c>
       <c r="S432">
-        <v>1.975</v>
+        <v>1.7</v>
       </c>
       <c r="T432">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U432">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V432">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W432">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X432">
         <v>-1</v>
       </c>
       <c r="Y432">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z432">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA432">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AB432">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC432">
         <v>-1</v>
@@ -39020,7 +39020,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>3850372</v>
+        <v>3853515</v>
       </c>
       <c r="C433" t="s">
         <v>28</v>
@@ -39032,19 +39032,19 @@
         <v>44682.41666666666</v>
       </c>
       <c r="F433" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G433" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H433">
+        <v>4</v>
+      </c>
+      <c r="I433">
         <v>1</v>
       </c>
-      <c r="I433">
-        <v>3</v>
-      </c>
       <c r="J433" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K433">
         <v>2.75</v>
@@ -39053,52 +39053,52 @@
         <v>3</v>
       </c>
       <c r="M433">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="N433">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="O433">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P433">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="Q433">
         <v>0.25</v>
       </c>
       <c r="R433">
-        <v>2.2</v>
+        <v>1.825</v>
       </c>
       <c r="S433">
-        <v>1.7</v>
+        <v>1.975</v>
       </c>
       <c r="T433">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U433">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V433">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W433">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X433">
         <v>-1</v>
       </c>
       <c r="Y433">
+        <v>-1</v>
+      </c>
+      <c r="Z433">
+        <v>0.825</v>
+      </c>
+      <c r="AA433">
+        <v>-1</v>
+      </c>
+      <c r="AB433">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="Z433">
-        <v>-1</v>
-      </c>
-      <c r="AA433">
-        <v>0.7</v>
-      </c>
-      <c r="AB433">
-        <v>0.925</v>
       </c>
       <c r="AC433">
         <v>-1</v>
@@ -41156,7 +41156,7 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>3945949</v>
+        <v>3953056</v>
       </c>
       <c r="C457" t="s">
         <v>28</v>
@@ -41168,76 +41168,76 @@
         <v>44703.31944444445</v>
       </c>
       <c r="F457" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G457" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457">
         <v>1</v>
       </c>
       <c r="J457" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K457">
+        <v>2.05</v>
+      </c>
+      <c r="L457">
+        <v>3.4</v>
+      </c>
+      <c r="M457">
+        <v>3.3</v>
+      </c>
+      <c r="N457">
+        <v>2.05</v>
+      </c>
+      <c r="O457">
+        <v>3.6</v>
+      </c>
+      <c r="P457">
         <v>3.1</v>
       </c>
-      <c r="L457">
-        <v>3.3</v>
-      </c>
-      <c r="M457">
-        <v>2.2</v>
-      </c>
-      <c r="N457">
-        <v>1.6</v>
-      </c>
-      <c r="O457">
-        <v>4</v>
-      </c>
-      <c r="P457">
-        <v>5.25</v>
-      </c>
       <c r="Q457">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R457">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S457">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T457">
         <v>2.75</v>
       </c>
       <c r="U457">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V457">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W457">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X457">
         <v>-1</v>
       </c>
       <c r="Y457">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z457">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA457">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB457">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC457">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="458" spans="1:29">
@@ -41245,7 +41245,7 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>3949265</v>
+        <v>3956530</v>
       </c>
       <c r="C458" t="s">
         <v>28</v>
@@ -41257,76 +41257,76 @@
         <v>44703.31944444445</v>
       </c>
       <c r="F458" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G458" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H458">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I458">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J458" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K458">
+        <v>1.666</v>
+      </c>
+      <c r="L458">
+        <v>3.6</v>
+      </c>
+      <c r="M458">
+        <v>4.75</v>
+      </c>
+      <c r="N458">
         <v>2.05</v>
       </c>
-      <c r="L458">
-        <v>3.4</v>
-      </c>
-      <c r="M458">
-        <v>3.3</v>
-      </c>
-      <c r="N458">
-        <v>2.1</v>
-      </c>
       <c r="O458">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P458">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q458">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R458">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S458">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T458">
         <v>2.75</v>
       </c>
       <c r="U458">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V458">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W458">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X458">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y458">
         <v>-1</v>
       </c>
       <c r="Z458">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA458">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB458">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC458">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="459" spans="1:29">
@@ -41334,7 +41334,7 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>3949266</v>
+        <v>3945949</v>
       </c>
       <c r="C459" t="s">
         <v>28</v>
@@ -41346,40 +41346,40 @@
         <v>44703.31944444445</v>
       </c>
       <c r="F459" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G459" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H459">
         <v>0</v>
       </c>
       <c r="I459">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J459" t="s">
         <v>60</v>
       </c>
       <c r="K459">
+        <v>3.1</v>
+      </c>
+      <c r="L459">
         <v>3.3</v>
       </c>
-      <c r="L459">
-        <v>3.4</v>
-      </c>
       <c r="M459">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="N459">
-        <v>3.3</v>
+        <v>1.6</v>
       </c>
       <c r="O459">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P459">
-        <v>2</v>
+        <v>5.25</v>
       </c>
       <c r="Q459">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R459">
         <v>1.775</v>
@@ -41391,10 +41391,10 @@
         <v>2.75</v>
       </c>
       <c r="U459">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V459">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W459">
         <v>-1</v>
@@ -41403,7 +41403,7 @@
         <v>-1</v>
       </c>
       <c r="Y459">
-        <v>1</v>
+        <v>4.25</v>
       </c>
       <c r="Z459">
         <v>-1</v>
@@ -41412,10 +41412,10 @@
         <v>1.025</v>
       </c>
       <c r="AB459">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC459">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="460" spans="1:29">
@@ -41423,7 +41423,7 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>3956530</v>
+        <v>3949266</v>
       </c>
       <c r="C460" t="s">
         <v>28</v>
@@ -41435,76 +41435,76 @@
         <v>44703.31944444445</v>
       </c>
       <c r="F460" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G460" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H460">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I460">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J460" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K460">
-        <v>1.666</v>
+        <v>3.3</v>
       </c>
       <c r="L460">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M460">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="N460">
-        <v>2.05</v>
+        <v>3.3</v>
       </c>
       <c r="O460">
         <v>3.5</v>
       </c>
       <c r="P460">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="Q460">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R460">
+        <v>1.775</v>
+      </c>
+      <c r="S460">
         <v>2.025</v>
-      </c>
-      <c r="S460">
-        <v>1.775</v>
       </c>
       <c r="T460">
         <v>2.75</v>
       </c>
       <c r="U460">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V460">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W460">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X460">
         <v>-1</v>
       </c>
       <c r="Y460">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z460">
+        <v>-1</v>
+      </c>
+      <c r="AA460">
         <v>1.025</v>
       </c>
-      <c r="AA460">
-        <v>-1</v>
-      </c>
       <c r="AB460">
-        <v>0.8999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="AC460">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="461" spans="1:29">
@@ -41512,7 +41512,7 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>3951941</v>
+        <v>3951940</v>
       </c>
       <c r="C461" t="s">
         <v>28</v>
@@ -41524,76 +41524,76 @@
         <v>44703.31944444445</v>
       </c>
       <c r="F461" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G461" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I461">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J461" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K461">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L461">
         <v>3.4</v>
       </c>
       <c r="M461">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="N461">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O461">
         <v>3.4</v>
       </c>
       <c r="P461">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q461">
         <v>-0.25</v>
       </c>
       <c r="R461">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S461">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T461">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U461">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V461">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W461">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X461">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y461">
         <v>-1</v>
       </c>
       <c r="Z461">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA461">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB461">
         <v>-1</v>
       </c>
       <c r="AC461">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="462" spans="1:29">
@@ -41601,7 +41601,7 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>3956529</v>
+        <v>3949265</v>
       </c>
       <c r="C462" t="s">
         <v>28</v>
@@ -41613,76 +41613,76 @@
         <v>44703.31944444445</v>
       </c>
       <c r="F462" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="G462" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I462">
         <v>1</v>
       </c>
       <c r="J462" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K462">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="L462">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M462">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="N462">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="O462">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P462">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="Q462">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R462">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S462">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T462">
         <v>2.75</v>
       </c>
       <c r="U462">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V462">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W462">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X462">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y462">
         <v>-1</v>
       </c>
       <c r="Z462">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="AA462">
-        <v>-0.5</v>
+        <v>0.4625</v>
       </c>
       <c r="AB462">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC462">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="463" spans="1:29">
@@ -41690,7 +41690,7 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>3953056</v>
+        <v>3956529</v>
       </c>
       <c r="C463" t="s">
         <v>28</v>
@@ -41702,10 +41702,10 @@
         <v>44703.31944444445</v>
       </c>
       <c r="F463" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G463" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H463">
         <v>2</v>
@@ -41717,31 +41717,31 @@
         <v>61</v>
       </c>
       <c r="K463">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="L463">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M463">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="N463">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="O463">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P463">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q463">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R463">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S463">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T463">
         <v>2.75</v>
@@ -41753,7 +41753,7 @@
         <v>1.95</v>
       </c>
       <c r="W463">
-        <v>1.05</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X463">
         <v>-1</v>
@@ -41762,10 +41762,10 @@
         <v>-1</v>
       </c>
       <c r="Z463">
-        <v>0.825</v>
+        <v>0.5</v>
       </c>
       <c r="AA463">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB463">
         <v>0.425</v>
@@ -41779,7 +41779,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>3951940</v>
+        <v>3951941</v>
       </c>
       <c r="C464" t="s">
         <v>28</v>
@@ -41791,76 +41791,76 @@
         <v>44703.31944444445</v>
       </c>
       <c r="F464" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G464" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H464">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I464">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J464" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K464">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L464">
         <v>3.4</v>
       </c>
       <c r="M464">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="N464">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O464">
         <v>3.4</v>
       </c>
       <c r="P464">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q464">
         <v>-0.25</v>
       </c>
       <c r="R464">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S464">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T464">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U464">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V464">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W464">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X464">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y464">
         <v>-1</v>
       </c>
       <c r="Z464">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA464">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB464">
         <v>-1</v>
       </c>
       <c r="AC464">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="465" spans="1:29">
@@ -45517,7 +45517,7 @@
         <v>504</v>
       </c>
       <c r="B506">
-        <v>5138953</v>
+        <v>5138955</v>
       </c>
       <c r="C506" t="s">
         <v>28</v>
@@ -45529,76 +45529,76 @@
         <v>44783.54166666666</v>
       </c>
       <c r="F506" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G506" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H506">
         <v>1</v>
       </c>
       <c r="I506">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J506" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K506">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="L506">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M506">
-        <v>2.7</v>
+        <v>2.375</v>
       </c>
       <c r="N506">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="O506">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P506">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="Q506">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R506">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S506">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T506">
         <v>2.25</v>
       </c>
       <c r="U506">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V506">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W506">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X506">
         <v>-1</v>
       </c>
       <c r="Y506">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z506">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA506">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB506">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC506">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="507" spans="1:29">
@@ -45606,7 +45606,7 @@
         <v>505</v>
       </c>
       <c r="B507">
-        <v>5138955</v>
+        <v>5138952</v>
       </c>
       <c r="C507" t="s">
         <v>28</v>
@@ -45618,56 +45618,56 @@
         <v>44783.54166666666</v>
       </c>
       <c r="F507" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="G507" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="H507">
+        <v>0</v>
+      </c>
+      <c r="I507">
         <v>1</v>
-      </c>
-      <c r="I507">
-        <v>3</v>
       </c>
       <c r="J507" t="s">
         <v>60</v>
       </c>
       <c r="K507">
-        <v>2.8</v>
+        <v>1.533</v>
       </c>
       <c r="L507">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M507">
-        <v>2.375</v>
+        <v>5.75</v>
       </c>
       <c r="N507">
-        <v>3</v>
+        <v>1.533</v>
       </c>
       <c r="O507">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P507">
-        <v>2.25</v>
+        <v>5.75</v>
       </c>
       <c r="Q507">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R507">
+        <v>1.9</v>
+      </c>
+      <c r="S507">
+        <v>1.9</v>
+      </c>
+      <c r="T507">
+        <v>2.5</v>
+      </c>
+      <c r="U507">
+        <v>1.975</v>
+      </c>
+      <c r="V507">
         <v>1.825</v>
       </c>
-      <c r="S507">
-        <v>1.975</v>
-      </c>
-      <c r="T507">
-        <v>2.25</v>
-      </c>
-      <c r="U507">
-        <v>1.875</v>
-      </c>
-      <c r="V507">
-        <v>1.925</v>
-      </c>
       <c r="W507">
         <v>-1</v>
       </c>
@@ -45675,19 +45675,19 @@
         <v>-1</v>
       </c>
       <c r="Y507">
-        <v>1.25</v>
+        <v>4.75</v>
       </c>
       <c r="Z507">
         <v>-1</v>
       </c>
       <c r="AA507">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB507">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC507">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="508" spans="1:29">
@@ -45695,7 +45695,7 @@
         <v>506</v>
       </c>
       <c r="B508">
-        <v>5138952</v>
+        <v>5138953</v>
       </c>
       <c r="C508" t="s">
         <v>28</v>
@@ -45707,76 +45707,76 @@
         <v>44783.54166666666</v>
       </c>
       <c r="F508" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G508" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H508">
+        <v>1</v>
+      </c>
+      <c r="I508">
         <v>0</v>
       </c>
-      <c r="I508">
+      <c r="J508" t="s">
+        <v>61</v>
+      </c>
+      <c r="K508">
+        <v>2.3</v>
+      </c>
+      <c r="L508">
+        <v>3.3</v>
+      </c>
+      <c r="M508">
+        <v>2.7</v>
+      </c>
+      <c r="N508">
+        <v>2.3</v>
+      </c>
+      <c r="O508">
+        <v>3.3</v>
+      </c>
+      <c r="P508">
+        <v>2.75</v>
+      </c>
+      <c r="Q508">
+        <v>0</v>
+      </c>
+      <c r="R508">
+        <v>1.75</v>
+      </c>
+      <c r="S508">
+        <v>2.05</v>
+      </c>
+      <c r="T508">
+        <v>2.25</v>
+      </c>
+      <c r="U508">
+        <v>1.8</v>
+      </c>
+      <c r="V508">
+        <v>2</v>
+      </c>
+      <c r="W508">
+        <v>1.3</v>
+      </c>
+      <c r="X508">
+        <v>-1</v>
+      </c>
+      <c r="Y508">
+        <v>-1</v>
+      </c>
+      <c r="Z508">
+        <v>0.75</v>
+      </c>
+      <c r="AA508">
+        <v>-1</v>
+      </c>
+      <c r="AB508">
+        <v>-1</v>
+      </c>
+      <c r="AC508">
         <v>1</v>
-      </c>
-      <c r="J508" t="s">
-        <v>60</v>
-      </c>
-      <c r="K508">
-        <v>1.533</v>
-      </c>
-      <c r="L508">
-        <v>3.75</v>
-      </c>
-      <c r="M508">
-        <v>5.75</v>
-      </c>
-      <c r="N508">
-        <v>1.533</v>
-      </c>
-      <c r="O508">
-        <v>3.8</v>
-      </c>
-      <c r="P508">
-        <v>5.75</v>
-      </c>
-      <c r="Q508">
-        <v>-1</v>
-      </c>
-      <c r="R508">
-        <v>1.9</v>
-      </c>
-      <c r="S508">
-        <v>1.9</v>
-      </c>
-      <c r="T508">
-        <v>2.5</v>
-      </c>
-      <c r="U508">
-        <v>1.975</v>
-      </c>
-      <c r="V508">
-        <v>1.825</v>
-      </c>
-      <c r="W508">
-        <v>-1</v>
-      </c>
-      <c r="X508">
-        <v>-1</v>
-      </c>
-      <c r="Y508">
-        <v>4.75</v>
-      </c>
-      <c r="Z508">
-        <v>-1</v>
-      </c>
-      <c r="AA508">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB508">
-        <v>-1</v>
-      </c>
-      <c r="AC508">
-        <v>0.825</v>
       </c>
     </row>
     <row r="509" spans="1:29">
@@ -52726,7 +52726,7 @@
         <v>585</v>
       </c>
       <c r="B587">
-        <v>5138999</v>
+        <v>5139001</v>
       </c>
       <c r="C587" t="s">
         <v>28</v>
@@ -52738,76 +52738,76 @@
         <v>44849.41666666666</v>
       </c>
       <c r="F587" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G587" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H587">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I587">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J587" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K587">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="L587">
         <v>3.3</v>
       </c>
       <c r="M587">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N587">
+        <v>2.45</v>
+      </c>
+      <c r="O587">
+        <v>3.1</v>
+      </c>
+      <c r="P587">
+        <v>2.75</v>
+      </c>
+      <c r="Q587">
+        <v>0</v>
+      </c>
+      <c r="R587">
+        <v>1.825</v>
+      </c>
+      <c r="S587">
+        <v>1.975</v>
+      </c>
+      <c r="T587">
+        <v>2.25</v>
+      </c>
+      <c r="U587">
         <v>1.95</v>
       </c>
-      <c r="O587">
-        <v>3.3</v>
-      </c>
-      <c r="P587">
-        <v>3.5</v>
-      </c>
-      <c r="Q587">
+      <c r="V587">
+        <v>1.85</v>
+      </c>
+      <c r="W587">
+        <v>-1</v>
+      </c>
+      <c r="X587">
+        <v>2.1</v>
+      </c>
+      <c r="Y587">
+        <v>-1</v>
+      </c>
+      <c r="Z587">
+        <v>0</v>
+      </c>
+      <c r="AA587">
+        <v>-0</v>
+      </c>
+      <c r="AB587">
         <v>-0.5</v>
       </c>
-      <c r="R587">
-        <v>2</v>
-      </c>
-      <c r="S587">
-        <v>1.8</v>
-      </c>
-      <c r="T587">
-        <v>2.5</v>
-      </c>
-      <c r="U587">
-        <v>2</v>
-      </c>
-      <c r="V587">
-        <v>1.8</v>
-      </c>
-      <c r="W587">
-        <v>0.95</v>
-      </c>
-      <c r="X587">
-        <v>-1</v>
-      </c>
-      <c r="Y587">
-        <v>-1</v>
-      </c>
-      <c r="Z587">
-        <v>1</v>
-      </c>
-      <c r="AA587">
-        <v>-1</v>
-      </c>
-      <c r="AB587">
-        <v>1</v>
-      </c>
       <c r="AC587">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="588" spans="1:29">
@@ -52815,7 +52815,7 @@
         <v>586</v>
       </c>
       <c r="B588">
-        <v>5139001</v>
+        <v>5138999</v>
       </c>
       <c r="C588" t="s">
         <v>28</v>
@@ -52827,76 +52827,76 @@
         <v>44849.41666666666</v>
       </c>
       <c r="F588" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G588" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H588">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I588">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J588" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K588">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="L588">
         <v>3.3</v>
       </c>
       <c r="M588">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N588">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="O588">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P588">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q588">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R588">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S588">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T588">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U588">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V588">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W588">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X588">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y588">
         <v>-1</v>
       </c>
       <c r="Z588">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA588">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB588">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC588">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="589" spans="1:29">
@@ -55129,7 +55129,7 @@
         <v>612</v>
       </c>
       <c r="B614">
-        <v>5139015</v>
+        <v>5139017</v>
       </c>
       <c r="C614" t="s">
         <v>28</v>
@@ -55141,76 +55141,76 @@
         <v>44870.45833333334</v>
       </c>
       <c r="F614" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G614" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="H614">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I614">
         <v>2</v>
       </c>
       <c r="J614" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K614">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="L614">
         <v>3.3</v>
       </c>
       <c r="M614">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="N614">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="O614">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P614">
-        <v>2.375</v>
+        <v>2.05</v>
       </c>
       <c r="Q614">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R614">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S614">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T614">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U614">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V614">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W614">
         <v>-1</v>
       </c>
       <c r="X614">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y614">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z614">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA614">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB614">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AC614">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="615" spans="1:29">
@@ -55218,7 +55218,7 @@
         <v>613</v>
       </c>
       <c r="B615">
-        <v>5139017</v>
+        <v>5139015</v>
       </c>
       <c r="C615" t="s">
         <v>28</v>
@@ -55230,76 +55230,76 @@
         <v>44870.45833333334</v>
       </c>
       <c r="F615" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G615" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="H615">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I615">
         <v>2</v>
       </c>
       <c r="J615" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K615">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="L615">
         <v>3.3</v>
       </c>
       <c r="M615">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="N615">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="O615">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P615">
-        <v>2.05</v>
+        <v>2.375</v>
       </c>
       <c r="Q615">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R615">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S615">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T615">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U615">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V615">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W615">
         <v>-1</v>
       </c>
       <c r="X615">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y615">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z615">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA615">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB615">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AC615">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="616" spans="1:29">
@@ -56375,7 +56375,7 @@
         <v>626</v>
       </c>
       <c r="B628">
-        <v>5139019</v>
+        <v>5139023</v>
       </c>
       <c r="C628" t="s">
         <v>28</v>
@@ -56387,10 +56387,10 @@
         <v>44878.58333333334</v>
       </c>
       <c r="F628" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G628" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H628">
         <v>2</v>
@@ -56402,58 +56402,58 @@
         <v>62</v>
       </c>
       <c r="K628">
+        <v>2.375</v>
+      </c>
+      <c r="L628">
+        <v>3.25</v>
+      </c>
+      <c r="M628">
+        <v>2.625</v>
+      </c>
+      <c r="N628">
+        <v>2.8</v>
+      </c>
+      <c r="O628">
+        <v>3.3</v>
+      </c>
+      <c r="P628">
         <v>2.25</v>
       </c>
-      <c r="L628">
-        <v>3.3</v>
-      </c>
-      <c r="M628">
-        <v>3</v>
-      </c>
-      <c r="N628">
-        <v>2.5</v>
-      </c>
-      <c r="O628">
-        <v>3.2</v>
-      </c>
-      <c r="P628">
-        <v>2.625</v>
-      </c>
       <c r="Q628">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R628">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S628">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T628">
         <v>2.5</v>
       </c>
       <c r="U628">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V628">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W628">
         <v>-1</v>
       </c>
       <c r="X628">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Y628">
         <v>-1</v>
       </c>
       <c r="Z628">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA628">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB628">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC628">
         <v>-1</v>
@@ -56464,7 +56464,7 @@
         <v>627</v>
       </c>
       <c r="B629">
-        <v>5139023</v>
+        <v>5139019</v>
       </c>
       <c r="C629" t="s">
         <v>28</v>
@@ -56476,10 +56476,10 @@
         <v>44878.58333333334</v>
       </c>
       <c r="F629" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G629" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H629">
         <v>2</v>
@@ -56491,58 +56491,58 @@
         <v>62</v>
       </c>
       <c r="K629">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="L629">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M629">
+        <v>3</v>
+      </c>
+      <c r="N629">
+        <v>2.5</v>
+      </c>
+      <c r="O629">
+        <v>3.2</v>
+      </c>
+      <c r="P629">
         <v>2.625</v>
       </c>
-      <c r="N629">
-        <v>2.8</v>
-      </c>
-      <c r="O629">
-        <v>3.3</v>
-      </c>
-      <c r="P629">
-        <v>2.25</v>
-      </c>
       <c r="Q629">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R629">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S629">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T629">
         <v>2.5</v>
       </c>
       <c r="U629">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V629">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W629">
         <v>-1</v>
       </c>
       <c r="X629">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Y629">
         <v>-1</v>
       </c>
       <c r="Z629">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AA629">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB629">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC629">
         <v>-1</v>
@@ -60914,7 +60914,7 @@
         <v>677</v>
       </c>
       <c r="B679">
-        <v>5139054</v>
+        <v>5140743</v>
       </c>
       <c r="C679" t="s">
         <v>28</v>
@@ -60926,73 +60926,73 @@
         <v>45004.58333333334</v>
       </c>
       <c r="F679" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="G679" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H679">
         <v>2</v>
       </c>
       <c r="I679">
+        <v>2</v>
+      </c>
+      <c r="J679" t="s">
+        <v>62</v>
+      </c>
+      <c r="K679">
         <v>3</v>
       </c>
-      <c r="J679" t="s">
-        <v>60</v>
-      </c>
-      <c r="K679">
-        <v>2.15</v>
-      </c>
       <c r="L679">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M679">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="N679">
-        <v>2.375</v>
+        <v>2.9</v>
       </c>
       <c r="O679">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P679">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Q679">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R679">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S679">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T679">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U679">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V679">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W679">
         <v>-1</v>
       </c>
       <c r="X679">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y679">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z679">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA679">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB679">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC679">
         <v>-1</v>
@@ -61181,7 +61181,7 @@
         <v>680</v>
       </c>
       <c r="B682">
-        <v>5140743</v>
+        <v>5139054</v>
       </c>
       <c r="C682" t="s">
         <v>28</v>
@@ -61193,73 +61193,73 @@
         <v>45004.58333333334</v>
       </c>
       <c r="F682" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G682" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H682">
         <v>2</v>
       </c>
       <c r="I682">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J682" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K682">
+        <v>2.15</v>
+      </c>
+      <c r="L682">
+        <v>3.2</v>
+      </c>
+      <c r="M682">
+        <v>3.1</v>
+      </c>
+      <c r="N682">
+        <v>2.375</v>
+      </c>
+      <c r="O682">
         <v>3</v>
       </c>
-      <c r="L682">
-        <v>3.3</v>
-      </c>
-      <c r="M682">
-        <v>2.2</v>
-      </c>
-      <c r="N682">
-        <v>2.9</v>
-      </c>
-      <c r="O682">
-        <v>3.3</v>
-      </c>
       <c r="P682">
+        <v>3</v>
+      </c>
+      <c r="Q682">
+        <v>-0.25</v>
+      </c>
+      <c r="R682">
+        <v>2.025</v>
+      </c>
+      <c r="S682">
+        <v>1.775</v>
+      </c>
+      <c r="T682">
         <v>2.25</v>
       </c>
-      <c r="Q682">
-        <v>0.25</v>
-      </c>
-      <c r="R682">
+      <c r="U682">
+        <v>1.975</v>
+      </c>
+      <c r="V682">
         <v>1.825</v>
       </c>
-      <c r="S682">
-        <v>1.975</v>
-      </c>
-      <c r="T682">
-        <v>2.5</v>
-      </c>
-      <c r="U682">
-        <v>1.95</v>
-      </c>
-      <c r="V682">
-        <v>1.85</v>
-      </c>
       <c r="W682">
         <v>-1</v>
       </c>
       <c r="X682">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y682">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z682">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA682">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB682">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC682">
         <v>-1</v>
@@ -62071,7 +62071,7 @@
         <v>690</v>
       </c>
       <c r="B692">
-        <v>5138224</v>
+        <v>5139063</v>
       </c>
       <c r="C692" t="s">
         <v>28</v>
@@ -62083,10 +62083,10 @@
         <v>45022.54166666666</v>
       </c>
       <c r="F692" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G692" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H692">
         <v>0</v>
@@ -62098,61 +62098,61 @@
         <v>62</v>
       </c>
       <c r="K692">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="L692">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M692">
+        <v>2.875</v>
+      </c>
+      <c r="N692">
+        <v>2.7</v>
+      </c>
+      <c r="O692">
+        <v>3.1</v>
+      </c>
+      <c r="P692">
+        <v>2.375</v>
+      </c>
+      <c r="Q692">
+        <v>0</v>
+      </c>
+      <c r="R692">
+        <v>2.05</v>
+      </c>
+      <c r="S692">
         <v>1.75</v>
       </c>
-      <c r="N692">
-        <v>4</v>
-      </c>
-      <c r="O692">
-        <v>3.4</v>
-      </c>
-      <c r="P692">
-        <v>1.8</v>
-      </c>
-      <c r="Q692">
-        <v>0.5</v>
-      </c>
-      <c r="R692">
-        <v>1.975</v>
-      </c>
-      <c r="S692">
-        <v>1.825</v>
-      </c>
       <c r="T692">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U692">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V692">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W692">
         <v>-1</v>
       </c>
       <c r="X692">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="Y692">
         <v>-1</v>
       </c>
       <c r="Z692">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA692">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB692">
         <v>-1</v>
       </c>
       <c r="AC692">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="693" spans="1:29">
@@ -62160,7 +62160,7 @@
         <v>691</v>
       </c>
       <c r="B693">
-        <v>5139063</v>
+        <v>5138224</v>
       </c>
       <c r="C693" t="s">
         <v>28</v>
@@ -62172,10 +62172,10 @@
         <v>45022.54166666666</v>
       </c>
       <c r="F693" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G693" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H693">
         <v>0</v>
@@ -62187,61 +62187,61 @@
         <v>62</v>
       </c>
       <c r="K693">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="L693">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M693">
-        <v>2.875</v>
+        <v>1.75</v>
       </c>
       <c r="N693">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="O693">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P693">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="Q693">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R693">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S693">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T693">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U693">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V693">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W693">
         <v>-1</v>
       </c>
       <c r="X693">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="Y693">
         <v>-1</v>
       </c>
       <c r="Z693">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA693">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB693">
         <v>-1</v>
       </c>
       <c r="AC693">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="694" spans="1:29">
@@ -68479,7 +68479,7 @@
         <v>762</v>
       </c>
       <c r="B764">
-        <v>5451608</v>
+        <v>5451609</v>
       </c>
       <c r="C764" t="s">
         <v>28</v>
@@ -68491,58 +68491,58 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F764" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G764" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H764">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I764">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J764" t="s">
         <v>61</v>
       </c>
       <c r="K764">
-        <v>1.909</v>
+        <v>1.3</v>
       </c>
       <c r="L764">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M764">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="N764">
-        <v>1.909</v>
+        <v>1.333</v>
       </c>
       <c r="O764">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P764">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="Q764">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R764">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S764">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T764">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U764">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V764">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W764">
-        <v>0.909</v>
+        <v>0.333</v>
       </c>
       <c r="X764">
         <v>-1</v>
@@ -68551,16 +68551,16 @@
         <v>-1</v>
       </c>
       <c r="Z764">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA764">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB764">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC764">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="765" spans="1:29">
@@ -68568,7 +68568,7 @@
         <v>763</v>
       </c>
       <c r="B765">
-        <v>5451610</v>
+        <v>5452381</v>
       </c>
       <c r="C765" t="s">
         <v>28</v>
@@ -68580,76 +68580,76 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F765" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G765" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H765">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I765">
         <v>1</v>
       </c>
       <c r="J765" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K765">
-        <v>1.444</v>
+        <v>1.571</v>
       </c>
       <c r="L765">
         <v>4</v>
       </c>
       <c r="M765">
+        <v>5</v>
+      </c>
+      <c r="N765">
+        <v>1.4</v>
+      </c>
+      <c r="O765">
+        <v>4.5</v>
+      </c>
+      <c r="P765">
         <v>6.5</v>
       </c>
-      <c r="N765">
-        <v>1.333</v>
-      </c>
-      <c r="O765">
-        <v>4.333</v>
-      </c>
-      <c r="P765">
-        <v>8</v>
-      </c>
       <c r="Q765">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R765">
+        <v>1.9</v>
+      </c>
+      <c r="S765">
         <v>1.95</v>
       </c>
-      <c r="S765">
-        <v>1.85</v>
-      </c>
       <c r="T765">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U765">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V765">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W765">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X765">
         <v>-1</v>
       </c>
       <c r="Y765">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z765">
         <v>-1</v>
       </c>
       <c r="AA765">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB765">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC765">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="766" spans="1:29">
@@ -68657,7 +68657,7 @@
         <v>764</v>
       </c>
       <c r="B766">
-        <v>5448050</v>
+        <v>5451610</v>
       </c>
       <c r="C766" t="s">
         <v>28</v>
@@ -68669,76 +68669,76 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F766" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G766" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H766">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I766">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J766" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K766">
+        <v>1.444</v>
+      </c>
+      <c r="L766">
+        <v>4</v>
+      </c>
+      <c r="M766">
+        <v>6.5</v>
+      </c>
+      <c r="N766">
+        <v>1.333</v>
+      </c>
+      <c r="O766">
+        <v>4.333</v>
+      </c>
+      <c r="P766">
+        <v>8</v>
+      </c>
+      <c r="Q766">
+        <v>-1.5</v>
+      </c>
+      <c r="R766">
+        <v>1.95</v>
+      </c>
+      <c r="S766">
+        <v>1.85</v>
+      </c>
+      <c r="T766">
         <v>2.75</v>
       </c>
-      <c r="L766">
-        <v>3.25</v>
-      </c>
-      <c r="M766">
-        <v>2.375</v>
-      </c>
-      <c r="N766">
-        <v>2.4</v>
-      </c>
-      <c r="O766">
-        <v>3.25</v>
-      </c>
-      <c r="P766">
-        <v>2.7</v>
-      </c>
-      <c r="Q766">
-        <v>0</v>
-      </c>
-      <c r="R766">
-        <v>1.8</v>
-      </c>
-      <c r="S766">
-        <v>2.05</v>
-      </c>
-      <c r="T766">
-        <v>2.5</v>
-      </c>
       <c r="U766">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V766">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W766">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X766">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y766">
         <v>-1</v>
       </c>
       <c r="Z766">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA766">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB766">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC766">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="767" spans="1:29">
@@ -68746,7 +68746,7 @@
         <v>765</v>
       </c>
       <c r="B767">
-        <v>5451609</v>
+        <v>5451608</v>
       </c>
       <c r="C767" t="s">
         <v>28</v>
@@ -68758,58 +68758,58 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F767" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G767" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H767">
+        <v>2</v>
+      </c>
+      <c r="I767">
         <v>1</v>
-      </c>
-      <c r="I767">
-        <v>0</v>
       </c>
       <c r="J767" t="s">
         <v>61</v>
       </c>
       <c r="K767">
-        <v>1.3</v>
+        <v>1.909</v>
       </c>
       <c r="L767">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M767">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="N767">
-        <v>1.333</v>
+        <v>1.909</v>
       </c>
       <c r="O767">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P767">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="Q767">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R767">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S767">
+        <v>1.85</v>
+      </c>
+      <c r="T767">
+        <v>2.75</v>
+      </c>
+      <c r="U767">
         <v>1.8</v>
       </c>
-      <c r="T767">
-        <v>2.5</v>
-      </c>
-      <c r="U767">
-        <v>1.825</v>
-      </c>
       <c r="V767">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W767">
-        <v>0.333</v>
+        <v>0.909</v>
       </c>
       <c r="X767">
         <v>-1</v>
@@ -68818,16 +68818,16 @@
         <v>-1</v>
       </c>
       <c r="Z767">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA767">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB767">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC767">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="768" spans="1:29">
@@ -69013,7 +69013,7 @@
         <v>768</v>
       </c>
       <c r="B770">
-        <v>5452381</v>
+        <v>5447925</v>
       </c>
       <c r="C770" t="s">
         <v>28</v>
@@ -69025,55 +69025,55 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F770" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G770" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H770">
         <v>0</v>
       </c>
       <c r="I770">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J770" t="s">
         <v>60</v>
       </c>
       <c r="K770">
-        <v>1.571</v>
+        <v>5.5</v>
       </c>
       <c r="L770">
         <v>4</v>
       </c>
       <c r="M770">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="N770">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="O770">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P770">
-        <v>6.5</v>
+        <v>1.615</v>
       </c>
       <c r="Q770">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R770">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S770">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T770">
         <v>3</v>
       </c>
       <c r="U770">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V770">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W770">
         <v>-1</v>
@@ -69082,19 +69082,19 @@
         <v>-1</v>
       </c>
       <c r="Y770">
-        <v>5.5</v>
+        <v>0.615</v>
       </c>
       <c r="Z770">
         <v>-1</v>
       </c>
       <c r="AA770">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB770">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC770">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="771" spans="1:29">
@@ -69102,7 +69102,7 @@
         <v>769</v>
       </c>
       <c r="B771">
-        <v>5447925</v>
+        <v>5451607</v>
       </c>
       <c r="C771" t="s">
         <v>28</v>
@@ -69114,76 +69114,76 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F771" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G771" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="H771">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I771">
         <v>3</v>
       </c>
       <c r="J771" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K771">
-        <v>5.5</v>
+        <v>1.615</v>
       </c>
       <c r="L771">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M771">
-        <v>1.5</v>
+        <v>4.75</v>
       </c>
       <c r="N771">
-        <v>4.5</v>
+        <v>1.363</v>
       </c>
       <c r="O771">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P771">
-        <v>1.615</v>
+        <v>6</v>
       </c>
       <c r="Q771">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R771">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S771">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T771">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U771">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V771">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W771">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X771">
         <v>-1</v>
       </c>
       <c r="Y771">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z771">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA771">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AB771">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC771">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="772" spans="1:29">
@@ -69191,7 +69191,7 @@
         <v>770</v>
       </c>
       <c r="B772">
-        <v>5451607</v>
+        <v>5448050</v>
       </c>
       <c r="C772" t="s">
         <v>28</v>
@@ -69203,73 +69203,73 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F772" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G772" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H772">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I772">
         <v>3</v>
       </c>
       <c r="J772" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K772">
-        <v>1.615</v>
+        <v>2.75</v>
       </c>
       <c r="L772">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M772">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="N772">
-        <v>1.363</v>
+        <v>2.4</v>
       </c>
       <c r="O772">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="P772">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="Q772">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R772">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S772">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T772">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U772">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V772">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W772">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X772">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y772">
         <v>-1</v>
       </c>
       <c r="Z772">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA772">
-        <v>0.4875</v>
+        <v>-0</v>
       </c>
       <c r="AB772">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC772">
         <v>-1</v>
@@ -74976,7 +74976,7 @@
         <v>835</v>
       </c>
       <c r="B837">
-        <v>6805719</v>
+        <v>6803727</v>
       </c>
       <c r="C837" t="s">
         <v>28</v>
@@ -74988,58 +74988,58 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F837" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G837" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H837">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I837">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J837" t="s">
         <v>61</v>
       </c>
       <c r="K837">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="L837">
         <v>3.3</v>
       </c>
       <c r="M837">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="N837">
-        <v>2.05</v>
+        <v>3.75</v>
       </c>
       <c r="O837">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P837">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="Q837">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R837">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S837">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T837">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U837">
+        <v>1.925</v>
+      </c>
+      <c r="V837">
         <v>1.875</v>
       </c>
-      <c r="V837">
-        <v>1.975</v>
-      </c>
       <c r="W837">
-        <v>1.05</v>
+        <v>2.75</v>
       </c>
       <c r="X837">
         <v>-1</v>
@@ -75048,16 +75048,16 @@
         <v>-1</v>
       </c>
       <c r="Z837">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA837">
         <v>-1</v>
       </c>
       <c r="AB837">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AC837">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="838" spans="1:29">
@@ -75065,7 +75065,7 @@
         <v>836</v>
       </c>
       <c r="B838">
-        <v>6803727</v>
+        <v>6805719</v>
       </c>
       <c r="C838" t="s">
         <v>28</v>
@@ -75077,58 +75077,58 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F838" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G838" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H838">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I838">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J838" t="s">
         <v>61</v>
       </c>
       <c r="K838">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="L838">
         <v>3.3</v>
       </c>
       <c r="M838">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="N838">
-        <v>3.75</v>
+        <v>2.05</v>
       </c>
       <c r="O838">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P838">
+        <v>3.2</v>
+      </c>
+      <c r="Q838">
+        <v>-0.25</v>
+      </c>
+      <c r="R838">
         <v>1.85</v>
       </c>
-      <c r="Q838">
-        <v>0.5</v>
-      </c>
-      <c r="R838">
-        <v>1.925</v>
-      </c>
       <c r="S838">
+        <v>2</v>
+      </c>
+      <c r="T838">
+        <v>2.5</v>
+      </c>
+      <c r="U838">
         <v>1.875</v>
       </c>
-      <c r="T838">
-        <v>2.75</v>
-      </c>
-      <c r="U838">
-        <v>1.925</v>
-      </c>
       <c r="V838">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W838">
-        <v>2.75</v>
+        <v>1.05</v>
       </c>
       <c r="X838">
         <v>-1</v>
@@ -75137,16 +75137,16 @@
         <v>-1</v>
       </c>
       <c r="Z838">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA838">
         <v>-1</v>
       </c>
       <c r="AB838">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AC838">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="839" spans="1:29">
@@ -79070,7 +79070,7 @@
         <v>881</v>
       </c>
       <c r="B883">
-        <v>6803761</v>
+        <v>6805700</v>
       </c>
       <c r="C883" t="s">
         <v>28</v>
@@ -79082,76 +79082,76 @@
         <v>45226.54166666666</v>
       </c>
       <c r="F883" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="G883" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="H883">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I883">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J883" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K883">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="L883">
+        <v>3.75</v>
+      </c>
+      <c r="M883">
+        <v>4.2</v>
+      </c>
+      <c r="N883">
+        <v>1.75</v>
+      </c>
+      <c r="O883">
+        <v>3.6</v>
+      </c>
+      <c r="P883">
         <v>4</v>
       </c>
-      <c r="M883">
-        <v>5.25</v>
-      </c>
-      <c r="N883">
-        <v>1.5</v>
-      </c>
-      <c r="O883">
-        <v>4</v>
-      </c>
-      <c r="P883">
-        <v>5.5</v>
-      </c>
       <c r="Q883">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R883">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S883">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T883">
         <v>2.75</v>
       </c>
       <c r="U883">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V883">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W883">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X883">
         <v>-1</v>
       </c>
       <c r="Y883">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z883">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA883">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB883">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC883">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="884" spans="1:29">
@@ -79159,7 +79159,7 @@
         <v>882</v>
       </c>
       <c r="B884">
-        <v>6805700</v>
+        <v>6803761</v>
       </c>
       <c r="C884" t="s">
         <v>28</v>
@@ -79171,76 +79171,76 @@
         <v>45226.54166666666</v>
       </c>
       <c r="F884" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G884" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="H884">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I884">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J884" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K884">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="L884">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M884">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="N884">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="O884">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P884">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="Q884">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R884">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S884">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T884">
         <v>2.75</v>
       </c>
       <c r="U884">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V884">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W884">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X884">
         <v>-1</v>
       </c>
       <c r="Y884">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z884">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA884">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB884">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC884">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="885" spans="1:29">
@@ -83253,7 +83253,7 @@
         <v>928</v>
       </c>
       <c r="B930">
-        <v>6803794</v>
+        <v>6803793</v>
       </c>
       <c r="C930" t="s">
         <v>28</v>
@@ -83265,76 +83265,76 @@
         <v>45270.36111111111</v>
       </c>
       <c r="F930" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="G930" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="H930">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I930">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J930" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K930">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="L930">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M930">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="N930">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="O930">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P930">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q930">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R930">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S930">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T930">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U930">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V930">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W930">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X930">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y930">
         <v>-1</v>
       </c>
       <c r="Z930">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA930">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB930">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC930">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="931" spans="1:29">
@@ -83342,7 +83342,7 @@
         <v>929</v>
       </c>
       <c r="B931">
-        <v>6803793</v>
+        <v>6803794</v>
       </c>
       <c r="C931" t="s">
         <v>28</v>
@@ -83354,76 +83354,76 @@
         <v>45270.36111111111</v>
       </c>
       <c r="F931" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="G931" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H931">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I931">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J931" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K931">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="L931">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M931">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="N931">
-        <v>2.1</v>
+        <v>1.363</v>
       </c>
       <c r="O931">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P931">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="Q931">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R931">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S931">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T931">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U931">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V931">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W931">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X931">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y931">
         <v>-1</v>
       </c>
       <c r="Z931">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA931">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB931">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC931">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="932" spans="1:29">

--- a/Poland I Liga/Poland I Liga.xlsx
+++ b/Poland I Liga/Poland I Liga.xlsx
@@ -5001,7 +5001,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5140743</v>
+        <v>5139053</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5013,76 +5013,76 @@
         <v>45004.58333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G51" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J51" t="s">
         <v>55</v>
       </c>
       <c r="K51">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="L51">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M51">
+        <v>2.55</v>
+      </c>
+      <c r="N51">
+        <v>2.7</v>
+      </c>
+      <c r="O51">
+        <v>3.2</v>
+      </c>
+      <c r="P51">
+        <v>2.375</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>2.05</v>
+      </c>
+      <c r="S51">
+        <v>1.75</v>
+      </c>
+      <c r="T51">
+        <v>2.25</v>
+      </c>
+      <c r="U51">
+        <v>1.875</v>
+      </c>
+      <c r="V51">
+        <v>1.925</v>
+      </c>
+      <c r="W51">
+        <v>-1</v>
+      </c>
+      <c r="X51">
         <v>2.2</v>
       </c>
-      <c r="N51">
-        <v>2.9</v>
-      </c>
-      <c r="O51">
-        <v>3.3</v>
-      </c>
-      <c r="P51">
-        <v>2.25</v>
-      </c>
-      <c r="Q51">
-        <v>0.25</v>
-      </c>
-      <c r="R51">
-        <v>1.825</v>
-      </c>
-      <c r="S51">
-        <v>1.975</v>
-      </c>
-      <c r="T51">
-        <v>2.5</v>
-      </c>
-      <c r="U51">
-        <v>1.95</v>
-      </c>
-      <c r="V51">
-        <v>1.85</v>
-      </c>
-      <c r="W51">
-        <v>-1</v>
-      </c>
-      <c r="X51">
-        <v>2.3</v>
-      </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.4125</v>
+        <v>0</v>
       </c>
       <c r="AA51">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB51">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5090,7 +5090,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>5139053</v>
+        <v>5139054</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5102,76 +5102,76 @@
         <v>45004.58333333334</v>
       </c>
       <c r="F52" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G52" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K52">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="L52">
         <v>3.2</v>
       </c>
       <c r="M52">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="N52">
-        <v>2.7</v>
+        <v>2.375</v>
       </c>
       <c r="O52">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P52">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R52">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S52">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="T52">
         <v>2.25</v>
       </c>
       <c r="U52">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V52">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W52">
         <v>-1</v>
       </c>
       <c r="X52">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z52">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC52">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5268,7 +5268,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>5139054</v>
+        <v>5140743</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5280,73 +5280,73 @@
         <v>45004.58333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G54" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H54">
         <v>2</v>
       </c>
       <c r="I54">
+        <v>2</v>
+      </c>
+      <c r="J54" t="s">
+        <v>55</v>
+      </c>
+      <c r="K54">
         <v>3</v>
       </c>
-      <c r="J54" t="s">
-        <v>54</v>
-      </c>
-      <c r="K54">
-        <v>2.15</v>
-      </c>
       <c r="L54">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M54">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="N54">
-        <v>2.375</v>
+        <v>2.9</v>
       </c>
       <c r="O54">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P54">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Q54">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R54">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S54">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T54">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U54">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V54">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y54">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA54">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB54">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC54">
         <v>-1</v>
@@ -12566,7 +12566,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>5452381</v>
+        <v>5451610</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12578,76 +12578,76 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F136" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G136" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136">
         <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K136">
-        <v>1.571</v>
+        <v>1.444</v>
       </c>
       <c r="L136">
         <v>4</v>
       </c>
       <c r="M136">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="N136">
-        <v>1.4</v>
+        <v>1.333</v>
       </c>
       <c r="O136">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="P136">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="Q136">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R136">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S136">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T136">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U136">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V136">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
         <v>-1</v>
       </c>
       <c r="AA136">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC136">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12655,7 +12655,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>5451610</v>
+        <v>5452381</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12667,76 +12667,76 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F137" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G137" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137">
         <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K137">
-        <v>1.444</v>
+        <v>1.571</v>
       </c>
       <c r="L137">
         <v>4</v>
       </c>
       <c r="M137">
+        <v>5</v>
+      </c>
+      <c r="N137">
+        <v>1.4</v>
+      </c>
+      <c r="O137">
+        <v>4.5</v>
+      </c>
+      <c r="P137">
         <v>6.5</v>
       </c>
-      <c r="N137">
-        <v>1.333</v>
-      </c>
-      <c r="O137">
-        <v>4.333</v>
-      </c>
-      <c r="P137">
-        <v>8</v>
-      </c>
       <c r="Q137">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R137">
+        <v>1.9</v>
+      </c>
+      <c r="S137">
         <v>1.95</v>
       </c>
-      <c r="S137">
-        <v>1.85</v>
-      </c>
       <c r="T137">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U137">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V137">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W137">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z137">
         <v>-1</v>
       </c>
       <c r="AA137">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB137">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC137">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12744,7 +12744,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>5451609</v>
+        <v>5451607</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12756,58 +12756,58 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F138" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G138" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I138">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J138" t="s">
         <v>53</v>
       </c>
       <c r="K138">
-        <v>1.3</v>
+        <v>1.615</v>
       </c>
       <c r="L138">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M138">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="N138">
-        <v>1.333</v>
+        <v>1.363</v>
       </c>
       <c r="O138">
         <v>4.75</v>
       </c>
       <c r="P138">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q138">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R138">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S138">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T138">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U138">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V138">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W138">
-        <v>0.333</v>
+        <v>0.363</v>
       </c>
       <c r="X138">
         <v>-1</v>
@@ -12816,16 +12816,16 @@
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA138">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AB138">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC138">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12922,7 +12922,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>5448049</v>
+        <v>5448050</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12934,61 +12934,61 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F140" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G140" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I140">
+        <v>3</v>
+      </c>
+      <c r="J140" t="s">
+        <v>55</v>
+      </c>
+      <c r="K140">
+        <v>2.75</v>
+      </c>
+      <c r="L140">
+        <v>3.25</v>
+      </c>
+      <c r="M140">
+        <v>2.375</v>
+      </c>
+      <c r="N140">
+        <v>2.4</v>
+      </c>
+      <c r="O140">
+        <v>3.25</v>
+      </c>
+      <c r="P140">
+        <v>2.7</v>
+      </c>
+      <c r="Q140">
         <v>0</v>
       </c>
-      <c r="J140" t="s">
-        <v>53</v>
-      </c>
-      <c r="K140">
-        <v>1.571</v>
-      </c>
-      <c r="L140">
-        <v>3.75</v>
-      </c>
-      <c r="M140">
-        <v>5</v>
-      </c>
-      <c r="N140">
-        <v>1.444</v>
-      </c>
-      <c r="O140">
-        <v>4</v>
-      </c>
-      <c r="P140">
-        <v>6</v>
-      </c>
-      <c r="Q140">
-        <v>-1</v>
-      </c>
       <c r="R140">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S140">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T140">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U140">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V140">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W140">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X140">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y140">
         <v>-1</v>
@@ -13000,10 +13000,10 @@
         <v>-0</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC140">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13011,7 +13011,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>5448048</v>
+        <v>5448049</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13023,76 +13023,76 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F141" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G141" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H141">
         <v>1</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K141">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="L141">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M141">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="N141">
-        <v>2.1</v>
+        <v>1.444</v>
       </c>
       <c r="O141">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P141">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="Q141">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R141">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S141">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T141">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U141">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V141">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W141">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X141">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA141">
-        <v>0.4625</v>
+        <v>-0</v>
       </c>
       <c r="AB141">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC141">
-        <v>0.475</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13100,7 +13100,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>5447925</v>
+        <v>5448048</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13112,76 +13112,76 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F142" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G142" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K142">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="L142">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M142">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="N142">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="O142">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P142">
-        <v>1.615</v>
+        <v>3.1</v>
       </c>
       <c r="Q142">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R142">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S142">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T142">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U142">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V142">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W142">
         <v>-1</v>
       </c>
       <c r="X142">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y142">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA142">
-        <v>0.8</v>
+        <v>0.4625</v>
       </c>
       <c r="AB142">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC142">
-        <v>-0</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13189,7 +13189,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>5451607</v>
+        <v>5451609</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13201,58 +13201,58 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F143" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G143" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H143">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I143">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J143" t="s">
         <v>53</v>
       </c>
       <c r="K143">
-        <v>1.615</v>
+        <v>1.3</v>
       </c>
       <c r="L143">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M143">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="N143">
-        <v>1.363</v>
+        <v>1.333</v>
       </c>
       <c r="O143">
         <v>4.75</v>
       </c>
       <c r="P143">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q143">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R143">
+        <v>2</v>
+      </c>
+      <c r="S143">
+        <v>1.8</v>
+      </c>
+      <c r="T143">
+        <v>2.5</v>
+      </c>
+      <c r="U143">
         <v>1.825</v>
       </c>
-      <c r="S143">
+      <c r="V143">
         <v>1.975</v>
       </c>
-      <c r="T143">
-        <v>3.25</v>
-      </c>
-      <c r="U143">
-        <v>1.925</v>
-      </c>
-      <c r="V143">
-        <v>1.875</v>
-      </c>
       <c r="W143">
-        <v>0.363</v>
+        <v>0.333</v>
       </c>
       <c r="X143">
         <v>-1</v>
@@ -13261,16 +13261,16 @@
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>0.4875</v>
+        <v>0.8</v>
       </c>
       <c r="AB143">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13278,7 +13278,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>5448050</v>
+        <v>5447925</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13290,49 +13290,49 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F144" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G144" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H144">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I144">
         <v>3</v>
       </c>
       <c r="J144" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K144">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="L144">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M144">
-        <v>2.375</v>
+        <v>1.5</v>
       </c>
       <c r="N144">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="O144">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P144">
-        <v>2.7</v>
+        <v>1.615</v>
       </c>
       <c r="Q144">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R144">
+        <v>2.05</v>
+      </c>
+      <c r="S144">
         <v>1.8</v>
       </c>
-      <c r="S144">
-        <v>2.05</v>
-      </c>
       <c r="T144">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U144">
         <v>2</v>
@@ -13344,22 +13344,22 @@
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z144">
+        <v>-1</v>
+      </c>
+      <c r="AA144">
+        <v>0.8</v>
+      </c>
+      <c r="AB144">
         <v>0</v>
       </c>
-      <c r="AA144">
+      <c r="AC144">
         <v>-0</v>
-      </c>
-      <c r="AB144">
-        <v>1</v>
-      </c>
-      <c r="AC144">
-        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -19063,7 +19063,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6803727</v>
+        <v>6805719</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19075,58 +19075,58 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F209" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G209" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H209">
+        <v>3</v>
+      </c>
+      <c r="I209">
         <v>2</v>
-      </c>
-      <c r="I209">
-        <v>1</v>
       </c>
       <c r="J209" t="s">
         <v>53</v>
       </c>
       <c r="K209">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="L209">
         <v>3.3</v>
       </c>
       <c r="M209">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="N209">
-        <v>3.75</v>
+        <v>2.05</v>
       </c>
       <c r="O209">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P209">
+        <v>3.2</v>
+      </c>
+      <c r="Q209">
+        <v>-0.25</v>
+      </c>
+      <c r="R209">
         <v>1.85</v>
       </c>
-      <c r="Q209">
-        <v>0.5</v>
-      </c>
-      <c r="R209">
-        <v>1.925</v>
-      </c>
       <c r="S209">
+        <v>2</v>
+      </c>
+      <c r="T209">
+        <v>2.5</v>
+      </c>
+      <c r="U209">
         <v>1.875</v>
       </c>
-      <c r="T209">
-        <v>2.75</v>
-      </c>
-      <c r="U209">
-        <v>1.925</v>
-      </c>
       <c r="V209">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W209">
-        <v>2.75</v>
+        <v>1.05</v>
       </c>
       <c r="X209">
         <v>-1</v>
@@ -19135,16 +19135,16 @@
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA209">
         <v>-1</v>
       </c>
       <c r="AB209">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AC209">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19152,7 +19152,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6805719</v>
+        <v>6803727</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19164,58 +19164,58 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F210" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G210" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H210">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I210">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J210" t="s">
         <v>53</v>
       </c>
       <c r="K210">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="L210">
         <v>3.3</v>
       </c>
       <c r="M210">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="N210">
-        <v>2.05</v>
+        <v>3.75</v>
       </c>
       <c r="O210">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P210">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="Q210">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R210">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S210">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T210">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U210">
+        <v>1.925</v>
+      </c>
+      <c r="V210">
         <v>1.875</v>
       </c>
-      <c r="V210">
-        <v>1.975</v>
-      </c>
       <c r="W210">
-        <v>1.05</v>
+        <v>2.75</v>
       </c>
       <c r="X210">
         <v>-1</v>
@@ -19224,16 +19224,16 @@
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA210">
         <v>-1</v>
       </c>
       <c r="AB210">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AC210">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -27340,7 +27340,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>6803793</v>
+        <v>6803794</v>
       </c>
       <c r="C302" t="s">
         <v>28</v>
@@ -27352,76 +27352,76 @@
         <v>45270.36111111111</v>
       </c>
       <c r="F302" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G302" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I302">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J302" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K302">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="L302">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M302">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="N302">
-        <v>2.1</v>
+        <v>1.363</v>
       </c>
       <c r="O302">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P302">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="Q302">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R302">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S302">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T302">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U302">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V302">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W302">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X302">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y302">
         <v>-1</v>
       </c>
       <c r="Z302">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA302">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB302">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC302">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="303" spans="1:29">
@@ -27429,7 +27429,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>6803794</v>
+        <v>6803793</v>
       </c>
       <c r="C303" t="s">
         <v>28</v>
@@ -27441,76 +27441,76 @@
         <v>45270.36111111111</v>
       </c>
       <c r="F303" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G303" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H303">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I303">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J303" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K303">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="L303">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M303">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="N303">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="O303">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P303">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q303">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R303">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S303">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T303">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U303">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V303">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W303">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X303">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y303">
         <v>-1</v>
       </c>
       <c r="Z303">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA303">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB303">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC303">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="304" spans="1:29">

--- a/Poland I Liga/Poland I Liga.xlsx
+++ b/Poland I Liga/Poland I Liga.xlsx
@@ -6158,7 +6158,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>5139063</v>
+        <v>5138224</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6170,10 +6170,10 @@
         <v>45022.54166666666</v>
       </c>
       <c r="F64" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G64" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6185,61 +6185,61 @@
         <v>55</v>
       </c>
       <c r="K64">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="L64">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M64">
-        <v>2.875</v>
+        <v>1.75</v>
       </c>
       <c r="N64">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="O64">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P64">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="Q64">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R64">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S64">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T64">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U64">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V64">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W64">
         <v>-1</v>
       </c>
       <c r="X64">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA64">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
         <v>-1</v>
       </c>
       <c r="AC64">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6247,7 +6247,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>5138224</v>
+        <v>5139063</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6259,10 +6259,10 @@
         <v>45022.54166666666</v>
       </c>
       <c r="F65" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G65" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -6274,61 +6274,61 @@
         <v>55</v>
       </c>
       <c r="K65">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="L65">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M65">
+        <v>2.875</v>
+      </c>
+      <c r="N65">
+        <v>2.7</v>
+      </c>
+      <c r="O65">
+        <v>3.1</v>
+      </c>
+      <c r="P65">
+        <v>2.375</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>2.05</v>
+      </c>
+      <c r="S65">
         <v>1.75</v>
       </c>
-      <c r="N65">
-        <v>4</v>
-      </c>
-      <c r="O65">
-        <v>3.4</v>
-      </c>
-      <c r="P65">
-        <v>1.8</v>
-      </c>
-      <c r="Q65">
-        <v>0.5</v>
-      </c>
-      <c r="R65">
-        <v>1.975</v>
-      </c>
-      <c r="S65">
-        <v>1.825</v>
-      </c>
       <c r="T65">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U65">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V65">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W65">
         <v>-1</v>
       </c>
       <c r="X65">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="Y65">
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB65">
         <v>-1</v>
       </c>
       <c r="AC65">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -19063,7 +19063,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6805719</v>
+        <v>6803727</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19075,58 +19075,58 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F209" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G209" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H209">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I209">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J209" t="s">
         <v>53</v>
       </c>
       <c r="K209">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="L209">
         <v>3.3</v>
       </c>
       <c r="M209">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="N209">
-        <v>2.05</v>
+        <v>3.75</v>
       </c>
       <c r="O209">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P209">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="Q209">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R209">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S209">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T209">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U209">
+        <v>1.925</v>
+      </c>
+      <c r="V209">
         <v>1.875</v>
       </c>
-      <c r="V209">
-        <v>1.975</v>
-      </c>
       <c r="W209">
-        <v>1.05</v>
+        <v>2.75</v>
       </c>
       <c r="X209">
         <v>-1</v>
@@ -19135,16 +19135,16 @@
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA209">
         <v>-1</v>
       </c>
       <c r="AB209">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AC209">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19152,7 +19152,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6803727</v>
+        <v>6805719</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19164,58 +19164,58 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F210" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G210" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H210">
+        <v>3</v>
+      </c>
+      <c r="I210">
         <v>2</v>
-      </c>
-      <c r="I210">
-        <v>1</v>
       </c>
       <c r="J210" t="s">
         <v>53</v>
       </c>
       <c r="K210">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="L210">
         <v>3.3</v>
       </c>
       <c r="M210">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="N210">
-        <v>3.75</v>
+        <v>2.05</v>
       </c>
       <c r="O210">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P210">
+        <v>3.2</v>
+      </c>
+      <c r="Q210">
+        <v>-0.25</v>
+      </c>
+      <c r="R210">
         <v>1.85</v>
       </c>
-      <c r="Q210">
-        <v>0.5</v>
-      </c>
-      <c r="R210">
-        <v>1.925</v>
-      </c>
       <c r="S210">
+        <v>2</v>
+      </c>
+      <c r="T210">
+        <v>2.5</v>
+      </c>
+      <c r="U210">
         <v>1.875</v>
       </c>
-      <c r="T210">
-        <v>2.75</v>
-      </c>
-      <c r="U210">
-        <v>1.925</v>
-      </c>
       <c r="V210">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W210">
-        <v>2.75</v>
+        <v>1.05</v>
       </c>
       <c r="X210">
         <v>-1</v>
@@ -19224,16 +19224,16 @@
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA210">
         <v>-1</v>
       </c>
       <c r="AB210">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AC210">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="211" spans="1:29">

--- a/Poland I Liga/Poland I Liga.xlsx
+++ b/Poland I Liga/Poland I Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1593" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1597" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -543,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC314"/>
+  <dimension ref="A1:AC315"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5001,7 +5001,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5139053</v>
+        <v>5139054</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5013,76 +5013,76 @@
         <v>45004.58333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G51" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K51">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="L51">
         <v>3.2</v>
       </c>
       <c r="M51">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="N51">
-        <v>2.7</v>
+        <v>2.375</v>
       </c>
       <c r="O51">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P51">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R51">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S51">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="T51">
         <v>2.25</v>
       </c>
       <c r="U51">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V51">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z51">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC51">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5090,7 +5090,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>5139054</v>
+        <v>5139056</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5102,76 +5102,76 @@
         <v>45004.58333333334</v>
       </c>
       <c r="F52" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G52" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52" t="s">
+        <v>55</v>
+      </c>
+      <c r="K52">
+        <v>3.75</v>
+      </c>
+      <c r="L52">
+        <v>3.5</v>
+      </c>
+      <c r="M52">
+        <v>1.85</v>
+      </c>
+      <c r="N52">
+        <v>3.4</v>
+      </c>
+      <c r="O52">
+        <v>3.5</v>
+      </c>
+      <c r="P52">
+        <v>1.909</v>
+      </c>
+      <c r="Q52">
+        <v>0.5</v>
+      </c>
+      <c r="R52">
+        <v>1.85</v>
+      </c>
+      <c r="S52">
         <v>2</v>
       </c>
-      <c r="I52">
-        <v>3</v>
-      </c>
-      <c r="J52" t="s">
-        <v>54</v>
-      </c>
-      <c r="K52">
-        <v>2.15</v>
-      </c>
-      <c r="L52">
-        <v>3.2</v>
-      </c>
-      <c r="M52">
-        <v>3.1</v>
-      </c>
-      <c r="N52">
-        <v>2.375</v>
-      </c>
-      <c r="O52">
-        <v>3</v>
-      </c>
-      <c r="P52">
-        <v>3</v>
-      </c>
-      <c r="Q52">
-        <v>-0.25</v>
-      </c>
-      <c r="R52">
-        <v>2.025</v>
-      </c>
-      <c r="S52">
-        <v>1.775</v>
-      </c>
       <c r="T52">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U52">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V52">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W52">
         <v>-1</v>
       </c>
       <c r="X52">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y52">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA52">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5179,7 +5179,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>5139056</v>
+        <v>5140743</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5191,52 +5191,52 @@
         <v>45004.58333333334</v>
       </c>
       <c r="F53" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G53" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J53" t="s">
         <v>55</v>
       </c>
       <c r="K53">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="L53">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M53">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="N53">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="O53">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P53">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="Q53">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R53">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S53">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T53">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U53">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V53">
         <v>1.85</v>
@@ -5245,22 +5245,22 @@
         <v>-1</v>
       </c>
       <c r="X53">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="Y53">
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AA53">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB53">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC53">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5268,7 +5268,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>5140743</v>
+        <v>5139053</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5280,76 +5280,76 @@
         <v>45004.58333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G54" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J54" t="s">
         <v>55</v>
       </c>
       <c r="K54">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="L54">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M54">
+        <v>2.55</v>
+      </c>
+      <c r="N54">
+        <v>2.7</v>
+      </c>
+      <c r="O54">
+        <v>3.2</v>
+      </c>
+      <c r="P54">
+        <v>2.375</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>2.05</v>
+      </c>
+      <c r="S54">
+        <v>1.75</v>
+      </c>
+      <c r="T54">
+        <v>2.25</v>
+      </c>
+      <c r="U54">
+        <v>1.875</v>
+      </c>
+      <c r="V54">
+        <v>1.925</v>
+      </c>
+      <c r="W54">
+        <v>-1</v>
+      </c>
+      <c r="X54">
         <v>2.2</v>
       </c>
-      <c r="N54">
-        <v>2.9</v>
-      </c>
-      <c r="O54">
-        <v>3.3</v>
-      </c>
-      <c r="P54">
-        <v>2.25</v>
-      </c>
-      <c r="Q54">
-        <v>0.25</v>
-      </c>
-      <c r="R54">
-        <v>1.825</v>
-      </c>
-      <c r="S54">
-        <v>1.975</v>
-      </c>
-      <c r="T54">
-        <v>2.5</v>
-      </c>
-      <c r="U54">
-        <v>1.95</v>
-      </c>
-      <c r="V54">
-        <v>1.85</v>
-      </c>
-      <c r="W54">
-        <v>-1</v>
-      </c>
-      <c r="X54">
-        <v>2.3</v>
-      </c>
       <c r="Y54">
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.4125</v>
+        <v>0</v>
       </c>
       <c r="AA54">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB54">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC54">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -12566,7 +12566,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>5451610</v>
+        <v>5448049</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12578,58 +12578,58 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F136" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G136" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="s">
         <v>53</v>
       </c>
       <c r="K136">
+        <v>1.571</v>
+      </c>
+      <c r="L136">
+        <v>3.75</v>
+      </c>
+      <c r="M136">
+        <v>5</v>
+      </c>
+      <c r="N136">
         <v>1.444</v>
       </c>
-      <c r="L136">
+      <c r="O136">
         <v>4</v>
       </c>
-      <c r="M136">
-        <v>6.5</v>
-      </c>
-      <c r="N136">
-        <v>1.333</v>
-      </c>
-      <c r="O136">
-        <v>4.333</v>
-      </c>
       <c r="P136">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q136">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R136">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S136">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T136">
         <v>2.75</v>
       </c>
       <c r="U136">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V136">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W136">
-        <v>0.333</v>
+        <v>0.444</v>
       </c>
       <c r="X136">
         <v>-1</v>
@@ -12638,16 +12638,16 @@
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA136">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB136">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12655,7 +12655,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>5452381</v>
+        <v>5451608</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12667,76 +12667,76 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F137" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G137" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137">
         <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K137">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L137">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M137">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N137">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="O137">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P137">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q137">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R137">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S137">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T137">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U137">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V137">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W137">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA137">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC137">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12744,7 +12744,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>5451607</v>
+        <v>5452381</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12756,76 +12756,76 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F138" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G138" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138" t="s">
+        <v>54</v>
+      </c>
+      <c r="K138">
+        <v>1.571</v>
+      </c>
+      <c r="L138">
         <v>4</v>
       </c>
-      <c r="I138">
-        <v>3</v>
-      </c>
-      <c r="J138" t="s">
-        <v>53</v>
-      </c>
-      <c r="K138">
-        <v>1.615</v>
-      </c>
-      <c r="L138">
-        <v>3.75</v>
-      </c>
       <c r="M138">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="N138">
-        <v>1.363</v>
+        <v>1.4</v>
       </c>
       <c r="O138">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P138">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q138">
         <v>-1.25</v>
       </c>
       <c r="R138">
+        <v>1.9</v>
+      </c>
+      <c r="S138">
+        <v>1.95</v>
+      </c>
+      <c r="T138">
+        <v>3</v>
+      </c>
+      <c r="U138">
+        <v>2.025</v>
+      </c>
+      <c r="V138">
         <v>1.825</v>
       </c>
-      <c r="S138">
-        <v>1.975</v>
-      </c>
-      <c r="T138">
-        <v>3.25</v>
-      </c>
-      <c r="U138">
-        <v>1.925</v>
-      </c>
-      <c r="V138">
-        <v>1.875</v>
-      </c>
       <c r="W138">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X138">
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z138">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AB138">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC138">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12833,7 +12833,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>5451608</v>
+        <v>5448048</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12845,76 +12845,76 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F139" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G139" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139">
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K139">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L139">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M139">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="N139">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O139">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P139">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q139">
+        <v>-0.25</v>
+      </c>
+      <c r="R139">
+        <v>1.875</v>
+      </c>
+      <c r="S139">
+        <v>1.925</v>
+      </c>
+      <c r="T139">
+        <v>2.25</v>
+      </c>
+      <c r="U139">
+        <v>1.85</v>
+      </c>
+      <c r="V139">
+        <v>1.95</v>
+      </c>
+      <c r="W139">
+        <v>-1</v>
+      </c>
+      <c r="X139">
+        <v>2.2</v>
+      </c>
+      <c r="Y139">
+        <v>-1</v>
+      </c>
+      <c r="Z139">
         <v>-0.5</v>
       </c>
-      <c r="R139">
-        <v>1.95</v>
-      </c>
-      <c r="S139">
-        <v>1.85</v>
-      </c>
-      <c r="T139">
-        <v>2.75</v>
-      </c>
-      <c r="U139">
-        <v>1.8</v>
-      </c>
-      <c r="V139">
-        <v>2</v>
-      </c>
-      <c r="W139">
-        <v>0.909</v>
-      </c>
-      <c r="X139">
-        <v>-1</v>
-      </c>
-      <c r="Y139">
-        <v>-1</v>
-      </c>
-      <c r="Z139">
-        <v>0.95</v>
-      </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB139">
-        <v>0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="AC139">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12922,7 +12922,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>5448050</v>
+        <v>5451607</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12934,73 +12934,73 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F140" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G140" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H140">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I140">
         <v>3</v>
       </c>
       <c r="J140" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K140">
-        <v>2.75</v>
+        <v>1.615</v>
       </c>
       <c r="L140">
+        <v>3.75</v>
+      </c>
+      <c r="M140">
+        <v>4.75</v>
+      </c>
+      <c r="N140">
+        <v>1.363</v>
+      </c>
+      <c r="O140">
+        <v>4.75</v>
+      </c>
+      <c r="P140">
+        <v>6</v>
+      </c>
+      <c r="Q140">
+        <v>-1.25</v>
+      </c>
+      <c r="R140">
+        <v>1.825</v>
+      </c>
+      <c r="S140">
+        <v>1.975</v>
+      </c>
+      <c r="T140">
         <v>3.25</v>
       </c>
-      <c r="M140">
-        <v>2.375</v>
-      </c>
-      <c r="N140">
-        <v>2.4</v>
-      </c>
-      <c r="O140">
-        <v>3.25</v>
-      </c>
-      <c r="P140">
-        <v>2.7</v>
-      </c>
-      <c r="Q140">
-        <v>0</v>
-      </c>
-      <c r="R140">
-        <v>1.8</v>
-      </c>
-      <c r="S140">
-        <v>2.05</v>
-      </c>
-      <c r="T140">
-        <v>2.5</v>
-      </c>
       <c r="U140">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V140">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X140">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA140">
-        <v>-0</v>
+        <v>0.4875</v>
       </c>
       <c r="AB140">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC140">
         <v>-1</v>
@@ -13011,7 +13011,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>5448049</v>
+        <v>5447925</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13023,76 +13023,76 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F141" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G141" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J141" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K141">
-        <v>1.571</v>
+        <v>5.5</v>
       </c>
       <c r="L141">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M141">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="N141">
-        <v>1.444</v>
+        <v>4.5</v>
       </c>
       <c r="O141">
         <v>4</v>
       </c>
       <c r="P141">
-        <v>6</v>
+        <v>1.615</v>
       </c>
       <c r="Q141">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R141">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S141">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T141">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U141">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V141">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W141">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z141">
+        <v>-1</v>
+      </c>
+      <c r="AA141">
+        <v>0.8</v>
+      </c>
+      <c r="AB141">
         <v>0</v>
       </c>
-      <c r="AA141">
+      <c r="AC141">
         <v>-0</v>
-      </c>
-      <c r="AB141">
-        <v>-1</v>
-      </c>
-      <c r="AC141">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13100,7 +13100,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>5448048</v>
+        <v>5451609</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13112,76 +13112,76 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F142" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G142" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H142">
         <v>1</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K142">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="L142">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M142">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="N142">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="O142">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P142">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="Q142">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R142">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S142">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T142">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U142">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V142">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X142">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
       <c r="AB142">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC142">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13189,7 +13189,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>5451609</v>
+        <v>5451610</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13201,34 +13201,34 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F143" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G143" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H143">
+        <v>2</v>
+      </c>
+      <c r="I143">
         <v>1</v>
-      </c>
-      <c r="I143">
-        <v>0</v>
       </c>
       <c r="J143" t="s">
         <v>53</v>
       </c>
       <c r="K143">
-        <v>1.3</v>
+        <v>1.444</v>
       </c>
       <c r="L143">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M143">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="N143">
         <v>1.333</v>
       </c>
       <c r="O143">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="P143">
         <v>8</v>
@@ -13237,19 +13237,19 @@
         <v>-1.5</v>
       </c>
       <c r="R143">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S143">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T143">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U143">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V143">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W143">
         <v>0.333</v>
@@ -13264,13 +13264,13 @@
         <v>-1</v>
       </c>
       <c r="AA143">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC143">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13278,7 +13278,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>5447925</v>
+        <v>5448050</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13290,49 +13290,49 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F144" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G144" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I144">
         <v>3</v>
       </c>
       <c r="J144" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K144">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="L144">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M144">
-        <v>1.5</v>
+        <v>2.375</v>
       </c>
       <c r="N144">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="O144">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P144">
-        <v>1.615</v>
+        <v>2.7</v>
       </c>
       <c r="Q144">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R144">
+        <v>1.8</v>
+      </c>
+      <c r="S144">
         <v>2.05</v>
       </c>
-      <c r="S144">
-        <v>1.8</v>
-      </c>
       <c r="T144">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U144">
         <v>2</v>
@@ -13344,22 +13344,22 @@
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y144">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA144">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC144">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -19063,7 +19063,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6803727</v>
+        <v>6805719</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19075,58 +19075,58 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F209" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G209" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H209">
+        <v>3</v>
+      </c>
+      <c r="I209">
         <v>2</v>
-      </c>
-      <c r="I209">
-        <v>1</v>
       </c>
       <c r="J209" t="s">
         <v>53</v>
       </c>
       <c r="K209">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="L209">
         <v>3.3</v>
       </c>
       <c r="M209">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="N209">
-        <v>3.75</v>
+        <v>2.05</v>
       </c>
       <c r="O209">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P209">
+        <v>3.2</v>
+      </c>
+      <c r="Q209">
+        <v>-0.25</v>
+      </c>
+      <c r="R209">
         <v>1.85</v>
       </c>
-      <c r="Q209">
-        <v>0.5</v>
-      </c>
-      <c r="R209">
-        <v>1.925</v>
-      </c>
       <c r="S209">
+        <v>2</v>
+      </c>
+      <c r="T209">
+        <v>2.5</v>
+      </c>
+      <c r="U209">
         <v>1.875</v>
       </c>
-      <c r="T209">
-        <v>2.75</v>
-      </c>
-      <c r="U209">
-        <v>1.925</v>
-      </c>
       <c r="V209">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W209">
-        <v>2.75</v>
+        <v>1.05</v>
       </c>
       <c r="X209">
         <v>-1</v>
@@ -19135,16 +19135,16 @@
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA209">
         <v>-1</v>
       </c>
       <c r="AB209">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AC209">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19152,7 +19152,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6805719</v>
+        <v>6803727</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19164,58 +19164,58 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F210" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G210" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H210">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I210">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J210" t="s">
         <v>53</v>
       </c>
       <c r="K210">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="L210">
         <v>3.3</v>
       </c>
       <c r="M210">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="N210">
-        <v>2.05</v>
+        <v>3.75</v>
       </c>
       <c r="O210">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P210">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="Q210">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R210">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S210">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T210">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U210">
+        <v>1.925</v>
+      </c>
+      <c r="V210">
         <v>1.875</v>
       </c>
-      <c r="V210">
-        <v>1.975</v>
-      </c>
       <c r="W210">
-        <v>1.05</v>
+        <v>2.75</v>
       </c>
       <c r="X210">
         <v>-1</v>
@@ -19224,16 +19224,16 @@
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA210">
         <v>-1</v>
       </c>
       <c r="AB210">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AC210">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -22267,7 +22267,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>6805706</v>
+        <v>6803754</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22279,76 +22279,76 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F245" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G245" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H245">
         <v>0</v>
       </c>
       <c r="I245">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J245" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K245">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L245">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M245">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="N245">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="O245">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P245">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="Q245">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R245">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S245">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T245">
         <v>2.5</v>
       </c>
       <c r="U245">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V245">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W245">
         <v>-1</v>
       </c>
       <c r="X245">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y245">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z245">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA245">
+        <v>-0</v>
+      </c>
+      <c r="AB245">
+        <v>-1</v>
+      </c>
+      <c r="AC245">
         <v>0.95</v>
-      </c>
-      <c r="AB245">
-        <v>-1</v>
-      </c>
-      <c r="AC245">
-        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:29">
@@ -22356,7 +22356,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>6803754</v>
+        <v>6805706</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22368,76 +22368,76 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F246" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G246" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="H246">
         <v>0</v>
       </c>
       <c r="I246">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J246" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K246">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L246">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M246">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="N246">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="O246">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P246">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="Q246">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R246">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S246">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T246">
         <v>2.5</v>
       </c>
       <c r="U246">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V246">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W246">
         <v>-1</v>
       </c>
       <c r="X246">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y246">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z246">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA246">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB246">
         <v>-1</v>
       </c>
       <c r="AC246">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:29">
@@ -28490,6 +28490,80 @@
       </c>
       <c r="AC314">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:29">
+      <c r="A315" s="1">
+        <v>313</v>
+      </c>
+      <c r="B315">
+        <v>7785401</v>
+      </c>
+      <c r="C315" t="s">
+        <v>28</v>
+      </c>
+      <c r="D315" t="s">
+        <v>28</v>
+      </c>
+      <c r="E315" s="2">
+        <v>45332.45833333334</v>
+      </c>
+      <c r="F315" t="s">
+        <v>45</v>
+      </c>
+      <c r="G315" t="s">
+        <v>52</v>
+      </c>
+      <c r="K315">
+        <v>3</v>
+      </c>
+      <c r="L315">
+        <v>3.3</v>
+      </c>
+      <c r="M315">
+        <v>2.1</v>
+      </c>
+      <c r="N315">
+        <v>3</v>
+      </c>
+      <c r="O315">
+        <v>3.3</v>
+      </c>
+      <c r="P315">
+        <v>2.1</v>
+      </c>
+      <c r="Q315">
+        <v>0.25</v>
+      </c>
+      <c r="R315">
+        <v>1.925</v>
+      </c>
+      <c r="S315">
+        <v>1.925</v>
+      </c>
+      <c r="T315">
+        <v>2.5</v>
+      </c>
+      <c r="U315">
+        <v>1.85</v>
+      </c>
+      <c r="V315">
+        <v>2</v>
+      </c>
+      <c r="W315">
+        <v>0</v>
+      </c>
+      <c r="X315">
+        <v>0</v>
+      </c>
+      <c r="Y315">
+        <v>0</v>
+      </c>
+      <c r="Z315">
+        <v>0</v>
+      </c>
+      <c r="AA315">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Poland I Liga/Poland I Liga.xlsx
+++ b/Poland I Liga/Poland I Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1597" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1593" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -543,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC315"/>
+  <dimension ref="A1:AC314"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5001,7 +5001,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5139054</v>
+        <v>5139053</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5013,76 +5013,76 @@
         <v>45004.58333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G51" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K51">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="L51">
         <v>3.2</v>
       </c>
       <c r="M51">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="N51">
+        <v>2.7</v>
+      </c>
+      <c r="O51">
+        <v>3.2</v>
+      </c>
+      <c r="P51">
         <v>2.375</v>
       </c>
-      <c r="O51">
-        <v>3</v>
-      </c>
-      <c r="P51">
-        <v>3</v>
-      </c>
       <c r="Q51">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R51">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S51">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="T51">
         <v>2.25</v>
       </c>
       <c r="U51">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V51">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y51">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA51">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB51">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5268,7 +5268,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>5139053</v>
+        <v>5139054</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5280,76 +5280,76 @@
         <v>45004.58333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G54" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K54">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="L54">
         <v>3.2</v>
       </c>
       <c r="M54">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="N54">
-        <v>2.7</v>
+        <v>2.375</v>
       </c>
       <c r="O54">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P54">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="Q54">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R54">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S54">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="T54">
         <v>2.25</v>
       </c>
       <c r="U54">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V54">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z54">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC54">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -6158,7 +6158,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>5138224</v>
+        <v>5139063</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6170,10 +6170,10 @@
         <v>45022.54166666666</v>
       </c>
       <c r="F64" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G64" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6185,61 +6185,61 @@
         <v>55</v>
       </c>
       <c r="K64">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="L64">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M64">
+        <v>2.875</v>
+      </c>
+      <c r="N64">
+        <v>2.7</v>
+      </c>
+      <c r="O64">
+        <v>3.1</v>
+      </c>
+      <c r="P64">
+        <v>2.375</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>2.05</v>
+      </c>
+      <c r="S64">
         <v>1.75</v>
       </c>
-      <c r="N64">
-        <v>4</v>
-      </c>
-      <c r="O64">
-        <v>3.4</v>
-      </c>
-      <c r="P64">
-        <v>1.8</v>
-      </c>
-      <c r="Q64">
-        <v>0.5</v>
-      </c>
-      <c r="R64">
-        <v>1.975</v>
-      </c>
-      <c r="S64">
-        <v>1.825</v>
-      </c>
       <c r="T64">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U64">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V64">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W64">
         <v>-1</v>
       </c>
       <c r="X64">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA64">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB64">
         <v>-1</v>
       </c>
       <c r="AC64">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6247,7 +6247,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>5139063</v>
+        <v>5138224</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6259,10 +6259,10 @@
         <v>45022.54166666666</v>
       </c>
       <c r="F65" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G65" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -6274,61 +6274,61 @@
         <v>55</v>
       </c>
       <c r="K65">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="L65">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M65">
-        <v>2.875</v>
+        <v>1.75</v>
       </c>
       <c r="N65">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="O65">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P65">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="Q65">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R65">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S65">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T65">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U65">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V65">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W65">
         <v>-1</v>
       </c>
       <c r="X65">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="Y65">
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA65">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
         <v>-1</v>
       </c>
       <c r="AC65">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -12566,7 +12566,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>5448049</v>
+        <v>5448048</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12578,76 +12578,76 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F136" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G136" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H136">
         <v>1</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K136">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="L136">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M136">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="N136">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="O136">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P136">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="Q136">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R136">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S136">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T136">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U136">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V136">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W136">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X136">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA136">
-        <v>-0</v>
+        <v>0.4625</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC136">
-        <v>0.8999999999999999</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12655,7 +12655,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>5451608</v>
+        <v>5451610</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12667,10 +12667,10 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F137" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G137" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H137">
         <v>2</v>
@@ -12682,25 +12682,25 @@
         <v>53</v>
       </c>
       <c r="K137">
-        <v>1.909</v>
+        <v>1.444</v>
       </c>
       <c r="L137">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M137">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="N137">
-        <v>1.909</v>
+        <v>1.333</v>
       </c>
       <c r="O137">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P137">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="Q137">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R137">
         <v>1.95</v>
@@ -12712,13 +12712,13 @@
         <v>2.75</v>
       </c>
       <c r="U137">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V137">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W137">
-        <v>0.909</v>
+        <v>0.333</v>
       </c>
       <c r="X137">
         <v>-1</v>
@@ -12727,13 +12727,13 @@
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB137">
-        <v>0.4</v>
+        <v>0.4375</v>
       </c>
       <c r="AC137">
         <v>-0.5</v>
@@ -12744,7 +12744,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>5452381</v>
+        <v>5451609</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12756,76 +12756,76 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F138" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G138" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H138">
+        <v>1</v>
+      </c>
+      <c r="I138">
         <v>0</v>
       </c>
-      <c r="I138">
-        <v>1</v>
-      </c>
       <c r="J138" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K138">
-        <v>1.571</v>
+        <v>1.3</v>
       </c>
       <c r="L138">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M138">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="N138">
-        <v>1.4</v>
+        <v>1.333</v>
       </c>
       <c r="O138">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P138">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="Q138">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R138">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S138">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T138">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U138">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V138">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W138">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X138">
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z138">
         <v>-1</v>
       </c>
       <c r="AA138">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB138">
         <v>-1</v>
       </c>
       <c r="AC138">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12833,7 +12833,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>5448048</v>
+        <v>5451608</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12845,76 +12845,76 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F139" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G139" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I139">
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K139">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L139">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M139">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="N139">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O139">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P139">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q139">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R139">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S139">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T139">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U139">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V139">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W139">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X139">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
+        <v>0.95</v>
+      </c>
+      <c r="AA139">
+        <v>-1</v>
+      </c>
+      <c r="AB139">
+        <v>0.4</v>
+      </c>
+      <c r="AC139">
         <v>-0.5</v>
-      </c>
-      <c r="AA139">
-        <v>0.4625</v>
-      </c>
-      <c r="AB139">
-        <v>-0.5</v>
-      </c>
-      <c r="AC139">
-        <v>0.475</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -13100,7 +13100,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>5451609</v>
+        <v>5452381</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13112,76 +13112,76 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F142" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G142" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
         <v>1</v>
       </c>
-      <c r="I142">
-        <v>0</v>
-      </c>
       <c r="J142" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K142">
-        <v>1.3</v>
+        <v>1.571</v>
       </c>
       <c r="L142">
+        <v>4</v>
+      </c>
+      <c r="M142">
         <v>5</v>
       </c>
-      <c r="M142">
-        <v>7.5</v>
-      </c>
       <c r="N142">
-        <v>1.333</v>
+        <v>1.4</v>
       </c>
       <c r="O142">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P142">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="Q142">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R142">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S142">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T142">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U142">
+        <v>2.025</v>
+      </c>
+      <c r="V142">
         <v>1.825</v>
       </c>
-      <c r="V142">
-        <v>1.975</v>
-      </c>
       <c r="W142">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z142">
         <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB142">
         <v>-1</v>
       </c>
       <c r="AC142">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13189,7 +13189,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>5451610</v>
+        <v>5448050</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13201,76 +13201,76 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F143" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G143" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H143">
+        <v>3</v>
+      </c>
+      <c r="I143">
+        <v>3</v>
+      </c>
+      <c r="J143" t="s">
+        <v>55</v>
+      </c>
+      <c r="K143">
+        <v>2.75</v>
+      </c>
+      <c r="L143">
+        <v>3.25</v>
+      </c>
+      <c r="M143">
+        <v>2.375</v>
+      </c>
+      <c r="N143">
+        <v>2.4</v>
+      </c>
+      <c r="O143">
+        <v>3.25</v>
+      </c>
+      <c r="P143">
+        <v>2.7</v>
+      </c>
+      <c r="Q143">
+        <v>0</v>
+      </c>
+      <c r="R143">
+        <v>1.8</v>
+      </c>
+      <c r="S143">
+        <v>2.05</v>
+      </c>
+      <c r="T143">
+        <v>2.5</v>
+      </c>
+      <c r="U143">
         <v>2</v>
       </c>
-      <c r="I143">
+      <c r="V143">
+        <v>1.85</v>
+      </c>
+      <c r="W143">
+        <v>-1</v>
+      </c>
+      <c r="X143">
+        <v>2.25</v>
+      </c>
+      <c r="Y143">
+        <v>-1</v>
+      </c>
+      <c r="Z143">
+        <v>0</v>
+      </c>
+      <c r="AA143">
+        <v>-0</v>
+      </c>
+      <c r="AB143">
         <v>1</v>
       </c>
-      <c r="J143" t="s">
-        <v>53</v>
-      </c>
-      <c r="K143">
-        <v>1.444</v>
-      </c>
-      <c r="L143">
-        <v>4</v>
-      </c>
-      <c r="M143">
-        <v>6.5</v>
-      </c>
-      <c r="N143">
-        <v>1.333</v>
-      </c>
-      <c r="O143">
-        <v>4.333</v>
-      </c>
-      <c r="P143">
-        <v>8</v>
-      </c>
-      <c r="Q143">
-        <v>-1.5</v>
-      </c>
-      <c r="R143">
-        <v>1.95</v>
-      </c>
-      <c r="S143">
-        <v>1.85</v>
-      </c>
-      <c r="T143">
-        <v>2.75</v>
-      </c>
-      <c r="U143">
-        <v>1.875</v>
-      </c>
-      <c r="V143">
-        <v>1.925</v>
-      </c>
-      <c r="W143">
-        <v>0.333</v>
-      </c>
-      <c r="X143">
-        <v>-1</v>
-      </c>
-      <c r="Y143">
-        <v>-1</v>
-      </c>
-      <c r="Z143">
-        <v>-1</v>
-      </c>
-      <c r="AA143">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB143">
-        <v>0.4375</v>
-      </c>
       <c r="AC143">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13278,7 +13278,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>5448050</v>
+        <v>5448049</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13290,61 +13290,61 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F144" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G144" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H144">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I144">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J144" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K144">
+        <v>1.571</v>
+      </c>
+      <c r="L144">
+        <v>3.75</v>
+      </c>
+      <c r="M144">
+        <v>5</v>
+      </c>
+      <c r="N144">
+        <v>1.444</v>
+      </c>
+      <c r="O144">
+        <v>4</v>
+      </c>
+      <c r="P144">
+        <v>6</v>
+      </c>
+      <c r="Q144">
+        <v>-1</v>
+      </c>
+      <c r="R144">
+        <v>1.775</v>
+      </c>
+      <c r="S144">
+        <v>2.025</v>
+      </c>
+      <c r="T144">
         <v>2.75</v>
       </c>
-      <c r="L144">
-        <v>3.25</v>
-      </c>
-      <c r="M144">
-        <v>2.375</v>
-      </c>
-      <c r="N144">
-        <v>2.4</v>
-      </c>
-      <c r="O144">
-        <v>3.25</v>
-      </c>
-      <c r="P144">
-        <v>2.7</v>
-      </c>
-      <c r="Q144">
-        <v>0</v>
-      </c>
-      <c r="R144">
-        <v>1.8</v>
-      </c>
-      <c r="S144">
-        <v>2.05</v>
-      </c>
-      <c r="T144">
-        <v>2.5</v>
-      </c>
       <c r="U144">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V144">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W144">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X144">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
         <v>-1</v>
@@ -13356,10 +13356,10 @@
         <v>-0</v>
       </c>
       <c r="AB144">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -19063,7 +19063,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6805719</v>
+        <v>6803727</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19075,58 +19075,58 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F209" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G209" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H209">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I209">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J209" t="s">
         <v>53</v>
       </c>
       <c r="K209">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="L209">
         <v>3.3</v>
       </c>
       <c r="M209">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="N209">
-        <v>2.05</v>
+        <v>3.75</v>
       </c>
       <c r="O209">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P209">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="Q209">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R209">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S209">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T209">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U209">
+        <v>1.925</v>
+      </c>
+      <c r="V209">
         <v>1.875</v>
       </c>
-      <c r="V209">
-        <v>1.975</v>
-      </c>
       <c r="W209">
-        <v>1.05</v>
+        <v>2.75</v>
       </c>
       <c r="X209">
         <v>-1</v>
@@ -19135,16 +19135,16 @@
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA209">
         <v>-1</v>
       </c>
       <c r="AB209">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AC209">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19152,7 +19152,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6803727</v>
+        <v>6805719</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19164,58 +19164,58 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F210" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G210" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H210">
+        <v>3</v>
+      </c>
+      <c r="I210">
         <v>2</v>
-      </c>
-      <c r="I210">
-        <v>1</v>
       </c>
       <c r="J210" t="s">
         <v>53</v>
       </c>
       <c r="K210">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="L210">
         <v>3.3</v>
       </c>
       <c r="M210">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="N210">
-        <v>3.75</v>
+        <v>2.05</v>
       </c>
       <c r="O210">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P210">
+        <v>3.2</v>
+      </c>
+      <c r="Q210">
+        <v>-0.25</v>
+      </c>
+      <c r="R210">
         <v>1.85</v>
       </c>
-      <c r="Q210">
-        <v>0.5</v>
-      </c>
-      <c r="R210">
-        <v>1.925</v>
-      </c>
       <c r="S210">
+        <v>2</v>
+      </c>
+      <c r="T210">
+        <v>2.5</v>
+      </c>
+      <c r="U210">
         <v>1.875</v>
       </c>
-      <c r="T210">
-        <v>2.75</v>
-      </c>
-      <c r="U210">
-        <v>1.925</v>
-      </c>
       <c r="V210">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W210">
-        <v>2.75</v>
+        <v>1.05</v>
       </c>
       <c r="X210">
         <v>-1</v>
@@ -19224,16 +19224,16 @@
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA210">
         <v>-1</v>
       </c>
       <c r="AB210">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AC210">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -25471,7 +25471,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>6803779</v>
+        <v>6803778</v>
       </c>
       <c r="C281" t="s">
         <v>28</v>
@@ -25483,76 +25483,76 @@
         <v>45242.58333333334</v>
       </c>
       <c r="F281" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G281" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="H281">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I281">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J281" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K281">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="L281">
         <v>3.4</v>
       </c>
       <c r="M281">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="N281">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="O281">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P281">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="Q281">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R281">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S281">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T281">
         <v>2.5</v>
       </c>
       <c r="U281">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V281">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W281">
         <v>-1</v>
       </c>
       <c r="X281">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y281">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z281">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA281">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB281">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC281">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:29">
@@ -25560,7 +25560,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>6803778</v>
+        <v>6803779</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25572,76 +25572,76 @@
         <v>45242.58333333334</v>
       </c>
       <c r="F282" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G282" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I282">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J282" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K282">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="L282">
         <v>3.4</v>
       </c>
       <c r="M282">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="N282">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="O282">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P282">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="Q282">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R282">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S282">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T282">
         <v>2.5</v>
       </c>
       <c r="U282">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V282">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W282">
         <v>-1</v>
       </c>
       <c r="X282">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y282">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z282">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA282">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB282">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC282">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="283" spans="1:29">
@@ -28490,80 +28490,6 @@
       </c>
       <c r="AC314">
         <v>-1</v>
-      </c>
-    </row>
-    <row r="315" spans="1:29">
-      <c r="A315" s="1">
-        <v>313</v>
-      </c>
-      <c r="B315">
-        <v>7785401</v>
-      </c>
-      <c r="C315" t="s">
-        <v>28</v>
-      </c>
-      <c r="D315" t="s">
-        <v>28</v>
-      </c>
-      <c r="E315" s="2">
-        <v>45332.45833333334</v>
-      </c>
-      <c r="F315" t="s">
-        <v>45</v>
-      </c>
-      <c r="G315" t="s">
-        <v>52</v>
-      </c>
-      <c r="K315">
-        <v>3</v>
-      </c>
-      <c r="L315">
-        <v>3.3</v>
-      </c>
-      <c r="M315">
-        <v>2.1</v>
-      </c>
-      <c r="N315">
-        <v>3</v>
-      </c>
-      <c r="O315">
-        <v>3.3</v>
-      </c>
-      <c r="P315">
-        <v>2.1</v>
-      </c>
-      <c r="Q315">
-        <v>0.25</v>
-      </c>
-      <c r="R315">
-        <v>1.925</v>
-      </c>
-      <c r="S315">
-        <v>1.925</v>
-      </c>
-      <c r="T315">
-        <v>2.5</v>
-      </c>
-      <c r="U315">
-        <v>1.85</v>
-      </c>
-      <c r="V315">
-        <v>2</v>
-      </c>
-      <c r="W315">
-        <v>0</v>
-      </c>
-      <c r="X315">
-        <v>0</v>
-      </c>
-      <c r="Y315">
-        <v>0</v>
-      </c>
-      <c r="Z315">
-        <v>0</v>
-      </c>
-      <c r="AA315">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Poland I Liga/Poland I Liga.xlsx
+++ b/Poland I Liga/Poland I Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1593" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -543,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC314"/>
+  <dimension ref="A1:AC324"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5001,7 +5001,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5139053</v>
+        <v>5139054</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5013,76 +5013,76 @@
         <v>45004.58333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G51" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K51">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="L51">
         <v>3.2</v>
       </c>
       <c r="M51">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="N51">
-        <v>2.7</v>
+        <v>2.375</v>
       </c>
       <c r="O51">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P51">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R51">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S51">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="T51">
         <v>2.25</v>
       </c>
       <c r="U51">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V51">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z51">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC51">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5090,7 +5090,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>5139056</v>
+        <v>5140743</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5102,52 +5102,52 @@
         <v>45004.58333333334</v>
       </c>
       <c r="F52" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G52" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J52" t="s">
         <v>55</v>
       </c>
       <c r="K52">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="L52">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M52">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="N52">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="O52">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P52">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="Q52">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R52">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S52">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T52">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U52">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V52">
         <v>1.85</v>
@@ -5156,22 +5156,22 @@
         <v>-1</v>
       </c>
       <c r="X52">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC52">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5179,7 +5179,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>5140743</v>
+        <v>5139056</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5191,52 +5191,52 @@
         <v>45004.58333333334</v>
       </c>
       <c r="F53" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G53" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J53" t="s">
         <v>55</v>
       </c>
       <c r="K53">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="L53">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M53">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="N53">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="O53">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P53">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="Q53">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R53">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S53">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T53">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U53">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V53">
         <v>1.85</v>
@@ -5245,22 +5245,22 @@
         <v>-1</v>
       </c>
       <c r="X53">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Y53">
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA53">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB53">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5268,7 +5268,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>5139054</v>
+        <v>5139053</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5280,76 +5280,76 @@
         <v>45004.58333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G54" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K54">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="L54">
         <v>3.2</v>
       </c>
       <c r="M54">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="N54">
+        <v>2.7</v>
+      </c>
+      <c r="O54">
+        <v>3.2</v>
+      </c>
+      <c r="P54">
         <v>2.375</v>
       </c>
-      <c r="O54">
-        <v>3</v>
-      </c>
-      <c r="P54">
-        <v>3</v>
-      </c>
       <c r="Q54">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R54">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S54">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="T54">
         <v>2.25</v>
       </c>
       <c r="U54">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V54">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y54">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA54">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB54">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC54">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -6158,7 +6158,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>5139063</v>
+        <v>5138224</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6170,10 +6170,10 @@
         <v>45022.54166666666</v>
       </c>
       <c r="F64" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G64" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6185,61 +6185,61 @@
         <v>55</v>
       </c>
       <c r="K64">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="L64">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M64">
-        <v>2.875</v>
+        <v>1.75</v>
       </c>
       <c r="N64">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="O64">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P64">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="Q64">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R64">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S64">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T64">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U64">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V64">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W64">
         <v>-1</v>
       </c>
       <c r="X64">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA64">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
         <v>-1</v>
       </c>
       <c r="AC64">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6247,7 +6247,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>5138224</v>
+        <v>5139063</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6259,10 +6259,10 @@
         <v>45022.54166666666</v>
       </c>
       <c r="F65" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G65" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -6274,61 +6274,61 @@
         <v>55</v>
       </c>
       <c r="K65">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="L65">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M65">
+        <v>2.875</v>
+      </c>
+      <c r="N65">
+        <v>2.7</v>
+      </c>
+      <c r="O65">
+        <v>3.1</v>
+      </c>
+      <c r="P65">
+        <v>2.375</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>2.05</v>
+      </c>
+      <c r="S65">
         <v>1.75</v>
       </c>
-      <c r="N65">
-        <v>4</v>
-      </c>
-      <c r="O65">
-        <v>3.4</v>
-      </c>
-      <c r="P65">
-        <v>1.8</v>
-      </c>
-      <c r="Q65">
-        <v>0.5</v>
-      </c>
-      <c r="R65">
-        <v>1.975</v>
-      </c>
-      <c r="S65">
-        <v>1.825</v>
-      </c>
       <c r="T65">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U65">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V65">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W65">
         <v>-1</v>
       </c>
       <c r="X65">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="Y65">
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB65">
         <v>-1</v>
       </c>
       <c r="AC65">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -12566,7 +12566,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>5448048</v>
+        <v>5451608</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12578,76 +12578,76 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F136" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G136" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I136">
         <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K136">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L136">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M136">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="N136">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O136">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P136">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q136">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R136">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S136">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T136">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U136">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V136">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X136">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
+        <v>0.95</v>
+      </c>
+      <c r="AA136">
+        <v>-1</v>
+      </c>
+      <c r="AB136">
+        <v>0.4</v>
+      </c>
+      <c r="AC136">
         <v>-0.5</v>
-      </c>
-      <c r="AA136">
-        <v>0.4625</v>
-      </c>
-      <c r="AB136">
-        <v>-0.5</v>
-      </c>
-      <c r="AC136">
-        <v>0.475</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12655,7 +12655,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>5451610</v>
+        <v>5451607</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12667,58 +12667,58 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F137" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G137" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I137">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J137" t="s">
         <v>53</v>
       </c>
       <c r="K137">
-        <v>1.444</v>
+        <v>1.615</v>
       </c>
       <c r="L137">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M137">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="N137">
-        <v>1.333</v>
+        <v>1.363</v>
       </c>
       <c r="O137">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="P137">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q137">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R137">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S137">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T137">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U137">
+        <v>1.925</v>
+      </c>
+      <c r="V137">
         <v>1.875</v>
       </c>
-      <c r="V137">
-        <v>1.925</v>
-      </c>
       <c r="W137">
-        <v>0.333</v>
+        <v>0.363</v>
       </c>
       <c r="X137">
         <v>-1</v>
@@ -12727,16 +12727,16 @@
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA137">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AB137">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
       <c r="AC137">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12744,7 +12744,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>5451609</v>
+        <v>5448048</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12756,76 +12756,76 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F138" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G138" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H138">
         <v>1</v>
       </c>
       <c r="I138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K138">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="L138">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M138">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="N138">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="O138">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P138">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="Q138">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R138">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S138">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T138">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U138">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V138">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W138">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X138">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y138">
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA138">
-        <v>0.8</v>
+        <v>0.4625</v>
       </c>
       <c r="AB138">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC138">
-        <v>0.9750000000000001</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12833,7 +12833,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>5451608</v>
+        <v>5448050</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12845,76 +12845,76 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F139" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G139" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H139">
+        <v>3</v>
+      </c>
+      <c r="I139">
+        <v>3</v>
+      </c>
+      <c r="J139" t="s">
+        <v>55</v>
+      </c>
+      <c r="K139">
+        <v>2.75</v>
+      </c>
+      <c r="L139">
+        <v>3.25</v>
+      </c>
+      <c r="M139">
+        <v>2.375</v>
+      </c>
+      <c r="N139">
+        <v>2.4</v>
+      </c>
+      <c r="O139">
+        <v>3.25</v>
+      </c>
+      <c r="P139">
+        <v>2.7</v>
+      </c>
+      <c r="Q139">
+        <v>0</v>
+      </c>
+      <c r="R139">
+        <v>1.8</v>
+      </c>
+      <c r="S139">
+        <v>2.05</v>
+      </c>
+      <c r="T139">
+        <v>2.5</v>
+      </c>
+      <c r="U139">
         <v>2</v>
       </c>
-      <c r="I139">
+      <c r="V139">
+        <v>1.85</v>
+      </c>
+      <c r="W139">
+        <v>-1</v>
+      </c>
+      <c r="X139">
+        <v>2.25</v>
+      </c>
+      <c r="Y139">
+        <v>-1</v>
+      </c>
+      <c r="Z139">
+        <v>0</v>
+      </c>
+      <c r="AA139">
+        <v>-0</v>
+      </c>
+      <c r="AB139">
         <v>1</v>
       </c>
-      <c r="J139" t="s">
-        <v>53</v>
-      </c>
-      <c r="K139">
-        <v>1.909</v>
-      </c>
-      <c r="L139">
-        <v>3.5</v>
-      </c>
-      <c r="M139">
-        <v>3.5</v>
-      </c>
-      <c r="N139">
-        <v>1.909</v>
-      </c>
-      <c r="O139">
-        <v>3.5</v>
-      </c>
-      <c r="P139">
-        <v>3.6</v>
-      </c>
-      <c r="Q139">
-        <v>-0.5</v>
-      </c>
-      <c r="R139">
-        <v>1.95</v>
-      </c>
-      <c r="S139">
-        <v>1.85</v>
-      </c>
-      <c r="T139">
-        <v>2.75</v>
-      </c>
-      <c r="U139">
-        <v>1.8</v>
-      </c>
-      <c r="V139">
-        <v>2</v>
-      </c>
-      <c r="W139">
-        <v>0.909</v>
-      </c>
-      <c r="X139">
-        <v>-1</v>
-      </c>
-      <c r="Y139">
-        <v>-1</v>
-      </c>
-      <c r="Z139">
-        <v>0.95</v>
-      </c>
-      <c r="AA139">
-        <v>-1</v>
-      </c>
-      <c r="AB139">
-        <v>0.4</v>
-      </c>
       <c r="AC139">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12922,7 +12922,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>5451607</v>
+        <v>5447925</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12934,76 +12934,76 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F140" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G140" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H140">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I140">
         <v>3</v>
       </c>
       <c r="J140" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K140">
+        <v>5.5</v>
+      </c>
+      <c r="L140">
+        <v>4</v>
+      </c>
+      <c r="M140">
+        <v>1.5</v>
+      </c>
+      <c r="N140">
+        <v>4.5</v>
+      </c>
+      <c r="O140">
+        <v>4</v>
+      </c>
+      <c r="P140">
         <v>1.615</v>
       </c>
-      <c r="L140">
-        <v>3.75</v>
-      </c>
-      <c r="M140">
-        <v>4.75</v>
-      </c>
-      <c r="N140">
-        <v>1.363</v>
-      </c>
-      <c r="O140">
-        <v>4.75</v>
-      </c>
-      <c r="P140">
-        <v>6</v>
-      </c>
       <c r="Q140">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R140">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S140">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T140">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U140">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V140">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W140">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z140">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>0.4875</v>
+        <v>0.8</v>
       </c>
       <c r="AB140">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC140">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13011,7 +13011,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>5447925</v>
+        <v>5451610</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13023,76 +13023,76 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F141" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G141" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K141">
-        <v>5.5</v>
+        <v>1.444</v>
       </c>
       <c r="L141">
         <v>4</v>
       </c>
       <c r="M141">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="N141">
-        <v>4.5</v>
+        <v>1.333</v>
       </c>
       <c r="O141">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P141">
-        <v>1.615</v>
+        <v>8</v>
       </c>
       <c r="Q141">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R141">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S141">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T141">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U141">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V141">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W141">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
         <v>-1</v>
       </c>
       <c r="AA141">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB141">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="AC141">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13189,7 +13189,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>5448050</v>
+        <v>5451609</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13201,76 +13201,76 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F143" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G143" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H143">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I143">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K143">
-        <v>2.75</v>
+        <v>1.3</v>
       </c>
       <c r="L143">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="M143">
-        <v>2.375</v>
+        <v>7.5</v>
       </c>
       <c r="N143">
-        <v>2.4</v>
+        <v>1.333</v>
       </c>
       <c r="O143">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="P143">
-        <v>2.7</v>
+        <v>8</v>
       </c>
       <c r="Q143">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R143">
+        <v>2</v>
+      </c>
+      <c r="S143">
         <v>1.8</v>
-      </c>
-      <c r="S143">
-        <v>2.05</v>
       </c>
       <c r="T143">
         <v>2.5</v>
       </c>
       <c r="U143">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V143">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W143">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X143">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB143">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -19063,7 +19063,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6803727</v>
+        <v>6805719</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19075,58 +19075,58 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F209" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G209" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H209">
+        <v>3</v>
+      </c>
+      <c r="I209">
         <v>2</v>
-      </c>
-      <c r="I209">
-        <v>1</v>
       </c>
       <c r="J209" t="s">
         <v>53</v>
       </c>
       <c r="K209">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="L209">
         <v>3.3</v>
       </c>
       <c r="M209">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="N209">
-        <v>3.75</v>
+        <v>2.05</v>
       </c>
       <c r="O209">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P209">
+        <v>3.2</v>
+      </c>
+      <c r="Q209">
+        <v>-0.25</v>
+      </c>
+      <c r="R209">
         <v>1.85</v>
       </c>
-      <c r="Q209">
-        <v>0.5</v>
-      </c>
-      <c r="R209">
-        <v>1.925</v>
-      </c>
       <c r="S209">
+        <v>2</v>
+      </c>
+      <c r="T209">
+        <v>2.5</v>
+      </c>
+      <c r="U209">
         <v>1.875</v>
       </c>
-      <c r="T209">
-        <v>2.75</v>
-      </c>
-      <c r="U209">
-        <v>1.925</v>
-      </c>
       <c r="V209">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W209">
-        <v>2.75</v>
+        <v>1.05</v>
       </c>
       <c r="X209">
         <v>-1</v>
@@ -19135,16 +19135,16 @@
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA209">
         <v>-1</v>
       </c>
       <c r="AB209">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AC209">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19152,7 +19152,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6805719</v>
+        <v>6803727</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19164,58 +19164,58 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F210" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G210" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H210">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I210">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J210" t="s">
         <v>53</v>
       </c>
       <c r="K210">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="L210">
         <v>3.3</v>
       </c>
       <c r="M210">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="N210">
-        <v>2.05</v>
+        <v>3.75</v>
       </c>
       <c r="O210">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P210">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="Q210">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R210">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S210">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T210">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U210">
+        <v>1.925</v>
+      </c>
+      <c r="V210">
         <v>1.875</v>
       </c>
-      <c r="V210">
-        <v>1.975</v>
-      </c>
       <c r="W210">
-        <v>1.05</v>
+        <v>2.75</v>
       </c>
       <c r="X210">
         <v>-1</v>
@@ -19224,16 +19224,16 @@
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA210">
         <v>-1</v>
       </c>
       <c r="AB210">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AC210">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -20042,7 +20042,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6803738</v>
+        <v>6803740</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20054,19 +20054,19 @@
         <v>45191.54166666666</v>
       </c>
       <c r="F220" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G220" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H220">
         <v>1</v>
       </c>
       <c r="I220">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J220" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K220">
         <v>1.85</v>
@@ -20075,55 +20075,55 @@
         <v>3.5</v>
       </c>
       <c r="M220">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="N220">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="O220">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P220">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q220">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R220">
+        <v>1.975</v>
+      </c>
+      <c r="S220">
         <v>1.825</v>
       </c>
-      <c r="S220">
-        <v>1.975</v>
-      </c>
       <c r="T220">
+        <v>2.25</v>
+      </c>
+      <c r="U220">
+        <v>1.9</v>
+      </c>
+      <c r="V220">
+        <v>1.9</v>
+      </c>
+      <c r="W220">
+        <v>-1</v>
+      </c>
+      <c r="X220">
+        <v>-1</v>
+      </c>
+      <c r="Y220">
         <v>2.5</v>
       </c>
-      <c r="U220">
-        <v>1.825</v>
-      </c>
-      <c r="V220">
-        <v>1.975</v>
-      </c>
-      <c r="W220">
-        <v>-1</v>
-      </c>
-      <c r="X220">
-        <v>2.8</v>
-      </c>
-      <c r="Y220">
-        <v>-1</v>
-      </c>
       <c r="Z220">
         <v>-1</v>
       </c>
       <c r="AA220">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB220">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC220">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20131,7 +20131,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6803740</v>
+        <v>6803738</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20143,19 +20143,19 @@
         <v>45191.54166666666</v>
       </c>
       <c r="F221" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G221" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H221">
         <v>1</v>
       </c>
       <c r="I221">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J221" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K221">
         <v>1.85</v>
@@ -20164,55 +20164,55 @@
         <v>3.5</v>
       </c>
       <c r="M221">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="N221">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="O221">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P221">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q221">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R221">
+        <v>1.825</v>
+      </c>
+      <c r="S221">
         <v>1.975</v>
       </c>
-      <c r="S221">
+      <c r="T221">
+        <v>2.5</v>
+      </c>
+      <c r="U221">
         <v>1.825</v>
       </c>
-      <c r="T221">
-        <v>2.25</v>
-      </c>
-      <c r="U221">
-        <v>1.9</v>
-      </c>
       <c r="V221">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W221">
         <v>-1</v>
       </c>
       <c r="X221">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y221">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z221">
         <v>-1</v>
       </c>
       <c r="AA221">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB221">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC221">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -22267,7 +22267,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>6803754</v>
+        <v>6805706</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22279,76 +22279,76 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F245" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G245" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="H245">
         <v>0</v>
       </c>
       <c r="I245">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J245" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K245">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L245">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M245">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="N245">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="O245">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P245">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="Q245">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R245">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S245">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T245">
         <v>2.5</v>
       </c>
       <c r="U245">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V245">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W245">
         <v>-1</v>
       </c>
       <c r="X245">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y245">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z245">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA245">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB245">
         <v>-1</v>
       </c>
       <c r="AC245">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:29">
@@ -22356,7 +22356,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>6805706</v>
+        <v>6803754</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22368,76 +22368,76 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F246" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G246" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H246">
         <v>0</v>
       </c>
       <c r="I246">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J246" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K246">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L246">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M246">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="N246">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="O246">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P246">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="Q246">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R246">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S246">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T246">
         <v>2.5</v>
       </c>
       <c r="U246">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V246">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W246">
         <v>-1</v>
       </c>
       <c r="X246">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y246">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z246">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA246">
+        <v>-0</v>
+      </c>
+      <c r="AB246">
+        <v>-1</v>
+      </c>
+      <c r="AC246">
         <v>0.95</v>
-      </c>
-      <c r="AB246">
-        <v>-1</v>
-      </c>
-      <c r="AC246">
-        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:29">
@@ -23157,7 +23157,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>6805700</v>
+        <v>6803761</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23169,76 +23169,76 @@
         <v>45226.54166666666</v>
       </c>
       <c r="F255" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G255" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J255" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K255">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="L255">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M255">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="N255">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="O255">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P255">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="Q255">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R255">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S255">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T255">
         <v>2.75</v>
       </c>
       <c r="U255">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V255">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W255">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X255">
         <v>-1</v>
       </c>
       <c r="Y255">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z255">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA255">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB255">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC255">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="256" spans="1:29">
@@ -23246,7 +23246,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>6803761</v>
+        <v>6805700</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23258,76 +23258,76 @@
         <v>45226.54166666666</v>
       </c>
       <c r="F256" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G256" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H256">
+        <v>0</v>
+      </c>
+      <c r="I256">
         <v>2</v>
       </c>
-      <c r="I256">
-        <v>1</v>
-      </c>
       <c r="J256" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K256">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="L256">
+        <v>3.75</v>
+      </c>
+      <c r="M256">
+        <v>4.2</v>
+      </c>
+      <c r="N256">
+        <v>1.75</v>
+      </c>
+      <c r="O256">
+        <v>3.6</v>
+      </c>
+      <c r="P256">
         <v>4</v>
       </c>
-      <c r="M256">
-        <v>5.25</v>
-      </c>
-      <c r="N256">
-        <v>1.5</v>
-      </c>
-      <c r="O256">
-        <v>4</v>
-      </c>
-      <c r="P256">
-        <v>5.5</v>
-      </c>
       <c r="Q256">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R256">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S256">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T256">
         <v>2.75</v>
       </c>
       <c r="U256">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V256">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W256">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X256">
         <v>-1</v>
       </c>
       <c r="Y256">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z256">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA256">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB256">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC256">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="257" spans="1:29">
@@ -27340,7 +27340,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>6803794</v>
+        <v>6803793</v>
       </c>
       <c r="C302" t="s">
         <v>28</v>
@@ -27352,76 +27352,76 @@
         <v>45270.36111111111</v>
       </c>
       <c r="F302" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G302" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H302">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I302">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J302" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K302">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="L302">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M302">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="N302">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="O302">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P302">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q302">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R302">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S302">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T302">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U302">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V302">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W302">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X302">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y302">
         <v>-1</v>
       </c>
       <c r="Z302">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA302">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB302">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC302">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="303" spans="1:29">
@@ -27429,7 +27429,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>6803793</v>
+        <v>6803794</v>
       </c>
       <c r="C303" t="s">
         <v>28</v>
@@ -27441,76 +27441,76 @@
         <v>45270.36111111111</v>
       </c>
       <c r="F303" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G303" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I303">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J303" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K303">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="L303">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M303">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="N303">
-        <v>2.1</v>
+        <v>1.363</v>
       </c>
       <c r="O303">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P303">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="Q303">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R303">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S303">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T303">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U303">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V303">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W303">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X303">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y303">
         <v>-1</v>
       </c>
       <c r="Z303">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA303">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB303">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC303">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="304" spans="1:29">
@@ -28490,6 +28490,761 @@
       </c>
       <c r="AC314">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:29">
+      <c r="A315" s="1">
+        <v>313</v>
+      </c>
+      <c r="B315">
+        <v>7785401</v>
+      </c>
+      <c r="C315" t="s">
+        <v>28</v>
+      </c>
+      <c r="D315" t="s">
+        <v>28</v>
+      </c>
+      <c r="E315" s="2">
+        <v>45332.45833333334</v>
+      </c>
+      <c r="F315" t="s">
+        <v>45</v>
+      </c>
+      <c r="G315" t="s">
+        <v>52</v>
+      </c>
+      <c r="H315">
+        <v>2</v>
+      </c>
+      <c r="I315">
+        <v>2</v>
+      </c>
+      <c r="J315" t="s">
+        <v>55</v>
+      </c>
+      <c r="K315">
+        <v>3</v>
+      </c>
+      <c r="L315">
+        <v>3.3</v>
+      </c>
+      <c r="M315">
+        <v>2.1</v>
+      </c>
+      <c r="N315">
+        <v>3.25</v>
+      </c>
+      <c r="O315">
+        <v>3.4</v>
+      </c>
+      <c r="P315">
+        <v>1.95</v>
+      </c>
+      <c r="Q315">
+        <v>0.5</v>
+      </c>
+      <c r="R315">
+        <v>1.8</v>
+      </c>
+      <c r="S315">
+        <v>2</v>
+      </c>
+      <c r="T315">
+        <v>2.5</v>
+      </c>
+      <c r="U315">
+        <v>1.8</v>
+      </c>
+      <c r="V315">
+        <v>2</v>
+      </c>
+      <c r="W315">
+        <v>-1</v>
+      </c>
+      <c r="X315">
+        <v>2.4</v>
+      </c>
+      <c r="Y315">
+        <v>-1</v>
+      </c>
+      <c r="Z315">
+        <v>0.8</v>
+      </c>
+      <c r="AA315">
+        <v>-1</v>
+      </c>
+      <c r="AB315">
+        <v>0.8</v>
+      </c>
+      <c r="AC315">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:29">
+      <c r="A316" s="1">
+        <v>314</v>
+      </c>
+      <c r="B316">
+        <v>6803807</v>
+      </c>
+      <c r="C316" t="s">
+        <v>28</v>
+      </c>
+      <c r="D316" t="s">
+        <v>28</v>
+      </c>
+      <c r="E316" s="2">
+        <v>45338.58333333334</v>
+      </c>
+      <c r="F316" t="s">
+        <v>40</v>
+      </c>
+      <c r="G316" t="s">
+        <v>50</v>
+      </c>
+      <c r="K316">
+        <v>3.75</v>
+      </c>
+      <c r="L316">
+        <v>3.3</v>
+      </c>
+      <c r="M316">
+        <v>2</v>
+      </c>
+      <c r="N316">
+        <v>3.6</v>
+      </c>
+      <c r="O316">
+        <v>3.3</v>
+      </c>
+      <c r="P316">
+        <v>2.05</v>
+      </c>
+      <c r="Q316">
+        <v>0.25</v>
+      </c>
+      <c r="R316">
+        <v>2.05</v>
+      </c>
+      <c r="S316">
+        <v>1.8</v>
+      </c>
+      <c r="T316">
+        <v>2.25</v>
+      </c>
+      <c r="U316">
+        <v>1.975</v>
+      </c>
+      <c r="V316">
+        <v>1.875</v>
+      </c>
+      <c r="W316">
+        <v>0</v>
+      </c>
+      <c r="X316">
+        <v>0</v>
+      </c>
+      <c r="Y316">
+        <v>0</v>
+      </c>
+      <c r="Z316">
+        <v>0</v>
+      </c>
+      <c r="AA316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:29">
+      <c r="A317" s="1">
+        <v>315</v>
+      </c>
+      <c r="B317">
+        <v>6803805</v>
+      </c>
+      <c r="C317" t="s">
+        <v>28</v>
+      </c>
+      <c r="D317" t="s">
+        <v>28</v>
+      </c>
+      <c r="E317" s="2">
+        <v>45338.6875</v>
+      </c>
+      <c r="F317" t="s">
+        <v>38</v>
+      </c>
+      <c r="G317" t="s">
+        <v>46</v>
+      </c>
+      <c r="K317">
+        <v>2.25</v>
+      </c>
+      <c r="L317">
+        <v>3.2</v>
+      </c>
+      <c r="M317">
+        <v>3.2</v>
+      </c>
+      <c r="N317">
+        <v>2.25</v>
+      </c>
+      <c r="O317">
+        <v>3.2</v>
+      </c>
+      <c r="P317">
+        <v>3.2</v>
+      </c>
+      <c r="Q317">
+        <v>-0.25</v>
+      </c>
+      <c r="R317">
+        <v>1.975</v>
+      </c>
+      <c r="S317">
+        <v>1.875</v>
+      </c>
+      <c r="T317">
+        <v>2.25</v>
+      </c>
+      <c r="U317">
+        <v>1.975</v>
+      </c>
+      <c r="V317">
+        <v>1.875</v>
+      </c>
+      <c r="W317">
+        <v>0</v>
+      </c>
+      <c r="X317">
+        <v>0</v>
+      </c>
+      <c r="Y317">
+        <v>0</v>
+      </c>
+      <c r="Z317">
+        <v>0</v>
+      </c>
+      <c r="AA317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:29">
+      <c r="A318" s="1">
+        <v>316</v>
+      </c>
+      <c r="B318">
+        <v>6803810</v>
+      </c>
+      <c r="C318" t="s">
+        <v>28</v>
+      </c>
+      <c r="D318" t="s">
+        <v>28</v>
+      </c>
+      <c r="E318" s="2">
+        <v>45339.45833333334</v>
+      </c>
+      <c r="F318" t="s">
+        <v>36</v>
+      </c>
+      <c r="G318" t="s">
+        <v>45</v>
+      </c>
+      <c r="K318">
+        <v>1.833</v>
+      </c>
+      <c r="L318">
+        <v>3.75</v>
+      </c>
+      <c r="M318">
+        <v>4</v>
+      </c>
+      <c r="N318">
+        <v>1.833</v>
+      </c>
+      <c r="O318">
+        <v>3.75</v>
+      </c>
+      <c r="P318">
+        <v>4</v>
+      </c>
+      <c r="Q318">
+        <v>-0.5</v>
+      </c>
+      <c r="R318">
+        <v>1.825</v>
+      </c>
+      <c r="S318">
+        <v>2.025</v>
+      </c>
+      <c r="T318">
+        <v>2.5</v>
+      </c>
+      <c r="U318">
+        <v>1.825</v>
+      </c>
+      <c r="V318">
+        <v>2.025</v>
+      </c>
+      <c r="W318">
+        <v>0</v>
+      </c>
+      <c r="X318">
+        <v>0</v>
+      </c>
+      <c r="Y318">
+        <v>0</v>
+      </c>
+      <c r="Z318">
+        <v>0</v>
+      </c>
+      <c r="AA318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:29">
+      <c r="A319" s="1">
+        <v>317</v>
+      </c>
+      <c r="B319">
+        <v>6805682</v>
+      </c>
+      <c r="C319" t="s">
+        <v>28</v>
+      </c>
+      <c r="D319" t="s">
+        <v>28</v>
+      </c>
+      <c r="E319" s="2">
+        <v>45339.5625</v>
+      </c>
+      <c r="F319" t="s">
+        <v>48</v>
+      </c>
+      <c r="G319" t="s">
+        <v>41</v>
+      </c>
+      <c r="K319">
+        <v>4.2</v>
+      </c>
+      <c r="L319">
+        <v>3.5</v>
+      </c>
+      <c r="M319">
+        <v>1.833</v>
+      </c>
+      <c r="N319">
+        <v>4.2</v>
+      </c>
+      <c r="O319">
+        <v>3.5</v>
+      </c>
+      <c r="P319">
+        <v>1.833</v>
+      </c>
+      <c r="Q319">
+        <v>0.5</v>
+      </c>
+      <c r="R319">
+        <v>2.025</v>
+      </c>
+      <c r="S319">
+        <v>1.825</v>
+      </c>
+      <c r="T319">
+        <v>2.5</v>
+      </c>
+      <c r="U319">
+        <v>2</v>
+      </c>
+      <c r="V319">
+        <v>1.85</v>
+      </c>
+      <c r="W319">
+        <v>0</v>
+      </c>
+      <c r="X319">
+        <v>0</v>
+      </c>
+      <c r="Y319">
+        <v>0</v>
+      </c>
+      <c r="Z319">
+        <v>0</v>
+      </c>
+      <c r="AA319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:29">
+      <c r="A320" s="1">
+        <v>318</v>
+      </c>
+      <c r="B320">
+        <v>6805680</v>
+      </c>
+      <c r="C320" t="s">
+        <v>28</v>
+      </c>
+      <c r="D320" t="s">
+        <v>28</v>
+      </c>
+      <c r="E320" s="2">
+        <v>45339.66666666666</v>
+      </c>
+      <c r="F320" t="s">
+        <v>51</v>
+      </c>
+      <c r="G320" t="s">
+        <v>52</v>
+      </c>
+      <c r="K320">
+        <v>2.05</v>
+      </c>
+      <c r="L320">
+        <v>3.4</v>
+      </c>
+      <c r="M320">
+        <v>3.5</v>
+      </c>
+      <c r="N320">
+        <v>2.05</v>
+      </c>
+      <c r="O320">
+        <v>3.4</v>
+      </c>
+      <c r="P320">
+        <v>3.5</v>
+      </c>
+      <c r="Q320">
+        <v>-0.25</v>
+      </c>
+      <c r="R320">
+        <v>1.825</v>
+      </c>
+      <c r="S320">
+        <v>2.025</v>
+      </c>
+      <c r="T320">
+        <v>2.5</v>
+      </c>
+      <c r="U320">
+        <v>1.925</v>
+      </c>
+      <c r="V320">
+        <v>1.925</v>
+      </c>
+      <c r="W320">
+        <v>0</v>
+      </c>
+      <c r="X320">
+        <v>0</v>
+      </c>
+      <c r="Y320">
+        <v>0</v>
+      </c>
+      <c r="Z320">
+        <v>0</v>
+      </c>
+      <c r="AA320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:27">
+      <c r="A321" s="1">
+        <v>319</v>
+      </c>
+      <c r="B321">
+        <v>6803806</v>
+      </c>
+      <c r="C321" t="s">
+        <v>28</v>
+      </c>
+      <c r="D321" t="s">
+        <v>28</v>
+      </c>
+      <c r="E321" s="2">
+        <v>45340.36111111111</v>
+      </c>
+      <c r="F321" t="s">
+        <v>31</v>
+      </c>
+      <c r="G321" t="s">
+        <v>30</v>
+      </c>
+      <c r="K321">
+        <v>3.8</v>
+      </c>
+      <c r="L321">
+        <v>3.6</v>
+      </c>
+      <c r="M321">
+        <v>1.909</v>
+      </c>
+      <c r="N321">
+        <v>4</v>
+      </c>
+      <c r="O321">
+        <v>3.75</v>
+      </c>
+      <c r="P321">
+        <v>1.833</v>
+      </c>
+      <c r="Q321">
+        <v>0.5</v>
+      </c>
+      <c r="R321">
+        <v>2</v>
+      </c>
+      <c r="S321">
+        <v>1.85</v>
+      </c>
+      <c r="T321">
+        <v>2.75</v>
+      </c>
+      <c r="U321">
+        <v>1.975</v>
+      </c>
+      <c r="V321">
+        <v>1.875</v>
+      </c>
+      <c r="W321">
+        <v>0</v>
+      </c>
+      <c r="X321">
+        <v>0</v>
+      </c>
+      <c r="Y321">
+        <v>0</v>
+      </c>
+      <c r="Z321">
+        <v>0</v>
+      </c>
+      <c r="AA321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:27">
+      <c r="A322" s="1">
+        <v>320</v>
+      </c>
+      <c r="B322">
+        <v>6803808</v>
+      </c>
+      <c r="C322" t="s">
+        <v>28</v>
+      </c>
+      <c r="D322" t="s">
+        <v>28</v>
+      </c>
+      <c r="E322" s="2">
+        <v>45340.45833333334</v>
+      </c>
+      <c r="F322" t="s">
+        <v>35</v>
+      </c>
+      <c r="G322" t="s">
+        <v>44</v>
+      </c>
+      <c r="K322">
+        <v>1.55</v>
+      </c>
+      <c r="L322">
+        <v>4</v>
+      </c>
+      <c r="M322">
+        <v>5.75</v>
+      </c>
+      <c r="N322">
+        <v>1.55</v>
+      </c>
+      <c r="O322">
+        <v>4</v>
+      </c>
+      <c r="P322">
+        <v>5.75</v>
+      </c>
+      <c r="Q322">
+        <v>-1</v>
+      </c>
+      <c r="R322">
+        <v>1.975</v>
+      </c>
+      <c r="S322">
+        <v>1.875</v>
+      </c>
+      <c r="T322">
+        <v>2.5</v>
+      </c>
+      <c r="U322">
+        <v>1.825</v>
+      </c>
+      <c r="V322">
+        <v>2.025</v>
+      </c>
+      <c r="W322">
+        <v>0</v>
+      </c>
+      <c r="X322">
+        <v>0</v>
+      </c>
+      <c r="Y322">
+        <v>0</v>
+      </c>
+      <c r="Z322">
+        <v>0</v>
+      </c>
+      <c r="AA322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:27">
+      <c r="A323" s="1">
+        <v>321</v>
+      </c>
+      <c r="B323">
+        <v>6803809</v>
+      </c>
+      <c r="C323" t="s">
+        <v>28</v>
+      </c>
+      <c r="D323" t="s">
+        <v>28</v>
+      </c>
+      <c r="E323" s="2">
+        <v>45340.58333333334</v>
+      </c>
+      <c r="F323" t="s">
+        <v>33</v>
+      </c>
+      <c r="G323" t="s">
+        <v>49</v>
+      </c>
+      <c r="K323">
+        <v>2.3</v>
+      </c>
+      <c r="L323">
+        <v>3.2</v>
+      </c>
+      <c r="M323">
+        <v>3.1</v>
+      </c>
+      <c r="N323">
+        <v>2.3</v>
+      </c>
+      <c r="O323">
+        <v>3.2</v>
+      </c>
+      <c r="P323">
+        <v>3.1</v>
+      </c>
+      <c r="Q323">
+        <v>-0.25</v>
+      </c>
+      <c r="R323">
+        <v>2.025</v>
+      </c>
+      <c r="S323">
+        <v>1.825</v>
+      </c>
+      <c r="T323">
+        <v>2.25</v>
+      </c>
+      <c r="U323">
+        <v>1.9</v>
+      </c>
+      <c r="V323">
+        <v>1.95</v>
+      </c>
+      <c r="W323">
+        <v>0</v>
+      </c>
+      <c r="X323">
+        <v>0</v>
+      </c>
+      <c r="Y323">
+        <v>0</v>
+      </c>
+      <c r="Z323">
+        <v>0</v>
+      </c>
+      <c r="AA323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:27">
+      <c r="A324" s="1">
+        <v>322</v>
+      </c>
+      <c r="B324">
+        <v>6805681</v>
+      </c>
+      <c r="C324" t="s">
+        <v>28</v>
+      </c>
+      <c r="D324" t="s">
+        <v>28</v>
+      </c>
+      <c r="E324" s="2">
+        <v>45341.58333333334</v>
+      </c>
+      <c r="F324" t="s">
+        <v>42</v>
+      </c>
+      <c r="G324" t="s">
+        <v>47</v>
+      </c>
+      <c r="K324">
+        <v>2.3</v>
+      </c>
+      <c r="L324">
+        <v>3.25</v>
+      </c>
+      <c r="M324">
+        <v>3.1</v>
+      </c>
+      <c r="N324">
+        <v>2.375</v>
+      </c>
+      <c r="O324">
+        <v>3.2</v>
+      </c>
+      <c r="P324">
+        <v>3.1</v>
+      </c>
+      <c r="Q324">
+        <v>-0.25</v>
+      </c>
+      <c r="R324">
+        <v>2.05</v>
+      </c>
+      <c r="S324">
+        <v>1.8</v>
+      </c>
+      <c r="T324">
+        <v>2.5</v>
+      </c>
+      <c r="U324">
+        <v>2.05</v>
+      </c>
+      <c r="V324">
+        <v>1.8</v>
+      </c>
+      <c r="W324">
+        <v>0</v>
+      </c>
+      <c r="X324">
+        <v>0</v>
+      </c>
+      <c r="Y324">
+        <v>0</v>
+      </c>
+      <c r="Z324">
+        <v>0</v>
+      </c>
+      <c r="AA324">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Poland I Liga/Poland I Liga.xlsx
+++ b/Poland I Liga/Poland I Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -5001,7 +5001,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5139054</v>
+        <v>5140743</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5013,73 +5013,73 @@
         <v>45004.58333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G51" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H51">
         <v>2</v>
       </c>
       <c r="I51">
+        <v>2</v>
+      </c>
+      <c r="J51" t="s">
+        <v>55</v>
+      </c>
+      <c r="K51">
         <v>3</v>
       </c>
-      <c r="J51" t="s">
-        <v>54</v>
-      </c>
-      <c r="K51">
-        <v>2.15</v>
-      </c>
       <c r="L51">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M51">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="N51">
-        <v>2.375</v>
+        <v>2.9</v>
       </c>
       <c r="O51">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P51">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Q51">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R51">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S51">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T51">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U51">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V51">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y51">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA51">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB51">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC51">
         <v>-1</v>
@@ -5090,7 +5090,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>5140743</v>
+        <v>5139053</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5102,76 +5102,76 @@
         <v>45004.58333333334</v>
       </c>
       <c r="F52" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G52" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
         <v>55</v>
       </c>
       <c r="K52">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="L52">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M52">
+        <v>2.55</v>
+      </c>
+      <c r="N52">
+        <v>2.7</v>
+      </c>
+      <c r="O52">
+        <v>3.2</v>
+      </c>
+      <c r="P52">
+        <v>2.375</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>2.05</v>
+      </c>
+      <c r="S52">
+        <v>1.75</v>
+      </c>
+      <c r="T52">
+        <v>2.25</v>
+      </c>
+      <c r="U52">
+        <v>1.875</v>
+      </c>
+      <c r="V52">
+        <v>1.925</v>
+      </c>
+      <c r="W52">
+        <v>-1</v>
+      </c>
+      <c r="X52">
         <v>2.2</v>
       </c>
-      <c r="N52">
-        <v>2.9</v>
-      </c>
-      <c r="O52">
-        <v>3.3</v>
-      </c>
-      <c r="P52">
-        <v>2.25</v>
-      </c>
-      <c r="Q52">
-        <v>0.25</v>
-      </c>
-      <c r="R52">
-        <v>1.825</v>
-      </c>
-      <c r="S52">
-        <v>1.975</v>
-      </c>
-      <c r="T52">
-        <v>2.5</v>
-      </c>
-      <c r="U52">
-        <v>1.95</v>
-      </c>
-      <c r="V52">
-        <v>1.85</v>
-      </c>
-      <c r="W52">
-        <v>-1</v>
-      </c>
-      <c r="X52">
-        <v>2.3</v>
-      </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0.4125</v>
+        <v>0</v>
       </c>
       <c r="AA52">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB52">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5179,7 +5179,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>5139056</v>
+        <v>5139054</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5191,76 +5191,76 @@
         <v>45004.58333333334</v>
       </c>
       <c r="F53" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G53" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K53">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="L53">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M53">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="N53">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="O53">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P53">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="Q53">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R53">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S53">
+        <v>1.775</v>
+      </c>
+      <c r="T53">
+        <v>2.25</v>
+      </c>
+      <c r="U53">
+        <v>1.975</v>
+      </c>
+      <c r="V53">
+        <v>1.825</v>
+      </c>
+      <c r="W53">
+        <v>-1</v>
+      </c>
+      <c r="X53">
+        <v>-1</v>
+      </c>
+      <c r="Y53">
         <v>2</v>
       </c>
-      <c r="T53">
-        <v>2.75</v>
-      </c>
-      <c r="U53">
-        <v>2</v>
-      </c>
-      <c r="V53">
-        <v>1.85</v>
-      </c>
-      <c r="W53">
-        <v>-1</v>
-      </c>
-      <c r="X53">
-        <v>2.5</v>
-      </c>
-      <c r="Y53">
-        <v>-1</v>
-      </c>
       <c r="Z53">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA53">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB53">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC53">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5268,7 +5268,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>5139053</v>
+        <v>5139056</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5280,76 +5280,76 @@
         <v>45004.58333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G54" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="s">
         <v>55</v>
       </c>
       <c r="K54">
-        <v>2.45</v>
+        <v>3.75</v>
       </c>
       <c r="L54">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M54">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="N54">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="O54">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P54">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="Q54">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R54">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S54">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T54">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U54">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V54">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="Y54">
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA54">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
         <v>-1</v>
       </c>
       <c r="AC54">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -12566,7 +12566,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>5451608</v>
+        <v>5448048</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12578,76 +12578,76 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F136" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G136" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136">
         <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K136">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L136">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M136">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="N136">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O136">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P136">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q136">
+        <v>-0.25</v>
+      </c>
+      <c r="R136">
+        <v>1.875</v>
+      </c>
+      <c r="S136">
+        <v>1.925</v>
+      </c>
+      <c r="T136">
+        <v>2.25</v>
+      </c>
+      <c r="U136">
+        <v>1.85</v>
+      </c>
+      <c r="V136">
+        <v>1.95</v>
+      </c>
+      <c r="W136">
+        <v>-1</v>
+      </c>
+      <c r="X136">
+        <v>2.2</v>
+      </c>
+      <c r="Y136">
+        <v>-1</v>
+      </c>
+      <c r="Z136">
         <v>-0.5</v>
       </c>
-      <c r="R136">
-        <v>1.95</v>
-      </c>
-      <c r="S136">
-        <v>1.85</v>
-      </c>
-      <c r="T136">
-        <v>2.75</v>
-      </c>
-      <c r="U136">
-        <v>1.8</v>
-      </c>
-      <c r="V136">
-        <v>2</v>
-      </c>
-      <c r="W136">
-        <v>0.909</v>
-      </c>
-      <c r="X136">
-        <v>-1</v>
-      </c>
-      <c r="Y136">
-        <v>-1</v>
-      </c>
-      <c r="Z136">
-        <v>0.95</v>
-      </c>
       <c r="AA136">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB136">
-        <v>0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="AC136">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12655,7 +12655,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>5451607</v>
+        <v>5451608</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12667,58 +12667,58 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F137" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G137" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H137">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I137">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J137" t="s">
         <v>53</v>
       </c>
       <c r="K137">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="L137">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M137">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="N137">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="O137">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P137">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="Q137">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R137">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S137">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T137">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U137">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V137">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W137">
-        <v>0.363</v>
+        <v>0.909</v>
       </c>
       <c r="X137">
         <v>-1</v>
@@ -12727,16 +12727,16 @@
         <v>-1</v>
       </c>
       <c r="Z137">
+        <v>0.95</v>
+      </c>
+      <c r="AA137">
+        <v>-1</v>
+      </c>
+      <c r="AB137">
+        <v>0.4</v>
+      </c>
+      <c r="AC137">
         <v>-0.5</v>
-      </c>
-      <c r="AA137">
-        <v>0.4875</v>
-      </c>
-      <c r="AB137">
-        <v>0.925</v>
-      </c>
-      <c r="AC137">
-        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12744,7 +12744,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>5448048</v>
+        <v>5447925</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12756,76 +12756,76 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F138" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G138" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J138" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K138">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="L138">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M138">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="N138">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="O138">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P138">
-        <v>3.1</v>
+        <v>1.615</v>
       </c>
       <c r="Q138">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R138">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S138">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T138">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U138">
+        <v>2</v>
+      </c>
+      <c r="V138">
         <v>1.85</v>
       </c>
-      <c r="V138">
-        <v>1.95</v>
-      </c>
       <c r="W138">
         <v>-1</v>
       </c>
       <c r="X138">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z138">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
       <c r="AB138">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC138">
-        <v>0.475</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12833,7 +12833,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>5448050</v>
+        <v>5452381</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12845,76 +12845,76 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F139" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G139" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="J139" t="s">
+        <v>54</v>
+      </c>
+      <c r="K139">
+        <v>1.571</v>
+      </c>
+      <c r="L139">
+        <v>4</v>
+      </c>
+      <c r="M139">
+        <v>5</v>
+      </c>
+      <c r="N139">
+        <v>1.4</v>
+      </c>
+      <c r="O139">
+        <v>4.5</v>
+      </c>
+      <c r="P139">
+        <v>6.5</v>
+      </c>
+      <c r="Q139">
+        <v>-1.25</v>
+      </c>
+      <c r="R139">
+        <v>1.9</v>
+      </c>
+      <c r="S139">
+        <v>1.95</v>
+      </c>
+      <c r="T139">
         <v>3</v>
       </c>
-      <c r="I139">
-        <v>3</v>
-      </c>
-      <c r="J139" t="s">
-        <v>55</v>
-      </c>
-      <c r="K139">
-        <v>2.75</v>
-      </c>
-      <c r="L139">
-        <v>3.25</v>
-      </c>
-      <c r="M139">
-        <v>2.375</v>
-      </c>
-      <c r="N139">
-        <v>2.4</v>
-      </c>
-      <c r="O139">
-        <v>3.25</v>
-      </c>
-      <c r="P139">
-        <v>2.7</v>
-      </c>
-      <c r="Q139">
-        <v>0</v>
-      </c>
-      <c r="R139">
-        <v>1.8</v>
-      </c>
-      <c r="S139">
-        <v>2.05</v>
-      </c>
-      <c r="T139">
-        <v>2.5</v>
-      </c>
       <c r="U139">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V139">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W139">
         <v>-1</v>
       </c>
       <c r="X139">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y139">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z139">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB139">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC139">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12922,7 +12922,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>5447925</v>
+        <v>5451609</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12934,64 +12934,64 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F140" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G140" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K140">
-        <v>5.5</v>
+        <v>1.3</v>
       </c>
       <c r="L140">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M140">
-        <v>1.5</v>
+        <v>7.5</v>
       </c>
       <c r="N140">
-        <v>4.5</v>
+        <v>1.333</v>
       </c>
       <c r="O140">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P140">
-        <v>1.615</v>
+        <v>8</v>
       </c>
       <c r="Q140">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R140">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S140">
         <v>1.8</v>
       </c>
       <c r="T140">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U140">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V140">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
         <v>-1</v>
@@ -13000,10 +13000,10 @@
         <v>0.8</v>
       </c>
       <c r="AB140">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC140">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13011,7 +13011,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>5451610</v>
+        <v>5451607</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13023,58 +13023,58 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F141" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G141" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J141" t="s">
         <v>53</v>
       </c>
       <c r="K141">
-        <v>1.444</v>
+        <v>1.615</v>
       </c>
       <c r="L141">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M141">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="N141">
-        <v>1.333</v>
+        <v>1.363</v>
       </c>
       <c r="O141">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="P141">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q141">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R141">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S141">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T141">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U141">
+        <v>1.925</v>
+      </c>
+      <c r="V141">
         <v>1.875</v>
       </c>
-      <c r="V141">
-        <v>1.925</v>
-      </c>
       <c r="W141">
-        <v>0.333</v>
+        <v>0.363</v>
       </c>
       <c r="X141">
         <v>-1</v>
@@ -13083,16 +13083,16 @@
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA141">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AB141">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
       <c r="AC141">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13100,7 +13100,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>5452381</v>
+        <v>5451610</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13112,76 +13112,76 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F142" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142">
         <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K142">
-        <v>1.571</v>
+        <v>1.444</v>
       </c>
       <c r="L142">
         <v>4</v>
       </c>
       <c r="M142">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="N142">
-        <v>1.4</v>
+        <v>1.333</v>
       </c>
       <c r="O142">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="P142">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="Q142">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R142">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S142">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T142">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U142">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V142">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
         <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC142">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13189,7 +13189,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>5451609</v>
+        <v>5448049</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13201,10 +13201,10 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F143" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G143" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H143">
         <v>1</v>
@@ -13216,43 +13216,43 @@
         <v>53</v>
       </c>
       <c r="K143">
-        <v>1.3</v>
+        <v>1.571</v>
       </c>
       <c r="L143">
+        <v>3.75</v>
+      </c>
+      <c r="M143">
         <v>5</v>
       </c>
-      <c r="M143">
-        <v>7.5</v>
-      </c>
       <c r="N143">
-        <v>1.333</v>
+        <v>1.444</v>
       </c>
       <c r="O143">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P143">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q143">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R143">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S143">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T143">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U143">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V143">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W143">
-        <v>0.333</v>
+        <v>0.444</v>
       </c>
       <c r="X143">
         <v>-1</v>
@@ -13261,16 +13261,16 @@
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA143">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB143">
         <v>-1</v>
       </c>
       <c r="AC143">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13278,7 +13278,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>5448049</v>
+        <v>5448050</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13290,61 +13290,61 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F144" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G144" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J144" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K144">
-        <v>1.571</v>
+        <v>2.75</v>
       </c>
       <c r="L144">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M144">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="N144">
-        <v>1.444</v>
+        <v>2.4</v>
       </c>
       <c r="O144">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P144">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="Q144">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R144">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S144">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T144">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U144">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V144">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W144">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X144">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y144">
         <v>-1</v>
@@ -13356,10 +13356,10 @@
         <v>-0</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC144">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -23157,7 +23157,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>6803761</v>
+        <v>6805700</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23169,76 +23169,76 @@
         <v>45226.54166666666</v>
       </c>
       <c r="F255" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G255" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H255">
+        <v>0</v>
+      </c>
+      <c r="I255">
         <v>2</v>
       </c>
-      <c r="I255">
-        <v>1</v>
-      </c>
       <c r="J255" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K255">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="L255">
+        <v>3.75</v>
+      </c>
+      <c r="M255">
+        <v>4.2</v>
+      </c>
+      <c r="N255">
+        <v>1.75</v>
+      </c>
+      <c r="O255">
+        <v>3.6</v>
+      </c>
+      <c r="P255">
         <v>4</v>
       </c>
-      <c r="M255">
-        <v>5.25</v>
-      </c>
-      <c r="N255">
-        <v>1.5</v>
-      </c>
-      <c r="O255">
-        <v>4</v>
-      </c>
-      <c r="P255">
-        <v>5.5</v>
-      </c>
       <c r="Q255">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R255">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S255">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T255">
         <v>2.75</v>
       </c>
       <c r="U255">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V255">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W255">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X255">
         <v>-1</v>
       </c>
       <c r="Y255">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z255">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA255">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB255">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC255">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="256" spans="1:29">
@@ -23246,7 +23246,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>6805700</v>
+        <v>6803761</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23258,76 +23258,76 @@
         <v>45226.54166666666</v>
       </c>
       <c r="F256" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G256" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J256" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K256">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="L256">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M256">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="N256">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="O256">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P256">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="Q256">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R256">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S256">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T256">
         <v>2.75</v>
       </c>
       <c r="U256">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V256">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W256">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X256">
         <v>-1</v>
       </c>
       <c r="Y256">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z256">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA256">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB256">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC256">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="257" spans="1:29">
@@ -27340,7 +27340,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>6803793</v>
+        <v>6803794</v>
       </c>
       <c r="C302" t="s">
         <v>28</v>
@@ -27352,76 +27352,76 @@
         <v>45270.36111111111</v>
       </c>
       <c r="F302" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G302" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I302">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J302" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K302">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="L302">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M302">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="N302">
-        <v>2.1</v>
+        <v>1.363</v>
       </c>
       <c r="O302">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P302">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="Q302">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R302">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S302">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T302">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U302">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V302">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W302">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X302">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y302">
         <v>-1</v>
       </c>
       <c r="Z302">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA302">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB302">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC302">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="303" spans="1:29">
@@ -27429,7 +27429,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>6803794</v>
+        <v>6803793</v>
       </c>
       <c r="C303" t="s">
         <v>28</v>
@@ -27441,76 +27441,76 @@
         <v>45270.36111111111</v>
       </c>
       <c r="F303" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G303" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H303">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I303">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J303" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K303">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="L303">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M303">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="N303">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="O303">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P303">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q303">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R303">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S303">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T303">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U303">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V303">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W303">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X303">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y303">
         <v>-1</v>
       </c>
       <c r="Z303">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA303">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB303">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC303">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="304" spans="1:29">
@@ -28603,6 +28603,15 @@
       <c r="G316" t="s">
         <v>50</v>
       </c>
+      <c r="H316">
+        <v>0</v>
+      </c>
+      <c r="I316">
+        <v>0</v>
+      </c>
+      <c r="J316" t="s">
+        <v>55</v>
+      </c>
       <c r="K316">
         <v>3.75</v>
       </c>
@@ -28613,46 +28622,52 @@
         <v>2</v>
       </c>
       <c r="N316">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="O316">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P316">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="Q316">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R316">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S316">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T316">
         <v>2.25</v>
       </c>
       <c r="U316">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V316">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W316">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X316">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="Y316">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z316">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA316">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB316">
+        <v>-1</v>
+      </c>
+      <c r="AC316">
+        <v>0.925</v>
       </c>
     </row>
     <row r="317" spans="1:29">
@@ -28677,6 +28692,15 @@
       <c r="G317" t="s">
         <v>46</v>
       </c>
+      <c r="H317">
+        <v>2</v>
+      </c>
+      <c r="I317">
+        <v>0</v>
+      </c>
+      <c r="J317" t="s">
+        <v>53</v>
+      </c>
       <c r="K317">
         <v>2.25</v>
       </c>
@@ -28687,22 +28711,22 @@
         <v>3.2</v>
       </c>
       <c r="N317">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O317">
         <v>3.2</v>
       </c>
       <c r="P317">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q317">
         <v>-0.25</v>
       </c>
       <c r="R317">
+        <v>1.825</v>
+      </c>
+      <c r="S317">
         <v>1.975</v>
-      </c>
-      <c r="S317">
-        <v>1.875</v>
       </c>
       <c r="T317">
         <v>2.25</v>
@@ -28711,22 +28735,28 @@
         <v>1.975</v>
       </c>
       <c r="V317">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W317">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="X317">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y317">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z317">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA317">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB317">
+        <v>-0.5</v>
+      </c>
+      <c r="AC317">
+        <v>0.4125</v>
       </c>
     </row>
     <row r="318" spans="1:29">
@@ -28909,22 +28939,22 @@
         <v>3.5</v>
       </c>
       <c r="N320">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="O320">
         <v>3.4</v>
       </c>
       <c r="P320">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q320">
         <v>-0.25</v>
       </c>
       <c r="R320">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S320">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T320">
         <v>2.5</v>
@@ -29131,22 +29161,22 @@
         <v>3.1</v>
       </c>
       <c r="N323">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="O323">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P323">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q323">
         <v>-0.25</v>
       </c>
       <c r="R323">
-        <v>2.025</v>
+        <v>2.125</v>
       </c>
       <c r="S323">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T323">
         <v>2.25</v>
@@ -29205,22 +29235,22 @@
         <v>3.1</v>
       </c>
       <c r="N324">
-        <v>2.375</v>
+        <v>2.45</v>
       </c>
       <c r="O324">
         <v>3.2</v>
       </c>
       <c r="P324">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q324">
         <v>-0.25</v>
       </c>
       <c r="R324">
-        <v>2.05</v>
+        <v>2.125</v>
       </c>
       <c r="S324">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T324">
         <v>2.5</v>

--- a/Poland I Liga/Poland I Liga.xlsx
+++ b/Poland I Liga/Poland I Liga.xlsx
@@ -5001,7 +5001,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5140743</v>
+        <v>5139053</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5013,76 +5013,76 @@
         <v>45004.58333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G51" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J51" t="s">
         <v>55</v>
       </c>
       <c r="K51">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="L51">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M51">
+        <v>2.55</v>
+      </c>
+      <c r="N51">
+        <v>2.7</v>
+      </c>
+      <c r="O51">
+        <v>3.2</v>
+      </c>
+      <c r="P51">
+        <v>2.375</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>2.05</v>
+      </c>
+      <c r="S51">
+        <v>1.75</v>
+      </c>
+      <c r="T51">
+        <v>2.25</v>
+      </c>
+      <c r="U51">
+        <v>1.875</v>
+      </c>
+      <c r="V51">
+        <v>1.925</v>
+      </c>
+      <c r="W51">
+        <v>-1</v>
+      </c>
+      <c r="X51">
         <v>2.2</v>
       </c>
-      <c r="N51">
-        <v>2.9</v>
-      </c>
-      <c r="O51">
-        <v>3.3</v>
-      </c>
-      <c r="P51">
-        <v>2.25</v>
-      </c>
-      <c r="Q51">
-        <v>0.25</v>
-      </c>
-      <c r="R51">
-        <v>1.825</v>
-      </c>
-      <c r="S51">
-        <v>1.975</v>
-      </c>
-      <c r="T51">
-        <v>2.5</v>
-      </c>
-      <c r="U51">
-        <v>1.95</v>
-      </c>
-      <c r="V51">
-        <v>1.85</v>
-      </c>
-      <c r="W51">
-        <v>-1</v>
-      </c>
-      <c r="X51">
-        <v>2.3</v>
-      </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.4125</v>
+        <v>0</v>
       </c>
       <c r="AA51">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB51">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5090,7 +5090,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>5139053</v>
+        <v>5139054</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5102,76 +5102,76 @@
         <v>45004.58333333334</v>
       </c>
       <c r="F52" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G52" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K52">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="L52">
         <v>3.2</v>
       </c>
       <c r="M52">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="N52">
-        <v>2.7</v>
+        <v>2.375</v>
       </c>
       <c r="O52">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P52">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R52">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S52">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="T52">
         <v>2.25</v>
       </c>
       <c r="U52">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V52">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W52">
         <v>-1</v>
       </c>
       <c r="X52">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z52">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC52">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5179,7 +5179,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>5139054</v>
+        <v>5140743</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5191,73 +5191,73 @@
         <v>45004.58333333334</v>
       </c>
       <c r="F53" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G53" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H53">
         <v>2</v>
       </c>
       <c r="I53">
+        <v>2</v>
+      </c>
+      <c r="J53" t="s">
+        <v>55</v>
+      </c>
+      <c r="K53">
         <v>3</v>
       </c>
-      <c r="J53" t="s">
-        <v>54</v>
-      </c>
-      <c r="K53">
-        <v>2.15</v>
-      </c>
       <c r="L53">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M53">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="N53">
-        <v>2.375</v>
+        <v>2.9</v>
       </c>
       <c r="O53">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P53">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Q53">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R53">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S53">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T53">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U53">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V53">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W53">
         <v>-1</v>
       </c>
       <c r="X53">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y53">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z53">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA53">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB53">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC53">
         <v>-1</v>
@@ -12566,7 +12566,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>5448048</v>
+        <v>5451609</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12578,76 +12578,76 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F136" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G136" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H136">
         <v>1</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K136">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="L136">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M136">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="N136">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="O136">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P136">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="Q136">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R136">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S136">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T136">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U136">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V136">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X136">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
       <c r="AB136">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12655,7 +12655,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>5451608</v>
+        <v>5452381</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12667,76 +12667,76 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F137" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G137" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137">
         <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K137">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L137">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M137">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N137">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="O137">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P137">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="Q137">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R137">
+        <v>1.9</v>
+      </c>
+      <c r="S137">
         <v>1.95</v>
       </c>
-      <c r="S137">
-        <v>1.85</v>
-      </c>
       <c r="T137">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U137">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V137">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W137">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z137">
+        <v>-1</v>
+      </c>
+      <c r="AA137">
         <v>0.95</v>
       </c>
-      <c r="AA137">
-        <v>-1</v>
-      </c>
       <c r="AB137">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC137">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12833,7 +12833,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>5452381</v>
+        <v>5448048</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12845,76 +12845,76 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F139" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G139" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139">
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K139">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="L139">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M139">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="N139">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="O139">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P139">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q139">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R139">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S139">
+        <v>1.925</v>
+      </c>
+      <c r="T139">
+        <v>2.25</v>
+      </c>
+      <c r="U139">
+        <v>1.85</v>
+      </c>
+      <c r="V139">
         <v>1.95</v>
       </c>
-      <c r="T139">
-        <v>3</v>
-      </c>
-      <c r="U139">
-        <v>2.025</v>
-      </c>
-      <c r="V139">
-        <v>1.825</v>
-      </c>
       <c r="W139">
         <v>-1</v>
       </c>
       <c r="X139">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y139">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA139">
-        <v>0.95</v>
+        <v>0.4625</v>
       </c>
       <c r="AB139">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC139">
-        <v>0.825</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12922,7 +12922,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>5451609</v>
+        <v>5451608</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12934,58 +12934,58 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F140" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G140" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H140">
+        <v>2</v>
+      </c>
+      <c r="I140">
         <v>1</v>
-      </c>
-      <c r="I140">
-        <v>0</v>
       </c>
       <c r="J140" t="s">
         <v>53</v>
       </c>
       <c r="K140">
-        <v>1.3</v>
+        <v>1.909</v>
       </c>
       <c r="L140">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M140">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="N140">
-        <v>1.333</v>
+        <v>1.909</v>
       </c>
       <c r="O140">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P140">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="Q140">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R140">
+        <v>1.95</v>
+      </c>
+      <c r="S140">
+        <v>1.85</v>
+      </c>
+      <c r="T140">
+        <v>2.75</v>
+      </c>
+      <c r="U140">
+        <v>1.8</v>
+      </c>
+      <c r="V140">
         <v>2</v>
       </c>
-      <c r="S140">
-        <v>1.8</v>
-      </c>
-      <c r="T140">
-        <v>2.5</v>
-      </c>
-      <c r="U140">
-        <v>1.825</v>
-      </c>
-      <c r="V140">
-        <v>1.975</v>
-      </c>
       <c r="W140">
-        <v>0.333</v>
+        <v>0.909</v>
       </c>
       <c r="X140">
         <v>-1</v>
@@ -12994,16 +12994,16 @@
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA140">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC140">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13189,7 +13189,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>5448049</v>
+        <v>5448050</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13201,61 +13201,61 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F143" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G143" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J143" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K143">
-        <v>1.571</v>
+        <v>2.75</v>
       </c>
       <c r="L143">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M143">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="N143">
-        <v>1.444</v>
+        <v>2.4</v>
       </c>
       <c r="O143">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P143">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="Q143">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R143">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S143">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T143">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U143">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V143">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W143">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X143">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y143">
         <v>-1</v>
@@ -13267,10 +13267,10 @@
         <v>-0</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC143">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13278,7 +13278,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>5448050</v>
+        <v>5448049</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13290,61 +13290,61 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F144" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G144" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H144">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I144">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J144" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K144">
+        <v>1.571</v>
+      </c>
+      <c r="L144">
+        <v>3.75</v>
+      </c>
+      <c r="M144">
+        <v>5</v>
+      </c>
+      <c r="N144">
+        <v>1.444</v>
+      </c>
+      <c r="O144">
+        <v>4</v>
+      </c>
+      <c r="P144">
+        <v>6</v>
+      </c>
+      <c r="Q144">
+        <v>-1</v>
+      </c>
+      <c r="R144">
+        <v>1.775</v>
+      </c>
+      <c r="S144">
+        <v>2.025</v>
+      </c>
+      <c r="T144">
         <v>2.75</v>
       </c>
-      <c r="L144">
-        <v>3.25</v>
-      </c>
-      <c r="M144">
-        <v>2.375</v>
-      </c>
-      <c r="N144">
-        <v>2.4</v>
-      </c>
-      <c r="O144">
-        <v>3.25</v>
-      </c>
-      <c r="P144">
-        <v>2.7</v>
-      </c>
-      <c r="Q144">
-        <v>0</v>
-      </c>
-      <c r="R144">
-        <v>1.8</v>
-      </c>
-      <c r="S144">
-        <v>2.05</v>
-      </c>
-      <c r="T144">
-        <v>2.5</v>
-      </c>
       <c r="U144">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V144">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W144">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X144">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
         <v>-1</v>
@@ -13356,10 +13356,10 @@
         <v>-0</v>
       </c>
       <c r="AB144">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -19063,7 +19063,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6805719</v>
+        <v>6803727</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19075,58 +19075,58 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F209" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G209" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H209">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I209">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J209" t="s">
         <v>53</v>
       </c>
       <c r="K209">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="L209">
         <v>3.3</v>
       </c>
       <c r="M209">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="N209">
-        <v>2.05</v>
+        <v>3.75</v>
       </c>
       <c r="O209">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P209">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="Q209">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R209">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S209">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T209">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U209">
+        <v>1.925</v>
+      </c>
+      <c r="V209">
         <v>1.875</v>
       </c>
-      <c r="V209">
-        <v>1.975</v>
-      </c>
       <c r="W209">
-        <v>1.05</v>
+        <v>2.75</v>
       </c>
       <c r="X209">
         <v>-1</v>
@@ -19135,16 +19135,16 @@
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA209">
         <v>-1</v>
       </c>
       <c r="AB209">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AC209">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19152,7 +19152,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6803727</v>
+        <v>6805719</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19164,58 +19164,58 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F210" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G210" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H210">
+        <v>3</v>
+      </c>
+      <c r="I210">
         <v>2</v>
-      </c>
-      <c r="I210">
-        <v>1</v>
       </c>
       <c r="J210" t="s">
         <v>53</v>
       </c>
       <c r="K210">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="L210">
         <v>3.3</v>
       </c>
       <c r="M210">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="N210">
-        <v>3.75</v>
+        <v>2.05</v>
       </c>
       <c r="O210">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P210">
+        <v>3.2</v>
+      </c>
+      <c r="Q210">
+        <v>-0.25</v>
+      </c>
+      <c r="R210">
         <v>1.85</v>
       </c>
-      <c r="Q210">
-        <v>0.5</v>
-      </c>
-      <c r="R210">
-        <v>1.925</v>
-      </c>
       <c r="S210">
+        <v>2</v>
+      </c>
+      <c r="T210">
+        <v>2.5</v>
+      </c>
+      <c r="U210">
         <v>1.875</v>
       </c>
-      <c r="T210">
-        <v>2.75</v>
-      </c>
-      <c r="U210">
-        <v>1.925</v>
-      </c>
       <c r="V210">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W210">
-        <v>2.75</v>
+        <v>1.05</v>
       </c>
       <c r="X210">
         <v>-1</v>
@@ -19224,16 +19224,16 @@
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA210">
         <v>-1</v>
       </c>
       <c r="AB210">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AC210">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -28803,19 +28803,19 @@
         <v>-0.5</v>
       </c>
       <c r="R318">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S318">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T318">
         <v>2.5</v>
       </c>
       <c r="U318">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V318">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W318">
         <v>0</v>
@@ -28865,22 +28865,22 @@
         <v>1.833</v>
       </c>
       <c r="N319">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="O319">
         <v>3.5</v>
       </c>
       <c r="P319">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="Q319">
         <v>0.5</v>
       </c>
       <c r="R319">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S319">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T319">
         <v>2.5</v>
@@ -28939,31 +28939,31 @@
         <v>3.5</v>
       </c>
       <c r="N320">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O320">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P320">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q320">
         <v>-0.25</v>
       </c>
       <c r="R320">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S320">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T320">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U320">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V320">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W320">
         <v>0</v>
@@ -29013,22 +29013,22 @@
         <v>1.909</v>
       </c>
       <c r="N321">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="O321">
         <v>3.75</v>
       </c>
       <c r="P321">
-        <v>1.833</v>
+        <v>1.75</v>
       </c>
       <c r="Q321">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R321">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S321">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T321">
         <v>2.75</v>

--- a/Poland I Liga/Poland I Liga.xlsx
+++ b/Poland I Liga/Poland I Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -543,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC324"/>
+  <dimension ref="A1:AC321"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5001,7 +5001,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5139053</v>
+        <v>5140743</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5013,76 +5013,76 @@
         <v>45004.58333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G51" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J51" t="s">
         <v>55</v>
       </c>
       <c r="K51">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="L51">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M51">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="N51">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="O51">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P51">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R51">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S51">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T51">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U51">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V51">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0</v>
+        <v>0.4125</v>
       </c>
       <c r="AA51">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC51">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5090,7 +5090,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>5139054</v>
+        <v>5139053</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5102,76 +5102,76 @@
         <v>45004.58333333334</v>
       </c>
       <c r="F52" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G52" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K52">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="L52">
         <v>3.2</v>
       </c>
       <c r="M52">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="N52">
+        <v>2.7</v>
+      </c>
+      <c r="O52">
+        <v>3.2</v>
+      </c>
+      <c r="P52">
         <v>2.375</v>
       </c>
-      <c r="O52">
-        <v>3</v>
-      </c>
-      <c r="P52">
-        <v>3</v>
-      </c>
       <c r="Q52">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R52">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S52">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="T52">
         <v>2.25</v>
       </c>
       <c r="U52">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V52">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W52">
         <v>-1</v>
       </c>
       <c r="X52">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y52">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA52">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB52">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5179,7 +5179,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>5140743</v>
+        <v>5139056</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5191,52 +5191,52 @@
         <v>45004.58333333334</v>
       </c>
       <c r="F53" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G53" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J53" t="s">
         <v>55</v>
       </c>
       <c r="K53">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="L53">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M53">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="N53">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="O53">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P53">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="Q53">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R53">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S53">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T53">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U53">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V53">
         <v>1.85</v>
@@ -5245,22 +5245,22 @@
         <v>-1</v>
       </c>
       <c r="X53">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Y53">
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA53">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB53">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5268,7 +5268,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>5139056</v>
+        <v>5139054</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5280,76 +5280,76 @@
         <v>45004.58333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G54" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K54">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="L54">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M54">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="N54">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="O54">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P54">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="Q54">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R54">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S54">
+        <v>1.775</v>
+      </c>
+      <c r="T54">
+        <v>2.25</v>
+      </c>
+      <c r="U54">
+        <v>1.975</v>
+      </c>
+      <c r="V54">
+        <v>1.825</v>
+      </c>
+      <c r="W54">
+        <v>-1</v>
+      </c>
+      <c r="X54">
+        <v>-1</v>
+      </c>
+      <c r="Y54">
         <v>2</v>
       </c>
-      <c r="T54">
-        <v>2.75</v>
-      </c>
-      <c r="U54">
-        <v>2</v>
-      </c>
-      <c r="V54">
-        <v>1.85</v>
-      </c>
-      <c r="W54">
-        <v>-1</v>
-      </c>
-      <c r="X54">
-        <v>2.5</v>
-      </c>
-      <c r="Y54">
-        <v>-1</v>
-      </c>
       <c r="Z54">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC54">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -12566,7 +12566,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>5451609</v>
+        <v>5448048</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12578,76 +12578,76 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F136" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G136" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H136">
         <v>1</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K136">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="L136">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M136">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="N136">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="O136">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P136">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="Q136">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R136">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S136">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T136">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U136">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V136">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W136">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X136">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA136">
-        <v>0.8</v>
+        <v>0.4625</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC136">
-        <v>0.9750000000000001</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12655,7 +12655,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>5452381</v>
+        <v>5451608</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12667,76 +12667,76 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F137" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G137" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137">
         <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K137">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L137">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M137">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N137">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="O137">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P137">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q137">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R137">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S137">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T137">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U137">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V137">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W137">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA137">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC137">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12833,7 +12833,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>5448048</v>
+        <v>5452381</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12845,76 +12845,76 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F139" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G139" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139">
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K139">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="L139">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M139">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="N139">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="O139">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P139">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="Q139">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R139">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S139">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T139">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U139">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V139">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W139">
         <v>-1</v>
       </c>
       <c r="X139">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y139">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z139">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
       <c r="AB139">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC139">
-        <v>0.475</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12922,7 +12922,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>5451608</v>
+        <v>5451609</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12934,58 +12934,58 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F140" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G140" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="s">
         <v>53</v>
       </c>
       <c r="K140">
-        <v>1.909</v>
+        <v>1.3</v>
       </c>
       <c r="L140">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M140">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="N140">
-        <v>1.909</v>
+        <v>1.333</v>
       </c>
       <c r="O140">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P140">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="Q140">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R140">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S140">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T140">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U140">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V140">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W140">
-        <v>0.909</v>
+        <v>0.333</v>
       </c>
       <c r="X140">
         <v>-1</v>
@@ -12994,16 +12994,16 @@
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB140">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC140">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -19063,7 +19063,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6803727</v>
+        <v>6805719</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19075,58 +19075,58 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F209" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G209" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H209">
+        <v>3</v>
+      </c>
+      <c r="I209">
         <v>2</v>
-      </c>
-      <c r="I209">
-        <v>1</v>
       </c>
       <c r="J209" t="s">
         <v>53</v>
       </c>
       <c r="K209">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="L209">
         <v>3.3</v>
       </c>
       <c r="M209">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="N209">
-        <v>3.75</v>
+        <v>2.05</v>
       </c>
       <c r="O209">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P209">
+        <v>3.2</v>
+      </c>
+      <c r="Q209">
+        <v>-0.25</v>
+      </c>
+      <c r="R209">
         <v>1.85</v>
       </c>
-      <c r="Q209">
-        <v>0.5</v>
-      </c>
-      <c r="R209">
-        <v>1.925</v>
-      </c>
       <c r="S209">
+        <v>2</v>
+      </c>
+      <c r="T209">
+        <v>2.5</v>
+      </c>
+      <c r="U209">
         <v>1.875</v>
       </c>
-      <c r="T209">
-        <v>2.75</v>
-      </c>
-      <c r="U209">
-        <v>1.925</v>
-      </c>
       <c r="V209">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W209">
-        <v>2.75</v>
+        <v>1.05</v>
       </c>
       <c r="X209">
         <v>-1</v>
@@ -19135,16 +19135,16 @@
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA209">
         <v>-1</v>
       </c>
       <c r="AB209">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AC209">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19152,7 +19152,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6805719</v>
+        <v>6803727</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19164,58 +19164,58 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F210" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G210" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H210">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I210">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J210" t="s">
         <v>53</v>
       </c>
       <c r="K210">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="L210">
         <v>3.3</v>
       </c>
       <c r="M210">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="N210">
-        <v>2.05</v>
+        <v>3.75</v>
       </c>
       <c r="O210">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P210">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="Q210">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R210">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S210">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T210">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U210">
+        <v>1.925</v>
+      </c>
+      <c r="V210">
         <v>1.875</v>
       </c>
-      <c r="V210">
-        <v>1.975</v>
-      </c>
       <c r="W210">
-        <v>1.05</v>
+        <v>2.75</v>
       </c>
       <c r="X210">
         <v>-1</v>
@@ -19224,16 +19224,16 @@
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA210">
         <v>-1</v>
       </c>
       <c r="AB210">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AC210">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -28764,7 +28764,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>6803810</v>
+        <v>6803806</v>
       </c>
       <c r="C318" t="s">
         <v>28</v>
@@ -28773,49 +28773,49 @@
         <v>28</v>
       </c>
       <c r="E318" s="2">
-        <v>45339.45833333334</v>
+        <v>45340.36111111111</v>
       </c>
       <c r="F318" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G318" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="K318">
-        <v>1.833</v>
+        <v>3.8</v>
       </c>
       <c r="L318">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M318">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="N318">
-        <v>1.833</v>
+        <v>4.2</v>
       </c>
       <c r="O318">
         <v>3.75</v>
       </c>
       <c r="P318">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="Q318">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R318">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S318">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T318">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U318">
+        <v>1.975</v>
+      </c>
+      <c r="V318">
         <v>1.875</v>
-      </c>
-      <c r="V318">
-        <v>1.975</v>
       </c>
       <c r="W318">
         <v>0</v>
@@ -28838,7 +28838,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>6805682</v>
+        <v>6803808</v>
       </c>
       <c r="C319" t="s">
         <v>28</v>
@@ -28847,49 +28847,49 @@
         <v>28</v>
       </c>
       <c r="E319" s="2">
-        <v>45339.5625</v>
+        <v>45340.45833333334</v>
       </c>
       <c r="F319" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G319" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K319">
-        <v>4.2</v>
+        <v>1.55</v>
       </c>
       <c r="L319">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M319">
-        <v>1.833</v>
+        <v>5.75</v>
       </c>
       <c r="N319">
+        <v>1.55</v>
+      </c>
+      <c r="O319">
         <v>4</v>
       </c>
-      <c r="O319">
-        <v>3.5</v>
-      </c>
       <c r="P319">
-        <v>1.909</v>
+        <v>5.75</v>
       </c>
       <c r="Q319">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R319">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S319">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T319">
         <v>2.5</v>
       </c>
       <c r="U319">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V319">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W319">
         <v>0</v>
@@ -28912,7 +28912,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>6805680</v>
+        <v>6803809</v>
       </c>
       <c r="C320" t="s">
         <v>28</v>
@@ -28921,49 +28921,49 @@
         <v>28</v>
       </c>
       <c r="E320" s="2">
-        <v>45339.66666666666</v>
+        <v>45340.58333333334</v>
       </c>
       <c r="F320" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="G320" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K320">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="L320">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M320">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="N320">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="O320">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P320">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="Q320">
         <v>-0.25</v>
       </c>
       <c r="R320">
-        <v>1.975</v>
+        <v>2.125</v>
       </c>
       <c r="S320">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T320">
         <v>2.25</v>
       </c>
       <c r="U320">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V320">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W320">
         <v>0</v>
@@ -28986,7 +28986,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>6803806</v>
+        <v>6805681</v>
       </c>
       <c r="C321" t="s">
         <v>28</v>
@@ -28995,49 +28995,49 @@
         <v>28</v>
       </c>
       <c r="E321" s="2">
-        <v>45340.36111111111</v>
+        <v>45341.58333333334</v>
       </c>
       <c r="F321" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G321" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="K321">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="L321">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M321">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="N321">
-        <v>4.333</v>
+        <v>2.45</v>
       </c>
       <c r="O321">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P321">
+        <v>2.9</v>
+      </c>
+      <c r="Q321">
+        <v>-0.25</v>
+      </c>
+      <c r="R321">
+        <v>2.125</v>
+      </c>
+      <c r="S321">
         <v>1.75</v>
       </c>
-      <c r="Q321">
-        <v>0.75</v>
-      </c>
-      <c r="R321">
-        <v>1.875</v>
-      </c>
-      <c r="S321">
-        <v>1.975</v>
-      </c>
       <c r="T321">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U321">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V321">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W321">
         <v>0</v>
@@ -29052,228 +29052,6 @@
         <v>0</v>
       </c>
       <c r="AA321">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322" spans="1:27">
-      <c r="A322" s="1">
-        <v>320</v>
-      </c>
-      <c r="B322">
-        <v>6803808</v>
-      </c>
-      <c r="C322" t="s">
-        <v>28</v>
-      </c>
-      <c r="D322" t="s">
-        <v>28</v>
-      </c>
-      <c r="E322" s="2">
-        <v>45340.45833333334</v>
-      </c>
-      <c r="F322" t="s">
-        <v>35</v>
-      </c>
-      <c r="G322" t="s">
-        <v>44</v>
-      </c>
-      <c r="K322">
-        <v>1.55</v>
-      </c>
-      <c r="L322">
-        <v>4</v>
-      </c>
-      <c r="M322">
-        <v>5.75</v>
-      </c>
-      <c r="N322">
-        <v>1.55</v>
-      </c>
-      <c r="O322">
-        <v>4</v>
-      </c>
-      <c r="P322">
-        <v>5.75</v>
-      </c>
-      <c r="Q322">
-        <v>-1</v>
-      </c>
-      <c r="R322">
-        <v>1.975</v>
-      </c>
-      <c r="S322">
-        <v>1.875</v>
-      </c>
-      <c r="T322">
-        <v>2.5</v>
-      </c>
-      <c r="U322">
-        <v>1.825</v>
-      </c>
-      <c r="V322">
-        <v>2.025</v>
-      </c>
-      <c r="W322">
-        <v>0</v>
-      </c>
-      <c r="X322">
-        <v>0</v>
-      </c>
-      <c r="Y322">
-        <v>0</v>
-      </c>
-      <c r="Z322">
-        <v>0</v>
-      </c>
-      <c r="AA322">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323" spans="1:27">
-      <c r="A323" s="1">
-        <v>321</v>
-      </c>
-      <c r="B323">
-        <v>6803809</v>
-      </c>
-      <c r="C323" t="s">
-        <v>28</v>
-      </c>
-      <c r="D323" t="s">
-        <v>28</v>
-      </c>
-      <c r="E323" s="2">
-        <v>45340.58333333334</v>
-      </c>
-      <c r="F323" t="s">
-        <v>33</v>
-      </c>
-      <c r="G323" t="s">
-        <v>49</v>
-      </c>
-      <c r="K323">
-        <v>2.3</v>
-      </c>
-      <c r="L323">
-        <v>3.2</v>
-      </c>
-      <c r="M323">
-        <v>3.1</v>
-      </c>
-      <c r="N323">
-        <v>2.45</v>
-      </c>
-      <c r="O323">
-        <v>3.1</v>
-      </c>
-      <c r="P323">
-        <v>2.9</v>
-      </c>
-      <c r="Q323">
-        <v>-0.25</v>
-      </c>
-      <c r="R323">
-        <v>2.125</v>
-      </c>
-      <c r="S323">
-        <v>1.75</v>
-      </c>
-      <c r="T323">
-        <v>2.25</v>
-      </c>
-      <c r="U323">
-        <v>1.9</v>
-      </c>
-      <c r="V323">
-        <v>1.95</v>
-      </c>
-      <c r="W323">
-        <v>0</v>
-      </c>
-      <c r="X323">
-        <v>0</v>
-      </c>
-      <c r="Y323">
-        <v>0</v>
-      </c>
-      <c r="Z323">
-        <v>0</v>
-      </c>
-      <c r="AA323">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324" spans="1:27">
-      <c r="A324" s="1">
-        <v>322</v>
-      </c>
-      <c r="B324">
-        <v>6805681</v>
-      </c>
-      <c r="C324" t="s">
-        <v>28</v>
-      </c>
-      <c r="D324" t="s">
-        <v>28</v>
-      </c>
-      <c r="E324" s="2">
-        <v>45341.58333333334</v>
-      </c>
-      <c r="F324" t="s">
-        <v>42</v>
-      </c>
-      <c r="G324" t="s">
-        <v>47</v>
-      </c>
-      <c r="K324">
-        <v>2.3</v>
-      </c>
-      <c r="L324">
-        <v>3.25</v>
-      </c>
-      <c r="M324">
-        <v>3.1</v>
-      </c>
-      <c r="N324">
-        <v>2.45</v>
-      </c>
-      <c r="O324">
-        <v>3.2</v>
-      </c>
-      <c r="P324">
-        <v>2.9</v>
-      </c>
-      <c r="Q324">
-        <v>-0.25</v>
-      </c>
-      <c r="R324">
-        <v>2.125</v>
-      </c>
-      <c r="S324">
-        <v>1.75</v>
-      </c>
-      <c r="T324">
-        <v>2.5</v>
-      </c>
-      <c r="U324">
-        <v>2.05</v>
-      </c>
-      <c r="V324">
-        <v>1.8</v>
-      </c>
-      <c r="W324">
-        <v>0</v>
-      </c>
-      <c r="X324">
-        <v>0</v>
-      </c>
-      <c r="Y324">
-        <v>0</v>
-      </c>
-      <c r="Z324">
-        <v>0</v>
-      </c>
-      <c r="AA324">
         <v>0</v>
       </c>
     </row>

--- a/Poland I Liga/Poland I Liga.xlsx
+++ b/Poland I Liga/Poland I Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -543,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC321"/>
+  <dimension ref="A1:AC333"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5001,7 +5001,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5140743</v>
+        <v>5139053</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5013,76 +5013,76 @@
         <v>45004.58333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G51" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J51" t="s">
         <v>55</v>
       </c>
       <c r="K51">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="L51">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M51">
+        <v>2.55</v>
+      </c>
+      <c r="N51">
+        <v>2.7</v>
+      </c>
+      <c r="O51">
+        <v>3.2</v>
+      </c>
+      <c r="P51">
+        <v>2.375</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>2.05</v>
+      </c>
+      <c r="S51">
+        <v>1.75</v>
+      </c>
+      <c r="T51">
+        <v>2.25</v>
+      </c>
+      <c r="U51">
+        <v>1.875</v>
+      </c>
+      <c r="V51">
+        <v>1.925</v>
+      </c>
+      <c r="W51">
+        <v>-1</v>
+      </c>
+      <c r="X51">
         <v>2.2</v>
       </c>
-      <c r="N51">
-        <v>2.9</v>
-      </c>
-      <c r="O51">
-        <v>3.3</v>
-      </c>
-      <c r="P51">
-        <v>2.25</v>
-      </c>
-      <c r="Q51">
-        <v>0.25</v>
-      </c>
-      <c r="R51">
-        <v>1.825</v>
-      </c>
-      <c r="S51">
-        <v>1.975</v>
-      </c>
-      <c r="T51">
-        <v>2.5</v>
-      </c>
-      <c r="U51">
-        <v>1.95</v>
-      </c>
-      <c r="V51">
-        <v>1.85</v>
-      </c>
-      <c r="W51">
-        <v>-1</v>
-      </c>
-      <c r="X51">
-        <v>2.3</v>
-      </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.4125</v>
+        <v>0</v>
       </c>
       <c r="AA51">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB51">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5090,7 +5090,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>5139053</v>
+        <v>5139056</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5102,76 +5102,76 @@
         <v>45004.58333333334</v>
       </c>
       <c r="F52" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G52" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="s">
         <v>55</v>
       </c>
       <c r="K52">
-        <v>2.45</v>
+        <v>3.75</v>
       </c>
       <c r="L52">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M52">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="N52">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="O52">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P52">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R52">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S52">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T52">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U52">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V52">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W52">
         <v>-1</v>
       </c>
       <c r="X52">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA52">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
         <v>-1</v>
       </c>
       <c r="AC52">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5179,7 +5179,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>5139056</v>
+        <v>5140743</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5191,52 +5191,52 @@
         <v>45004.58333333334</v>
       </c>
       <c r="F53" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G53" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J53" t="s">
         <v>55</v>
       </c>
       <c r="K53">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="L53">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M53">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="N53">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="O53">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P53">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="Q53">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R53">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S53">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T53">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U53">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V53">
         <v>1.85</v>
@@ -5245,22 +5245,22 @@
         <v>-1</v>
       </c>
       <c r="X53">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="Y53">
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AA53">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB53">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC53">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -12566,7 +12566,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>5448048</v>
+        <v>5452381</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12578,76 +12578,76 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F136" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G136" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136">
         <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K136">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="L136">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M136">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="N136">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="O136">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P136">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="Q136">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R136">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S136">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T136">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U136">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V136">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W136">
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z136">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
       <c r="AB136">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
-        <v>0.475</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12655,7 +12655,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>5451608</v>
+        <v>5451610</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12667,10 +12667,10 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F137" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G137" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H137">
         <v>2</v>
@@ -12682,25 +12682,25 @@
         <v>53</v>
       </c>
       <c r="K137">
-        <v>1.909</v>
+        <v>1.444</v>
       </c>
       <c r="L137">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M137">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="N137">
-        <v>1.909</v>
+        <v>1.333</v>
       </c>
       <c r="O137">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P137">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="Q137">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R137">
         <v>1.95</v>
@@ -12712,13 +12712,13 @@
         <v>2.75</v>
       </c>
       <c r="U137">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V137">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W137">
-        <v>0.909</v>
+        <v>0.333</v>
       </c>
       <c r="X137">
         <v>-1</v>
@@ -12727,13 +12727,13 @@
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB137">
-        <v>0.4</v>
+        <v>0.4375</v>
       </c>
       <c r="AC137">
         <v>-0.5</v>
@@ -12744,7 +12744,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>5447925</v>
+        <v>5451609</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12756,64 +12756,64 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F138" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G138" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K138">
-        <v>5.5</v>
+        <v>1.3</v>
       </c>
       <c r="L138">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M138">
-        <v>1.5</v>
+        <v>7.5</v>
       </c>
       <c r="N138">
-        <v>4.5</v>
+        <v>1.333</v>
       </c>
       <c r="O138">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P138">
-        <v>1.615</v>
+        <v>8</v>
       </c>
       <c r="Q138">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R138">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S138">
         <v>1.8</v>
       </c>
       <c r="T138">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U138">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V138">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W138">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X138">
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z138">
         <v>-1</v>
@@ -12822,10 +12822,10 @@
         <v>0.8</v>
       </c>
       <c r="AB138">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC138">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12833,7 +12833,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>5452381</v>
+        <v>5451608</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12845,76 +12845,76 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F139" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G139" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139">
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K139">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L139">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M139">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N139">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="O139">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P139">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q139">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R139">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S139">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T139">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U139">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V139">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W139">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA139">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC139">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12922,7 +12922,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>5451609</v>
+        <v>5448050</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12934,76 +12934,76 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F140" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G140" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J140" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K140">
-        <v>1.3</v>
+        <v>2.75</v>
       </c>
       <c r="L140">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="M140">
-        <v>7.5</v>
+        <v>2.375</v>
       </c>
       <c r="N140">
-        <v>1.333</v>
+        <v>2.4</v>
       </c>
       <c r="O140">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="P140">
-        <v>8</v>
+        <v>2.7</v>
       </c>
       <c r="Q140">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R140">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S140">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T140">
         <v>2.5</v>
       </c>
       <c r="U140">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V140">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W140">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X140">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA140">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC140">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13011,7 +13011,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>5451607</v>
+        <v>5448049</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13023,58 +13023,58 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F141" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G141" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H141">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I141">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J141" t="s">
         <v>53</v>
       </c>
       <c r="K141">
-        <v>1.615</v>
+        <v>1.571</v>
       </c>
       <c r="L141">
         <v>3.75</v>
       </c>
       <c r="M141">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="N141">
-        <v>1.363</v>
+        <v>1.444</v>
       </c>
       <c r="O141">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P141">
         <v>6</v>
       </c>
       <c r="Q141">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R141">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S141">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T141">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U141">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V141">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W141">
-        <v>0.363</v>
+        <v>0.444</v>
       </c>
       <c r="X141">
         <v>-1</v>
@@ -13083,16 +13083,16 @@
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA141">
-        <v>0.4875</v>
+        <v>-0</v>
       </c>
       <c r="AB141">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13100,7 +13100,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>5451610</v>
+        <v>5448048</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13112,76 +13112,76 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F142" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G142" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142">
         <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K142">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="L142">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M142">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="N142">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="O142">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="P142">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="Q142">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R142">
+        <v>1.875</v>
+      </c>
+      <c r="S142">
+        <v>1.925</v>
+      </c>
+      <c r="T142">
+        <v>2.25</v>
+      </c>
+      <c r="U142">
+        <v>1.85</v>
+      </c>
+      <c r="V142">
         <v>1.95</v>
       </c>
-      <c r="S142">
-        <v>1.85</v>
-      </c>
-      <c r="T142">
-        <v>2.75</v>
-      </c>
-      <c r="U142">
-        <v>1.875</v>
-      </c>
-      <c r="V142">
-        <v>1.925</v>
-      </c>
       <c r="W142">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X142">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA142">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AB142">
-        <v>0.4375</v>
+        <v>-0.5</v>
       </c>
       <c r="AC142">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13189,7 +13189,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>5448050</v>
+        <v>5447925</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13201,49 +13201,49 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F143" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G143" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H143">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I143">
         <v>3</v>
       </c>
       <c r="J143" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K143">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="L143">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M143">
-        <v>2.375</v>
+        <v>1.5</v>
       </c>
       <c r="N143">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="O143">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P143">
-        <v>2.7</v>
+        <v>1.615</v>
       </c>
       <c r="Q143">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R143">
+        <v>2.05</v>
+      </c>
+      <c r="S143">
         <v>1.8</v>
       </c>
-      <c r="S143">
-        <v>2.05</v>
-      </c>
       <c r="T143">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U143">
         <v>2</v>
@@ -13255,22 +13255,22 @@
         <v>-1</v>
       </c>
       <c r="X143">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z143">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
+        <v>0.8</v>
+      </c>
+      <c r="AB143">
+        <v>0</v>
+      </c>
+      <c r="AC143">
         <v>-0</v>
-      </c>
-      <c r="AB143">
-        <v>1</v>
-      </c>
-      <c r="AC143">
-        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13278,7 +13278,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>5448049</v>
+        <v>5451607</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13290,58 +13290,58 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F144" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G144" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J144" t="s">
         <v>53</v>
       </c>
       <c r="K144">
-        <v>1.571</v>
+        <v>1.615</v>
       </c>
       <c r="L144">
         <v>3.75</v>
       </c>
       <c r="M144">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="N144">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="O144">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P144">
         <v>6</v>
       </c>
       <c r="Q144">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R144">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S144">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T144">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U144">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V144">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W144">
-        <v>0.444</v>
+        <v>0.363</v>
       </c>
       <c r="X144">
         <v>-1</v>
@@ -13350,16 +13350,16 @@
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA144">
-        <v>-0</v>
+        <v>0.4875</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC144">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -19063,7 +19063,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6805719</v>
+        <v>6803727</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19075,58 +19075,58 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F209" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G209" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H209">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I209">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J209" t="s">
         <v>53</v>
       </c>
       <c r="K209">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="L209">
         <v>3.3</v>
       </c>
       <c r="M209">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="N209">
-        <v>2.05</v>
+        <v>3.75</v>
       </c>
       <c r="O209">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P209">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="Q209">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R209">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S209">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T209">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U209">
+        <v>1.925</v>
+      </c>
+      <c r="V209">
         <v>1.875</v>
       </c>
-      <c r="V209">
-        <v>1.975</v>
-      </c>
       <c r="W209">
-        <v>1.05</v>
+        <v>2.75</v>
       </c>
       <c r="X209">
         <v>-1</v>
@@ -19135,16 +19135,16 @@
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA209">
         <v>-1</v>
       </c>
       <c r="AB209">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AC209">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19152,7 +19152,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6803727</v>
+        <v>6805719</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19164,58 +19164,58 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F210" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G210" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H210">
+        <v>3</v>
+      </c>
+      <c r="I210">
         <v>2</v>
-      </c>
-      <c r="I210">
-        <v>1</v>
       </c>
       <c r="J210" t="s">
         <v>53</v>
       </c>
       <c r="K210">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="L210">
         <v>3.3</v>
       </c>
       <c r="M210">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="N210">
-        <v>3.75</v>
+        <v>2.05</v>
       </c>
       <c r="O210">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P210">
+        <v>3.2</v>
+      </c>
+      <c r="Q210">
+        <v>-0.25</v>
+      </c>
+      <c r="R210">
         <v>1.85</v>
       </c>
-      <c r="Q210">
-        <v>0.5</v>
-      </c>
-      <c r="R210">
-        <v>1.925</v>
-      </c>
       <c r="S210">
+        <v>2</v>
+      </c>
+      <c r="T210">
+        <v>2.5</v>
+      </c>
+      <c r="U210">
         <v>1.875</v>
       </c>
-      <c r="T210">
-        <v>2.75</v>
-      </c>
-      <c r="U210">
-        <v>1.925</v>
-      </c>
       <c r="V210">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W210">
-        <v>2.75</v>
+        <v>1.05</v>
       </c>
       <c r="X210">
         <v>-1</v>
@@ -19224,16 +19224,16 @@
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA210">
         <v>-1</v>
       </c>
       <c r="AB210">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AC210">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -22267,7 +22267,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>6805706</v>
+        <v>6803754</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22279,76 +22279,76 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F245" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G245" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H245">
         <v>0</v>
       </c>
       <c r="I245">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J245" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K245">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L245">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M245">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="N245">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="O245">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P245">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="Q245">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R245">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S245">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T245">
         <v>2.5</v>
       </c>
       <c r="U245">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V245">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W245">
         <v>-1</v>
       </c>
       <c r="X245">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y245">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z245">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA245">
+        <v>-0</v>
+      </c>
+      <c r="AB245">
+        <v>-1</v>
+      </c>
+      <c r="AC245">
         <v>0.95</v>
-      </c>
-      <c r="AB245">
-        <v>-1</v>
-      </c>
-      <c r="AC245">
-        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:29">
@@ -22356,7 +22356,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>6803754</v>
+        <v>6805706</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22368,76 +22368,76 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F246" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G246" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="H246">
         <v>0</v>
       </c>
       <c r="I246">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J246" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K246">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L246">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M246">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="N246">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="O246">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P246">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="Q246">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R246">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S246">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T246">
         <v>2.5</v>
       </c>
       <c r="U246">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V246">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W246">
         <v>-1</v>
       </c>
       <c r="X246">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y246">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z246">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA246">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB246">
         <v>-1</v>
       </c>
       <c r="AC246">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:29">
@@ -25471,7 +25471,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>6803778</v>
+        <v>6803779</v>
       </c>
       <c r="C281" t="s">
         <v>28</v>
@@ -25483,76 +25483,76 @@
         <v>45242.58333333334</v>
       </c>
       <c r="F281" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G281" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I281">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J281" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K281">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="L281">
         <v>3.4</v>
       </c>
       <c r="M281">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="N281">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="O281">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P281">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="Q281">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R281">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S281">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T281">
         <v>2.5</v>
       </c>
       <c r="U281">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V281">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W281">
         <v>-1</v>
       </c>
       <c r="X281">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y281">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z281">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA281">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB281">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC281">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="282" spans="1:29">
@@ -25560,7 +25560,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>6803779</v>
+        <v>6803778</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25572,76 +25572,76 @@
         <v>45242.58333333334</v>
       </c>
       <c r="F282" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G282" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I282">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J282" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K282">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="L282">
         <v>3.4</v>
       </c>
       <c r="M282">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="N282">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="O282">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P282">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="Q282">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R282">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S282">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T282">
         <v>2.5</v>
       </c>
       <c r="U282">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V282">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W282">
         <v>-1</v>
       </c>
       <c r="X282">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y282">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z282">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA282">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB282">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC282">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:29">
@@ -27340,7 +27340,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>6803794</v>
+        <v>6803793</v>
       </c>
       <c r="C302" t="s">
         <v>28</v>
@@ -27352,76 +27352,76 @@
         <v>45270.36111111111</v>
       </c>
       <c r="F302" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G302" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H302">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I302">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J302" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K302">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="L302">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M302">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="N302">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="O302">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P302">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q302">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R302">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S302">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T302">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U302">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V302">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W302">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X302">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y302">
         <v>-1</v>
       </c>
       <c r="Z302">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA302">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB302">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC302">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="303" spans="1:29">
@@ -27429,7 +27429,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>6803793</v>
+        <v>6803794</v>
       </c>
       <c r="C303" t="s">
         <v>28</v>
@@ -27441,76 +27441,76 @@
         <v>45270.36111111111</v>
       </c>
       <c r="F303" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G303" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I303">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J303" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K303">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="L303">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M303">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="N303">
-        <v>2.1</v>
+        <v>1.363</v>
       </c>
       <c r="O303">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P303">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="Q303">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R303">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S303">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T303">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U303">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V303">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W303">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X303">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y303">
         <v>-1</v>
       </c>
       <c r="Z303">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA303">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB303">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC303">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="304" spans="1:29">
@@ -28764,7 +28764,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>6803806</v>
+        <v>6803810</v>
       </c>
       <c r="C318" t="s">
         <v>28</v>
@@ -28773,64 +28773,79 @@
         <v>28</v>
       </c>
       <c r="E318" s="2">
-        <v>45340.36111111111</v>
+        <v>45339.45833333334</v>
       </c>
       <c r="F318" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G318" t="s">
-        <v>30</v>
+        <v>45</v>
+      </c>
+      <c r="H318">
+        <v>2</v>
+      </c>
+      <c r="I318">
+        <v>2</v>
+      </c>
+      <c r="J318" t="s">
+        <v>55</v>
       </c>
       <c r="K318">
-        <v>3.8</v>
+        <v>1.833</v>
       </c>
       <c r="L318">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M318">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="N318">
-        <v>4.2</v>
+        <v>1.833</v>
       </c>
       <c r="O318">
         <v>3.75</v>
       </c>
       <c r="P318">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="Q318">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R318">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S318">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T318">
+        <v>2.5</v>
+      </c>
+      <c r="U318">
+        <v>1.85</v>
+      </c>
+      <c r="V318">
+        <v>2</v>
+      </c>
+      <c r="W318">
+        <v>-1</v>
+      </c>
+      <c r="X318">
         <v>2.75</v>
       </c>
-      <c r="U318">
-        <v>1.975</v>
-      </c>
-      <c r="V318">
-        <v>1.875</v>
-      </c>
-      <c r="W318">
-        <v>0</v>
-      </c>
-      <c r="X318">
-        <v>0</v>
-      </c>
       <c r="Y318">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z318">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA318">
-        <v>0</v>
+        <v>0.95</v>
+      </c>
+      <c r="AB318">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC318">
+        <v>-1</v>
       </c>
     </row>
     <row r="319" spans="1:29">
@@ -28838,7 +28853,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>6803808</v>
+        <v>6805682</v>
       </c>
       <c r="C319" t="s">
         <v>28</v>
@@ -28847,64 +28862,79 @@
         <v>28</v>
       </c>
       <c r="E319" s="2">
-        <v>45340.45833333334</v>
+        <v>45339.5625</v>
       </c>
       <c r="F319" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G319" t="s">
-        <v>44</v>
+        <v>41</v>
+      </c>
+      <c r="H319">
+        <v>0</v>
+      </c>
+      <c r="I319">
+        <v>3</v>
+      </c>
+      <c r="J319" t="s">
+        <v>54</v>
       </c>
       <c r="K319">
-        <v>1.55</v>
+        <v>4.2</v>
       </c>
       <c r="L319">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M319">
-        <v>5.75</v>
+        <v>1.833</v>
       </c>
       <c r="N319">
-        <v>1.55</v>
+        <v>4.5</v>
       </c>
       <c r="O319">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P319">
-        <v>5.75</v>
+        <v>1.8</v>
       </c>
       <c r="Q319">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R319">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S319">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T319">
         <v>2.5</v>
       </c>
       <c r="U319">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V319">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W319">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X319">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y319">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Z319">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA319">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AB319">
+        <v>1</v>
+      </c>
+      <c r="AC319">
+        <v>-1</v>
       </c>
     </row>
     <row r="320" spans="1:29">
@@ -28912,7 +28942,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>6803809</v>
+        <v>6805680</v>
       </c>
       <c r="C320" t="s">
         <v>28</v>
@@ -28921,137 +28951,1085 @@
         <v>28</v>
       </c>
       <c r="E320" s="2">
-        <v>45340.58333333334</v>
+        <v>45339.66666666666</v>
       </c>
       <c r="F320" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="G320" t="s">
-        <v>49</v>
+        <v>52</v>
+      </c>
+      <c r="H320">
+        <v>3</v>
+      </c>
+      <c r="I320">
+        <v>1</v>
+      </c>
+      <c r="J320" t="s">
+        <v>53</v>
       </c>
       <c r="K320">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L320">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M320">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="N320">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="O320">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P320">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="Q320">
         <v>-0.25</v>
       </c>
       <c r="R320">
-        <v>2.125</v>
+        <v>1.925</v>
       </c>
       <c r="S320">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T320">
         <v>2.25</v>
       </c>
       <c r="U320">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V320">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W320">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="X320">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y320">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z320">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA320">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="321" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB320">
+        <v>0.825</v>
+      </c>
+      <c r="AC320">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:29">
       <c r="A321" s="1">
         <v>319</v>
       </c>
       <c r="B321">
+        <v>6803806</v>
+      </c>
+      <c r="C321" t="s">
+        <v>28</v>
+      </c>
+      <c r="D321" t="s">
+        <v>28</v>
+      </c>
+      <c r="E321" s="2">
+        <v>45340.36111111111</v>
+      </c>
+      <c r="F321" t="s">
+        <v>31</v>
+      </c>
+      <c r="G321" t="s">
+        <v>30</v>
+      </c>
+      <c r="H321">
+        <v>1</v>
+      </c>
+      <c r="I321">
+        <v>2</v>
+      </c>
+      <c r="J321" t="s">
+        <v>54</v>
+      </c>
+      <c r="K321">
+        <v>3.8</v>
+      </c>
+      <c r="L321">
+        <v>3.6</v>
+      </c>
+      <c r="M321">
+        <v>1.909</v>
+      </c>
+      <c r="N321">
+        <v>4.75</v>
+      </c>
+      <c r="O321">
+        <v>4</v>
+      </c>
+      <c r="P321">
+        <v>1.7</v>
+      </c>
+      <c r="Q321">
+        <v>0.75</v>
+      </c>
+      <c r="R321">
+        <v>1.95</v>
+      </c>
+      <c r="S321">
+        <v>1.85</v>
+      </c>
+      <c r="T321">
+        <v>2.75</v>
+      </c>
+      <c r="U321">
+        <v>1.85</v>
+      </c>
+      <c r="V321">
+        <v>1.95</v>
+      </c>
+      <c r="W321">
+        <v>-1</v>
+      </c>
+      <c r="X321">
+        <v>-1</v>
+      </c>
+      <c r="Y321">
+        <v>0.7</v>
+      </c>
+      <c r="Z321">
+        <v>-0.5</v>
+      </c>
+      <c r="AA321">
+        <v>0.425</v>
+      </c>
+      <c r="AB321">
+        <v>0.425</v>
+      </c>
+      <c r="AC321">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="322" spans="1:29">
+      <c r="A322" s="1">
+        <v>320</v>
+      </c>
+      <c r="B322">
+        <v>6803808</v>
+      </c>
+      <c r="C322" t="s">
+        <v>28</v>
+      </c>
+      <c r="D322" t="s">
+        <v>28</v>
+      </c>
+      <c r="E322" s="2">
+        <v>45340.45833333334</v>
+      </c>
+      <c r="F322" t="s">
+        <v>35</v>
+      </c>
+      <c r="G322" t="s">
+        <v>44</v>
+      </c>
+      <c r="H322">
+        <v>1</v>
+      </c>
+      <c r="I322">
+        <v>1</v>
+      </c>
+      <c r="J322" t="s">
+        <v>55</v>
+      </c>
+      <c r="K322">
+        <v>1.55</v>
+      </c>
+      <c r="L322">
+        <v>4</v>
+      </c>
+      <c r="M322">
+        <v>5.75</v>
+      </c>
+      <c r="N322">
+        <v>1.45</v>
+      </c>
+      <c r="O322">
+        <v>4.333</v>
+      </c>
+      <c r="P322">
+        <v>6.5</v>
+      </c>
+      <c r="Q322">
+        <v>-1.25</v>
+      </c>
+      <c r="R322">
+        <v>2.025</v>
+      </c>
+      <c r="S322">
+        <v>1.775</v>
+      </c>
+      <c r="T322">
+        <v>2.5</v>
+      </c>
+      <c r="U322">
+        <v>1.8</v>
+      </c>
+      <c r="V322">
+        <v>2</v>
+      </c>
+      <c r="W322">
+        <v>-1</v>
+      </c>
+      <c r="X322">
+        <v>3.333</v>
+      </c>
+      <c r="Y322">
+        <v>-1</v>
+      </c>
+      <c r="Z322">
+        <v>-1</v>
+      </c>
+      <c r="AA322">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB322">
+        <v>-1</v>
+      </c>
+      <c r="AC322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:29">
+      <c r="A323" s="1">
+        <v>321</v>
+      </c>
+      <c r="B323">
+        <v>6803809</v>
+      </c>
+      <c r="C323" t="s">
+        <v>28</v>
+      </c>
+      <c r="D323" t="s">
+        <v>28</v>
+      </c>
+      <c r="E323" s="2">
+        <v>45340.58333333334</v>
+      </c>
+      <c r="F323" t="s">
+        <v>33</v>
+      </c>
+      <c r="G323" t="s">
+        <v>49</v>
+      </c>
+      <c r="H323">
+        <v>0</v>
+      </c>
+      <c r="I323">
+        <v>1</v>
+      </c>
+      <c r="J323" t="s">
+        <v>54</v>
+      </c>
+      <c r="K323">
+        <v>2.3</v>
+      </c>
+      <c r="L323">
+        <v>3.2</v>
+      </c>
+      <c r="M323">
+        <v>3.1</v>
+      </c>
+      <c r="N323">
+        <v>2.9</v>
+      </c>
+      <c r="O323">
+        <v>3.1</v>
+      </c>
+      <c r="P323">
+        <v>2.45</v>
+      </c>
+      <c r="Q323">
+        <v>0</v>
+      </c>
+      <c r="R323">
+        <v>2.1</v>
+      </c>
+      <c r="S323">
+        <v>1.775</v>
+      </c>
+      <c r="T323">
+        <v>2.25</v>
+      </c>
+      <c r="U323">
+        <v>1.975</v>
+      </c>
+      <c r="V323">
+        <v>1.875</v>
+      </c>
+      <c r="W323">
+        <v>-1</v>
+      </c>
+      <c r="X323">
+        <v>-1</v>
+      </c>
+      <c r="Y323">
+        <v>1.45</v>
+      </c>
+      <c r="Z323">
+        <v>-1</v>
+      </c>
+      <c r="AA323">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB323">
+        <v>-1</v>
+      </c>
+      <c r="AC323">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="324" spans="1:29">
+      <c r="A324" s="1">
+        <v>322</v>
+      </c>
+      <c r="B324">
         <v>6805681</v>
       </c>
-      <c r="C321" t="s">
-        <v>28</v>
-      </c>
-      <c r="D321" t="s">
-        <v>28</v>
-      </c>
-      <c r="E321" s="2">
+      <c r="C324" t="s">
+        <v>28</v>
+      </c>
+      <c r="D324" t="s">
+        <v>28</v>
+      </c>
+      <c r="E324" s="2">
         <v>45341.58333333334</v>
       </c>
-      <c r="F321" t="s">
+      <c r="F324" t="s">
         <v>42</v>
       </c>
-      <c r="G321" t="s">
+      <c r="G324" t="s">
         <v>47</v>
       </c>
-      <c r="K321">
+      <c r="K324">
         <v>2.3</v>
       </c>
-      <c r="L321">
+      <c r="L324">
         <v>3.25</v>
       </c>
-      <c r="M321">
+      <c r="M324">
         <v>3.1</v>
       </c>
-      <c r="N321">
+      <c r="N324">
         <v>2.45</v>
       </c>
-      <c r="O321">
+      <c r="O324">
         <v>3.2</v>
       </c>
-      <c r="P321">
+      <c r="P324">
         <v>2.9</v>
       </c>
-      <c r="Q321">
+      <c r="Q324">
         <v>-0.25</v>
       </c>
-      <c r="R321">
+      <c r="R324">
+        <v>2.1</v>
+      </c>
+      <c r="S324">
+        <v>1.775</v>
+      </c>
+      <c r="T324">
+        <v>2.5</v>
+      </c>
+      <c r="U324">
+        <v>2.05</v>
+      </c>
+      <c r="V324">
+        <v>1.8</v>
+      </c>
+      <c r="W324">
+        <v>0</v>
+      </c>
+      <c r="X324">
+        <v>0</v>
+      </c>
+      <c r="Y324">
+        <v>0</v>
+      </c>
+      <c r="Z324">
+        <v>0</v>
+      </c>
+      <c r="AA324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:29">
+      <c r="A325" s="1">
+        <v>323</v>
+      </c>
+      <c r="B325">
+        <v>7707461</v>
+      </c>
+      <c r="C325" t="s">
+        <v>28</v>
+      </c>
+      <c r="D325" t="s">
+        <v>28</v>
+      </c>
+      <c r="E325" s="2">
+        <v>45342.58333333334</v>
+      </c>
+      <c r="F325" t="s">
+        <v>40</v>
+      </c>
+      <c r="G325" t="s">
+        <v>38</v>
+      </c>
+      <c r="K325">
+        <v>2.875</v>
+      </c>
+      <c r="L325">
+        <v>3.1</v>
+      </c>
+      <c r="M325">
+        <v>2.4</v>
+      </c>
+      <c r="N325">
+        <v>2.875</v>
+      </c>
+      <c r="O325">
+        <v>3.1</v>
+      </c>
+      <c r="P325">
+        <v>2.4</v>
+      </c>
+      <c r="Q325">
+        <v>0.25</v>
+      </c>
+      <c r="R325">
+        <v>1.75</v>
+      </c>
+      <c r="S325">
         <v>2.125</v>
       </c>
-      <c r="S321">
-        <v>1.75</v>
-      </c>
-      <c r="T321">
+      <c r="T325">
+        <v>2.25</v>
+      </c>
+      <c r="U325">
+        <v>1.9</v>
+      </c>
+      <c r="V325">
+        <v>1.95</v>
+      </c>
+      <c r="W325">
+        <v>0</v>
+      </c>
+      <c r="X325">
+        <v>0</v>
+      </c>
+      <c r="Y325">
+        <v>0</v>
+      </c>
+      <c r="Z325">
+        <v>0</v>
+      </c>
+      <c r="AA325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:29">
+      <c r="A326" s="1">
+        <v>324</v>
+      </c>
+      <c r="B326">
+        <v>6805677</v>
+      </c>
+      <c r="C326" t="s">
+        <v>28</v>
+      </c>
+      <c r="D326" t="s">
+        <v>28</v>
+      </c>
+      <c r="E326" s="2">
+        <v>45345.58333333334</v>
+      </c>
+      <c r="F326" t="s">
+        <v>50</v>
+      </c>
+      <c r="G326" t="s">
+        <v>48</v>
+      </c>
+      <c r="K326">
+        <v>1.666</v>
+      </c>
+      <c r="L326">
+        <v>3.5</v>
+      </c>
+      <c r="M326">
+        <v>5</v>
+      </c>
+      <c r="N326">
+        <v>1.666</v>
+      </c>
+      <c r="O326">
+        <v>3.5</v>
+      </c>
+      <c r="P326">
+        <v>5</v>
+      </c>
+      <c r="Q326">
+        <v>-0.75</v>
+      </c>
+      <c r="R326">
+        <v>1.925</v>
+      </c>
+      <c r="S326">
+        <v>1.925</v>
+      </c>
+      <c r="T326">
+        <v>2.25</v>
+      </c>
+      <c r="U326">
+        <v>1.85</v>
+      </c>
+      <c r="V326">
+        <v>2</v>
+      </c>
+      <c r="W326">
+        <v>0</v>
+      </c>
+      <c r="X326">
+        <v>0</v>
+      </c>
+      <c r="Y326">
+        <v>0</v>
+      </c>
+      <c r="Z326">
+        <v>0</v>
+      </c>
+      <c r="AA326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:29">
+      <c r="A327" s="1">
+        <v>325</v>
+      </c>
+      <c r="B327">
+        <v>6803816</v>
+      </c>
+      <c r="C327" t="s">
+        <v>28</v>
+      </c>
+      <c r="D327" t="s">
+        <v>28</v>
+      </c>
+      <c r="E327" s="2">
+        <v>45345.6875</v>
+      </c>
+      <c r="F327" t="s">
+        <v>30</v>
+      </c>
+      <c r="G327" t="s">
+        <v>38</v>
+      </c>
+      <c r="K327">
+        <v>1.666</v>
+      </c>
+      <c r="L327">
+        <v>3.75</v>
+      </c>
+      <c r="M327">
+        <v>4.5</v>
+      </c>
+      <c r="N327">
+        <v>1.7</v>
+      </c>
+      <c r="O327">
+        <v>3.75</v>
+      </c>
+      <c r="P327">
+        <v>4.5</v>
+      </c>
+      <c r="Q327">
+        <v>-0.75</v>
+      </c>
+      <c r="R327">
+        <v>1.925</v>
+      </c>
+      <c r="S327">
+        <v>1.925</v>
+      </c>
+      <c r="T327">
+        <v>2.75</v>
+      </c>
+      <c r="U327">
+        <v>1.975</v>
+      </c>
+      <c r="V327">
+        <v>1.875</v>
+      </c>
+      <c r="W327">
+        <v>0</v>
+      </c>
+      <c r="X327">
+        <v>0</v>
+      </c>
+      <c r="Y327">
+        <v>0</v>
+      </c>
+      <c r="Z327">
+        <v>0</v>
+      </c>
+      <c r="AA327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:29">
+      <c r="A328" s="1">
+        <v>326</v>
+      </c>
+      <c r="B328">
+        <v>6803811</v>
+      </c>
+      <c r="C328" t="s">
+        <v>28</v>
+      </c>
+      <c r="D328" t="s">
+        <v>28</v>
+      </c>
+      <c r="E328" s="2">
+        <v>45346.36111111111</v>
+      </c>
+      <c r="F328" t="s">
+        <v>36</v>
+      </c>
+      <c r="G328" t="s">
+        <v>46</v>
+      </c>
+      <c r="K328">
         <v>2.5</v>
       </c>
-      <c r="U321">
+      <c r="L328">
+        <v>3.2</v>
+      </c>
+      <c r="M328">
+        <v>2.75</v>
+      </c>
+      <c r="N328">
+        <v>2.5</v>
+      </c>
+      <c r="O328">
+        <v>3.2</v>
+      </c>
+      <c r="P328">
+        <v>2.75</v>
+      </c>
+      <c r="Q328">
+        <v>0</v>
+      </c>
+      <c r="R328">
+        <v>1.825</v>
+      </c>
+      <c r="S328">
+        <v>2.025</v>
+      </c>
+      <c r="T328">
+        <v>2.25</v>
+      </c>
+      <c r="U328">
+        <v>1.9</v>
+      </c>
+      <c r="V328">
+        <v>1.95</v>
+      </c>
+      <c r="W328">
+        <v>0</v>
+      </c>
+      <c r="X328">
+        <v>0</v>
+      </c>
+      <c r="Y328">
+        <v>0</v>
+      </c>
+      <c r="Z328">
+        <v>0</v>
+      </c>
+      <c r="AA328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:29">
+      <c r="A329" s="1">
+        <v>327</v>
+      </c>
+      <c r="B329">
+        <v>6803813</v>
+      </c>
+      <c r="C329" t="s">
+        <v>28</v>
+      </c>
+      <c r="D329" t="s">
+        <v>28</v>
+      </c>
+      <c r="E329" s="2">
+        <v>45346.45833333334</v>
+      </c>
+      <c r="F329" t="s">
+        <v>52</v>
+      </c>
+      <c r="G329" t="s">
+        <v>42</v>
+      </c>
+      <c r="K329">
+        <v>1.9</v>
+      </c>
+      <c r="L329">
+        <v>3.4</v>
+      </c>
+      <c r="M329">
+        <v>3.8</v>
+      </c>
+      <c r="N329">
+        <v>1.85</v>
+      </c>
+      <c r="O329">
+        <v>3.4</v>
+      </c>
+      <c r="P329">
+        <v>3.8</v>
+      </c>
+      <c r="Q329">
+        <v>-0.5</v>
+      </c>
+      <c r="R329">
+        <v>1.925</v>
+      </c>
+      <c r="S329">
+        <v>1.925</v>
+      </c>
+      <c r="T329">
+        <v>2.5</v>
+      </c>
+      <c r="U329">
+        <v>2.025</v>
+      </c>
+      <c r="V329">
+        <v>1.825</v>
+      </c>
+      <c r="W329">
+        <v>0</v>
+      </c>
+      <c r="X329">
+        <v>0</v>
+      </c>
+      <c r="Y329">
+        <v>0</v>
+      </c>
+      <c r="Z329">
+        <v>0</v>
+      </c>
+      <c r="AA329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:29">
+      <c r="A330" s="1">
+        <v>328</v>
+      </c>
+      <c r="B330">
+        <v>6805678</v>
+      </c>
+      <c r="C330" t="s">
+        <v>28</v>
+      </c>
+      <c r="D330" t="s">
+        <v>28</v>
+      </c>
+      <c r="E330" s="2">
+        <v>45346.5625</v>
+      </c>
+      <c r="F330" t="s">
+        <v>47</v>
+      </c>
+      <c r="G330" t="s">
+        <v>35</v>
+      </c>
+      <c r="K330">
+        <v>2.45</v>
+      </c>
+      <c r="L330">
+        <v>3.2</v>
+      </c>
+      <c r="M330">
+        <v>2.75</v>
+      </c>
+      <c r="N330">
+        <v>2.5</v>
+      </c>
+      <c r="O330">
+        <v>3.2</v>
+      </c>
+      <c r="P330">
+        <v>2.75</v>
+      </c>
+      <c r="Q330">
+        <v>0</v>
+      </c>
+      <c r="R330">
+        <v>1.825</v>
+      </c>
+      <c r="S330">
+        <v>2.025</v>
+      </c>
+      <c r="T330">
+        <v>2.5</v>
+      </c>
+      <c r="U330">
+        <v>1.95</v>
+      </c>
+      <c r="V330">
+        <v>1.9</v>
+      </c>
+      <c r="W330">
+        <v>0</v>
+      </c>
+      <c r="X330">
+        <v>0</v>
+      </c>
+      <c r="Y330">
+        <v>0</v>
+      </c>
+      <c r="Z330">
+        <v>0</v>
+      </c>
+      <c r="AA330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:29">
+      <c r="A331" s="1">
+        <v>329</v>
+      </c>
+      <c r="B331">
+        <v>6803815</v>
+      </c>
+      <c r="C331" t="s">
+        <v>28</v>
+      </c>
+      <c r="D331" t="s">
+        <v>28</v>
+      </c>
+      <c r="E331" s="2">
+        <v>45347.36111111111</v>
+      </c>
+      <c r="F331" t="s">
+        <v>41</v>
+      </c>
+      <c r="G331" t="s">
+        <v>31</v>
+      </c>
+      <c r="K331">
+        <v>1.571</v>
+      </c>
+      <c r="L331">
+        <v>4</v>
+      </c>
+      <c r="M331">
+        <v>5.25</v>
+      </c>
+      <c r="N331">
+        <v>1.571</v>
+      </c>
+      <c r="O331">
+        <v>4</v>
+      </c>
+      <c r="P331">
+        <v>5.25</v>
+      </c>
+      <c r="Q331">
+        <v>-1</v>
+      </c>
+      <c r="R331">
+        <v>2</v>
+      </c>
+      <c r="S331">
+        <v>1.85</v>
+      </c>
+      <c r="T331">
+        <v>2.75</v>
+      </c>
+      <c r="U331">
+        <v>1.975</v>
+      </c>
+      <c r="V331">
+        <v>1.875</v>
+      </c>
+      <c r="W331">
+        <v>0</v>
+      </c>
+      <c r="X331">
+        <v>0</v>
+      </c>
+      <c r="Y331">
+        <v>0</v>
+      </c>
+      <c r="Z331">
+        <v>0</v>
+      </c>
+      <c r="AA331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:29">
+      <c r="A332" s="1">
+        <v>330</v>
+      </c>
+      <c r="B332">
+        <v>6805679</v>
+      </c>
+      <c r="C332" t="s">
+        <v>28</v>
+      </c>
+      <c r="D332" t="s">
+        <v>28</v>
+      </c>
+      <c r="E332" s="2">
+        <v>45347.45833333334</v>
+      </c>
+      <c r="F332" t="s">
+        <v>49</v>
+      </c>
+      <c r="G332" t="s">
+        <v>51</v>
+      </c>
+      <c r="K332">
+        <v>3</v>
+      </c>
+      <c r="L332">
+        <v>3.1</v>
+      </c>
+      <c r="M332">
+        <v>2.3</v>
+      </c>
+      <c r="N332">
+        <v>3</v>
+      </c>
+      <c r="O332">
+        <v>3.1</v>
+      </c>
+      <c r="P332">
+        <v>2.3</v>
+      </c>
+      <c r="Q332">
+        <v>0.25</v>
+      </c>
+      <c r="R332">
+        <v>1.8</v>
+      </c>
+      <c r="S332">
         <v>2.05</v>
       </c>
-      <c r="V321">
-        <v>1.8</v>
-      </c>
-      <c r="W321">
-        <v>0</v>
-      </c>
-      <c r="X321">
-        <v>0</v>
-      </c>
-      <c r="Y321">
-        <v>0</v>
-      </c>
-      <c r="Z321">
-        <v>0</v>
-      </c>
-      <c r="AA321">
+      <c r="T332">
+        <v>2.25</v>
+      </c>
+      <c r="U332">
+        <v>1.875</v>
+      </c>
+      <c r="V332">
+        <v>1.975</v>
+      </c>
+      <c r="W332">
+        <v>0</v>
+      </c>
+      <c r="X332">
+        <v>0</v>
+      </c>
+      <c r="Y332">
+        <v>0</v>
+      </c>
+      <c r="Z332">
+        <v>0</v>
+      </c>
+      <c r="AA332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:29">
+      <c r="A333" s="1">
+        <v>331</v>
+      </c>
+      <c r="B333">
+        <v>6803812</v>
+      </c>
+      <c r="C333" t="s">
+        <v>28</v>
+      </c>
+      <c r="D333" t="s">
+        <v>28</v>
+      </c>
+      <c r="E333" s="2">
+        <v>45347.58333333334</v>
+      </c>
+      <c r="F333" t="s">
+        <v>45</v>
+      </c>
+      <c r="G333" t="s">
+        <v>33</v>
+      </c>
+      <c r="K333">
+        <v>2.3</v>
+      </c>
+      <c r="L333">
+        <v>3.2</v>
+      </c>
+      <c r="M333">
+        <v>3</v>
+      </c>
+      <c r="N333">
+        <v>2.375</v>
+      </c>
+      <c r="O333">
+        <v>3.1</v>
+      </c>
+      <c r="P333">
+        <v>2.9</v>
+      </c>
+      <c r="Q333">
+        <v>-0.25</v>
+      </c>
+      <c r="R333">
+        <v>2.1</v>
+      </c>
+      <c r="S333">
+        <v>1.775</v>
+      </c>
+      <c r="T333">
+        <v>2.5</v>
+      </c>
+      <c r="U333">
+        <v>1.95</v>
+      </c>
+      <c r="V333">
+        <v>1.9</v>
+      </c>
+      <c r="W333">
+        <v>0</v>
+      </c>
+      <c r="X333">
+        <v>0</v>
+      </c>
+      <c r="Y333">
+        <v>0</v>
+      </c>
+      <c r="Z333">
+        <v>0</v>
+      </c>
+      <c r="AA333">
         <v>0</v>
       </c>
     </row>

--- a/Poland I Liga/Poland I Liga.xlsx
+++ b/Poland I Liga/Poland I Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1683" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -543,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC333"/>
+  <dimension ref="A1:AC334"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5090,7 +5090,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>5139056</v>
+        <v>5139054</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5102,76 +5102,76 @@
         <v>45004.58333333334</v>
       </c>
       <c r="F52" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G52" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K52">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="L52">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M52">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="N52">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="O52">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P52">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="Q52">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R52">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S52">
+        <v>1.775</v>
+      </c>
+      <c r="T52">
+        <v>2.25</v>
+      </c>
+      <c r="U52">
+        <v>1.975</v>
+      </c>
+      <c r="V52">
+        <v>1.825</v>
+      </c>
+      <c r="W52">
+        <v>-1</v>
+      </c>
+      <c r="X52">
+        <v>-1</v>
+      </c>
+      <c r="Y52">
         <v>2</v>
       </c>
-      <c r="T52">
-        <v>2.75</v>
-      </c>
-      <c r="U52">
-        <v>2</v>
-      </c>
-      <c r="V52">
-        <v>1.85</v>
-      </c>
-      <c r="W52">
-        <v>-1</v>
-      </c>
-      <c r="X52">
-        <v>2.5</v>
-      </c>
-      <c r="Y52">
-        <v>-1</v>
-      </c>
       <c r="Z52">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC52">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5268,7 +5268,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>5139054</v>
+        <v>5139056</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5280,76 +5280,76 @@
         <v>45004.58333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G54" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54" t="s">
+        <v>55</v>
+      </c>
+      <c r="K54">
+        <v>3.75</v>
+      </c>
+      <c r="L54">
+        <v>3.5</v>
+      </c>
+      <c r="M54">
+        <v>1.85</v>
+      </c>
+      <c r="N54">
+        <v>3.4</v>
+      </c>
+      <c r="O54">
+        <v>3.5</v>
+      </c>
+      <c r="P54">
+        <v>1.909</v>
+      </c>
+      <c r="Q54">
+        <v>0.5</v>
+      </c>
+      <c r="R54">
+        <v>1.85</v>
+      </c>
+      <c r="S54">
         <v>2</v>
       </c>
-      <c r="I54">
-        <v>3</v>
-      </c>
-      <c r="J54" t="s">
-        <v>54</v>
-      </c>
-      <c r="K54">
-        <v>2.15</v>
-      </c>
-      <c r="L54">
-        <v>3.2</v>
-      </c>
-      <c r="M54">
-        <v>3.1</v>
-      </c>
-      <c r="N54">
-        <v>2.375</v>
-      </c>
-      <c r="O54">
-        <v>3</v>
-      </c>
-      <c r="P54">
-        <v>3</v>
-      </c>
-      <c r="Q54">
-        <v>-0.25</v>
-      </c>
-      <c r="R54">
-        <v>2.025</v>
-      </c>
-      <c r="S54">
-        <v>1.775</v>
-      </c>
       <c r="T54">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U54">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V54">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y54">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA54">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC54">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -12566,7 +12566,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>5452381</v>
+        <v>5451609</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12578,76 +12578,76 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F136" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G136" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K136">
-        <v>1.571</v>
+        <v>1.3</v>
       </c>
       <c r="L136">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M136">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="N136">
-        <v>1.4</v>
+        <v>1.333</v>
       </c>
       <c r="O136">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P136">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="Q136">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R136">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S136">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T136">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U136">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V136">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
         <v>-1</v>
       </c>
       <c r="AA136">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB136">
         <v>-1</v>
       </c>
       <c r="AC136">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12655,7 +12655,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>5451610</v>
+        <v>5451608</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12667,10 +12667,10 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F137" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G137" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H137">
         <v>2</v>
@@ -12682,25 +12682,25 @@
         <v>53</v>
       </c>
       <c r="K137">
-        <v>1.444</v>
+        <v>1.909</v>
       </c>
       <c r="L137">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M137">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="N137">
-        <v>1.333</v>
+        <v>1.909</v>
       </c>
       <c r="O137">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P137">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="Q137">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R137">
         <v>1.95</v>
@@ -12712,13 +12712,13 @@
         <v>2.75</v>
       </c>
       <c r="U137">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V137">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W137">
-        <v>0.333</v>
+        <v>0.909</v>
       </c>
       <c r="X137">
         <v>-1</v>
@@ -12727,13 +12727,13 @@
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA137">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB137">
-        <v>0.4375</v>
+        <v>0.4</v>
       </c>
       <c r="AC137">
         <v>-0.5</v>
@@ -12744,7 +12744,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>5451609</v>
+        <v>5448048</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12756,76 +12756,76 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F138" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G138" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H138">
         <v>1</v>
       </c>
       <c r="I138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K138">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="L138">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M138">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="N138">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="O138">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P138">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="Q138">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R138">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S138">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T138">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U138">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V138">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W138">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X138">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y138">
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA138">
-        <v>0.8</v>
+        <v>0.4625</v>
       </c>
       <c r="AB138">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC138">
-        <v>0.9750000000000001</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12833,7 +12833,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>5451608</v>
+        <v>5448050</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12845,76 +12845,76 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F139" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G139" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H139">
+        <v>3</v>
+      </c>
+      <c r="I139">
+        <v>3</v>
+      </c>
+      <c r="J139" t="s">
+        <v>55</v>
+      </c>
+      <c r="K139">
+        <v>2.75</v>
+      </c>
+      <c r="L139">
+        <v>3.25</v>
+      </c>
+      <c r="M139">
+        <v>2.375</v>
+      </c>
+      <c r="N139">
+        <v>2.4</v>
+      </c>
+      <c r="O139">
+        <v>3.25</v>
+      </c>
+      <c r="P139">
+        <v>2.7</v>
+      </c>
+      <c r="Q139">
+        <v>0</v>
+      </c>
+      <c r="R139">
+        <v>1.8</v>
+      </c>
+      <c r="S139">
+        <v>2.05</v>
+      </c>
+      <c r="T139">
+        <v>2.5</v>
+      </c>
+      <c r="U139">
         <v>2</v>
       </c>
-      <c r="I139">
+      <c r="V139">
+        <v>1.85</v>
+      </c>
+      <c r="W139">
+        <v>-1</v>
+      </c>
+      <c r="X139">
+        <v>2.25</v>
+      </c>
+      <c r="Y139">
+        <v>-1</v>
+      </c>
+      <c r="Z139">
+        <v>0</v>
+      </c>
+      <c r="AA139">
+        <v>-0</v>
+      </c>
+      <c r="AB139">
         <v>1</v>
       </c>
-      <c r="J139" t="s">
-        <v>53</v>
-      </c>
-      <c r="K139">
-        <v>1.909</v>
-      </c>
-      <c r="L139">
-        <v>3.5</v>
-      </c>
-      <c r="M139">
-        <v>3.5</v>
-      </c>
-      <c r="N139">
-        <v>1.909</v>
-      </c>
-      <c r="O139">
-        <v>3.5</v>
-      </c>
-      <c r="P139">
-        <v>3.6</v>
-      </c>
-      <c r="Q139">
-        <v>-0.5</v>
-      </c>
-      <c r="R139">
-        <v>1.95</v>
-      </c>
-      <c r="S139">
-        <v>1.85</v>
-      </c>
-      <c r="T139">
-        <v>2.75</v>
-      </c>
-      <c r="U139">
-        <v>1.8</v>
-      </c>
-      <c r="V139">
-        <v>2</v>
-      </c>
-      <c r="W139">
-        <v>0.909</v>
-      </c>
-      <c r="X139">
-        <v>-1</v>
-      </c>
-      <c r="Y139">
-        <v>-1</v>
-      </c>
-      <c r="Z139">
-        <v>0.95</v>
-      </c>
-      <c r="AA139">
-        <v>-1</v>
-      </c>
-      <c r="AB139">
-        <v>0.4</v>
-      </c>
       <c r="AC139">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12922,7 +12922,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>5448050</v>
+        <v>5448049</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12934,61 +12934,61 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F140" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G140" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H140">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I140">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K140">
+        <v>1.571</v>
+      </c>
+      <c r="L140">
+        <v>3.75</v>
+      </c>
+      <c r="M140">
+        <v>5</v>
+      </c>
+      <c r="N140">
+        <v>1.444</v>
+      </c>
+      <c r="O140">
+        <v>4</v>
+      </c>
+      <c r="P140">
+        <v>6</v>
+      </c>
+      <c r="Q140">
+        <v>-1</v>
+      </c>
+      <c r="R140">
+        <v>1.775</v>
+      </c>
+      <c r="S140">
+        <v>2.025</v>
+      </c>
+      <c r="T140">
         <v>2.75</v>
       </c>
-      <c r="L140">
-        <v>3.25</v>
-      </c>
-      <c r="M140">
-        <v>2.375</v>
-      </c>
-      <c r="N140">
-        <v>2.4</v>
-      </c>
-      <c r="O140">
-        <v>3.25</v>
-      </c>
-      <c r="P140">
-        <v>2.7</v>
-      </c>
-      <c r="Q140">
-        <v>0</v>
-      </c>
-      <c r="R140">
-        <v>1.8</v>
-      </c>
-      <c r="S140">
-        <v>2.05</v>
-      </c>
-      <c r="T140">
-        <v>2.5</v>
-      </c>
       <c r="U140">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V140">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X140">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
         <v>-1</v>
@@ -13000,10 +13000,10 @@
         <v>-0</v>
       </c>
       <c r="AB140">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC140">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13011,7 +13011,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>5448049</v>
+        <v>5447925</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13023,76 +13023,76 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F141" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G141" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J141" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K141">
-        <v>1.571</v>
+        <v>5.5</v>
       </c>
       <c r="L141">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M141">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="N141">
-        <v>1.444</v>
+        <v>4.5</v>
       </c>
       <c r="O141">
         <v>4</v>
       </c>
       <c r="P141">
-        <v>6</v>
+        <v>1.615</v>
       </c>
       <c r="Q141">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R141">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S141">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T141">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U141">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V141">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W141">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z141">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
+        <v>0.8</v>
+      </c>
+      <c r="AB141">
+        <v>0</v>
+      </c>
+      <c r="AC141">
         <v>-0</v>
-      </c>
-      <c r="AB141">
-        <v>-1</v>
-      </c>
-      <c r="AC141">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13100,7 +13100,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>5448048</v>
+        <v>5451607</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13112,61 +13112,61 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F142" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G142" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J142" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K142">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="L142">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M142">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="N142">
-        <v>2.1</v>
+        <v>1.363</v>
       </c>
       <c r="O142">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P142">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="Q142">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R142">
+        <v>1.825</v>
+      </c>
+      <c r="S142">
+        <v>1.975</v>
+      </c>
+      <c r="T142">
+        <v>3.25</v>
+      </c>
+      <c r="U142">
+        <v>1.925</v>
+      </c>
+      <c r="V142">
         <v>1.875</v>
       </c>
-      <c r="S142">
-        <v>1.925</v>
-      </c>
-      <c r="T142">
-        <v>2.25</v>
-      </c>
-      <c r="U142">
-        <v>1.85</v>
-      </c>
-      <c r="V142">
-        <v>1.95</v>
-      </c>
       <c r="W142">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X142">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y142">
         <v>-1</v>
@@ -13175,13 +13175,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA142">
-        <v>0.4625</v>
+        <v>0.4875</v>
       </c>
       <c r="AB142">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC142">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13189,7 +13189,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>5447925</v>
+        <v>5452381</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13201,55 +13201,55 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F143" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G143" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H143">
         <v>0</v>
       </c>
       <c r="I143">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J143" t="s">
         <v>54</v>
       </c>
       <c r="K143">
-        <v>5.5</v>
+        <v>1.571</v>
       </c>
       <c r="L143">
         <v>4</v>
       </c>
       <c r="M143">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="N143">
+        <v>1.4</v>
+      </c>
+      <c r="O143">
         <v>4.5</v>
       </c>
-      <c r="O143">
-        <v>4</v>
-      </c>
       <c r="P143">
-        <v>1.615</v>
+        <v>6.5</v>
       </c>
       <c r="Q143">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R143">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S143">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T143">
         <v>3</v>
       </c>
       <c r="U143">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V143">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W143">
         <v>-1</v>
@@ -13258,19 +13258,19 @@
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>0.615</v>
+        <v>5.5</v>
       </c>
       <c r="Z143">
         <v>-1</v>
       </c>
       <c r="AA143">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB143">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC143">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13278,7 +13278,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>5451607</v>
+        <v>5451610</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13290,58 +13290,58 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F144" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G144" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H144">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I144">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J144" t="s">
         <v>53</v>
       </c>
       <c r="K144">
-        <v>1.615</v>
+        <v>1.444</v>
       </c>
       <c r="L144">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M144">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="N144">
-        <v>1.363</v>
+        <v>1.333</v>
       </c>
       <c r="O144">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="P144">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q144">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R144">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S144">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T144">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U144">
+        <v>1.875</v>
+      </c>
+      <c r="V144">
         <v>1.925</v>
       </c>
-      <c r="V144">
-        <v>1.875</v>
-      </c>
       <c r="W144">
-        <v>0.363</v>
+        <v>0.333</v>
       </c>
       <c r="X144">
         <v>-1</v>
@@ -13350,16 +13350,16 @@
         <v>-1</v>
       </c>
       <c r="Z144">
+        <v>-1</v>
+      </c>
+      <c r="AA144">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB144">
+        <v>0.4375</v>
+      </c>
+      <c r="AC144">
         <v>-0.5</v>
-      </c>
-      <c r="AA144">
-        <v>0.4875</v>
-      </c>
-      <c r="AB144">
-        <v>0.925</v>
-      </c>
-      <c r="AC144">
-        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -23157,7 +23157,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>6805700</v>
+        <v>6803761</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23169,76 +23169,76 @@
         <v>45226.54166666666</v>
       </c>
       <c r="F255" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G255" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J255" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K255">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="L255">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M255">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="N255">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="O255">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P255">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="Q255">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R255">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S255">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T255">
         <v>2.75</v>
       </c>
       <c r="U255">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V255">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W255">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X255">
         <v>-1</v>
       </c>
       <c r="Y255">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z255">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA255">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB255">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC255">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="256" spans="1:29">
@@ -23246,7 +23246,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>6803761</v>
+        <v>6805700</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23258,76 +23258,76 @@
         <v>45226.54166666666</v>
       </c>
       <c r="F256" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G256" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H256">
+        <v>0</v>
+      </c>
+      <c r="I256">
         <v>2</v>
       </c>
-      <c r="I256">
-        <v>1</v>
-      </c>
       <c r="J256" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K256">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="L256">
+        <v>3.75</v>
+      </c>
+      <c r="M256">
+        <v>4.2</v>
+      </c>
+      <c r="N256">
+        <v>1.75</v>
+      </c>
+      <c r="O256">
+        <v>3.6</v>
+      </c>
+      <c r="P256">
         <v>4</v>
       </c>
-      <c r="M256">
-        <v>5.25</v>
-      </c>
-      <c r="N256">
-        <v>1.5</v>
-      </c>
-      <c r="O256">
-        <v>4</v>
-      </c>
-      <c r="P256">
-        <v>5.5</v>
-      </c>
       <c r="Q256">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R256">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S256">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T256">
         <v>2.75</v>
       </c>
       <c r="U256">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V256">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W256">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X256">
         <v>-1</v>
       </c>
       <c r="Y256">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z256">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA256">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB256">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC256">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="257" spans="1:29">
@@ -27340,7 +27340,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>6803793</v>
+        <v>6803794</v>
       </c>
       <c r="C302" t="s">
         <v>28</v>
@@ -27352,76 +27352,76 @@
         <v>45270.36111111111</v>
       </c>
       <c r="F302" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G302" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I302">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J302" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K302">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="L302">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M302">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="N302">
-        <v>2.1</v>
+        <v>1.363</v>
       </c>
       <c r="O302">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P302">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="Q302">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R302">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S302">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T302">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U302">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V302">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W302">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X302">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y302">
         <v>-1</v>
       </c>
       <c r="Z302">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA302">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB302">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC302">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="303" spans="1:29">
@@ -27429,7 +27429,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>6803794</v>
+        <v>6803793</v>
       </c>
       <c r="C303" t="s">
         <v>28</v>
@@ -27441,76 +27441,76 @@
         <v>45270.36111111111</v>
       </c>
       <c r="F303" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G303" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H303">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I303">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J303" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K303">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="L303">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M303">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="N303">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="O303">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P303">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q303">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R303">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S303">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T303">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U303">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V303">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W303">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X303">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y303">
         <v>-1</v>
       </c>
       <c r="Z303">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA303">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB303">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC303">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="304" spans="1:29">
@@ -29315,6 +29315,15 @@
       <c r="G324" t="s">
         <v>47</v>
       </c>
+      <c r="H324">
+        <v>2</v>
+      </c>
+      <c r="I324">
+        <v>0</v>
+      </c>
+      <c r="J324" t="s">
+        <v>53</v>
+      </c>
       <c r="K324">
         <v>2.3</v>
       </c>
@@ -29325,46 +29334,52 @@
         <v>3.1</v>
       </c>
       <c r="N324">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="O324">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P324">
         <v>2.9</v>
       </c>
       <c r="Q324">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R324">
-        <v>2.1</v>
+        <v>1.775</v>
       </c>
       <c r="S324">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="T324">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U324">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V324">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W324">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="X324">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y324">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z324">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA324">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB324">
+        <v>-0.5</v>
+      </c>
+      <c r="AC324">
+        <v>0.45</v>
       </c>
     </row>
     <row r="325" spans="1:29">
@@ -29420,10 +29435,10 @@
         <v>2.25</v>
       </c>
       <c r="U325">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V325">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W325">
         <v>0</v>
@@ -29642,10 +29657,10 @@
         <v>2.25</v>
       </c>
       <c r="U328">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V328">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W328">
         <v>0</v>
@@ -29695,31 +29710,31 @@
         <v>3.8</v>
       </c>
       <c r="N329">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="O329">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P329">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q329">
         <v>-0.5</v>
       </c>
       <c r="R329">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S329">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T329">
         <v>2.5</v>
       </c>
       <c r="U329">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V329">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W329">
         <v>0</v>
@@ -29855,19 +29870,19 @@
         <v>-1</v>
       </c>
       <c r="R331">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S331">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T331">
         <v>2.75</v>
       </c>
       <c r="U331">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V331">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W331">
         <v>0</v>
@@ -29917,31 +29932,31 @@
         <v>2.3</v>
       </c>
       <c r="N332">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="O332">
         <v>3.1</v>
       </c>
       <c r="P332">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="Q332">
         <v>0.25</v>
       </c>
       <c r="R332">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S332">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T332">
         <v>2.25</v>
       </c>
       <c r="U332">
+        <v>1.975</v>
+      </c>
+      <c r="V332">
         <v>1.875</v>
-      </c>
-      <c r="V332">
-        <v>1.975</v>
       </c>
       <c r="W332">
         <v>0</v>
@@ -29991,31 +30006,31 @@
         <v>3</v>
       </c>
       <c r="N333">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="O333">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P333">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="Q333">
         <v>-0.25</v>
       </c>
       <c r="R333">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="S333">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T333">
         <v>2.5</v>
       </c>
       <c r="U333">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V333">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W333">
         <v>0</v>
@@ -30030,6 +30045,80 @@
         <v>0</v>
       </c>
       <c r="AA333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:29">
+      <c r="A334" s="1">
+        <v>332</v>
+      </c>
+      <c r="B334">
+        <v>7720875</v>
+      </c>
+      <c r="C334" t="s">
+        <v>28</v>
+      </c>
+      <c r="D334" t="s">
+        <v>28</v>
+      </c>
+      <c r="E334" s="2">
+        <v>45348.58333333334</v>
+      </c>
+      <c r="F334" t="s">
+        <v>44</v>
+      </c>
+      <c r="G334" t="s">
+        <v>40</v>
+      </c>
+      <c r="K334">
+        <v>3</v>
+      </c>
+      <c r="L334">
+        <v>3.25</v>
+      </c>
+      <c r="M334">
+        <v>2.25</v>
+      </c>
+      <c r="N334">
+        <v>3</v>
+      </c>
+      <c r="O334">
+        <v>3.25</v>
+      </c>
+      <c r="P334">
+        <v>2.3</v>
+      </c>
+      <c r="Q334">
+        <v>0.25</v>
+      </c>
+      <c r="R334">
+        <v>1.825</v>
+      </c>
+      <c r="S334">
+        <v>2.025</v>
+      </c>
+      <c r="T334">
+        <v>2.5</v>
+      </c>
+      <c r="U334">
+        <v>1.975</v>
+      </c>
+      <c r="V334">
+        <v>1.875</v>
+      </c>
+      <c r="W334">
+        <v>0</v>
+      </c>
+      <c r="X334">
+        <v>0</v>
+      </c>
+      <c r="Y334">
+        <v>0</v>
+      </c>
+      <c r="Z334">
+        <v>0</v>
+      </c>
+      <c r="AA334">
         <v>0</v>
       </c>
     </row>

--- a/Poland I Liga/Poland I Liga.xlsx
+++ b/Poland I Liga/Poland I Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1683" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1684" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -5090,7 +5090,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>5139054</v>
+        <v>5140743</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5102,73 +5102,73 @@
         <v>45004.58333333334</v>
       </c>
       <c r="F52" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G52" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H52">
         <v>2</v>
       </c>
       <c r="I52">
+        <v>2</v>
+      </c>
+      <c r="J52" t="s">
+        <v>55</v>
+      </c>
+      <c r="K52">
         <v>3</v>
       </c>
-      <c r="J52" t="s">
-        <v>54</v>
-      </c>
-      <c r="K52">
-        <v>2.15</v>
-      </c>
       <c r="L52">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M52">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="N52">
-        <v>2.375</v>
+        <v>2.9</v>
       </c>
       <c r="O52">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P52">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Q52">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R52">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S52">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T52">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U52">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V52">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W52">
         <v>-1</v>
       </c>
       <c r="X52">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y52">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA52">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB52">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC52">
         <v>-1</v>
@@ -5179,7 +5179,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>5140743</v>
+        <v>5139056</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5191,52 +5191,52 @@
         <v>45004.58333333334</v>
       </c>
       <c r="F53" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G53" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J53" t="s">
         <v>55</v>
       </c>
       <c r="K53">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="L53">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M53">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="N53">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="O53">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P53">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="Q53">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R53">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S53">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T53">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U53">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V53">
         <v>1.85</v>
@@ -5245,22 +5245,22 @@
         <v>-1</v>
       </c>
       <c r="X53">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Y53">
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA53">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB53">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5268,7 +5268,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>5139056</v>
+        <v>5139054</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5280,76 +5280,76 @@
         <v>45004.58333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G54" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K54">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="L54">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M54">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="N54">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="O54">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P54">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="Q54">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R54">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S54">
+        <v>1.775</v>
+      </c>
+      <c r="T54">
+        <v>2.25</v>
+      </c>
+      <c r="U54">
+        <v>1.975</v>
+      </c>
+      <c r="V54">
+        <v>1.825</v>
+      </c>
+      <c r="W54">
+        <v>-1</v>
+      </c>
+      <c r="X54">
+        <v>-1</v>
+      </c>
+      <c r="Y54">
         <v>2</v>
       </c>
-      <c r="T54">
-        <v>2.75</v>
-      </c>
-      <c r="U54">
-        <v>2</v>
-      </c>
-      <c r="V54">
-        <v>1.85</v>
-      </c>
-      <c r="W54">
-        <v>-1</v>
-      </c>
-      <c r="X54">
-        <v>2.5</v>
-      </c>
-      <c r="Y54">
-        <v>-1</v>
-      </c>
       <c r="Z54">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC54">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -6158,7 +6158,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>5138224</v>
+        <v>5139063</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6170,10 +6170,10 @@
         <v>45022.54166666666</v>
       </c>
       <c r="F64" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G64" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6185,61 +6185,61 @@
         <v>55</v>
       </c>
       <c r="K64">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="L64">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M64">
+        <v>2.875</v>
+      </c>
+      <c r="N64">
+        <v>2.7</v>
+      </c>
+      <c r="O64">
+        <v>3.1</v>
+      </c>
+      <c r="P64">
+        <v>2.375</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>2.05</v>
+      </c>
+      <c r="S64">
         <v>1.75</v>
       </c>
-      <c r="N64">
-        <v>4</v>
-      </c>
-      <c r="O64">
-        <v>3.4</v>
-      </c>
-      <c r="P64">
-        <v>1.8</v>
-      </c>
-      <c r="Q64">
-        <v>0.5</v>
-      </c>
-      <c r="R64">
-        <v>1.975</v>
-      </c>
-      <c r="S64">
-        <v>1.825</v>
-      </c>
       <c r="T64">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U64">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V64">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W64">
         <v>-1</v>
       </c>
       <c r="X64">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA64">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB64">
         <v>-1</v>
       </c>
       <c r="AC64">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6247,7 +6247,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>5139063</v>
+        <v>5138224</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6259,10 +6259,10 @@
         <v>45022.54166666666</v>
       </c>
       <c r="F65" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G65" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -6274,61 +6274,61 @@
         <v>55</v>
       </c>
       <c r="K65">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="L65">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M65">
-        <v>2.875</v>
+        <v>1.75</v>
       </c>
       <c r="N65">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="O65">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P65">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="Q65">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R65">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S65">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T65">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U65">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V65">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W65">
         <v>-1</v>
       </c>
       <c r="X65">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="Y65">
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA65">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
         <v>-1</v>
       </c>
       <c r="AC65">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -12566,7 +12566,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>5451609</v>
+        <v>5452381</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12578,76 +12578,76 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F136" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G136" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
         <v>1</v>
       </c>
-      <c r="I136">
-        <v>0</v>
-      </c>
       <c r="J136" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K136">
-        <v>1.3</v>
+        <v>1.571</v>
       </c>
       <c r="L136">
+        <v>4</v>
+      </c>
+      <c r="M136">
         <v>5</v>
       </c>
-      <c r="M136">
-        <v>7.5</v>
-      </c>
       <c r="N136">
-        <v>1.333</v>
+        <v>1.4</v>
       </c>
       <c r="O136">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P136">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="Q136">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R136">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S136">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T136">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U136">
+        <v>2.025</v>
+      </c>
+      <c r="V136">
         <v>1.825</v>
       </c>
-      <c r="V136">
-        <v>1.975</v>
-      </c>
       <c r="W136">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z136">
         <v>-1</v>
       </c>
       <c r="AA136">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB136">
         <v>-1</v>
       </c>
       <c r="AC136">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12655,7 +12655,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>5451608</v>
+        <v>5451610</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12667,10 +12667,10 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F137" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G137" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H137">
         <v>2</v>
@@ -12682,25 +12682,25 @@
         <v>53</v>
       </c>
       <c r="K137">
-        <v>1.909</v>
+        <v>1.444</v>
       </c>
       <c r="L137">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M137">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="N137">
-        <v>1.909</v>
+        <v>1.333</v>
       </c>
       <c r="O137">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P137">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="Q137">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R137">
         <v>1.95</v>
@@ -12712,13 +12712,13 @@
         <v>2.75</v>
       </c>
       <c r="U137">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V137">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W137">
-        <v>0.909</v>
+        <v>0.333</v>
       </c>
       <c r="X137">
         <v>-1</v>
@@ -12727,13 +12727,13 @@
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB137">
-        <v>0.4</v>
+        <v>0.4375</v>
       </c>
       <c r="AC137">
         <v>-0.5</v>
@@ -12744,7 +12744,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>5448048</v>
+        <v>5451609</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12756,76 +12756,76 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F138" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G138" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H138">
         <v>1</v>
       </c>
       <c r="I138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K138">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="L138">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M138">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="N138">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="O138">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P138">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="Q138">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R138">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S138">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T138">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U138">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V138">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W138">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X138">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
       <c r="AB138">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC138">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12833,7 +12833,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>5448050</v>
+        <v>5451608</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12845,76 +12845,76 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F139" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G139" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H139">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I139">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K139">
+        <v>1.909</v>
+      </c>
+      <c r="L139">
+        <v>3.5</v>
+      </c>
+      <c r="M139">
+        <v>3.5</v>
+      </c>
+      <c r="N139">
+        <v>1.909</v>
+      </c>
+      <c r="O139">
+        <v>3.5</v>
+      </c>
+      <c r="P139">
+        <v>3.6</v>
+      </c>
+      <c r="Q139">
+        <v>-0.5</v>
+      </c>
+      <c r="R139">
+        <v>1.95</v>
+      </c>
+      <c r="S139">
+        <v>1.85</v>
+      </c>
+      <c r="T139">
         <v>2.75</v>
       </c>
-      <c r="L139">
-        <v>3.25</v>
-      </c>
-      <c r="M139">
-        <v>2.375</v>
-      </c>
-      <c r="N139">
-        <v>2.4</v>
-      </c>
-      <c r="O139">
-        <v>3.25</v>
-      </c>
-      <c r="P139">
-        <v>2.7</v>
-      </c>
-      <c r="Q139">
-        <v>0</v>
-      </c>
-      <c r="R139">
+      <c r="U139">
         <v>1.8</v>
       </c>
-      <c r="S139">
-        <v>2.05</v>
-      </c>
-      <c r="T139">
-        <v>2.5</v>
-      </c>
-      <c r="U139">
+      <c r="V139">
         <v>2</v>
       </c>
-      <c r="V139">
-        <v>1.85</v>
-      </c>
       <c r="W139">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X139">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA139">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AC139">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12922,7 +12922,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>5448049</v>
+        <v>5451607</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12934,58 +12934,58 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F140" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G140" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J140" t="s">
         <v>53</v>
       </c>
       <c r="K140">
-        <v>1.571</v>
+        <v>1.615</v>
       </c>
       <c r="L140">
         <v>3.75</v>
       </c>
       <c r="M140">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="N140">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="O140">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P140">
         <v>6</v>
       </c>
       <c r="Q140">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R140">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S140">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T140">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U140">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V140">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W140">
-        <v>0.444</v>
+        <v>0.363</v>
       </c>
       <c r="X140">
         <v>-1</v>
@@ -12994,16 +12994,16 @@
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA140">
-        <v>-0</v>
+        <v>0.4875</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC140">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13011,7 +13011,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>5447925</v>
+        <v>5448049</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13023,76 +13023,76 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F141" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G141" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K141">
-        <v>5.5</v>
+        <v>1.571</v>
       </c>
       <c r="L141">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M141">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="N141">
-        <v>4.5</v>
+        <v>1.444</v>
       </c>
       <c r="O141">
         <v>4</v>
       </c>
       <c r="P141">
-        <v>1.615</v>
+        <v>6</v>
       </c>
       <c r="Q141">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R141">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S141">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T141">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U141">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V141">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W141">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA141">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB141">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC141">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13100,7 +13100,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>5451607</v>
+        <v>5448048</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13112,61 +13112,61 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F142" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G142" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H142">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I142">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K142">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="L142">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M142">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="N142">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="O142">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P142">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="Q142">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R142">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S142">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T142">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U142">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V142">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W142">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X142">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y142">
         <v>-1</v>
@@ -13175,13 +13175,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA142">
-        <v>0.4875</v>
+        <v>0.4625</v>
       </c>
       <c r="AB142">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13189,7 +13189,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>5452381</v>
+        <v>5447925</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13201,55 +13201,55 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F143" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G143" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H143">
         <v>0</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J143" t="s">
         <v>54</v>
       </c>
       <c r="K143">
-        <v>1.571</v>
+        <v>5.5</v>
       </c>
       <c r="L143">
         <v>4</v>
       </c>
       <c r="M143">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="N143">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="O143">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P143">
-        <v>6.5</v>
+        <v>1.615</v>
       </c>
       <c r="Q143">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R143">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S143">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T143">
         <v>3</v>
       </c>
       <c r="U143">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V143">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W143">
         <v>-1</v>
@@ -13258,19 +13258,19 @@
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>5.5</v>
+        <v>0.615</v>
       </c>
       <c r="Z143">
         <v>-1</v>
       </c>
       <c r="AA143">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC143">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13278,7 +13278,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>5451610</v>
+        <v>5448050</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13290,76 +13290,76 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F144" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G144" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H144">
+        <v>3</v>
+      </c>
+      <c r="I144">
+        <v>3</v>
+      </c>
+      <c r="J144" t="s">
+        <v>55</v>
+      </c>
+      <c r="K144">
+        <v>2.75</v>
+      </c>
+      <c r="L144">
+        <v>3.25</v>
+      </c>
+      <c r="M144">
+        <v>2.375</v>
+      </c>
+      <c r="N144">
+        <v>2.4</v>
+      </c>
+      <c r="O144">
+        <v>3.25</v>
+      </c>
+      <c r="P144">
+        <v>2.7</v>
+      </c>
+      <c r="Q144">
+        <v>0</v>
+      </c>
+      <c r="R144">
+        <v>1.8</v>
+      </c>
+      <c r="S144">
+        <v>2.05</v>
+      </c>
+      <c r="T144">
+        <v>2.5</v>
+      </c>
+      <c r="U144">
         <v>2</v>
       </c>
-      <c r="I144">
+      <c r="V144">
+        <v>1.85</v>
+      </c>
+      <c r="W144">
+        <v>-1</v>
+      </c>
+      <c r="X144">
+        <v>2.25</v>
+      </c>
+      <c r="Y144">
+        <v>-1</v>
+      </c>
+      <c r="Z144">
+        <v>0</v>
+      </c>
+      <c r="AA144">
+        <v>-0</v>
+      </c>
+      <c r="AB144">
         <v>1</v>
       </c>
-      <c r="J144" t="s">
-        <v>53</v>
-      </c>
-      <c r="K144">
-        <v>1.444</v>
-      </c>
-      <c r="L144">
-        <v>4</v>
-      </c>
-      <c r="M144">
-        <v>6.5</v>
-      </c>
-      <c r="N144">
-        <v>1.333</v>
-      </c>
-      <c r="O144">
-        <v>4.333</v>
-      </c>
-      <c r="P144">
-        <v>8</v>
-      </c>
-      <c r="Q144">
-        <v>-1.5</v>
-      </c>
-      <c r="R144">
-        <v>1.95</v>
-      </c>
-      <c r="S144">
-        <v>1.85</v>
-      </c>
-      <c r="T144">
-        <v>2.75</v>
-      </c>
-      <c r="U144">
-        <v>1.875</v>
-      </c>
-      <c r="V144">
-        <v>1.925</v>
-      </c>
-      <c r="W144">
-        <v>0.333</v>
-      </c>
-      <c r="X144">
-        <v>-1</v>
-      </c>
-      <c r="Y144">
-        <v>-1</v>
-      </c>
-      <c r="Z144">
-        <v>-1</v>
-      </c>
-      <c r="AA144">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB144">
-        <v>0.4375</v>
-      </c>
       <c r="AC144">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -19063,7 +19063,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6803727</v>
+        <v>6805719</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19075,58 +19075,58 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F209" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G209" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H209">
+        <v>3</v>
+      </c>
+      <c r="I209">
         <v>2</v>
-      </c>
-      <c r="I209">
-        <v>1</v>
       </c>
       <c r="J209" t="s">
         <v>53</v>
       </c>
       <c r="K209">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="L209">
         <v>3.3</v>
       </c>
       <c r="M209">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="N209">
-        <v>3.75</v>
+        <v>2.05</v>
       </c>
       <c r="O209">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P209">
+        <v>3.2</v>
+      </c>
+      <c r="Q209">
+        <v>-0.25</v>
+      </c>
+      <c r="R209">
         <v>1.85</v>
       </c>
-      <c r="Q209">
-        <v>0.5</v>
-      </c>
-      <c r="R209">
-        <v>1.925</v>
-      </c>
       <c r="S209">
+        <v>2</v>
+      </c>
+      <c r="T209">
+        <v>2.5</v>
+      </c>
+      <c r="U209">
         <v>1.875</v>
       </c>
-      <c r="T209">
-        <v>2.75</v>
-      </c>
-      <c r="U209">
-        <v>1.925</v>
-      </c>
       <c r="V209">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W209">
-        <v>2.75</v>
+        <v>1.05</v>
       </c>
       <c r="X209">
         <v>-1</v>
@@ -19135,16 +19135,16 @@
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA209">
         <v>-1</v>
       </c>
       <c r="AB209">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AC209">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19152,7 +19152,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6805719</v>
+        <v>6803727</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19164,58 +19164,58 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F210" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G210" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H210">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I210">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J210" t="s">
         <v>53</v>
       </c>
       <c r="K210">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="L210">
         <v>3.3</v>
       </c>
       <c r="M210">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="N210">
-        <v>2.05</v>
+        <v>3.75</v>
       </c>
       <c r="O210">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P210">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="Q210">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R210">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S210">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T210">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U210">
+        <v>1.925</v>
+      </c>
+      <c r="V210">
         <v>1.875</v>
       </c>
-      <c r="V210">
-        <v>1.975</v>
-      </c>
       <c r="W210">
-        <v>1.05</v>
+        <v>2.75</v>
       </c>
       <c r="X210">
         <v>-1</v>
@@ -19224,16 +19224,16 @@
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA210">
         <v>-1</v>
       </c>
       <c r="AB210">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AC210">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -25471,7 +25471,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>6803779</v>
+        <v>6803778</v>
       </c>
       <c r="C281" t="s">
         <v>28</v>
@@ -25483,76 +25483,76 @@
         <v>45242.58333333334</v>
       </c>
       <c r="F281" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G281" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="H281">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I281">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J281" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K281">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="L281">
         <v>3.4</v>
       </c>
       <c r="M281">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="N281">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="O281">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P281">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="Q281">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R281">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S281">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T281">
         <v>2.5</v>
       </c>
       <c r="U281">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V281">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W281">
         <v>-1</v>
       </c>
       <c r="X281">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y281">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z281">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA281">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB281">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC281">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:29">
@@ -25560,7 +25560,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>6803778</v>
+        <v>6803779</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25572,76 +25572,76 @@
         <v>45242.58333333334</v>
       </c>
       <c r="F282" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G282" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I282">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J282" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K282">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="L282">
         <v>3.4</v>
       </c>
       <c r="M282">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="N282">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="O282">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P282">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="Q282">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R282">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S282">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T282">
         <v>2.5</v>
       </c>
       <c r="U282">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V282">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W282">
         <v>-1</v>
       </c>
       <c r="X282">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y282">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z282">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA282">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB282">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC282">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="283" spans="1:29">
@@ -29404,6 +29404,15 @@
       <c r="G325" t="s">
         <v>38</v>
       </c>
+      <c r="H325">
+        <v>2</v>
+      </c>
+      <c r="I325">
+        <v>0</v>
+      </c>
+      <c r="J325" t="s">
+        <v>53</v>
+      </c>
       <c r="K325">
         <v>2.875</v>
       </c>
@@ -29414,46 +29423,52 @@
         <v>2.4</v>
       </c>
       <c r="N325">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="O325">
         <v>3.1</v>
       </c>
       <c r="P325">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="Q325">
         <v>0.25</v>
       </c>
       <c r="R325">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S325">
-        <v>2.125</v>
+        <v>2</v>
       </c>
       <c r="T325">
         <v>2.25</v>
       </c>
       <c r="U325">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V325">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W325">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="X325">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y325">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z325">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA325">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB325">
+        <v>-0.5</v>
+      </c>
+      <c r="AC325">
+        <v>0.425</v>
       </c>
     </row>
     <row r="326" spans="1:29">
@@ -29648,10 +29663,10 @@
         <v>0</v>
       </c>
       <c r="R328">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S328">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T328">
         <v>2.25</v>
@@ -29710,31 +29725,31 @@
         <v>3.8</v>
       </c>
       <c r="N329">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O329">
         <v>3.5</v>
       </c>
       <c r="P329">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q329">
         <v>-0.5</v>
       </c>
       <c r="R329">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S329">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T329">
         <v>2.5</v>
       </c>
       <c r="U329">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V329">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W329">
         <v>0</v>
@@ -29790,25 +29805,25 @@
         <v>3.2</v>
       </c>
       <c r="P330">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q330">
         <v>0</v>
       </c>
       <c r="R330">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S330">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T330">
         <v>2.5</v>
       </c>
       <c r="U330">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V330">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W330">
         <v>0</v>
@@ -29879,10 +29894,10 @@
         <v>2.75</v>
       </c>
       <c r="U331">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V331">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W331">
         <v>0</v>
@@ -29932,31 +29947,31 @@
         <v>2.3</v>
       </c>
       <c r="N332">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="O332">
         <v>3.1</v>
       </c>
       <c r="P332">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="Q332">
         <v>0.25</v>
       </c>
       <c r="R332">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S332">
-        <v>2.1</v>
+        <v>2.125</v>
       </c>
       <c r="T332">
         <v>2.25</v>
       </c>
       <c r="U332">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V332">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W332">
         <v>0</v>
@@ -30027,10 +30042,10 @@
         <v>2.5</v>
       </c>
       <c r="U333">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V333">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W333">
         <v>0</v>
@@ -30080,31 +30095,31 @@
         <v>2.25</v>
       </c>
       <c r="N334">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="O334">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P334">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q334">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R334">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S334">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T334">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U334">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V334">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W334">
         <v>0</v>

--- a/Poland I Liga/Poland I Liga.xlsx
+++ b/Poland I Liga/Poland I Liga.xlsx
@@ -5090,7 +5090,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>5140743</v>
+        <v>5139054</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5102,73 +5102,73 @@
         <v>45004.58333333334</v>
       </c>
       <c r="F52" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G52" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H52">
         <v>2</v>
       </c>
       <c r="I52">
+        <v>3</v>
+      </c>
+      <c r="J52" t="s">
+        <v>54</v>
+      </c>
+      <c r="K52">
+        <v>2.15</v>
+      </c>
+      <c r="L52">
+        <v>3.2</v>
+      </c>
+      <c r="M52">
+        <v>3.1</v>
+      </c>
+      <c r="N52">
+        <v>2.375</v>
+      </c>
+      <c r="O52">
+        <v>3</v>
+      </c>
+      <c r="P52">
+        <v>3</v>
+      </c>
+      <c r="Q52">
+        <v>-0.25</v>
+      </c>
+      <c r="R52">
+        <v>2.025</v>
+      </c>
+      <c r="S52">
+        <v>1.775</v>
+      </c>
+      <c r="T52">
+        <v>2.25</v>
+      </c>
+      <c r="U52">
+        <v>1.975</v>
+      </c>
+      <c r="V52">
+        <v>1.825</v>
+      </c>
+      <c r="W52">
+        <v>-1</v>
+      </c>
+      <c r="X52">
+        <v>-1</v>
+      </c>
+      <c r="Y52">
         <v>2</v>
       </c>
-      <c r="J52" t="s">
-        <v>55</v>
-      </c>
-      <c r="K52">
-        <v>3</v>
-      </c>
-      <c r="L52">
-        <v>3.3</v>
-      </c>
-      <c r="M52">
-        <v>2.2</v>
-      </c>
-      <c r="N52">
-        <v>2.9</v>
-      </c>
-      <c r="O52">
-        <v>3.3</v>
-      </c>
-      <c r="P52">
-        <v>2.25</v>
-      </c>
-      <c r="Q52">
-        <v>0.25</v>
-      </c>
-      <c r="R52">
-        <v>1.825</v>
-      </c>
-      <c r="S52">
-        <v>1.975</v>
-      </c>
-      <c r="T52">
-        <v>2.5</v>
-      </c>
-      <c r="U52">
-        <v>1.95</v>
-      </c>
-      <c r="V52">
-        <v>1.85</v>
-      </c>
-      <c r="W52">
-        <v>-1</v>
-      </c>
-      <c r="X52">
-        <v>2.3</v>
-      </c>
-      <c r="Y52">
-        <v>-1</v>
-      </c>
       <c r="Z52">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB52">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC52">
         <v>-1</v>
@@ -5179,7 +5179,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>5139056</v>
+        <v>5140743</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5191,52 +5191,52 @@
         <v>45004.58333333334</v>
       </c>
       <c r="F53" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G53" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J53" t="s">
         <v>55</v>
       </c>
       <c r="K53">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="L53">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M53">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="N53">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="O53">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P53">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="Q53">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R53">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S53">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T53">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U53">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V53">
         <v>1.85</v>
@@ -5245,22 +5245,22 @@
         <v>-1</v>
       </c>
       <c r="X53">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="Y53">
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AA53">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB53">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC53">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5268,7 +5268,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>5139054</v>
+        <v>5139056</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5280,76 +5280,76 @@
         <v>45004.58333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G54" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54" t="s">
+        <v>55</v>
+      </c>
+      <c r="K54">
+        <v>3.75</v>
+      </c>
+      <c r="L54">
+        <v>3.5</v>
+      </c>
+      <c r="M54">
+        <v>1.85</v>
+      </c>
+      <c r="N54">
+        <v>3.4</v>
+      </c>
+      <c r="O54">
+        <v>3.5</v>
+      </c>
+      <c r="P54">
+        <v>1.909</v>
+      </c>
+      <c r="Q54">
+        <v>0.5</v>
+      </c>
+      <c r="R54">
+        <v>1.85</v>
+      </c>
+      <c r="S54">
         <v>2</v>
       </c>
-      <c r="I54">
-        <v>3</v>
-      </c>
-      <c r="J54" t="s">
-        <v>54</v>
-      </c>
-      <c r="K54">
-        <v>2.15</v>
-      </c>
-      <c r="L54">
-        <v>3.2</v>
-      </c>
-      <c r="M54">
-        <v>3.1</v>
-      </c>
-      <c r="N54">
-        <v>2.375</v>
-      </c>
-      <c r="O54">
-        <v>3</v>
-      </c>
-      <c r="P54">
-        <v>3</v>
-      </c>
-      <c r="Q54">
-        <v>-0.25</v>
-      </c>
-      <c r="R54">
-        <v>2.025</v>
-      </c>
-      <c r="S54">
-        <v>1.775</v>
-      </c>
       <c r="T54">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U54">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V54">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y54">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA54">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC54">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -12655,7 +12655,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>5451610</v>
+        <v>5448050</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12667,76 +12667,76 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F137" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G137" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H137">
+        <v>3</v>
+      </c>
+      <c r="I137">
+        <v>3</v>
+      </c>
+      <c r="J137" t="s">
+        <v>55</v>
+      </c>
+      <c r="K137">
+        <v>2.75</v>
+      </c>
+      <c r="L137">
+        <v>3.25</v>
+      </c>
+      <c r="M137">
+        <v>2.375</v>
+      </c>
+      <c r="N137">
+        <v>2.4</v>
+      </c>
+      <c r="O137">
+        <v>3.25</v>
+      </c>
+      <c r="P137">
+        <v>2.7</v>
+      </c>
+      <c r="Q137">
+        <v>0</v>
+      </c>
+      <c r="R137">
+        <v>1.8</v>
+      </c>
+      <c r="S137">
+        <v>2.05</v>
+      </c>
+      <c r="T137">
+        <v>2.5</v>
+      </c>
+      <c r="U137">
         <v>2</v>
       </c>
-      <c r="I137">
+      <c r="V137">
+        <v>1.85</v>
+      </c>
+      <c r="W137">
+        <v>-1</v>
+      </c>
+      <c r="X137">
+        <v>2.25</v>
+      </c>
+      <c r="Y137">
+        <v>-1</v>
+      </c>
+      <c r="Z137">
+        <v>0</v>
+      </c>
+      <c r="AA137">
+        <v>-0</v>
+      </c>
+      <c r="AB137">
         <v>1</v>
       </c>
-      <c r="J137" t="s">
-        <v>53</v>
-      </c>
-      <c r="K137">
-        <v>1.444</v>
-      </c>
-      <c r="L137">
-        <v>4</v>
-      </c>
-      <c r="M137">
-        <v>6.5</v>
-      </c>
-      <c r="N137">
-        <v>1.333</v>
-      </c>
-      <c r="O137">
-        <v>4.333</v>
-      </c>
-      <c r="P137">
-        <v>8</v>
-      </c>
-      <c r="Q137">
-        <v>-1.5</v>
-      </c>
-      <c r="R137">
-        <v>1.95</v>
-      </c>
-      <c r="S137">
-        <v>1.85</v>
-      </c>
-      <c r="T137">
-        <v>2.75</v>
-      </c>
-      <c r="U137">
-        <v>1.875</v>
-      </c>
-      <c r="V137">
-        <v>1.925</v>
-      </c>
-      <c r="W137">
-        <v>0.333</v>
-      </c>
-      <c r="X137">
-        <v>-1</v>
-      </c>
-      <c r="Y137">
-        <v>-1</v>
-      </c>
-      <c r="Z137">
-        <v>-1</v>
-      </c>
-      <c r="AA137">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB137">
-        <v>0.4375</v>
-      </c>
       <c r="AC137">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12744,7 +12744,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>5451609</v>
+        <v>5448048</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12756,76 +12756,76 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F138" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G138" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H138">
         <v>1</v>
       </c>
       <c r="I138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K138">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="L138">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M138">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="N138">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="O138">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P138">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="Q138">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R138">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S138">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T138">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U138">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V138">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W138">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X138">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y138">
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA138">
-        <v>0.8</v>
+        <v>0.4625</v>
       </c>
       <c r="AB138">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC138">
-        <v>0.9750000000000001</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12833,7 +12833,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>5451608</v>
+        <v>5448049</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12845,58 +12845,58 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F139" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G139" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" t="s">
         <v>53</v>
       </c>
       <c r="K139">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L139">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M139">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N139">
-        <v>1.909</v>
+        <v>1.444</v>
       </c>
       <c r="O139">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P139">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="Q139">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R139">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S139">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T139">
         <v>2.75</v>
       </c>
       <c r="U139">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V139">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W139">
-        <v>0.909</v>
+        <v>0.444</v>
       </c>
       <c r="X139">
         <v>-1</v>
@@ -12905,16 +12905,16 @@
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB139">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC139">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -13011,7 +13011,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>5448049</v>
+        <v>5451608</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13023,58 +13023,58 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F141" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G141" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H141">
+        <v>2</v>
+      </c>
+      <c r="I141">
         <v>1</v>
-      </c>
-      <c r="I141">
-        <v>0</v>
       </c>
       <c r="J141" t="s">
         <v>53</v>
       </c>
       <c r="K141">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L141">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M141">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N141">
-        <v>1.444</v>
+        <v>1.909</v>
       </c>
       <c r="O141">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P141">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="Q141">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R141">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S141">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T141">
         <v>2.75</v>
       </c>
       <c r="U141">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V141">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W141">
-        <v>0.444</v>
+        <v>0.909</v>
       </c>
       <c r="X141">
         <v>-1</v>
@@ -13083,16 +13083,16 @@
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA141">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB141">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC141">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13100,7 +13100,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>5448048</v>
+        <v>5451609</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13112,76 +13112,76 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F142" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G142" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H142">
         <v>1</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K142">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="L142">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M142">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="N142">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="O142">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P142">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="Q142">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R142">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S142">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T142">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U142">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V142">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X142">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
       <c r="AB142">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC142">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13189,7 +13189,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>5447925</v>
+        <v>5451610</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13201,76 +13201,76 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F143" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G143" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K143">
-        <v>5.5</v>
+        <v>1.444</v>
       </c>
       <c r="L143">
         <v>4</v>
       </c>
       <c r="M143">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="N143">
-        <v>4.5</v>
+        <v>1.333</v>
       </c>
       <c r="O143">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P143">
-        <v>1.615</v>
+        <v>8</v>
       </c>
       <c r="Q143">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R143">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S143">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T143">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U143">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V143">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W143">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
         <v>-1</v>
       </c>
       <c r="AA143">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB143">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="AC143">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13278,7 +13278,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>5448050</v>
+        <v>5447925</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13290,49 +13290,49 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F144" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G144" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H144">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I144">
         <v>3</v>
       </c>
       <c r="J144" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K144">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="L144">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M144">
-        <v>2.375</v>
+        <v>1.5</v>
       </c>
       <c r="N144">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="O144">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P144">
-        <v>2.7</v>
+        <v>1.615</v>
       </c>
       <c r="Q144">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R144">
+        <v>2.05</v>
+      </c>
+      <c r="S144">
         <v>1.8</v>
       </c>
-      <c r="S144">
-        <v>2.05</v>
-      </c>
       <c r="T144">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U144">
         <v>2</v>
@@ -13344,22 +13344,22 @@
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z144">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
+        <v>0.8</v>
+      </c>
+      <c r="AB144">
+        <v>0</v>
+      </c>
+      <c r="AC144">
         <v>-0</v>
-      </c>
-      <c r="AB144">
-        <v>1</v>
-      </c>
-      <c r="AC144">
-        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -19063,7 +19063,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6805719</v>
+        <v>6803727</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19075,58 +19075,58 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F209" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G209" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H209">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I209">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J209" t="s">
         <v>53</v>
       </c>
       <c r="K209">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="L209">
         <v>3.3</v>
       </c>
       <c r="M209">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="N209">
-        <v>2.05</v>
+        <v>3.75</v>
       </c>
       <c r="O209">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P209">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="Q209">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R209">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S209">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T209">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U209">
+        <v>1.925</v>
+      </c>
+      <c r="V209">
         <v>1.875</v>
       </c>
-      <c r="V209">
-        <v>1.975</v>
-      </c>
       <c r="W209">
-        <v>1.05</v>
+        <v>2.75</v>
       </c>
       <c r="X209">
         <v>-1</v>
@@ -19135,16 +19135,16 @@
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA209">
         <v>-1</v>
       </c>
       <c r="AB209">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AC209">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19152,7 +19152,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6803727</v>
+        <v>6805719</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19164,58 +19164,58 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F210" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G210" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H210">
+        <v>3</v>
+      </c>
+      <c r="I210">
         <v>2</v>
-      </c>
-      <c r="I210">
-        <v>1</v>
       </c>
       <c r="J210" t="s">
         <v>53</v>
       </c>
       <c r="K210">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="L210">
         <v>3.3</v>
       </c>
       <c r="M210">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="N210">
-        <v>3.75</v>
+        <v>2.05</v>
       </c>
       <c r="O210">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P210">
+        <v>3.2</v>
+      </c>
+      <c r="Q210">
+        <v>-0.25</v>
+      </c>
+      <c r="R210">
         <v>1.85</v>
       </c>
-      <c r="Q210">
-        <v>0.5</v>
-      </c>
-      <c r="R210">
-        <v>1.925</v>
-      </c>
       <c r="S210">
+        <v>2</v>
+      </c>
+      <c r="T210">
+        <v>2.5</v>
+      </c>
+      <c r="U210">
         <v>1.875</v>
       </c>
-      <c r="T210">
-        <v>2.75</v>
-      </c>
-      <c r="U210">
-        <v>1.925</v>
-      </c>
       <c r="V210">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W210">
-        <v>2.75</v>
+        <v>1.05</v>
       </c>
       <c r="X210">
         <v>-1</v>
@@ -19224,16 +19224,16 @@
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA210">
         <v>-1</v>
       </c>
       <c r="AB210">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AC210">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -20042,7 +20042,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6803740</v>
+        <v>6803738</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20054,19 +20054,19 @@
         <v>45191.54166666666</v>
       </c>
       <c r="F220" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G220" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H220">
         <v>1</v>
       </c>
       <c r="I220">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J220" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K220">
         <v>1.85</v>
@@ -20075,55 +20075,55 @@
         <v>3.5</v>
       </c>
       <c r="M220">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="N220">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="O220">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P220">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q220">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R220">
+        <v>1.825</v>
+      </c>
+      <c r="S220">
         <v>1.975</v>
       </c>
-      <c r="S220">
+      <c r="T220">
+        <v>2.5</v>
+      </c>
+      <c r="U220">
         <v>1.825</v>
       </c>
-      <c r="T220">
-        <v>2.25</v>
-      </c>
-      <c r="U220">
-        <v>1.9</v>
-      </c>
       <c r="V220">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W220">
         <v>-1</v>
       </c>
       <c r="X220">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y220">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z220">
         <v>-1</v>
       </c>
       <c r="AA220">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB220">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC220">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20131,7 +20131,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6803738</v>
+        <v>6803740</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20143,19 +20143,19 @@
         <v>45191.54166666666</v>
       </c>
       <c r="F221" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G221" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H221">
         <v>1</v>
       </c>
       <c r="I221">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J221" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K221">
         <v>1.85</v>
@@ -20164,55 +20164,55 @@
         <v>3.5</v>
       </c>
       <c r="M221">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="N221">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="O221">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P221">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q221">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R221">
+        <v>1.975</v>
+      </c>
+      <c r="S221">
         <v>1.825</v>
       </c>
-      <c r="S221">
-        <v>1.975</v>
-      </c>
       <c r="T221">
+        <v>2.25</v>
+      </c>
+      <c r="U221">
+        <v>1.9</v>
+      </c>
+      <c r="V221">
+        <v>1.9</v>
+      </c>
+      <c r="W221">
+        <v>-1</v>
+      </c>
+      <c r="X221">
+        <v>-1</v>
+      </c>
+      <c r="Y221">
         <v>2.5</v>
       </c>
-      <c r="U221">
-        <v>1.825</v>
-      </c>
-      <c r="V221">
-        <v>1.975</v>
-      </c>
-      <c r="W221">
-        <v>-1</v>
-      </c>
-      <c r="X221">
-        <v>2.8</v>
-      </c>
-      <c r="Y221">
-        <v>-1</v>
-      </c>
       <c r="Z221">
         <v>-1</v>
       </c>
       <c r="AA221">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB221">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC221">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -23157,7 +23157,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>6803761</v>
+        <v>6805700</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23169,76 +23169,76 @@
         <v>45226.54166666666</v>
       </c>
       <c r="F255" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G255" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H255">
+        <v>0</v>
+      </c>
+      <c r="I255">
         <v>2</v>
       </c>
-      <c r="I255">
-        <v>1</v>
-      </c>
       <c r="J255" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K255">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="L255">
+        <v>3.75</v>
+      </c>
+      <c r="M255">
+        <v>4.2</v>
+      </c>
+      <c r="N255">
+        <v>1.75</v>
+      </c>
+      <c r="O255">
+        <v>3.6</v>
+      </c>
+      <c r="P255">
         <v>4</v>
       </c>
-      <c r="M255">
-        <v>5.25</v>
-      </c>
-      <c r="N255">
-        <v>1.5</v>
-      </c>
-      <c r="O255">
-        <v>4</v>
-      </c>
-      <c r="P255">
-        <v>5.5</v>
-      </c>
       <c r="Q255">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R255">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S255">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T255">
         <v>2.75</v>
       </c>
       <c r="U255">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V255">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W255">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X255">
         <v>-1</v>
       </c>
       <c r="Y255">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z255">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA255">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB255">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC255">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="256" spans="1:29">
@@ -23246,7 +23246,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>6805700</v>
+        <v>6803761</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23258,76 +23258,76 @@
         <v>45226.54166666666</v>
       </c>
       <c r="F256" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G256" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J256" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K256">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="L256">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M256">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="N256">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="O256">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P256">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="Q256">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R256">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S256">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T256">
         <v>2.75</v>
       </c>
       <c r="U256">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V256">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W256">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X256">
         <v>-1</v>
       </c>
       <c r="Y256">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z256">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA256">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB256">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC256">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="257" spans="1:29">
@@ -27340,7 +27340,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>6803794</v>
+        <v>6803793</v>
       </c>
       <c r="C302" t="s">
         <v>28</v>
@@ -27352,76 +27352,76 @@
         <v>45270.36111111111</v>
       </c>
       <c r="F302" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G302" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H302">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I302">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J302" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K302">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="L302">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M302">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="N302">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="O302">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P302">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q302">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R302">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S302">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T302">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U302">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V302">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W302">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X302">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y302">
         <v>-1</v>
       </c>
       <c r="Z302">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA302">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB302">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC302">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="303" spans="1:29">
@@ -27429,7 +27429,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>6803793</v>
+        <v>6803794</v>
       </c>
       <c r="C303" t="s">
         <v>28</v>
@@ -27441,76 +27441,76 @@
         <v>45270.36111111111</v>
       </c>
       <c r="F303" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G303" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I303">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J303" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K303">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="L303">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M303">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="N303">
-        <v>2.1</v>
+        <v>1.363</v>
       </c>
       <c r="O303">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P303">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="Q303">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R303">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S303">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T303">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U303">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V303">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W303">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X303">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y303">
         <v>-1</v>
       </c>
       <c r="Z303">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA303">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB303">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC303">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="304" spans="1:29">
@@ -29515,19 +29515,19 @@
         <v>-0.75</v>
       </c>
       <c r="R326">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S326">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T326">
         <v>2.25</v>
       </c>
       <c r="U326">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V326">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W326">
         <v>0</v>
@@ -29577,31 +29577,31 @@
         <v>4.5</v>
       </c>
       <c r="N327">
-        <v>1.7</v>
+        <v>1.615</v>
       </c>
       <c r="O327">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P327">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q327">
         <v>-0.75</v>
       </c>
       <c r="R327">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S327">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T327">
         <v>2.75</v>
       </c>
       <c r="U327">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V327">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W327">
         <v>0</v>
@@ -29651,22 +29651,22 @@
         <v>2.75</v>
       </c>
       <c r="N328">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="O328">
         <v>3.2</v>
       </c>
       <c r="P328">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q328">
         <v>0</v>
       </c>
       <c r="R328">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S328">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T328">
         <v>2.25</v>
@@ -29799,22 +29799,22 @@
         <v>2.75</v>
       </c>
       <c r="N330">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O330">
         <v>3.2</v>
       </c>
       <c r="P330">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="Q330">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R330">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="S330">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T330">
         <v>2.5</v>
@@ -29947,22 +29947,22 @@
         <v>2.3</v>
       </c>
       <c r="N332">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="O332">
         <v>3.1</v>
       </c>
       <c r="P332">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="Q332">
         <v>0.25</v>
       </c>
       <c r="R332">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S332">
-        <v>2.125</v>
+        <v>2.025</v>
       </c>
       <c r="T332">
         <v>2.25</v>
@@ -30107,19 +30107,19 @@
         <v>0</v>
       </c>
       <c r="R334">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S334">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T334">
         <v>2.25</v>
       </c>
       <c r="U334">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V334">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W334">
         <v>0</v>

--- a/Poland I Liga/Poland I Liga.xlsx
+++ b/Poland I Liga/Poland I Liga.xlsx
@@ -5001,7 +5001,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5139053</v>
+        <v>5139054</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5013,76 +5013,76 @@
         <v>45004.58333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G51" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K51">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="L51">
         <v>3.2</v>
       </c>
       <c r="M51">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="N51">
-        <v>2.7</v>
+        <v>2.375</v>
       </c>
       <c r="O51">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P51">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R51">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S51">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="T51">
         <v>2.25</v>
       </c>
       <c r="U51">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V51">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z51">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC51">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5090,7 +5090,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>5139054</v>
+        <v>5140743</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5102,73 +5102,73 @@
         <v>45004.58333333334</v>
       </c>
       <c r="F52" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G52" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H52">
         <v>2</v>
       </c>
       <c r="I52">
+        <v>2</v>
+      </c>
+      <c r="J52" t="s">
+        <v>55</v>
+      </c>
+      <c r="K52">
         <v>3</v>
       </c>
-      <c r="J52" t="s">
-        <v>54</v>
-      </c>
-      <c r="K52">
-        <v>2.15</v>
-      </c>
       <c r="L52">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M52">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="N52">
-        <v>2.375</v>
+        <v>2.9</v>
       </c>
       <c r="O52">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P52">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Q52">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R52">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S52">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T52">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U52">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V52">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W52">
         <v>-1</v>
       </c>
       <c r="X52">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y52">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA52">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB52">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC52">
         <v>-1</v>
@@ -5179,7 +5179,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>5140743</v>
+        <v>5139056</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5191,52 +5191,52 @@
         <v>45004.58333333334</v>
       </c>
       <c r="F53" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G53" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J53" t="s">
         <v>55</v>
       </c>
       <c r="K53">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="L53">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M53">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="N53">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="O53">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P53">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="Q53">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R53">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S53">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T53">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U53">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V53">
         <v>1.85</v>
@@ -5245,22 +5245,22 @@
         <v>-1</v>
       </c>
       <c r="X53">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Y53">
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA53">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB53">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5268,7 +5268,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>5139056</v>
+        <v>5139053</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5280,76 +5280,76 @@
         <v>45004.58333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G54" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="s">
         <v>55</v>
       </c>
       <c r="K54">
-        <v>3.75</v>
+        <v>2.45</v>
       </c>
       <c r="L54">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M54">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="N54">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="O54">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P54">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="Q54">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R54">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S54">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T54">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U54">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V54">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="Y54">
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA54">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB54">
         <v>-1</v>
       </c>
       <c r="AC54">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -6158,7 +6158,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>5139063</v>
+        <v>5138224</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6170,10 +6170,10 @@
         <v>45022.54166666666</v>
       </c>
       <c r="F64" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G64" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6185,61 +6185,61 @@
         <v>55</v>
       </c>
       <c r="K64">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="L64">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M64">
-        <v>2.875</v>
+        <v>1.75</v>
       </c>
       <c r="N64">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="O64">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P64">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="Q64">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R64">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S64">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T64">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U64">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V64">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W64">
         <v>-1</v>
       </c>
       <c r="X64">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA64">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
         <v>-1</v>
       </c>
       <c r="AC64">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6247,7 +6247,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>5138224</v>
+        <v>5139063</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6259,10 +6259,10 @@
         <v>45022.54166666666</v>
       </c>
       <c r="F65" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G65" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -6274,61 +6274,61 @@
         <v>55</v>
       </c>
       <c r="K65">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="L65">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M65">
+        <v>2.875</v>
+      </c>
+      <c r="N65">
+        <v>2.7</v>
+      </c>
+      <c r="O65">
+        <v>3.1</v>
+      </c>
+      <c r="P65">
+        <v>2.375</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>2.05</v>
+      </c>
+      <c r="S65">
         <v>1.75</v>
       </c>
-      <c r="N65">
-        <v>4</v>
-      </c>
-      <c r="O65">
-        <v>3.4</v>
-      </c>
-      <c r="P65">
-        <v>1.8</v>
-      </c>
-      <c r="Q65">
-        <v>0.5</v>
-      </c>
-      <c r="R65">
-        <v>1.975</v>
-      </c>
-      <c r="S65">
-        <v>1.825</v>
-      </c>
       <c r="T65">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U65">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V65">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W65">
         <v>-1</v>
       </c>
       <c r="X65">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="Y65">
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB65">
         <v>-1</v>
       </c>
       <c r="AC65">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -12566,7 +12566,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>5452381</v>
+        <v>5451609</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12578,76 +12578,76 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F136" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G136" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K136">
-        <v>1.571</v>
+        <v>1.3</v>
       </c>
       <c r="L136">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M136">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="N136">
-        <v>1.4</v>
+        <v>1.333</v>
       </c>
       <c r="O136">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P136">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="Q136">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R136">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S136">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T136">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U136">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V136">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
         <v>-1</v>
       </c>
       <c r="AA136">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB136">
         <v>-1</v>
       </c>
       <c r="AC136">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12655,7 +12655,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>5448050</v>
+        <v>5451608</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12667,76 +12667,76 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F137" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G137" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H137">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I137">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K137">
+        <v>1.909</v>
+      </c>
+      <c r="L137">
+        <v>3.5</v>
+      </c>
+      <c r="M137">
+        <v>3.5</v>
+      </c>
+      <c r="N137">
+        <v>1.909</v>
+      </c>
+      <c r="O137">
+        <v>3.5</v>
+      </c>
+      <c r="P137">
+        <v>3.6</v>
+      </c>
+      <c r="Q137">
+        <v>-0.5</v>
+      </c>
+      <c r="R137">
+        <v>1.95</v>
+      </c>
+      <c r="S137">
+        <v>1.85</v>
+      </c>
+      <c r="T137">
         <v>2.75</v>
       </c>
-      <c r="L137">
-        <v>3.25</v>
-      </c>
-      <c r="M137">
-        <v>2.375</v>
-      </c>
-      <c r="N137">
-        <v>2.4</v>
-      </c>
-      <c r="O137">
-        <v>3.25</v>
-      </c>
-      <c r="P137">
-        <v>2.7</v>
-      </c>
-      <c r="Q137">
-        <v>0</v>
-      </c>
-      <c r="R137">
+      <c r="U137">
         <v>1.8</v>
       </c>
-      <c r="S137">
-        <v>2.05</v>
-      </c>
-      <c r="T137">
-        <v>2.5</v>
-      </c>
-      <c r="U137">
+      <c r="V137">
         <v>2</v>
       </c>
-      <c r="V137">
-        <v>1.85</v>
-      </c>
       <c r="W137">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X137">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y137">
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA137">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB137">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AC137">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12744,7 +12744,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>5448048</v>
+        <v>5451610</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12756,76 +12756,76 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F138" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G138" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I138">
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K138">
-        <v>2.1</v>
+        <v>1.444</v>
       </c>
       <c r="L138">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M138">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="N138">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="O138">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="P138">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="Q138">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R138">
+        <v>1.95</v>
+      </c>
+      <c r="S138">
+        <v>1.85</v>
+      </c>
+      <c r="T138">
+        <v>2.75</v>
+      </c>
+      <c r="U138">
         <v>1.875</v>
       </c>
-      <c r="S138">
+      <c r="V138">
         <v>1.925</v>
       </c>
-      <c r="T138">
-        <v>2.25</v>
-      </c>
-      <c r="U138">
-        <v>1.85</v>
-      </c>
-      <c r="V138">
-        <v>1.95</v>
-      </c>
       <c r="W138">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X138">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
         <v>-1</v>
       </c>
       <c r="Z138">
+        <v>-1</v>
+      </c>
+      <c r="AA138">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB138">
+        <v>0.4375</v>
+      </c>
+      <c r="AC138">
         <v>-0.5</v>
-      </c>
-      <c r="AA138">
-        <v>0.4625</v>
-      </c>
-      <c r="AB138">
-        <v>-0.5</v>
-      </c>
-      <c r="AC138">
-        <v>0.475</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12833,7 +12833,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>5448049</v>
+        <v>5452381</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12845,76 +12845,76 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F139" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G139" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
         <v>1</v>
       </c>
-      <c r="I139">
-        <v>0</v>
-      </c>
       <c r="J139" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K139">
         <v>1.571</v>
       </c>
       <c r="L139">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M139">
         <v>5</v>
       </c>
       <c r="N139">
-        <v>1.444</v>
+        <v>1.4</v>
       </c>
       <c r="O139">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P139">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q139">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R139">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S139">
+        <v>1.95</v>
+      </c>
+      <c r="T139">
+        <v>3</v>
+      </c>
+      <c r="U139">
         <v>2.025</v>
       </c>
-      <c r="T139">
-        <v>2.75</v>
-      </c>
-      <c r="U139">
-        <v>1.9</v>
-      </c>
       <c r="V139">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W139">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z139">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB139">
         <v>-1</v>
       </c>
       <c r="AC139">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12922,7 +12922,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>5451607</v>
+        <v>5448048</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12934,61 +12934,61 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F140" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G140" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H140">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I140">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K140">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="L140">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M140">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="N140">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="O140">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P140">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="Q140">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R140">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S140">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T140">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U140">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V140">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W140">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X140">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y140">
         <v>-1</v>
@@ -12997,13 +12997,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA140">
-        <v>0.4875</v>
+        <v>0.4625</v>
       </c>
       <c r="AB140">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC140">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13011,7 +13011,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>5451608</v>
+        <v>5447925</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13023,76 +13023,76 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F141" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G141" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>3</v>
+      </c>
+      <c r="J141" t="s">
+        <v>54</v>
+      </c>
+      <c r="K141">
+        <v>5.5</v>
+      </c>
+      <c r="L141">
+        <v>4</v>
+      </c>
+      <c r="M141">
+        <v>1.5</v>
+      </c>
+      <c r="N141">
+        <v>4.5</v>
+      </c>
+      <c r="O141">
+        <v>4</v>
+      </c>
+      <c r="P141">
+        <v>1.615</v>
+      </c>
+      <c r="Q141">
+        <v>0.75</v>
+      </c>
+      <c r="R141">
+        <v>2.05</v>
+      </c>
+      <c r="S141">
+        <v>1.8</v>
+      </c>
+      <c r="T141">
+        <v>3</v>
+      </c>
+      <c r="U141">
         <v>2</v>
       </c>
-      <c r="I141">
-        <v>1</v>
-      </c>
-      <c r="J141" t="s">
-        <v>53</v>
-      </c>
-      <c r="K141">
-        <v>1.909</v>
-      </c>
-      <c r="L141">
-        <v>3.5</v>
-      </c>
-      <c r="M141">
-        <v>3.5</v>
-      </c>
-      <c r="N141">
-        <v>1.909</v>
-      </c>
-      <c r="O141">
-        <v>3.5</v>
-      </c>
-      <c r="P141">
-        <v>3.6</v>
-      </c>
-      <c r="Q141">
-        <v>-0.5</v>
-      </c>
-      <c r="R141">
-        <v>1.95</v>
-      </c>
-      <c r="S141">
+      <c r="V141">
         <v>1.85</v>
       </c>
-      <c r="T141">
-        <v>2.75</v>
-      </c>
-      <c r="U141">
-        <v>1.8</v>
-      </c>
-      <c r="V141">
-        <v>2</v>
-      </c>
       <c r="W141">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z141">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB141">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AC141">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13100,7 +13100,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>5451609</v>
+        <v>5448049</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13112,10 +13112,10 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F142" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G142" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -13127,43 +13127,43 @@
         <v>53</v>
       </c>
       <c r="K142">
-        <v>1.3</v>
+        <v>1.571</v>
       </c>
       <c r="L142">
+        <v>3.75</v>
+      </c>
+      <c r="M142">
         <v>5</v>
       </c>
-      <c r="M142">
-        <v>7.5</v>
-      </c>
       <c r="N142">
-        <v>1.333</v>
+        <v>1.444</v>
       </c>
       <c r="O142">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P142">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q142">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R142">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S142">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T142">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U142">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V142">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W142">
-        <v>0.333</v>
+        <v>0.444</v>
       </c>
       <c r="X142">
         <v>-1</v>
@@ -13172,16 +13172,16 @@
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA142">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB142">
         <v>-1</v>
       </c>
       <c r="AC142">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13189,7 +13189,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>5451610</v>
+        <v>5448050</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13201,76 +13201,76 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F143" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G143" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H143">
+        <v>3</v>
+      </c>
+      <c r="I143">
+        <v>3</v>
+      </c>
+      <c r="J143" t="s">
+        <v>55</v>
+      </c>
+      <c r="K143">
+        <v>2.75</v>
+      </c>
+      <c r="L143">
+        <v>3.25</v>
+      </c>
+      <c r="M143">
+        <v>2.375</v>
+      </c>
+      <c r="N143">
+        <v>2.4</v>
+      </c>
+      <c r="O143">
+        <v>3.25</v>
+      </c>
+      <c r="P143">
+        <v>2.7</v>
+      </c>
+      <c r="Q143">
+        <v>0</v>
+      </c>
+      <c r="R143">
+        <v>1.8</v>
+      </c>
+      <c r="S143">
+        <v>2.05</v>
+      </c>
+      <c r="T143">
+        <v>2.5</v>
+      </c>
+      <c r="U143">
         <v>2</v>
       </c>
-      <c r="I143">
+      <c r="V143">
+        <v>1.85</v>
+      </c>
+      <c r="W143">
+        <v>-1</v>
+      </c>
+      <c r="X143">
+        <v>2.25</v>
+      </c>
+      <c r="Y143">
+        <v>-1</v>
+      </c>
+      <c r="Z143">
+        <v>0</v>
+      </c>
+      <c r="AA143">
+        <v>-0</v>
+      </c>
+      <c r="AB143">
         <v>1</v>
       </c>
-      <c r="J143" t="s">
-        <v>53</v>
-      </c>
-      <c r="K143">
-        <v>1.444</v>
-      </c>
-      <c r="L143">
-        <v>4</v>
-      </c>
-      <c r="M143">
-        <v>6.5</v>
-      </c>
-      <c r="N143">
-        <v>1.333</v>
-      </c>
-      <c r="O143">
-        <v>4.333</v>
-      </c>
-      <c r="P143">
-        <v>8</v>
-      </c>
-      <c r="Q143">
-        <v>-1.5</v>
-      </c>
-      <c r="R143">
-        <v>1.95</v>
-      </c>
-      <c r="S143">
-        <v>1.85</v>
-      </c>
-      <c r="T143">
-        <v>2.75</v>
-      </c>
-      <c r="U143">
-        <v>1.875</v>
-      </c>
-      <c r="V143">
-        <v>1.925</v>
-      </c>
-      <c r="W143">
-        <v>0.333</v>
-      </c>
-      <c r="X143">
-        <v>-1</v>
-      </c>
-      <c r="Y143">
-        <v>-1</v>
-      </c>
-      <c r="Z143">
-        <v>-1</v>
-      </c>
-      <c r="AA143">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB143">
-        <v>0.4375</v>
-      </c>
       <c r="AC143">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13278,7 +13278,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>5447925</v>
+        <v>5451607</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13290,76 +13290,76 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F144" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G144" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I144">
         <v>3</v>
       </c>
       <c r="J144" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K144">
-        <v>5.5</v>
+        <v>1.615</v>
       </c>
       <c r="L144">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M144">
-        <v>1.5</v>
+        <v>4.75</v>
       </c>
       <c r="N144">
-        <v>4.5</v>
+        <v>1.363</v>
       </c>
       <c r="O144">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P144">
-        <v>1.615</v>
+        <v>6</v>
       </c>
       <c r="Q144">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R144">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S144">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T144">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U144">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V144">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W144">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA144">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AB144">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC144">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -19063,7 +19063,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6803727</v>
+        <v>6805719</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19075,58 +19075,58 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F209" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G209" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H209">
+        <v>3</v>
+      </c>
+      <c r="I209">
         <v>2</v>
-      </c>
-      <c r="I209">
-        <v>1</v>
       </c>
       <c r="J209" t="s">
         <v>53</v>
       </c>
       <c r="K209">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="L209">
         <v>3.3</v>
       </c>
       <c r="M209">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="N209">
-        <v>3.75</v>
+        <v>2.05</v>
       </c>
       <c r="O209">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P209">
+        <v>3.2</v>
+      </c>
+      <c r="Q209">
+        <v>-0.25</v>
+      </c>
+      <c r="R209">
         <v>1.85</v>
       </c>
-      <c r="Q209">
-        <v>0.5</v>
-      </c>
-      <c r="R209">
-        <v>1.925</v>
-      </c>
       <c r="S209">
+        <v>2</v>
+      </c>
+      <c r="T209">
+        <v>2.5</v>
+      </c>
+      <c r="U209">
         <v>1.875</v>
       </c>
-      <c r="T209">
-        <v>2.75</v>
-      </c>
-      <c r="U209">
-        <v>1.925</v>
-      </c>
       <c r="V209">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W209">
-        <v>2.75</v>
+        <v>1.05</v>
       </c>
       <c r="X209">
         <v>-1</v>
@@ -19135,16 +19135,16 @@
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA209">
         <v>-1</v>
       </c>
       <c r="AB209">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AC209">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19152,7 +19152,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6805719</v>
+        <v>6803727</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19164,58 +19164,58 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F210" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G210" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H210">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I210">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J210" t="s">
         <v>53</v>
       </c>
       <c r="K210">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="L210">
         <v>3.3</v>
       </c>
       <c r="M210">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="N210">
-        <v>2.05</v>
+        <v>3.75</v>
       </c>
       <c r="O210">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P210">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="Q210">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R210">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S210">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T210">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U210">
+        <v>1.925</v>
+      </c>
+      <c r="V210">
         <v>1.875</v>
       </c>
-      <c r="V210">
-        <v>1.975</v>
-      </c>
       <c r="W210">
-        <v>1.05</v>
+        <v>2.75</v>
       </c>
       <c r="X210">
         <v>-1</v>
@@ -19224,16 +19224,16 @@
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA210">
         <v>-1</v>
       </c>
       <c r="AB210">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AC210">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -22267,7 +22267,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>6803754</v>
+        <v>6805706</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22279,76 +22279,76 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F245" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G245" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="H245">
         <v>0</v>
       </c>
       <c r="I245">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J245" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K245">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L245">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M245">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="N245">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="O245">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P245">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="Q245">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R245">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S245">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T245">
         <v>2.5</v>
       </c>
       <c r="U245">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V245">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W245">
         <v>-1</v>
       </c>
       <c r="X245">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y245">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z245">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA245">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB245">
         <v>-1</v>
       </c>
       <c r="AC245">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:29">
@@ -22356,7 +22356,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>6805706</v>
+        <v>6803754</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22368,76 +22368,76 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F246" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G246" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H246">
         <v>0</v>
       </c>
       <c r="I246">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J246" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K246">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L246">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M246">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="N246">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="O246">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P246">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="Q246">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R246">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S246">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T246">
         <v>2.5</v>
       </c>
       <c r="U246">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V246">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W246">
         <v>-1</v>
       </c>
       <c r="X246">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y246">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z246">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA246">
+        <v>-0</v>
+      </c>
+      <c r="AB246">
+        <v>-1</v>
+      </c>
+      <c r="AC246">
         <v>0.95</v>
-      </c>
-      <c r="AB246">
-        <v>-1</v>
-      </c>
-      <c r="AC246">
-        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:29">
@@ -23157,7 +23157,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>6805700</v>
+        <v>6803761</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23169,76 +23169,76 @@
         <v>45226.54166666666</v>
       </c>
       <c r="F255" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G255" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J255" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K255">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="L255">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M255">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="N255">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="O255">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P255">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="Q255">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R255">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S255">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T255">
         <v>2.75</v>
       </c>
       <c r="U255">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V255">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W255">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X255">
         <v>-1</v>
       </c>
       <c r="Y255">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z255">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA255">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB255">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC255">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="256" spans="1:29">
@@ -23246,7 +23246,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>6803761</v>
+        <v>6805700</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23258,76 +23258,76 @@
         <v>45226.54166666666</v>
       </c>
       <c r="F256" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G256" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H256">
+        <v>0</v>
+      </c>
+      <c r="I256">
         <v>2</v>
       </c>
-      <c r="I256">
-        <v>1</v>
-      </c>
       <c r="J256" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K256">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="L256">
+        <v>3.75</v>
+      </c>
+      <c r="M256">
+        <v>4.2</v>
+      </c>
+      <c r="N256">
+        <v>1.75</v>
+      </c>
+      <c r="O256">
+        <v>3.6</v>
+      </c>
+      <c r="P256">
         <v>4</v>
       </c>
-      <c r="M256">
-        <v>5.25</v>
-      </c>
-      <c r="N256">
-        <v>1.5</v>
-      </c>
-      <c r="O256">
-        <v>4</v>
-      </c>
-      <c r="P256">
-        <v>5.5</v>
-      </c>
       <c r="Q256">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R256">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S256">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T256">
         <v>2.75</v>
       </c>
       <c r="U256">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V256">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W256">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X256">
         <v>-1</v>
       </c>
       <c r="Y256">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z256">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA256">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB256">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC256">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="257" spans="1:29">
@@ -27340,7 +27340,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>6803793</v>
+        <v>6803794</v>
       </c>
       <c r="C302" t="s">
         <v>28</v>
@@ -27352,76 +27352,76 @@
         <v>45270.36111111111</v>
       </c>
       <c r="F302" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G302" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I302">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J302" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K302">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="L302">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M302">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="N302">
-        <v>2.1</v>
+        <v>1.363</v>
       </c>
       <c r="O302">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P302">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="Q302">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R302">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S302">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T302">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U302">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V302">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W302">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X302">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y302">
         <v>-1</v>
       </c>
       <c r="Z302">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA302">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB302">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC302">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="303" spans="1:29">
@@ -27429,7 +27429,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>6803794</v>
+        <v>6803793</v>
       </c>
       <c r="C303" t="s">
         <v>28</v>
@@ -27441,76 +27441,76 @@
         <v>45270.36111111111</v>
       </c>
       <c r="F303" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G303" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H303">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I303">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J303" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K303">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="L303">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M303">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="N303">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="O303">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P303">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q303">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R303">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S303">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T303">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U303">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V303">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W303">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X303">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y303">
         <v>-1</v>
       </c>
       <c r="Z303">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA303">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB303">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC303">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="304" spans="1:29">
@@ -29503,31 +29503,31 @@
         <v>5</v>
       </c>
       <c r="N326">
-        <v>1.666</v>
+        <v>1.65</v>
       </c>
       <c r="O326">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P326">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Q326">
         <v>-0.75</v>
       </c>
       <c r="R326">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S326">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T326">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U326">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V326">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W326">
         <v>0</v>
@@ -29598,10 +29598,10 @@
         <v>2.75</v>
       </c>
       <c r="U327">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V327">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W327">
         <v>0</v>
@@ -29811,19 +29811,19 @@
         <v>-0.25</v>
       </c>
       <c r="R330">
-        <v>2.1</v>
+        <v>2.125</v>
       </c>
       <c r="S330">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="T330">
         <v>2.5</v>
       </c>
       <c r="U330">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V330">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W330">
         <v>0</v>

--- a/Poland I Liga/Poland I Liga.xlsx
+++ b/Poland I Liga/Poland I Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1684" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -5001,7 +5001,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5139054</v>
+        <v>5139056</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5013,76 +5013,76 @@
         <v>45004.58333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G51" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51" t="s">
+        <v>55</v>
+      </c>
+      <c r="K51">
+        <v>3.75</v>
+      </c>
+      <c r="L51">
+        <v>3.5</v>
+      </c>
+      <c r="M51">
+        <v>1.85</v>
+      </c>
+      <c r="N51">
+        <v>3.4</v>
+      </c>
+      <c r="O51">
+        <v>3.5</v>
+      </c>
+      <c r="P51">
+        <v>1.909</v>
+      </c>
+      <c r="Q51">
+        <v>0.5</v>
+      </c>
+      <c r="R51">
+        <v>1.85</v>
+      </c>
+      <c r="S51">
         <v>2</v>
       </c>
-      <c r="I51">
-        <v>3</v>
-      </c>
-      <c r="J51" t="s">
-        <v>54</v>
-      </c>
-      <c r="K51">
-        <v>2.15</v>
-      </c>
-      <c r="L51">
-        <v>3.2</v>
-      </c>
-      <c r="M51">
-        <v>3.1</v>
-      </c>
-      <c r="N51">
-        <v>2.375</v>
-      </c>
-      <c r="O51">
-        <v>3</v>
-      </c>
-      <c r="P51">
-        <v>3</v>
-      </c>
-      <c r="Q51">
-        <v>-0.25</v>
-      </c>
-      <c r="R51">
-        <v>2.025</v>
-      </c>
-      <c r="S51">
-        <v>1.775</v>
-      </c>
       <c r="T51">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U51">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V51">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y51">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA51">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5090,7 +5090,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>5140743</v>
+        <v>5139053</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5102,76 +5102,76 @@
         <v>45004.58333333334</v>
       </c>
       <c r="F52" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G52" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
         <v>55</v>
       </c>
       <c r="K52">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="L52">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M52">
+        <v>2.55</v>
+      </c>
+      <c r="N52">
+        <v>2.7</v>
+      </c>
+      <c r="O52">
+        <v>3.2</v>
+      </c>
+      <c r="P52">
+        <v>2.375</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>2.05</v>
+      </c>
+      <c r="S52">
+        <v>1.75</v>
+      </c>
+      <c r="T52">
+        <v>2.25</v>
+      </c>
+      <c r="U52">
+        <v>1.875</v>
+      </c>
+      <c r="V52">
+        <v>1.925</v>
+      </c>
+      <c r="W52">
+        <v>-1</v>
+      </c>
+      <c r="X52">
         <v>2.2</v>
       </c>
-      <c r="N52">
-        <v>2.9</v>
-      </c>
-      <c r="O52">
-        <v>3.3</v>
-      </c>
-      <c r="P52">
-        <v>2.25</v>
-      </c>
-      <c r="Q52">
-        <v>0.25</v>
-      </c>
-      <c r="R52">
-        <v>1.825</v>
-      </c>
-      <c r="S52">
-        <v>1.975</v>
-      </c>
-      <c r="T52">
-        <v>2.5</v>
-      </c>
-      <c r="U52">
-        <v>1.95</v>
-      </c>
-      <c r="V52">
-        <v>1.85</v>
-      </c>
-      <c r="W52">
-        <v>-1</v>
-      </c>
-      <c r="X52">
-        <v>2.3</v>
-      </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0.4125</v>
+        <v>0</v>
       </c>
       <c r="AA52">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB52">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5179,7 +5179,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>5139056</v>
+        <v>5139054</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5191,76 +5191,76 @@
         <v>45004.58333333334</v>
       </c>
       <c r="F53" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G53" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K53">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="L53">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M53">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="N53">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="O53">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P53">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="Q53">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R53">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S53">
+        <v>1.775</v>
+      </c>
+      <c r="T53">
+        <v>2.25</v>
+      </c>
+      <c r="U53">
+        <v>1.975</v>
+      </c>
+      <c r="V53">
+        <v>1.825</v>
+      </c>
+      <c r="W53">
+        <v>-1</v>
+      </c>
+      <c r="X53">
+        <v>-1</v>
+      </c>
+      <c r="Y53">
         <v>2</v>
       </c>
-      <c r="T53">
-        <v>2.75</v>
-      </c>
-      <c r="U53">
-        <v>2</v>
-      </c>
-      <c r="V53">
-        <v>1.85</v>
-      </c>
-      <c r="W53">
-        <v>-1</v>
-      </c>
-      <c r="X53">
-        <v>2.5</v>
-      </c>
-      <c r="Y53">
-        <v>-1</v>
-      </c>
       <c r="Z53">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA53">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB53">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC53">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5268,7 +5268,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>5139053</v>
+        <v>5140743</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5280,76 +5280,76 @@
         <v>45004.58333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G54" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J54" t="s">
         <v>55</v>
       </c>
       <c r="K54">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="L54">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M54">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="N54">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="O54">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P54">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="Q54">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R54">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S54">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T54">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U54">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V54">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Y54">
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0</v>
+        <v>0.4125</v>
       </c>
       <c r="AA54">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC54">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -12566,7 +12566,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>5451609</v>
+        <v>5448050</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12578,76 +12578,76 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F136" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G136" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J136" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K136">
-        <v>1.3</v>
+        <v>2.75</v>
       </c>
       <c r="L136">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="M136">
-        <v>7.5</v>
+        <v>2.375</v>
       </c>
       <c r="N136">
-        <v>1.333</v>
+        <v>2.4</v>
       </c>
       <c r="O136">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="P136">
-        <v>8</v>
+        <v>2.7</v>
       </c>
       <c r="Q136">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R136">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S136">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T136">
         <v>2.5</v>
       </c>
       <c r="U136">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V136">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W136">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X136">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA136">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC136">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12744,7 +12744,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>5451610</v>
+        <v>5448049</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12756,58 +12756,58 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F138" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G138" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="s">
         <v>53</v>
       </c>
       <c r="K138">
+        <v>1.571</v>
+      </c>
+      <c r="L138">
+        <v>3.75</v>
+      </c>
+      <c r="M138">
+        <v>5</v>
+      </c>
+      <c r="N138">
         <v>1.444</v>
       </c>
-      <c r="L138">
+      <c r="O138">
         <v>4</v>
       </c>
-      <c r="M138">
-        <v>6.5</v>
-      </c>
-      <c r="N138">
-        <v>1.333</v>
-      </c>
-      <c r="O138">
-        <v>4.333</v>
-      </c>
       <c r="P138">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q138">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R138">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S138">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T138">
         <v>2.75</v>
       </c>
       <c r="U138">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V138">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W138">
-        <v>0.333</v>
+        <v>0.444</v>
       </c>
       <c r="X138">
         <v>-1</v>
@@ -12816,16 +12816,16 @@
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA138">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB138">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC138">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12833,7 +12833,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>5452381</v>
+        <v>5451609</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12845,76 +12845,76 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F139" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G139" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K139">
-        <v>1.571</v>
+        <v>1.3</v>
       </c>
       <c r="L139">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M139">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="N139">
-        <v>1.4</v>
+        <v>1.333</v>
       </c>
       <c r="O139">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P139">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="Q139">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R139">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S139">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T139">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U139">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V139">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W139">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
         <v>-1</v>
       </c>
       <c r="AA139">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB139">
         <v>-1</v>
       </c>
       <c r="AC139">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12922,7 +12922,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>5448048</v>
+        <v>5452381</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12934,76 +12934,76 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F140" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G140" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140">
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K140">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="L140">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M140">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="N140">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="O140">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P140">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="Q140">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R140">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S140">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T140">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U140">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V140">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W140">
         <v>-1</v>
       </c>
       <c r="X140">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z140">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
       <c r="AB140">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC140">
-        <v>0.475</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13011,7 +13011,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>5447925</v>
+        <v>5451610</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13023,76 +13023,76 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F141" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G141" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K141">
-        <v>5.5</v>
+        <v>1.444</v>
       </c>
       <c r="L141">
         <v>4</v>
       </c>
       <c r="M141">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="N141">
-        <v>4.5</v>
+        <v>1.333</v>
       </c>
       <c r="O141">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P141">
-        <v>1.615</v>
+        <v>8</v>
       </c>
       <c r="Q141">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R141">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S141">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T141">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U141">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V141">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W141">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
         <v>-1</v>
       </c>
       <c r="AA141">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB141">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="AC141">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13100,7 +13100,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>5448049</v>
+        <v>5451607</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13112,58 +13112,58 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F142" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G142" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J142" t="s">
         <v>53</v>
       </c>
       <c r="K142">
-        <v>1.571</v>
+        <v>1.615</v>
       </c>
       <c r="L142">
         <v>3.75</v>
       </c>
       <c r="M142">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="N142">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="O142">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P142">
         <v>6</v>
       </c>
       <c r="Q142">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R142">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S142">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T142">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U142">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V142">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W142">
-        <v>0.444</v>
+        <v>0.363</v>
       </c>
       <c r="X142">
         <v>-1</v>
@@ -13172,16 +13172,16 @@
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA142">
-        <v>-0</v>
+        <v>0.4875</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC142">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13189,7 +13189,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>5448050</v>
+        <v>5447925</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13201,49 +13201,49 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F143" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G143" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H143">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I143">
         <v>3</v>
       </c>
       <c r="J143" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K143">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="L143">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M143">
-        <v>2.375</v>
+        <v>1.5</v>
       </c>
       <c r="N143">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="O143">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P143">
-        <v>2.7</v>
+        <v>1.615</v>
       </c>
       <c r="Q143">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R143">
+        <v>2.05</v>
+      </c>
+      <c r="S143">
         <v>1.8</v>
       </c>
-      <c r="S143">
-        <v>2.05</v>
-      </c>
       <c r="T143">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U143">
         <v>2</v>
@@ -13255,22 +13255,22 @@
         <v>-1</v>
       </c>
       <c r="X143">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z143">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
+        <v>0.8</v>
+      </c>
+      <c r="AB143">
+        <v>0</v>
+      </c>
+      <c r="AC143">
         <v>-0</v>
-      </c>
-      <c r="AB143">
-        <v>1</v>
-      </c>
-      <c r="AC143">
-        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13278,7 +13278,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>5451607</v>
+        <v>5448048</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13290,61 +13290,61 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F144" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G144" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H144">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I144">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K144">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="L144">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M144">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="N144">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="O144">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P144">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="Q144">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R144">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S144">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T144">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U144">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V144">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W144">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X144">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y144">
         <v>-1</v>
@@ -13353,13 +13353,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA144">
-        <v>0.4875</v>
+        <v>0.4625</v>
       </c>
       <c r="AB144">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -20042,7 +20042,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6803738</v>
+        <v>6803740</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20054,19 +20054,19 @@
         <v>45191.54166666666</v>
       </c>
       <c r="F220" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G220" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H220">
         <v>1</v>
       </c>
       <c r="I220">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J220" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K220">
         <v>1.85</v>
@@ -20075,55 +20075,55 @@
         <v>3.5</v>
       </c>
       <c r="M220">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="N220">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="O220">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P220">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q220">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R220">
+        <v>1.975</v>
+      </c>
+      <c r="S220">
         <v>1.825</v>
       </c>
-      <c r="S220">
-        <v>1.975</v>
-      </c>
       <c r="T220">
+        <v>2.25</v>
+      </c>
+      <c r="U220">
+        <v>1.9</v>
+      </c>
+      <c r="V220">
+        <v>1.9</v>
+      </c>
+      <c r="W220">
+        <v>-1</v>
+      </c>
+      <c r="X220">
+        <v>-1</v>
+      </c>
+      <c r="Y220">
         <v>2.5</v>
       </c>
-      <c r="U220">
-        <v>1.825</v>
-      </c>
-      <c r="V220">
-        <v>1.975</v>
-      </c>
-      <c r="W220">
-        <v>-1</v>
-      </c>
-      <c r="X220">
-        <v>2.8</v>
-      </c>
-      <c r="Y220">
-        <v>-1</v>
-      </c>
       <c r="Z220">
         <v>-1</v>
       </c>
       <c r="AA220">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB220">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC220">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20131,7 +20131,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6803740</v>
+        <v>6803738</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20143,19 +20143,19 @@
         <v>45191.54166666666</v>
       </c>
       <c r="F221" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G221" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H221">
         <v>1</v>
       </c>
       <c r="I221">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J221" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K221">
         <v>1.85</v>
@@ -20164,55 +20164,55 @@
         <v>3.5</v>
       </c>
       <c r="M221">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="N221">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="O221">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P221">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q221">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R221">
+        <v>1.825</v>
+      </c>
+      <c r="S221">
         <v>1.975</v>
       </c>
-      <c r="S221">
+      <c r="T221">
+        <v>2.5</v>
+      </c>
+      <c r="U221">
         <v>1.825</v>
       </c>
-      <c r="T221">
-        <v>2.25</v>
-      </c>
-      <c r="U221">
-        <v>1.9</v>
-      </c>
       <c r="V221">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W221">
         <v>-1</v>
       </c>
       <c r="X221">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y221">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z221">
         <v>-1</v>
       </c>
       <c r="AA221">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB221">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC221">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -23157,7 +23157,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>6803761</v>
+        <v>6805700</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23169,76 +23169,76 @@
         <v>45226.54166666666</v>
       </c>
       <c r="F255" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G255" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H255">
+        <v>0</v>
+      </c>
+      <c r="I255">
         <v>2</v>
       </c>
-      <c r="I255">
-        <v>1</v>
-      </c>
       <c r="J255" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K255">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="L255">
+        <v>3.75</v>
+      </c>
+      <c r="M255">
+        <v>4.2</v>
+      </c>
+      <c r="N255">
+        <v>1.75</v>
+      </c>
+      <c r="O255">
+        <v>3.6</v>
+      </c>
+      <c r="P255">
         <v>4</v>
       </c>
-      <c r="M255">
-        <v>5.25</v>
-      </c>
-      <c r="N255">
-        <v>1.5</v>
-      </c>
-      <c r="O255">
-        <v>4</v>
-      </c>
-      <c r="P255">
-        <v>5.5</v>
-      </c>
       <c r="Q255">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R255">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S255">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T255">
         <v>2.75</v>
       </c>
       <c r="U255">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V255">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W255">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X255">
         <v>-1</v>
       </c>
       <c r="Y255">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z255">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA255">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB255">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC255">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="256" spans="1:29">
@@ -23246,7 +23246,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>6805700</v>
+        <v>6803761</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23258,76 +23258,76 @@
         <v>45226.54166666666</v>
       </c>
       <c r="F256" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G256" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J256" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K256">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="L256">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M256">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="N256">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="O256">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P256">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="Q256">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R256">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S256">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T256">
         <v>2.75</v>
       </c>
       <c r="U256">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V256">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W256">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X256">
         <v>-1</v>
       </c>
       <c r="Y256">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z256">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA256">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB256">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC256">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="257" spans="1:29">
@@ -27340,7 +27340,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>6803794</v>
+        <v>6803793</v>
       </c>
       <c r="C302" t="s">
         <v>28</v>
@@ -27352,76 +27352,76 @@
         <v>45270.36111111111</v>
       </c>
       <c r="F302" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G302" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H302">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I302">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J302" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K302">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="L302">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M302">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="N302">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="O302">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P302">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q302">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R302">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S302">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T302">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U302">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V302">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W302">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X302">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y302">
         <v>-1</v>
       </c>
       <c r="Z302">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA302">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB302">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC302">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="303" spans="1:29">
@@ -27429,7 +27429,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>6803793</v>
+        <v>6803794</v>
       </c>
       <c r="C303" t="s">
         <v>28</v>
@@ -27441,76 +27441,76 @@
         <v>45270.36111111111</v>
       </c>
       <c r="F303" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G303" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I303">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J303" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K303">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="L303">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M303">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="N303">
-        <v>2.1</v>
+        <v>1.363</v>
       </c>
       <c r="O303">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P303">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="Q303">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R303">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S303">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T303">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U303">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V303">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W303">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X303">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y303">
         <v>-1</v>
       </c>
       <c r="Z303">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA303">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB303">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC303">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="304" spans="1:29">
@@ -29493,6 +29493,15 @@
       <c r="G326" t="s">
         <v>48</v>
       </c>
+      <c r="H326">
+        <v>2</v>
+      </c>
+      <c r="I326">
+        <v>1</v>
+      </c>
+      <c r="J326" t="s">
+        <v>53</v>
+      </c>
       <c r="K326">
         <v>1.666</v>
       </c>
@@ -29503,46 +29512,52 @@
         <v>5</v>
       </c>
       <c r="N326">
-        <v>1.65</v>
+        <v>1.666</v>
       </c>
       <c r="O326">
         <v>3.75</v>
       </c>
       <c r="P326">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q326">
         <v>-0.75</v>
       </c>
       <c r="R326">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S326">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T326">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U326">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V326">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W326">
-        <v>0</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X326">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y326">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z326">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AA326">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB326">
+        <v>0.825</v>
+      </c>
+      <c r="AC326">
+        <v>-1</v>
       </c>
     </row>
     <row r="327" spans="1:29">
@@ -29567,6 +29582,15 @@
       <c r="G327" t="s">
         <v>38</v>
       </c>
+      <c r="H327">
+        <v>0</v>
+      </c>
+      <c r="I327">
+        <v>1</v>
+      </c>
+      <c r="J327" t="s">
+        <v>54</v>
+      </c>
       <c r="K327">
         <v>1.666</v>
       </c>
@@ -29589,34 +29613,40 @@
         <v>-0.75</v>
       </c>
       <c r="R327">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S327">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T327">
         <v>2.75</v>
       </c>
       <c r="U327">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V327">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W327">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X327">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y327">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="Z327">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA327">
-        <v>0</v>
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB327">
+        <v>-1</v>
+      </c>
+      <c r="AC327">
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="328" spans="1:29">
@@ -29746,10 +29776,10 @@
         <v>2.5</v>
       </c>
       <c r="U329">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V329">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W329">
         <v>0</v>
@@ -29808,22 +29838,22 @@
         <v>2.8</v>
       </c>
       <c r="Q330">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R330">
-        <v>2.125</v>
+        <v>1.775</v>
       </c>
       <c r="S330">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="T330">
         <v>2.5</v>
       </c>
       <c r="U330">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V330">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W330">
         <v>0</v>

--- a/Poland I Liga/Poland I Liga.xlsx
+++ b/Poland I Liga/Poland I Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -543,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC334"/>
+  <dimension ref="A1:AC332"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5001,7 +5001,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5139056</v>
+        <v>5140743</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5013,52 +5013,52 @@
         <v>45004.58333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G51" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J51" t="s">
         <v>55</v>
       </c>
       <c r="K51">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="L51">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M51">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="N51">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="O51">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P51">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="Q51">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R51">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S51">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T51">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U51">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V51">
         <v>1.85</v>
@@ -5067,22 +5067,22 @@
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC51">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5090,7 +5090,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>5139053</v>
+        <v>5139054</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5102,76 +5102,76 @@
         <v>45004.58333333334</v>
       </c>
       <c r="F52" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G52" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K52">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="L52">
         <v>3.2</v>
       </c>
       <c r="M52">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="N52">
-        <v>2.7</v>
+        <v>2.375</v>
       </c>
       <c r="O52">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P52">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R52">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S52">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="T52">
         <v>2.25</v>
       </c>
       <c r="U52">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V52">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W52">
         <v>-1</v>
       </c>
       <c r="X52">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z52">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC52">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5179,7 +5179,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>5139054</v>
+        <v>5139053</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5191,76 +5191,76 @@
         <v>45004.58333333334</v>
       </c>
       <c r="F53" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G53" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K53">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="L53">
         <v>3.2</v>
       </c>
       <c r="M53">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="N53">
+        <v>2.7</v>
+      </c>
+      <c r="O53">
+        <v>3.2</v>
+      </c>
+      <c r="P53">
         <v>2.375</v>
       </c>
-      <c r="O53">
-        <v>3</v>
-      </c>
-      <c r="P53">
-        <v>3</v>
-      </c>
       <c r="Q53">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R53">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S53">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="T53">
         <v>2.25</v>
       </c>
       <c r="U53">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V53">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W53">
         <v>-1</v>
       </c>
       <c r="X53">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y53">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z53">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA53">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB53">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5268,7 +5268,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>5140743</v>
+        <v>5139056</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5280,52 +5280,52 @@
         <v>45004.58333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G54" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J54" t="s">
         <v>55</v>
       </c>
       <c r="K54">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="L54">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M54">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="N54">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="O54">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P54">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="Q54">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R54">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S54">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T54">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U54">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V54">
         <v>1.85</v>
@@ -5334,22 +5334,22 @@
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Y54">
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA54">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC54">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -13189,7 +13189,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>5447925</v>
+        <v>5448048</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13201,76 +13201,76 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F143" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G143" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K143">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="L143">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M143">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="N143">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="O143">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P143">
-        <v>1.615</v>
+        <v>3.1</v>
       </c>
       <c r="Q143">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R143">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S143">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T143">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U143">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V143">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W143">
         <v>-1</v>
       </c>
       <c r="X143">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y143">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA143">
-        <v>0.8</v>
+        <v>0.4625</v>
       </c>
       <c r="AB143">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC143">
-        <v>-0</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13278,7 +13278,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>5448048</v>
+        <v>5447925</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13290,76 +13290,76 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F144" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G144" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J144" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K144">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="L144">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M144">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="N144">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="O144">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P144">
-        <v>3.1</v>
+        <v>1.615</v>
       </c>
       <c r="Q144">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R144">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S144">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T144">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U144">
+        <v>2</v>
+      </c>
+      <c r="V144">
         <v>1.85</v>
       </c>
-      <c r="V144">
-        <v>1.95</v>
-      </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z144">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
       <c r="AB144">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC144">
-        <v>0.475</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -29654,7 +29654,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>6803811</v>
+        <v>6805678</v>
       </c>
       <c r="C328" t="s">
         <v>28</v>
@@ -29663,16 +29663,16 @@
         <v>28</v>
       </c>
       <c r="E328" s="2">
-        <v>45346.36111111111</v>
+        <v>45346.5625</v>
       </c>
       <c r="F328" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G328" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="K328">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="L328">
         <v>3.2</v>
@@ -29681,25 +29681,25 @@
         <v>2.75</v>
       </c>
       <c r="N328">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="O328">
         <v>3.2</v>
       </c>
       <c r="P328">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="Q328">
         <v>0</v>
       </c>
       <c r="R328">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S328">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T328">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U328">
         <v>1.925</v>
@@ -29728,7 +29728,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>6803813</v>
+        <v>6803815</v>
       </c>
       <c r="C329" t="s">
         <v>28</v>
@@ -29737,34 +29737,34 @@
         <v>28</v>
       </c>
       <c r="E329" s="2">
-        <v>45346.45833333334</v>
+        <v>45347.36111111111</v>
       </c>
       <c r="F329" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="G329" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="K329">
-        <v>1.9</v>
+        <v>1.571</v>
       </c>
       <c r="L329">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M329">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="N329">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="O329">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P329">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q329">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R329">
         <v>2.025</v>
@@ -29773,13 +29773,13 @@
         <v>1.825</v>
       </c>
       <c r="T329">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U329">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V329">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W329">
         <v>0</v>
@@ -29802,7 +29802,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>6805678</v>
+        <v>6805679</v>
       </c>
       <c r="C330" t="s">
         <v>28</v>
@@ -29811,43 +29811,43 @@
         <v>28</v>
       </c>
       <c r="E330" s="2">
-        <v>45346.5625</v>
+        <v>45347.45833333334</v>
       </c>
       <c r="F330" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G330" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="K330">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="L330">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M330">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="N330">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="O330">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P330">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q330">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R330">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S330">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="T330">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U330">
         <v>1.925</v>
@@ -29876,7 +29876,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>6803815</v>
+        <v>6803812</v>
       </c>
       <c r="C331" t="s">
         <v>28</v>
@@ -29885,49 +29885,49 @@
         <v>28</v>
       </c>
       <c r="E331" s="2">
-        <v>45347.36111111111</v>
+        <v>45347.58333333334</v>
       </c>
       <c r="F331" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G331" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K331">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="L331">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M331">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="N331">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="O331">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P331">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q331">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R331">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S331">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T331">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U331">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V331">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W331">
         <v>0</v>
@@ -29950,7 +29950,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>6805679</v>
+        <v>7720875</v>
       </c>
       <c r="C332" t="s">
         <v>28</v>
@@ -29959,49 +29959,49 @@
         <v>28</v>
       </c>
       <c r="E332" s="2">
-        <v>45347.45833333334</v>
+        <v>45348.58333333334</v>
       </c>
       <c r="F332" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G332" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="K332">
         <v>3</v>
       </c>
       <c r="L332">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M332">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="N332">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="O332">
         <v>3.1</v>
       </c>
       <c r="P332">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q332">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R332">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S332">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T332">
         <v>2.25</v>
       </c>
       <c r="U332">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V332">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W332">
         <v>0</v>
@@ -30016,154 +30016,6 @@
         <v>0</v>
       </c>
       <c r="AA332">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333" spans="1:29">
-      <c r="A333" s="1">
-        <v>331</v>
-      </c>
-      <c r="B333">
-        <v>6803812</v>
-      </c>
-      <c r="C333" t="s">
-        <v>28</v>
-      </c>
-      <c r="D333" t="s">
-        <v>28</v>
-      </c>
-      <c r="E333" s="2">
-        <v>45347.58333333334</v>
-      </c>
-      <c r="F333" t="s">
-        <v>45</v>
-      </c>
-      <c r="G333" t="s">
-        <v>33</v>
-      </c>
-      <c r="K333">
-        <v>2.3</v>
-      </c>
-      <c r="L333">
-        <v>3.2</v>
-      </c>
-      <c r="M333">
-        <v>3</v>
-      </c>
-      <c r="N333">
-        <v>2.2</v>
-      </c>
-      <c r="O333">
-        <v>3.2</v>
-      </c>
-      <c r="P333">
-        <v>3.2</v>
-      </c>
-      <c r="Q333">
-        <v>-0.25</v>
-      </c>
-      <c r="R333">
-        <v>1.95</v>
-      </c>
-      <c r="S333">
-        <v>1.9</v>
-      </c>
-      <c r="T333">
-        <v>2.5</v>
-      </c>
-      <c r="U333">
-        <v>1.95</v>
-      </c>
-      <c r="V333">
-        <v>1.9</v>
-      </c>
-      <c r="W333">
-        <v>0</v>
-      </c>
-      <c r="X333">
-        <v>0</v>
-      </c>
-      <c r="Y333">
-        <v>0</v>
-      </c>
-      <c r="Z333">
-        <v>0</v>
-      </c>
-      <c r="AA333">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334" spans="1:29">
-      <c r="A334" s="1">
-        <v>332</v>
-      </c>
-      <c r="B334">
-        <v>7720875</v>
-      </c>
-      <c r="C334" t="s">
-        <v>28</v>
-      </c>
-      <c r="D334" t="s">
-        <v>28</v>
-      </c>
-      <c r="E334" s="2">
-        <v>45348.58333333334</v>
-      </c>
-      <c r="F334" t="s">
-        <v>44</v>
-      </c>
-      <c r="G334" t="s">
-        <v>40</v>
-      </c>
-      <c r="K334">
-        <v>3</v>
-      </c>
-      <c r="L334">
-        <v>3.25</v>
-      </c>
-      <c r="M334">
-        <v>2.25</v>
-      </c>
-      <c r="N334">
-        <v>2.75</v>
-      </c>
-      <c r="O334">
-        <v>3.1</v>
-      </c>
-      <c r="P334">
-        <v>2.5</v>
-      </c>
-      <c r="Q334">
-        <v>0</v>
-      </c>
-      <c r="R334">
-        <v>1.975</v>
-      </c>
-      <c r="S334">
-        <v>1.875</v>
-      </c>
-      <c r="T334">
-        <v>2.25</v>
-      </c>
-      <c r="U334">
-        <v>1.875</v>
-      </c>
-      <c r="V334">
-        <v>1.975</v>
-      </c>
-      <c r="W334">
-        <v>0</v>
-      </c>
-      <c r="X334">
-        <v>0</v>
-      </c>
-      <c r="Y334">
-        <v>0</v>
-      </c>
-      <c r="Z334">
-        <v>0</v>
-      </c>
-      <c r="AA334">
         <v>0</v>
       </c>
     </row>

--- a/Poland I Liga/Poland I Liga.xlsx
+++ b/Poland I Liga/Poland I Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -543,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC332"/>
+  <dimension ref="A1:AC334"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5001,7 +5001,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5140743</v>
+        <v>5139056</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5013,52 +5013,52 @@
         <v>45004.58333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G51" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J51" t="s">
         <v>55</v>
       </c>
       <c r="K51">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="L51">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M51">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="N51">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="O51">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P51">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="Q51">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R51">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S51">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T51">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U51">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V51">
         <v>1.85</v>
@@ -5067,22 +5067,22 @@
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA51">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5179,7 +5179,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>5139053</v>
+        <v>5140743</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5191,76 +5191,76 @@
         <v>45004.58333333334</v>
       </c>
       <c r="F53" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G53" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J53" t="s">
         <v>55</v>
       </c>
       <c r="K53">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="L53">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M53">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="N53">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="O53">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P53">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="Q53">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R53">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S53">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T53">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U53">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V53">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W53">
         <v>-1</v>
       </c>
       <c r="X53">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Y53">
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>0</v>
+        <v>0.4125</v>
       </c>
       <c r="AA53">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB53">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC53">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5268,7 +5268,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>5139056</v>
+        <v>5139053</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5280,76 +5280,76 @@
         <v>45004.58333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G54" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="s">
         <v>55</v>
       </c>
       <c r="K54">
-        <v>3.75</v>
+        <v>2.45</v>
       </c>
       <c r="L54">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M54">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="N54">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="O54">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P54">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="Q54">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R54">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S54">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T54">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U54">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V54">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="Y54">
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA54">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB54">
         <v>-1</v>
       </c>
       <c r="AC54">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -12566,7 +12566,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>5448050</v>
+        <v>5447925</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12578,49 +12578,49 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F136" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G136" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H136">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I136">
         <v>3</v>
       </c>
       <c r="J136" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K136">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="L136">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M136">
-        <v>2.375</v>
+        <v>1.5</v>
       </c>
       <c r="N136">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="O136">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P136">
-        <v>2.7</v>
+        <v>1.615</v>
       </c>
       <c r="Q136">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R136">
+        <v>2.05</v>
+      </c>
+      <c r="S136">
         <v>1.8</v>
       </c>
-      <c r="S136">
-        <v>2.05</v>
-      </c>
       <c r="T136">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U136">
         <v>2</v>
@@ -12632,22 +12632,22 @@
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z136">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
+        <v>0.8</v>
+      </c>
+      <c r="AB136">
+        <v>0</v>
+      </c>
+      <c r="AC136">
         <v>-0</v>
-      </c>
-      <c r="AB136">
-        <v>1</v>
-      </c>
-      <c r="AC136">
-        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12655,7 +12655,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>5451608</v>
+        <v>5448048</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12667,76 +12667,76 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F137" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G137" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I137">
         <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K137">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L137">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M137">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="N137">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O137">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P137">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q137">
+        <v>-0.25</v>
+      </c>
+      <c r="R137">
+        <v>1.875</v>
+      </c>
+      <c r="S137">
+        <v>1.925</v>
+      </c>
+      <c r="T137">
+        <v>2.25</v>
+      </c>
+      <c r="U137">
+        <v>1.85</v>
+      </c>
+      <c r="V137">
+        <v>1.95</v>
+      </c>
+      <c r="W137">
+        <v>-1</v>
+      </c>
+      <c r="X137">
+        <v>2.2</v>
+      </c>
+      <c r="Y137">
+        <v>-1</v>
+      </c>
+      <c r="Z137">
         <v>-0.5</v>
       </c>
-      <c r="R137">
-        <v>1.95</v>
-      </c>
-      <c r="S137">
-        <v>1.85</v>
-      </c>
-      <c r="T137">
-        <v>2.75</v>
-      </c>
-      <c r="U137">
-        <v>1.8</v>
-      </c>
-      <c r="V137">
-        <v>2</v>
-      </c>
-      <c r="W137">
-        <v>0.909</v>
-      </c>
-      <c r="X137">
-        <v>-1</v>
-      </c>
-      <c r="Y137">
-        <v>-1</v>
-      </c>
-      <c r="Z137">
-        <v>0.95</v>
-      </c>
       <c r="AA137">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB137">
-        <v>0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="AC137">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12833,7 +12833,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>5451609</v>
+        <v>5448050</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12845,76 +12845,76 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F139" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G139" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I139">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J139" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K139">
-        <v>1.3</v>
+        <v>2.75</v>
       </c>
       <c r="L139">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="M139">
-        <v>7.5</v>
+        <v>2.375</v>
       </c>
       <c r="N139">
-        <v>1.333</v>
+        <v>2.4</v>
       </c>
       <c r="O139">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="P139">
-        <v>8</v>
+        <v>2.7</v>
       </c>
       <c r="Q139">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R139">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S139">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T139">
         <v>2.5</v>
       </c>
       <c r="U139">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V139">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W139">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X139">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA139">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB139">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC139">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12922,7 +12922,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>5452381</v>
+        <v>5451608</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12934,76 +12934,76 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F140" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G140" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140">
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K140">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L140">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M140">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N140">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="O140">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P140">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q140">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R140">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S140">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T140">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U140">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V140">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA140">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC140">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13011,7 +13011,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>5451610</v>
+        <v>5451609</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13023,34 +13023,34 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F141" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G141" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141" t="s">
         <v>53</v>
       </c>
       <c r="K141">
-        <v>1.444</v>
+        <v>1.3</v>
       </c>
       <c r="L141">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M141">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="N141">
         <v>1.333</v>
       </c>
       <c r="O141">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="P141">
         <v>8</v>
@@ -13059,19 +13059,19 @@
         <v>-1.5</v>
       </c>
       <c r="R141">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S141">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T141">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U141">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V141">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W141">
         <v>0.333</v>
@@ -13086,13 +13086,13 @@
         <v>-1</v>
       </c>
       <c r="AA141">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB141">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC141">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13189,7 +13189,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>5448048</v>
+        <v>5452381</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13201,76 +13201,76 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F143" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G143" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143">
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K143">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="L143">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M143">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="N143">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="O143">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P143">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="Q143">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R143">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S143">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T143">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U143">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V143">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W143">
         <v>-1</v>
       </c>
       <c r="X143">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z143">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
       <c r="AB143">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC143">
-        <v>0.475</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13278,7 +13278,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>5447925</v>
+        <v>5451610</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13290,76 +13290,76 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F144" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G144" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K144">
-        <v>5.5</v>
+        <v>1.444</v>
       </c>
       <c r="L144">
         <v>4</v>
       </c>
       <c r="M144">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="N144">
-        <v>4.5</v>
+        <v>1.333</v>
       </c>
       <c r="O144">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P144">
-        <v>1.615</v>
+        <v>8</v>
       </c>
       <c r="Q144">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R144">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S144">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T144">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U144">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V144">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W144">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
         <v>-1</v>
       </c>
       <c r="AA144">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB144">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="AC144">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -23157,7 +23157,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>6805700</v>
+        <v>6803761</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23169,76 +23169,76 @@
         <v>45226.54166666666</v>
       </c>
       <c r="F255" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G255" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J255" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K255">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="L255">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M255">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="N255">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="O255">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P255">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="Q255">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R255">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S255">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T255">
         <v>2.75</v>
       </c>
       <c r="U255">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V255">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W255">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X255">
         <v>-1</v>
       </c>
       <c r="Y255">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z255">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA255">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB255">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC255">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="256" spans="1:29">
@@ -23246,7 +23246,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>6803761</v>
+        <v>6805700</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23258,76 +23258,76 @@
         <v>45226.54166666666</v>
       </c>
       <c r="F256" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G256" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H256">
+        <v>0</v>
+      </c>
+      <c r="I256">
         <v>2</v>
       </c>
-      <c r="I256">
-        <v>1</v>
-      </c>
       <c r="J256" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K256">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="L256">
+        <v>3.75</v>
+      </c>
+      <c r="M256">
+        <v>4.2</v>
+      </c>
+      <c r="N256">
+        <v>1.75</v>
+      </c>
+      <c r="O256">
+        <v>3.6</v>
+      </c>
+      <c r="P256">
         <v>4</v>
       </c>
-      <c r="M256">
-        <v>5.25</v>
-      </c>
-      <c r="N256">
-        <v>1.5</v>
-      </c>
-      <c r="O256">
-        <v>4</v>
-      </c>
-      <c r="P256">
-        <v>5.5</v>
-      </c>
       <c r="Q256">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R256">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S256">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T256">
         <v>2.75</v>
       </c>
       <c r="U256">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V256">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W256">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X256">
         <v>-1</v>
       </c>
       <c r="Y256">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z256">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA256">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB256">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC256">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="257" spans="1:29">
@@ -25471,7 +25471,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>6803778</v>
+        <v>6803779</v>
       </c>
       <c r="C281" t="s">
         <v>28</v>
@@ -25483,76 +25483,76 @@
         <v>45242.58333333334</v>
       </c>
       <c r="F281" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G281" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I281">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J281" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K281">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="L281">
         <v>3.4</v>
       </c>
       <c r="M281">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="N281">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="O281">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P281">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="Q281">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R281">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S281">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T281">
         <v>2.5</v>
       </c>
       <c r="U281">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V281">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W281">
         <v>-1</v>
       </c>
       <c r="X281">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y281">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z281">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA281">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB281">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC281">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="282" spans="1:29">
@@ -25560,7 +25560,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>6803779</v>
+        <v>6803778</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25572,76 +25572,76 @@
         <v>45242.58333333334</v>
       </c>
       <c r="F282" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G282" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I282">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J282" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K282">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="L282">
         <v>3.4</v>
       </c>
       <c r="M282">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="N282">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="O282">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P282">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="Q282">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R282">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S282">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T282">
         <v>2.5</v>
       </c>
       <c r="U282">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V282">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W282">
         <v>-1</v>
       </c>
       <c r="X282">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y282">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z282">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA282">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB282">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC282">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:29">
@@ -29654,7 +29654,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>6805678</v>
+        <v>6803811</v>
       </c>
       <c r="C328" t="s">
         <v>28</v>
@@ -29663,16 +29663,25 @@
         <v>28</v>
       </c>
       <c r="E328" s="2">
-        <v>45346.5625</v>
+        <v>45346.36111111111</v>
       </c>
       <c r="F328" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G328" t="s">
-        <v>35</v>
+        <v>46</v>
+      </c>
+      <c r="H328">
+        <v>1</v>
+      </c>
+      <c r="I328">
+        <v>2</v>
+      </c>
+      <c r="J328" t="s">
+        <v>54</v>
       </c>
       <c r="K328">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="L328">
         <v>3.2</v>
@@ -29681,7 +29690,7 @@
         <v>2.75</v>
       </c>
       <c r="N328">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="O328">
         <v>3.2</v>
@@ -29693,34 +29702,40 @@
         <v>0</v>
       </c>
       <c r="R328">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S328">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T328">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U328">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V328">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W328">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X328">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y328">
-        <v>0</v>
+        <v>1.625</v>
       </c>
       <c r="Z328">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA328">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AB328">
+        <v>1</v>
+      </c>
+      <c r="AC328">
+        <v>-1</v>
       </c>
     </row>
     <row r="329" spans="1:29">
@@ -29728,7 +29743,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>6803815</v>
+        <v>6803813</v>
       </c>
       <c r="C329" t="s">
         <v>28</v>
@@ -29737,64 +29752,79 @@
         <v>28</v>
       </c>
       <c r="E329" s="2">
-        <v>45347.36111111111</v>
+        <v>45346.45833333334</v>
       </c>
       <c r="F329" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G329" t="s">
-        <v>31</v>
+        <v>42</v>
+      </c>
+      <c r="H329">
+        <v>2</v>
+      </c>
+      <c r="I329">
+        <v>1</v>
+      </c>
+      <c r="J329" t="s">
+        <v>53</v>
       </c>
       <c r="K329">
-        <v>1.571</v>
+        <v>1.9</v>
       </c>
       <c r="L329">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M329">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="N329">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="O329">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P329">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="Q329">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R329">
+        <v>1.925</v>
+      </c>
+      <c r="S329">
+        <v>1.925</v>
+      </c>
+      <c r="T329">
+        <v>2.5</v>
+      </c>
+      <c r="U329">
         <v>2.025</v>
       </c>
-      <c r="S329">
+      <c r="V329">
         <v>1.825</v>
       </c>
-      <c r="T329">
-        <v>2.75</v>
-      </c>
-      <c r="U329">
-        <v>1.925</v>
-      </c>
-      <c r="V329">
-        <v>1.925</v>
-      </c>
       <c r="W329">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="X329">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y329">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z329">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA329">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB329">
+        <v>1.025</v>
+      </c>
+      <c r="AC329">
+        <v>-1</v>
       </c>
     </row>
     <row r="330" spans="1:29">
@@ -29802,7 +29832,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>6805679</v>
+        <v>6805678</v>
       </c>
       <c r="C330" t="s">
         <v>28</v>
@@ -29811,64 +29841,79 @@
         <v>28</v>
       </c>
       <c r="E330" s="2">
-        <v>45347.45833333334</v>
+        <v>45346.5625</v>
       </c>
       <c r="F330" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G330" t="s">
-        <v>51</v>
+        <v>35</v>
+      </c>
+      <c r="H330">
+        <v>1</v>
+      </c>
+      <c r="I330">
+        <v>0</v>
+      </c>
+      <c r="J330" t="s">
+        <v>53</v>
       </c>
       <c r="K330">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="L330">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M330">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="N330">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="O330">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P330">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="Q330">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R330">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S330">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T330">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U330">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V330">
         <v>1.925</v>
       </c>
       <c r="W330">
-        <v>0</v>
+        <v>1.625</v>
       </c>
       <c r="X330">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y330">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z330">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA330">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB330">
+        <v>-1</v>
+      </c>
+      <c r="AC330">
+        <v>0.925</v>
       </c>
     </row>
     <row r="331" spans="1:29">
@@ -29876,7 +29921,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>6803812</v>
+        <v>6803815</v>
       </c>
       <c r="C331" t="s">
         <v>28</v>
@@ -29885,49 +29930,49 @@
         <v>28</v>
       </c>
       <c r="E331" s="2">
-        <v>45347.58333333334</v>
+        <v>45347.36111111111</v>
       </c>
       <c r="F331" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G331" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K331">
-        <v>2.3</v>
+        <v>1.571</v>
       </c>
       <c r="L331">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M331">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="N331">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="O331">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P331">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="Q331">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R331">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S331">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T331">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U331">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V331">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W331">
         <v>0</v>
@@ -29950,7 +29995,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>7720875</v>
+        <v>6805679</v>
       </c>
       <c r="C332" t="s">
         <v>28</v>
@@ -29959,63 +30004,211 @@
         <v>28</v>
       </c>
       <c r="E332" s="2">
-        <v>45348.58333333334</v>
+        <v>45347.45833333334</v>
       </c>
       <c r="F332" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G332" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="K332">
         <v>3</v>
       </c>
       <c r="L332">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M332">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="N332">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="O332">
         <v>3.1</v>
       </c>
       <c r="P332">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q332">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R332">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S332">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T332">
         <v>2.25</v>
       </c>
       <c r="U332">
+        <v>1.925</v>
+      </c>
+      <c r="V332">
+        <v>1.925</v>
+      </c>
+      <c r="W332">
+        <v>0</v>
+      </c>
+      <c r="X332">
+        <v>0</v>
+      </c>
+      <c r="Y332">
+        <v>0</v>
+      </c>
+      <c r="Z332">
+        <v>0</v>
+      </c>
+      <c r="AA332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:29">
+      <c r="A333" s="1">
+        <v>331</v>
+      </c>
+      <c r="B333">
+        <v>6803812</v>
+      </c>
+      <c r="C333" t="s">
+        <v>28</v>
+      </c>
+      <c r="D333" t="s">
+        <v>28</v>
+      </c>
+      <c r="E333" s="2">
+        <v>45347.58333333334</v>
+      </c>
+      <c r="F333" t="s">
+        <v>45</v>
+      </c>
+      <c r="G333" t="s">
+        <v>33</v>
+      </c>
+      <c r="K333">
+        <v>2.3</v>
+      </c>
+      <c r="L333">
+        <v>3.2</v>
+      </c>
+      <c r="M333">
+        <v>3</v>
+      </c>
+      <c r="N333">
+        <v>2.2</v>
+      </c>
+      <c r="O333">
+        <v>3.2</v>
+      </c>
+      <c r="P333">
+        <v>3.2</v>
+      </c>
+      <c r="Q333">
+        <v>-0.25</v>
+      </c>
+      <c r="R333">
+        <v>1.975</v>
+      </c>
+      <c r="S333">
         <v>1.875</v>
       </c>
-      <c r="V332">
+      <c r="T333">
+        <v>2.5</v>
+      </c>
+      <c r="U333">
         <v>1.975</v>
       </c>
-      <c r="W332">
-        <v>0</v>
-      </c>
-      <c r="X332">
-        <v>0</v>
-      </c>
-      <c r="Y332">
-        <v>0</v>
-      </c>
-      <c r="Z332">
-        <v>0</v>
-      </c>
-      <c r="AA332">
+      <c r="V333">
+        <v>1.875</v>
+      </c>
+      <c r="W333">
+        <v>0</v>
+      </c>
+      <c r="X333">
+        <v>0</v>
+      </c>
+      <c r="Y333">
+        <v>0</v>
+      </c>
+      <c r="Z333">
+        <v>0</v>
+      </c>
+      <c r="AA333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:29">
+      <c r="A334" s="1">
+        <v>332</v>
+      </c>
+      <c r="B334">
+        <v>7720875</v>
+      </c>
+      <c r="C334" t="s">
+        <v>28</v>
+      </c>
+      <c r="D334" t="s">
+        <v>28</v>
+      </c>
+      <c r="E334" s="2">
+        <v>45348.58333333334</v>
+      </c>
+      <c r="F334" t="s">
+        <v>44</v>
+      </c>
+      <c r="G334" t="s">
+        <v>40</v>
+      </c>
+      <c r="K334">
+        <v>3</v>
+      </c>
+      <c r="L334">
+        <v>3.25</v>
+      </c>
+      <c r="M334">
+        <v>2.25</v>
+      </c>
+      <c r="N334">
+        <v>2.75</v>
+      </c>
+      <c r="O334">
+        <v>3.1</v>
+      </c>
+      <c r="P334">
+        <v>2.5</v>
+      </c>
+      <c r="Q334">
+        <v>0</v>
+      </c>
+      <c r="R334">
+        <v>1.975</v>
+      </c>
+      <c r="S334">
+        <v>1.875</v>
+      </c>
+      <c r="T334">
+        <v>2.25</v>
+      </c>
+      <c r="U334">
+        <v>1.875</v>
+      </c>
+      <c r="V334">
+        <v>1.975</v>
+      </c>
+      <c r="W334">
+        <v>0</v>
+      </c>
+      <c r="X334">
+        <v>0</v>
+      </c>
+      <c r="Y334">
+        <v>0</v>
+      </c>
+      <c r="Z334">
+        <v>0</v>
+      </c>
+      <c r="AA334">
         <v>0</v>
       </c>
     </row>

--- a/Poland I Liga/Poland I Liga.xlsx
+++ b/Poland I Liga/Poland I Liga.xlsx
@@ -27340,7 +27340,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>6803793</v>
+        <v>6803794</v>
       </c>
       <c r="C302" t="s">
         <v>28</v>
@@ -27352,76 +27352,76 @@
         <v>45270.36111111111</v>
       </c>
       <c r="F302" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G302" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I302">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J302" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K302">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="L302">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M302">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="N302">
-        <v>2.1</v>
+        <v>1.363</v>
       </c>
       <c r="O302">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P302">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="Q302">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R302">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S302">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T302">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U302">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V302">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W302">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X302">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y302">
         <v>-1</v>
       </c>
       <c r="Z302">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA302">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB302">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC302">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="303" spans="1:29">
@@ -27429,7 +27429,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>6803794</v>
+        <v>6803793</v>
       </c>
       <c r="C303" t="s">
         <v>28</v>
@@ -27441,76 +27441,76 @@
         <v>45270.36111111111</v>
       </c>
       <c r="F303" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G303" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H303">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I303">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J303" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K303">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="L303">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M303">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="N303">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="O303">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P303">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q303">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R303">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S303">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T303">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U303">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V303">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W303">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X303">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y303">
         <v>-1</v>
       </c>
       <c r="Z303">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA303">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB303">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC303">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="304" spans="1:29">

--- a/Poland I Liga/Poland I Liga.xlsx
+++ b/Poland I Liga/Poland I Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -103,16 +103,22 @@
     <t>Poland I Liga</t>
   </si>
   <si>
+    <t>LKS Lodz</t>
+  </si>
+  <si>
     <t>Podbeskidzie Bielsko Biala</t>
   </si>
   <si>
-    <t>Ruch Chorzow</t>
+    <t>Termalica BB Nieciecza</t>
   </si>
   <si>
     <t>Chojniczanka Chojnice</t>
   </si>
   <si>
-    <t>Termalica BB Nieciecza</t>
+    <t>Zaglebie Sosnowiec</t>
+  </si>
+  <si>
+    <t>Ruch Chorzow</t>
   </si>
   <si>
     <t>Stal Rzeszow</t>
@@ -122,12 +128,6 @@
   </si>
   <si>
     <t>Gornik Leczna</t>
-  </si>
-  <si>
-    <t>Zaglebie Sosnowiec</t>
-  </si>
-  <si>
-    <t>LKS Lodz</t>
   </si>
   <si>
     <t>Wisla Krakow</t>
@@ -169,10 +169,10 @@
     <t>GKS Tychy 71</t>
   </si>
   <si>
-    <t>Skra Czestochowa</t>
+    <t>Sandecja Nowy Sacz</t>
   </si>
   <si>
-    <t>Sandecja Nowy Sacz</t>
+    <t>Skra Czestochowa</t>
   </si>
   <si>
     <t>H</t>
@@ -543,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC200"/>
+  <dimension ref="A1:AC201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5451607</v>
+        <v>5448049</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -655,55 +655,55 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>53</v>
       </c>
       <c r="K2">
-        <v>1.615</v>
+        <v>1.571</v>
       </c>
       <c r="L2">
         <v>3.75</v>
       </c>
       <c r="M2">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="N2">
-        <v>1.363</v>
+        <v>1.444</v>
       </c>
       <c r="O2">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P2">
         <v>6</v>
       </c>
       <c r="Q2">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R2">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S2">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T2">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U2">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V2">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W2">
-        <v>0.363</v>
+        <v>0.444</v>
       </c>
       <c r="X2">
         <v>-1</v>
@@ -712,16 +712,16 @@
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.4875</v>
+        <v>-0</v>
       </c>
       <c r="AB2">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -729,7 +729,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5451609</v>
+        <v>5451607</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -744,55 +744,55 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J3" t="s">
         <v>53</v>
       </c>
       <c r="K3">
-        <v>1.3</v>
+        <v>1.615</v>
       </c>
       <c r="L3">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M3">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="N3">
-        <v>1.333</v>
+        <v>1.363</v>
       </c>
       <c r="O3">
         <v>4.75</v>
       </c>
       <c r="P3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q3">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R3">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S3">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T3">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U3">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V3">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W3">
-        <v>0.333</v>
+        <v>0.363</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -801,16 +801,16 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA3">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC3">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -818,7 +818,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5448050</v>
+        <v>5451608</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -833,73 +833,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K4">
+        <v>1.909</v>
+      </c>
+      <c r="L4">
+        <v>3.5</v>
+      </c>
+      <c r="M4">
+        <v>3.5</v>
+      </c>
+      <c r="N4">
+        <v>1.909</v>
+      </c>
+      <c r="O4">
+        <v>3.5</v>
+      </c>
+      <c r="P4">
+        <v>3.6</v>
+      </c>
+      <c r="Q4">
+        <v>-0.5</v>
+      </c>
+      <c r="R4">
+        <v>1.95</v>
+      </c>
+      <c r="S4">
+        <v>1.85</v>
+      </c>
+      <c r="T4">
         <v>2.75</v>
       </c>
-      <c r="L4">
-        <v>3.25</v>
-      </c>
-      <c r="M4">
-        <v>2.375</v>
-      </c>
-      <c r="N4">
-        <v>2.4</v>
-      </c>
-      <c r="O4">
-        <v>3.25</v>
-      </c>
-      <c r="P4">
-        <v>2.7</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
+      <c r="U4">
         <v>1.8</v>
       </c>
-      <c r="S4">
-        <v>2.05</v>
-      </c>
-      <c r="T4">
-        <v>2.5</v>
-      </c>
-      <c r="U4">
+      <c r="V4">
         <v>2</v>
       </c>
-      <c r="V4">
-        <v>1.85</v>
-      </c>
       <c r="W4">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X4">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA4">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -907,7 +907,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5451608</v>
+        <v>5448050</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -922,73 +922,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5">
+        <v>2.75</v>
+      </c>
+      <c r="L5">
+        <v>3.25</v>
+      </c>
+      <c r="M5">
+        <v>2.375</v>
+      </c>
+      <c r="N5">
+        <v>2.4</v>
+      </c>
+      <c r="O5">
+        <v>3.25</v>
+      </c>
+      <c r="P5">
+        <v>2.7</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>1.8</v>
+      </c>
+      <c r="S5">
+        <v>2.05</v>
+      </c>
+      <c r="T5">
+        <v>2.5</v>
+      </c>
+      <c r="U5">
         <v>2</v>
       </c>
-      <c r="I5">
+      <c r="V5">
+        <v>1.85</v>
+      </c>
+      <c r="W5">
+        <v>-1</v>
+      </c>
+      <c r="X5">
+        <v>2.25</v>
+      </c>
+      <c r="Y5">
+        <v>-1</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>-0</v>
+      </c>
+      <c r="AB5">
         <v>1</v>
       </c>
-      <c r="J5" t="s">
-        <v>53</v>
-      </c>
-      <c r="K5">
-        <v>1.909</v>
-      </c>
-      <c r="L5">
-        <v>3.5</v>
-      </c>
-      <c r="M5">
-        <v>3.5</v>
-      </c>
-      <c r="N5">
-        <v>1.909</v>
-      </c>
-      <c r="O5">
-        <v>3.5</v>
-      </c>
-      <c r="P5">
-        <v>3.6</v>
-      </c>
-      <c r="Q5">
-        <v>-0.5</v>
-      </c>
-      <c r="R5">
-        <v>1.95</v>
-      </c>
-      <c r="S5">
-        <v>1.85</v>
-      </c>
-      <c r="T5">
-        <v>2.75</v>
-      </c>
-      <c r="U5">
-        <v>1.8</v>
-      </c>
-      <c r="V5">
-        <v>2</v>
-      </c>
-      <c r="W5">
-        <v>0.909</v>
-      </c>
-      <c r="X5">
-        <v>-1</v>
-      </c>
-      <c r="Y5">
-        <v>-1</v>
-      </c>
-      <c r="Z5">
-        <v>0.95</v>
-      </c>
-      <c r="AA5">
-        <v>-1</v>
-      </c>
-      <c r="AB5">
-        <v>0.4</v>
-      </c>
       <c r="AC5">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -996,7 +996,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5451610</v>
+        <v>5448048</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1014,70 +1014,70 @@
         <v>51</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K6">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M6">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="N6">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="O6">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="P6">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="Q6">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R6">
+        <v>1.875</v>
+      </c>
+      <c r="S6">
+        <v>1.925</v>
+      </c>
+      <c r="T6">
+        <v>2.25</v>
+      </c>
+      <c r="U6">
+        <v>1.85</v>
+      </c>
+      <c r="V6">
         <v>1.95</v>
       </c>
-      <c r="S6">
-        <v>1.85</v>
-      </c>
-      <c r="T6">
-        <v>2.75</v>
-      </c>
-      <c r="U6">
-        <v>1.875</v>
-      </c>
-      <c r="V6">
-        <v>1.925</v>
-      </c>
       <c r="W6">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA6">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AB6">
-        <v>0.4375</v>
+        <v>-0.5</v>
       </c>
       <c r="AC6">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1085,7 +1085,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5452381</v>
+        <v>5451609</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1100,73 +1100,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
         <v>0</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
       <c r="J7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K7">
-        <v>1.571</v>
+        <v>1.3</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M7">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="N7">
-        <v>1.4</v>
+        <v>1.333</v>
       </c>
       <c r="O7">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P7">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="Q7">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R7">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S7">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T7">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U7">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V7">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
         <v>-1</v>
       </c>
       <c r="AA7">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB7">
         <v>-1</v>
       </c>
       <c r="AC7">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1174,7 +1174,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5447925</v>
+        <v>5451610</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1189,73 +1189,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K8">
-        <v>5.5</v>
+        <v>1.444</v>
       </c>
       <c r="L8">
         <v>4</v>
       </c>
       <c r="M8">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="N8">
-        <v>4.5</v>
+        <v>1.333</v>
       </c>
       <c r="O8">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P8">
-        <v>1.615</v>
+        <v>8</v>
       </c>
       <c r="Q8">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R8">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S8">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T8">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U8">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V8">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
         <v>-1</v>
       </c>
       <c r="AA8">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="AC8">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1263,7 +1263,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5448048</v>
+        <v>5452381</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1278,73 +1278,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="L9">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="N9">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="O9">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P9">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="Q9">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R9">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S9">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T9">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U9">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V9">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z9">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
       <c r="AB9">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>0.475</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1352,7 +1352,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5448049</v>
+        <v>5447925</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1367,73 +1367,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K10">
-        <v>1.571</v>
+        <v>5.5</v>
       </c>
       <c r="L10">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M10">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="N10">
-        <v>1.444</v>
+        <v>4.5</v>
       </c>
       <c r="O10">
         <v>4</v>
       </c>
       <c r="P10">
-        <v>6</v>
+        <v>1.615</v>
       </c>
       <c r="Q10">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R10">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S10">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T10">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U10">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V10">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W10">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X10">
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z10">
+        <v>-1</v>
+      </c>
+      <c r="AA10">
+        <v>0.8</v>
+      </c>
+      <c r="AB10">
         <v>0</v>
       </c>
-      <c r="AA10">
+      <c r="AC10">
         <v>-0</v>
-      </c>
-      <c r="AB10">
-        <v>-1</v>
-      </c>
-      <c r="AC10">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1456,7 +1456,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1542,10 +1542,10 @@
         <v>45083.66666666666</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1631,10 +1631,10 @@
         <v>45088.54166666666</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1723,7 +1723,7 @@
         <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1812,7 +1812,7 @@
         <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H15">
         <v>3</v>
@@ -1987,7 +1987,7 @@
         <v>45129.52083333334</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G17" t="s">
         <v>38</v>
@@ -2165,7 +2165,7 @@
         <v>45130.31944444445</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
         <v>48</v>
@@ -2432,7 +2432,7 @@
         <v>45131.54166666666</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2521,7 +2521,7 @@
         <v>45135.54166666666</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s">
         <v>39</v>
@@ -2699,7 +2699,7 @@
         <v>45136.41666666666</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G25" t="s">
         <v>43</v>
@@ -2788,7 +2788,7 @@
         <v>45136.52083333334</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G26" t="s">
         <v>48</v>
@@ -2877,7 +2877,7 @@
         <v>45136.625</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
         <v>44</v>
@@ -3144,7 +3144,7 @@
         <v>45137.54166666666</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G30" t="s">
         <v>50</v>
@@ -3325,7 +3325,7 @@
         <v>43</v>
       </c>
       <c r="G32" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3503,7 +3503,7 @@
         <v>44</v>
       </c>
       <c r="G34" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -3592,7 +3592,7 @@
         <v>38</v>
       </c>
       <c r="G35" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>41</v>
       </c>
       <c r="G36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -4037,7 +4037,7 @@
         <v>49</v>
       </c>
       <c r="G40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4123,7 +4123,7 @@
         <v>45149.54166666666</v>
       </c>
       <c r="F41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G41" t="s">
         <v>41</v>
@@ -4304,7 +4304,7 @@
         <v>46</v>
       </c>
       <c r="G43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4479,7 +4479,7 @@
         <v>45150.625</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G45" t="s">
         <v>49</v>
@@ -4657,7 +4657,7 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G47" t="s">
         <v>39</v>
@@ -4746,7 +4746,7 @@
         <v>45151.54166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
         <v>40</v>
@@ -4924,10 +4924,10 @@
         <v>45156.54166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G50" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -5105,7 +5105,7 @@
         <v>48</v>
       </c>
       <c r="G52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H52">
         <v>3</v>
@@ -5194,7 +5194,7 @@
         <v>40</v>
       </c>
       <c r="G53" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5461,7 +5461,7 @@
         <v>44</v>
       </c>
       <c r="G56" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5817,7 +5817,7 @@
         <v>45</v>
       </c>
       <c r="G60" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H60">
         <v>3</v>
@@ -6081,7 +6081,7 @@
         <v>45164.625</v>
       </c>
       <c r="F63" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G63" t="s">
         <v>48</v>
@@ -6259,7 +6259,7 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F65" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G65" t="s">
         <v>41</v>
@@ -6348,7 +6348,7 @@
         <v>45165.54166666666</v>
       </c>
       <c r="F66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G66" t="s">
         <v>43</v>
@@ -6440,7 +6440,7 @@
         <v>46</v>
       </c>
       <c r="G67" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6529,7 +6529,7 @@
         <v>49</v>
       </c>
       <c r="G68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -6885,7 +6885,7 @@
         <v>43</v>
       </c>
       <c r="G72" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -6971,7 +6971,7 @@
         <v>45172.31944444445</v>
       </c>
       <c r="F73" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G73" t="s">
         <v>45</v>
@@ -7060,7 +7060,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F74" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G74" t="s">
         <v>47</v>
@@ -7137,7 +7137,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6805719</v>
+        <v>6803727</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7149,58 +7149,58 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F75" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G75" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="H75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
         <v>53</v>
       </c>
       <c r="K75">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="L75">
         <v>3.3</v>
       </c>
       <c r="M75">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="N75">
-        <v>2.05</v>
+        <v>3.75</v>
       </c>
       <c r="O75">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P75">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="Q75">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R75">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S75">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T75">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U75">
+        <v>1.925</v>
+      </c>
+      <c r="V75">
         <v>1.875</v>
       </c>
-      <c r="V75">
-        <v>1.975</v>
-      </c>
       <c r="W75">
-        <v>1.05</v>
+        <v>2.75</v>
       </c>
       <c r="X75">
         <v>-1</v>
@@ -7209,16 +7209,16 @@
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA75">
         <v>-1</v>
       </c>
       <c r="AB75">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7226,7 +7226,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6803727</v>
+        <v>6805719</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7238,58 +7238,58 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F76" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G76" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H76">
+        <v>3</v>
+      </c>
+      <c r="I76">
         <v>2</v>
-      </c>
-      <c r="I76">
-        <v>1</v>
       </c>
       <c r="J76" t="s">
         <v>53</v>
       </c>
       <c r="K76">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="L76">
         <v>3.3</v>
       </c>
       <c r="M76">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="N76">
-        <v>3.75</v>
+        <v>2.05</v>
       </c>
       <c r="O76">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P76">
+        <v>3.2</v>
+      </c>
+      <c r="Q76">
+        <v>-0.25</v>
+      </c>
+      <c r="R76">
         <v>1.85</v>
       </c>
-      <c r="Q76">
-        <v>0.5</v>
-      </c>
-      <c r="R76">
-        <v>1.925</v>
-      </c>
       <c r="S76">
+        <v>2</v>
+      </c>
+      <c r="T76">
+        <v>2.5</v>
+      </c>
+      <c r="U76">
         <v>1.875</v>
       </c>
-      <c r="T76">
-        <v>2.75</v>
-      </c>
-      <c r="U76">
-        <v>1.925</v>
-      </c>
       <c r="V76">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W76">
-        <v>2.75</v>
+        <v>1.05</v>
       </c>
       <c r="X76">
         <v>-1</v>
@@ -7298,16 +7298,16 @@
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA76">
         <v>-1</v>
       </c>
       <c r="AB76">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AC76">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7327,7 +7327,7 @@
         <v>45184.54166666666</v>
       </c>
       <c r="F77" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G77" t="s">
         <v>48</v>
@@ -7419,7 +7419,7 @@
         <v>47</v>
       </c>
       <c r="G78" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7861,10 +7861,10 @@
         <v>45186.45833333334</v>
       </c>
       <c r="F83" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G83" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -8039,7 +8039,7 @@
         <v>45187.54166666666</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G85" t="s">
         <v>49</v>
@@ -8116,7 +8116,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6803740</v>
+        <v>6803738</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8128,19 +8128,19 @@
         <v>45191.54166666666</v>
       </c>
       <c r="F86" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H86">
         <v>1</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K86">
         <v>1.85</v>
@@ -8149,55 +8149,55 @@
         <v>3.5</v>
       </c>
       <c r="M86">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="N86">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="O86">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P86">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q86">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R86">
+        <v>1.825</v>
+      </c>
+      <c r="S86">
         <v>1.975</v>
       </c>
-      <c r="S86">
+      <c r="T86">
+        <v>2.5</v>
+      </c>
+      <c r="U86">
         <v>1.825</v>
       </c>
-      <c r="T86">
-        <v>2.25</v>
-      </c>
-      <c r="U86">
-        <v>1.9</v>
-      </c>
       <c r="V86">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W86">
         <v>-1</v>
       </c>
       <c r="X86">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y86">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
         <v>-1</v>
       </c>
       <c r="AA86">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB86">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8205,7 +8205,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6803738</v>
+        <v>6803740</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8217,19 +8217,19 @@
         <v>45191.54166666666</v>
       </c>
       <c r="F87" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G87" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H87">
         <v>1</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K87">
         <v>1.85</v>
@@ -8238,55 +8238,55 @@
         <v>3.5</v>
       </c>
       <c r="M87">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="N87">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="O87">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P87">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q87">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R87">
+        <v>1.975</v>
+      </c>
+      <c r="S87">
         <v>1.825</v>
       </c>
-      <c r="S87">
-        <v>1.975</v>
-      </c>
       <c r="T87">
+        <v>2.25</v>
+      </c>
+      <c r="U87">
+        <v>1.9</v>
+      </c>
+      <c r="V87">
+        <v>1.9</v>
+      </c>
+      <c r="W87">
+        <v>-1</v>
+      </c>
+      <c r="X87">
+        <v>-1</v>
+      </c>
+      <c r="Y87">
         <v>2.5</v>
       </c>
-      <c r="U87">
-        <v>1.825</v>
-      </c>
-      <c r="V87">
-        <v>1.975</v>
-      </c>
-      <c r="W87">
-        <v>-1</v>
-      </c>
-      <c r="X87">
-        <v>2.8</v>
-      </c>
-      <c r="Y87">
-        <v>-1</v>
-      </c>
       <c r="Z87">
         <v>-1</v>
       </c>
       <c r="AA87">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC87">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8754,7 +8754,7 @@
         <v>43</v>
       </c>
       <c r="G93" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -8840,10 +8840,10 @@
         <v>45193.54166666666</v>
       </c>
       <c r="F94" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G94" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -8932,7 +8932,7 @@
         <v>42</v>
       </c>
       <c r="G95" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H95">
         <v>2</v>
@@ -9285,7 +9285,7 @@
         <v>45199.625</v>
       </c>
       <c r="F99" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G99" t="s">
         <v>49</v>
@@ -9463,7 +9463,7 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G101" t="s">
         <v>45</v>
@@ -9641,10 +9641,10 @@
         <v>45201.54166666666</v>
       </c>
       <c r="F103" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G103" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9822,7 +9822,7 @@
         <v>45</v>
       </c>
       <c r="G105" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9908,10 +9908,10 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F106" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G106" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -10341,7 +10341,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6805706</v>
+        <v>6803754</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10353,76 +10353,76 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F111" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G111" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H111">
         <v>0</v>
       </c>
       <c r="I111">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K111">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L111">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M111">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="N111">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="O111">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P111">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="Q111">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R111">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S111">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T111">
         <v>2.5</v>
       </c>
       <c r="U111">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V111">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W111">
         <v>-1</v>
       </c>
       <c r="X111">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y111">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA111">
+        <v>-0</v>
+      </c>
+      <c r="AB111">
+        <v>-1</v>
+      </c>
+      <c r="AC111">
         <v>0.95</v>
-      </c>
-      <c r="AB111">
-        <v>-1</v>
-      </c>
-      <c r="AC111">
-        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10430,7 +10430,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6803754</v>
+        <v>6805706</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10442,76 +10442,76 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F112" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G112" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H112">
         <v>0</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K112">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L112">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M112">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="N112">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="O112">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P112">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="Q112">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R112">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S112">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T112">
         <v>2.5</v>
       </c>
       <c r="U112">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V112">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W112">
         <v>-1</v>
       </c>
       <c r="X112">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z112">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA112">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB112">
         <v>-1</v>
       </c>
       <c r="AC112">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10709,10 +10709,10 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F115" t="s">
+        <v>35</v>
+      </c>
+      <c r="G115" t="s">
         <v>33</v>
-      </c>
-      <c r="G115" t="s">
-        <v>36</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -10801,7 +10801,7 @@
         <v>50</v>
       </c>
       <c r="G116" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H116">
         <v>3</v>
@@ -10979,7 +10979,7 @@
         <v>46</v>
       </c>
       <c r="G118" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H118">
         <v>2</v>
@@ -11065,7 +11065,7 @@
         <v>45221.54166666666</v>
       </c>
       <c r="F119" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G119" t="s">
         <v>47</v>
@@ -11421,7 +11421,7 @@
         <v>45226.64583333334</v>
       </c>
       <c r="F123" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G123" t="s">
         <v>38</v>
@@ -11513,7 +11513,7 @@
         <v>45</v>
       </c>
       <c r="G124" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -11599,7 +11599,7 @@
         <v>45227.52083333334</v>
       </c>
       <c r="F125" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G125" t="s">
         <v>50</v>
@@ -11688,10 +11688,10 @@
         <v>45227.625</v>
       </c>
       <c r="F126" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G126" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H126">
         <v>3</v>
@@ -12225,7 +12225,7 @@
         <v>38</v>
       </c>
       <c r="G132" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -12314,7 +12314,7 @@
         <v>39</v>
       </c>
       <c r="G133" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H133">
         <v>1</v>
@@ -12403,7 +12403,7 @@
         <v>46</v>
       </c>
       <c r="G134" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -12492,7 +12492,7 @@
         <v>42</v>
       </c>
       <c r="G135" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -12667,7 +12667,7 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F137" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G137" t="s">
         <v>47</v>
@@ -13112,7 +13112,7 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F142" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G142" t="s">
         <v>42</v>
@@ -13290,10 +13290,10 @@
         <v>45241.66666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G144" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H144">
         <v>1</v>
@@ -13557,7 +13557,7 @@
         <v>45242.58333333334</v>
       </c>
       <c r="F147" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G147" t="s">
         <v>44</v>
@@ -13646,7 +13646,7 @@
         <v>45242.58333333334</v>
       </c>
       <c r="F148" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G148" t="s">
         <v>39</v>
@@ -13738,7 +13738,7 @@
         <v>41</v>
       </c>
       <c r="G149" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H149">
         <v>3</v>
@@ -13913,10 +13913,10 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F151" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G151" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H151">
         <v>3</v>
@@ -14361,7 +14361,7 @@
         <v>44</v>
       </c>
       <c r="G156" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H156">
         <v>2</v>
@@ -14450,7 +14450,7 @@
         <v>50</v>
       </c>
       <c r="G157" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H157">
         <v>3</v>
@@ -14539,7 +14539,7 @@
         <v>42</v>
       </c>
       <c r="G158" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H158">
         <v>2</v>
@@ -14625,7 +14625,7 @@
         <v>45261.6875</v>
       </c>
       <c r="F159" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G159" t="s">
         <v>38</v>
@@ -15070,7 +15070,7 @@
         <v>45268.6875</v>
       </c>
       <c r="F164" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G164" t="s">
         <v>40</v>
@@ -15162,7 +15162,7 @@
         <v>48</v>
       </c>
       <c r="G165" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H165">
         <v>2</v>
@@ -15429,7 +15429,7 @@
         <v>38</v>
       </c>
       <c r="G168" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H168">
         <v>4</v>
@@ -15518,7 +15518,7 @@
         <v>46</v>
       </c>
       <c r="G169" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H169">
         <v>1</v>
@@ -15604,7 +15604,7 @@
         <v>45271.58333333334</v>
       </c>
       <c r="F170" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G170" t="s">
         <v>39</v>
@@ -15785,7 +15785,7 @@
         <v>48</v>
       </c>
       <c r="G172" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H172">
         <v>2</v>
@@ -15963,7 +15963,7 @@
         <v>39</v>
       </c>
       <c r="G174" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H174">
         <v>0</v>
@@ -16230,7 +16230,7 @@
         <v>43</v>
       </c>
       <c r="G177" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H177">
         <v>0</v>
@@ -16319,7 +16319,7 @@
         <v>50</v>
       </c>
       <c r="G178" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H178">
         <v>2</v>
@@ -16408,7 +16408,7 @@
         <v>44</v>
       </c>
       <c r="G179" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H179">
         <v>2</v>
@@ -16494,7 +16494,7 @@
         <v>45279.5625</v>
       </c>
       <c r="F180" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G180" t="s">
         <v>41</v>
@@ -16672,7 +16672,7 @@
         <v>45338.58333333334</v>
       </c>
       <c r="F182" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G182" t="s">
         <v>44</v>
@@ -16850,7 +16850,7 @@
         <v>45339.45833333334</v>
       </c>
       <c r="F184" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G184" t="s">
         <v>49</v>
@@ -17117,7 +17117,7 @@
         <v>45340.36111111111</v>
       </c>
       <c r="F187" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G187" t="s">
         <v>38</v>
@@ -17206,7 +17206,7 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G188" t="s">
         <v>41</v>
@@ -17295,7 +17295,7 @@
         <v>45340.58333333334</v>
       </c>
       <c r="F189" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G189" t="s">
         <v>43</v>
@@ -17473,7 +17473,7 @@
         <v>45342.58333333334</v>
       </c>
       <c r="F191" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G191" t="s">
         <v>50</v>
@@ -17740,7 +17740,7 @@
         <v>45346.36111111111</v>
       </c>
       <c r="F194" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G194" t="s">
         <v>46</v>
@@ -17921,7 +17921,7 @@
         <v>40</v>
       </c>
       <c r="G196" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -18010,7 +18010,7 @@
         <v>39</v>
       </c>
       <c r="G197" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H197">
         <v>5</v>
@@ -18188,7 +18188,7 @@
         <v>49</v>
       </c>
       <c r="G199" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H199">
         <v>1</v>
@@ -18277,7 +18277,16 @@
         <v>41</v>
       </c>
       <c r="G200" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="H200">
+        <v>0</v>
+      </c>
+      <c r="I200">
+        <v>1</v>
+      </c>
+      <c r="J200" t="s">
+        <v>55</v>
       </c>
       <c r="K200">
         <v>3</v>
@@ -18289,45 +18298,125 @@
         <v>2.25</v>
       </c>
       <c r="N200">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="O200">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P200">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="Q200">
         <v>0</v>
       </c>
       <c r="R200">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S200">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T200">
         <v>2.25</v>
       </c>
       <c r="U200">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V200">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W200">
+        <v>-1</v>
+      </c>
+      <c r="X200">
+        <v>-1</v>
+      </c>
+      <c r="Y200">
+        <v>1.8</v>
+      </c>
+      <c r="Z200">
+        <v>-1</v>
+      </c>
+      <c r="AA200">
+        <v>1.025</v>
+      </c>
+      <c r="AB200">
+        <v>-1</v>
+      </c>
+      <c r="AC200">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="201" spans="1:29">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>7678787</v>
+      </c>
+      <c r="C201" t="s">
+        <v>28</v>
+      </c>
+      <c r="D201" t="s">
+        <v>28</v>
+      </c>
+      <c r="E201" s="2">
+        <v>45349.58333333334</v>
+      </c>
+      <c r="F201" t="s">
+        <v>47</v>
+      </c>
+      <c r="G201" t="s">
+        <v>44</v>
+      </c>
+      <c r="K201">
+        <v>2.3</v>
+      </c>
+      <c r="L201">
+        <v>3.3</v>
+      </c>
+      <c r="M201">
+        <v>2.875</v>
+      </c>
+      <c r="N201">
+        <v>2.45</v>
+      </c>
+      <c r="O201">
+        <v>3.2</v>
+      </c>
+      <c r="P201">
+        <v>2.75</v>
+      </c>
+      <c r="Q201">
         <v>0</v>
       </c>
-      <c r="X200">
+      <c r="R201">
+        <v>1.825</v>
+      </c>
+      <c r="S201">
+        <v>2.025</v>
+      </c>
+      <c r="T201">
+        <v>2.5</v>
+      </c>
+      <c r="U201">
+        <v>2.05</v>
+      </c>
+      <c r="V201">
+        <v>1.8</v>
+      </c>
+      <c r="W201">
         <v>0</v>
       </c>
-      <c r="Y200">
+      <c r="X201">
         <v>0</v>
       </c>
-      <c r="Z200">
+      <c r="Y201">
         <v>0</v>
       </c>
-      <c r="AA200">
+      <c r="Z201">
+        <v>0</v>
+      </c>
+      <c r="AA201">
         <v>0</v>
       </c>
     </row>

--- a/Poland I Liga/Poland I Liga.xlsx
+++ b/Poland I Liga/Poland I Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -103,31 +103,31 @@
     <t>Poland I Liga</t>
   </si>
   <si>
+    <t>Podbeskidzie Bielsko Biala</t>
+  </si>
+  <si>
+    <t>Chojniczanka Chojnice</t>
+  </si>
+  <si>
+    <t>Ruch Chorzow</t>
+  </si>
+  <si>
     <t>LKS Lodz</t>
   </si>
   <si>
-    <t>Podbeskidzie Bielsko Biala</t>
+    <t>Gornik Leczna</t>
+  </si>
+  <si>
+    <t>MKS Puszcza Niepolomice</t>
+  </si>
+  <si>
+    <t>Zaglebie Sosnowiec</t>
   </si>
   <si>
     <t>Termalica BB Nieciecza</t>
   </si>
   <si>
-    <t>Chojniczanka Chojnice</t>
-  </si>
-  <si>
-    <t>Zaglebie Sosnowiec</t>
-  </si>
-  <si>
-    <t>Ruch Chorzow</t>
-  </si>
-  <si>
     <t>Stal Rzeszow</t>
-  </si>
-  <si>
-    <t>MKS Puszcza Niepolomice</t>
-  </si>
-  <si>
-    <t>Gornik Leczna</t>
   </si>
   <si>
     <t>Wisla Krakow</t>
@@ -543,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC201"/>
+  <dimension ref="A1:AC211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5448049</v>
+        <v>5451607</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -655,55 +655,55 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J2" t="s">
         <v>53</v>
       </c>
       <c r="K2">
-        <v>1.571</v>
+        <v>1.615</v>
       </c>
       <c r="L2">
         <v>3.75</v>
       </c>
       <c r="M2">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="N2">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="O2">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P2">
         <v>6</v>
       </c>
       <c r="Q2">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R2">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S2">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T2">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U2">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V2">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W2">
-        <v>0.444</v>
+        <v>0.363</v>
       </c>
       <c r="X2">
         <v>-1</v>
@@ -712,16 +712,16 @@
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA2">
-        <v>-0</v>
+        <v>0.4875</v>
       </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC2">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -729,7 +729,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5451607</v>
+        <v>5448050</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -744,70 +744,70 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I3">
         <v>3</v>
       </c>
       <c r="J3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K3">
-        <v>1.615</v>
+        <v>2.75</v>
       </c>
       <c r="L3">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M3">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="N3">
-        <v>1.363</v>
+        <v>2.4</v>
       </c>
       <c r="O3">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="P3">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="Q3">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S3">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T3">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U3">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V3">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W3">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.4875</v>
+        <v>-0</v>
       </c>
       <c r="AB3">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC3">
         <v>-1</v>
@@ -818,7 +818,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5451608</v>
+        <v>5451609</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -833,55 +833,55 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
         <v>53</v>
       </c>
       <c r="K4">
-        <v>1.909</v>
+        <v>1.3</v>
       </c>
       <c r="L4">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M4">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="N4">
-        <v>1.909</v>
+        <v>1.333</v>
       </c>
       <c r="O4">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P4">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="Q4">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R4">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S4">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T4">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U4">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V4">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W4">
-        <v>0.909</v>
+        <v>0.333</v>
       </c>
       <c r="X4">
         <v>-1</v>
@@ -890,16 +890,16 @@
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB4">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -907,7 +907,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5448050</v>
+        <v>5448049</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -922,58 +922,58 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K5">
+        <v>1.571</v>
+      </c>
+      <c r="L5">
+        <v>3.75</v>
+      </c>
+      <c r="M5">
+        <v>5</v>
+      </c>
+      <c r="N5">
+        <v>1.444</v>
+      </c>
+      <c r="O5">
+        <v>4</v>
+      </c>
+      <c r="P5">
+        <v>6</v>
+      </c>
+      <c r="Q5">
+        <v>-1</v>
+      </c>
+      <c r="R5">
+        <v>1.775</v>
+      </c>
+      <c r="S5">
+        <v>2.025</v>
+      </c>
+      <c r="T5">
         <v>2.75</v>
       </c>
-      <c r="L5">
-        <v>3.25</v>
-      </c>
-      <c r="M5">
-        <v>2.375</v>
-      </c>
-      <c r="N5">
-        <v>2.4</v>
-      </c>
-      <c r="O5">
-        <v>3.25</v>
-      </c>
-      <c r="P5">
-        <v>2.7</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>1.8</v>
-      </c>
-      <c r="S5">
-        <v>2.05</v>
-      </c>
-      <c r="T5">
-        <v>2.5</v>
-      </c>
       <c r="U5">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V5">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X5">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
         <v>-1</v>
@@ -985,10 +985,10 @@
         <v>-0</v>
       </c>
       <c r="AB5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -996,7 +996,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5448048</v>
+        <v>5447925</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1011,73 +1011,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K6">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="L6">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="N6">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="O6">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P6">
-        <v>3.1</v>
+        <v>1.615</v>
       </c>
       <c r="Q6">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R6">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S6">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T6">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U6">
+        <v>2</v>
+      </c>
+      <c r="V6">
         <v>1.85</v>
       </c>
-      <c r="V6">
-        <v>1.95</v>
-      </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z6">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
       <c r="AB6">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.475</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1085,7 +1085,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5451609</v>
+        <v>5452381</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1100,73 +1100,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
         <v>1</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
       <c r="J7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K7">
-        <v>1.3</v>
+        <v>1.571</v>
       </c>
       <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="M7">
         <v>5</v>
       </c>
-      <c r="M7">
-        <v>7.5</v>
-      </c>
       <c r="N7">
-        <v>1.333</v>
+        <v>1.4</v>
       </c>
       <c r="O7">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P7">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="Q7">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R7">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S7">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T7">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U7">
+        <v>2.025</v>
+      </c>
+      <c r="V7">
         <v>1.825</v>
       </c>
-      <c r="V7">
-        <v>1.975</v>
-      </c>
       <c r="W7">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z7">
         <v>-1</v>
       </c>
       <c r="AA7">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB7">
         <v>-1</v>
       </c>
       <c r="AC7">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1174,7 +1174,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5451610</v>
+        <v>5448048</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1189,73 +1189,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K8">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="L8">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M8">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="N8">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="O8">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="P8">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="Q8">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R8">
+        <v>1.875</v>
+      </c>
+      <c r="S8">
+        <v>1.925</v>
+      </c>
+      <c r="T8">
+        <v>2.25</v>
+      </c>
+      <c r="U8">
+        <v>1.85</v>
+      </c>
+      <c r="V8">
         <v>1.95</v>
       </c>
-      <c r="S8">
-        <v>1.85</v>
-      </c>
-      <c r="T8">
-        <v>2.75</v>
-      </c>
-      <c r="U8">
-        <v>1.875</v>
-      </c>
-      <c r="V8">
-        <v>1.925</v>
-      </c>
       <c r="W8">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA8">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AB8">
-        <v>0.4375</v>
+        <v>-0.5</v>
       </c>
       <c r="AC8">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1263,7 +1263,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5452381</v>
+        <v>5451608</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1278,73 +1278,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K9">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M9">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N9">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="O9">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P9">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q9">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R9">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S9">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T9">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U9">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V9">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA9">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC9">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1352,7 +1352,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5447925</v>
+        <v>5451610</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1367,73 +1367,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K10">
-        <v>5.5</v>
+        <v>1.444</v>
       </c>
       <c r="L10">
         <v>4</v>
       </c>
       <c r="M10">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="N10">
-        <v>4.5</v>
+        <v>1.333</v>
       </c>
       <c r="O10">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P10">
-        <v>1.615</v>
+        <v>8</v>
       </c>
       <c r="Q10">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R10">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S10">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T10">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U10">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V10">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X10">
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z10">
         <v>-1</v>
       </c>
       <c r="AA10">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="AC10">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1456,7 +1456,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1542,10 +1542,10 @@
         <v>45083.66666666666</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1631,10 +1631,10 @@
         <v>45088.54166666666</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1723,7 +1723,7 @@
         <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1812,7 +1812,7 @@
         <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H15">
         <v>3</v>
@@ -1987,7 +1987,7 @@
         <v>45129.52083333334</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G17" t="s">
         <v>38</v>
@@ -2165,7 +2165,7 @@
         <v>45130.31944444445</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
         <v>48</v>
@@ -2432,7 +2432,7 @@
         <v>45131.54166666666</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2521,7 +2521,7 @@
         <v>45135.54166666666</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G23" t="s">
         <v>39</v>
@@ -2699,7 +2699,7 @@
         <v>45136.41666666666</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G25" t="s">
         <v>43</v>
@@ -2788,7 +2788,7 @@
         <v>45136.52083333334</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G26" t="s">
         <v>48</v>
@@ -2877,7 +2877,7 @@
         <v>45136.625</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s">
         <v>44</v>
@@ -3144,7 +3144,7 @@
         <v>45137.54166666666</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G30" t="s">
         <v>50</v>
@@ -3325,7 +3325,7 @@
         <v>43</v>
       </c>
       <c r="G32" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3503,7 +3503,7 @@
         <v>44</v>
       </c>
       <c r="G34" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -3592,7 +3592,7 @@
         <v>38</v>
       </c>
       <c r="G35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>41</v>
       </c>
       <c r="G36" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -4037,7 +4037,7 @@
         <v>49</v>
       </c>
       <c r="G40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4123,7 +4123,7 @@
         <v>45149.54166666666</v>
       </c>
       <c r="F41" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G41" t="s">
         <v>41</v>
@@ -4304,7 +4304,7 @@
         <v>46</v>
       </c>
       <c r="G43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4479,7 +4479,7 @@
         <v>45150.625</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G45" t="s">
         <v>49</v>
@@ -4657,7 +4657,7 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F47" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G47" t="s">
         <v>39</v>
@@ -4746,7 +4746,7 @@
         <v>45151.54166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G48" t="s">
         <v>40</v>
@@ -4924,10 +4924,10 @@
         <v>45156.54166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G50" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -5105,7 +5105,7 @@
         <v>48</v>
       </c>
       <c r="G52" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H52">
         <v>3</v>
@@ -5194,7 +5194,7 @@
         <v>40</v>
       </c>
       <c r="G53" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5461,7 +5461,7 @@
         <v>44</v>
       </c>
       <c r="G56" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5817,7 +5817,7 @@
         <v>45</v>
       </c>
       <c r="G60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H60">
         <v>3</v>
@@ -6081,7 +6081,7 @@
         <v>45164.625</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G63" t="s">
         <v>48</v>
@@ -6259,7 +6259,7 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F65" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G65" t="s">
         <v>41</v>
@@ -6348,7 +6348,7 @@
         <v>45165.54166666666</v>
       </c>
       <c r="F66" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G66" t="s">
         <v>43</v>
@@ -6440,7 +6440,7 @@
         <v>46</v>
       </c>
       <c r="G67" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6529,7 +6529,7 @@
         <v>49</v>
       </c>
       <c r="G68" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -6885,7 +6885,7 @@
         <v>43</v>
       </c>
       <c r="G72" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -6971,7 +6971,7 @@
         <v>45172.31944444445</v>
       </c>
       <c r="F73" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G73" t="s">
         <v>45</v>
@@ -7060,7 +7060,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G74" t="s">
         <v>47</v>
@@ -7137,7 +7137,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6803727</v>
+        <v>6805719</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7149,58 +7149,58 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F75" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G75" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H75">
+        <v>3</v>
+      </c>
+      <c r="I75">
         <v>2</v>
-      </c>
-      <c r="I75">
-        <v>1</v>
       </c>
       <c r="J75" t="s">
         <v>53</v>
       </c>
       <c r="K75">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="L75">
         <v>3.3</v>
       </c>
       <c r="M75">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="N75">
-        <v>3.75</v>
+        <v>2.05</v>
       </c>
       <c r="O75">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P75">
+        <v>3.2</v>
+      </c>
+      <c r="Q75">
+        <v>-0.25</v>
+      </c>
+      <c r="R75">
         <v>1.85</v>
       </c>
-      <c r="Q75">
-        <v>0.5</v>
-      </c>
-      <c r="R75">
-        <v>1.925</v>
-      </c>
       <c r="S75">
+        <v>2</v>
+      </c>
+      <c r="T75">
+        <v>2.5</v>
+      </c>
+      <c r="U75">
         <v>1.875</v>
       </c>
-      <c r="T75">
-        <v>2.75</v>
-      </c>
-      <c r="U75">
-        <v>1.925</v>
-      </c>
       <c r="V75">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W75">
-        <v>2.75</v>
+        <v>1.05</v>
       </c>
       <c r="X75">
         <v>-1</v>
@@ -7209,16 +7209,16 @@
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA75">
         <v>-1</v>
       </c>
       <c r="AB75">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AC75">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7226,7 +7226,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6805719</v>
+        <v>6803727</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7238,58 +7238,58 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F76" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G76" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J76" t="s">
         <v>53</v>
       </c>
       <c r="K76">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="L76">
         <v>3.3</v>
       </c>
       <c r="M76">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="N76">
-        <v>2.05</v>
+        <v>3.75</v>
       </c>
       <c r="O76">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P76">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="Q76">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R76">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S76">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T76">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U76">
+        <v>1.925</v>
+      </c>
+      <c r="V76">
         <v>1.875</v>
       </c>
-      <c r="V76">
-        <v>1.975</v>
-      </c>
       <c r="W76">
-        <v>1.05</v>
+        <v>2.75</v>
       </c>
       <c r="X76">
         <v>-1</v>
@@ -7298,16 +7298,16 @@
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA76">
         <v>-1</v>
       </c>
       <c r="AB76">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7327,7 +7327,7 @@
         <v>45184.54166666666</v>
       </c>
       <c r="F77" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G77" t="s">
         <v>48</v>
@@ -7419,7 +7419,7 @@
         <v>47</v>
       </c>
       <c r="G78" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7861,10 +7861,10 @@
         <v>45186.45833333334</v>
       </c>
       <c r="F83" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G83" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -8039,7 +8039,7 @@
         <v>45187.54166666666</v>
       </c>
       <c r="F85" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G85" t="s">
         <v>49</v>
@@ -8128,10 +8128,10 @@
         <v>45191.54166666666</v>
       </c>
       <c r="F86" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G86" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -8754,7 +8754,7 @@
         <v>43</v>
       </c>
       <c r="G93" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -8840,10 +8840,10 @@
         <v>45193.54166666666</v>
       </c>
       <c r="F94" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G94" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -8932,7 +8932,7 @@
         <v>42</v>
       </c>
       <c r="G95" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H95">
         <v>2</v>
@@ -9285,7 +9285,7 @@
         <v>45199.625</v>
       </c>
       <c r="F99" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G99" t="s">
         <v>49</v>
@@ -9463,7 +9463,7 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G101" t="s">
         <v>45</v>
@@ -9641,10 +9641,10 @@
         <v>45201.54166666666</v>
       </c>
       <c r="F103" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G103" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9822,7 +9822,7 @@
         <v>45</v>
       </c>
       <c r="G105" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9908,10 +9908,10 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F106" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G106" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -10341,7 +10341,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6803754</v>
+        <v>6805706</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10353,76 +10353,76 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F111" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G111" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H111">
         <v>0</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J111" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K111">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L111">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M111">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="N111">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="O111">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P111">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="Q111">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R111">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S111">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T111">
         <v>2.5</v>
       </c>
       <c r="U111">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V111">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W111">
         <v>-1</v>
       </c>
       <c r="X111">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z111">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB111">
         <v>-1</v>
       </c>
       <c r="AC111">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10430,7 +10430,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6805706</v>
+        <v>6803754</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10442,76 +10442,76 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F112" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G112" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H112">
         <v>0</v>
       </c>
       <c r="I112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K112">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L112">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M112">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="N112">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="O112">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P112">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="Q112">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R112">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S112">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T112">
         <v>2.5</v>
       </c>
       <c r="U112">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V112">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W112">
         <v>-1</v>
       </c>
       <c r="X112">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y112">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA112">
+        <v>-0</v>
+      </c>
+      <c r="AB112">
+        <v>-1</v>
+      </c>
+      <c r="AC112">
         <v>0.95</v>
-      </c>
-      <c r="AB112">
-        <v>-1</v>
-      </c>
-      <c r="AC112">
-        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10709,10 +10709,10 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F115" t="s">
+        <v>37</v>
+      </c>
+      <c r="G115" t="s">
         <v>35</v>
-      </c>
-      <c r="G115" t="s">
-        <v>33</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -10801,7 +10801,7 @@
         <v>50</v>
       </c>
       <c r="G116" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H116">
         <v>3</v>
@@ -10979,7 +10979,7 @@
         <v>46</v>
       </c>
       <c r="G118" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H118">
         <v>2</v>
@@ -11065,7 +11065,7 @@
         <v>45221.54166666666</v>
       </c>
       <c r="F119" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G119" t="s">
         <v>47</v>
@@ -11421,7 +11421,7 @@
         <v>45226.64583333334</v>
       </c>
       <c r="F123" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G123" t="s">
         <v>38</v>
@@ -11513,7 +11513,7 @@
         <v>45</v>
       </c>
       <c r="G124" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -11599,7 +11599,7 @@
         <v>45227.52083333334</v>
       </c>
       <c r="F125" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G125" t="s">
         <v>50</v>
@@ -11688,10 +11688,10 @@
         <v>45227.625</v>
       </c>
       <c r="F126" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G126" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H126">
         <v>3</v>
@@ -12225,7 +12225,7 @@
         <v>38</v>
       </c>
       <c r="G132" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -12314,7 +12314,7 @@
         <v>39</v>
       </c>
       <c r="G133" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H133">
         <v>1</v>
@@ -12403,7 +12403,7 @@
         <v>46</v>
       </c>
       <c r="G134" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -12492,7 +12492,7 @@
         <v>42</v>
       </c>
       <c r="G135" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -12667,7 +12667,7 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F137" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G137" t="s">
         <v>47</v>
@@ -13112,7 +13112,7 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F142" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G142" t="s">
         <v>42</v>
@@ -13290,10 +13290,10 @@
         <v>45241.66666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G144" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H144">
         <v>1</v>
@@ -13557,7 +13557,7 @@
         <v>45242.58333333334</v>
       </c>
       <c r="F147" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G147" t="s">
         <v>44</v>
@@ -13646,7 +13646,7 @@
         <v>45242.58333333334</v>
       </c>
       <c r="F148" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G148" t="s">
         <v>39</v>
@@ -13738,7 +13738,7 @@
         <v>41</v>
       </c>
       <c r="G149" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H149">
         <v>3</v>
@@ -13913,10 +13913,10 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F151" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G151" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H151">
         <v>3</v>
@@ -14361,7 +14361,7 @@
         <v>44</v>
       </c>
       <c r="G156" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H156">
         <v>2</v>
@@ -14450,7 +14450,7 @@
         <v>50</v>
       </c>
       <c r="G157" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H157">
         <v>3</v>
@@ -14539,7 +14539,7 @@
         <v>42</v>
       </c>
       <c r="G158" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H158">
         <v>2</v>
@@ -14625,7 +14625,7 @@
         <v>45261.6875</v>
       </c>
       <c r="F159" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G159" t="s">
         <v>38</v>
@@ -15070,7 +15070,7 @@
         <v>45268.6875</v>
       </c>
       <c r="F164" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G164" t="s">
         <v>40</v>
@@ -15162,7 +15162,7 @@
         <v>48</v>
       </c>
       <c r="G165" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H165">
         <v>2</v>
@@ -15429,7 +15429,7 @@
         <v>38</v>
       </c>
       <c r="G168" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H168">
         <v>4</v>
@@ -15518,7 +15518,7 @@
         <v>46</v>
       </c>
       <c r="G169" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H169">
         <v>1</v>
@@ -15604,7 +15604,7 @@
         <v>45271.58333333334</v>
       </c>
       <c r="F170" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G170" t="s">
         <v>39</v>
@@ -15785,7 +15785,7 @@
         <v>48</v>
       </c>
       <c r="G172" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H172">
         <v>2</v>
@@ -15963,7 +15963,7 @@
         <v>39</v>
       </c>
       <c r="G174" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H174">
         <v>0</v>
@@ -16230,7 +16230,7 @@
         <v>43</v>
       </c>
       <c r="G177" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H177">
         <v>0</v>
@@ -16319,7 +16319,7 @@
         <v>50</v>
       </c>
       <c r="G178" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H178">
         <v>2</v>
@@ -16408,7 +16408,7 @@
         <v>44</v>
       </c>
       <c r="G179" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H179">
         <v>2</v>
@@ -16494,7 +16494,7 @@
         <v>45279.5625</v>
       </c>
       <c r="F180" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G180" t="s">
         <v>41</v>
@@ -16672,7 +16672,7 @@
         <v>45338.58333333334</v>
       </c>
       <c r="F182" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G182" t="s">
         <v>44</v>
@@ -16850,7 +16850,7 @@
         <v>45339.45833333334</v>
       </c>
       <c r="F184" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G184" t="s">
         <v>49</v>
@@ -17117,7 +17117,7 @@
         <v>45340.36111111111</v>
       </c>
       <c r="F187" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G187" t="s">
         <v>38</v>
@@ -17206,7 +17206,7 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G188" t="s">
         <v>41</v>
@@ -17295,7 +17295,7 @@
         <v>45340.58333333334</v>
       </c>
       <c r="F189" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G189" t="s">
         <v>43</v>
@@ -17473,7 +17473,7 @@
         <v>45342.58333333334</v>
       </c>
       <c r="F191" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G191" t="s">
         <v>50</v>
@@ -17740,7 +17740,7 @@
         <v>45346.36111111111</v>
       </c>
       <c r="F194" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G194" t="s">
         <v>46</v>
@@ -17921,7 +17921,7 @@
         <v>40</v>
       </c>
       <c r="G196" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -18010,7 +18010,7 @@
         <v>39</v>
       </c>
       <c r="G197" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H197">
         <v>5</v>
@@ -18188,7 +18188,7 @@
         <v>49</v>
       </c>
       <c r="G199" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H199">
         <v>1</v>
@@ -18277,7 +18277,7 @@
         <v>41</v>
       </c>
       <c r="G200" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H200">
         <v>0</v>
@@ -18368,6 +18368,15 @@
       <c r="G201" t="s">
         <v>44</v>
       </c>
+      <c r="H201">
+        <v>2</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+      <c r="J201" t="s">
+        <v>53</v>
+      </c>
       <c r="K201">
         <v>2.3</v>
       </c>
@@ -18378,13 +18387,13 @@
         <v>2.875</v>
       </c>
       <c r="N201">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="O201">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P201">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q201">
         <v>0</v>
@@ -18396,27 +18405,788 @@
         <v>2.025</v>
       </c>
       <c r="T201">
+        <v>2.25</v>
+      </c>
+      <c r="U201">
+        <v>1.925</v>
+      </c>
+      <c r="V201">
+        <v>1.925</v>
+      </c>
+      <c r="W201">
+        <v>1.6</v>
+      </c>
+      <c r="X201">
+        <v>-1</v>
+      </c>
+      <c r="Y201">
+        <v>-1</v>
+      </c>
+      <c r="Z201">
+        <v>0.825</v>
+      </c>
+      <c r="AA201">
+        <v>-1</v>
+      </c>
+      <c r="AB201">
+        <v>-0.5</v>
+      </c>
+      <c r="AC201">
+        <v>0.4625</v>
+      </c>
+    </row>
+    <row r="202" spans="1:29">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>7884621</v>
+      </c>
+      <c r="C202" t="s">
+        <v>28</v>
+      </c>
+      <c r="D202" t="s">
+        <v>28</v>
+      </c>
+      <c r="E202" s="2">
+        <v>45350.58333333334</v>
+      </c>
+      <c r="F202" t="s">
+        <v>29</v>
+      </c>
+      <c r="G202" t="s">
+        <v>40</v>
+      </c>
+      <c r="H202">
+        <v>1</v>
+      </c>
+      <c r="I202">
+        <v>2</v>
+      </c>
+      <c r="J202" t="s">
+        <v>55</v>
+      </c>
+      <c r="K202">
+        <v>2.4</v>
+      </c>
+      <c r="L202">
+        <v>3.1</v>
+      </c>
+      <c r="M202">
+        <v>2.65</v>
+      </c>
+      <c r="N202">
+        <v>2.45</v>
+      </c>
+      <c r="O202">
+        <v>3.1</v>
+      </c>
+      <c r="P202">
+        <v>2.8</v>
+      </c>
+      <c r="Q202">
+        <v>0</v>
+      </c>
+      <c r="R202">
+        <v>1.8</v>
+      </c>
+      <c r="S202">
+        <v>2.05</v>
+      </c>
+      <c r="T202">
         <v>2.5</v>
       </c>
-      <c r="U201">
+      <c r="U202">
+        <v>2.025</v>
+      </c>
+      <c r="V202">
+        <v>1.825</v>
+      </c>
+      <c r="W202">
+        <v>-1</v>
+      </c>
+      <c r="X202">
+        <v>-1</v>
+      </c>
+      <c r="Y202">
+        <v>1.8</v>
+      </c>
+      <c r="Z202">
+        <v>-1</v>
+      </c>
+      <c r="AA202">
+        <v>1.05</v>
+      </c>
+      <c r="AB202">
+        <v>1.025</v>
+      </c>
+      <c r="AC202">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:29">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>6803819</v>
+      </c>
+      <c r="C203" t="s">
+        <v>28</v>
+      </c>
+      <c r="D203" t="s">
+        <v>28</v>
+      </c>
+      <c r="E203" s="2">
+        <v>45352.58333333334</v>
+      </c>
+      <c r="F203" t="s">
+        <v>37</v>
+      </c>
+      <c r="G203" t="s">
+        <v>44</v>
+      </c>
+      <c r="K203">
+        <v>3.5</v>
+      </c>
+      <c r="L203">
+        <v>3.2</v>
+      </c>
+      <c r="M203">
+        <v>2</v>
+      </c>
+      <c r="N203">
+        <v>3.4</v>
+      </c>
+      <c r="O203">
+        <v>3.2</v>
+      </c>
+      <c r="P203">
         <v>2.05</v>
       </c>
-      <c r="V201">
-        <v>1.8</v>
-      </c>
-      <c r="W201">
-        <v>0</v>
-      </c>
-      <c r="X201">
-        <v>0</v>
-      </c>
-      <c r="Y201">
-        <v>0</v>
-      </c>
-      <c r="Z201">
-        <v>0</v>
-      </c>
-      <c r="AA201">
+      <c r="Q203">
+        <v>0.25</v>
+      </c>
+      <c r="R203">
+        <v>1.975</v>
+      </c>
+      <c r="S203">
+        <v>1.875</v>
+      </c>
+      <c r="T203">
+        <v>2.5</v>
+      </c>
+      <c r="U203">
+        <v>1.825</v>
+      </c>
+      <c r="V203">
+        <v>2.025</v>
+      </c>
+      <c r="W203">
+        <v>0</v>
+      </c>
+      <c r="X203">
+        <v>0</v>
+      </c>
+      <c r="Y203">
+        <v>0</v>
+      </c>
+      <c r="Z203">
+        <v>0</v>
+      </c>
+      <c r="AA203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:29">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>6803818</v>
+      </c>
+      <c r="C204" t="s">
+        <v>28</v>
+      </c>
+      <c r="D204" t="s">
+        <v>28</v>
+      </c>
+      <c r="E204" s="2">
+        <v>45352.6875</v>
+      </c>
+      <c r="F204" t="s">
+        <v>50</v>
+      </c>
+      <c r="G204" t="s">
+        <v>39</v>
+      </c>
+      <c r="K204">
+        <v>2.8</v>
+      </c>
+      <c r="L204">
+        <v>3.2</v>
+      </c>
+      <c r="M204">
+        <v>2.4</v>
+      </c>
+      <c r="N204">
+        <v>2.8</v>
+      </c>
+      <c r="O204">
+        <v>3.2</v>
+      </c>
+      <c r="P204">
+        <v>2.4</v>
+      </c>
+      <c r="Q204">
+        <v>0</v>
+      </c>
+      <c r="R204">
+        <v>2.1</v>
+      </c>
+      <c r="S204">
+        <v>1.775</v>
+      </c>
+      <c r="T204">
+        <v>2.5</v>
+      </c>
+      <c r="U204">
+        <v>2.025</v>
+      </c>
+      <c r="V204">
+        <v>1.825</v>
+      </c>
+      <c r="W204">
+        <v>0</v>
+      </c>
+      <c r="X204">
+        <v>0</v>
+      </c>
+      <c r="Y204">
+        <v>0</v>
+      </c>
+      <c r="Z204">
+        <v>0</v>
+      </c>
+      <c r="AA204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:29">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>6803820</v>
+      </c>
+      <c r="C205" t="s">
+        <v>28</v>
+      </c>
+      <c r="D205" t="s">
+        <v>28</v>
+      </c>
+      <c r="E205" s="2">
+        <v>45353.36111111111</v>
+      </c>
+      <c r="F205" t="s">
+        <v>47</v>
+      </c>
+      <c r="G205" t="s">
+        <v>43</v>
+      </c>
+      <c r="K205">
+        <v>2</v>
+      </c>
+      <c r="L205">
+        <v>3.2</v>
+      </c>
+      <c r="M205">
+        <v>3.5</v>
+      </c>
+      <c r="N205">
+        <v>1.909</v>
+      </c>
+      <c r="O205">
+        <v>3.25</v>
+      </c>
+      <c r="P205">
+        <v>3.75</v>
+      </c>
+      <c r="Q205">
+        <v>-0.5</v>
+      </c>
+      <c r="R205">
+        <v>1.975</v>
+      </c>
+      <c r="S205">
+        <v>1.875</v>
+      </c>
+      <c r="T205">
+        <v>2.5</v>
+      </c>
+      <c r="U205">
+        <v>2.025</v>
+      </c>
+      <c r="V205">
+        <v>1.825</v>
+      </c>
+      <c r="W205">
+        <v>0</v>
+      </c>
+      <c r="X205">
+        <v>0</v>
+      </c>
+      <c r="Y205">
+        <v>0</v>
+      </c>
+      <c r="Z205">
+        <v>0</v>
+      </c>
+      <c r="AA205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:29">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <v>6803968</v>
+      </c>
+      <c r="C206" t="s">
+        <v>28</v>
+      </c>
+      <c r="D206" t="s">
+        <v>28</v>
+      </c>
+      <c r="E206" s="2">
+        <v>45353.45833333334</v>
+      </c>
+      <c r="F206" t="s">
+        <v>36</v>
+      </c>
+      <c r="G206" t="s">
+        <v>48</v>
+      </c>
+      <c r="K206">
+        <v>2</v>
+      </c>
+      <c r="L206">
+        <v>3.4</v>
+      </c>
+      <c r="M206">
+        <v>3.4</v>
+      </c>
+      <c r="N206">
+        <v>2</v>
+      </c>
+      <c r="O206">
+        <v>3.4</v>
+      </c>
+      <c r="P206">
+        <v>3.4</v>
+      </c>
+      <c r="Q206">
+        <v>-0.5</v>
+      </c>
+      <c r="R206">
+        <v>2.025</v>
+      </c>
+      <c r="S206">
+        <v>1.825</v>
+      </c>
+      <c r="T206">
+        <v>2.75</v>
+      </c>
+      <c r="U206">
+        <v>1.975</v>
+      </c>
+      <c r="V206">
+        <v>1.875</v>
+      </c>
+      <c r="W206">
+        <v>0</v>
+      </c>
+      <c r="X206">
+        <v>0</v>
+      </c>
+      <c r="Y206">
+        <v>0</v>
+      </c>
+      <c r="Z206">
+        <v>0</v>
+      </c>
+      <c r="AA206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:29">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <v>6803817</v>
+      </c>
+      <c r="C207" t="s">
+        <v>28</v>
+      </c>
+      <c r="D207" t="s">
+        <v>28</v>
+      </c>
+      <c r="E207" s="2">
+        <v>45353.5625</v>
+      </c>
+      <c r="F207" t="s">
+        <v>46</v>
+      </c>
+      <c r="G207" t="s">
+        <v>38</v>
+      </c>
+      <c r="K207">
+        <v>3.8</v>
+      </c>
+      <c r="L207">
+        <v>3.5</v>
+      </c>
+      <c r="M207">
+        <v>1.833</v>
+      </c>
+      <c r="N207">
+        <v>3.8</v>
+      </c>
+      <c r="O207">
+        <v>3.5</v>
+      </c>
+      <c r="P207">
+        <v>1.833</v>
+      </c>
+      <c r="Q207">
+        <v>0.5</v>
+      </c>
+      <c r="R207">
+        <v>1.975</v>
+      </c>
+      <c r="S207">
+        <v>1.875</v>
+      </c>
+      <c r="T207">
+        <v>2.75</v>
+      </c>
+      <c r="U207">
+        <v>2</v>
+      </c>
+      <c r="V207">
+        <v>1.85</v>
+      </c>
+      <c r="W207">
+        <v>0</v>
+      </c>
+      <c r="X207">
+        <v>0</v>
+      </c>
+      <c r="Y207">
+        <v>0</v>
+      </c>
+      <c r="Z207">
+        <v>0</v>
+      </c>
+      <c r="AA207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:29">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <v>6805675</v>
+      </c>
+      <c r="C208" t="s">
+        <v>28</v>
+      </c>
+      <c r="D208" t="s">
+        <v>28</v>
+      </c>
+      <c r="E208" s="2">
+        <v>45354.36111111111</v>
+      </c>
+      <c r="F208" t="s">
+        <v>33</v>
+      </c>
+      <c r="G208" t="s">
+        <v>40</v>
+      </c>
+      <c r="K208">
+        <v>2.2</v>
+      </c>
+      <c r="L208">
+        <v>3.2</v>
+      </c>
+      <c r="M208">
+        <v>3.1</v>
+      </c>
+      <c r="N208">
+        <v>2.55</v>
+      </c>
+      <c r="O208">
+        <v>3</v>
+      </c>
+      <c r="P208">
+        <v>2.8</v>
+      </c>
+      <c r="Q208">
+        <v>0</v>
+      </c>
+      <c r="R208">
+        <v>1.825</v>
+      </c>
+      <c r="S208">
+        <v>2.025</v>
+      </c>
+      <c r="T208">
+        <v>2.25</v>
+      </c>
+      <c r="U208">
+        <v>2.1</v>
+      </c>
+      <c r="V208">
+        <v>1.775</v>
+      </c>
+      <c r="W208">
+        <v>0</v>
+      </c>
+      <c r="X208">
+        <v>0</v>
+      </c>
+      <c r="Y208">
+        <v>0</v>
+      </c>
+      <c r="Z208">
+        <v>0</v>
+      </c>
+      <c r="AA208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:27">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209">
+        <v>6805676</v>
+      </c>
+      <c r="C209" t="s">
+        <v>28</v>
+      </c>
+      <c r="D209" t="s">
+        <v>28</v>
+      </c>
+      <c r="E209" s="2">
+        <v>45354.45833333334</v>
+      </c>
+      <c r="F209" t="s">
+        <v>42</v>
+      </c>
+      <c r="G209" t="s">
+        <v>41</v>
+      </c>
+      <c r="K209">
+        <v>1.909</v>
+      </c>
+      <c r="L209">
+        <v>3.5</v>
+      </c>
+      <c r="M209">
+        <v>3.6</v>
+      </c>
+      <c r="N209">
+        <v>1.909</v>
+      </c>
+      <c r="O209">
+        <v>3.5</v>
+      </c>
+      <c r="P209">
+        <v>3.6</v>
+      </c>
+      <c r="Q209">
+        <v>-0.5</v>
+      </c>
+      <c r="R209">
+        <v>1.95</v>
+      </c>
+      <c r="S209">
+        <v>1.9</v>
+      </c>
+      <c r="T209">
+        <v>2.5</v>
+      </c>
+      <c r="U209">
+        <v>1.85</v>
+      </c>
+      <c r="V209">
+        <v>2</v>
+      </c>
+      <c r="W209">
+        <v>0</v>
+      </c>
+      <c r="X209">
+        <v>0</v>
+      </c>
+      <c r="Y209">
+        <v>0</v>
+      </c>
+      <c r="Z209">
+        <v>0</v>
+      </c>
+      <c r="AA209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:27">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <v>6803821</v>
+      </c>
+      <c r="C210" t="s">
+        <v>28</v>
+      </c>
+      <c r="D210" t="s">
+        <v>28</v>
+      </c>
+      <c r="E210" s="2">
+        <v>45354.58333333334</v>
+      </c>
+      <c r="F210" t="s">
+        <v>35</v>
+      </c>
+      <c r="G210" t="s">
+        <v>29</v>
+      </c>
+      <c r="K210">
+        <v>2.5</v>
+      </c>
+      <c r="L210">
+        <v>3.2</v>
+      </c>
+      <c r="M210">
+        <v>2.6</v>
+      </c>
+      <c r="N210">
+        <v>2.55</v>
+      </c>
+      <c r="O210">
+        <v>3.1</v>
+      </c>
+      <c r="P210">
+        <v>2.6</v>
+      </c>
+      <c r="Q210">
+        <v>0</v>
+      </c>
+      <c r="R210">
+        <v>1.925</v>
+      </c>
+      <c r="S210">
+        <v>1.925</v>
+      </c>
+      <c r="T210">
+        <v>2.5</v>
+      </c>
+      <c r="U210">
+        <v>2.025</v>
+      </c>
+      <c r="V210">
+        <v>1.825</v>
+      </c>
+      <c r="W210">
+        <v>0</v>
+      </c>
+      <c r="X210">
+        <v>0</v>
+      </c>
+      <c r="Y210">
+        <v>0</v>
+      </c>
+      <c r="Z210">
+        <v>0</v>
+      </c>
+      <c r="AA210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:27">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <v>6805674</v>
+      </c>
+      <c r="C211" t="s">
+        <v>28</v>
+      </c>
+      <c r="D211" t="s">
+        <v>28</v>
+      </c>
+      <c r="E211" s="2">
+        <v>45355.58333333334</v>
+      </c>
+      <c r="F211" t="s">
+        <v>45</v>
+      </c>
+      <c r="G211" t="s">
+        <v>49</v>
+      </c>
+      <c r="K211">
+        <v>1.533</v>
+      </c>
+      <c r="L211">
+        <v>4</v>
+      </c>
+      <c r="M211">
+        <v>5.5</v>
+      </c>
+      <c r="N211">
+        <v>1.533</v>
+      </c>
+      <c r="O211">
+        <v>4</v>
+      </c>
+      <c r="P211">
+        <v>5.5</v>
+      </c>
+      <c r="Q211">
+        <v>-1</v>
+      </c>
+      <c r="R211">
+        <v>2</v>
+      </c>
+      <c r="S211">
+        <v>1.85</v>
+      </c>
+      <c r="T211">
+        <v>2.75</v>
+      </c>
+      <c r="U211">
+        <v>2.025</v>
+      </c>
+      <c r="V211">
+        <v>1.825</v>
+      </c>
+      <c r="W211">
+        <v>0</v>
+      </c>
+      <c r="X211">
+        <v>0</v>
+      </c>
+      <c r="Y211">
+        <v>0</v>
+      </c>
+      <c r="Z211">
+        <v>0</v>
+      </c>
+      <c r="AA211">
         <v>0</v>
       </c>
     </row>

--- a/Poland I Liga/Poland I Liga.xlsx
+++ b/Poland I Liga/Poland I Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -103,31 +103,31 @@
     <t>Poland I Liga</t>
   </si>
   <si>
-    <t>Podbeskidzie Bielsko Biala</t>
+    <t>Gornik Leczna</t>
   </si>
   <si>
-    <t>Chojniczanka Chojnice</t>
+    <t>Zaglebie Sosnowiec</t>
+  </si>
+  <si>
+    <t>LKS Lodz</t>
   </si>
   <si>
     <t>Ruch Chorzow</t>
   </si>
   <si>
-    <t>LKS Lodz</t>
-  </si>
-  <si>
-    <t>Gornik Leczna</t>
-  </si>
-  <si>
-    <t>MKS Puszcza Niepolomice</t>
-  </si>
-  <si>
-    <t>Zaglebie Sosnowiec</t>
+    <t>Podbeskidzie Bielsko Biala</t>
   </si>
   <si>
     <t>Termalica BB Nieciecza</t>
   </si>
   <si>
     <t>Stal Rzeszow</t>
+  </si>
+  <si>
+    <t>MKS Puszcza Niepolomice</t>
+  </si>
+  <si>
+    <t>Chojniczanka Chojnice</t>
   </si>
   <si>
     <t>Wisla Krakow</t>
@@ -175,13 +175,13 @@
     <t>Skra Czestochowa</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
   <si>
     <t>D</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
 </sst>
 </file>
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5451607</v>
+        <v>5447925</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -655,10 +655,10 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>3</v>
@@ -667,61 +667,61 @@
         <v>53</v>
       </c>
       <c r="K2">
+        <v>5.5</v>
+      </c>
+      <c r="L2">
+        <v>4</v>
+      </c>
+      <c r="M2">
+        <v>1.5</v>
+      </c>
+      <c r="N2">
+        <v>4.5</v>
+      </c>
+      <c r="O2">
+        <v>4</v>
+      </c>
+      <c r="P2">
         <v>1.615</v>
       </c>
-      <c r="L2">
-        <v>3.75</v>
-      </c>
-      <c r="M2">
-        <v>4.75</v>
-      </c>
-      <c r="N2">
-        <v>1.363</v>
-      </c>
-      <c r="O2">
-        <v>4.75</v>
-      </c>
-      <c r="P2">
-        <v>6</v>
-      </c>
       <c r="Q2">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R2">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S2">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T2">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U2">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V2">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W2">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X2">
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z2">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA2">
-        <v>0.4875</v>
+        <v>0.8</v>
       </c>
       <c r="AB2">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -729,7 +729,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5448050</v>
+        <v>5448048</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -744,73 +744,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>54</v>
       </c>
       <c r="K3">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="L3">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M3">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="N3">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="O3">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P3">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R3">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S3">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T3">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U3">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V3">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA3">
-        <v>-0</v>
+        <v>0.4625</v>
       </c>
       <c r="AB3">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -818,7 +818,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5451609</v>
+        <v>5448049</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -833,7 +833,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -842,46 +842,46 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K4">
-        <v>1.3</v>
+        <v>1.571</v>
       </c>
       <c r="L4">
+        <v>3.75</v>
+      </c>
+      <c r="M4">
         <v>5</v>
       </c>
-      <c r="M4">
-        <v>7.5</v>
-      </c>
       <c r="N4">
-        <v>1.333</v>
+        <v>1.444</v>
       </c>
       <c r="O4">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q4">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R4">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S4">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T4">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U4">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V4">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W4">
-        <v>0.333</v>
+        <v>0.444</v>
       </c>
       <c r="X4">
         <v>-1</v>
@@ -890,16 +890,16 @@
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -907,7 +907,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5448049</v>
+        <v>5451609</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -922,7 +922,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -931,46 +931,46 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K5">
-        <v>1.571</v>
+        <v>1.3</v>
       </c>
       <c r="L5">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M5">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="N5">
-        <v>1.444</v>
+        <v>1.333</v>
       </c>
       <c r="O5">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q5">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R5">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S5">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T5">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U5">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V5">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W5">
-        <v>0.444</v>
+        <v>0.333</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -979,16 +979,16 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -996,7 +996,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5447925</v>
+        <v>5451607</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1011,10 +1011,10 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I6">
         <v>3</v>
@@ -1023,61 +1023,61 @@
         <v>55</v>
       </c>
       <c r="K6">
-        <v>5.5</v>
+        <v>1.615</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M6">
-        <v>1.5</v>
+        <v>4.75</v>
       </c>
       <c r="N6">
-        <v>4.5</v>
+        <v>1.363</v>
       </c>
       <c r="O6">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P6">
-        <v>1.615</v>
+        <v>6</v>
       </c>
       <c r="Q6">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R6">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S6">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T6">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U6">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V6">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA6">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC6">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1085,7 +1085,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5452381</v>
+        <v>5451608</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1100,10 +1100,10 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1112,61 +1112,61 @@
         <v>55</v>
       </c>
       <c r="K7">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M7">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N7">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="O7">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P7">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q7">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R7">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S7">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T7">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U7">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V7">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA7">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC7">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1174,7 +1174,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5448048</v>
+        <v>5451610</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1189,73 +1189,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K8">
-        <v>2.1</v>
+        <v>1.444</v>
       </c>
       <c r="L8">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M8">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="N8">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="O8">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="P8">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="Q8">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R8">
+        <v>1.95</v>
+      </c>
+      <c r="S8">
+        <v>1.85</v>
+      </c>
+      <c r="T8">
+        <v>2.75</v>
+      </c>
+      <c r="U8">
         <v>1.875</v>
       </c>
-      <c r="S8">
+      <c r="V8">
         <v>1.925</v>
       </c>
-      <c r="T8">
-        <v>2.25</v>
-      </c>
-      <c r="U8">
-        <v>1.85</v>
-      </c>
-      <c r="V8">
-        <v>1.95</v>
-      </c>
       <c r="W8">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X8">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
+        <v>-1</v>
+      </c>
+      <c r="AA8">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB8">
+        <v>0.4375</v>
+      </c>
+      <c r="AC8">
         <v>-0.5</v>
-      </c>
-      <c r="AA8">
-        <v>0.4625</v>
-      </c>
-      <c r="AB8">
-        <v>-0.5</v>
-      </c>
-      <c r="AC8">
-        <v>0.475</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1263,7 +1263,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5451608</v>
+        <v>5452381</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1278,10 +1278,10 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -1290,61 +1290,61 @@
         <v>53</v>
       </c>
       <c r="K9">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L9">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N9">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="O9">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P9">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="Q9">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R9">
+        <v>1.9</v>
+      </c>
+      <c r="S9">
         <v>1.95</v>
       </c>
-      <c r="S9">
-        <v>1.85</v>
-      </c>
       <c r="T9">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U9">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V9">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W9">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z9">
+        <v>-1</v>
+      </c>
+      <c r="AA9">
         <v>0.95</v>
       </c>
-      <c r="AA9">
-        <v>-1</v>
-      </c>
       <c r="AB9">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1352,7 +1352,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5451610</v>
+        <v>5448050</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1367,73 +1367,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10">
+        <v>2.75</v>
+      </c>
+      <c r="L10">
+        <v>3.25</v>
+      </c>
+      <c r="M10">
+        <v>2.375</v>
+      </c>
+      <c r="N10">
+        <v>2.4</v>
+      </c>
+      <c r="O10">
+        <v>3.25</v>
+      </c>
+      <c r="P10">
+        <v>2.7</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>1.8</v>
+      </c>
+      <c r="S10">
+        <v>2.05</v>
+      </c>
+      <c r="T10">
+        <v>2.5</v>
+      </c>
+      <c r="U10">
         <v>2</v>
       </c>
-      <c r="I10">
+      <c r="V10">
+        <v>1.85</v>
+      </c>
+      <c r="W10">
+        <v>-1</v>
+      </c>
+      <c r="X10">
+        <v>2.25</v>
+      </c>
+      <c r="Y10">
+        <v>-1</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>-0</v>
+      </c>
+      <c r="AB10">
         <v>1</v>
       </c>
-      <c r="J10" t="s">
-        <v>53</v>
-      </c>
-      <c r="K10">
-        <v>1.444</v>
-      </c>
-      <c r="L10">
-        <v>4</v>
-      </c>
-      <c r="M10">
-        <v>6.5</v>
-      </c>
-      <c r="N10">
-        <v>1.333</v>
-      </c>
-      <c r="O10">
-        <v>4.333</v>
-      </c>
-      <c r="P10">
-        <v>8</v>
-      </c>
-      <c r="Q10">
-        <v>-1.5</v>
-      </c>
-      <c r="R10">
-        <v>1.95</v>
-      </c>
-      <c r="S10">
-        <v>1.85</v>
-      </c>
-      <c r="T10">
-        <v>2.75</v>
-      </c>
-      <c r="U10">
-        <v>1.875</v>
-      </c>
-      <c r="V10">
-        <v>1.925</v>
-      </c>
-      <c r="W10">
-        <v>0.333</v>
-      </c>
-      <c r="X10">
-        <v>-1</v>
-      </c>
-      <c r="Y10">
-        <v>-1</v>
-      </c>
-      <c r="Z10">
-        <v>-1</v>
-      </c>
-      <c r="AA10">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB10">
-        <v>0.4375</v>
-      </c>
       <c r="AC10">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1456,7 +1456,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1465,7 +1465,7 @@
         <v>4</v>
       </c>
       <c r="J11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K11">
         <v>1.615</v>
@@ -1542,10 +1542,10 @@
         <v>45083.66666666666</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K12">
         <v>1.8</v>
@@ -1631,10 +1631,10 @@
         <v>45088.54166666666</v>
       </c>
       <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="s">
         <v>36</v>
-      </c>
-      <c r="G13" t="s">
-        <v>34</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1643,7 +1643,7 @@
         <v>3</v>
       </c>
       <c r="J13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K13">
         <v>1.95</v>
@@ -1723,7 +1723,7 @@
         <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1812,7 +1812,7 @@
         <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H15">
         <v>3</v>
@@ -1821,7 +1821,7 @@
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K15">
         <v>2.25</v>
@@ -1910,7 +1910,7 @@
         <v>4</v>
       </c>
       <c r="J16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K16">
         <v>2.8</v>
@@ -1987,7 +1987,7 @@
         <v>45129.52083333334</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G17" t="s">
         <v>38</v>
@@ -2088,7 +2088,7 @@
         <v>3</v>
       </c>
       <c r="J18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K18">
         <v>2.15</v>
@@ -2165,7 +2165,7 @@
         <v>45130.31944444445</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G19" t="s">
         <v>48</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K20">
         <v>2.7</v>
@@ -2355,7 +2355,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K21">
         <v>1.833</v>
@@ -2432,7 +2432,7 @@
         <v>45131.54166666666</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2444,7 +2444,7 @@
         <v>5</v>
       </c>
       <c r="J22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K22">
         <v>1.8</v>
@@ -2521,7 +2521,7 @@
         <v>45135.54166666666</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G23" t="s">
         <v>39</v>
@@ -2622,7 +2622,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K24">
         <v>1.5</v>
@@ -2699,7 +2699,7 @@
         <v>45136.41666666666</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G25" t="s">
         <v>43</v>
@@ -2788,7 +2788,7 @@
         <v>45136.52083333334</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G26" t="s">
         <v>48</v>
@@ -2877,7 +2877,7 @@
         <v>45136.625</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G27" t="s">
         <v>44</v>
@@ -2889,7 +2889,7 @@
         <v>4</v>
       </c>
       <c r="J27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K27">
         <v>2.15</v>
@@ -2978,7 +2978,7 @@
         <v>3</v>
       </c>
       <c r="J28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K28">
         <v>3.4</v>
@@ -3067,7 +3067,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K29">
         <v>2.15</v>
@@ -3144,7 +3144,7 @@
         <v>45137.54166666666</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G30" t="s">
         <v>50</v>
@@ -3156,7 +3156,7 @@
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K30">
         <v>2.15</v>
@@ -3245,7 +3245,7 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K31">
         <v>1.8</v>
@@ -3325,7 +3325,7 @@
         <v>43</v>
       </c>
       <c r="G32" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K32">
         <v>2.25</v>
@@ -3503,7 +3503,7 @@
         <v>44</v>
       </c>
       <c r="G34" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -3592,7 +3592,7 @@
         <v>38</v>
       </c>
       <c r="G35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>41</v>
       </c>
       <c r="G36" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -3690,7 +3690,7 @@
         <v>5</v>
       </c>
       <c r="J36" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K36">
         <v>3.6</v>
@@ -3868,7 +3868,7 @@
         <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K38">
         <v>2.15</v>
@@ -3957,7 +3957,7 @@
         <v>3</v>
       </c>
       <c r="J39" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K39">
         <v>1.666</v>
@@ -4037,7 +4037,7 @@
         <v>49</v>
       </c>
       <c r="G40" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4123,7 +4123,7 @@
         <v>45149.54166666666</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G41" t="s">
         <v>41</v>
@@ -4135,7 +4135,7 @@
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K41">
         <v>1.8</v>
@@ -4224,7 +4224,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K42">
         <v>2.5</v>
@@ -4304,7 +4304,7 @@
         <v>46</v>
       </c>
       <c r="G43" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4313,7 +4313,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K43">
         <v>2.5</v>
@@ -4402,7 +4402,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K44">
         <v>3.1</v>
@@ -4479,7 +4479,7 @@
         <v>45150.625</v>
       </c>
       <c r="F45" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G45" t="s">
         <v>49</v>
@@ -4491,7 +4491,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K45">
         <v>1.833</v>
@@ -4580,7 +4580,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K46">
         <v>1.727</v>
@@ -4657,7 +4657,7 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F47" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G47" t="s">
         <v>39</v>
@@ -4669,7 +4669,7 @@
         <v>3</v>
       </c>
       <c r="J47" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K47">
         <v>2.5</v>
@@ -4746,7 +4746,7 @@
         <v>45151.54166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G48" t="s">
         <v>40</v>
@@ -4758,7 +4758,7 @@
         <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K48">
         <v>1.571</v>
@@ -4847,7 +4847,7 @@
         <v>4</v>
       </c>
       <c r="J49" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K49">
         <v>3.6</v>
@@ -4924,10 +4924,10 @@
         <v>45156.54166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G50" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -4936,7 +4936,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K50">
         <v>1.909</v>
@@ -5025,7 +5025,7 @@
         <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K51">
         <v>1.571</v>
@@ -5105,7 +5105,7 @@
         <v>48</v>
       </c>
       <c r="G52" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H52">
         <v>3</v>
@@ -5114,7 +5114,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K52">
         <v>2.25</v>
@@ -5194,7 +5194,7 @@
         <v>40</v>
       </c>
       <c r="G53" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5203,7 +5203,7 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K53">
         <v>2.3</v>
@@ -5292,7 +5292,7 @@
         <v>3</v>
       </c>
       <c r="J54" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K54">
         <v>2.2</v>
@@ -5381,7 +5381,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K55">
         <v>1.85</v>
@@ -5461,7 +5461,7 @@
         <v>44</v>
       </c>
       <c r="G56" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5470,7 +5470,7 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K56">
         <v>1.666</v>
@@ -5559,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K57">
         <v>2.875</v>
@@ -5648,7 +5648,7 @@
         <v>2</v>
       </c>
       <c r="J58" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K58">
         <v>2.5</v>
@@ -5817,7 +5817,7 @@
         <v>45</v>
       </c>
       <c r="G60" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H60">
         <v>3</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K60">
         <v>2</v>
@@ -5915,7 +5915,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K61">
         <v>1.8</v>
@@ -6004,7 +6004,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K62">
         <v>2.2</v>
@@ -6081,7 +6081,7 @@
         <v>45164.625</v>
       </c>
       <c r="F63" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G63" t="s">
         <v>48</v>
@@ -6093,7 +6093,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K63">
         <v>2.875</v>
@@ -6182,7 +6182,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K64">
         <v>2</v>
@@ -6259,7 +6259,7 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F65" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G65" t="s">
         <v>41</v>
@@ -6271,7 +6271,7 @@
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K65">
         <v>1.8</v>
@@ -6348,7 +6348,7 @@
         <v>45165.54166666666</v>
       </c>
       <c r="F66" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G66" t="s">
         <v>43</v>
@@ -6360,7 +6360,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K66">
         <v>1.727</v>
@@ -6440,7 +6440,7 @@
         <v>46</v>
       </c>
       <c r="G67" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6529,7 +6529,7 @@
         <v>49</v>
       </c>
       <c r="G68" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -6538,7 +6538,7 @@
         <v>4</v>
       </c>
       <c r="J68" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K68">
         <v>3.1</v>
@@ -6716,7 +6716,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K70">
         <v>2.55</v>
@@ -6805,7 +6805,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K71">
         <v>1.5</v>
@@ -6885,7 +6885,7 @@
         <v>43</v>
       </c>
       <c r="G72" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -6894,7 +6894,7 @@
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K72">
         <v>2.15</v>
@@ -6971,7 +6971,7 @@
         <v>45172.31944444445</v>
       </c>
       <c r="F73" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G73" t="s">
         <v>45</v>
@@ -6983,7 +6983,7 @@
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K73">
         <v>2.7</v>
@@ -7060,7 +7060,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F74" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G74" t="s">
         <v>47</v>
@@ -7137,7 +7137,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6805719</v>
+        <v>6803727</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7149,58 +7149,58 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F75" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G75" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="H75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K75">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="L75">
         <v>3.3</v>
       </c>
       <c r="M75">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="N75">
-        <v>2.05</v>
+        <v>3.75</v>
       </c>
       <c r="O75">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P75">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="Q75">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R75">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S75">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T75">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U75">
+        <v>1.925</v>
+      </c>
+      <c r="V75">
         <v>1.875</v>
       </c>
-      <c r="V75">
-        <v>1.975</v>
-      </c>
       <c r="W75">
-        <v>1.05</v>
+        <v>2.75</v>
       </c>
       <c r="X75">
         <v>-1</v>
@@ -7209,16 +7209,16 @@
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA75">
         <v>-1</v>
       </c>
       <c r="AB75">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7226,7 +7226,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6803727</v>
+        <v>6805719</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7238,58 +7238,58 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F76" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G76" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H76">
+        <v>3</v>
+      </c>
+      <c r="I76">
         <v>2</v>
       </c>
-      <c r="I76">
-        <v>1</v>
-      </c>
       <c r="J76" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K76">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="L76">
         <v>3.3</v>
       </c>
       <c r="M76">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="N76">
-        <v>3.75</v>
+        <v>2.05</v>
       </c>
       <c r="O76">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P76">
+        <v>3.2</v>
+      </c>
+      <c r="Q76">
+        <v>-0.25</v>
+      </c>
+      <c r="R76">
         <v>1.85</v>
       </c>
-      <c r="Q76">
-        <v>0.5</v>
-      </c>
-      <c r="R76">
-        <v>1.925</v>
-      </c>
       <c r="S76">
+        <v>2</v>
+      </c>
+      <c r="T76">
+        <v>2.5</v>
+      </c>
+      <c r="U76">
         <v>1.875</v>
       </c>
-      <c r="T76">
-        <v>2.75</v>
-      </c>
-      <c r="U76">
-        <v>1.925</v>
-      </c>
       <c r="V76">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W76">
-        <v>2.75</v>
+        <v>1.05</v>
       </c>
       <c r="X76">
         <v>-1</v>
@@ -7298,16 +7298,16 @@
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA76">
         <v>-1</v>
       </c>
       <c r="AB76">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AC76">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7327,7 +7327,7 @@
         <v>45184.54166666666</v>
       </c>
       <c r="F77" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G77" t="s">
         <v>48</v>
@@ -7339,7 +7339,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K77">
         <v>3.2</v>
@@ -7419,7 +7419,7 @@
         <v>47</v>
       </c>
       <c r="G78" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7428,7 +7428,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K78">
         <v>1.85</v>
@@ -7517,7 +7517,7 @@
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K79">
         <v>2.1</v>
@@ -7784,7 +7784,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K82">
         <v>1.95</v>
@@ -7861,10 +7861,10 @@
         <v>45186.45833333334</v>
       </c>
       <c r="F83" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G83" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -7962,7 +7962,7 @@
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K84">
         <v>2.375</v>
@@ -8039,7 +8039,7 @@
         <v>45187.54166666666</v>
       </c>
       <c r="F85" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G85" t="s">
         <v>49</v>
@@ -8051,7 +8051,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K85">
         <v>1.909</v>
@@ -8116,7 +8116,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6803738</v>
+        <v>6803740</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8128,19 +8128,19 @@
         <v>45191.54166666666</v>
       </c>
       <c r="F86" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G86" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H86">
         <v>1</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J86" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K86">
         <v>1.85</v>
@@ -8149,55 +8149,55 @@
         <v>3.5</v>
       </c>
       <c r="M86">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="N86">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="O86">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P86">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q86">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R86">
+        <v>1.975</v>
+      </c>
+      <c r="S86">
         <v>1.825</v>
       </c>
-      <c r="S86">
-        <v>1.975</v>
-      </c>
       <c r="T86">
+        <v>2.25</v>
+      </c>
+      <c r="U86">
+        <v>1.9</v>
+      </c>
+      <c r="V86">
+        <v>1.9</v>
+      </c>
+      <c r="W86">
+        <v>-1</v>
+      </c>
+      <c r="X86">
+        <v>-1</v>
+      </c>
+      <c r="Y86">
         <v>2.5</v>
       </c>
-      <c r="U86">
-        <v>1.825</v>
-      </c>
-      <c r="V86">
-        <v>1.975</v>
-      </c>
-      <c r="W86">
-        <v>-1</v>
-      </c>
-      <c r="X86">
-        <v>2.8</v>
-      </c>
-      <c r="Y86">
-        <v>-1</v>
-      </c>
       <c r="Z86">
         <v>-1</v>
       </c>
       <c r="AA86">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC86">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8205,7 +8205,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6803740</v>
+        <v>6803738</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8217,19 +8217,19 @@
         <v>45191.54166666666</v>
       </c>
       <c r="F87" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H87">
         <v>1</v>
       </c>
       <c r="I87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K87">
         <v>1.85</v>
@@ -8238,55 +8238,55 @@
         <v>3.5</v>
       </c>
       <c r="M87">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="N87">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="O87">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P87">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q87">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R87">
+        <v>1.825</v>
+      </c>
+      <c r="S87">
         <v>1.975</v>
       </c>
-      <c r="S87">
+      <c r="T87">
+        <v>2.5</v>
+      </c>
+      <c r="U87">
         <v>1.825</v>
       </c>
-      <c r="T87">
-        <v>2.25</v>
-      </c>
-      <c r="U87">
-        <v>1.9</v>
-      </c>
       <c r="V87">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W87">
         <v>-1</v>
       </c>
       <c r="X87">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y87">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
         <v>-1</v>
       </c>
       <c r="AA87">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB87">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8318,7 +8318,7 @@
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K88">
         <v>2.15</v>
@@ -8496,7 +8496,7 @@
         <v>4</v>
       </c>
       <c r="J90" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K90">
         <v>3.6</v>
@@ -8585,7 +8585,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K91">
         <v>4.2</v>
@@ -8674,7 +8674,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K92">
         <v>1.8</v>
@@ -8754,7 +8754,7 @@
         <v>43</v>
       </c>
       <c r="G93" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -8763,7 +8763,7 @@
         <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K93">
         <v>2.05</v>
@@ -8840,10 +8840,10 @@
         <v>45193.54166666666</v>
       </c>
       <c r="F94" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G94" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -8852,7 +8852,7 @@
         <v>3</v>
       </c>
       <c r="J94" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K94">
         <v>2.8</v>
@@ -8932,7 +8932,7 @@
         <v>42</v>
       </c>
       <c r="G95" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H95">
         <v>2</v>
@@ -8941,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K95">
         <v>2.875</v>
@@ -9030,7 +9030,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K96">
         <v>1.85</v>
@@ -9208,7 +9208,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K98">
         <v>2.1</v>
@@ -9285,7 +9285,7 @@
         <v>45199.625</v>
       </c>
       <c r="F99" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G99" t="s">
         <v>49</v>
@@ -9297,7 +9297,7 @@
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K99">
         <v>2.05</v>
@@ -9463,7 +9463,7 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G101" t="s">
         <v>45</v>
@@ -9564,7 +9564,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K102">
         <v>2</v>
@@ -9641,10 +9641,10 @@
         <v>45201.54166666666</v>
       </c>
       <c r="F103" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G103" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9822,7 +9822,7 @@
         <v>45</v>
       </c>
       <c r="G105" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9908,10 +9908,10 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F106" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G106" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -9920,7 +9920,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K106">
         <v>1.85</v>
@@ -10009,7 +10009,7 @@
         <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K107">
         <v>1.65</v>
@@ -10098,7 +10098,7 @@
         <v>3</v>
       </c>
       <c r="J108" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K108">
         <v>2.05</v>
@@ -10187,7 +10187,7 @@
         <v>3</v>
       </c>
       <c r="J109" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K109">
         <v>2.625</v>
@@ -10276,7 +10276,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K110">
         <v>2.7</v>
@@ -10341,7 +10341,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6805706</v>
+        <v>6803754</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10353,76 +10353,76 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F111" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G111" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H111">
         <v>0</v>
       </c>
       <c r="I111">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K111">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L111">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M111">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="N111">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="O111">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P111">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="Q111">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R111">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S111">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T111">
         <v>2.5</v>
       </c>
       <c r="U111">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V111">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W111">
         <v>-1</v>
       </c>
       <c r="X111">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y111">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA111">
+        <v>-0</v>
+      </c>
+      <c r="AB111">
+        <v>-1</v>
+      </c>
+      <c r="AC111">
         <v>0.95</v>
-      </c>
-      <c r="AB111">
-        <v>-1</v>
-      </c>
-      <c r="AC111">
-        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10430,7 +10430,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6803754</v>
+        <v>6805706</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10442,76 +10442,76 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F112" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G112" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H112">
         <v>0</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K112">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L112">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M112">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="N112">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="O112">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P112">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="Q112">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R112">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S112">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T112">
         <v>2.5</v>
       </c>
       <c r="U112">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V112">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W112">
         <v>-1</v>
       </c>
       <c r="X112">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z112">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA112">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB112">
         <v>-1</v>
       </c>
       <c r="AC112">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10543,7 +10543,7 @@
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K113">
         <v>3.5</v>
@@ -10632,7 +10632,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K114">
         <v>1.4</v>
@@ -10709,10 +10709,10 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F115" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G115" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -10801,7 +10801,7 @@
         <v>50</v>
       </c>
       <c r="G116" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H116">
         <v>3</v>
@@ -10810,7 +10810,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K116">
         <v>2.1</v>
@@ -10899,7 +10899,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K117">
         <v>1.95</v>
@@ -10979,7 +10979,7 @@
         <v>46</v>
       </c>
       <c r="G118" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H118">
         <v>2</v>
@@ -10988,7 +10988,7 @@
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K118">
         <v>2.25</v>
@@ -11065,7 +11065,7 @@
         <v>45221.54166666666</v>
       </c>
       <c r="F119" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G119" t="s">
         <v>47</v>
@@ -11166,7 +11166,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K120">
         <v>1.75</v>
@@ -11231,7 +11231,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6805700</v>
+        <v>6803761</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11243,76 +11243,76 @@
         <v>45226.54166666666</v>
       </c>
       <c r="F121" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G121" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J121" t="s">
         <v>55</v>
       </c>
       <c r="K121">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="L121">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M121">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="N121">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="O121">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P121">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="Q121">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R121">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S121">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T121">
         <v>2.75</v>
       </c>
       <c r="U121">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V121">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W121">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA121">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC121">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11320,7 +11320,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6803761</v>
+        <v>6805700</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11332,76 +11332,76 @@
         <v>45226.54166666666</v>
       </c>
       <c r="F122" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G122" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
         <v>2</v>
-      </c>
-      <c r="I122">
-        <v>1</v>
       </c>
       <c r="J122" t="s">
         <v>53</v>
       </c>
       <c r="K122">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="L122">
+        <v>3.75</v>
+      </c>
+      <c r="M122">
+        <v>4.2</v>
+      </c>
+      <c r="N122">
+        <v>1.75</v>
+      </c>
+      <c r="O122">
+        <v>3.6</v>
+      </c>
+      <c r="P122">
         <v>4</v>
       </c>
-      <c r="M122">
-        <v>5.25</v>
-      </c>
-      <c r="N122">
-        <v>1.5</v>
-      </c>
-      <c r="O122">
-        <v>4</v>
-      </c>
-      <c r="P122">
-        <v>5.5</v>
-      </c>
       <c r="Q122">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R122">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S122">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T122">
         <v>2.75</v>
       </c>
       <c r="U122">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V122">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W122">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z122">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB122">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC122">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11421,7 +11421,7 @@
         <v>45226.64583333334</v>
       </c>
       <c r="F123" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G123" t="s">
         <v>38</v>
@@ -11433,7 +11433,7 @@
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K123">
         <v>3.2</v>
@@ -11513,7 +11513,7 @@
         <v>45</v>
       </c>
       <c r="G124" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -11522,7 +11522,7 @@
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K124">
         <v>1.833</v>
@@ -11599,7 +11599,7 @@
         <v>45227.52083333334</v>
       </c>
       <c r="F125" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G125" t="s">
         <v>50</v>
@@ -11611,7 +11611,7 @@
         <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K125">
         <v>2.625</v>
@@ -11688,10 +11688,10 @@
         <v>45227.625</v>
       </c>
       <c r="F126" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G126" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H126">
         <v>3</v>
@@ -11700,7 +11700,7 @@
         <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K126">
         <v>1.727</v>
@@ -11789,7 +11789,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K127">
         <v>2.5</v>
@@ -11878,7 +11878,7 @@
         <v>2</v>
       </c>
       <c r="J128" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K128">
         <v>3.4</v>
@@ -12056,7 +12056,7 @@
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K130">
         <v>2.6</v>
@@ -12145,7 +12145,7 @@
         <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K131">
         <v>1.533</v>
@@ -12225,7 +12225,7 @@
         <v>38</v>
       </c>
       <c r="G132" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -12314,7 +12314,7 @@
         <v>39</v>
       </c>
       <c r="G133" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H133">
         <v>1</v>
@@ -12323,7 +12323,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K133">
         <v>1.7</v>
@@ -12403,7 +12403,7 @@
         <v>46</v>
       </c>
       <c r="G134" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -12412,7 +12412,7 @@
         <v>3</v>
       </c>
       <c r="J134" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K134">
         <v>1.666</v>
@@ -12492,7 +12492,7 @@
         <v>42</v>
       </c>
       <c r="G135" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -12590,7 +12590,7 @@
         <v>3</v>
       </c>
       <c r="J136" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K136">
         <v>2.15</v>
@@ -12667,7 +12667,7 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F137" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G137" t="s">
         <v>47</v>
@@ -12857,7 +12857,7 @@
         <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K139">
         <v>3.1</v>
@@ -12946,7 +12946,7 @@
         <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K140">
         <v>2.4</v>
@@ -13112,7 +13112,7 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F142" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G142" t="s">
         <v>42</v>
@@ -13213,7 +13213,7 @@
         <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K143">
         <v>2.15</v>
@@ -13290,10 +13290,10 @@
         <v>45241.66666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G144" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H144">
         <v>1</v>
@@ -13302,7 +13302,7 @@
         <v>2</v>
       </c>
       <c r="J144" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K144">
         <v>1.8</v>
@@ -13391,7 +13391,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K145">
         <v>2</v>
@@ -13480,7 +13480,7 @@
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K146">
         <v>1.909</v>
@@ -13545,7 +13545,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6803778</v>
+        <v>6803779</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13557,76 +13557,76 @@
         <v>45242.58333333334</v>
       </c>
       <c r="F147" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G147" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J147" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K147">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="L147">
         <v>3.4</v>
       </c>
       <c r="M147">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="N147">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="O147">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P147">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="Q147">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R147">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S147">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T147">
         <v>2.5</v>
       </c>
       <c r="U147">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V147">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W147">
         <v>-1</v>
       </c>
       <c r="X147">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y147">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z147">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB147">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC147">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13634,7 +13634,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6803779</v>
+        <v>6803778</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13646,76 +13646,76 @@
         <v>45242.58333333334</v>
       </c>
       <c r="F148" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G148" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K148">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="L148">
         <v>3.4</v>
       </c>
       <c r="M148">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="N148">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="O148">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P148">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="Q148">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R148">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S148">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T148">
         <v>2.5</v>
       </c>
       <c r="U148">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V148">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W148">
         <v>-1</v>
       </c>
       <c r="X148">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y148">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z148">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA148">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB148">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC148">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13738,7 +13738,7 @@
         <v>41</v>
       </c>
       <c r="G149" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H149">
         <v>3</v>
@@ -13747,7 +13747,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K149">
         <v>2.8</v>
@@ -13836,7 +13836,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K150">
         <v>2</v>
@@ -13913,10 +13913,10 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F151" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G151" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H151">
         <v>3</v>
@@ -13925,7 +13925,7 @@
         <v>0</v>
       </c>
       <c r="J151" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K151">
         <v>2.1</v>
@@ -14014,7 +14014,7 @@
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K152">
         <v>1.727</v>
@@ -14103,7 +14103,7 @@
         <v>2</v>
       </c>
       <c r="J153" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K153">
         <v>1.727</v>
@@ -14192,7 +14192,7 @@
         <v>0</v>
       </c>
       <c r="J154" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K154">
         <v>1.8</v>
@@ -14281,7 +14281,7 @@
         <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K155">
         <v>1.8</v>
@@ -14361,7 +14361,7 @@
         <v>44</v>
       </c>
       <c r="G156" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H156">
         <v>2</v>
@@ -14370,7 +14370,7 @@
         <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K156">
         <v>1.533</v>
@@ -14450,7 +14450,7 @@
         <v>50</v>
       </c>
       <c r="G157" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H157">
         <v>3</v>
@@ -14459,7 +14459,7 @@
         <v>2</v>
       </c>
       <c r="J157" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K157">
         <v>2.25</v>
@@ -14539,7 +14539,7 @@
         <v>42</v>
       </c>
       <c r="G158" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H158">
         <v>2</v>
@@ -14625,7 +14625,7 @@
         <v>45261.6875</v>
       </c>
       <c r="F159" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G159" t="s">
         <v>38</v>
@@ -14637,7 +14637,7 @@
         <v>1</v>
       </c>
       <c r="J159" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K159">
         <v>2.8</v>
@@ -14815,7 +14815,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K161">
         <v>2.45</v>
@@ -14904,7 +14904,7 @@
         <v>0</v>
       </c>
       <c r="J162" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K162">
         <v>2.8</v>
@@ -14993,7 +14993,7 @@
         <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K163">
         <v>1.8</v>
@@ -15070,7 +15070,7 @@
         <v>45268.6875</v>
       </c>
       <c r="F164" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G164" t="s">
         <v>40</v>
@@ -15082,7 +15082,7 @@
         <v>4</v>
       </c>
       <c r="J164" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K164">
         <v>2.875</v>
@@ -15162,7 +15162,7 @@
         <v>48</v>
       </c>
       <c r="G165" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H165">
         <v>2</v>
@@ -15171,7 +15171,7 @@
         <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K165">
         <v>1.727</v>
@@ -15260,7 +15260,7 @@
         <v>0</v>
       </c>
       <c r="J166" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K166">
         <v>1.533</v>
@@ -15349,7 +15349,7 @@
         <v>2</v>
       </c>
       <c r="J167" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K167">
         <v>2.5</v>
@@ -15429,7 +15429,7 @@
         <v>38</v>
       </c>
       <c r="G168" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H168">
         <v>4</v>
@@ -15438,7 +15438,7 @@
         <v>0</v>
       </c>
       <c r="J168" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K168">
         <v>1.4</v>
@@ -15518,7 +15518,7 @@
         <v>46</v>
       </c>
       <c r="G169" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H169">
         <v>1</v>
@@ -15604,7 +15604,7 @@
         <v>45271.58333333334</v>
       </c>
       <c r="F170" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G170" t="s">
         <v>39</v>
@@ -15616,7 +15616,7 @@
         <v>1</v>
       </c>
       <c r="J170" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K170">
         <v>2.25</v>
@@ -15705,7 +15705,7 @@
         <v>0</v>
       </c>
       <c r="J171" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K171">
         <v>2.875</v>
@@ -15785,7 +15785,7 @@
         <v>48</v>
       </c>
       <c r="G172" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H172">
         <v>2</v>
@@ -15794,7 +15794,7 @@
         <v>0</v>
       </c>
       <c r="J172" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K172">
         <v>1.727</v>
@@ -15883,7 +15883,7 @@
         <v>4</v>
       </c>
       <c r="J173" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K173">
         <v>3.75</v>
@@ -15963,7 +15963,7 @@
         <v>39</v>
       </c>
       <c r="G174" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H174">
         <v>0</v>
@@ -16061,7 +16061,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K175">
         <v>2.7</v>
@@ -16150,7 +16150,7 @@
         <v>1</v>
       </c>
       <c r="J176" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K176">
         <v>1.363</v>
@@ -16230,7 +16230,7 @@
         <v>43</v>
       </c>
       <c r="G177" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H177">
         <v>0</v>
@@ -16239,7 +16239,7 @@
         <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K177">
         <v>2.3</v>
@@ -16319,7 +16319,7 @@
         <v>50</v>
       </c>
       <c r="G178" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H178">
         <v>2</v>
@@ -16328,7 +16328,7 @@
         <v>0</v>
       </c>
       <c r="J178" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K178">
         <v>2.15</v>
@@ -16408,7 +16408,7 @@
         <v>44</v>
       </c>
       <c r="G179" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H179">
         <v>2</v>
@@ -16494,7 +16494,7 @@
         <v>45279.5625</v>
       </c>
       <c r="F180" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G180" t="s">
         <v>41</v>
@@ -16506,7 +16506,7 @@
         <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K180">
         <v>1.833</v>
@@ -16672,7 +16672,7 @@
         <v>45338.58333333334</v>
       </c>
       <c r="F182" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G182" t="s">
         <v>44</v>
@@ -16773,7 +16773,7 @@
         <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K183">
         <v>2.25</v>
@@ -16850,7 +16850,7 @@
         <v>45339.45833333334</v>
       </c>
       <c r="F184" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G184" t="s">
         <v>49</v>
@@ -16951,7 +16951,7 @@
         <v>3</v>
       </c>
       <c r="J185" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K185">
         <v>4.2</v>
@@ -17040,7 +17040,7 @@
         <v>1</v>
       </c>
       <c r="J186" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K186">
         <v>2.05</v>
@@ -17117,7 +17117,7 @@
         <v>45340.36111111111</v>
       </c>
       <c r="F187" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G187" t="s">
         <v>38</v>
@@ -17129,7 +17129,7 @@
         <v>2</v>
       </c>
       <c r="J187" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K187">
         <v>3.8</v>
@@ -17206,7 +17206,7 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G188" t="s">
         <v>41</v>
@@ -17295,7 +17295,7 @@
         <v>45340.58333333334</v>
       </c>
       <c r="F189" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G189" t="s">
         <v>43</v>
@@ -17307,7 +17307,7 @@
         <v>1</v>
       </c>
       <c r="J189" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K189">
         <v>2.3</v>
@@ -17396,7 +17396,7 @@
         <v>0</v>
       </c>
       <c r="J190" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K190">
         <v>2.3</v>
@@ -17473,7 +17473,7 @@
         <v>45342.58333333334</v>
       </c>
       <c r="F191" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G191" t="s">
         <v>50</v>
@@ -17485,7 +17485,7 @@
         <v>0</v>
       </c>
       <c r="J191" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K191">
         <v>2.875</v>
@@ -17574,7 +17574,7 @@
         <v>1</v>
       </c>
       <c r="J192" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K192">
         <v>1.666</v>
@@ -17663,7 +17663,7 @@
         <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K193">
         <v>1.666</v>
@@ -17740,7 +17740,7 @@
         <v>45346.36111111111</v>
       </c>
       <c r="F194" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G194" t="s">
         <v>46</v>
@@ -17752,7 +17752,7 @@
         <v>2</v>
       </c>
       <c r="J194" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K194">
         <v>2.5</v>
@@ -17841,7 +17841,7 @@
         <v>1</v>
       </c>
       <c r="J195" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K195">
         <v>1.9</v>
@@ -17921,7 +17921,7 @@
         <v>40</v>
       </c>
       <c r="G196" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -17930,7 +17930,7 @@
         <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K196">
         <v>2.45</v>
@@ -18010,7 +18010,7 @@
         <v>39</v>
       </c>
       <c r="G197" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H197">
         <v>5</v>
@@ -18019,7 +18019,7 @@
         <v>1</v>
       </c>
       <c r="J197" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K197">
         <v>1.571</v>
@@ -18108,7 +18108,7 @@
         <v>2</v>
       </c>
       <c r="J198" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K198">
         <v>3</v>
@@ -18188,7 +18188,7 @@
         <v>49</v>
       </c>
       <c r="G199" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H199">
         <v>1</v>
@@ -18197,7 +18197,7 @@
         <v>0</v>
       </c>
       <c r="J199" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K199">
         <v>2.3</v>
@@ -18277,7 +18277,7 @@
         <v>41</v>
       </c>
       <c r="G200" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H200">
         <v>0</v>
@@ -18286,7 +18286,7 @@
         <v>1</v>
       </c>
       <c r="J200" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K200">
         <v>3</v>
@@ -18375,7 +18375,7 @@
         <v>0</v>
       </c>
       <c r="J201" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K201">
         <v>2.3</v>
@@ -18452,7 +18452,7 @@
         <v>45350.58333333334</v>
       </c>
       <c r="F202" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G202" t="s">
         <v>40</v>
@@ -18464,7 +18464,7 @@
         <v>2</v>
       </c>
       <c r="J202" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K202">
         <v>2.4</v>
@@ -18541,11 +18541,20 @@
         <v>45352.58333333334</v>
       </c>
       <c r="F203" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G203" t="s">
         <v>44</v>
       </c>
+      <c r="H203">
+        <v>1</v>
+      </c>
+      <c r="I203">
+        <v>3</v>
+      </c>
+      <c r="J203" t="s">
+        <v>53</v>
+      </c>
       <c r="K203">
         <v>3.5</v>
       </c>
@@ -18571,31 +18580,37 @@
         <v>1.975</v>
       </c>
       <c r="S203">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T203">
         <v>2.5</v>
       </c>
       <c r="U203">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V203">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W203">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X203">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y203">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="Z203">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA203">
-        <v>0</v>
+        <v>0.825</v>
+      </c>
+      <c r="AB203">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC203">
+        <v>-1</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18620,6 +18635,15 @@
       <c r="G204" t="s">
         <v>39</v>
       </c>
+      <c r="H204">
+        <v>0</v>
+      </c>
+      <c r="I204">
+        <v>1</v>
+      </c>
+      <c r="J204" t="s">
+        <v>53</v>
+      </c>
       <c r="K204">
         <v>2.8</v>
       </c>
@@ -18630,46 +18654,52 @@
         <v>2.4</v>
       </c>
       <c r="N204">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="O204">
         <v>3.2</v>
       </c>
       <c r="P204">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="Q204">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R204">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="S204">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T204">
         <v>2.5</v>
       </c>
       <c r="U204">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V204">
         <v>1.825</v>
       </c>
       <c r="W204">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X204">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y204">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="Z204">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA204">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AB204">
+        <v>-1</v>
+      </c>
+      <c r="AC204">
+        <v>0.825</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18704,10 +18734,10 @@
         <v>3.5</v>
       </c>
       <c r="N205">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="O205">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P205">
         <v>3.75</v>
@@ -18716,19 +18746,19 @@
         <v>-0.5</v>
       </c>
       <c r="R205">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S205">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T205">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U205">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V205">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W205">
         <v>0</v>
@@ -18763,7 +18793,7 @@
         <v>45353.45833333334</v>
       </c>
       <c r="F206" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G206" t="s">
         <v>48</v>
@@ -18781,28 +18811,28 @@
         <v>2</v>
       </c>
       <c r="O206">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P206">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q206">
         <v>-0.5</v>
       </c>
       <c r="R206">
+        <v>2.05</v>
+      </c>
+      <c r="S206">
+        <v>1.8</v>
+      </c>
+      <c r="T206">
+        <v>2.5</v>
+      </c>
+      <c r="U206">
+        <v>1.825</v>
+      </c>
+      <c r="V206">
         <v>2.025</v>
-      </c>
-      <c r="S206">
-        <v>1.825</v>
-      </c>
-      <c r="T206">
-        <v>2.75</v>
-      </c>
-      <c r="U206">
-        <v>1.975</v>
-      </c>
-      <c r="V206">
-        <v>1.875</v>
       </c>
       <c r="W206">
         <v>0</v>
@@ -18855,28 +18885,28 @@
         <v>3.8</v>
       </c>
       <c r="O207">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P207">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="Q207">
         <v>0.5</v>
       </c>
       <c r="R207">
+        <v>1.9</v>
+      </c>
+      <c r="S207">
+        <v>1.95</v>
+      </c>
+      <c r="T207">
+        <v>2.5</v>
+      </c>
+      <c r="U207">
         <v>1.975</v>
       </c>
-      <c r="S207">
+      <c r="V207">
         <v>1.875</v>
-      </c>
-      <c r="T207">
-        <v>2.75</v>
-      </c>
-      <c r="U207">
-        <v>2</v>
-      </c>
-      <c r="V207">
-        <v>1.85</v>
       </c>
       <c r="W207">
         <v>0</v>
@@ -18911,7 +18941,7 @@
         <v>45354.36111111111</v>
       </c>
       <c r="F208" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G208" t="s">
         <v>40</v>
@@ -18926,31 +18956,31 @@
         <v>3.1</v>
       </c>
       <c r="N208">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="O208">
         <v>3</v>
       </c>
       <c r="P208">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q208">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R208">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S208">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T208">
         <v>2.25</v>
       </c>
       <c r="U208">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="V208">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W208">
         <v>0</v>
@@ -19000,31 +19030,31 @@
         <v>3.6</v>
       </c>
       <c r="N209">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="O209">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P209">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q209">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R209">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S209">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T209">
         <v>2.5</v>
       </c>
       <c r="U209">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V209">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W209">
         <v>0</v>
@@ -19059,10 +19089,10 @@
         <v>45354.58333333334</v>
       </c>
       <c r="F210" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G210" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K210">
         <v>2.5</v>
@@ -19074,31 +19104,31 @@
         <v>2.6</v>
       </c>
       <c r="N210">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="O210">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P210">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="Q210">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R210">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S210">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T210">
         <v>2.5</v>
       </c>
       <c r="U210">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V210">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W210">
         <v>0</v>
@@ -19160,19 +19190,19 @@
         <v>-1</v>
       </c>
       <c r="R211">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S211">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T211">
         <v>2.75</v>
       </c>
       <c r="U211">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V211">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W211">
         <v>0</v>

--- a/Poland I Liga/Poland I Liga.xlsx
+++ b/Poland I Liga/Poland I Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -106,28 +106,28 @@
     <t>Gornik Leczna</t>
   </si>
   <si>
-    <t>Zaglebie Sosnowiec</t>
+    <t>Ruch Chorzow</t>
+  </si>
+  <si>
+    <t>Termalica BB Nieciecza</t>
   </si>
   <si>
     <t>LKS Lodz</t>
   </si>
   <si>
-    <t>Ruch Chorzow</t>
+    <t>Zaglebie Sosnowiec</t>
+  </si>
+  <si>
+    <t>Chojniczanka Chojnice</t>
+  </si>
+  <si>
+    <t>Stal Rzeszow</t>
   </si>
   <si>
     <t>Podbeskidzie Bielsko Biala</t>
   </si>
   <si>
-    <t>Termalica BB Nieciecza</t>
-  </si>
-  <si>
-    <t>Stal Rzeszow</t>
-  </si>
-  <si>
     <t>MKS Puszcza Niepolomice</t>
-  </si>
-  <si>
-    <t>Chojniczanka Chojnice</t>
   </si>
   <si>
     <t>Wisla Krakow</t>
@@ -178,10 +178,10 @@
     <t>A</t>
   </si>
   <si>
-    <t>D</t>
+    <t>H</t>
   </si>
   <si>
-    <t>H</t>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -729,7 +729,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5448048</v>
+        <v>5451609</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -744,73 +744,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>54</v>
       </c>
       <c r="K3">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="L3">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M3">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="N3">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="O3">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P3">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="Q3">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R3">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S3">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T3">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U3">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V3">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X3">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
       <c r="AB3">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -818,7 +818,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5448049</v>
+        <v>5451608</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -833,55 +833,55 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
         <v>1</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
       <c r="J4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K4">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L4">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M4">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N4">
-        <v>1.444</v>
+        <v>1.909</v>
       </c>
       <c r="O4">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P4">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="Q4">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R4">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S4">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T4">
         <v>2.75</v>
       </c>
       <c r="U4">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V4">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W4">
-        <v>0.444</v>
+        <v>0.909</v>
       </c>
       <c r="X4">
         <v>-1</v>
@@ -890,16 +890,16 @@
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA4">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC4">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -907,7 +907,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5451609</v>
+        <v>5448049</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -922,7 +922,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -931,46 +931,46 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K5">
-        <v>1.3</v>
+        <v>1.571</v>
       </c>
       <c r="L5">
+        <v>3.75</v>
+      </c>
+      <c r="M5">
         <v>5</v>
       </c>
-      <c r="M5">
-        <v>7.5</v>
-      </c>
       <c r="N5">
-        <v>1.333</v>
+        <v>1.444</v>
       </c>
       <c r="O5">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q5">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R5">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S5">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T5">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U5">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V5">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W5">
-        <v>0.333</v>
+        <v>0.444</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -979,16 +979,16 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -996,7 +996,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5451607</v>
+        <v>5448048</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1011,58 +1011,58 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
         <v>55</v>
       </c>
       <c r="K6">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="L6">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M6">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="N6">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="O6">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P6">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="Q6">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R6">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S6">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T6">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U6">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V6">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W6">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y6">
         <v>-1</v>
@@ -1071,13 +1071,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA6">
-        <v>0.4875</v>
+        <v>0.4625</v>
       </c>
       <c r="AB6">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1085,7 +1085,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5451608</v>
+        <v>5448050</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1100,73 +1100,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J7" t="s">
         <v>55</v>
       </c>
       <c r="K7">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="L7">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M7">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="N7">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="O7">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P7">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="Q7">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S7">
+        <v>2.05</v>
+      </c>
+      <c r="T7">
+        <v>2.5</v>
+      </c>
+      <c r="U7">
+        <v>2</v>
+      </c>
+      <c r="V7">
         <v>1.85</v>
       </c>
-      <c r="T7">
-        <v>2.75</v>
-      </c>
-      <c r="U7">
-        <v>1.8</v>
-      </c>
-      <c r="V7">
-        <v>2</v>
-      </c>
       <c r="W7">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB7">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AC7">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1198,7 +1198,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K8">
         <v>1.444</v>
@@ -1263,7 +1263,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5452381</v>
+        <v>5451607</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1278,73 +1278,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K9">
-        <v>1.571</v>
+        <v>1.615</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M9">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="N9">
-        <v>1.4</v>
+        <v>1.363</v>
       </c>
       <c r="O9">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P9">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q9">
         <v>-1.25</v>
       </c>
       <c r="R9">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S9">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T9">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U9">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V9">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA9">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC9">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1352,7 +1352,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5448050</v>
+        <v>5452381</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1367,73 +1367,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10">
+        <v>1.571</v>
+      </c>
+      <c r="L10">
+        <v>4</v>
+      </c>
+      <c r="M10">
+        <v>5</v>
+      </c>
+      <c r="N10">
+        <v>1.4</v>
+      </c>
+      <c r="O10">
+        <v>4.5</v>
+      </c>
+      <c r="P10">
+        <v>6.5</v>
+      </c>
+      <c r="Q10">
+        <v>-1.25</v>
+      </c>
+      <c r="R10">
+        <v>1.9</v>
+      </c>
+      <c r="S10">
+        <v>1.95</v>
+      </c>
+      <c r="T10">
         <v>3</v>
       </c>
-      <c r="I10">
-        <v>3</v>
-      </c>
-      <c r="J10" t="s">
-        <v>54</v>
-      </c>
-      <c r="K10">
-        <v>2.75</v>
-      </c>
-      <c r="L10">
-        <v>3.25</v>
-      </c>
-      <c r="M10">
-        <v>2.375</v>
-      </c>
-      <c r="N10">
-        <v>2.4</v>
-      </c>
-      <c r="O10">
-        <v>3.25</v>
-      </c>
-      <c r="P10">
-        <v>2.7</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>1.8</v>
-      </c>
-      <c r="S10">
-        <v>2.05</v>
-      </c>
-      <c r="T10">
-        <v>2.5</v>
-      </c>
       <c r="U10">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V10">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W10">
         <v>-1</v>
       </c>
       <c r="X10">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA10">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB10">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC10">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1456,7 +1456,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1542,7 +1542,7 @@
         <v>45083.66666666666</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G12" t="s">
         <v>35</v>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K12">
         <v>1.8</v>
@@ -1631,10 +1631,10 @@
         <v>45088.54166666666</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1723,7 +1723,7 @@
         <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1732,7 +1732,7 @@
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K14">
         <v>2.25</v>
@@ -1812,7 +1812,7 @@
         <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H15">
         <v>3</v>
@@ -1821,7 +1821,7 @@
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K15">
         <v>2.25</v>
@@ -1999,7 +1999,7 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K17">
         <v>3.8</v>
@@ -2165,7 +2165,7 @@
         <v>45130.31944444445</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G19" t="s">
         <v>48</v>
@@ -2177,7 +2177,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K19">
         <v>2.5</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K20">
         <v>2.7</v>
@@ -2355,7 +2355,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K21">
         <v>1.833</v>
@@ -2533,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K23">
         <v>3.25</v>
@@ -2699,7 +2699,7 @@
         <v>45136.41666666666</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G25" t="s">
         <v>43</v>
@@ -2711,7 +2711,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K25">
         <v>1.727</v>
@@ -2788,7 +2788,7 @@
         <v>45136.52083333334</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G26" t="s">
         <v>48</v>
@@ -2800,7 +2800,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2877,7 +2877,7 @@
         <v>45136.625</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
         <v>44</v>
@@ -3067,7 +3067,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K29">
         <v>2.15</v>
@@ -3245,7 +3245,7 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K31">
         <v>1.8</v>
@@ -3325,7 +3325,7 @@
         <v>43</v>
       </c>
       <c r="G32" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K32">
         <v>2.25</v>
@@ -3423,7 +3423,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K33">
         <v>1.909</v>
@@ -3512,7 +3512,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K34">
         <v>1.8</v>
@@ -3601,7 +3601,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K35">
         <v>1.5</v>
@@ -3681,7 +3681,7 @@
         <v>41</v>
       </c>
       <c r="G36" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -3779,7 +3779,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K37">
         <v>3.2</v>
@@ -4037,7 +4037,7 @@
         <v>49</v>
       </c>
       <c r="G40" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K40">
         <v>2.875</v>
@@ -4135,7 +4135,7 @@
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K41">
         <v>1.8</v>
@@ -4224,7 +4224,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K42">
         <v>2.5</v>
@@ -4304,7 +4304,7 @@
         <v>46</v>
       </c>
       <c r="G43" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4313,7 +4313,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K43">
         <v>2.5</v>
@@ -4402,7 +4402,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K44">
         <v>3.1</v>
@@ -4479,7 +4479,7 @@
         <v>45150.625</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G45" t="s">
         <v>49</v>
@@ -4580,7 +4580,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K46">
         <v>1.727</v>
@@ -4746,7 +4746,7 @@
         <v>45151.54166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
         <v>40</v>
@@ -4924,10 +4924,10 @@
         <v>45156.54166666666</v>
       </c>
       <c r="F50" t="s">
+        <v>36</v>
+      </c>
+      <c r="G50" t="s">
         <v>33</v>
-      </c>
-      <c r="G50" t="s">
-        <v>30</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -4936,7 +4936,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K50">
         <v>1.909</v>
@@ -5105,7 +5105,7 @@
         <v>48</v>
       </c>
       <c r="G52" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H52">
         <v>3</v>
@@ -5114,7 +5114,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K52">
         <v>2.25</v>
@@ -5381,7 +5381,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K55">
         <v>1.85</v>
@@ -5470,7 +5470,7 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K56">
         <v>1.666</v>
@@ -5559,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K57">
         <v>2.875</v>
@@ -5737,7 +5737,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K59">
         <v>2.875</v>
@@ -5817,7 +5817,7 @@
         <v>45</v>
       </c>
       <c r="G60" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H60">
         <v>3</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K60">
         <v>2</v>
@@ -5915,7 +5915,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K61">
         <v>1.8</v>
@@ -6093,7 +6093,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K63">
         <v>2.875</v>
@@ -6182,7 +6182,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K64">
         <v>2</v>
@@ -6271,7 +6271,7 @@
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K65">
         <v>1.8</v>
@@ -6348,7 +6348,7 @@
         <v>45165.54166666666</v>
       </c>
       <c r="F66" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G66" t="s">
         <v>43</v>
@@ -6360,7 +6360,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K66">
         <v>1.727</v>
@@ -6440,7 +6440,7 @@
         <v>46</v>
       </c>
       <c r="G67" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6449,7 +6449,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K67">
         <v>2.2</v>
@@ -6529,7 +6529,7 @@
         <v>49</v>
       </c>
       <c r="G68" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -6627,7 +6627,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K69">
         <v>2.25</v>
@@ -6716,7 +6716,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K70">
         <v>2.55</v>
@@ -6805,7 +6805,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K71">
         <v>1.5</v>
@@ -6971,7 +6971,7 @@
         <v>45172.31944444445</v>
       </c>
       <c r="F73" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G73" t="s">
         <v>45</v>
@@ -6983,7 +6983,7 @@
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K73">
         <v>2.7</v>
@@ -7060,7 +7060,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G74" t="s">
         <v>47</v>
@@ -7072,7 +7072,7 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K74">
         <v>2.3</v>
@@ -7161,7 +7161,7 @@
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K75">
         <v>3.1</v>
@@ -7250,7 +7250,7 @@
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K76">
         <v>2.3</v>
@@ -7419,7 +7419,7 @@
         <v>47</v>
       </c>
       <c r="G78" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7606,7 +7606,7 @@
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K80">
         <v>1.222</v>
@@ -7695,7 +7695,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K81">
         <v>2.05</v>
@@ -7784,7 +7784,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K82">
         <v>1.95</v>
@@ -7861,10 +7861,10 @@
         <v>45186.45833333334</v>
       </c>
       <c r="F83" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G83" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -7873,7 +7873,7 @@
         <v>2</v>
       </c>
       <c r="J83" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K83">
         <v>1.85</v>
@@ -7962,7 +7962,7 @@
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K84">
         <v>2.375</v>
@@ -8051,7 +8051,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K85">
         <v>1.909</v>
@@ -8116,7 +8116,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6803740</v>
+        <v>6803738</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8128,19 +8128,19 @@
         <v>45191.54166666666</v>
       </c>
       <c r="F86" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H86">
         <v>1</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K86">
         <v>1.85</v>
@@ -8149,55 +8149,55 @@
         <v>3.5</v>
       </c>
       <c r="M86">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="N86">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="O86">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P86">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q86">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R86">
+        <v>1.825</v>
+      </c>
+      <c r="S86">
         <v>1.975</v>
       </c>
-      <c r="S86">
+      <c r="T86">
+        <v>2.5</v>
+      </c>
+      <c r="U86">
         <v>1.825</v>
       </c>
-      <c r="T86">
-        <v>2.25</v>
-      </c>
-      <c r="U86">
-        <v>1.9</v>
-      </c>
       <c r="V86">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W86">
         <v>-1</v>
       </c>
       <c r="X86">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y86">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
         <v>-1</v>
       </c>
       <c r="AA86">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB86">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8205,7 +8205,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6803738</v>
+        <v>6803740</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8217,19 +8217,19 @@
         <v>45191.54166666666</v>
       </c>
       <c r="F87" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G87" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H87">
         <v>1</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K87">
         <v>1.85</v>
@@ -8238,55 +8238,55 @@
         <v>3.5</v>
       </c>
       <c r="M87">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="N87">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="O87">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P87">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q87">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R87">
+        <v>1.975</v>
+      </c>
+      <c r="S87">
         <v>1.825</v>
       </c>
-      <c r="S87">
-        <v>1.975</v>
-      </c>
       <c r="T87">
+        <v>2.25</v>
+      </c>
+      <c r="U87">
+        <v>1.9</v>
+      </c>
+      <c r="V87">
+        <v>1.9</v>
+      </c>
+      <c r="W87">
+        <v>-1</v>
+      </c>
+      <c r="X87">
+        <v>-1</v>
+      </c>
+      <c r="Y87">
         <v>2.5</v>
       </c>
-      <c r="U87">
-        <v>1.825</v>
-      </c>
-      <c r="V87">
-        <v>1.975</v>
-      </c>
-      <c r="W87">
-        <v>-1</v>
-      </c>
-      <c r="X87">
-        <v>2.8</v>
-      </c>
-      <c r="Y87">
-        <v>-1</v>
-      </c>
       <c r="Z87">
         <v>-1</v>
       </c>
       <c r="AA87">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC87">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8318,7 +8318,7 @@
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K88">
         <v>2.15</v>
@@ -8407,7 +8407,7 @@
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K89">
         <v>2.05</v>
@@ -8585,7 +8585,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K91">
         <v>4.2</v>
@@ -8674,7 +8674,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K92">
         <v>1.8</v>
@@ -8840,10 +8840,10 @@
         <v>45193.54166666666</v>
       </c>
       <c r="F94" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G94" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -8932,7 +8932,7 @@
         <v>42</v>
       </c>
       <c r="G95" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H95">
         <v>2</v>
@@ -8941,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K95">
         <v>2.875</v>
@@ -9030,7 +9030,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K96">
         <v>1.85</v>
@@ -9119,7 +9119,7 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K97">
         <v>1.3</v>
@@ -9208,7 +9208,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K98">
         <v>2.1</v>
@@ -9297,7 +9297,7 @@
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K99">
         <v>2.05</v>
@@ -9386,7 +9386,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K100">
         <v>2</v>
@@ -9463,7 +9463,7 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G101" t="s">
         <v>45</v>
@@ -9475,7 +9475,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K101">
         <v>1.85</v>
@@ -9564,7 +9564,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K102">
         <v>2</v>
@@ -9644,7 +9644,7 @@
         <v>29</v>
       </c>
       <c r="G103" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9653,7 +9653,7 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K103">
         <v>2.375</v>
@@ -9742,7 +9742,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K104">
         <v>4</v>
@@ -9831,7 +9831,7 @@
         <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K105">
         <v>1.75</v>
@@ -9908,7 +9908,7 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F106" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G106" t="s">
         <v>35</v>
@@ -10009,7 +10009,7 @@
         <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K107">
         <v>1.65</v>
@@ -10276,7 +10276,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K110">
         <v>2.7</v>
@@ -10341,7 +10341,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6803754</v>
+        <v>6805706</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10353,76 +10353,76 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F111" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G111" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H111">
         <v>0</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J111" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K111">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L111">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M111">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="N111">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="O111">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P111">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="Q111">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R111">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S111">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T111">
         <v>2.5</v>
       </c>
       <c r="U111">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V111">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W111">
         <v>-1</v>
       </c>
       <c r="X111">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z111">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB111">
         <v>-1</v>
       </c>
       <c r="AC111">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10430,7 +10430,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6805706</v>
+        <v>6803754</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10442,76 +10442,76 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F112" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G112" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H112">
         <v>0</v>
       </c>
       <c r="I112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K112">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L112">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M112">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="N112">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="O112">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P112">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="Q112">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R112">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S112">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T112">
         <v>2.5</v>
       </c>
       <c r="U112">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V112">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W112">
         <v>-1</v>
       </c>
       <c r="X112">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y112">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA112">
+        <v>-0</v>
+      </c>
+      <c r="AB112">
+        <v>-1</v>
+      </c>
+      <c r="AC112">
         <v>0.95</v>
-      </c>
-      <c r="AB112">
-        <v>-1</v>
-      </c>
-      <c r="AC112">
-        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10632,7 +10632,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K114">
         <v>1.4</v>
@@ -10712,7 +10712,7 @@
         <v>35</v>
       </c>
       <c r="G115" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -10721,7 +10721,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K115">
         <v>1.833</v>
@@ -10801,7 +10801,7 @@
         <v>50</v>
       </c>
       <c r="G116" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H116">
         <v>3</v>
@@ -10810,7 +10810,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K116">
         <v>2.1</v>
@@ -10899,7 +10899,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K117">
         <v>1.95</v>
@@ -10979,7 +10979,7 @@
         <v>46</v>
       </c>
       <c r="G118" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H118">
         <v>2</v>
@@ -10988,7 +10988,7 @@
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K118">
         <v>2.25</v>
@@ -11077,7 +11077,7 @@
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K119">
         <v>2.3</v>
@@ -11166,7 +11166,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K120">
         <v>1.75</v>
@@ -11255,7 +11255,7 @@
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K121">
         <v>1.5</v>
@@ -11421,7 +11421,7 @@
         <v>45226.64583333334</v>
       </c>
       <c r="F123" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G123" t="s">
         <v>38</v>
@@ -11433,7 +11433,7 @@
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K123">
         <v>3.2</v>
@@ -11522,7 +11522,7 @@
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K124">
         <v>1.833</v>
@@ -11599,7 +11599,7 @@
         <v>45227.52083333334</v>
       </c>
       <c r="F125" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G125" t="s">
         <v>50</v>
@@ -11688,7 +11688,7 @@
         <v>45227.625</v>
       </c>
       <c r="F126" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G126" t="s">
         <v>29</v>
@@ -11700,7 +11700,7 @@
         <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K126">
         <v>1.727</v>
@@ -11789,7 +11789,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K127">
         <v>2.5</v>
@@ -11967,7 +11967,7 @@
         <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K129">
         <v>2.9</v>
@@ -12225,7 +12225,7 @@
         <v>38</v>
       </c>
       <c r="G132" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -12234,7 +12234,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K132">
         <v>1.363</v>
@@ -12314,7 +12314,7 @@
         <v>39</v>
       </c>
       <c r="G133" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H133">
         <v>1</v>
@@ -12323,7 +12323,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K133">
         <v>1.7</v>
@@ -12492,7 +12492,7 @@
         <v>42</v>
       </c>
       <c r="G135" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -12501,7 +12501,7 @@
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K135">
         <v>3.1</v>
@@ -12679,7 +12679,7 @@
         <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K137">
         <v>2.45</v>
@@ -12768,7 +12768,7 @@
         <v>2</v>
       </c>
       <c r="J138" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K138">
         <v>2.5</v>
@@ -12857,7 +12857,7 @@
         <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K139">
         <v>3.1</v>
@@ -12946,7 +12946,7 @@
         <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K140">
         <v>2.4</v>
@@ -13035,7 +13035,7 @@
         <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K141">
         <v>3</v>
@@ -13124,7 +13124,7 @@
         <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K142">
         <v>2.1</v>
@@ -13213,7 +13213,7 @@
         <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K143">
         <v>2.15</v>
@@ -13290,7 +13290,7 @@
         <v>45241.66666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G144" t="s">
         <v>35</v>
@@ -13391,7 +13391,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K145">
         <v>2</v>
@@ -13545,7 +13545,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6803779</v>
+        <v>6803778</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13557,76 +13557,76 @@
         <v>45242.58333333334</v>
       </c>
       <c r="F147" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G147" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K147">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="L147">
         <v>3.4</v>
       </c>
       <c r="M147">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="N147">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="O147">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P147">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="Q147">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R147">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S147">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T147">
         <v>2.5</v>
       </c>
       <c r="U147">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V147">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W147">
         <v>-1</v>
       </c>
       <c r="X147">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y147">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z147">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA147">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB147">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13634,7 +13634,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6803778</v>
+        <v>6803779</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13649,73 +13649,73 @@
         <v>33</v>
       </c>
       <c r="G148" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I148">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J148" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K148">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="L148">
         <v>3.4</v>
       </c>
       <c r="M148">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="N148">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="O148">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P148">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="Q148">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R148">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S148">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T148">
         <v>2.5</v>
       </c>
       <c r="U148">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V148">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W148">
         <v>-1</v>
       </c>
       <c r="X148">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y148">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z148">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA148">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC148">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13738,7 +13738,7 @@
         <v>41</v>
       </c>
       <c r="G149" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H149">
         <v>3</v>
@@ -13747,7 +13747,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K149">
         <v>2.8</v>
@@ -13836,7 +13836,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K150">
         <v>2</v>
@@ -13925,7 +13925,7 @@
         <v>0</v>
       </c>
       <c r="J151" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K151">
         <v>2.1</v>
@@ -14014,7 +14014,7 @@
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K152">
         <v>1.727</v>
@@ -14103,7 +14103,7 @@
         <v>2</v>
       </c>
       <c r="J153" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K153">
         <v>1.727</v>
@@ -14192,7 +14192,7 @@
         <v>0</v>
       </c>
       <c r="J154" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K154">
         <v>1.8</v>
@@ -14361,7 +14361,7 @@
         <v>44</v>
       </c>
       <c r="G156" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H156">
         <v>2</v>
@@ -14370,7 +14370,7 @@
         <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K156">
         <v>1.533</v>
@@ -14450,7 +14450,7 @@
         <v>50</v>
       </c>
       <c r="G157" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H157">
         <v>3</v>
@@ -14459,7 +14459,7 @@
         <v>2</v>
       </c>
       <c r="J157" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K157">
         <v>2.25</v>
@@ -14548,7 +14548,7 @@
         <v>2</v>
       </c>
       <c r="J158" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K158">
         <v>2.3</v>
@@ -14625,7 +14625,7 @@
         <v>45261.6875</v>
       </c>
       <c r="F159" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G159" t="s">
         <v>38</v>
@@ -14637,7 +14637,7 @@
         <v>1</v>
       </c>
       <c r="J159" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K159">
         <v>2.8</v>
@@ -14726,7 +14726,7 @@
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K160">
         <v>2.75</v>
@@ -14815,7 +14815,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K161">
         <v>2.45</v>
@@ -14904,7 +14904,7 @@
         <v>0</v>
       </c>
       <c r="J162" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K162">
         <v>2.8</v>
@@ -14993,7 +14993,7 @@
         <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K163">
         <v>1.8</v>
@@ -15070,7 +15070,7 @@
         <v>45268.6875</v>
       </c>
       <c r="F164" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G164" t="s">
         <v>40</v>
@@ -15162,7 +15162,7 @@
         <v>48</v>
       </c>
       <c r="G165" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H165">
         <v>2</v>
@@ -15171,7 +15171,7 @@
         <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K165">
         <v>1.727</v>
@@ -15260,7 +15260,7 @@
         <v>0</v>
       </c>
       <c r="J166" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K166">
         <v>1.533</v>
@@ -15438,7 +15438,7 @@
         <v>0</v>
       </c>
       <c r="J168" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K168">
         <v>1.4</v>
@@ -15527,7 +15527,7 @@
         <v>1</v>
       </c>
       <c r="J169" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K169">
         <v>2.05</v>
@@ -15604,7 +15604,7 @@
         <v>45271.58333333334</v>
       </c>
       <c r="F170" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G170" t="s">
         <v>39</v>
@@ -15616,7 +15616,7 @@
         <v>1</v>
       </c>
       <c r="J170" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K170">
         <v>2.25</v>
@@ -15705,7 +15705,7 @@
         <v>0</v>
       </c>
       <c r="J171" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K171">
         <v>2.875</v>
@@ -15785,7 +15785,7 @@
         <v>48</v>
       </c>
       <c r="G172" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H172">
         <v>2</v>
@@ -15794,7 +15794,7 @@
         <v>0</v>
       </c>
       <c r="J172" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K172">
         <v>1.727</v>
@@ -15972,7 +15972,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K174">
         <v>1.55</v>
@@ -16061,7 +16061,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K175">
         <v>2.7</v>
@@ -16150,7 +16150,7 @@
         <v>1</v>
       </c>
       <c r="J176" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K176">
         <v>1.363</v>
@@ -16230,7 +16230,7 @@
         <v>43</v>
       </c>
       <c r="G177" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H177">
         <v>0</v>
@@ -16328,7 +16328,7 @@
         <v>0</v>
       </c>
       <c r="J178" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K178">
         <v>2.15</v>
@@ -16408,7 +16408,7 @@
         <v>44</v>
       </c>
       <c r="G179" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H179">
         <v>2</v>
@@ -16417,7 +16417,7 @@
         <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K179">
         <v>2.05</v>
@@ -16494,7 +16494,7 @@
         <v>45279.5625</v>
       </c>
       <c r="F180" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G180" t="s">
         <v>41</v>
@@ -16595,7 +16595,7 @@
         <v>2</v>
       </c>
       <c r="J181" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K181">
         <v>3</v>
@@ -16684,7 +16684,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K182">
         <v>3.75</v>
@@ -16773,7 +16773,7 @@
         <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K183">
         <v>2.25</v>
@@ -16850,7 +16850,7 @@
         <v>45339.45833333334</v>
       </c>
       <c r="F184" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G184" t="s">
         <v>49</v>
@@ -16862,7 +16862,7 @@
         <v>2</v>
       </c>
       <c r="J184" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K184">
         <v>1.833</v>
@@ -17040,7 +17040,7 @@
         <v>1</v>
       </c>
       <c r="J186" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K186">
         <v>2.05</v>
@@ -17206,7 +17206,7 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G188" t="s">
         <v>41</v>
@@ -17218,7 +17218,7 @@
         <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K188">
         <v>1.55</v>
@@ -17295,7 +17295,7 @@
         <v>45340.58333333334</v>
       </c>
       <c r="F189" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G189" t="s">
         <v>43</v>
@@ -17396,7 +17396,7 @@
         <v>0</v>
       </c>
       <c r="J190" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K190">
         <v>2.3</v>
@@ -17485,7 +17485,7 @@
         <v>0</v>
       </c>
       <c r="J191" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K191">
         <v>2.875</v>
@@ -17574,7 +17574,7 @@
         <v>1</v>
       </c>
       <c r="J192" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K192">
         <v>1.666</v>
@@ -17740,7 +17740,7 @@
         <v>45346.36111111111</v>
       </c>
       <c r="F194" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G194" t="s">
         <v>46</v>
@@ -17841,7 +17841,7 @@
         <v>1</v>
       </c>
       <c r="J195" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K195">
         <v>1.9</v>
@@ -17921,7 +17921,7 @@
         <v>40</v>
       </c>
       <c r="G196" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -17930,7 +17930,7 @@
         <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K196">
         <v>2.45</v>
@@ -18019,7 +18019,7 @@
         <v>1</v>
       </c>
       <c r="J197" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K197">
         <v>1.571</v>
@@ -18188,7 +18188,7 @@
         <v>49</v>
       </c>
       <c r="G199" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H199">
         <v>1</v>
@@ -18197,7 +18197,7 @@
         <v>0</v>
       </c>
       <c r="J199" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K199">
         <v>2.3</v>
@@ -18375,7 +18375,7 @@
         <v>0</v>
       </c>
       <c r="J201" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K201">
         <v>2.3</v>
@@ -18452,7 +18452,7 @@
         <v>45350.58333333334</v>
       </c>
       <c r="F202" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G202" t="s">
         <v>40</v>
@@ -18724,6 +18724,15 @@
       <c r="G205" t="s">
         <v>43</v>
       </c>
+      <c r="H205">
+        <v>3</v>
+      </c>
+      <c r="I205">
+        <v>1</v>
+      </c>
+      <c r="J205" t="s">
+        <v>54</v>
+      </c>
       <c r="K205">
         <v>2</v>
       </c>
@@ -18737,43 +18746,49 @@
         <v>1.95</v>
       </c>
       <c r="O205">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P205">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q205">
         <v>-0.5</v>
       </c>
       <c r="R205">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S205">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T205">
         <v>2.25</v>
       </c>
       <c r="U205">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V205">
         <v>1.925</v>
       </c>
       <c r="W205">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="X205">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y205">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z205">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA205">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB205">
+        <v>0.875</v>
+      </c>
+      <c r="AC205">
+        <v>-1</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18793,11 +18808,20 @@
         <v>45353.45833333334</v>
       </c>
       <c r="F206" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G206" t="s">
         <v>48</v>
       </c>
+      <c r="H206">
+        <v>2</v>
+      </c>
+      <c r="I206">
+        <v>2</v>
+      </c>
+      <c r="J206" t="s">
+        <v>55</v>
+      </c>
       <c r="K206">
         <v>2</v>
       </c>
@@ -18808,46 +18832,52 @@
         <v>3.4</v>
       </c>
       <c r="N206">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O206">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P206">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q206">
+        <v>-0.25</v>
+      </c>
+      <c r="R206">
+        <v>1.85</v>
+      </c>
+      <c r="S206">
+        <v>2</v>
+      </c>
+      <c r="T206">
+        <v>2.25</v>
+      </c>
+      <c r="U206">
+        <v>1.875</v>
+      </c>
+      <c r="V206">
+        <v>1.975</v>
+      </c>
+      <c r="W206">
+        <v>-1</v>
+      </c>
+      <c r="X206">
+        <v>2.1</v>
+      </c>
+      <c r="Y206">
+        <v>-1</v>
+      </c>
+      <c r="Z206">
         <v>-0.5</v>
       </c>
-      <c r="R206">
-        <v>2.05</v>
-      </c>
-      <c r="S206">
-        <v>1.8</v>
-      </c>
-      <c r="T206">
-        <v>2.5</v>
-      </c>
-      <c r="U206">
-        <v>1.825</v>
-      </c>
-      <c r="V206">
-        <v>2.025</v>
-      </c>
-      <c r="W206">
-        <v>0</v>
-      </c>
-      <c r="X206">
-        <v>0</v>
-      </c>
-      <c r="Y206">
-        <v>0</v>
-      </c>
-      <c r="Z206">
-        <v>0</v>
-      </c>
       <c r="AA206">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="AB206">
+        <v>0.875</v>
+      </c>
+      <c r="AC206">
+        <v>-1</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18872,6 +18902,15 @@
       <c r="G207" t="s">
         <v>38</v>
       </c>
+      <c r="H207">
+        <v>1</v>
+      </c>
+      <c r="I207">
+        <v>2</v>
+      </c>
+      <c r="J207" t="s">
+        <v>53</v>
+      </c>
       <c r="K207">
         <v>3.8</v>
       </c>
@@ -18882,46 +18921,52 @@
         <v>1.833</v>
       </c>
       <c r="N207">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="O207">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P207">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="Q207">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R207">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S207">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T207">
         <v>2.5</v>
       </c>
       <c r="U207">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V207">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W207">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X207">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y207">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Z207">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA207">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="AB207">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC207">
+        <v>-1</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18968,19 +19013,19 @@
         <v>-0.25</v>
       </c>
       <c r="R208">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S208">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T208">
         <v>2.25</v>
       </c>
       <c r="U208">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V208">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W208">
         <v>0</v>
@@ -19036,7 +19081,7 @@
         <v>3.4</v>
       </c>
       <c r="P209">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q209">
         <v>-0.25</v>
@@ -19089,10 +19134,10 @@
         <v>45354.58333333334</v>
       </c>
       <c r="F210" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G210" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K210">
         <v>2.5</v>
@@ -19104,22 +19149,22 @@
         <v>2.6</v>
       </c>
       <c r="N210">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O210">
         <v>3.2</v>
       </c>
       <c r="P210">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="Q210">
         <v>-0.25</v>
       </c>
       <c r="R210">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S210">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T210">
         <v>2.5</v>

--- a/Poland I Liga/Poland I Liga.xlsx
+++ b/Poland I Liga/Poland I Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -103,31 +103,31 @@
     <t>Poland I Liga</t>
   </si>
   <si>
-    <t>Gornik Leczna</t>
+    <t>Stal Rzeszow</t>
   </si>
   <si>
     <t>Ruch Chorzow</t>
   </si>
   <si>
+    <t>LKS Lodz</t>
+  </si>
+  <si>
     <t>Termalica BB Nieciecza</t>
   </si>
   <si>
-    <t>LKS Lodz</t>
+    <t>Podbeskidzie Bielsko Biala</t>
+  </si>
+  <si>
+    <t>Chojniczanka Chojnice</t>
   </si>
   <si>
     <t>Zaglebie Sosnowiec</t>
   </si>
   <si>
-    <t>Chojniczanka Chojnice</t>
+    <t>MKS Puszcza Niepolomice</t>
   </si>
   <si>
-    <t>Stal Rzeszow</t>
-  </si>
-  <si>
-    <t>Podbeskidzie Bielsko Biala</t>
-  </si>
-  <si>
-    <t>MKS Puszcza Niepolomice</t>
+    <t>Gornik Leczna</t>
   </si>
   <si>
     <t>Wisla Krakow</t>
@@ -169,19 +169,19 @@
     <t>GKS Tychy 71</t>
   </si>
   <si>
-    <t>Sandecja Nowy Sacz</t>
-  </si>
-  <si>
     <t>Skra Czestochowa</t>
   </si>
   <si>
-    <t>A</t>
+    <t>Sandecja Nowy Sacz</t>
   </si>
   <si>
     <t>H</t>
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -543,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC211"/>
+  <dimension ref="A1:AC220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5447925</v>
+        <v>5451610</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -655,73 +655,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>53</v>
       </c>
       <c r="K2">
-        <v>5.5</v>
+        <v>1.444</v>
       </c>
       <c r="L2">
         <v>4</v>
       </c>
       <c r="M2">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="N2">
-        <v>4.5</v>
+        <v>1.333</v>
       </c>
       <c r="O2">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P2">
-        <v>1.615</v>
+        <v>8</v>
       </c>
       <c r="Q2">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R2">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S2">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T2">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U2">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V2">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W2">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X2">
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z2">
         <v>-1</v>
       </c>
       <c r="AA2">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="AC2">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K3">
         <v>1.3</v>
@@ -818,7 +818,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5451608</v>
+        <v>5448049</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -833,55 +833,55 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K4">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L4">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M4">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N4">
-        <v>1.909</v>
+        <v>1.444</v>
       </c>
       <c r="O4">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P4">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="Q4">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R4">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S4">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T4">
         <v>2.75</v>
       </c>
       <c r="U4">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V4">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W4">
-        <v>0.909</v>
+        <v>0.444</v>
       </c>
       <c r="X4">
         <v>-1</v>
@@ -890,16 +890,16 @@
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB4">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -907,7 +907,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5448049</v>
+        <v>5451608</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -922,55 +922,55 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
         <v>1</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
       <c r="J5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K5">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L5">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M5">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N5">
-        <v>1.444</v>
+        <v>1.909</v>
       </c>
       <c r="O5">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P5">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="Q5">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R5">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S5">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T5">
         <v>2.75</v>
       </c>
       <c r="U5">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V5">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W5">
-        <v>0.444</v>
+        <v>0.909</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -979,16 +979,16 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA5">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC5">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -996,7 +996,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5448048</v>
+        <v>5451607</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1011,58 +1011,58 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K6">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="L6">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M6">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="N6">
-        <v>2.1</v>
+        <v>1.363</v>
       </c>
       <c r="O6">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P6">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="Q6">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R6">
+        <v>1.825</v>
+      </c>
+      <c r="S6">
+        <v>1.975</v>
+      </c>
+      <c r="T6">
+        <v>3.25</v>
+      </c>
+      <c r="U6">
+        <v>1.925</v>
+      </c>
+      <c r="V6">
         <v>1.875</v>
       </c>
-      <c r="S6">
-        <v>1.925</v>
-      </c>
-      <c r="T6">
-        <v>2.25</v>
-      </c>
-      <c r="U6">
-        <v>1.85</v>
-      </c>
-      <c r="V6">
-        <v>1.95</v>
-      </c>
       <c r="W6">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X6">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
         <v>-1</v>
@@ -1071,13 +1071,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA6">
-        <v>0.4625</v>
+        <v>0.4875</v>
       </c>
       <c r="AB6">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC6">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1109,7 +1109,7 @@
         <v>3</v>
       </c>
       <c r="J7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K7">
         <v>2.75</v>
@@ -1174,7 +1174,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5451610</v>
+        <v>5448048</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1192,7 +1192,7 @@
         <v>52</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -1201,61 +1201,61 @@
         <v>54</v>
       </c>
       <c r="K8">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="L8">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M8">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="N8">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="O8">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="P8">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="Q8">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R8">
+        <v>1.875</v>
+      </c>
+      <c r="S8">
+        <v>1.925</v>
+      </c>
+      <c r="T8">
+        <v>2.25</v>
+      </c>
+      <c r="U8">
+        <v>1.85</v>
+      </c>
+      <c r="V8">
         <v>1.95</v>
       </c>
-      <c r="S8">
-        <v>1.85</v>
-      </c>
-      <c r="T8">
-        <v>2.75</v>
-      </c>
-      <c r="U8">
-        <v>1.875</v>
-      </c>
-      <c r="V8">
-        <v>1.925</v>
-      </c>
       <c r="W8">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA8">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AB8">
-        <v>0.4375</v>
+        <v>-0.5</v>
       </c>
       <c r="AC8">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1263,7 +1263,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5451607</v>
+        <v>5452381</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1278,73 +1278,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9">
+        <v>1.571</v>
+      </c>
+      <c r="L9">
         <v>4</v>
       </c>
-      <c r="I9">
-        <v>3</v>
-      </c>
-      <c r="J9" t="s">
-        <v>54</v>
-      </c>
-      <c r="K9">
-        <v>1.615</v>
-      </c>
-      <c r="L9">
-        <v>3.75</v>
-      </c>
       <c r="M9">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="N9">
-        <v>1.363</v>
+        <v>1.4</v>
       </c>
       <c r="O9">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P9">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q9">
         <v>-1.25</v>
       </c>
       <c r="R9">
+        <v>1.9</v>
+      </c>
+      <c r="S9">
+        <v>1.95</v>
+      </c>
+      <c r="T9">
+        <v>3</v>
+      </c>
+      <c r="U9">
+        <v>2.025</v>
+      </c>
+      <c r="V9">
         <v>1.825</v>
       </c>
-      <c r="S9">
-        <v>1.975</v>
-      </c>
-      <c r="T9">
-        <v>3.25</v>
-      </c>
-      <c r="U9">
-        <v>1.925</v>
-      </c>
-      <c r="V9">
-        <v>1.875</v>
-      </c>
       <c r="W9">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z9">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AB9">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1352,7 +1352,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5452381</v>
+        <v>5447925</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1367,52 +1367,52 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K10">
-        <v>1.571</v>
+        <v>5.5</v>
       </c>
       <c r="L10">
         <v>4</v>
       </c>
       <c r="M10">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="N10">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="O10">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P10">
-        <v>6.5</v>
+        <v>1.615</v>
       </c>
       <c r="Q10">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R10">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S10">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T10">
         <v>3</v>
       </c>
       <c r="U10">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V10">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W10">
         <v>-1</v>
@@ -1421,19 +1421,19 @@
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>5.5</v>
+        <v>0.615</v>
       </c>
       <c r="Z10">
         <v>-1</v>
       </c>
       <c r="AA10">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC10">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1456,7 +1456,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1465,7 +1465,7 @@
         <v>4</v>
       </c>
       <c r="J11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K11">
         <v>1.615</v>
@@ -1542,10 +1542,10 @@
         <v>45083.66666666666</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K12">
         <v>1.8</v>
@@ -1631,10 +1631,10 @@
         <v>45088.54166666666</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1643,7 +1643,7 @@
         <v>3</v>
       </c>
       <c r="J13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K13">
         <v>1.95</v>
@@ -1723,7 +1723,7 @@
         <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1732,7 +1732,7 @@
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K14">
         <v>2.25</v>
@@ -1812,7 +1812,7 @@
         <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H15">
         <v>3</v>
@@ -1821,7 +1821,7 @@
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K15">
         <v>2.25</v>
@@ -1910,7 +1910,7 @@
         <v>4</v>
       </c>
       <c r="J16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K16">
         <v>2.8</v>
@@ -1987,7 +1987,7 @@
         <v>45129.52083333334</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G17" t="s">
         <v>38</v>
@@ -1999,7 +1999,7 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K17">
         <v>3.8</v>
@@ -2088,7 +2088,7 @@
         <v>3</v>
       </c>
       <c r="J18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K18">
         <v>2.15</v>
@@ -2165,7 +2165,7 @@
         <v>45130.31944444445</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G19" t="s">
         <v>48</v>
@@ -2177,7 +2177,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K19">
         <v>2.5</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K20">
         <v>2.7</v>
@@ -2355,7 +2355,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K21">
         <v>1.833</v>
@@ -2432,7 +2432,7 @@
         <v>45131.54166666666</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2444,7 +2444,7 @@
         <v>5</v>
       </c>
       <c r="J22" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K22">
         <v>1.8</v>
@@ -2521,7 +2521,7 @@
         <v>45135.54166666666</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s">
         <v>39</v>
@@ -2533,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K23">
         <v>3.25</v>
@@ -2622,7 +2622,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K24">
         <v>1.5</v>
@@ -2699,7 +2699,7 @@
         <v>45136.41666666666</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G25" t="s">
         <v>43</v>
@@ -2711,7 +2711,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K25">
         <v>1.727</v>
@@ -2788,7 +2788,7 @@
         <v>45136.52083333334</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G26" t="s">
         <v>48</v>
@@ -2800,7 +2800,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2877,7 +2877,7 @@
         <v>45136.625</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G27" t="s">
         <v>44</v>
@@ -2889,7 +2889,7 @@
         <v>4</v>
       </c>
       <c r="J27" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K27">
         <v>2.15</v>
@@ -2978,7 +2978,7 @@
         <v>3</v>
       </c>
       <c r="J28" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K28">
         <v>3.4</v>
@@ -3067,7 +3067,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K29">
         <v>2.15</v>
@@ -3144,7 +3144,7 @@
         <v>45137.54166666666</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G30" t="s">
         <v>50</v>
@@ -3156,7 +3156,7 @@
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K30">
         <v>2.15</v>
@@ -3245,7 +3245,7 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K31">
         <v>1.8</v>
@@ -3325,7 +3325,7 @@
         <v>43</v>
       </c>
       <c r="G32" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K32">
         <v>2.25</v>
@@ -3423,7 +3423,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K33">
         <v>1.909</v>
@@ -3503,7 +3503,7 @@
         <v>44</v>
       </c>
       <c r="G34" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -3512,7 +3512,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K34">
         <v>1.8</v>
@@ -3592,7 +3592,7 @@
         <v>38</v>
       </c>
       <c r="G35" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -3601,7 +3601,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K35">
         <v>1.5</v>
@@ -3681,7 +3681,7 @@
         <v>41</v>
       </c>
       <c r="G36" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -3690,7 +3690,7 @@
         <v>5</v>
       </c>
       <c r="J36" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K36">
         <v>3.6</v>
@@ -3779,7 +3779,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K37">
         <v>3.2</v>
@@ -3868,7 +3868,7 @@
         <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K38">
         <v>2.15</v>
@@ -3957,7 +3957,7 @@
         <v>3</v>
       </c>
       <c r="J39" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K39">
         <v>1.666</v>
@@ -4037,7 +4037,7 @@
         <v>49</v>
       </c>
       <c r="G40" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K40">
         <v>2.875</v>
@@ -4123,7 +4123,7 @@
         <v>45149.54166666666</v>
       </c>
       <c r="F41" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G41" t="s">
         <v>41</v>
@@ -4135,7 +4135,7 @@
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K41">
         <v>1.8</v>
@@ -4224,7 +4224,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K42">
         <v>2.5</v>
@@ -4304,7 +4304,7 @@
         <v>46</v>
       </c>
       <c r="G43" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4313,7 +4313,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K43">
         <v>2.5</v>
@@ -4402,7 +4402,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K44">
         <v>3.1</v>
@@ -4479,7 +4479,7 @@
         <v>45150.625</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G45" t="s">
         <v>49</v>
@@ -4491,7 +4491,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K45">
         <v>1.833</v>
@@ -4580,7 +4580,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K46">
         <v>1.727</v>
@@ -4657,7 +4657,7 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F47" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G47" t="s">
         <v>39</v>
@@ -4669,7 +4669,7 @@
         <v>3</v>
       </c>
       <c r="J47" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K47">
         <v>2.5</v>
@@ -4746,7 +4746,7 @@
         <v>45151.54166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G48" t="s">
         <v>40</v>
@@ -4758,7 +4758,7 @@
         <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K48">
         <v>1.571</v>
@@ -4847,7 +4847,7 @@
         <v>4</v>
       </c>
       <c r="J49" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K49">
         <v>3.6</v>
@@ -4924,10 +4924,10 @@
         <v>45156.54166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G50" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -4936,7 +4936,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K50">
         <v>1.909</v>
@@ -5025,7 +5025,7 @@
         <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K51">
         <v>1.571</v>
@@ -5105,7 +5105,7 @@
         <v>48</v>
       </c>
       <c r="G52" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H52">
         <v>3</v>
@@ -5114,7 +5114,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K52">
         <v>2.25</v>
@@ -5194,7 +5194,7 @@
         <v>40</v>
       </c>
       <c r="G53" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5203,7 +5203,7 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K53">
         <v>2.3</v>
@@ -5292,7 +5292,7 @@
         <v>3</v>
       </c>
       <c r="J54" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K54">
         <v>2.2</v>
@@ -5381,7 +5381,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K55">
         <v>1.85</v>
@@ -5461,7 +5461,7 @@
         <v>44</v>
       </c>
       <c r="G56" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5470,7 +5470,7 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K56">
         <v>1.666</v>
@@ -5559,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K57">
         <v>2.875</v>
@@ -5648,7 +5648,7 @@
         <v>2</v>
       </c>
       <c r="J58" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K58">
         <v>2.5</v>
@@ -5737,7 +5737,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K59">
         <v>2.875</v>
@@ -5817,7 +5817,7 @@
         <v>45</v>
       </c>
       <c r="G60" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H60">
         <v>3</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K60">
         <v>2</v>
@@ -5915,7 +5915,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K61">
         <v>1.8</v>
@@ -6004,7 +6004,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K62">
         <v>2.2</v>
@@ -6081,7 +6081,7 @@
         <v>45164.625</v>
       </c>
       <c r="F63" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G63" t="s">
         <v>48</v>
@@ -6093,7 +6093,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K63">
         <v>2.875</v>
@@ -6182,7 +6182,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K64">
         <v>2</v>
@@ -6259,7 +6259,7 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F65" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G65" t="s">
         <v>41</v>
@@ -6271,7 +6271,7 @@
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K65">
         <v>1.8</v>
@@ -6348,7 +6348,7 @@
         <v>45165.54166666666</v>
       </c>
       <c r="F66" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G66" t="s">
         <v>43</v>
@@ -6360,7 +6360,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K66">
         <v>1.727</v>
@@ -6440,7 +6440,7 @@
         <v>46</v>
       </c>
       <c r="G67" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6449,7 +6449,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K67">
         <v>2.2</v>
@@ -6529,7 +6529,7 @@
         <v>49</v>
       </c>
       <c r="G68" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -6538,7 +6538,7 @@
         <v>4</v>
       </c>
       <c r="J68" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K68">
         <v>3.1</v>
@@ -6627,7 +6627,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K69">
         <v>2.25</v>
@@ -6716,7 +6716,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K70">
         <v>2.55</v>
@@ -6805,7 +6805,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K71">
         <v>1.5</v>
@@ -6885,7 +6885,7 @@
         <v>43</v>
       </c>
       <c r="G72" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -6894,7 +6894,7 @@
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K72">
         <v>2.15</v>
@@ -6971,7 +6971,7 @@
         <v>45172.31944444445</v>
       </c>
       <c r="F73" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G73" t="s">
         <v>45</v>
@@ -6983,7 +6983,7 @@
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K73">
         <v>2.7</v>
@@ -7060,7 +7060,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F74" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G74" t="s">
         <v>47</v>
@@ -7072,7 +7072,7 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K74">
         <v>2.3</v>
@@ -7137,7 +7137,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6803727</v>
+        <v>6805719</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7149,58 +7149,58 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F75" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G75" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="H75">
+        <v>3</v>
+      </c>
+      <c r="I75">
         <v>2</v>
       </c>
-      <c r="I75">
-        <v>1</v>
-      </c>
       <c r="J75" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K75">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="L75">
         <v>3.3</v>
       </c>
       <c r="M75">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="N75">
-        <v>3.75</v>
+        <v>2.05</v>
       </c>
       <c r="O75">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P75">
+        <v>3.2</v>
+      </c>
+      <c r="Q75">
+        <v>-0.25</v>
+      </c>
+      <c r="R75">
         <v>1.85</v>
       </c>
-      <c r="Q75">
-        <v>0.5</v>
-      </c>
-      <c r="R75">
-        <v>1.925</v>
-      </c>
       <c r="S75">
+        <v>2</v>
+      </c>
+      <c r="T75">
+        <v>2.5</v>
+      </c>
+      <c r="U75">
         <v>1.875</v>
       </c>
-      <c r="T75">
-        <v>2.75</v>
-      </c>
-      <c r="U75">
-        <v>1.925</v>
-      </c>
       <c r="V75">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W75">
-        <v>2.75</v>
+        <v>1.05</v>
       </c>
       <c r="X75">
         <v>-1</v>
@@ -7209,16 +7209,16 @@
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA75">
         <v>-1</v>
       </c>
       <c r="AB75">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AC75">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7226,7 +7226,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6805719</v>
+        <v>6803727</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7238,58 +7238,58 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F76" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G76" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K76">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="L76">
         <v>3.3</v>
       </c>
       <c r="M76">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="N76">
-        <v>2.05</v>
+        <v>3.75</v>
       </c>
       <c r="O76">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P76">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="Q76">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R76">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S76">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T76">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U76">
+        <v>1.925</v>
+      </c>
+      <c r="V76">
         <v>1.875</v>
       </c>
-      <c r="V76">
-        <v>1.975</v>
-      </c>
       <c r="W76">
-        <v>1.05</v>
+        <v>2.75</v>
       </c>
       <c r="X76">
         <v>-1</v>
@@ -7298,16 +7298,16 @@
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA76">
         <v>-1</v>
       </c>
       <c r="AB76">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7327,7 +7327,7 @@
         <v>45184.54166666666</v>
       </c>
       <c r="F77" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G77" t="s">
         <v>48</v>
@@ -7339,7 +7339,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K77">
         <v>3.2</v>
@@ -7419,7 +7419,7 @@
         <v>47</v>
       </c>
       <c r="G78" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7428,7 +7428,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K78">
         <v>1.85</v>
@@ -7517,7 +7517,7 @@
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K79">
         <v>2.1</v>
@@ -7606,7 +7606,7 @@
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K80">
         <v>1.222</v>
@@ -7695,7 +7695,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K81">
         <v>2.05</v>
@@ -7784,7 +7784,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K82">
         <v>1.95</v>
@@ -7861,10 +7861,10 @@
         <v>45186.45833333334</v>
       </c>
       <c r="F83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G83" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -7873,7 +7873,7 @@
         <v>2</v>
       </c>
       <c r="J83" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K83">
         <v>1.85</v>
@@ -7962,7 +7962,7 @@
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K84">
         <v>2.375</v>
@@ -8039,7 +8039,7 @@
         <v>45187.54166666666</v>
       </c>
       <c r="F85" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G85" t="s">
         <v>49</v>
@@ -8051,7 +8051,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K85">
         <v>1.909</v>
@@ -8116,7 +8116,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6803738</v>
+        <v>6803740</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8128,16 +8128,16 @@
         <v>45191.54166666666</v>
       </c>
       <c r="F86" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G86" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H86">
         <v>1</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J86" t="s">
         <v>55</v>
@@ -8149,55 +8149,55 @@
         <v>3.5</v>
       </c>
       <c r="M86">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="N86">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="O86">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P86">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q86">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R86">
+        <v>1.975</v>
+      </c>
+      <c r="S86">
         <v>1.825</v>
       </c>
-      <c r="S86">
-        <v>1.975</v>
-      </c>
       <c r="T86">
+        <v>2.25</v>
+      </c>
+      <c r="U86">
+        <v>1.9</v>
+      </c>
+      <c r="V86">
+        <v>1.9</v>
+      </c>
+      <c r="W86">
+        <v>-1</v>
+      </c>
+      <c r="X86">
+        <v>-1</v>
+      </c>
+      <c r="Y86">
         <v>2.5</v>
       </c>
-      <c r="U86">
-        <v>1.825</v>
-      </c>
-      <c r="V86">
-        <v>1.975</v>
-      </c>
-      <c r="W86">
-        <v>-1</v>
-      </c>
-      <c r="X86">
-        <v>2.8</v>
-      </c>
-      <c r="Y86">
-        <v>-1</v>
-      </c>
       <c r="Z86">
         <v>-1</v>
       </c>
       <c r="AA86">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC86">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8205,7 +8205,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6803740</v>
+        <v>6803738</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8217,19 +8217,19 @@
         <v>45191.54166666666</v>
       </c>
       <c r="F87" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H87">
         <v>1</v>
       </c>
       <c r="I87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K87">
         <v>1.85</v>
@@ -8238,55 +8238,55 @@
         <v>3.5</v>
       </c>
       <c r="M87">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="N87">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="O87">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P87">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q87">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R87">
+        <v>1.825</v>
+      </c>
+      <c r="S87">
         <v>1.975</v>
       </c>
-      <c r="S87">
+      <c r="T87">
+        <v>2.5</v>
+      </c>
+      <c r="U87">
         <v>1.825</v>
       </c>
-      <c r="T87">
-        <v>2.25</v>
-      </c>
-      <c r="U87">
-        <v>1.9</v>
-      </c>
       <c r="V87">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W87">
         <v>-1</v>
       </c>
       <c r="X87">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y87">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
         <v>-1</v>
       </c>
       <c r="AA87">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB87">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8318,7 +8318,7 @@
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K88">
         <v>2.15</v>
@@ -8407,7 +8407,7 @@
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K89">
         <v>2.05</v>
@@ -8496,7 +8496,7 @@
         <v>4</v>
       </c>
       <c r="J90" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K90">
         <v>3.6</v>
@@ -8585,7 +8585,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K91">
         <v>4.2</v>
@@ -8674,7 +8674,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K92">
         <v>1.8</v>
@@ -8754,7 +8754,7 @@
         <v>43</v>
       </c>
       <c r="G93" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -8763,7 +8763,7 @@
         <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K93">
         <v>2.05</v>
@@ -8840,10 +8840,10 @@
         <v>45193.54166666666</v>
       </c>
       <c r="F94" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G94" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -8852,7 +8852,7 @@
         <v>3</v>
       </c>
       <c r="J94" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K94">
         <v>2.8</v>
@@ -8932,7 +8932,7 @@
         <v>42</v>
       </c>
       <c r="G95" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H95">
         <v>2</v>
@@ -8941,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K95">
         <v>2.875</v>
@@ -9030,7 +9030,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K96">
         <v>1.85</v>
@@ -9119,7 +9119,7 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K97">
         <v>1.3</v>
@@ -9208,7 +9208,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K98">
         <v>2.1</v>
@@ -9285,7 +9285,7 @@
         <v>45199.625</v>
       </c>
       <c r="F99" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G99" t="s">
         <v>49</v>
@@ -9297,7 +9297,7 @@
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K99">
         <v>2.05</v>
@@ -9386,7 +9386,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K100">
         <v>2</v>
@@ -9463,7 +9463,7 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G101" t="s">
         <v>45</v>
@@ -9475,7 +9475,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K101">
         <v>1.85</v>
@@ -9564,7 +9564,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K102">
         <v>2</v>
@@ -9641,10 +9641,10 @@
         <v>45201.54166666666</v>
       </c>
       <c r="F103" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G103" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9653,7 +9653,7 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K103">
         <v>2.375</v>
@@ -9742,7 +9742,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K104">
         <v>4</v>
@@ -9822,7 +9822,7 @@
         <v>45</v>
       </c>
       <c r="G105" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9831,7 +9831,7 @@
         <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K105">
         <v>1.75</v>
@@ -9908,10 +9908,10 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F106" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G106" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -9920,7 +9920,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K106">
         <v>1.85</v>
@@ -10009,7 +10009,7 @@
         <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K107">
         <v>1.65</v>
@@ -10098,7 +10098,7 @@
         <v>3</v>
       </c>
       <c r="J108" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K108">
         <v>2.05</v>
@@ -10187,7 +10187,7 @@
         <v>3</v>
       </c>
       <c r="J109" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K109">
         <v>2.625</v>
@@ -10276,7 +10276,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K110">
         <v>2.7</v>
@@ -10353,7 +10353,7 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F111" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G111" t="s">
         <v>42</v>
@@ -10365,7 +10365,7 @@
         <v>2</v>
       </c>
       <c r="J111" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K111">
         <v>2</v>
@@ -10445,7 +10445,7 @@
         <v>47</v>
       </c>
       <c r="G112" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -10454,7 +10454,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K112">
         <v>2.3</v>
@@ -10543,7 +10543,7 @@
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K113">
         <v>3.5</v>
@@ -10632,7 +10632,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K114">
         <v>1.4</v>
@@ -10709,11 +10709,11 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F115" t="s">
+        <v>29</v>
+      </c>
+      <c r="G115" t="s">
         <v>35</v>
       </c>
-      <c r="G115" t="s">
-        <v>33</v>
-      </c>
       <c r="H115">
         <v>0</v>
       </c>
@@ -10721,7 +10721,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K115">
         <v>1.833</v>
@@ -10801,7 +10801,7 @@
         <v>50</v>
       </c>
       <c r="G116" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H116">
         <v>3</v>
@@ -10810,7 +10810,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K116">
         <v>2.1</v>
@@ -10899,7 +10899,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K117">
         <v>1.95</v>
@@ -10979,7 +10979,7 @@
         <v>46</v>
       </c>
       <c r="G118" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H118">
         <v>2</v>
@@ -10988,7 +10988,7 @@
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K118">
         <v>2.25</v>
@@ -11065,7 +11065,7 @@
         <v>45221.54166666666</v>
       </c>
       <c r="F119" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G119" t="s">
         <v>47</v>
@@ -11077,7 +11077,7 @@
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K119">
         <v>2.3</v>
@@ -11166,7 +11166,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K120">
         <v>1.75</v>
@@ -11231,7 +11231,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6803761</v>
+        <v>6805700</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11243,76 +11243,76 @@
         <v>45226.54166666666</v>
       </c>
       <c r="F121" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G121" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
         <v>2</v>
       </c>
-      <c r="I121">
-        <v>1</v>
-      </c>
       <c r="J121" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K121">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="L121">
+        <v>3.75</v>
+      </c>
+      <c r="M121">
+        <v>4.2</v>
+      </c>
+      <c r="N121">
+        <v>1.75</v>
+      </c>
+      <c r="O121">
+        <v>3.6</v>
+      </c>
+      <c r="P121">
         <v>4</v>
       </c>
-      <c r="M121">
-        <v>5.25</v>
-      </c>
-      <c r="N121">
-        <v>1.5</v>
-      </c>
-      <c r="O121">
-        <v>4</v>
-      </c>
-      <c r="P121">
-        <v>5.5</v>
-      </c>
       <c r="Q121">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R121">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S121">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T121">
         <v>2.75</v>
       </c>
       <c r="U121">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V121">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W121">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z121">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA121">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB121">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC121">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11320,7 +11320,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6805700</v>
+        <v>6803761</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11332,76 +11332,76 @@
         <v>45226.54166666666</v>
       </c>
       <c r="F122" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G122" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J122" t="s">
         <v>53</v>
       </c>
       <c r="K122">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="L122">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M122">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="N122">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="O122">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P122">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="Q122">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R122">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S122">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T122">
         <v>2.75</v>
       </c>
       <c r="U122">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V122">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W122">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA122">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB122">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC122">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11421,7 +11421,7 @@
         <v>45226.64583333334</v>
       </c>
       <c r="F123" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G123" t="s">
         <v>38</v>
@@ -11433,7 +11433,7 @@
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K123">
         <v>3.2</v>
@@ -11513,7 +11513,7 @@
         <v>45</v>
       </c>
       <c r="G124" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -11522,7 +11522,7 @@
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K124">
         <v>1.833</v>
@@ -11599,7 +11599,7 @@
         <v>45227.52083333334</v>
       </c>
       <c r="F125" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G125" t="s">
         <v>50</v>
@@ -11611,7 +11611,7 @@
         <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K125">
         <v>2.625</v>
@@ -11688,10 +11688,10 @@
         <v>45227.625</v>
       </c>
       <c r="F126" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G126" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H126">
         <v>3</v>
@@ -11700,7 +11700,7 @@
         <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K126">
         <v>1.727</v>
@@ -11789,7 +11789,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K127">
         <v>2.5</v>
@@ -11878,7 +11878,7 @@
         <v>2</v>
       </c>
       <c r="J128" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K128">
         <v>3.4</v>
@@ -11967,7 +11967,7 @@
         <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K129">
         <v>2.9</v>
@@ -12056,7 +12056,7 @@
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K130">
         <v>2.6</v>
@@ -12145,7 +12145,7 @@
         <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K131">
         <v>1.533</v>
@@ -12225,7 +12225,7 @@
         <v>38</v>
       </c>
       <c r="G132" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -12234,7 +12234,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K132">
         <v>1.363</v>
@@ -12314,7 +12314,7 @@
         <v>39</v>
       </c>
       <c r="G133" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H133">
         <v>1</v>
@@ -12323,7 +12323,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K133">
         <v>1.7</v>
@@ -12403,7 +12403,7 @@
         <v>46</v>
       </c>
       <c r="G134" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -12412,7 +12412,7 @@
         <v>3</v>
       </c>
       <c r="J134" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K134">
         <v>1.666</v>
@@ -12492,7 +12492,7 @@
         <v>42</v>
       </c>
       <c r="G135" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -12501,7 +12501,7 @@
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K135">
         <v>3.1</v>
@@ -12590,7 +12590,7 @@
         <v>3</v>
       </c>
       <c r="J136" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K136">
         <v>2.15</v>
@@ -12667,7 +12667,7 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F137" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G137" t="s">
         <v>47</v>
@@ -12679,7 +12679,7 @@
         <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K137">
         <v>2.45</v>
@@ -12768,7 +12768,7 @@
         <v>2</v>
       </c>
       <c r="J138" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K138">
         <v>2.5</v>
@@ -12857,7 +12857,7 @@
         <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K139">
         <v>3.1</v>
@@ -12946,7 +12946,7 @@
         <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K140">
         <v>2.4</v>
@@ -13035,7 +13035,7 @@
         <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K141">
         <v>3</v>
@@ -13112,7 +13112,7 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F142" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G142" t="s">
         <v>42</v>
@@ -13124,7 +13124,7 @@
         <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K142">
         <v>2.1</v>
@@ -13213,7 +13213,7 @@
         <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K143">
         <v>2.15</v>
@@ -13290,10 +13290,10 @@
         <v>45241.66666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G144" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H144">
         <v>1</v>
@@ -13302,7 +13302,7 @@
         <v>2</v>
       </c>
       <c r="J144" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K144">
         <v>1.8</v>
@@ -13391,7 +13391,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K145">
         <v>2</v>
@@ -13480,7 +13480,7 @@
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K146">
         <v>1.909</v>
@@ -13545,7 +13545,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6803778</v>
+        <v>6803779</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13557,76 +13557,76 @@
         <v>45242.58333333334</v>
       </c>
       <c r="F147" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G147" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J147" t="s">
         <v>55</v>
       </c>
       <c r="K147">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="L147">
         <v>3.4</v>
       </c>
       <c r="M147">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="N147">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="O147">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P147">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="Q147">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R147">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S147">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T147">
         <v>2.5</v>
       </c>
       <c r="U147">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V147">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W147">
         <v>-1</v>
       </c>
       <c r="X147">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y147">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z147">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB147">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC147">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13634,7 +13634,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6803779</v>
+        <v>6803778</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13649,73 +13649,73 @@
         <v>33</v>
       </c>
       <c r="G148" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K148">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="L148">
         <v>3.4</v>
       </c>
       <c r="M148">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="N148">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="O148">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P148">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="Q148">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R148">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S148">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T148">
         <v>2.5</v>
       </c>
       <c r="U148">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V148">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W148">
         <v>-1</v>
       </c>
       <c r="X148">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y148">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z148">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA148">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB148">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC148">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13738,7 +13738,7 @@
         <v>41</v>
       </c>
       <c r="G149" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H149">
         <v>3</v>
@@ -13747,7 +13747,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K149">
         <v>2.8</v>
@@ -13836,7 +13836,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K150">
         <v>2</v>
@@ -13913,10 +13913,10 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F151" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G151" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H151">
         <v>3</v>
@@ -13925,7 +13925,7 @@
         <v>0</v>
       </c>
       <c r="J151" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K151">
         <v>2.1</v>
@@ -14014,7 +14014,7 @@
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K152">
         <v>1.727</v>
@@ -14103,7 +14103,7 @@
         <v>2</v>
       </c>
       <c r="J153" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K153">
         <v>1.727</v>
@@ -14192,7 +14192,7 @@
         <v>0</v>
       </c>
       <c r="J154" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K154">
         <v>1.8</v>
@@ -14281,7 +14281,7 @@
         <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K155">
         <v>1.8</v>
@@ -14361,7 +14361,7 @@
         <v>44</v>
       </c>
       <c r="G156" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H156">
         <v>2</v>
@@ -14370,7 +14370,7 @@
         <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K156">
         <v>1.533</v>
@@ -14450,7 +14450,7 @@
         <v>50</v>
       </c>
       <c r="G157" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H157">
         <v>3</v>
@@ -14459,7 +14459,7 @@
         <v>2</v>
       </c>
       <c r="J157" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K157">
         <v>2.25</v>
@@ -14539,7 +14539,7 @@
         <v>42</v>
       </c>
       <c r="G158" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H158">
         <v>2</v>
@@ -14548,7 +14548,7 @@
         <v>2</v>
       </c>
       <c r="J158" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K158">
         <v>2.3</v>
@@ -14625,7 +14625,7 @@
         <v>45261.6875</v>
       </c>
       <c r="F159" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G159" t="s">
         <v>38</v>
@@ -14637,7 +14637,7 @@
         <v>1</v>
       </c>
       <c r="J159" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K159">
         <v>2.8</v>
@@ -14726,7 +14726,7 @@
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K160">
         <v>2.75</v>
@@ -14815,7 +14815,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K161">
         <v>2.45</v>
@@ -14904,7 +14904,7 @@
         <v>0</v>
       </c>
       <c r="J162" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K162">
         <v>2.8</v>
@@ -14993,7 +14993,7 @@
         <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K163">
         <v>1.8</v>
@@ -15070,7 +15070,7 @@
         <v>45268.6875</v>
       </c>
       <c r="F164" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G164" t="s">
         <v>40</v>
@@ -15082,7 +15082,7 @@
         <v>4</v>
       </c>
       <c r="J164" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K164">
         <v>2.875</v>
@@ -15162,7 +15162,7 @@
         <v>48</v>
       </c>
       <c r="G165" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H165">
         <v>2</v>
@@ -15171,7 +15171,7 @@
         <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K165">
         <v>1.727</v>
@@ -15260,7 +15260,7 @@
         <v>0</v>
       </c>
       <c r="J166" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K166">
         <v>1.533</v>
@@ -15349,7 +15349,7 @@
         <v>2</v>
       </c>
       <c r="J167" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K167">
         <v>2.5</v>
@@ -15414,7 +15414,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6803794</v>
+        <v>6803793</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15426,76 +15426,76 @@
         <v>45270.36111111111</v>
       </c>
       <c r="F168" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G168" t="s">
         <v>29</v>
       </c>
       <c r="H168">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168" t="s">
         <v>54</v>
       </c>
       <c r="K168">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="L168">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M168">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="N168">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="O168">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P168">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q168">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R168">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S168">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T168">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U168">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V168">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W168">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X168">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y168">
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA168">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB168">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC168">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15503,7 +15503,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6803793</v>
+        <v>6803794</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15515,76 +15515,76 @@
         <v>45270.36111111111</v>
       </c>
       <c r="F169" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G169" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K169">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="L169">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M169">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="N169">
-        <v>2.1</v>
+        <v>1.363</v>
       </c>
       <c r="O169">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P169">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="Q169">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R169">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S169">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T169">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U169">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V169">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W169">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X169">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y169">
         <v>-1</v>
       </c>
       <c r="Z169">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA169">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB169">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC169">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15604,7 +15604,7 @@
         <v>45271.58333333334</v>
       </c>
       <c r="F170" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G170" t="s">
         <v>39</v>
@@ -15616,7 +15616,7 @@
         <v>1</v>
       </c>
       <c r="J170" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K170">
         <v>2.25</v>
@@ -15705,7 +15705,7 @@
         <v>0</v>
       </c>
       <c r="J171" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K171">
         <v>2.875</v>
@@ -15785,7 +15785,7 @@
         <v>48</v>
       </c>
       <c r="G172" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H172">
         <v>2</v>
@@ -15794,7 +15794,7 @@
         <v>0</v>
       </c>
       <c r="J172" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K172">
         <v>1.727</v>
@@ -15883,7 +15883,7 @@
         <v>4</v>
       </c>
       <c r="J173" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K173">
         <v>3.75</v>
@@ -15963,7 +15963,7 @@
         <v>39</v>
       </c>
       <c r="G174" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H174">
         <v>0</v>
@@ -15972,7 +15972,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K174">
         <v>1.55</v>
@@ -16061,7 +16061,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K175">
         <v>2.7</v>
@@ -16150,7 +16150,7 @@
         <v>1</v>
       </c>
       <c r="J176" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K176">
         <v>1.363</v>
@@ -16230,7 +16230,7 @@
         <v>43</v>
       </c>
       <c r="G177" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H177">
         <v>0</v>
@@ -16239,7 +16239,7 @@
         <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K177">
         <v>2.3</v>
@@ -16319,7 +16319,7 @@
         <v>50</v>
       </c>
       <c r="G178" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H178">
         <v>2</v>
@@ -16328,7 +16328,7 @@
         <v>0</v>
       </c>
       <c r="J178" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K178">
         <v>2.15</v>
@@ -16408,7 +16408,7 @@
         <v>44</v>
       </c>
       <c r="G179" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H179">
         <v>2</v>
@@ -16417,7 +16417,7 @@
         <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K179">
         <v>2.05</v>
@@ -16494,7 +16494,7 @@
         <v>45279.5625</v>
       </c>
       <c r="F180" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G180" t="s">
         <v>41</v>
@@ -16506,7 +16506,7 @@
         <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K180">
         <v>1.833</v>
@@ -16595,7 +16595,7 @@
         <v>2</v>
       </c>
       <c r="J181" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K181">
         <v>3</v>
@@ -16672,7 +16672,7 @@
         <v>45338.58333333334</v>
       </c>
       <c r="F182" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G182" t="s">
         <v>44</v>
@@ -16684,7 +16684,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K182">
         <v>3.75</v>
@@ -16773,7 +16773,7 @@
         <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K183">
         <v>2.25</v>
@@ -16850,7 +16850,7 @@
         <v>45339.45833333334</v>
       </c>
       <c r="F184" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G184" t="s">
         <v>49</v>
@@ -16862,7 +16862,7 @@
         <v>2</v>
       </c>
       <c r="J184" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K184">
         <v>1.833</v>
@@ -16951,7 +16951,7 @@
         <v>3</v>
       </c>
       <c r="J185" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K185">
         <v>4.2</v>
@@ -17040,7 +17040,7 @@
         <v>1</v>
       </c>
       <c r="J186" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K186">
         <v>2.05</v>
@@ -17117,7 +17117,7 @@
         <v>45340.36111111111</v>
       </c>
       <c r="F187" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G187" t="s">
         <v>38</v>
@@ -17129,7 +17129,7 @@
         <v>2</v>
       </c>
       <c r="J187" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K187">
         <v>3.8</v>
@@ -17206,7 +17206,7 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G188" t="s">
         <v>41</v>
@@ -17218,7 +17218,7 @@
         <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K188">
         <v>1.55</v>
@@ -17295,7 +17295,7 @@
         <v>45340.58333333334</v>
       </c>
       <c r="F189" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G189" t="s">
         <v>43</v>
@@ -17307,7 +17307,7 @@
         <v>1</v>
       </c>
       <c r="J189" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K189">
         <v>2.3</v>
@@ -17396,7 +17396,7 @@
         <v>0</v>
       </c>
       <c r="J190" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K190">
         <v>2.3</v>
@@ -17473,7 +17473,7 @@
         <v>45342.58333333334</v>
       </c>
       <c r="F191" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G191" t="s">
         <v>50</v>
@@ -17485,7 +17485,7 @@
         <v>0</v>
       </c>
       <c r="J191" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K191">
         <v>2.875</v>
@@ -17574,7 +17574,7 @@
         <v>1</v>
       </c>
       <c r="J192" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K192">
         <v>1.666</v>
@@ -17663,7 +17663,7 @@
         <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K193">
         <v>1.666</v>
@@ -17740,7 +17740,7 @@
         <v>45346.36111111111</v>
       </c>
       <c r="F194" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G194" t="s">
         <v>46</v>
@@ -17752,7 +17752,7 @@
         <v>2</v>
       </c>
       <c r="J194" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K194">
         <v>2.5</v>
@@ -17841,7 +17841,7 @@
         <v>1</v>
       </c>
       <c r="J195" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K195">
         <v>1.9</v>
@@ -17921,7 +17921,7 @@
         <v>40</v>
       </c>
       <c r="G196" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -17930,7 +17930,7 @@
         <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K196">
         <v>2.45</v>
@@ -18010,7 +18010,7 @@
         <v>39</v>
       </c>
       <c r="G197" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H197">
         <v>5</v>
@@ -18019,7 +18019,7 @@
         <v>1</v>
       </c>
       <c r="J197" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K197">
         <v>1.571</v>
@@ -18108,7 +18108,7 @@
         <v>2</v>
       </c>
       <c r="J198" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K198">
         <v>3</v>
@@ -18188,7 +18188,7 @@
         <v>49</v>
       </c>
       <c r="G199" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H199">
         <v>1</v>
@@ -18197,7 +18197,7 @@
         <v>0</v>
       </c>
       <c r="J199" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K199">
         <v>2.3</v>
@@ -18277,7 +18277,7 @@
         <v>41</v>
       </c>
       <c r="G200" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H200">
         <v>0</v>
@@ -18286,7 +18286,7 @@
         <v>1</v>
       </c>
       <c r="J200" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K200">
         <v>3</v>
@@ -18375,7 +18375,7 @@
         <v>0</v>
       </c>
       <c r="J201" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K201">
         <v>2.3</v>
@@ -18452,7 +18452,7 @@
         <v>45350.58333333334</v>
       </c>
       <c r="F202" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G202" t="s">
         <v>40</v>
@@ -18464,7 +18464,7 @@
         <v>2</v>
       </c>
       <c r="J202" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K202">
         <v>2.4</v>
@@ -18541,7 +18541,7 @@
         <v>45352.58333333334</v>
       </c>
       <c r="F203" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G203" t="s">
         <v>44</v>
@@ -18553,7 +18553,7 @@
         <v>3</v>
       </c>
       <c r="J203" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K203">
         <v>3.5</v>
@@ -18642,7 +18642,7 @@
         <v>1</v>
       </c>
       <c r="J204" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K204">
         <v>2.8</v>
@@ -18731,7 +18731,7 @@
         <v>1</v>
       </c>
       <c r="J205" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K205">
         <v>2</v>
@@ -18808,7 +18808,7 @@
         <v>45353.45833333334</v>
       </c>
       <c r="F206" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G206" t="s">
         <v>48</v>
@@ -18820,7 +18820,7 @@
         <v>2</v>
       </c>
       <c r="J206" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K206">
         <v>2</v>
@@ -18909,7 +18909,7 @@
         <v>2</v>
       </c>
       <c r="J207" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K207">
         <v>3.8</v>
@@ -18986,11 +18986,20 @@
         <v>45354.36111111111</v>
       </c>
       <c r="F208" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G208" t="s">
         <v>40</v>
       </c>
+      <c r="H208">
+        <v>1</v>
+      </c>
+      <c r="I208">
+        <v>1</v>
+      </c>
+      <c r="J208" t="s">
+        <v>54</v>
+      </c>
       <c r="K208">
         <v>2.2</v>
       </c>
@@ -19001,49 +19010,55 @@
         <v>3.1</v>
       </c>
       <c r="N208">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="O208">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P208">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q208">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R208">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="S208">
+        <v>2.075</v>
+      </c>
+      <c r="T208">
+        <v>2</v>
+      </c>
+      <c r="U208">
+        <v>1.75</v>
+      </c>
+      <c r="V208">
+        <v>2.05</v>
+      </c>
+      <c r="W208">
+        <v>-1</v>
+      </c>
+      <c r="X208">
         <v>1.9</v>
       </c>
-      <c r="T208">
-        <v>2.25</v>
-      </c>
-      <c r="U208">
-        <v>1.95</v>
-      </c>
-      <c r="V208">
-        <v>1.9</v>
-      </c>
-      <c r="W208">
-        <v>0</v>
-      </c>
-      <c r="X208">
-        <v>0</v>
-      </c>
       <c r="Y208">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z208">
         <v>0</v>
       </c>
       <c r="AA208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:27">
+        <v>-0</v>
+      </c>
+      <c r="AB208">
+        <v>0</v>
+      </c>
+      <c r="AC208">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:29">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -19065,6 +19080,15 @@
       <c r="G209" t="s">
         <v>41</v>
       </c>
+      <c r="H209">
+        <v>1</v>
+      </c>
+      <c r="I209">
+        <v>1</v>
+      </c>
+      <c r="J209" t="s">
+        <v>54</v>
+      </c>
       <c r="K209">
         <v>1.909</v>
       </c>
@@ -19075,49 +19099,55 @@
         <v>3.6</v>
       </c>
       <c r="N209">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O209">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P209">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q209">
         <v>-0.25</v>
       </c>
       <c r="R209">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S209">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T209">
         <v>2.5</v>
       </c>
       <c r="U209">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V209">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W209">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X209">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="Y209">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:27">
+        <v>0.4875</v>
+      </c>
+      <c r="AB209">
+        <v>-1</v>
+      </c>
+      <c r="AC209">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="210" spans="1:29">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -19134,10 +19164,19 @@
         <v>45354.58333333334</v>
       </c>
       <c r="F210" t="s">
+        <v>35</v>
+      </c>
+      <c r="G210" t="s">
         <v>33</v>
       </c>
-      <c r="G210" t="s">
-        <v>36</v>
+      <c r="H210">
+        <v>0</v>
+      </c>
+      <c r="I210">
+        <v>0</v>
+      </c>
+      <c r="J210" t="s">
+        <v>54</v>
       </c>
       <c r="K210">
         <v>2.5</v>
@@ -19149,49 +19188,55 @@
         <v>2.6</v>
       </c>
       <c r="N210">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="O210">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P210">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="Q210">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R210">
+        <v>1.9</v>
+      </c>
+      <c r="S210">
+        <v>1.9</v>
+      </c>
+      <c r="T210">
+        <v>2.25</v>
+      </c>
+      <c r="U210">
+        <v>1.775</v>
+      </c>
+      <c r="V210">
+        <v>2.025</v>
+      </c>
+      <c r="W210">
+        <v>-1</v>
+      </c>
+      <c r="X210">
         <v>2.1</v>
       </c>
-      <c r="S210">
-        <v>1.775</v>
-      </c>
-      <c r="T210">
-        <v>2.5</v>
-      </c>
-      <c r="U210">
-        <v>1.975</v>
-      </c>
-      <c r="V210">
-        <v>1.875</v>
-      </c>
-      <c r="W210">
-        <v>0</v>
-      </c>
-      <c r="X210">
-        <v>0</v>
-      </c>
       <c r="Y210">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z210">
         <v>0</v>
       </c>
       <c r="AA210">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:27">
+        <v>-0</v>
+      </c>
+      <c r="AB210">
+        <v>-1</v>
+      </c>
+      <c r="AC210">
+        <v>1.025</v>
+      </c>
+    </row>
+    <row r="211" spans="1:29">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -19213,6 +19258,15 @@
       <c r="G211" t="s">
         <v>49</v>
       </c>
+      <c r="H211">
+        <v>4</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211" t="s">
+        <v>53</v>
+      </c>
       <c r="K211">
         <v>1.533</v>
       </c>
@@ -19223,45 +19277,717 @@
         <v>5.5</v>
       </c>
       <c r="N211">
-        <v>1.533</v>
+        <v>1.45</v>
       </c>
       <c r="O211">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P211">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q211">
         <v>-1</v>
       </c>
       <c r="R211">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S211">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="T211">
         <v>2.75</v>
       </c>
       <c r="U211">
+        <v>2.025</v>
+      </c>
+      <c r="V211">
+        <v>1.825</v>
+      </c>
+      <c r="W211">
+        <v>0.45</v>
+      </c>
+      <c r="X211">
+        <v>-1</v>
+      </c>
+      <c r="Y211">
+        <v>-1</v>
+      </c>
+      <c r="Z211">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA211">
+        <v>-1</v>
+      </c>
+      <c r="AB211">
+        <v>1.025</v>
+      </c>
+      <c r="AC211">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:29">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <v>6803958</v>
+      </c>
+      <c r="C212" t="s">
+        <v>28</v>
+      </c>
+      <c r="D212" t="s">
+        <v>28</v>
+      </c>
+      <c r="E212" s="2">
+        <v>45359.58333333334</v>
+      </c>
+      <c r="F212" t="s">
+        <v>43</v>
+      </c>
+      <c r="G212" t="s">
+        <v>32</v>
+      </c>
+      <c r="K212">
+        <v>3.2</v>
+      </c>
+      <c r="L212">
+        <v>3.2</v>
+      </c>
+      <c r="M212">
+        <v>2.25</v>
+      </c>
+      <c r="N212">
+        <v>3.2</v>
+      </c>
+      <c r="O212">
+        <v>3.2</v>
+      </c>
+      <c r="P212">
+        <v>2.25</v>
+      </c>
+      <c r="Q212">
+        <v>0.25</v>
+      </c>
+      <c r="R212">
+        <v>1.85</v>
+      </c>
+      <c r="S212">
         <v>2</v>
       </c>
-      <c r="V211">
+      <c r="T212">
+        <v>2.25</v>
+      </c>
+      <c r="U212">
+        <v>1.95</v>
+      </c>
+      <c r="V212">
+        <v>1.9</v>
+      </c>
+      <c r="W212">
+        <v>0</v>
+      </c>
+      <c r="X212">
+        <v>0</v>
+      </c>
+      <c r="Y212">
+        <v>0</v>
+      </c>
+      <c r="Z212">
+        <v>0</v>
+      </c>
+      <c r="AA212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:29">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <v>6803824</v>
+      </c>
+      <c r="C213" t="s">
+        <v>28</v>
+      </c>
+      <c r="D213" t="s">
+        <v>28</v>
+      </c>
+      <c r="E213" s="2">
+        <v>45359.6875</v>
+      </c>
+      <c r="F213" t="s">
+        <v>39</v>
+      </c>
+      <c r="G213" t="s">
+        <v>38</v>
+      </c>
+      <c r="K213">
+        <v>2.2</v>
+      </c>
+      <c r="L213">
+        <v>3.6</v>
+      </c>
+      <c r="M213">
+        <v>3</v>
+      </c>
+      <c r="N213">
+        <v>2.15</v>
+      </c>
+      <c r="O213">
+        <v>3.5</v>
+      </c>
+      <c r="P213">
+        <v>3.1</v>
+      </c>
+      <c r="Q213">
+        <v>-0.25</v>
+      </c>
+      <c r="R213">
+        <v>1.925</v>
+      </c>
+      <c r="S213">
+        <v>1.925</v>
+      </c>
+      <c r="T213">
+        <v>2.5</v>
+      </c>
+      <c r="U213">
+        <v>1.825</v>
+      </c>
+      <c r="V213">
+        <v>2.025</v>
+      </c>
+      <c r="W213">
+        <v>0</v>
+      </c>
+      <c r="X213">
+        <v>0</v>
+      </c>
+      <c r="Y213">
+        <v>0</v>
+      </c>
+      <c r="Z213">
+        <v>0</v>
+      </c>
+      <c r="AA213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:29">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <v>6805672</v>
+      </c>
+      <c r="C214" t="s">
+        <v>28</v>
+      </c>
+      <c r="D214" t="s">
+        <v>28</v>
+      </c>
+      <c r="E214" s="2">
+        <v>45360.45833333334</v>
+      </c>
+      <c r="F214" t="s">
+        <v>40</v>
+      </c>
+      <c r="G214" t="s">
+        <v>42</v>
+      </c>
+      <c r="K214">
+        <v>1.75</v>
+      </c>
+      <c r="L214">
+        <v>3.5</v>
+      </c>
+      <c r="M214">
+        <v>4.75</v>
+      </c>
+      <c r="N214">
+        <v>1.75</v>
+      </c>
+      <c r="O214">
+        <v>3.5</v>
+      </c>
+      <c r="P214">
+        <v>4.75</v>
+      </c>
+      <c r="Q214">
+        <v>-0.75</v>
+      </c>
+      <c r="R214">
+        <v>2</v>
+      </c>
+      <c r="S214">
         <v>1.85</v>
       </c>
-      <c r="W211">
-        <v>0</v>
-      </c>
-      <c r="X211">
-        <v>0</v>
-      </c>
-      <c r="Y211">
-        <v>0</v>
-      </c>
-      <c r="Z211">
-        <v>0</v>
-      </c>
-      <c r="AA211">
+      <c r="T214">
+        <v>2.5</v>
+      </c>
+      <c r="U214">
+        <v>2.025</v>
+      </c>
+      <c r="V214">
+        <v>1.825</v>
+      </c>
+      <c r="W214">
+        <v>0</v>
+      </c>
+      <c r="X214">
+        <v>0</v>
+      </c>
+      <c r="Y214">
+        <v>0</v>
+      </c>
+      <c r="Z214">
+        <v>0</v>
+      </c>
+      <c r="AA214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:29">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>6803822</v>
+      </c>
+      <c r="C215" t="s">
+        <v>28</v>
+      </c>
+      <c r="D215" t="s">
+        <v>28</v>
+      </c>
+      <c r="E215" s="2">
+        <v>45360.45833333334</v>
+      </c>
+      <c r="F215" t="s">
+        <v>41</v>
+      </c>
+      <c r="G215" t="s">
+        <v>29</v>
+      </c>
+      <c r="K215">
+        <v>2.75</v>
+      </c>
+      <c r="L215">
+        <v>3.4</v>
+      </c>
+      <c r="M215">
+        <v>2.5</v>
+      </c>
+      <c r="N215">
+        <v>2.7</v>
+      </c>
+      <c r="O215">
+        <v>3.4</v>
+      </c>
+      <c r="P215">
+        <v>2.5</v>
+      </c>
+      <c r="Q215">
+        <v>0</v>
+      </c>
+      <c r="R215">
+        <v>2</v>
+      </c>
+      <c r="S215">
+        <v>1.85</v>
+      </c>
+      <c r="T215">
+        <v>2.75</v>
+      </c>
+      <c r="U215">
+        <v>1.925</v>
+      </c>
+      <c r="V215">
+        <v>1.925</v>
+      </c>
+      <c r="W215">
+        <v>0</v>
+      </c>
+      <c r="X215">
+        <v>0</v>
+      </c>
+      <c r="Y215">
+        <v>0</v>
+      </c>
+      <c r="Z215">
+        <v>0</v>
+      </c>
+      <c r="AA215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:29">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216">
+        <v>6803823</v>
+      </c>
+      <c r="C216" t="s">
+        <v>28</v>
+      </c>
+      <c r="D216" t="s">
+        <v>28</v>
+      </c>
+      <c r="E216" s="2">
+        <v>45360.5625</v>
+      </c>
+      <c r="F216" t="s">
+        <v>44</v>
+      </c>
+      <c r="G216" t="s">
+        <v>50</v>
+      </c>
+      <c r="K216">
+        <v>2.05</v>
+      </c>
+      <c r="L216">
+        <v>3.25</v>
+      </c>
+      <c r="M216">
+        <v>3.8</v>
+      </c>
+      <c r="N216">
+        <v>2.05</v>
+      </c>
+      <c r="O216">
+        <v>3.25</v>
+      </c>
+      <c r="P216">
+        <v>3.75</v>
+      </c>
+      <c r="Q216">
+        <v>-0.25</v>
+      </c>
+      <c r="R216">
+        <v>1.775</v>
+      </c>
+      <c r="S216">
+        <v>2.1</v>
+      </c>
+      <c r="T216">
+        <v>2.25</v>
+      </c>
+      <c r="U216">
+        <v>1.9</v>
+      </c>
+      <c r="V216">
+        <v>1.95</v>
+      </c>
+      <c r="W216">
+        <v>0</v>
+      </c>
+      <c r="X216">
+        <v>0</v>
+      </c>
+      <c r="Y216">
+        <v>0</v>
+      </c>
+      <c r="Z216">
+        <v>0</v>
+      </c>
+      <c r="AA216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:29">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217">
+        <v>6805673</v>
+      </c>
+      <c r="C217" t="s">
+        <v>28</v>
+      </c>
+      <c r="D217" t="s">
+        <v>28</v>
+      </c>
+      <c r="E217" s="2">
+        <v>45361.36111111111</v>
+      </c>
+      <c r="F217" t="s">
+        <v>33</v>
+      </c>
+      <c r="G217" t="s">
+        <v>45</v>
+      </c>
+      <c r="K217">
+        <v>3</v>
+      </c>
+      <c r="L217">
+        <v>3.25</v>
+      </c>
+      <c r="M217">
+        <v>2.375</v>
+      </c>
+      <c r="N217">
+        <v>3.1</v>
+      </c>
+      <c r="O217">
+        <v>3.2</v>
+      </c>
+      <c r="P217">
+        <v>2.375</v>
+      </c>
+      <c r="Q217">
+        <v>0.25</v>
+      </c>
+      <c r="R217">
+        <v>1.8</v>
+      </c>
+      <c r="S217">
+        <v>2.05</v>
+      </c>
+      <c r="T217">
+        <v>2.25</v>
+      </c>
+      <c r="U217">
+        <v>1.8</v>
+      </c>
+      <c r="V217">
+        <v>2.05</v>
+      </c>
+      <c r="W217">
+        <v>0</v>
+      </c>
+      <c r="X217">
+        <v>0</v>
+      </c>
+      <c r="Y217">
+        <v>0</v>
+      </c>
+      <c r="Z217">
+        <v>0</v>
+      </c>
+      <c r="AA217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:29">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218">
+        <v>6803826</v>
+      </c>
+      <c r="C218" t="s">
+        <v>28</v>
+      </c>
+      <c r="D218" t="s">
+        <v>28</v>
+      </c>
+      <c r="E218" s="2">
+        <v>45361.45833333334</v>
+      </c>
+      <c r="F218" t="s">
+        <v>49</v>
+      </c>
+      <c r="G218" t="s">
+        <v>47</v>
+      </c>
+      <c r="K218">
+        <v>3.5</v>
+      </c>
+      <c r="L218">
+        <v>3.25</v>
+      </c>
+      <c r="M218">
+        <v>2.1</v>
+      </c>
+      <c r="N218">
+        <v>3.6</v>
+      </c>
+      <c r="O218">
+        <v>3.25</v>
+      </c>
+      <c r="P218">
+        <v>2.05</v>
+      </c>
+      <c r="Q218">
+        <v>0.25</v>
+      </c>
+      <c r="R218">
+        <v>2.05</v>
+      </c>
+      <c r="S218">
+        <v>1.8</v>
+      </c>
+      <c r="T218">
+        <v>2.5</v>
+      </c>
+      <c r="U218">
+        <v>1.975</v>
+      </c>
+      <c r="V218">
+        <v>1.875</v>
+      </c>
+      <c r="W218">
+        <v>0</v>
+      </c>
+      <c r="X218">
+        <v>0</v>
+      </c>
+      <c r="Y218">
+        <v>0</v>
+      </c>
+      <c r="Z218">
+        <v>0</v>
+      </c>
+      <c r="AA218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:29">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219">
+        <v>6803825</v>
+      </c>
+      <c r="C219" t="s">
+        <v>28</v>
+      </c>
+      <c r="D219" t="s">
+        <v>28</v>
+      </c>
+      <c r="E219" s="2">
+        <v>45361.58333333334</v>
+      </c>
+      <c r="F219" t="s">
+        <v>35</v>
+      </c>
+      <c r="G219" t="s">
+        <v>46</v>
+      </c>
+      <c r="K219">
+        <v>2.75</v>
+      </c>
+      <c r="L219">
+        <v>3</v>
+      </c>
+      <c r="M219">
+        <v>2.75</v>
+      </c>
+      <c r="N219">
+        <v>3.1</v>
+      </c>
+      <c r="O219">
+        <v>3</v>
+      </c>
+      <c r="P219">
+        <v>2.5</v>
+      </c>
+      <c r="Q219">
+        <v>0.25</v>
+      </c>
+      <c r="R219">
+        <v>1.75</v>
+      </c>
+      <c r="S219">
+        <v>2.125</v>
+      </c>
+      <c r="T219">
+        <v>2.25</v>
+      </c>
+      <c r="U219">
+        <v>2</v>
+      </c>
+      <c r="V219">
+        <v>1.85</v>
+      </c>
+      <c r="W219">
+        <v>0</v>
+      </c>
+      <c r="X219">
+        <v>0</v>
+      </c>
+      <c r="Y219">
+        <v>0</v>
+      </c>
+      <c r="Z219">
+        <v>0</v>
+      </c>
+      <c r="AA219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:29">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220">
+        <v>6803827</v>
+      </c>
+      <c r="C220" t="s">
+        <v>28</v>
+      </c>
+      <c r="D220" t="s">
+        <v>28</v>
+      </c>
+      <c r="E220" s="2">
+        <v>45362.58333333334</v>
+      </c>
+      <c r="F220" t="s">
+        <v>48</v>
+      </c>
+      <c r="G220" t="s">
+        <v>37</v>
+      </c>
+      <c r="K220">
+        <v>1.8</v>
+      </c>
+      <c r="L220">
+        <v>3.75</v>
+      </c>
+      <c r="M220">
+        <v>4</v>
+      </c>
+      <c r="N220">
+        <v>1.8</v>
+      </c>
+      <c r="O220">
+        <v>3.75</v>
+      </c>
+      <c r="P220">
+        <v>4</v>
+      </c>
+      <c r="Q220">
+        <v>-0.5</v>
+      </c>
+      <c r="R220">
+        <v>1.825</v>
+      </c>
+      <c r="S220">
+        <v>2.025</v>
+      </c>
+      <c r="T220">
+        <v>2.5</v>
+      </c>
+      <c r="U220">
+        <v>1.975</v>
+      </c>
+      <c r="V220">
+        <v>1.875</v>
+      </c>
+      <c r="W220">
+        <v>0</v>
+      </c>
+      <c r="X220">
+        <v>0</v>
+      </c>
+      <c r="Y220">
+        <v>0</v>
+      </c>
+      <c r="Z220">
+        <v>0</v>
+      </c>
+      <c r="AA220">
         <v>0</v>
       </c>
     </row>

--- a/Poland I Liga/Poland I Liga.xlsx
+++ b/Poland I Liga/Poland I Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -106,7 +106,19 @@
     <t>Stal Rzeszow</t>
   </si>
   <si>
-    <t>Ruch Chorzow</t>
+    <t>MKS Puszcza Niepolomice</t>
+  </si>
+  <si>
+    <t>Chojniczanka Chojnice</t>
+  </si>
+  <si>
+    <t>Zaglebie Sosnowiec</t>
+  </si>
+  <si>
+    <t>Gornik Leczna</t>
+  </si>
+  <si>
+    <t>Podbeskidzie Bielsko Biala</t>
   </si>
   <si>
     <t>LKS Lodz</t>
@@ -115,19 +127,7 @@
     <t>Termalica BB Nieciecza</t>
   </si>
   <si>
-    <t>Podbeskidzie Bielsko Biala</t>
-  </si>
-  <si>
-    <t>Chojniczanka Chojnice</t>
-  </si>
-  <si>
-    <t>Zaglebie Sosnowiec</t>
-  </si>
-  <si>
-    <t>MKS Puszcza Niepolomice</t>
-  </si>
-  <si>
-    <t>Gornik Leczna</t>
+    <t>Ruch Chorzow</t>
   </si>
   <si>
     <t>Wisla Krakow</t>
@@ -178,10 +178,10 @@
     <t>H</t>
   </si>
   <si>
-    <t>D</t>
+    <t>A</t>
   </si>
   <si>
-    <t>A</t>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -543,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC220"/>
+  <dimension ref="A1:AC219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -729,7 +729,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5451609</v>
+        <v>5452381</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -744,73 +744,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>1</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
       <c r="J3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K3">
-        <v>1.3</v>
+        <v>1.571</v>
       </c>
       <c r="L3">
+        <v>4</v>
+      </c>
+      <c r="M3">
         <v>5</v>
       </c>
-      <c r="M3">
-        <v>7.5</v>
-      </c>
       <c r="N3">
-        <v>1.333</v>
+        <v>1.4</v>
       </c>
       <c r="O3">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P3">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="Q3">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R3">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S3">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T3">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U3">
+        <v>2.025</v>
+      </c>
+      <c r="V3">
         <v>1.825</v>
       </c>
-      <c r="V3">
-        <v>1.975</v>
-      </c>
       <c r="W3">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z3">
         <v>-1</v>
       </c>
       <c r="AA3">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB3">
         <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -818,7 +818,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5448049</v>
+        <v>5448050</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -833,58 +833,58 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K4">
-        <v>1.571</v>
+        <v>2.75</v>
       </c>
       <c r="L4">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M4">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="N4">
-        <v>1.444</v>
+        <v>2.4</v>
       </c>
       <c r="O4">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P4">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="Q4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S4">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T4">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U4">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V4">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W4">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y4">
         <v>-1</v>
@@ -896,10 +896,10 @@
         <v>-0</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC4">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -907,7 +907,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5451608</v>
+        <v>5448048</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -922,73 +922,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K5">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L5">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M5">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="N5">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O5">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P5">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q5">
+        <v>-0.25</v>
+      </c>
+      <c r="R5">
+        <v>1.875</v>
+      </c>
+      <c r="S5">
+        <v>1.925</v>
+      </c>
+      <c r="T5">
+        <v>2.25</v>
+      </c>
+      <c r="U5">
+        <v>1.85</v>
+      </c>
+      <c r="V5">
+        <v>1.95</v>
+      </c>
+      <c r="W5">
+        <v>-1</v>
+      </c>
+      <c r="X5">
+        <v>2.2</v>
+      </c>
+      <c r="Y5">
+        <v>-1</v>
+      </c>
+      <c r="Z5">
         <v>-0.5</v>
       </c>
-      <c r="R5">
-        <v>1.95</v>
-      </c>
-      <c r="S5">
-        <v>1.85</v>
-      </c>
-      <c r="T5">
-        <v>2.75</v>
-      </c>
-      <c r="U5">
-        <v>1.8</v>
-      </c>
-      <c r="V5">
-        <v>2</v>
-      </c>
-      <c r="W5">
-        <v>0.909</v>
-      </c>
-      <c r="X5">
-        <v>-1</v>
-      </c>
-      <c r="Y5">
-        <v>-1</v>
-      </c>
-      <c r="Z5">
-        <v>0.95</v>
-      </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB5">
-        <v>0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="AC5">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -996,7 +996,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5451607</v>
+        <v>5447925</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1011,73 +1011,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K6">
+        <v>5.5</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>1.5</v>
+      </c>
+      <c r="N6">
+        <v>4.5</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6">
         <v>1.615</v>
       </c>
-      <c r="L6">
-        <v>3.75</v>
-      </c>
-      <c r="M6">
-        <v>4.75</v>
-      </c>
-      <c r="N6">
-        <v>1.363</v>
-      </c>
-      <c r="O6">
-        <v>4.75</v>
-      </c>
-      <c r="P6">
-        <v>6</v>
-      </c>
       <c r="Q6">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R6">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S6">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T6">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U6">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V6">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W6">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z6">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>0.4875</v>
+        <v>0.8</v>
       </c>
       <c r="AB6">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1085,7 +1085,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5448050</v>
+        <v>5451607</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1100,70 +1100,70 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I7">
         <v>3</v>
       </c>
       <c r="J7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K7">
-        <v>2.75</v>
+        <v>1.615</v>
       </c>
       <c r="L7">
+        <v>3.75</v>
+      </c>
+      <c r="M7">
+        <v>4.75</v>
+      </c>
+      <c r="N7">
+        <v>1.363</v>
+      </c>
+      <c r="O7">
+        <v>4.75</v>
+      </c>
+      <c r="P7">
+        <v>6</v>
+      </c>
+      <c r="Q7">
+        <v>-1.25</v>
+      </c>
+      <c r="R7">
+        <v>1.825</v>
+      </c>
+      <c r="S7">
+        <v>1.975</v>
+      </c>
+      <c r="T7">
         <v>3.25</v>
       </c>
-      <c r="M7">
-        <v>2.375</v>
-      </c>
-      <c r="N7">
-        <v>2.4</v>
-      </c>
-      <c r="O7">
-        <v>3.25</v>
-      </c>
-      <c r="P7">
-        <v>2.7</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>1.8</v>
-      </c>
-      <c r="S7">
-        <v>2.05</v>
-      </c>
-      <c r="T7">
-        <v>2.5</v>
-      </c>
       <c r="U7">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V7">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X7">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA7">
-        <v>-0</v>
+        <v>0.4875</v>
       </c>
       <c r="AB7">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC7">
         <v>-1</v>
@@ -1174,7 +1174,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5448048</v>
+        <v>5448049</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1189,73 +1189,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K8">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="L8">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M8">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="N8">
-        <v>2.1</v>
+        <v>1.444</v>
       </c>
       <c r="O8">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P8">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="Q8">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R8">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S8">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T8">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U8">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V8">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X8">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>0.4625</v>
+        <v>-0</v>
       </c>
       <c r="AB8">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>0.475</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1263,7 +1263,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5452381</v>
+        <v>5451608</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1278,73 +1278,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K9">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M9">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N9">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="O9">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P9">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q9">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R9">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S9">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T9">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U9">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V9">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA9">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC9">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1352,7 +1352,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5447925</v>
+        <v>5451609</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1367,61 +1367,61 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K10">
-        <v>5.5</v>
+        <v>1.3</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M10">
-        <v>1.5</v>
+        <v>7.5</v>
       </c>
       <c r="N10">
-        <v>4.5</v>
+        <v>1.333</v>
       </c>
       <c r="O10">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P10">
-        <v>1.615</v>
+        <v>8</v>
       </c>
       <c r="Q10">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R10">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S10">
         <v>1.8</v>
       </c>
       <c r="T10">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U10">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V10">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X10">
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z10">
         <v>-1</v>
@@ -1430,10 +1430,10 @@
         <v>0.8</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC10">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1456,7 +1456,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1465,7 +1465,7 @@
         <v>4</v>
       </c>
       <c r="J11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K11">
         <v>1.615</v>
@@ -1542,7 +1542,7 @@
         <v>45083.66666666666</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G12" t="s">
         <v>29</v>
@@ -1631,10 +1631,10 @@
         <v>45088.54166666666</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1643,7 +1643,7 @@
         <v>3</v>
       </c>
       <c r="J13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K13">
         <v>1.95</v>
@@ -1723,7 +1723,7 @@
         <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1732,7 +1732,7 @@
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K14">
         <v>2.25</v>
@@ -1812,7 +1812,7 @@
         <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H15">
         <v>3</v>
@@ -1910,7 +1910,7 @@
         <v>4</v>
       </c>
       <c r="J16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K16">
         <v>2.8</v>
@@ -1987,7 +1987,7 @@
         <v>45129.52083333334</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G17" t="s">
         <v>38</v>
@@ -1999,7 +1999,7 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K17">
         <v>3.8</v>
@@ -2088,7 +2088,7 @@
         <v>3</v>
       </c>
       <c r="J18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K18">
         <v>2.15</v>
@@ -2165,7 +2165,7 @@
         <v>45130.31944444445</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G19" t="s">
         <v>48</v>
@@ -2177,7 +2177,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K19">
         <v>2.5</v>
@@ -2444,7 +2444,7 @@
         <v>5</v>
       </c>
       <c r="J22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K22">
         <v>1.8</v>
@@ -2521,7 +2521,7 @@
         <v>45135.54166666666</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G23" t="s">
         <v>39</v>
@@ -2533,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K23">
         <v>3.25</v>
@@ -2622,7 +2622,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K24">
         <v>1.5</v>
@@ -2699,7 +2699,7 @@
         <v>45136.41666666666</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G25" t="s">
         <v>43</v>
@@ -2711,7 +2711,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K25">
         <v>1.727</v>
@@ -2788,7 +2788,7 @@
         <v>45136.52083333334</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G26" t="s">
         <v>48</v>
@@ -2800,7 +2800,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2877,7 +2877,7 @@
         <v>45136.625</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s">
         <v>44</v>
@@ -2889,7 +2889,7 @@
         <v>4</v>
       </c>
       <c r="J27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K27">
         <v>2.15</v>
@@ -2978,7 +2978,7 @@
         <v>3</v>
       </c>
       <c r="J28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K28">
         <v>3.4</v>
@@ -3156,7 +3156,7 @@
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K30">
         <v>2.15</v>
@@ -3325,7 +3325,7 @@
         <v>43</v>
       </c>
       <c r="G32" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3423,7 +3423,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K33">
         <v>1.909</v>
@@ -3503,7 +3503,7 @@
         <v>44</v>
       </c>
       <c r="G34" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -3512,7 +3512,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K34">
         <v>1.8</v>
@@ -3601,7 +3601,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K35">
         <v>1.5</v>
@@ -3681,7 +3681,7 @@
         <v>41</v>
       </c>
       <c r="G36" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -3690,7 +3690,7 @@
         <v>5</v>
       </c>
       <c r="J36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K36">
         <v>3.6</v>
@@ -3779,7 +3779,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K37">
         <v>3.2</v>
@@ -3868,7 +3868,7 @@
         <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K38">
         <v>2.15</v>
@@ -3957,7 +3957,7 @@
         <v>3</v>
       </c>
       <c r="J39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K39">
         <v>1.666</v>
@@ -4037,7 +4037,7 @@
         <v>49</v>
       </c>
       <c r="G40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K40">
         <v>2.875</v>
@@ -4123,7 +4123,7 @@
         <v>45149.54166666666</v>
       </c>
       <c r="F41" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G41" t="s">
         <v>41</v>
@@ -4304,7 +4304,7 @@
         <v>46</v>
       </c>
       <c r="G43" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4479,7 +4479,7 @@
         <v>45150.625</v>
       </c>
       <c r="F45" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G45" t="s">
         <v>49</v>
@@ -4491,7 +4491,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K45">
         <v>1.833</v>
@@ -4669,7 +4669,7 @@
         <v>3</v>
       </c>
       <c r="J47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K47">
         <v>2.5</v>
@@ -4746,7 +4746,7 @@
         <v>45151.54166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G48" t="s">
         <v>40</v>
@@ -4758,7 +4758,7 @@
         <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K48">
         <v>1.571</v>
@@ -4847,7 +4847,7 @@
         <v>4</v>
       </c>
       <c r="J49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K49">
         <v>3.6</v>
@@ -4924,10 +4924,10 @@
         <v>45156.54166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G50" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -5025,7 +5025,7 @@
         <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K51">
         <v>1.571</v>
@@ -5105,7 +5105,7 @@
         <v>48</v>
       </c>
       <c r="G52" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H52">
         <v>3</v>
@@ -5194,7 +5194,7 @@
         <v>40</v>
       </c>
       <c r="G53" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5203,7 +5203,7 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K53">
         <v>2.3</v>
@@ -5292,7 +5292,7 @@
         <v>3</v>
       </c>
       <c r="J54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K54">
         <v>2.2</v>
@@ -5648,7 +5648,7 @@
         <v>2</v>
       </c>
       <c r="J58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K58">
         <v>2.5</v>
@@ -5737,7 +5737,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K59">
         <v>2.875</v>
@@ -5817,7 +5817,7 @@
         <v>45</v>
       </c>
       <c r="G60" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H60">
         <v>3</v>
@@ -6004,7 +6004,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K62">
         <v>2.2</v>
@@ -6081,7 +6081,7 @@
         <v>45164.625</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G63" t="s">
         <v>48</v>
@@ -6348,7 +6348,7 @@
         <v>45165.54166666666</v>
       </c>
       <c r="F66" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G66" t="s">
         <v>43</v>
@@ -6440,7 +6440,7 @@
         <v>46</v>
       </c>
       <c r="G67" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6449,7 +6449,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K67">
         <v>2.2</v>
@@ -6529,7 +6529,7 @@
         <v>49</v>
       </c>
       <c r="G68" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -6538,7 +6538,7 @@
         <v>4</v>
       </c>
       <c r="J68" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K68">
         <v>3.1</v>
@@ -6627,7 +6627,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K69">
         <v>2.25</v>
@@ -6885,7 +6885,7 @@
         <v>43</v>
       </c>
       <c r="G72" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -6894,7 +6894,7 @@
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K72">
         <v>2.15</v>
@@ -6971,7 +6971,7 @@
         <v>45172.31944444445</v>
       </c>
       <c r="F73" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G73" t="s">
         <v>45</v>
@@ -7060,7 +7060,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G74" t="s">
         <v>47</v>
@@ -7072,7 +7072,7 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K74">
         <v>2.3</v>
@@ -7339,7 +7339,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K77">
         <v>3.2</v>
@@ -7419,7 +7419,7 @@
         <v>47</v>
       </c>
       <c r="G78" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7428,7 +7428,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K78">
         <v>1.85</v>
@@ -7517,7 +7517,7 @@
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K79">
         <v>2.1</v>
@@ -7606,7 +7606,7 @@
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K80">
         <v>1.222</v>
@@ -7695,7 +7695,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K81">
         <v>2.05</v>
@@ -7861,10 +7861,10 @@
         <v>45186.45833333334</v>
       </c>
       <c r="F83" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G83" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -7873,7 +7873,7 @@
         <v>2</v>
       </c>
       <c r="J83" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K83">
         <v>1.85</v>
@@ -8039,7 +8039,7 @@
         <v>45187.54166666666</v>
       </c>
       <c r="F85" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G85" t="s">
         <v>49</v>
@@ -8116,7 +8116,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6803740</v>
+        <v>6803738</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8128,16 +8128,16 @@
         <v>45191.54166666666</v>
       </c>
       <c r="F86" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H86">
         <v>1</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J86" t="s">
         <v>55</v>
@@ -8149,55 +8149,55 @@
         <v>3.5</v>
       </c>
       <c r="M86">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="N86">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="O86">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P86">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q86">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R86">
+        <v>1.825</v>
+      </c>
+      <c r="S86">
         <v>1.975</v>
       </c>
-      <c r="S86">
+      <c r="T86">
+        <v>2.5</v>
+      </c>
+      <c r="U86">
         <v>1.825</v>
       </c>
-      <c r="T86">
-        <v>2.25</v>
-      </c>
-      <c r="U86">
-        <v>1.9</v>
-      </c>
       <c r="V86">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W86">
         <v>-1</v>
       </c>
       <c r="X86">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y86">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
         <v>-1</v>
       </c>
       <c r="AA86">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB86">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8205,7 +8205,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6803738</v>
+        <v>6803740</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8217,16 +8217,16 @@
         <v>45191.54166666666</v>
       </c>
       <c r="F87" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G87" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H87">
         <v>1</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J87" t="s">
         <v>54</v>
@@ -8238,55 +8238,55 @@
         <v>3.5</v>
       </c>
       <c r="M87">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="N87">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="O87">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P87">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q87">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R87">
+        <v>1.975</v>
+      </c>
+      <c r="S87">
         <v>1.825</v>
       </c>
-      <c r="S87">
-        <v>1.975</v>
-      </c>
       <c r="T87">
+        <v>2.25</v>
+      </c>
+      <c r="U87">
+        <v>1.9</v>
+      </c>
+      <c r="V87">
+        <v>1.9</v>
+      </c>
+      <c r="W87">
+        <v>-1</v>
+      </c>
+      <c r="X87">
+        <v>-1</v>
+      </c>
+      <c r="Y87">
         <v>2.5</v>
       </c>
-      <c r="U87">
-        <v>1.825</v>
-      </c>
-      <c r="V87">
-        <v>1.975</v>
-      </c>
-      <c r="W87">
-        <v>-1</v>
-      </c>
-      <c r="X87">
-        <v>2.8</v>
-      </c>
-      <c r="Y87">
-        <v>-1</v>
-      </c>
       <c r="Z87">
         <v>-1</v>
       </c>
       <c r="AA87">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC87">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8407,7 +8407,7 @@
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K89">
         <v>2.05</v>
@@ -8496,7 +8496,7 @@
         <v>4</v>
       </c>
       <c r="J90" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K90">
         <v>3.6</v>
@@ -8763,7 +8763,7 @@
         <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K93">
         <v>2.05</v>
@@ -8840,10 +8840,10 @@
         <v>45193.54166666666</v>
       </c>
       <c r="F94" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G94" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -8852,7 +8852,7 @@
         <v>3</v>
       </c>
       <c r="J94" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K94">
         <v>2.8</v>
@@ -8932,7 +8932,7 @@
         <v>42</v>
       </c>
       <c r="G95" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H95">
         <v>2</v>
@@ -9119,7 +9119,7 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K97">
         <v>1.3</v>
@@ -9386,7 +9386,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K100">
         <v>2</v>
@@ -9463,7 +9463,7 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G101" t="s">
         <v>45</v>
@@ -9475,7 +9475,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K101">
         <v>1.85</v>
@@ -9641,10 +9641,10 @@
         <v>45201.54166666666</v>
       </c>
       <c r="F103" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G103" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9653,7 +9653,7 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K103">
         <v>2.375</v>
@@ -9742,7 +9742,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K104">
         <v>4</v>
@@ -9822,7 +9822,7 @@
         <v>45</v>
       </c>
       <c r="G105" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9831,7 +9831,7 @@
         <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K105">
         <v>1.75</v>
@@ -9908,7 +9908,7 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F106" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G106" t="s">
         <v>29</v>
@@ -9920,7 +9920,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K106">
         <v>1.85</v>
@@ -10098,7 +10098,7 @@
         <v>3</v>
       </c>
       <c r="J108" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K108">
         <v>2.05</v>
@@ -10187,7 +10187,7 @@
         <v>3</v>
       </c>
       <c r="J109" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K109">
         <v>2.625</v>
@@ -10341,7 +10341,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6805706</v>
+        <v>6803754</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10353,76 +10353,76 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F111" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G111" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H111">
         <v>0</v>
       </c>
       <c r="I111">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J111" t="s">
         <v>55</v>
       </c>
       <c r="K111">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L111">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M111">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="N111">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="O111">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P111">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="Q111">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R111">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S111">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T111">
         <v>2.5</v>
       </c>
       <c r="U111">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V111">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W111">
         <v>-1</v>
       </c>
       <c r="X111">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y111">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA111">
+        <v>-0</v>
+      </c>
+      <c r="AB111">
+        <v>-1</v>
+      </c>
+      <c r="AC111">
         <v>0.95</v>
-      </c>
-      <c r="AB111">
-        <v>-1</v>
-      </c>
-      <c r="AC111">
-        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10430,7 +10430,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6803754</v>
+        <v>6805706</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10442,76 +10442,76 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F112" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G112" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H112">
         <v>0</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J112" t="s">
         <v>54</v>
       </c>
       <c r="K112">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L112">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M112">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="N112">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="O112">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P112">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="Q112">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R112">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S112">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T112">
         <v>2.5</v>
       </c>
       <c r="U112">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V112">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W112">
         <v>-1</v>
       </c>
       <c r="X112">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z112">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA112">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB112">
         <v>-1</v>
       </c>
       <c r="AC112">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10543,7 +10543,7 @@
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K113">
         <v>3.5</v>
@@ -10712,7 +10712,7 @@
         <v>29</v>
       </c>
       <c r="G115" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -10721,7 +10721,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K115">
         <v>1.833</v>
@@ -10801,7 +10801,7 @@
         <v>50</v>
       </c>
       <c r="G116" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H116">
         <v>3</v>
@@ -10979,7 +10979,7 @@
         <v>46</v>
       </c>
       <c r="G118" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H118">
         <v>2</v>
@@ -11065,7 +11065,7 @@
         <v>45221.54166666666</v>
       </c>
       <c r="F119" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G119" t="s">
         <v>47</v>
@@ -11077,7 +11077,7 @@
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K119">
         <v>2.3</v>
@@ -11231,7 +11231,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6805700</v>
+        <v>6803761</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11243,76 +11243,76 @@
         <v>45226.54166666666</v>
       </c>
       <c r="F121" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G121" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K121">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="L121">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M121">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="N121">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="O121">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P121">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="Q121">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R121">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S121">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T121">
         <v>2.75</v>
       </c>
       <c r="U121">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V121">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W121">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA121">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC121">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11320,7 +11320,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6803761</v>
+        <v>6805700</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11332,76 +11332,76 @@
         <v>45226.54166666666</v>
       </c>
       <c r="F122" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G122" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
         <v>2</v>
       </c>
-      <c r="I122">
-        <v>1</v>
-      </c>
       <c r="J122" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K122">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="L122">
+        <v>3.75</v>
+      </c>
+      <c r="M122">
+        <v>4.2</v>
+      </c>
+      <c r="N122">
+        <v>1.75</v>
+      </c>
+      <c r="O122">
+        <v>3.6</v>
+      </c>
+      <c r="P122">
         <v>4</v>
       </c>
-      <c r="M122">
-        <v>5.25</v>
-      </c>
-      <c r="N122">
-        <v>1.5</v>
-      </c>
-      <c r="O122">
-        <v>4</v>
-      </c>
-      <c r="P122">
-        <v>5.5</v>
-      </c>
       <c r="Q122">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R122">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S122">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T122">
         <v>2.75</v>
       </c>
       <c r="U122">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V122">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W122">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z122">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB122">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC122">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11421,7 +11421,7 @@
         <v>45226.64583333334</v>
       </c>
       <c r="F123" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G123" t="s">
         <v>38</v>
@@ -11599,7 +11599,7 @@
         <v>45227.52083333334</v>
       </c>
       <c r="F125" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G125" t="s">
         <v>50</v>
@@ -11611,7 +11611,7 @@
         <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K125">
         <v>2.625</v>
@@ -11688,10 +11688,10 @@
         <v>45227.625</v>
       </c>
       <c r="F126" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G126" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H126">
         <v>3</v>
@@ -11878,7 +11878,7 @@
         <v>2</v>
       </c>
       <c r="J128" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K128">
         <v>3.4</v>
@@ -11967,7 +11967,7 @@
         <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K129">
         <v>2.9</v>
@@ -12056,7 +12056,7 @@
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K130">
         <v>2.6</v>
@@ -12145,7 +12145,7 @@
         <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K131">
         <v>1.533</v>
@@ -12225,7 +12225,7 @@
         <v>38</v>
       </c>
       <c r="G132" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -12234,7 +12234,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K132">
         <v>1.363</v>
@@ -12314,7 +12314,7 @@
         <v>39</v>
       </c>
       <c r="G133" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H133">
         <v>1</v>
@@ -12403,7 +12403,7 @@
         <v>46</v>
       </c>
       <c r="G134" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -12412,7 +12412,7 @@
         <v>3</v>
       </c>
       <c r="J134" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K134">
         <v>1.666</v>
@@ -12492,7 +12492,7 @@
         <v>42</v>
       </c>
       <c r="G135" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -12501,7 +12501,7 @@
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K135">
         <v>3.1</v>
@@ -12590,7 +12590,7 @@
         <v>3</v>
       </c>
       <c r="J136" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K136">
         <v>2.15</v>
@@ -12679,7 +12679,7 @@
         <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K137">
         <v>2.45</v>
@@ -12768,7 +12768,7 @@
         <v>2</v>
       </c>
       <c r="J138" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K138">
         <v>2.5</v>
@@ -13035,7 +13035,7 @@
         <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K141">
         <v>3</v>
@@ -13112,7 +13112,7 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F142" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G142" t="s">
         <v>42</v>
@@ -13124,7 +13124,7 @@
         <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K142">
         <v>2.1</v>
@@ -13290,7 +13290,7 @@
         <v>45241.66666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G144" t="s">
         <v>29</v>
@@ -13302,7 +13302,7 @@
         <v>2</v>
       </c>
       <c r="J144" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K144">
         <v>1.8</v>
@@ -13480,7 +13480,7 @@
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K146">
         <v>1.909</v>
@@ -13557,7 +13557,7 @@
         <v>45242.58333333334</v>
       </c>
       <c r="F147" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G147" t="s">
         <v>39</v>
@@ -13569,7 +13569,7 @@
         <v>3</v>
       </c>
       <c r="J147" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K147">
         <v>3.3</v>
@@ -13646,7 +13646,7 @@
         <v>45242.58333333334</v>
       </c>
       <c r="F148" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G148" t="s">
         <v>44</v>
@@ -13658,7 +13658,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K148">
         <v>3.1</v>
@@ -13738,7 +13738,7 @@
         <v>41</v>
       </c>
       <c r="G149" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H149">
         <v>3</v>
@@ -13916,7 +13916,7 @@
         <v>29</v>
       </c>
       <c r="G151" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H151">
         <v>3</v>
@@ -14281,7 +14281,7 @@
         <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K155">
         <v>1.8</v>
@@ -14361,7 +14361,7 @@
         <v>44</v>
       </c>
       <c r="G156" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H156">
         <v>2</v>
@@ -14450,7 +14450,7 @@
         <v>50</v>
       </c>
       <c r="G157" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H157">
         <v>3</v>
@@ -14548,7 +14548,7 @@
         <v>2</v>
       </c>
       <c r="J158" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K158">
         <v>2.3</v>
@@ -14625,7 +14625,7 @@
         <v>45261.6875</v>
       </c>
       <c r="F159" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G159" t="s">
         <v>38</v>
@@ -14726,7 +14726,7 @@
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K160">
         <v>2.75</v>
@@ -15070,7 +15070,7 @@
         <v>45268.6875</v>
       </c>
       <c r="F164" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G164" t="s">
         <v>40</v>
@@ -15082,7 +15082,7 @@
         <v>4</v>
       </c>
       <c r="J164" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K164">
         <v>2.875</v>
@@ -15162,7 +15162,7 @@
         <v>48</v>
       </c>
       <c r="G165" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H165">
         <v>2</v>
@@ -15349,7 +15349,7 @@
         <v>2</v>
       </c>
       <c r="J167" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K167">
         <v>2.5</v>
@@ -15438,7 +15438,7 @@
         <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K168">
         <v>2.05</v>
@@ -15518,7 +15518,7 @@
         <v>38</v>
       </c>
       <c r="G169" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H169">
         <v>4</v>
@@ -15604,7 +15604,7 @@
         <v>45271.58333333334</v>
       </c>
       <c r="F170" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G170" t="s">
         <v>39</v>
@@ -15785,7 +15785,7 @@
         <v>48</v>
       </c>
       <c r="G172" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H172">
         <v>2</v>
@@ -15883,7 +15883,7 @@
         <v>4</v>
       </c>
       <c r="J173" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K173">
         <v>3.75</v>
@@ -15963,7 +15963,7 @@
         <v>39</v>
       </c>
       <c r="G174" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H174">
         <v>0</v>
@@ -15972,7 +15972,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K174">
         <v>1.55</v>
@@ -16230,7 +16230,7 @@
         <v>43</v>
       </c>
       <c r="G177" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H177">
         <v>0</v>
@@ -16239,7 +16239,7 @@
         <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K177">
         <v>2.3</v>
@@ -16408,7 +16408,7 @@
         <v>44</v>
       </c>
       <c r="G179" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H179">
         <v>2</v>
@@ -16417,7 +16417,7 @@
         <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K179">
         <v>2.05</v>
@@ -16494,7 +16494,7 @@
         <v>45279.5625</v>
       </c>
       <c r="F180" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G180" t="s">
         <v>41</v>
@@ -16506,7 +16506,7 @@
         <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K180">
         <v>1.833</v>
@@ -16595,7 +16595,7 @@
         <v>2</v>
       </c>
       <c r="J181" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K181">
         <v>3</v>
@@ -16672,7 +16672,7 @@
         <v>45338.58333333334</v>
       </c>
       <c r="F182" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G182" t="s">
         <v>44</v>
@@ -16684,7 +16684,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K182">
         <v>3.75</v>
@@ -16850,7 +16850,7 @@
         <v>45339.45833333334</v>
       </c>
       <c r="F184" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G184" t="s">
         <v>49</v>
@@ -16862,7 +16862,7 @@
         <v>2</v>
       </c>
       <c r="J184" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K184">
         <v>1.833</v>
@@ -16951,7 +16951,7 @@
         <v>3</v>
       </c>
       <c r="J185" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K185">
         <v>4.2</v>
@@ -17129,7 +17129,7 @@
         <v>2</v>
       </c>
       <c r="J187" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K187">
         <v>3.8</v>
@@ -17206,7 +17206,7 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G188" t="s">
         <v>41</v>
@@ -17218,7 +17218,7 @@
         <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K188">
         <v>1.55</v>
@@ -17295,7 +17295,7 @@
         <v>45340.58333333334</v>
       </c>
       <c r="F189" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G189" t="s">
         <v>43</v>
@@ -17307,7 +17307,7 @@
         <v>1</v>
       </c>
       <c r="J189" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K189">
         <v>2.3</v>
@@ -17473,7 +17473,7 @@
         <v>45342.58333333334</v>
       </c>
       <c r="F191" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G191" t="s">
         <v>50</v>
@@ -17663,7 +17663,7 @@
         <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K193">
         <v>1.666</v>
@@ -17740,7 +17740,7 @@
         <v>45346.36111111111</v>
       </c>
       <c r="F194" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G194" t="s">
         <v>46</v>
@@ -17752,7 +17752,7 @@
         <v>2</v>
       </c>
       <c r="J194" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K194">
         <v>2.5</v>
@@ -17921,7 +17921,7 @@
         <v>40</v>
       </c>
       <c r="G196" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -18108,7 +18108,7 @@
         <v>2</v>
       </c>
       <c r="J198" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K198">
         <v>3</v>
@@ -18188,7 +18188,7 @@
         <v>49</v>
       </c>
       <c r="G199" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H199">
         <v>1</v>
@@ -18277,7 +18277,7 @@
         <v>41</v>
       </c>
       <c r="G200" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H200">
         <v>0</v>
@@ -18286,7 +18286,7 @@
         <v>1</v>
       </c>
       <c r="J200" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K200">
         <v>3</v>
@@ -18452,7 +18452,7 @@
         <v>45350.58333333334</v>
       </c>
       <c r="F202" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G202" t="s">
         <v>40</v>
@@ -18464,7 +18464,7 @@
         <v>2</v>
       </c>
       <c r="J202" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K202">
         <v>2.4</v>
@@ -18553,7 +18553,7 @@
         <v>3</v>
       </c>
       <c r="J203" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K203">
         <v>3.5</v>
@@ -18642,7 +18642,7 @@
         <v>1</v>
       </c>
       <c r="J204" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K204">
         <v>2.8</v>
@@ -18808,7 +18808,7 @@
         <v>45353.45833333334</v>
       </c>
       <c r="F206" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G206" t="s">
         <v>48</v>
@@ -18820,7 +18820,7 @@
         <v>2</v>
       </c>
       <c r="J206" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K206">
         <v>2</v>
@@ -18909,7 +18909,7 @@
         <v>2</v>
       </c>
       <c r="J207" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K207">
         <v>3.8</v>
@@ -18986,7 +18986,7 @@
         <v>45354.36111111111</v>
       </c>
       <c r="F208" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G208" t="s">
         <v>40</v>
@@ -18998,7 +18998,7 @@
         <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K208">
         <v>2.2</v>
@@ -19087,7 +19087,7 @@
         <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K209">
         <v>1.909</v>
@@ -19164,10 +19164,10 @@
         <v>45354.58333333334</v>
       </c>
       <c r="F210" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G210" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H210">
         <v>0</v>
@@ -19176,7 +19176,7 @@
         <v>0</v>
       </c>
       <c r="J210" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K210">
         <v>2.5</v>
@@ -19345,7 +19345,16 @@
         <v>43</v>
       </c>
       <c r="G212" t="s">
-        <v>32</v>
+        <v>36</v>
+      </c>
+      <c r="H212">
+        <v>2</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+      <c r="J212" t="s">
+        <v>53</v>
       </c>
       <c r="K212">
         <v>3.2</v>
@@ -19357,46 +19366,52 @@
         <v>2.25</v>
       </c>
       <c r="N212">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="O212">
         <v>3.2</v>
       </c>
       <c r="P212">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="Q212">
         <v>0.25</v>
       </c>
       <c r="R212">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S212">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T212">
         <v>2.25</v>
       </c>
       <c r="U212">
+        <v>1.85</v>
+      </c>
+      <c r="V212">
         <v>1.95</v>
       </c>
-      <c r="V212">
+      <c r="W212">
         <v>1.9</v>
       </c>
-      <c r="W212">
-        <v>0</v>
-      </c>
       <c r="X212">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y212">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z212">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA212">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB212">
+        <v>-0.5</v>
+      </c>
+      <c r="AC212">
+        <v>0.475</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19421,6 +19436,15 @@
       <c r="G213" t="s">
         <v>38</v>
       </c>
+      <c r="H213">
+        <v>1</v>
+      </c>
+      <c r="I213">
+        <v>1</v>
+      </c>
+      <c r="J213" t="s">
+        <v>55</v>
+      </c>
       <c r="K213">
         <v>2.2</v>
       </c>
@@ -19431,46 +19455,52 @@
         <v>3</v>
       </c>
       <c r="N213">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O213">
         <v>3.5</v>
       </c>
       <c r="P213">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="Q213">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R213">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S213">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T213">
+        <v>2.75</v>
+      </c>
+      <c r="U213">
+        <v>2</v>
+      </c>
+      <c r="V213">
+        <v>1.8</v>
+      </c>
+      <c r="W213">
+        <v>-1</v>
+      </c>
+      <c r="X213">
         <v>2.5</v>
       </c>
-      <c r="U213">
-        <v>1.825</v>
-      </c>
-      <c r="V213">
-        <v>2.025</v>
-      </c>
-      <c r="W213">
-        <v>0</v>
-      </c>
-      <c r="X213">
-        <v>0</v>
-      </c>
       <c r="Y213">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z213">
         <v>0</v>
       </c>
       <c r="AA213">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB213">
+        <v>-1</v>
+      </c>
+      <c r="AC213">
+        <v>0.8</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19517,10 +19547,10 @@
         <v>-0.75</v>
       </c>
       <c r="R214">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S214">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T214">
         <v>2.5</v>
@@ -19552,7 +19582,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6803822</v>
+        <v>6803823</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19561,49 +19591,49 @@
         <v>28</v>
       </c>
       <c r="E215" s="2">
-        <v>45360.45833333334</v>
+        <v>45360.5625</v>
       </c>
       <c r="F215" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G215" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="K215">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="L215">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M215">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="N215">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="O215">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P215">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q215">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R215">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S215">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T215">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U215">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V215">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W215">
         <v>0</v>
@@ -19626,7 +19656,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6803823</v>
+        <v>6805673</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19635,49 +19665,49 @@
         <v>28</v>
       </c>
       <c r="E216" s="2">
-        <v>45360.5625</v>
+        <v>45361.36111111111</v>
       </c>
       <c r="F216" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G216" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K216">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="L216">
         <v>3.25</v>
       </c>
       <c r="M216">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="N216">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="O216">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P216">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q216">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R216">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S216">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="T216">
         <v>2.25</v>
       </c>
       <c r="U216">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V216">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W216">
         <v>0</v>
@@ -19700,7 +19730,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>6805673</v>
+        <v>6803826</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19709,49 +19739,49 @@
         <v>28</v>
       </c>
       <c r="E217" s="2">
-        <v>45361.36111111111</v>
+        <v>45361.45833333334</v>
       </c>
       <c r="F217" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G217" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K217">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="L217">
         <v>3.25</v>
       </c>
       <c r="M217">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="N217">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="O217">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P217">
-        <v>2.375</v>
+        <v>2.05</v>
       </c>
       <c r="Q217">
         <v>0.25</v>
       </c>
       <c r="R217">
+        <v>2.05</v>
+      </c>
+      <c r="S217">
         <v>1.8</v>
       </c>
-      <c r="S217">
-        <v>2.05</v>
-      </c>
       <c r="T217">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U217">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V217">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W217">
         <v>0</v>
@@ -19774,7 +19804,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>6803826</v>
+        <v>6803825</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19783,49 +19813,49 @@
         <v>28</v>
       </c>
       <c r="E218" s="2">
-        <v>45361.45833333334</v>
+        <v>45361.58333333334</v>
       </c>
       <c r="F218" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="G218" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K218">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="L218">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M218">
+        <v>2.75</v>
+      </c>
+      <c r="N218">
+        <v>3.1</v>
+      </c>
+      <c r="O218">
+        <v>2.9</v>
+      </c>
+      <c r="P218">
+        <v>2.5</v>
+      </c>
+      <c r="Q218">
+        <v>0</v>
+      </c>
+      <c r="R218">
+        <v>2.125</v>
+      </c>
+      <c r="S218">
+        <v>1.75</v>
+      </c>
+      <c r="T218">
+        <v>2</v>
+      </c>
+      <c r="U218">
+        <v>1.775</v>
+      </c>
+      <c r="V218">
         <v>2.1</v>
-      </c>
-      <c r="N218">
-        <v>3.6</v>
-      </c>
-      <c r="O218">
-        <v>3.25</v>
-      </c>
-      <c r="P218">
-        <v>2.05</v>
-      </c>
-      <c r="Q218">
-        <v>0.25</v>
-      </c>
-      <c r="R218">
-        <v>2.05</v>
-      </c>
-      <c r="S218">
-        <v>1.8</v>
-      </c>
-      <c r="T218">
-        <v>2.5</v>
-      </c>
-      <c r="U218">
-        <v>1.975</v>
-      </c>
-      <c r="V218">
-        <v>1.875</v>
       </c>
       <c r="W218">
         <v>0</v>
@@ -19848,7 +19878,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6803825</v>
+        <v>6803827</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19857,49 +19887,49 @@
         <v>28</v>
       </c>
       <c r="E219" s="2">
-        <v>45361.58333333334</v>
+        <v>45362.58333333334</v>
       </c>
       <c r="F219" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G219" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="K219">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="L219">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M219">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="N219">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="O219">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="P219">
+        <v>4</v>
+      </c>
+      <c r="Q219">
+        <v>-0.5</v>
+      </c>
+      <c r="R219">
+        <v>1.825</v>
+      </c>
+      <c r="S219">
+        <v>2.025</v>
+      </c>
+      <c r="T219">
         <v>2.5</v>
       </c>
-      <c r="Q219">
-        <v>0.25</v>
-      </c>
-      <c r="R219">
-        <v>1.75</v>
-      </c>
-      <c r="S219">
-        <v>2.125</v>
-      </c>
-      <c r="T219">
-        <v>2.25</v>
-      </c>
       <c r="U219">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V219">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W219">
         <v>0</v>
@@ -19914,80 +19944,6 @@
         <v>0</v>
       </c>
       <c r="AA219">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:29">
-      <c r="A220" s="1">
-        <v>218</v>
-      </c>
-      <c r="B220">
-        <v>6803827</v>
-      </c>
-      <c r="C220" t="s">
-        <v>28</v>
-      </c>
-      <c r="D220" t="s">
-        <v>28</v>
-      </c>
-      <c r="E220" s="2">
-        <v>45362.58333333334</v>
-      </c>
-      <c r="F220" t="s">
-        <v>48</v>
-      </c>
-      <c r="G220" t="s">
-        <v>37</v>
-      </c>
-      <c r="K220">
-        <v>1.8</v>
-      </c>
-      <c r="L220">
-        <v>3.75</v>
-      </c>
-      <c r="M220">
-        <v>4</v>
-      </c>
-      <c r="N220">
-        <v>1.8</v>
-      </c>
-      <c r="O220">
-        <v>3.75</v>
-      </c>
-      <c r="P220">
-        <v>4</v>
-      </c>
-      <c r="Q220">
-        <v>-0.5</v>
-      </c>
-      <c r="R220">
-        <v>1.825</v>
-      </c>
-      <c r="S220">
-        <v>2.025</v>
-      </c>
-      <c r="T220">
-        <v>2.5</v>
-      </c>
-      <c r="U220">
-        <v>1.975</v>
-      </c>
-      <c r="V220">
-        <v>1.875</v>
-      </c>
-      <c r="W220">
-        <v>0</v>
-      </c>
-      <c r="X220">
-        <v>0</v>
-      </c>
-      <c r="Y220">
-        <v>0</v>
-      </c>
-      <c r="Z220">
-        <v>0</v>
-      </c>
-      <c r="AA220">
         <v>0</v>
       </c>
     </row>

--- a/Poland I Liga/Poland I Liga.xlsx
+++ b/Poland I Liga/Poland I Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -103,31 +103,31 @@
     <t>Poland I Liga</t>
   </si>
   <si>
+    <t>Zaglebie Sosnowiec</t>
+  </si>
+  <si>
+    <t>Termalica BB Nieciecza</t>
+  </si>
+  <si>
+    <t>LKS Lodz</t>
+  </si>
+  <si>
+    <t>Chojniczanka Chojnice</t>
+  </si>
+  <si>
+    <t>Gornik Leczna</t>
+  </si>
+  <si>
+    <t>Ruch Chorzow</t>
+  </si>
+  <si>
     <t>Stal Rzeszow</t>
   </si>
   <si>
     <t>MKS Puszcza Niepolomice</t>
   </si>
   <si>
-    <t>Chojniczanka Chojnice</t>
-  </si>
-  <si>
-    <t>Zaglebie Sosnowiec</t>
-  </si>
-  <si>
-    <t>Gornik Leczna</t>
-  </si>
-  <si>
     <t>Podbeskidzie Bielsko Biala</t>
-  </si>
-  <si>
-    <t>LKS Lodz</t>
-  </si>
-  <si>
-    <t>Termalica BB Nieciecza</t>
-  </si>
-  <si>
-    <t>Ruch Chorzow</t>
   </si>
   <si>
     <t>Wisla Krakow</t>
@@ -169,19 +169,19 @@
     <t>GKS Tychy 71</t>
   </si>
   <si>
+    <t>Sandecja Nowy Sacz</t>
+  </si>
+  <si>
     <t>Skra Czestochowa</t>
   </si>
   <si>
-    <t>Sandecja Nowy Sacz</t>
+    <t>D</t>
   </si>
   <si>
     <t>H</t>
   </si>
   <si>
     <t>A</t>
-  </si>
-  <si>
-    <t>D</t>
   </si>
 </sst>
 </file>
@@ -543,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC219"/>
+  <dimension ref="A1:AC229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5451610</v>
+        <v>5448048</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -658,7 +658,7 @@
         <v>51</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -667,61 +667,61 @@
         <v>53</v>
       </c>
       <c r="K2">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="L2">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M2">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="N2">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="O2">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="P2">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="Q2">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R2">
+        <v>1.875</v>
+      </c>
+      <c r="S2">
+        <v>1.925</v>
+      </c>
+      <c r="T2">
+        <v>2.25</v>
+      </c>
+      <c r="U2">
+        <v>1.85</v>
+      </c>
+      <c r="V2">
         <v>1.95</v>
       </c>
-      <c r="S2">
-        <v>1.85</v>
-      </c>
-      <c r="T2">
-        <v>2.75</v>
-      </c>
-      <c r="U2">
-        <v>1.875</v>
-      </c>
-      <c r="V2">
-        <v>1.925</v>
-      </c>
       <c r="W2">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X2">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y2">
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA2">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AB2">
-        <v>0.4375</v>
+        <v>-0.5</v>
       </c>
       <c r="AC2">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -729,7 +729,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5452381</v>
+        <v>5451608</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -744,10 +744,10 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -756,61 +756,61 @@
         <v>54</v>
       </c>
       <c r="K3">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M3">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N3">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="O3">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P3">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q3">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R3">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S3">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T3">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U3">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V3">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA3">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC3">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -818,7 +818,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5448050</v>
+        <v>5448049</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -833,58 +833,58 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K4">
+        <v>1.571</v>
+      </c>
+      <c r="L4">
+        <v>3.75</v>
+      </c>
+      <c r="M4">
+        <v>5</v>
+      </c>
+      <c r="N4">
+        <v>1.444</v>
+      </c>
+      <c r="O4">
+        <v>4</v>
+      </c>
+      <c r="P4">
+        <v>6</v>
+      </c>
+      <c r="Q4">
+        <v>-1</v>
+      </c>
+      <c r="R4">
+        <v>1.775</v>
+      </c>
+      <c r="S4">
+        <v>2.025</v>
+      </c>
+      <c r="T4">
         <v>2.75</v>
       </c>
-      <c r="L4">
-        <v>3.25</v>
-      </c>
-      <c r="M4">
-        <v>2.375</v>
-      </c>
-      <c r="N4">
-        <v>2.4</v>
-      </c>
-      <c r="O4">
-        <v>3.25</v>
-      </c>
-      <c r="P4">
-        <v>2.7</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>1.8</v>
-      </c>
-      <c r="S4">
-        <v>2.05</v>
-      </c>
-      <c r="T4">
-        <v>2.5</v>
-      </c>
       <c r="U4">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V4">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X4">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
@@ -896,10 +896,10 @@
         <v>-0</v>
       </c>
       <c r="AB4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -907,7 +907,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5448048</v>
+        <v>5448050</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -922,73 +922,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5">
+        <v>2.75</v>
+      </c>
+      <c r="L5">
+        <v>3.25</v>
+      </c>
+      <c r="M5">
+        <v>2.375</v>
+      </c>
+      <c r="N5">
+        <v>2.4</v>
+      </c>
+      <c r="O5">
+        <v>3.25</v>
+      </c>
+      <c r="P5">
+        <v>2.7</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>1.8</v>
+      </c>
+      <c r="S5">
+        <v>2.05</v>
+      </c>
+      <c r="T5">
+        <v>2.5</v>
+      </c>
+      <c r="U5">
+        <v>2</v>
+      </c>
+      <c r="V5">
+        <v>1.85</v>
+      </c>
+      <c r="W5">
+        <v>-1</v>
+      </c>
+      <c r="X5">
+        <v>2.25</v>
+      </c>
+      <c r="Y5">
+        <v>-1</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>-0</v>
+      </c>
+      <c r="AB5">
         <v>1</v>
       </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s">
-        <v>55</v>
-      </c>
-      <c r="K5">
-        <v>2.1</v>
-      </c>
-      <c r="L5">
-        <v>3.2</v>
-      </c>
-      <c r="M5">
-        <v>3.3</v>
-      </c>
-      <c r="N5">
-        <v>2.1</v>
-      </c>
-      <c r="O5">
-        <v>3.2</v>
-      </c>
-      <c r="P5">
-        <v>3.1</v>
-      </c>
-      <c r="Q5">
-        <v>-0.25</v>
-      </c>
-      <c r="R5">
-        <v>1.875</v>
-      </c>
-      <c r="S5">
-        <v>1.925</v>
-      </c>
-      <c r="T5">
-        <v>2.25</v>
-      </c>
-      <c r="U5">
-        <v>1.85</v>
-      </c>
-      <c r="V5">
-        <v>1.95</v>
-      </c>
-      <c r="W5">
-        <v>-1</v>
-      </c>
-      <c r="X5">
-        <v>2.2</v>
-      </c>
-      <c r="Y5">
-        <v>-1</v>
-      </c>
-      <c r="Z5">
-        <v>-0.5</v>
-      </c>
-      <c r="AA5">
-        <v>0.4625</v>
-      </c>
-      <c r="AB5">
-        <v>-0.5</v>
-      </c>
       <c r="AC5">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1020,7 +1020,7 @@
         <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K6">
         <v>5.5</v>
@@ -1085,7 +1085,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5451607</v>
+        <v>5451609</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1100,55 +1100,55 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K7">
-        <v>1.615</v>
+        <v>1.3</v>
       </c>
       <c r="L7">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M7">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="N7">
-        <v>1.363</v>
+        <v>1.333</v>
       </c>
       <c r="O7">
         <v>4.75</v>
       </c>
       <c r="P7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q7">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R7">
+        <v>2</v>
+      </c>
+      <c r="S7">
+        <v>1.8</v>
+      </c>
+      <c r="T7">
+        <v>2.5</v>
+      </c>
+      <c r="U7">
         <v>1.825</v>
       </c>
-      <c r="S7">
+      <c r="V7">
         <v>1.975</v>
       </c>
-      <c r="T7">
-        <v>3.25</v>
-      </c>
-      <c r="U7">
-        <v>1.925</v>
-      </c>
-      <c r="V7">
-        <v>1.875</v>
-      </c>
       <c r="W7">
-        <v>0.363</v>
+        <v>0.333</v>
       </c>
       <c r="X7">
         <v>-1</v>
@@ -1157,16 +1157,16 @@
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>0.4875</v>
+        <v>0.8</v>
       </c>
       <c r="AB7">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1174,7 +1174,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5448049</v>
+        <v>5451610</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1189,55 +1189,55 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
         <v>1</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
       <c r="J8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K8">
-        <v>1.571</v>
+        <v>1.444</v>
       </c>
       <c r="L8">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M8">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="N8">
-        <v>1.444</v>
+        <v>1.333</v>
       </c>
       <c r="O8">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q8">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R8">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S8">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T8">
         <v>2.75</v>
       </c>
       <c r="U8">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V8">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W8">
-        <v>0.444</v>
+        <v>0.333</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1246,16 +1246,16 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC8">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1263,7 +1263,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5451608</v>
+        <v>5452381</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1278,73 +1278,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K9">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L9">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N9">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="O9">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P9">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="Q9">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R9">
+        <v>1.9</v>
+      </c>
+      <c r="S9">
         <v>1.95</v>
       </c>
-      <c r="S9">
-        <v>1.85</v>
-      </c>
       <c r="T9">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U9">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V9">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W9">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z9">
+        <v>-1</v>
+      </c>
+      <c r="AA9">
         <v>0.95</v>
       </c>
-      <c r="AA9">
-        <v>-1</v>
-      </c>
       <c r="AB9">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1352,7 +1352,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5451609</v>
+        <v>5451607</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1367,55 +1367,55 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10">
-        <v>1.3</v>
+        <v>1.615</v>
       </c>
       <c r="L10">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M10">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="N10">
-        <v>1.333</v>
+        <v>1.363</v>
       </c>
       <c r="O10">
         <v>4.75</v>
       </c>
       <c r="P10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q10">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R10">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S10">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T10">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U10">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V10">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W10">
-        <v>0.333</v>
+        <v>0.363</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1424,16 +1424,16 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA10">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC10">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1456,7 +1456,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1465,7 +1465,7 @@
         <v>4</v>
       </c>
       <c r="J11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K11">
         <v>1.615</v>
@@ -1542,10 +1542,10 @@
         <v>45083.66666666666</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K12">
         <v>1.8</v>
@@ -1631,10 +1631,10 @@
         <v>45088.54166666666</v>
       </c>
       <c r="F13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" t="s">
         <v>36</v>
-      </c>
-      <c r="G13" t="s">
-        <v>30</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1643,7 +1643,7 @@
         <v>3</v>
       </c>
       <c r="J13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K13">
         <v>1.95</v>
@@ -1723,7 +1723,7 @@
         <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1732,7 +1732,7 @@
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K14">
         <v>2.25</v>
@@ -1812,7 +1812,7 @@
         <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H15">
         <v>3</v>
@@ -1821,7 +1821,7 @@
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K15">
         <v>2.25</v>
@@ -1910,7 +1910,7 @@
         <v>4</v>
       </c>
       <c r="J16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K16">
         <v>2.8</v>
@@ -1999,7 +1999,7 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K17">
         <v>3.8</v>
@@ -2088,7 +2088,7 @@
         <v>3</v>
       </c>
       <c r="J18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K18">
         <v>2.15</v>
@@ -2165,7 +2165,7 @@
         <v>45130.31944444445</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G19" t="s">
         <v>48</v>
@@ -2177,7 +2177,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K19">
         <v>2.5</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K20">
         <v>2.7</v>
@@ -2355,7 +2355,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K21">
         <v>1.833</v>
@@ -2432,7 +2432,7 @@
         <v>45131.54166666666</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2444,7 +2444,7 @@
         <v>5</v>
       </c>
       <c r="J22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K22">
         <v>1.8</v>
@@ -2533,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K23">
         <v>3.25</v>
@@ -2622,7 +2622,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K24">
         <v>1.5</v>
@@ -2699,7 +2699,7 @@
         <v>45136.41666666666</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G25" t="s">
         <v>43</v>
@@ -2711,7 +2711,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K25">
         <v>1.727</v>
@@ -2788,7 +2788,7 @@
         <v>45136.52083333334</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G26" t="s">
         <v>48</v>
@@ -2800,7 +2800,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2877,7 +2877,7 @@
         <v>45136.625</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G27" t="s">
         <v>44</v>
@@ -2889,7 +2889,7 @@
         <v>4</v>
       </c>
       <c r="J27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K27">
         <v>2.15</v>
@@ -2978,7 +2978,7 @@
         <v>3</v>
       </c>
       <c r="J28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K28">
         <v>3.4</v>
@@ -3067,7 +3067,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K29">
         <v>2.15</v>
@@ -3144,7 +3144,7 @@
         <v>45137.54166666666</v>
       </c>
       <c r="F30" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G30" t="s">
         <v>50</v>
@@ -3156,7 +3156,7 @@
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K30">
         <v>2.15</v>
@@ -3245,7 +3245,7 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K31">
         <v>1.8</v>
@@ -3325,7 +3325,7 @@
         <v>43</v>
       </c>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K32">
         <v>2.25</v>
@@ -3423,7 +3423,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K33">
         <v>1.909</v>
@@ -3512,7 +3512,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K34">
         <v>1.8</v>
@@ -3592,7 +3592,7 @@
         <v>38</v>
       </c>
       <c r="G35" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -3601,7 +3601,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K35">
         <v>1.5</v>
@@ -3681,7 +3681,7 @@
         <v>41</v>
       </c>
       <c r="G36" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -3690,7 +3690,7 @@
         <v>5</v>
       </c>
       <c r="J36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K36">
         <v>3.6</v>
@@ -3779,7 +3779,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K37">
         <v>3.2</v>
@@ -3868,7 +3868,7 @@
         <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K38">
         <v>2.15</v>
@@ -3957,7 +3957,7 @@
         <v>3</v>
       </c>
       <c r="J39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K39">
         <v>1.666</v>
@@ -4037,7 +4037,7 @@
         <v>49</v>
       </c>
       <c r="G40" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K40">
         <v>2.875</v>
@@ -4135,7 +4135,7 @@
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K41">
         <v>1.8</v>
@@ -4224,7 +4224,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K42">
         <v>2.5</v>
@@ -4304,7 +4304,7 @@
         <v>46</v>
       </c>
       <c r="G43" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4313,7 +4313,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K43">
         <v>2.5</v>
@@ -4402,7 +4402,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K44">
         <v>3.1</v>
@@ -4479,7 +4479,7 @@
         <v>45150.625</v>
       </c>
       <c r="F45" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G45" t="s">
         <v>49</v>
@@ -4491,7 +4491,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K45">
         <v>1.833</v>
@@ -4580,7 +4580,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K46">
         <v>1.727</v>
@@ -4657,7 +4657,7 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F47" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G47" t="s">
         <v>39</v>
@@ -4669,7 +4669,7 @@
         <v>3</v>
       </c>
       <c r="J47" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K47">
         <v>2.5</v>
@@ -4746,7 +4746,7 @@
         <v>45151.54166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G48" t="s">
         <v>40</v>
@@ -4758,7 +4758,7 @@
         <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K48">
         <v>1.571</v>
@@ -4847,7 +4847,7 @@
         <v>4</v>
       </c>
       <c r="J49" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K49">
         <v>3.6</v>
@@ -4924,10 +4924,10 @@
         <v>45156.54166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G50" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -4936,7 +4936,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K50">
         <v>1.909</v>
@@ -5025,7 +5025,7 @@
         <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K51">
         <v>1.571</v>
@@ -5105,7 +5105,7 @@
         <v>48</v>
       </c>
       <c r="G52" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H52">
         <v>3</v>
@@ -5114,7 +5114,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K52">
         <v>2.25</v>
@@ -5203,7 +5203,7 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K53">
         <v>2.3</v>
@@ -5292,7 +5292,7 @@
         <v>3</v>
       </c>
       <c r="J54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K54">
         <v>2.2</v>
@@ -5381,7 +5381,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K55">
         <v>1.85</v>
@@ -5461,7 +5461,7 @@
         <v>44</v>
       </c>
       <c r="G56" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5470,7 +5470,7 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K56">
         <v>1.666</v>
@@ -5559,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K57">
         <v>2.875</v>
@@ -5648,7 +5648,7 @@
         <v>2</v>
       </c>
       <c r="J58" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K58">
         <v>2.5</v>
@@ -5737,7 +5737,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K59">
         <v>2.875</v>
@@ -5817,7 +5817,7 @@
         <v>45</v>
       </c>
       <c r="G60" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H60">
         <v>3</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K60">
         <v>2</v>
@@ -5915,7 +5915,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K61">
         <v>1.8</v>
@@ -6004,7 +6004,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K62">
         <v>2.2</v>
@@ -6093,7 +6093,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K63">
         <v>2.875</v>
@@ -6182,7 +6182,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K64">
         <v>2</v>
@@ -6259,7 +6259,7 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F65" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G65" t="s">
         <v>41</v>
@@ -6271,7 +6271,7 @@
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K65">
         <v>1.8</v>
@@ -6348,7 +6348,7 @@
         <v>45165.54166666666</v>
       </c>
       <c r="F66" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G66" t="s">
         <v>43</v>
@@ -6360,7 +6360,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K66">
         <v>1.727</v>
@@ -6440,7 +6440,7 @@
         <v>46</v>
       </c>
       <c r="G67" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6449,7 +6449,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K67">
         <v>2.2</v>
@@ -6529,7 +6529,7 @@
         <v>49</v>
       </c>
       <c r="G68" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -6538,7 +6538,7 @@
         <v>4</v>
       </c>
       <c r="J68" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K68">
         <v>3.1</v>
@@ -6627,7 +6627,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K69">
         <v>2.25</v>
@@ -6716,7 +6716,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K70">
         <v>2.55</v>
@@ -6805,7 +6805,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K71">
         <v>1.5</v>
@@ -6894,7 +6894,7 @@
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K72">
         <v>2.15</v>
@@ -6971,7 +6971,7 @@
         <v>45172.31944444445</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G73" t="s">
         <v>45</v>
@@ -6983,7 +6983,7 @@
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K73">
         <v>2.7</v>
@@ -7060,7 +7060,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G74" t="s">
         <v>47</v>
@@ -7072,7 +7072,7 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K74">
         <v>2.3</v>
@@ -7137,7 +7137,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6805719</v>
+        <v>6803727</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7149,58 +7149,58 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F75" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G75" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="H75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K75">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="L75">
         <v>3.3</v>
       </c>
       <c r="M75">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="N75">
-        <v>2.05</v>
+        <v>3.75</v>
       </c>
       <c r="O75">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P75">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="Q75">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R75">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S75">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T75">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U75">
+        <v>1.925</v>
+      </c>
+      <c r="V75">
         <v>1.875</v>
       </c>
-      <c r="V75">
-        <v>1.975</v>
-      </c>
       <c r="W75">
-        <v>1.05</v>
+        <v>2.75</v>
       </c>
       <c r="X75">
         <v>-1</v>
@@ -7209,16 +7209,16 @@
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA75">
         <v>-1</v>
       </c>
       <c r="AB75">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7226,7 +7226,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6803727</v>
+        <v>6805719</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7238,58 +7238,58 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F76" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G76" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K76">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="L76">
         <v>3.3</v>
       </c>
       <c r="M76">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="N76">
-        <v>3.75</v>
+        <v>2.05</v>
       </c>
       <c r="O76">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P76">
+        <v>3.2</v>
+      </c>
+      <c r="Q76">
+        <v>-0.25</v>
+      </c>
+      <c r="R76">
         <v>1.85</v>
       </c>
-      <c r="Q76">
-        <v>0.5</v>
-      </c>
-      <c r="R76">
-        <v>1.925</v>
-      </c>
       <c r="S76">
+        <v>2</v>
+      </c>
+      <c r="T76">
+        <v>2.5</v>
+      </c>
+      <c r="U76">
         <v>1.875</v>
       </c>
-      <c r="T76">
-        <v>2.75</v>
-      </c>
-      <c r="U76">
-        <v>1.925</v>
-      </c>
       <c r="V76">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W76">
-        <v>2.75</v>
+        <v>1.05</v>
       </c>
       <c r="X76">
         <v>-1</v>
@@ -7298,16 +7298,16 @@
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA76">
         <v>-1</v>
       </c>
       <c r="AB76">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AC76">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7327,7 +7327,7 @@
         <v>45184.54166666666</v>
       </c>
       <c r="F77" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G77" t="s">
         <v>48</v>
@@ -7339,7 +7339,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K77">
         <v>3.2</v>
@@ -7419,7 +7419,7 @@
         <v>47</v>
       </c>
       <c r="G78" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7428,7 +7428,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K78">
         <v>1.85</v>
@@ -7517,7 +7517,7 @@
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K79">
         <v>2.1</v>
@@ -7606,7 +7606,7 @@
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K80">
         <v>1.222</v>
@@ -7695,7 +7695,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K81">
         <v>2.05</v>
@@ -7784,7 +7784,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K82">
         <v>1.95</v>
@@ -7861,10 +7861,10 @@
         <v>45186.45833333334</v>
       </c>
       <c r="F83" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G83" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -7873,7 +7873,7 @@
         <v>2</v>
       </c>
       <c r="J83" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K83">
         <v>1.85</v>
@@ -7962,7 +7962,7 @@
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K84">
         <v>2.375</v>
@@ -8051,7 +8051,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K85">
         <v>1.909</v>
@@ -8116,7 +8116,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6803738</v>
+        <v>6803740</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8128,16 +8128,16 @@
         <v>45191.54166666666</v>
       </c>
       <c r="F86" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G86" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H86">
         <v>1</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J86" t="s">
         <v>55</v>
@@ -8149,55 +8149,55 @@
         <v>3.5</v>
       </c>
       <c r="M86">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="N86">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="O86">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P86">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q86">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R86">
+        <v>1.975</v>
+      </c>
+      <c r="S86">
         <v>1.825</v>
       </c>
-      <c r="S86">
-        <v>1.975</v>
-      </c>
       <c r="T86">
+        <v>2.25</v>
+      </c>
+      <c r="U86">
+        <v>1.9</v>
+      </c>
+      <c r="V86">
+        <v>1.9</v>
+      </c>
+      <c r="W86">
+        <v>-1</v>
+      </c>
+      <c r="X86">
+        <v>-1</v>
+      </c>
+      <c r="Y86">
         <v>2.5</v>
       </c>
-      <c r="U86">
-        <v>1.825</v>
-      </c>
-      <c r="V86">
-        <v>1.975</v>
-      </c>
-      <c r="W86">
-        <v>-1</v>
-      </c>
-      <c r="X86">
-        <v>2.8</v>
-      </c>
-      <c r="Y86">
-        <v>-1</v>
-      </c>
       <c r="Z86">
         <v>-1</v>
       </c>
       <c r="AA86">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC86">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8205,7 +8205,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6803740</v>
+        <v>6803738</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8217,19 +8217,19 @@
         <v>45191.54166666666</v>
       </c>
       <c r="F87" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H87">
         <v>1</v>
       </c>
       <c r="I87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K87">
         <v>1.85</v>
@@ -8238,55 +8238,55 @@
         <v>3.5</v>
       </c>
       <c r="M87">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="N87">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="O87">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P87">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q87">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R87">
+        <v>1.825</v>
+      </c>
+      <c r="S87">
         <v>1.975</v>
       </c>
-      <c r="S87">
+      <c r="T87">
+        <v>2.5</v>
+      </c>
+      <c r="U87">
         <v>1.825</v>
       </c>
-      <c r="T87">
-        <v>2.25</v>
-      </c>
-      <c r="U87">
-        <v>1.9</v>
-      </c>
       <c r="V87">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W87">
         <v>-1</v>
       </c>
       <c r="X87">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y87">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
         <v>-1</v>
       </c>
       <c r="AA87">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB87">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8318,7 +8318,7 @@
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K88">
         <v>2.15</v>
@@ -8407,7 +8407,7 @@
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K89">
         <v>2.05</v>
@@ -8496,7 +8496,7 @@
         <v>4</v>
       </c>
       <c r="J90" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K90">
         <v>3.6</v>
@@ -8585,7 +8585,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K91">
         <v>4.2</v>
@@ -8674,7 +8674,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K92">
         <v>1.8</v>
@@ -8754,7 +8754,7 @@
         <v>43</v>
       </c>
       <c r="G93" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -8763,7 +8763,7 @@
         <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K93">
         <v>2.05</v>
@@ -8840,10 +8840,10 @@
         <v>45193.54166666666</v>
       </c>
       <c r="F94" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G94" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -8852,7 +8852,7 @@
         <v>3</v>
       </c>
       <c r="J94" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K94">
         <v>2.8</v>
@@ -8932,7 +8932,7 @@
         <v>42</v>
       </c>
       <c r="G95" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H95">
         <v>2</v>
@@ -8941,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K95">
         <v>2.875</v>
@@ -9030,7 +9030,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K96">
         <v>1.85</v>
@@ -9119,7 +9119,7 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K97">
         <v>1.3</v>
@@ -9208,7 +9208,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K98">
         <v>2.1</v>
@@ -9285,7 +9285,7 @@
         <v>45199.625</v>
       </c>
       <c r="F99" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G99" t="s">
         <v>49</v>
@@ -9297,7 +9297,7 @@
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K99">
         <v>2.05</v>
@@ -9386,7 +9386,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K100">
         <v>2</v>
@@ -9463,7 +9463,7 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G101" t="s">
         <v>45</v>
@@ -9475,7 +9475,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K101">
         <v>1.85</v>
@@ -9564,7 +9564,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K102">
         <v>2</v>
@@ -9644,7 +9644,7 @@
         <v>33</v>
       </c>
       <c r="G103" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9653,7 +9653,7 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K103">
         <v>2.375</v>
@@ -9742,7 +9742,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K104">
         <v>4</v>
@@ -9831,7 +9831,7 @@
         <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K105">
         <v>1.75</v>
@@ -9908,10 +9908,10 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F106" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G106" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -9920,7 +9920,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K106">
         <v>1.85</v>
@@ -10009,7 +10009,7 @@
         <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K107">
         <v>1.65</v>
@@ -10098,7 +10098,7 @@
         <v>3</v>
       </c>
       <c r="J108" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K108">
         <v>2.05</v>
@@ -10187,7 +10187,7 @@
         <v>3</v>
       </c>
       <c r="J109" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K109">
         <v>2.625</v>
@@ -10276,7 +10276,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K110">
         <v>2.7</v>
@@ -10356,7 +10356,7 @@
         <v>47</v>
       </c>
       <c r="G111" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -10365,7 +10365,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K111">
         <v>2.3</v>
@@ -10442,7 +10442,7 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F112" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G112" t="s">
         <v>42</v>
@@ -10454,7 +10454,7 @@
         <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K112">
         <v>2</v>
@@ -10543,7 +10543,7 @@
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K113">
         <v>3.5</v>
@@ -10632,7 +10632,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K114">
         <v>1.4</v>
@@ -10709,11 +10709,11 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F115" t="s">
+        <v>35</v>
+      </c>
+      <c r="G115" t="s">
         <v>29</v>
       </c>
-      <c r="G115" t="s">
-        <v>32</v>
-      </c>
       <c r="H115">
         <v>0</v>
       </c>
@@ -10721,7 +10721,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K115">
         <v>1.833</v>
@@ -10801,7 +10801,7 @@
         <v>50</v>
       </c>
       <c r="G116" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H116">
         <v>3</v>
@@ -10810,7 +10810,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K116">
         <v>2.1</v>
@@ -10899,7 +10899,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K117">
         <v>1.95</v>
@@ -10979,7 +10979,7 @@
         <v>46</v>
       </c>
       <c r="G118" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H118">
         <v>2</v>
@@ -10988,7 +10988,7 @@
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K118">
         <v>2.25</v>
@@ -11077,7 +11077,7 @@
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K119">
         <v>2.3</v>
@@ -11166,7 +11166,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K120">
         <v>1.75</v>
@@ -11255,7 +11255,7 @@
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K121">
         <v>1.5</v>
@@ -11344,7 +11344,7 @@
         <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K122">
         <v>1.7</v>
@@ -11421,7 +11421,7 @@
         <v>45226.64583333334</v>
       </c>
       <c r="F123" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G123" t="s">
         <v>38</v>
@@ -11433,7 +11433,7 @@
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K123">
         <v>3.2</v>
@@ -11513,7 +11513,7 @@
         <v>45</v>
       </c>
       <c r="G124" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -11522,7 +11522,7 @@
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K124">
         <v>1.833</v>
@@ -11599,7 +11599,7 @@
         <v>45227.52083333334</v>
       </c>
       <c r="F125" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G125" t="s">
         <v>50</v>
@@ -11611,7 +11611,7 @@
         <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K125">
         <v>2.625</v>
@@ -11688,7 +11688,7 @@
         <v>45227.625</v>
       </c>
       <c r="F126" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G126" t="s">
         <v>33</v>
@@ -11700,7 +11700,7 @@
         <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K126">
         <v>1.727</v>
@@ -11789,7 +11789,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K127">
         <v>2.5</v>
@@ -11878,7 +11878,7 @@
         <v>2</v>
       </c>
       <c r="J128" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K128">
         <v>3.4</v>
@@ -11967,7 +11967,7 @@
         <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K129">
         <v>2.9</v>
@@ -12056,7 +12056,7 @@
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K130">
         <v>2.6</v>
@@ -12145,7 +12145,7 @@
         <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K131">
         <v>1.533</v>
@@ -12225,7 +12225,7 @@
         <v>38</v>
       </c>
       <c r="G132" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -12234,7 +12234,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K132">
         <v>1.363</v>
@@ -12314,7 +12314,7 @@
         <v>39</v>
       </c>
       <c r="G133" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H133">
         <v>1</v>
@@ -12323,7 +12323,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K133">
         <v>1.7</v>
@@ -12412,7 +12412,7 @@
         <v>3</v>
       </c>
       <c r="J134" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K134">
         <v>1.666</v>
@@ -12492,7 +12492,7 @@
         <v>42</v>
       </c>
       <c r="G135" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -12501,7 +12501,7 @@
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K135">
         <v>3.1</v>
@@ -12590,7 +12590,7 @@
         <v>3</v>
       </c>
       <c r="J136" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K136">
         <v>2.15</v>
@@ -12667,7 +12667,7 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F137" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G137" t="s">
         <v>47</v>
@@ -12679,7 +12679,7 @@
         <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K137">
         <v>2.45</v>
@@ -12768,7 +12768,7 @@
         <v>2</v>
       </c>
       <c r="J138" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K138">
         <v>2.5</v>
@@ -12857,7 +12857,7 @@
         <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K139">
         <v>3.1</v>
@@ -12946,7 +12946,7 @@
         <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K140">
         <v>2.4</v>
@@ -13035,7 +13035,7 @@
         <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K141">
         <v>3</v>
@@ -13124,7 +13124,7 @@
         <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K142">
         <v>2.1</v>
@@ -13213,7 +13213,7 @@
         <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K143">
         <v>2.15</v>
@@ -13290,10 +13290,10 @@
         <v>45241.66666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G144" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H144">
         <v>1</v>
@@ -13302,7 +13302,7 @@
         <v>2</v>
       </c>
       <c r="J144" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K144">
         <v>1.8</v>
@@ -13391,7 +13391,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K145">
         <v>2</v>
@@ -13480,7 +13480,7 @@
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K146">
         <v>1.909</v>
@@ -13545,7 +13545,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6803779</v>
+        <v>6803778</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13557,76 +13557,76 @@
         <v>45242.58333333334</v>
       </c>
       <c r="F147" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G147" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K147">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="L147">
         <v>3.4</v>
       </c>
       <c r="M147">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="N147">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="O147">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P147">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="Q147">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R147">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S147">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T147">
         <v>2.5</v>
       </c>
       <c r="U147">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V147">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W147">
         <v>-1</v>
       </c>
       <c r="X147">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y147">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z147">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA147">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB147">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13634,7 +13634,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6803778</v>
+        <v>6803779</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13646,76 +13646,76 @@
         <v>45242.58333333334</v>
       </c>
       <c r="F148" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G148" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I148">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J148" t="s">
         <v>55</v>
       </c>
       <c r="K148">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="L148">
         <v>3.4</v>
       </c>
       <c r="M148">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="N148">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="O148">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P148">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="Q148">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R148">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S148">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T148">
         <v>2.5</v>
       </c>
       <c r="U148">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V148">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W148">
         <v>-1</v>
       </c>
       <c r="X148">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y148">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z148">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA148">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC148">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13738,7 +13738,7 @@
         <v>41</v>
       </c>
       <c r="G149" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H149">
         <v>3</v>
@@ -13747,7 +13747,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K149">
         <v>2.8</v>
@@ -13836,7 +13836,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K150">
         <v>2</v>
@@ -13913,7 +13913,7 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F151" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G151" t="s">
         <v>33</v>
@@ -13925,7 +13925,7 @@
         <v>0</v>
       </c>
       <c r="J151" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K151">
         <v>2.1</v>
@@ -14014,7 +14014,7 @@
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K152">
         <v>1.727</v>
@@ -14103,7 +14103,7 @@
         <v>2</v>
       </c>
       <c r="J153" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K153">
         <v>1.727</v>
@@ -14192,7 +14192,7 @@
         <v>0</v>
       </c>
       <c r="J154" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K154">
         <v>1.8</v>
@@ -14281,7 +14281,7 @@
         <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K155">
         <v>1.8</v>
@@ -14361,7 +14361,7 @@
         <v>44</v>
       </c>
       <c r="G156" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H156">
         <v>2</v>
@@ -14370,7 +14370,7 @@
         <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K156">
         <v>1.533</v>
@@ -14450,7 +14450,7 @@
         <v>50</v>
       </c>
       <c r="G157" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H157">
         <v>3</v>
@@ -14459,7 +14459,7 @@
         <v>2</v>
       </c>
       <c r="J157" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K157">
         <v>2.25</v>
@@ -14539,7 +14539,7 @@
         <v>42</v>
       </c>
       <c r="G158" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H158">
         <v>2</v>
@@ -14548,7 +14548,7 @@
         <v>2</v>
       </c>
       <c r="J158" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K158">
         <v>2.3</v>
@@ -14625,7 +14625,7 @@
         <v>45261.6875</v>
       </c>
       <c r="F159" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G159" t="s">
         <v>38</v>
@@ -14637,7 +14637,7 @@
         <v>1</v>
       </c>
       <c r="J159" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K159">
         <v>2.8</v>
@@ -14726,7 +14726,7 @@
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K160">
         <v>2.75</v>
@@ -14815,7 +14815,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K161">
         <v>2.45</v>
@@ -14904,7 +14904,7 @@
         <v>0</v>
       </c>
       <c r="J162" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K162">
         <v>2.8</v>
@@ -14993,7 +14993,7 @@
         <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K163">
         <v>1.8</v>
@@ -15070,7 +15070,7 @@
         <v>45268.6875</v>
       </c>
       <c r="F164" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G164" t="s">
         <v>40</v>
@@ -15082,7 +15082,7 @@
         <v>4</v>
       </c>
       <c r="J164" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K164">
         <v>2.875</v>
@@ -15162,7 +15162,7 @@
         <v>48</v>
       </c>
       <c r="G165" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H165">
         <v>2</v>
@@ -15171,7 +15171,7 @@
         <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K165">
         <v>1.727</v>
@@ -15260,7 +15260,7 @@
         <v>0</v>
       </c>
       <c r="J166" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K166">
         <v>1.533</v>
@@ -15349,7 +15349,7 @@
         <v>2</v>
       </c>
       <c r="J167" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K167">
         <v>2.5</v>
@@ -15429,7 +15429,7 @@
         <v>46</v>
       </c>
       <c r="G168" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -15438,7 +15438,7 @@
         <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K168">
         <v>2.05</v>
@@ -15527,7 +15527,7 @@
         <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K169">
         <v>1.4</v>
@@ -15604,7 +15604,7 @@
         <v>45271.58333333334</v>
       </c>
       <c r="F170" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G170" t="s">
         <v>39</v>
@@ -15616,7 +15616,7 @@
         <v>1</v>
       </c>
       <c r="J170" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K170">
         <v>2.25</v>
@@ -15705,7 +15705,7 @@
         <v>0</v>
       </c>
       <c r="J171" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K171">
         <v>2.875</v>
@@ -15785,7 +15785,7 @@
         <v>48</v>
       </c>
       <c r="G172" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H172">
         <v>2</v>
@@ -15794,7 +15794,7 @@
         <v>0</v>
       </c>
       <c r="J172" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K172">
         <v>1.727</v>
@@ -15883,7 +15883,7 @@
         <v>4</v>
       </c>
       <c r="J173" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K173">
         <v>3.75</v>
@@ -15972,7 +15972,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K174">
         <v>1.55</v>
@@ -16061,7 +16061,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K175">
         <v>2.7</v>
@@ -16150,7 +16150,7 @@
         <v>1</v>
       </c>
       <c r="J176" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K176">
         <v>1.363</v>
@@ -16230,7 +16230,7 @@
         <v>43</v>
       </c>
       <c r="G177" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H177">
         <v>0</v>
@@ -16239,7 +16239,7 @@
         <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K177">
         <v>2.3</v>
@@ -16319,7 +16319,7 @@
         <v>50</v>
       </c>
       <c r="G178" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H178">
         <v>2</v>
@@ -16328,7 +16328,7 @@
         <v>0</v>
       </c>
       <c r="J178" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K178">
         <v>2.15</v>
@@ -16408,7 +16408,7 @@
         <v>44</v>
       </c>
       <c r="G179" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H179">
         <v>2</v>
@@ -16417,7 +16417,7 @@
         <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K179">
         <v>2.05</v>
@@ -16494,7 +16494,7 @@
         <v>45279.5625</v>
       </c>
       <c r="F180" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G180" t="s">
         <v>41</v>
@@ -16506,7 +16506,7 @@
         <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K180">
         <v>1.833</v>
@@ -16595,7 +16595,7 @@
         <v>2</v>
       </c>
       <c r="J181" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K181">
         <v>3</v>
@@ -16684,7 +16684,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K182">
         <v>3.75</v>
@@ -16773,7 +16773,7 @@
         <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K183">
         <v>2.25</v>
@@ -16850,7 +16850,7 @@
         <v>45339.45833333334</v>
       </c>
       <c r="F184" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G184" t="s">
         <v>49</v>
@@ -16862,7 +16862,7 @@
         <v>2</v>
       </c>
       <c r="J184" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K184">
         <v>1.833</v>
@@ -16951,7 +16951,7 @@
         <v>3</v>
       </c>
       <c r="J185" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K185">
         <v>4.2</v>
@@ -17040,7 +17040,7 @@
         <v>1</v>
       </c>
       <c r="J186" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K186">
         <v>2.05</v>
@@ -17117,7 +17117,7 @@
         <v>45340.36111111111</v>
       </c>
       <c r="F187" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G187" t="s">
         <v>38</v>
@@ -17129,7 +17129,7 @@
         <v>2</v>
       </c>
       <c r="J187" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K187">
         <v>3.8</v>
@@ -17206,7 +17206,7 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G188" t="s">
         <v>41</v>
@@ -17218,7 +17218,7 @@
         <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K188">
         <v>1.55</v>
@@ -17295,7 +17295,7 @@
         <v>45340.58333333334</v>
       </c>
       <c r="F189" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G189" t="s">
         <v>43</v>
@@ -17307,7 +17307,7 @@
         <v>1</v>
       </c>
       <c r="J189" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K189">
         <v>2.3</v>
@@ -17396,7 +17396,7 @@
         <v>0</v>
       </c>
       <c r="J190" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K190">
         <v>2.3</v>
@@ -17485,7 +17485,7 @@
         <v>0</v>
       </c>
       <c r="J191" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K191">
         <v>2.875</v>
@@ -17574,7 +17574,7 @@
         <v>1</v>
       </c>
       <c r="J192" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K192">
         <v>1.666</v>
@@ -17663,7 +17663,7 @@
         <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K193">
         <v>1.666</v>
@@ -17740,7 +17740,7 @@
         <v>45346.36111111111</v>
       </c>
       <c r="F194" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G194" t="s">
         <v>46</v>
@@ -17752,7 +17752,7 @@
         <v>2</v>
       </c>
       <c r="J194" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K194">
         <v>2.5</v>
@@ -17841,7 +17841,7 @@
         <v>1</v>
       </c>
       <c r="J195" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K195">
         <v>1.9</v>
@@ -17921,7 +17921,7 @@
         <v>40</v>
       </c>
       <c r="G196" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -17930,7 +17930,7 @@
         <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K196">
         <v>2.45</v>
@@ -18010,7 +18010,7 @@
         <v>39</v>
       </c>
       <c r="G197" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H197">
         <v>5</v>
@@ -18019,7 +18019,7 @@
         <v>1</v>
       </c>
       <c r="J197" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K197">
         <v>1.571</v>
@@ -18108,7 +18108,7 @@
         <v>2</v>
       </c>
       <c r="J198" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K198">
         <v>3</v>
@@ -18188,7 +18188,7 @@
         <v>49</v>
       </c>
       <c r="G199" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H199">
         <v>1</v>
@@ -18197,7 +18197,7 @@
         <v>0</v>
       </c>
       <c r="J199" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K199">
         <v>2.3</v>
@@ -18286,7 +18286,7 @@
         <v>1</v>
       </c>
       <c r="J200" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K200">
         <v>3</v>
@@ -18375,7 +18375,7 @@
         <v>0</v>
       </c>
       <c r="J201" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K201">
         <v>2.3</v>
@@ -18452,7 +18452,7 @@
         <v>45350.58333333334</v>
       </c>
       <c r="F202" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G202" t="s">
         <v>40</v>
@@ -18464,7 +18464,7 @@
         <v>2</v>
       </c>
       <c r="J202" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K202">
         <v>2.4</v>
@@ -18541,7 +18541,7 @@
         <v>45352.58333333334</v>
       </c>
       <c r="F203" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G203" t="s">
         <v>44</v>
@@ -18553,7 +18553,7 @@
         <v>3</v>
       </c>
       <c r="J203" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K203">
         <v>3.5</v>
@@ -18642,7 +18642,7 @@
         <v>1</v>
       </c>
       <c r="J204" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K204">
         <v>2.8</v>
@@ -18731,7 +18731,7 @@
         <v>1</v>
       </c>
       <c r="J205" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K205">
         <v>2</v>
@@ -18808,7 +18808,7 @@
         <v>45353.45833333334</v>
       </c>
       <c r="F206" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G206" t="s">
         <v>48</v>
@@ -18820,7 +18820,7 @@
         <v>2</v>
       </c>
       <c r="J206" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K206">
         <v>2</v>
@@ -18909,7 +18909,7 @@
         <v>2</v>
       </c>
       <c r="J207" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K207">
         <v>3.8</v>
@@ -18998,7 +18998,7 @@
         <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K208">
         <v>2.2</v>
@@ -19087,7 +19087,7 @@
         <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K209">
         <v>1.909</v>
@@ -19164,10 +19164,10 @@
         <v>45354.58333333334</v>
       </c>
       <c r="F210" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G210" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H210">
         <v>0</v>
@@ -19176,7 +19176,7 @@
         <v>0</v>
       </c>
       <c r="J210" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K210">
         <v>2.5</v>
@@ -19265,7 +19265,7 @@
         <v>0</v>
       </c>
       <c r="J211" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K211">
         <v>1.533</v>
@@ -19345,7 +19345,7 @@
         <v>43</v>
       </c>
       <c r="G212" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H212">
         <v>2</v>
@@ -19354,7 +19354,7 @@
         <v>0</v>
       </c>
       <c r="J212" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K212">
         <v>3.2</v>
@@ -19443,7 +19443,7 @@
         <v>1</v>
       </c>
       <c r="J213" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K213">
         <v>2.2</v>
@@ -19508,7 +19508,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6805672</v>
+        <v>6803822</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19520,61 +19520,76 @@
         <v>45360.45833333334</v>
       </c>
       <c r="F214" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G214" t="s">
-        <v>42</v>
+        <v>35</v>
+      </c>
+      <c r="H214">
+        <v>2</v>
+      </c>
+      <c r="I214">
+        <v>1</v>
+      </c>
+      <c r="J214" t="s">
+        <v>54</v>
       </c>
       <c r="K214">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="L214">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M214">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="N214">
-        <v>1.75</v>
+        <v>2.625</v>
       </c>
       <c r="O214">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P214">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q214">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R214">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S214">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T214">
         <v>2.5</v>
       </c>
       <c r="U214">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V214">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W214">
-        <v>0</v>
+        <v>1.625</v>
       </c>
       <c r="X214">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y214">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z214">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA214">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB214">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC214">
+        <v>-1</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19582,7 +19597,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6803823</v>
+        <v>6805672</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19591,64 +19606,79 @@
         <v>28</v>
       </c>
       <c r="E215" s="2">
-        <v>45360.5625</v>
+        <v>45360.45833333334</v>
       </c>
       <c r="F215" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G215" t="s">
-        <v>50</v>
+        <v>42</v>
+      </c>
+      <c r="H215">
+        <v>1</v>
+      </c>
+      <c r="I215">
+        <v>1</v>
+      </c>
+      <c r="J215" t="s">
+        <v>53</v>
       </c>
       <c r="K215">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="L215">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M215">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="N215">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="O215">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P215">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q215">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R215">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S215">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T215">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U215">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V215">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W215">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X215">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Y215">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z215">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA215">
-        <v>0</v>
+        <v>0.825</v>
+      </c>
+      <c r="AB215">
+        <v>-1</v>
+      </c>
+      <c r="AC215">
+        <v>0.825</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19656,7 +19686,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6805673</v>
+        <v>6803823</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19665,64 +19695,79 @@
         <v>28</v>
       </c>
       <c r="E216" s="2">
-        <v>45361.36111111111</v>
+        <v>45360.5625</v>
       </c>
       <c r="F216" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G216" t="s">
-        <v>45</v>
+        <v>50</v>
+      </c>
+      <c r="H216">
+        <v>2</v>
+      </c>
+      <c r="I216">
+        <v>2</v>
+      </c>
+      <c r="J216" t="s">
+        <v>53</v>
       </c>
       <c r="K216">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="L216">
         <v>3.25</v>
       </c>
       <c r="M216">
-        <v>2.375</v>
+        <v>3.8</v>
       </c>
       <c r="N216">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="O216">
         <v>3.2</v>
       </c>
       <c r="P216">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="Q216">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R216">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S216">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T216">
         <v>2.25</v>
       </c>
       <c r="U216">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V216">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W216">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X216">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="Y216">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z216">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA216">
-        <v>0</v>
+        <v>0.475</v>
+      </c>
+      <c r="AB216">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC216">
+        <v>-1</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19730,7 +19775,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>6803826</v>
+        <v>6805673</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19739,64 +19784,79 @@
         <v>28</v>
       </c>
       <c r="E217" s="2">
-        <v>45361.45833333334</v>
+        <v>45361.36111111111</v>
       </c>
       <c r="F217" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G217" t="s">
-        <v>47</v>
+        <v>45</v>
+      </c>
+      <c r="H217">
+        <v>1</v>
+      </c>
+      <c r="I217">
+        <v>2</v>
+      </c>
+      <c r="J217" t="s">
+        <v>55</v>
       </c>
       <c r="K217">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="L217">
         <v>3.25</v>
       </c>
       <c r="M217">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="N217">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="O217">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P217">
-        <v>2.05</v>
+        <v>2.375</v>
       </c>
       <c r="Q217">
         <v>0.25</v>
       </c>
       <c r="R217">
+        <v>1.85</v>
+      </c>
+      <c r="S217">
+        <v>2</v>
+      </c>
+      <c r="T217">
+        <v>2.25</v>
+      </c>
+      <c r="U217">
+        <v>1.8</v>
+      </c>
+      <c r="V217">
         <v>2.05</v>
       </c>
-      <c r="S217">
-        <v>1.8</v>
-      </c>
-      <c r="T217">
-        <v>2.5</v>
-      </c>
-      <c r="U217">
-        <v>1.975</v>
-      </c>
-      <c r="V217">
-        <v>1.875</v>
-      </c>
       <c r="W217">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X217">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y217">
-        <v>0</v>
+        <v>1.375</v>
       </c>
       <c r="Z217">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA217">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AB217">
+        <v>0.8</v>
+      </c>
+      <c r="AC217">
+        <v>-1</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -19804,7 +19864,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>6803825</v>
+        <v>6803826</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19813,64 +19873,79 @@
         <v>28</v>
       </c>
       <c r="E218" s="2">
-        <v>45361.58333333334</v>
+        <v>45361.45833333334</v>
       </c>
       <c r="F218" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="G218" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="H218">
+        <v>0</v>
+      </c>
+      <c r="I218">
+        <v>2</v>
+      </c>
+      <c r="J218" t="s">
+        <v>55</v>
       </c>
       <c r="K218">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="L218">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M218">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="N218">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O218">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="P218">
+        <v>2.15</v>
+      </c>
+      <c r="Q218">
+        <v>0.25</v>
+      </c>
+      <c r="R218">
+        <v>2.025</v>
+      </c>
+      <c r="S218">
+        <v>1.825</v>
+      </c>
+      <c r="T218">
         <v>2.5</v>
       </c>
-      <c r="Q218">
-        <v>0</v>
-      </c>
-      <c r="R218">
-        <v>2.125</v>
-      </c>
-      <c r="S218">
-        <v>1.75</v>
-      </c>
-      <c r="T218">
-        <v>2</v>
-      </c>
       <c r="U218">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V218">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="W218">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X218">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y218">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="Z218">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA218">
-        <v>0</v>
+        <v>0.825</v>
+      </c>
+      <c r="AB218">
+        <v>-1</v>
+      </c>
+      <c r="AC218">
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -19878,72 +19953,842 @@
         <v>217</v>
       </c>
       <c r="B219">
+        <v>6803825</v>
+      </c>
+      <c r="C219" t="s">
+        <v>28</v>
+      </c>
+      <c r="D219" t="s">
+        <v>28</v>
+      </c>
+      <c r="E219" s="2">
+        <v>45361.58333333334</v>
+      </c>
+      <c r="F219" t="s">
+        <v>29</v>
+      </c>
+      <c r="G219" t="s">
+        <v>46</v>
+      </c>
+      <c r="H219">
+        <v>1</v>
+      </c>
+      <c r="I219">
+        <v>1</v>
+      </c>
+      <c r="J219" t="s">
+        <v>53</v>
+      </c>
+      <c r="K219">
+        <v>2.75</v>
+      </c>
+      <c r="L219">
+        <v>3</v>
+      </c>
+      <c r="M219">
+        <v>2.75</v>
+      </c>
+      <c r="N219">
+        <v>3.1</v>
+      </c>
+      <c r="O219">
+        <v>2.875</v>
+      </c>
+      <c r="P219">
+        <v>2.55</v>
+      </c>
+      <c r="Q219">
+        <v>0</v>
+      </c>
+      <c r="R219">
+        <v>2.05</v>
+      </c>
+      <c r="S219">
+        <v>1.75</v>
+      </c>
+      <c r="T219">
+        <v>2</v>
+      </c>
+      <c r="U219">
+        <v>1.8</v>
+      </c>
+      <c r="V219">
+        <v>2</v>
+      </c>
+      <c r="W219">
+        <v>-1</v>
+      </c>
+      <c r="X219">
+        <v>1.875</v>
+      </c>
+      <c r="Y219">
+        <v>-1</v>
+      </c>
+      <c r="Z219">
+        <v>0</v>
+      </c>
+      <c r="AA219">
+        <v>-0</v>
+      </c>
+      <c r="AB219">
+        <v>0</v>
+      </c>
+      <c r="AC219">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:29">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220">
         <v>6803827</v>
       </c>
-      <c r="C219" t="s">
-        <v>28</v>
-      </c>
-      <c r="D219" t="s">
-        <v>28</v>
-      </c>
-      <c r="E219" s="2">
+      <c r="C220" t="s">
+        <v>28</v>
+      </c>
+      <c r="D220" t="s">
+        <v>28</v>
+      </c>
+      <c r="E220" s="2">
         <v>45362.58333333334</v>
       </c>
-      <c r="F219" t="s">
+      <c r="F220" t="s">
         <v>48</v>
       </c>
-      <c r="G219" t="s">
+      <c r="G220" t="s">
         <v>33</v>
       </c>
-      <c r="K219">
+      <c r="H220">
+        <v>2</v>
+      </c>
+      <c r="I220">
+        <v>1</v>
+      </c>
+      <c r="J220" t="s">
+        <v>54</v>
+      </c>
+      <c r="K220">
         <v>1.8</v>
       </c>
-      <c r="L219">
+      <c r="L220">
         <v>3.75</v>
       </c>
-      <c r="M219">
+      <c r="M220">
         <v>4</v>
       </c>
-      <c r="N219">
+      <c r="N220">
+        <v>2</v>
+      </c>
+      <c r="O220">
+        <v>3.4</v>
+      </c>
+      <c r="P220">
+        <v>3.6</v>
+      </c>
+      <c r="Q220">
+        <v>-0.5</v>
+      </c>
+      <c r="R220">
+        <v>2</v>
+      </c>
+      <c r="S220">
         <v>1.8</v>
       </c>
-      <c r="O219">
+      <c r="T220">
+        <v>2.25</v>
+      </c>
+      <c r="U220">
+        <v>1.8</v>
+      </c>
+      <c r="V220">
+        <v>2</v>
+      </c>
+      <c r="W220">
+        <v>1</v>
+      </c>
+      <c r="X220">
+        <v>-1</v>
+      </c>
+      <c r="Y220">
+        <v>-1</v>
+      </c>
+      <c r="Z220">
+        <v>1</v>
+      </c>
+      <c r="AA220">
+        <v>-1</v>
+      </c>
+      <c r="AB220">
+        <v>0.8</v>
+      </c>
+      <c r="AC220">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:29">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221">
+        <v>6805670</v>
+      </c>
+      <c r="C221" t="s">
+        <v>28</v>
+      </c>
+      <c r="D221" t="s">
+        <v>28</v>
+      </c>
+      <c r="E221" s="2">
+        <v>45366.58333333334</v>
+      </c>
+      <c r="F221" t="s">
+        <v>42</v>
+      </c>
+      <c r="G221" t="s">
+        <v>48</v>
+      </c>
+      <c r="K221">
+        <v>3</v>
+      </c>
+      <c r="L221">
+        <v>3.4</v>
+      </c>
+      <c r="M221">
+        <v>2.15</v>
+      </c>
+      <c r="N221">
+        <v>3</v>
+      </c>
+      <c r="O221">
+        <v>3.4</v>
+      </c>
+      <c r="P221">
+        <v>2.15</v>
+      </c>
+      <c r="Q221">
+        <v>0.25</v>
+      </c>
+      <c r="R221">
+        <v>1.925</v>
+      </c>
+      <c r="S221">
+        <v>1.925</v>
+      </c>
+      <c r="T221">
+        <v>2.75</v>
+      </c>
+      <c r="U221">
+        <v>1.975</v>
+      </c>
+      <c r="V221">
+        <v>1.875</v>
+      </c>
+      <c r="W221">
+        <v>0</v>
+      </c>
+      <c r="X221">
+        <v>0</v>
+      </c>
+      <c r="Y221">
+        <v>0</v>
+      </c>
+      <c r="Z221">
+        <v>0</v>
+      </c>
+      <c r="AA221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:29">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222">
+        <v>6805669</v>
+      </c>
+      <c r="C222" t="s">
+        <v>28</v>
+      </c>
+      <c r="D222" t="s">
+        <v>28</v>
+      </c>
+      <c r="E222" s="2">
+        <v>45366.58333333334</v>
+      </c>
+      <c r="F222" t="s">
+        <v>45</v>
+      </c>
+      <c r="G222" t="s">
+        <v>29</v>
+      </c>
+      <c r="K222">
+        <v>1.5</v>
+      </c>
+      <c r="L222">
+        <v>4</v>
+      </c>
+      <c r="M222">
+        <v>5.5</v>
+      </c>
+      <c r="N222">
+        <v>1.5</v>
+      </c>
+      <c r="O222">
+        <v>4</v>
+      </c>
+      <c r="P222">
+        <v>5.5</v>
+      </c>
+      <c r="Q222">
+        <v>-1</v>
+      </c>
+      <c r="R222">
+        <v>1.9</v>
+      </c>
+      <c r="S222">
+        <v>1.95</v>
+      </c>
+      <c r="T222">
+        <v>2.5</v>
+      </c>
+      <c r="U222">
+        <v>1.9</v>
+      </c>
+      <c r="V222">
+        <v>1.95</v>
+      </c>
+      <c r="W222">
+        <v>0</v>
+      </c>
+      <c r="X222">
+        <v>0</v>
+      </c>
+      <c r="Y222">
+        <v>0</v>
+      </c>
+      <c r="Z222">
+        <v>0</v>
+      </c>
+      <c r="AA222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:29">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223">
+        <v>6803829</v>
+      </c>
+      <c r="C223" t="s">
+        <v>28</v>
+      </c>
+      <c r="D223" t="s">
+        <v>28</v>
+      </c>
+      <c r="E223" s="2">
+        <v>45366.6875</v>
+      </c>
+      <c r="F223" t="s">
+        <v>38</v>
+      </c>
+      <c r="G223" t="s">
+        <v>44</v>
+      </c>
+      <c r="K223">
+        <v>1.65</v>
+      </c>
+      <c r="L223">
+        <v>3.8</v>
+      </c>
+      <c r="M223">
+        <v>4.5</v>
+      </c>
+      <c r="N223">
+        <v>1.65</v>
+      </c>
+      <c r="O223">
+        <v>3.8</v>
+      </c>
+      <c r="P223">
+        <v>4.5</v>
+      </c>
+      <c r="Q223">
+        <v>-0.75</v>
+      </c>
+      <c r="R223">
+        <v>1.875</v>
+      </c>
+      <c r="S223">
+        <v>1.975</v>
+      </c>
+      <c r="T223">
+        <v>2.75</v>
+      </c>
+      <c r="U223">
+        <v>1.925</v>
+      </c>
+      <c r="V223">
+        <v>1.925</v>
+      </c>
+      <c r="W223">
+        <v>0</v>
+      </c>
+      <c r="X223">
+        <v>0</v>
+      </c>
+      <c r="Y223">
+        <v>0</v>
+      </c>
+      <c r="Z223">
+        <v>0</v>
+      </c>
+      <c r="AA223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:29">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224">
+        <v>6803832</v>
+      </c>
+      <c r="C224" t="s">
+        <v>28</v>
+      </c>
+      <c r="D224" t="s">
+        <v>28</v>
+      </c>
+      <c r="E224" s="2">
+        <v>45367.36111111111</v>
+      </c>
+      <c r="F224" t="s">
+        <v>30</v>
+      </c>
+      <c r="G224" t="s">
+        <v>49</v>
+      </c>
+      <c r="K224">
+        <v>1.55</v>
+      </c>
+      <c r="L224">
+        <v>4</v>
+      </c>
+      <c r="M224">
+        <v>5</v>
+      </c>
+      <c r="N224">
+        <v>1.55</v>
+      </c>
+      <c r="O224">
+        <v>4</v>
+      </c>
+      <c r="P224">
+        <v>5</v>
+      </c>
+      <c r="Q224">
+        <v>-1</v>
+      </c>
+      <c r="R224">
+        <v>2</v>
+      </c>
+      <c r="S224">
+        <v>1.85</v>
+      </c>
+      <c r="T224">
+        <v>2.75</v>
+      </c>
+      <c r="U224">
+        <v>1.875</v>
+      </c>
+      <c r="V224">
+        <v>1.975</v>
+      </c>
+      <c r="W224">
+        <v>0</v>
+      </c>
+      <c r="X224">
+        <v>0</v>
+      </c>
+      <c r="Y224">
+        <v>0</v>
+      </c>
+      <c r="Z224">
+        <v>0</v>
+      </c>
+      <c r="AA224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:27">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225">
+        <v>6803830</v>
+      </c>
+      <c r="C225" t="s">
+        <v>28</v>
+      </c>
+      <c r="D225" t="s">
+        <v>28</v>
+      </c>
+      <c r="E225" s="2">
+        <v>45367.45833333334</v>
+      </c>
+      <c r="F225" t="s">
+        <v>50</v>
+      </c>
+      <c r="G225" t="s">
+        <v>41</v>
+      </c>
+      <c r="K225">
+        <v>1.571</v>
+      </c>
+      <c r="L225">
+        <v>3.8</v>
+      </c>
+      <c r="M225">
+        <v>5</v>
+      </c>
+      <c r="N225">
+        <v>1.571</v>
+      </c>
+      <c r="O225">
+        <v>3.8</v>
+      </c>
+      <c r="P225">
+        <v>5</v>
+      </c>
+      <c r="Q225">
+        <v>-1</v>
+      </c>
+      <c r="R225">
+        <v>2.05</v>
+      </c>
+      <c r="S225">
+        <v>1.8</v>
+      </c>
+      <c r="T225">
+        <v>2.75</v>
+      </c>
+      <c r="U225">
+        <v>2.025</v>
+      </c>
+      <c r="V225">
+        <v>1.825</v>
+      </c>
+      <c r="W225">
+        <v>0</v>
+      </c>
+      <c r="X225">
+        <v>0</v>
+      </c>
+      <c r="Y225">
+        <v>0</v>
+      </c>
+      <c r="Z225">
+        <v>0</v>
+      </c>
+      <c r="AA225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:27">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226">
+        <v>6805671</v>
+      </c>
+      <c r="C226" t="s">
+        <v>28</v>
+      </c>
+      <c r="D226" t="s">
+        <v>28</v>
+      </c>
+      <c r="E226" s="2">
+        <v>45367.5625</v>
+      </c>
+      <c r="F226" t="s">
+        <v>35</v>
+      </c>
+      <c r="G226" t="s">
+        <v>40</v>
+      </c>
+      <c r="K226">
+        <v>2.6</v>
+      </c>
+      <c r="L226">
+        <v>3.25</v>
+      </c>
+      <c r="M226">
+        <v>2.5</v>
+      </c>
+      <c r="N226">
+        <v>2.6</v>
+      </c>
+      <c r="O226">
+        <v>3.25</v>
+      </c>
+      <c r="P226">
+        <v>2.5</v>
+      </c>
+      <c r="Q226">
+        <v>0</v>
+      </c>
+      <c r="R226">
+        <v>2</v>
+      </c>
+      <c r="S226">
+        <v>1.85</v>
+      </c>
+      <c r="T226">
+        <v>2.75</v>
+      </c>
+      <c r="U226">
+        <v>2.025</v>
+      </c>
+      <c r="V226">
+        <v>1.825</v>
+      </c>
+      <c r="W226">
+        <v>0</v>
+      </c>
+      <c r="X226">
+        <v>0</v>
+      </c>
+      <c r="Y226">
+        <v>0</v>
+      </c>
+      <c r="Z226">
+        <v>0</v>
+      </c>
+      <c r="AA226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:27">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227">
+        <v>6803828</v>
+      </c>
+      <c r="C227" t="s">
+        <v>28</v>
+      </c>
+      <c r="D227" t="s">
+        <v>28</v>
+      </c>
+      <c r="E227" s="2">
+        <v>45368.36111111111</v>
+      </c>
+      <c r="F227" t="s">
+        <v>39</v>
+      </c>
+      <c r="G227" t="s">
+        <v>46</v>
+      </c>
+      <c r="K227">
+        <v>1.55</v>
+      </c>
+      <c r="L227">
         <v>3.75</v>
       </c>
-      <c r="P219">
+      <c r="M227">
+        <v>5.5</v>
+      </c>
+      <c r="N227">
+        <v>1.55</v>
+      </c>
+      <c r="O227">
+        <v>3.75</v>
+      </c>
+      <c r="P227">
+        <v>5.5</v>
+      </c>
+      <c r="Q227">
+        <v>-1</v>
+      </c>
+      <c r="R227">
+        <v>1.95</v>
+      </c>
+      <c r="S227">
+        <v>1.9</v>
+      </c>
+      <c r="T227">
+        <v>2.5</v>
+      </c>
+      <c r="U227">
+        <v>1.925</v>
+      </c>
+      <c r="V227">
+        <v>1.925</v>
+      </c>
+      <c r="W227">
+        <v>0</v>
+      </c>
+      <c r="X227">
+        <v>0</v>
+      </c>
+      <c r="Y227">
+        <v>0</v>
+      </c>
+      <c r="Z227">
+        <v>0</v>
+      </c>
+      <c r="AA227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:27">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228">
+        <v>6803831</v>
+      </c>
+      <c r="C228" t="s">
+        <v>28</v>
+      </c>
+      <c r="D228" t="s">
+        <v>28</v>
+      </c>
+      <c r="E228" s="2">
+        <v>45368.45833333334</v>
+      </c>
+      <c r="F228" t="s">
+        <v>33</v>
+      </c>
+      <c r="G228" t="s">
+        <v>43</v>
+      </c>
+      <c r="K228">
+        <v>2.25</v>
+      </c>
+      <c r="L228">
+        <v>3</v>
+      </c>
+      <c r="M228">
+        <v>3.25</v>
+      </c>
+      <c r="N228">
+        <v>2.25</v>
+      </c>
+      <c r="O228">
+        <v>3</v>
+      </c>
+      <c r="P228">
+        <v>3.25</v>
+      </c>
+      <c r="Q228">
+        <v>-0.25</v>
+      </c>
+      <c r="R228">
+        <v>1.975</v>
+      </c>
+      <c r="S228">
+        <v>1.875</v>
+      </c>
+      <c r="T228">
+        <v>2</v>
+      </c>
+      <c r="U228">
+        <v>1.8</v>
+      </c>
+      <c r="V228">
+        <v>2.05</v>
+      </c>
+      <c r="W228">
+        <v>0</v>
+      </c>
+      <c r="X228">
+        <v>0</v>
+      </c>
+      <c r="Y228">
+        <v>0</v>
+      </c>
+      <c r="Z228">
+        <v>0</v>
+      </c>
+      <c r="AA228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:27">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229">
+        <v>7948879</v>
+      </c>
+      <c r="C229" t="s">
+        <v>28</v>
+      </c>
+      <c r="D229" t="s">
+        <v>28</v>
+      </c>
+      <c r="E229" s="2">
+        <v>45368.58333333334</v>
+      </c>
+      <c r="F229" t="s">
+        <v>47</v>
+      </c>
+      <c r="G229" t="s">
+        <v>37</v>
+      </c>
+      <c r="K229">
+        <v>1.8</v>
+      </c>
+      <c r="L229">
+        <v>3.5</v>
+      </c>
+      <c r="M229">
         <v>4</v>
       </c>
-      <c r="Q219">
+      <c r="N229">
+        <v>1.8</v>
+      </c>
+      <c r="O229">
+        <v>3.5</v>
+      </c>
+      <c r="P229">
+        <v>4</v>
+      </c>
+      <c r="Q229">
         <v>-0.5</v>
       </c>
-      <c r="R219">
+      <c r="R229">
         <v>1.825</v>
       </c>
-      <c r="S219">
+      <c r="S229">
         <v>2.025</v>
       </c>
-      <c r="T219">
+      <c r="T229">
         <v>2.5</v>
       </c>
-      <c r="U219">
-        <v>1.975</v>
-      </c>
-      <c r="V219">
-        <v>1.875</v>
-      </c>
-      <c r="W219">
-        <v>0</v>
-      </c>
-      <c r="X219">
-        <v>0</v>
-      </c>
-      <c r="Y219">
-        <v>0</v>
-      </c>
-      <c r="Z219">
-        <v>0</v>
-      </c>
-      <c r="AA219">
+      <c r="U229">
+        <v>1.85</v>
+      </c>
+      <c r="V229">
+        <v>2</v>
+      </c>
+      <c r="W229">
+        <v>0</v>
+      </c>
+      <c r="X229">
+        <v>0</v>
+      </c>
+      <c r="Y229">
+        <v>0</v>
+      </c>
+      <c r="Z229">
+        <v>0</v>
+      </c>
+      <c r="AA229">
         <v>0</v>
       </c>
     </row>

--- a/Poland I Liga/Poland I Liga.xlsx
+++ b/Poland I Liga/Poland I Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -103,13 +103,10 @@
     <t>Poland I Liga</t>
   </si>
   <si>
-    <t>Zaglebie Sosnowiec</t>
-  </si>
-  <si>
     <t>Termalica BB Nieciecza</t>
   </si>
   <si>
-    <t>LKS Lodz</t>
+    <t>Podbeskidzie Bielsko Biala</t>
   </si>
   <si>
     <t>Chojniczanka Chojnice</t>
@@ -118,16 +115,19 @@
     <t>Gornik Leczna</t>
   </si>
   <si>
-    <t>Ruch Chorzow</t>
+    <t>LKS Lodz</t>
   </si>
   <si>
     <t>Stal Rzeszow</t>
   </si>
   <si>
-    <t>MKS Puszcza Niepolomice</t>
+    <t>Ruch Chorzow</t>
   </si>
   <si>
-    <t>Podbeskidzie Bielsko Biala</t>
+    <t>Zaglebie Sosnowiec</t>
+  </si>
+  <si>
+    <t>MKS Puszcza Niepolomice</t>
   </si>
   <si>
     <t>Wisla Krakow</t>
@@ -169,16 +169,16 @@
     <t>GKS Tychy 71</t>
   </si>
   <si>
+    <t>Skra Czestochowa</t>
+  </si>
+  <si>
     <t>Sandecja Nowy Sacz</t>
   </si>
   <si>
-    <t>Skra Czestochowa</t>
+    <t>H</t>
   </si>
   <si>
     <t>D</t>
-  </si>
-  <si>
-    <t>H</t>
   </si>
   <si>
     <t>A</t>
@@ -543,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC229"/>
+  <dimension ref="A1:AC228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5448048</v>
+        <v>5451608</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -655,10 +655,10 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -667,61 +667,61 @@
         <v>53</v>
       </c>
       <c r="K2">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L2">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M2">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="N2">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O2">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P2">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q2">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R2">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S2">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T2">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U2">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V2">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W2">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X2">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y2">
         <v>-1</v>
       </c>
       <c r="Z2">
+        <v>0.95</v>
+      </c>
+      <c r="AA2">
+        <v>-1</v>
+      </c>
+      <c r="AB2">
+        <v>0.4</v>
+      </c>
+      <c r="AC2">
         <v>-0.5</v>
-      </c>
-      <c r="AA2">
-        <v>0.4625</v>
-      </c>
-      <c r="AB2">
-        <v>-0.5</v>
-      </c>
-      <c r="AC2">
-        <v>0.475</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -729,7 +729,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5451608</v>
+        <v>5451607</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -744,73 +744,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K3">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="L3">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M3">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="N3">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="O3">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P3">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="Q3">
+        <v>-1.25</v>
+      </c>
+      <c r="R3">
+        <v>1.825</v>
+      </c>
+      <c r="S3">
+        <v>1.975</v>
+      </c>
+      <c r="T3">
+        <v>3.25</v>
+      </c>
+      <c r="U3">
+        <v>1.925</v>
+      </c>
+      <c r="V3">
+        <v>1.875</v>
+      </c>
+      <c r="W3">
+        <v>0.363</v>
+      </c>
+      <c r="X3">
+        <v>-1</v>
+      </c>
+      <c r="Y3">
+        <v>-1</v>
+      </c>
+      <c r="Z3">
         <v>-0.5</v>
       </c>
-      <c r="R3">
-        <v>1.95</v>
-      </c>
-      <c r="S3">
-        <v>1.85</v>
-      </c>
-      <c r="T3">
-        <v>2.75</v>
-      </c>
-      <c r="U3">
-        <v>1.8</v>
-      </c>
-      <c r="V3">
-        <v>2</v>
-      </c>
-      <c r="W3">
-        <v>0.909</v>
-      </c>
-      <c r="X3">
-        <v>-1</v>
-      </c>
-      <c r="Y3">
-        <v>-1</v>
-      </c>
-      <c r="Z3">
-        <v>0.95</v>
-      </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB3">
-        <v>0.4</v>
+        <v>0.925</v>
       </c>
       <c r="AC3">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -818,7 +818,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5448049</v>
+        <v>5448050</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -833,58 +833,58 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J4" t="s">
         <v>54</v>
       </c>
       <c r="K4">
-        <v>1.571</v>
+        <v>2.75</v>
       </c>
       <c r="L4">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M4">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="N4">
-        <v>1.444</v>
+        <v>2.4</v>
       </c>
       <c r="O4">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P4">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="Q4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S4">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T4">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U4">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V4">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W4">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y4">
         <v>-1</v>
@@ -896,10 +896,10 @@
         <v>-0</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC4">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -907,7 +907,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5448050</v>
+        <v>5447925</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -922,46 +922,46 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K5">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="L5">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M5">
-        <v>2.375</v>
+        <v>1.5</v>
       </c>
       <c r="N5">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="O5">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P5">
-        <v>2.7</v>
+        <v>1.615</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R5">
+        <v>2.05</v>
+      </c>
+      <c r="S5">
         <v>1.8</v>
       </c>
-      <c r="S5">
-        <v>2.05</v>
-      </c>
       <c r="T5">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U5">
         <v>2</v>
@@ -973,22 +973,22 @@
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z5">
+        <v>-1</v>
+      </c>
+      <c r="AA5">
+        <v>0.8</v>
+      </c>
+      <c r="AB5">
         <v>0</v>
       </c>
-      <c r="AA5">
+      <c r="AC5">
         <v>-0</v>
-      </c>
-      <c r="AB5">
-        <v>1</v>
-      </c>
-      <c r="AC5">
-        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -996,7 +996,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5447925</v>
+        <v>5448049</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1011,73 +1011,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
         <v>0</v>
       </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
       <c r="J6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K6">
-        <v>5.5</v>
+        <v>1.571</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M6">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="N6">
-        <v>4.5</v>
+        <v>1.444</v>
       </c>
       <c r="O6">
         <v>4</v>
       </c>
       <c r="P6">
-        <v>1.615</v>
+        <v>6</v>
       </c>
       <c r="Q6">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R6">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S6">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T6">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U6">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V6">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1085,7 +1085,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5451609</v>
+        <v>5451610</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1100,31 +1100,31 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
         <v>1</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
       <c r="J7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K7">
-        <v>1.3</v>
+        <v>1.444</v>
       </c>
       <c r="L7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="N7">
         <v>1.333</v>
       </c>
       <c r="O7">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="P7">
         <v>8</v>
@@ -1133,19 +1133,19 @@
         <v>-1.5</v>
       </c>
       <c r="R7">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S7">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T7">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U7">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V7">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W7">
         <v>0.333</v>
@@ -1160,13 +1160,13 @@
         <v>-1</v>
       </c>
       <c r="AA7">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC7">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1174,7 +1174,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5451610</v>
+        <v>5451609</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1189,31 +1189,31 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K8">
-        <v>1.444</v>
+        <v>1.3</v>
       </c>
       <c r="L8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M8">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="N8">
         <v>1.333</v>
       </c>
       <c r="O8">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="P8">
         <v>8</v>
@@ -1222,19 +1222,19 @@
         <v>-1.5</v>
       </c>
       <c r="R8">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S8">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T8">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U8">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V8">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W8">
         <v>0.333</v>
@@ -1249,13 +1249,13 @@
         <v>-1</v>
       </c>
       <c r="AA8">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB8">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1263,7 +1263,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5452381</v>
+        <v>5448048</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1278,73 +1278,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K9">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M9">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="N9">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="O9">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P9">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q9">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R9">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S9">
+        <v>1.925</v>
+      </c>
+      <c r="T9">
+        <v>2.25</v>
+      </c>
+      <c r="U9">
+        <v>1.85</v>
+      </c>
+      <c r="V9">
         <v>1.95</v>
       </c>
-      <c r="T9">
-        <v>3</v>
-      </c>
-      <c r="U9">
-        <v>2.025</v>
-      </c>
-      <c r="V9">
-        <v>1.825</v>
-      </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y9">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA9">
-        <v>0.95</v>
+        <v>0.4625</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC9">
-        <v>0.825</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1352,7 +1352,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5451607</v>
+        <v>5452381</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1367,73 +1367,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10">
+        <v>1.571</v>
+      </c>
+      <c r="L10">
         <v>4</v>
       </c>
-      <c r="I10">
-        <v>3</v>
-      </c>
-      <c r="J10" t="s">
-        <v>54</v>
-      </c>
-      <c r="K10">
-        <v>1.615</v>
-      </c>
-      <c r="L10">
-        <v>3.75</v>
-      </c>
       <c r="M10">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="N10">
-        <v>1.363</v>
+        <v>1.4</v>
       </c>
       <c r="O10">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P10">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q10">
         <v>-1.25</v>
       </c>
       <c r="R10">
+        <v>1.9</v>
+      </c>
+      <c r="S10">
+        <v>1.95</v>
+      </c>
+      <c r="T10">
+        <v>3</v>
+      </c>
+      <c r="U10">
+        <v>2.025</v>
+      </c>
+      <c r="V10">
         <v>1.825</v>
       </c>
-      <c r="S10">
-        <v>1.975</v>
-      </c>
-      <c r="T10">
-        <v>3.25</v>
-      </c>
-      <c r="U10">
-        <v>1.925</v>
-      </c>
-      <c r="V10">
-        <v>1.875</v>
-      </c>
       <c r="W10">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X10">
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z10">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA10">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AB10">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC10">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1456,7 +1456,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1542,10 +1542,10 @@
         <v>45083.66666666666</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K12">
         <v>1.8</v>
@@ -1631,10 +1631,10 @@
         <v>45088.54166666666</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1723,7 +1723,7 @@
         <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1732,7 +1732,7 @@
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K14">
         <v>2.25</v>
@@ -1812,7 +1812,7 @@
         <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H15">
         <v>3</v>
@@ -1821,7 +1821,7 @@
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K15">
         <v>2.25</v>
@@ -1987,7 +1987,7 @@
         <v>45129.52083333334</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G17" t="s">
         <v>38</v>
@@ -1999,7 +1999,7 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K17">
         <v>3.8</v>
@@ -2165,7 +2165,7 @@
         <v>45130.31944444445</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
         <v>48</v>
@@ -2177,7 +2177,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K19">
         <v>2.5</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K20">
         <v>2.7</v>
@@ -2355,7 +2355,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K21">
         <v>1.833</v>
@@ -2432,7 +2432,7 @@
         <v>45131.54166666666</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2521,7 +2521,7 @@
         <v>45135.54166666666</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G23" t="s">
         <v>39</v>
@@ -2533,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K23">
         <v>3.25</v>
@@ -2699,7 +2699,7 @@
         <v>45136.41666666666</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G25" t="s">
         <v>43</v>
@@ -2711,7 +2711,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K25">
         <v>1.727</v>
@@ -2788,7 +2788,7 @@
         <v>45136.52083333334</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G26" t="s">
         <v>48</v>
@@ -2800,7 +2800,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2877,7 +2877,7 @@
         <v>45136.625</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G27" t="s">
         <v>44</v>
@@ -3067,7 +3067,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K29">
         <v>2.15</v>
@@ -3144,7 +3144,7 @@
         <v>45137.54166666666</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G30" t="s">
         <v>50</v>
@@ -3245,7 +3245,7 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K31">
         <v>1.8</v>
@@ -3325,7 +3325,7 @@
         <v>43</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K32">
         <v>2.25</v>
@@ -3423,7 +3423,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K33">
         <v>1.909</v>
@@ -3503,7 +3503,7 @@
         <v>44</v>
       </c>
       <c r="G34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -3512,7 +3512,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K34">
         <v>1.8</v>
@@ -3592,7 +3592,7 @@
         <v>38</v>
       </c>
       <c r="G35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -3601,7 +3601,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K35">
         <v>1.5</v>
@@ -3681,7 +3681,7 @@
         <v>41</v>
       </c>
       <c r="G36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -3779,7 +3779,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K37">
         <v>3.2</v>
@@ -4037,7 +4037,7 @@
         <v>49</v>
       </c>
       <c r="G40" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K40">
         <v>2.875</v>
@@ -4123,7 +4123,7 @@
         <v>45149.54166666666</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G41" t="s">
         <v>41</v>
@@ -4135,7 +4135,7 @@
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K41">
         <v>1.8</v>
@@ -4224,7 +4224,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K42">
         <v>2.5</v>
@@ -4304,7 +4304,7 @@
         <v>46</v>
       </c>
       <c r="G43" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4313,7 +4313,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K43">
         <v>2.5</v>
@@ -4402,7 +4402,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K44">
         <v>3.1</v>
@@ -4479,7 +4479,7 @@
         <v>45150.625</v>
       </c>
       <c r="F45" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G45" t="s">
         <v>49</v>
@@ -4580,7 +4580,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K46">
         <v>1.727</v>
@@ -4657,7 +4657,7 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G47" t="s">
         <v>39</v>
@@ -4746,7 +4746,7 @@
         <v>45151.54166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G48" t="s">
         <v>40</v>
@@ -4924,10 +4924,10 @@
         <v>45156.54166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G50" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -4936,7 +4936,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K50">
         <v>1.909</v>
@@ -5105,7 +5105,7 @@
         <v>48</v>
       </c>
       <c r="G52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H52">
         <v>3</v>
@@ -5114,7 +5114,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K52">
         <v>2.25</v>
@@ -5194,7 +5194,7 @@
         <v>40</v>
       </c>
       <c r="G53" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5381,7 +5381,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K55">
         <v>1.85</v>
@@ -5461,7 +5461,7 @@
         <v>44</v>
       </c>
       <c r="G56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5470,7 +5470,7 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K56">
         <v>1.666</v>
@@ -5559,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K57">
         <v>2.875</v>
@@ -5737,7 +5737,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K59">
         <v>2.875</v>
@@ -5817,7 +5817,7 @@
         <v>45</v>
       </c>
       <c r="G60" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H60">
         <v>3</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K60">
         <v>2</v>
@@ -5915,7 +5915,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K61">
         <v>1.8</v>
@@ -6081,7 +6081,7 @@
         <v>45164.625</v>
       </c>
       <c r="F63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G63" t="s">
         <v>48</v>
@@ -6093,7 +6093,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K63">
         <v>2.875</v>
@@ -6182,7 +6182,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K64">
         <v>2</v>
@@ -6259,7 +6259,7 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G65" t="s">
         <v>41</v>
@@ -6271,7 +6271,7 @@
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K65">
         <v>1.8</v>
@@ -6348,7 +6348,7 @@
         <v>45165.54166666666</v>
       </c>
       <c r="F66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G66" t="s">
         <v>43</v>
@@ -6360,7 +6360,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K66">
         <v>1.727</v>
@@ -6440,7 +6440,7 @@
         <v>46</v>
       </c>
       <c r="G67" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6449,7 +6449,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K67">
         <v>2.2</v>
@@ -6529,7 +6529,7 @@
         <v>49</v>
       </c>
       <c r="G68" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -6627,7 +6627,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K69">
         <v>2.25</v>
@@ -6716,7 +6716,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K70">
         <v>2.55</v>
@@ -6805,7 +6805,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K71">
         <v>1.5</v>
@@ -6885,7 +6885,7 @@
         <v>43</v>
       </c>
       <c r="G72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -6971,7 +6971,7 @@
         <v>45172.31944444445</v>
       </c>
       <c r="F73" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G73" t="s">
         <v>45</v>
@@ -6983,7 +6983,7 @@
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K73">
         <v>2.7</v>
@@ -7060,7 +7060,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F74" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G74" t="s">
         <v>47</v>
@@ -7072,7 +7072,7 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K74">
         <v>2.3</v>
@@ -7137,7 +7137,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6803727</v>
+        <v>6805719</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7149,58 +7149,58 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F75" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G75" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K75">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="L75">
         <v>3.3</v>
       </c>
       <c r="M75">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="N75">
-        <v>3.75</v>
+        <v>2.05</v>
       </c>
       <c r="O75">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P75">
+        <v>3.2</v>
+      </c>
+      <c r="Q75">
+        <v>-0.25</v>
+      </c>
+      <c r="R75">
         <v>1.85</v>
       </c>
-      <c r="Q75">
-        <v>0.5</v>
-      </c>
-      <c r="R75">
-        <v>1.925</v>
-      </c>
       <c r="S75">
+        <v>2</v>
+      </c>
+      <c r="T75">
+        <v>2.5</v>
+      </c>
+      <c r="U75">
         <v>1.875</v>
       </c>
-      <c r="T75">
-        <v>2.75</v>
-      </c>
-      <c r="U75">
-        <v>1.925</v>
-      </c>
       <c r="V75">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W75">
-        <v>2.75</v>
+        <v>1.05</v>
       </c>
       <c r="X75">
         <v>-1</v>
@@ -7209,16 +7209,16 @@
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA75">
         <v>-1</v>
       </c>
       <c r="AB75">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AC75">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7226,7 +7226,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6805719</v>
+        <v>6803727</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7238,58 +7238,58 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F76" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G76" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K76">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="L76">
         <v>3.3</v>
       </c>
       <c r="M76">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="N76">
-        <v>2.05</v>
+        <v>3.75</v>
       </c>
       <c r="O76">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P76">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="Q76">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R76">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S76">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T76">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U76">
+        <v>1.925</v>
+      </c>
+      <c r="V76">
         <v>1.875</v>
       </c>
-      <c r="V76">
-        <v>1.975</v>
-      </c>
       <c r="W76">
-        <v>1.05</v>
+        <v>2.75</v>
       </c>
       <c r="X76">
         <v>-1</v>
@@ -7298,16 +7298,16 @@
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA76">
         <v>-1</v>
       </c>
       <c r="AB76">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7327,7 +7327,7 @@
         <v>45184.54166666666</v>
       </c>
       <c r="F77" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G77" t="s">
         <v>48</v>
@@ -7419,7 +7419,7 @@
         <v>47</v>
       </c>
       <c r="G78" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7606,7 +7606,7 @@
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K80">
         <v>1.222</v>
@@ -7695,7 +7695,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K81">
         <v>2.05</v>
@@ -7784,7 +7784,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K82">
         <v>1.95</v>
@@ -7861,11 +7861,11 @@
         <v>45186.45833333334</v>
       </c>
       <c r="F83" t="s">
+        <v>29</v>
+      </c>
+      <c r="G83" t="s">
         <v>30</v>
       </c>
-      <c r="G83" t="s">
-        <v>37</v>
-      </c>
       <c r="H83">
         <v>2</v>
       </c>
@@ -7873,7 +7873,7 @@
         <v>2</v>
       </c>
       <c r="J83" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K83">
         <v>1.85</v>
@@ -7962,7 +7962,7 @@
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K84">
         <v>2.375</v>
@@ -8039,7 +8039,7 @@
         <v>45187.54166666666</v>
       </c>
       <c r="F85" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G85" t="s">
         <v>49</v>
@@ -8051,7 +8051,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K85">
         <v>1.909</v>
@@ -8217,10 +8217,10 @@
         <v>45191.54166666666</v>
       </c>
       <c r="F87" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G87" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -8229,7 +8229,7 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K87">
         <v>1.85</v>
@@ -8318,7 +8318,7 @@
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K88">
         <v>2.15</v>
@@ -8407,7 +8407,7 @@
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K89">
         <v>2.05</v>
@@ -8585,7 +8585,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K91">
         <v>4.2</v>
@@ -8674,7 +8674,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K92">
         <v>1.8</v>
@@ -8754,7 +8754,7 @@
         <v>43</v>
       </c>
       <c r="G93" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -8840,10 +8840,10 @@
         <v>45193.54166666666</v>
       </c>
       <c r="F94" t="s">
+        <v>36</v>
+      </c>
+      <c r="G94" t="s">
         <v>29</v>
-      </c>
-      <c r="G94" t="s">
-        <v>30</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -8932,7 +8932,7 @@
         <v>42</v>
       </c>
       <c r="G95" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H95">
         <v>2</v>
@@ -8941,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K95">
         <v>2.875</v>
@@ -9030,7 +9030,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K96">
         <v>1.85</v>
@@ -9119,7 +9119,7 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K97">
         <v>1.3</v>
@@ -9208,7 +9208,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K98">
         <v>2.1</v>
@@ -9285,7 +9285,7 @@
         <v>45199.625</v>
       </c>
       <c r="F99" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G99" t="s">
         <v>49</v>
@@ -9297,7 +9297,7 @@
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K99">
         <v>2.05</v>
@@ -9386,7 +9386,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K100">
         <v>2</v>
@@ -9463,7 +9463,7 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G101" t="s">
         <v>45</v>
@@ -9475,7 +9475,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K101">
         <v>1.85</v>
@@ -9564,7 +9564,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K102">
         <v>2</v>
@@ -9641,10 +9641,10 @@
         <v>45201.54166666666</v>
       </c>
       <c r="F103" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G103" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9653,7 +9653,7 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K103">
         <v>2.375</v>
@@ -9742,7 +9742,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K104">
         <v>4</v>
@@ -9822,7 +9822,7 @@
         <v>45</v>
       </c>
       <c r="G105" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9831,7 +9831,7 @@
         <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K105">
         <v>1.75</v>
@@ -9908,10 +9908,10 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F106" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G106" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -10009,7 +10009,7 @@
         <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K107">
         <v>1.65</v>
@@ -10276,7 +10276,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K110">
         <v>2.7</v>
@@ -10341,7 +10341,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6803754</v>
+        <v>6805706</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10353,76 +10353,76 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F111" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G111" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H111">
         <v>0</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J111" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K111">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L111">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M111">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="N111">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="O111">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P111">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="Q111">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R111">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S111">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T111">
         <v>2.5</v>
       </c>
       <c r="U111">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V111">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W111">
         <v>-1</v>
       </c>
       <c r="X111">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z111">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB111">
         <v>-1</v>
       </c>
       <c r="AC111">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10430,7 +10430,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6805706</v>
+        <v>6803754</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10442,76 +10442,76 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F112" t="s">
+        <v>47</v>
+      </c>
+      <c r="G112" t="s">
         <v>29</v>
-      </c>
-      <c r="G112" t="s">
-        <v>42</v>
       </c>
       <c r="H112">
         <v>0</v>
       </c>
       <c r="I112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K112">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L112">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M112">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="N112">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="O112">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P112">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="Q112">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R112">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S112">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T112">
         <v>2.5</v>
       </c>
       <c r="U112">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V112">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W112">
         <v>-1</v>
       </c>
       <c r="X112">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y112">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA112">
+        <v>-0</v>
+      </c>
+      <c r="AB112">
+        <v>-1</v>
+      </c>
+      <c r="AC112">
         <v>0.95</v>
-      </c>
-      <c r="AB112">
-        <v>-1</v>
-      </c>
-      <c r="AC112">
-        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10632,7 +10632,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K114">
         <v>1.4</v>
@@ -10709,10 +10709,10 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F115" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G115" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -10721,7 +10721,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K115">
         <v>1.833</v>
@@ -10801,7 +10801,7 @@
         <v>50</v>
       </c>
       <c r="G116" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H116">
         <v>3</v>
@@ -10810,7 +10810,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K116">
         <v>2.1</v>
@@ -10899,7 +10899,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K117">
         <v>1.95</v>
@@ -10979,7 +10979,7 @@
         <v>46</v>
       </c>
       <c r="G118" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H118">
         <v>2</v>
@@ -10988,7 +10988,7 @@
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K118">
         <v>2.25</v>
@@ -11065,7 +11065,7 @@
         <v>45221.54166666666</v>
       </c>
       <c r="F119" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G119" t="s">
         <v>47</v>
@@ -11077,7 +11077,7 @@
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K119">
         <v>2.3</v>
@@ -11166,7 +11166,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K120">
         <v>1.75</v>
@@ -11255,7 +11255,7 @@
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K121">
         <v>1.5</v>
@@ -11421,7 +11421,7 @@
         <v>45226.64583333334</v>
       </c>
       <c r="F123" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G123" t="s">
         <v>38</v>
@@ -11433,7 +11433,7 @@
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K123">
         <v>3.2</v>
@@ -11513,7 +11513,7 @@
         <v>45</v>
       </c>
       <c r="G124" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -11522,7 +11522,7 @@
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K124">
         <v>1.833</v>
@@ -11599,7 +11599,7 @@
         <v>45227.52083333334</v>
       </c>
       <c r="F125" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G125" t="s">
         <v>50</v>
@@ -11688,10 +11688,10 @@
         <v>45227.625</v>
       </c>
       <c r="F126" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G126" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H126">
         <v>3</v>
@@ -11700,7 +11700,7 @@
         <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K126">
         <v>1.727</v>
@@ -11789,7 +11789,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K127">
         <v>2.5</v>
@@ -11967,7 +11967,7 @@
         <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K129">
         <v>2.9</v>
@@ -12225,7 +12225,7 @@
         <v>38</v>
       </c>
       <c r="G132" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -12234,7 +12234,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K132">
         <v>1.363</v>
@@ -12314,7 +12314,7 @@
         <v>39</v>
       </c>
       <c r="G133" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H133">
         <v>1</v>
@@ -12323,7 +12323,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K133">
         <v>1.7</v>
@@ -12403,7 +12403,7 @@
         <v>46</v>
       </c>
       <c r="G134" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -12492,7 +12492,7 @@
         <v>42</v>
       </c>
       <c r="G135" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -12501,7 +12501,7 @@
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K135">
         <v>3.1</v>
@@ -12667,7 +12667,7 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F137" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G137" t="s">
         <v>47</v>
@@ -12679,7 +12679,7 @@
         <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K137">
         <v>2.45</v>
@@ -12768,7 +12768,7 @@
         <v>2</v>
       </c>
       <c r="J138" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K138">
         <v>2.5</v>
@@ -12857,7 +12857,7 @@
         <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K139">
         <v>3.1</v>
@@ -12946,7 +12946,7 @@
         <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K140">
         <v>2.4</v>
@@ -13035,7 +13035,7 @@
         <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K141">
         <v>3</v>
@@ -13112,7 +13112,7 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F142" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G142" t="s">
         <v>42</v>
@@ -13124,7 +13124,7 @@
         <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K142">
         <v>2.1</v>
@@ -13213,7 +13213,7 @@
         <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K143">
         <v>2.15</v>
@@ -13290,10 +13290,10 @@
         <v>45241.66666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G144" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H144">
         <v>1</v>
@@ -13391,7 +13391,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K145">
         <v>2</v>
@@ -13557,7 +13557,7 @@
         <v>45242.58333333334</v>
       </c>
       <c r="F147" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G147" t="s">
         <v>44</v>
@@ -13569,7 +13569,7 @@
         <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K147">
         <v>3.1</v>
@@ -13646,7 +13646,7 @@
         <v>45242.58333333334</v>
       </c>
       <c r="F148" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G148" t="s">
         <v>39</v>
@@ -13738,7 +13738,7 @@
         <v>41</v>
       </c>
       <c r="G149" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H149">
         <v>3</v>
@@ -13747,7 +13747,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K149">
         <v>2.8</v>
@@ -13836,7 +13836,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K150">
         <v>2</v>
@@ -13913,10 +13913,10 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F151" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G151" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H151">
         <v>3</v>
@@ -13925,7 +13925,7 @@
         <v>0</v>
       </c>
       <c r="J151" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K151">
         <v>2.1</v>
@@ -14014,7 +14014,7 @@
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K152">
         <v>1.727</v>
@@ -14103,7 +14103,7 @@
         <v>2</v>
       </c>
       <c r="J153" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K153">
         <v>1.727</v>
@@ -14192,7 +14192,7 @@
         <v>0</v>
       </c>
       <c r="J154" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K154">
         <v>1.8</v>
@@ -14361,7 +14361,7 @@
         <v>44</v>
       </c>
       <c r="G156" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H156">
         <v>2</v>
@@ -14370,7 +14370,7 @@
         <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K156">
         <v>1.533</v>
@@ -14450,7 +14450,7 @@
         <v>50</v>
       </c>
       <c r="G157" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H157">
         <v>3</v>
@@ -14459,7 +14459,7 @@
         <v>2</v>
       </c>
       <c r="J157" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K157">
         <v>2.25</v>
@@ -14539,7 +14539,7 @@
         <v>42</v>
       </c>
       <c r="G158" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H158">
         <v>2</v>
@@ -14548,7 +14548,7 @@
         <v>2</v>
       </c>
       <c r="J158" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K158">
         <v>2.3</v>
@@ -14625,7 +14625,7 @@
         <v>45261.6875</v>
       </c>
       <c r="F159" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G159" t="s">
         <v>38</v>
@@ -14637,7 +14637,7 @@
         <v>1</v>
       </c>
       <c r="J159" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K159">
         <v>2.8</v>
@@ -14726,7 +14726,7 @@
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K160">
         <v>2.75</v>
@@ -14815,7 +14815,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K161">
         <v>2.45</v>
@@ -14904,7 +14904,7 @@
         <v>0</v>
       </c>
       <c r="J162" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K162">
         <v>2.8</v>
@@ -14993,7 +14993,7 @@
         <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K163">
         <v>1.8</v>
@@ -15070,7 +15070,7 @@
         <v>45268.6875</v>
       </c>
       <c r="F164" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G164" t="s">
         <v>40</v>
@@ -15162,7 +15162,7 @@
         <v>48</v>
       </c>
       <c r="G165" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H165">
         <v>2</v>
@@ -15171,7 +15171,7 @@
         <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K165">
         <v>1.727</v>
@@ -15260,7 +15260,7 @@
         <v>0</v>
       </c>
       <c r="J166" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K166">
         <v>1.533</v>
@@ -15414,7 +15414,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6803793</v>
+        <v>6803794</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15426,76 +15426,76 @@
         <v>45270.36111111111</v>
       </c>
       <c r="F168" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G168" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J168" t="s">
         <v>53</v>
       </c>
       <c r="K168">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="L168">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M168">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="N168">
-        <v>2.1</v>
+        <v>1.363</v>
       </c>
       <c r="O168">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P168">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="Q168">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R168">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S168">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T168">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U168">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V168">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W168">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X168">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y168">
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA168">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB168">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC168">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15503,7 +15503,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6803794</v>
+        <v>6803793</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15515,76 +15515,76 @@
         <v>45270.36111111111</v>
       </c>
       <c r="F169" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G169" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H169">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J169" t="s">
         <v>54</v>
       </c>
       <c r="K169">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="L169">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M169">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="N169">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="O169">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P169">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q169">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R169">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S169">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T169">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U169">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V169">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W169">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X169">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y169">
         <v>-1</v>
       </c>
       <c r="Z169">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA169">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB169">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC169">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15604,7 +15604,7 @@
         <v>45271.58333333334</v>
       </c>
       <c r="F170" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G170" t="s">
         <v>39</v>
@@ -15616,7 +15616,7 @@
         <v>1</v>
       </c>
       <c r="J170" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K170">
         <v>2.25</v>
@@ -15705,7 +15705,7 @@
         <v>0</v>
       </c>
       <c r="J171" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K171">
         <v>2.875</v>
@@ -15785,7 +15785,7 @@
         <v>48</v>
       </c>
       <c r="G172" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H172">
         <v>2</v>
@@ -15794,7 +15794,7 @@
         <v>0</v>
       </c>
       <c r="J172" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K172">
         <v>1.727</v>
@@ -15963,7 +15963,7 @@
         <v>39</v>
       </c>
       <c r="G174" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H174">
         <v>0</v>
@@ -15972,7 +15972,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K174">
         <v>1.55</v>
@@ -16061,7 +16061,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K175">
         <v>2.7</v>
@@ -16150,7 +16150,7 @@
         <v>1</v>
       </c>
       <c r="J176" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K176">
         <v>1.363</v>
@@ -16230,7 +16230,7 @@
         <v>43</v>
       </c>
       <c r="G177" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H177">
         <v>0</v>
@@ -16319,7 +16319,7 @@
         <v>50</v>
       </c>
       <c r="G178" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H178">
         <v>2</v>
@@ -16328,7 +16328,7 @@
         <v>0</v>
       </c>
       <c r="J178" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K178">
         <v>2.15</v>
@@ -16408,7 +16408,7 @@
         <v>44</v>
       </c>
       <c r="G179" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H179">
         <v>2</v>
@@ -16417,7 +16417,7 @@
         <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K179">
         <v>2.05</v>
@@ -16494,7 +16494,7 @@
         <v>45279.5625</v>
       </c>
       <c r="F180" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G180" t="s">
         <v>41</v>
@@ -16595,7 +16595,7 @@
         <v>2</v>
       </c>
       <c r="J181" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K181">
         <v>3</v>
@@ -16672,7 +16672,7 @@
         <v>45338.58333333334</v>
       </c>
       <c r="F182" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G182" t="s">
         <v>44</v>
@@ -16684,7 +16684,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K182">
         <v>3.75</v>
@@ -16773,7 +16773,7 @@
         <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K183">
         <v>2.25</v>
@@ -16850,7 +16850,7 @@
         <v>45339.45833333334</v>
       </c>
       <c r="F184" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G184" t="s">
         <v>49</v>
@@ -16862,7 +16862,7 @@
         <v>2</v>
       </c>
       <c r="J184" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K184">
         <v>1.833</v>
@@ -17040,7 +17040,7 @@
         <v>1</v>
       </c>
       <c r="J186" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K186">
         <v>2.05</v>
@@ -17117,7 +17117,7 @@
         <v>45340.36111111111</v>
       </c>
       <c r="F187" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G187" t="s">
         <v>38</v>
@@ -17206,7 +17206,7 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G188" t="s">
         <v>41</v>
@@ -17218,7 +17218,7 @@
         <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K188">
         <v>1.55</v>
@@ -17295,7 +17295,7 @@
         <v>45340.58333333334</v>
       </c>
       <c r="F189" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G189" t="s">
         <v>43</v>
@@ -17396,7 +17396,7 @@
         <v>0</v>
       </c>
       <c r="J190" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K190">
         <v>2.3</v>
@@ -17473,7 +17473,7 @@
         <v>45342.58333333334</v>
       </c>
       <c r="F191" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G191" t="s">
         <v>50</v>
@@ -17485,7 +17485,7 @@
         <v>0</v>
       </c>
       <c r="J191" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K191">
         <v>2.875</v>
@@ -17574,7 +17574,7 @@
         <v>1</v>
       </c>
       <c r="J192" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K192">
         <v>1.666</v>
@@ -17740,7 +17740,7 @@
         <v>45346.36111111111</v>
       </c>
       <c r="F194" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G194" t="s">
         <v>46</v>
@@ -17841,7 +17841,7 @@
         <v>1</v>
       </c>
       <c r="J195" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K195">
         <v>1.9</v>
@@ -17921,7 +17921,7 @@
         <v>40</v>
       </c>
       <c r="G196" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -17930,7 +17930,7 @@
         <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K196">
         <v>2.45</v>
@@ -18010,7 +18010,7 @@
         <v>39</v>
       </c>
       <c r="G197" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H197">
         <v>5</v>
@@ -18019,7 +18019,7 @@
         <v>1</v>
       </c>
       <c r="J197" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K197">
         <v>1.571</v>
@@ -18188,7 +18188,7 @@
         <v>49</v>
       </c>
       <c r="G199" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H199">
         <v>1</v>
@@ -18197,7 +18197,7 @@
         <v>0</v>
       </c>
       <c r="J199" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K199">
         <v>2.3</v>
@@ -18277,7 +18277,7 @@
         <v>41</v>
       </c>
       <c r="G200" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H200">
         <v>0</v>
@@ -18375,7 +18375,7 @@
         <v>0</v>
       </c>
       <c r="J201" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K201">
         <v>2.3</v>
@@ -18452,7 +18452,7 @@
         <v>45350.58333333334</v>
       </c>
       <c r="F202" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G202" t="s">
         <v>40</v>
@@ -18541,7 +18541,7 @@
         <v>45352.58333333334</v>
       </c>
       <c r="F203" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G203" t="s">
         <v>44</v>
@@ -18731,7 +18731,7 @@
         <v>1</v>
       </c>
       <c r="J205" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K205">
         <v>2</v>
@@ -18808,7 +18808,7 @@
         <v>45353.45833333334</v>
       </c>
       <c r="F206" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G206" t="s">
         <v>48</v>
@@ -18820,7 +18820,7 @@
         <v>2</v>
       </c>
       <c r="J206" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K206">
         <v>2</v>
@@ -18986,7 +18986,7 @@
         <v>45354.36111111111</v>
       </c>
       <c r="F208" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G208" t="s">
         <v>40</v>
@@ -18998,7 +18998,7 @@
         <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K208">
         <v>2.2</v>
@@ -19087,7 +19087,7 @@
         <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K209">
         <v>1.909</v>
@@ -19164,10 +19164,10 @@
         <v>45354.58333333334</v>
       </c>
       <c r="F210" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G210" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H210">
         <v>0</v>
@@ -19176,7 +19176,7 @@
         <v>0</v>
       </c>
       <c r="J210" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K210">
         <v>2.5</v>
@@ -19265,7 +19265,7 @@
         <v>0</v>
       </c>
       <c r="J211" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K211">
         <v>1.533</v>
@@ -19345,7 +19345,7 @@
         <v>43</v>
       </c>
       <c r="G212" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H212">
         <v>2</v>
@@ -19354,7 +19354,7 @@
         <v>0</v>
       </c>
       <c r="J212" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K212">
         <v>3.2</v>
@@ -19443,7 +19443,7 @@
         <v>1</v>
       </c>
       <c r="J213" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K213">
         <v>2.2</v>
@@ -19508,7 +19508,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6803822</v>
+        <v>6805672</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19520,13 +19520,13 @@
         <v>45360.45833333334</v>
       </c>
       <c r="F214" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G214" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I214">
         <v>1</v>
@@ -19535,61 +19535,61 @@
         <v>54</v>
       </c>
       <c r="K214">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="L214">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M214">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="N214">
-        <v>2.625</v>
+        <v>1.75</v>
       </c>
       <c r="O214">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P214">
-        <v>2.625</v>
+        <v>4.75</v>
       </c>
       <c r="Q214">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R214">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S214">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T214">
         <v>2.5</v>
       </c>
       <c r="U214">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V214">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W214">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X214">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y214">
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA214">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB214">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC214">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19597,7 +19597,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6805672</v>
+        <v>6803822</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19609,13 +19609,13 @@
         <v>45360.45833333334</v>
       </c>
       <c r="F215" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G215" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I215">
         <v>1</v>
@@ -19624,61 +19624,61 @@
         <v>53</v>
       </c>
       <c r="K215">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="L215">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M215">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="N215">
-        <v>1.75</v>
+        <v>2.625</v>
       </c>
       <c r="O215">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P215">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q215">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R215">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S215">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T215">
         <v>2.5</v>
       </c>
       <c r="U215">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V215">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W215">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X215">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y215">
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA215">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB215">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC215">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19710,7 +19710,7 @@
         <v>2</v>
       </c>
       <c r="J216" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K216">
         <v>2.05</v>
@@ -19787,7 +19787,7 @@
         <v>45361.36111111111</v>
       </c>
       <c r="F217" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G217" t="s">
         <v>45</v>
@@ -19965,7 +19965,7 @@
         <v>45361.58333333334</v>
       </c>
       <c r="F219" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G219" t="s">
         <v>46</v>
@@ -19977,7 +19977,7 @@
         <v>1</v>
       </c>
       <c r="J219" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K219">
         <v>2.75</v>
@@ -20057,7 +20057,7 @@
         <v>48</v>
       </c>
       <c r="G220" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H220">
         <v>2</v>
@@ -20066,7 +20066,7 @@
         <v>1</v>
       </c>
       <c r="J220" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K220">
         <v>1.8</v>
@@ -20148,6 +20148,15 @@
       <c r="G221" t="s">
         <v>48</v>
       </c>
+      <c r="H221">
+        <v>2</v>
+      </c>
+      <c r="I221">
+        <v>2</v>
+      </c>
+      <c r="J221" t="s">
+        <v>54</v>
+      </c>
       <c r="K221">
         <v>3</v>
       </c>
@@ -20158,46 +20167,52 @@
         <v>2.15</v>
       </c>
       <c r="N221">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="O221">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P221">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="Q221">
         <v>0.25</v>
       </c>
       <c r="R221">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S221">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T221">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U221">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V221">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W221">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X221">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="Y221">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z221">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA221">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB221">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC221">
+        <v>-1</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20220,7 +20235,16 @@
         <v>45</v>
       </c>
       <c r="G222" t="s">
-        <v>29</v>
+        <v>36</v>
+      </c>
+      <c r="H222">
+        <v>4</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222" t="s">
+        <v>53</v>
       </c>
       <c r="K222">
         <v>1.5</v>
@@ -20232,46 +20256,52 @@
         <v>5.5</v>
       </c>
       <c r="N222">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O222">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P222">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="Q222">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R222">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S222">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T222">
         <v>2.5</v>
       </c>
       <c r="U222">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V222">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W222">
-        <v>0</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X222">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y222">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z222">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA222">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB222">
+        <v>0.8</v>
+      </c>
+      <c r="AC222">
+        <v>-1</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20296,6 +20326,15 @@
       <c r="G223" t="s">
         <v>44</v>
       </c>
+      <c r="H223">
+        <v>2</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223" t="s">
+        <v>53</v>
+      </c>
       <c r="K223">
         <v>1.65</v>
       </c>
@@ -20309,43 +20348,49 @@
         <v>1.65</v>
       </c>
       <c r="O223">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P223">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q223">
         <v>-0.75</v>
       </c>
       <c r="R223">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S223">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T223">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U223">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V223">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W223">
-        <v>0</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X223">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y223">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z223">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA223">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB223">
+        <v>-1</v>
+      </c>
+      <c r="AC223">
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20365,11 +20410,20 @@
         <v>45367.36111111111</v>
       </c>
       <c r="F224" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G224" t="s">
         <v>49</v>
       </c>
+      <c r="H224">
+        <v>1</v>
+      </c>
+      <c r="I224">
+        <v>4</v>
+      </c>
+      <c r="J224" t="s">
+        <v>55</v>
+      </c>
       <c r="K224">
         <v>1.55</v>
       </c>
@@ -20380,49 +20434,55 @@
         <v>5</v>
       </c>
       <c r="N224">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="O224">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P224">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Q224">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R224">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S224">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T224">
         <v>2.75</v>
       </c>
       <c r="U224">
+        <v>1.925</v>
+      </c>
+      <c r="V224">
         <v>1.875</v>
       </c>
-      <c r="V224">
-        <v>1.975</v>
-      </c>
       <c r="W224">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X224">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y224">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="Z224">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:27">
+        <v>1.025</v>
+      </c>
+      <c r="AB224">
+        <v>0.925</v>
+      </c>
+      <c r="AC224">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:29">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -20444,6 +20504,15 @@
       <c r="G225" t="s">
         <v>41</v>
       </c>
+      <c r="H225">
+        <v>1</v>
+      </c>
+      <c r="I225">
+        <v>2</v>
+      </c>
+      <c r="J225" t="s">
+        <v>55</v>
+      </c>
       <c r="K225">
         <v>1.571</v>
       </c>
@@ -20454,49 +20523,55 @@
         <v>5</v>
       </c>
       <c r="N225">
-        <v>1.571</v>
+        <v>1.615</v>
       </c>
       <c r="O225">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P225">
         <v>5</v>
       </c>
       <c r="Q225">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R225">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S225">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T225">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U225">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V225">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W225">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X225">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y225">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z225">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA225">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:27">
+        <v>1</v>
+      </c>
+      <c r="AB225">
+        <v>0.95</v>
+      </c>
+      <c r="AC225">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:29">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -20513,11 +20588,20 @@
         <v>45367.5625</v>
       </c>
       <c r="F226" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G226" t="s">
         <v>40</v>
       </c>
+      <c r="H226">
+        <v>2</v>
+      </c>
+      <c r="I226">
+        <v>1</v>
+      </c>
+      <c r="J226" t="s">
+        <v>53</v>
+      </c>
       <c r="K226">
         <v>2.6</v>
       </c>
@@ -20528,54 +20612,60 @@
         <v>2.5</v>
       </c>
       <c r="N226">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="O226">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P226">
+        <v>2.3</v>
+      </c>
+      <c r="Q226">
+        <v>0.25</v>
+      </c>
+      <c r="R226">
+        <v>1.75</v>
+      </c>
+      <c r="S226">
+        <v>2.05</v>
+      </c>
+      <c r="T226">
         <v>2.5</v>
       </c>
-      <c r="Q226">
-        <v>0</v>
-      </c>
-      <c r="R226">
-        <v>2</v>
-      </c>
-      <c r="S226">
-        <v>1.85</v>
-      </c>
-      <c r="T226">
-        <v>2.75</v>
-      </c>
       <c r="U226">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V226">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W226">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="X226">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y226">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z226">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA226">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB226">
+        <v>0.925</v>
+      </c>
+      <c r="AC226">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:29">
       <c r="A227" s="1">
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6803828</v>
+        <v>6803831</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20584,49 +20674,49 @@
         <v>28</v>
       </c>
       <c r="E227" s="2">
-        <v>45368.36111111111</v>
+        <v>45368.45833333334</v>
       </c>
       <c r="F227" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G227" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K227">
-        <v>1.55</v>
+        <v>2.25</v>
       </c>
       <c r="L227">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M227">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="N227">
-        <v>1.55</v>
+        <v>2.25</v>
       </c>
       <c r="O227">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="P227">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q227">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R227">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S227">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T227">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U227">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V227">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W227">
         <v>0</v>
@@ -20644,12 +20734,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:27">
+    <row r="228" spans="1:29">
       <c r="A228" s="1">
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6803831</v>
+        <v>7948879</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20658,49 +20748,49 @@
         <v>28</v>
       </c>
       <c r="E228" s="2">
-        <v>45368.45833333334</v>
+        <v>45368.58333333334</v>
       </c>
       <c r="F228" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G228" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="K228">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L228">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M228">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="N228">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="O228">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P228">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q228">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R228">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S228">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T228">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U228">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V228">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W228">
         <v>0</v>
@@ -20715,80 +20805,6 @@
         <v>0</v>
       </c>
       <c r="AA228">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:27">
-      <c r="A229" s="1">
-        <v>227</v>
-      </c>
-      <c r="B229">
-        <v>7948879</v>
-      </c>
-      <c r="C229" t="s">
-        <v>28</v>
-      </c>
-      <c r="D229" t="s">
-        <v>28</v>
-      </c>
-      <c r="E229" s="2">
-        <v>45368.58333333334</v>
-      </c>
-      <c r="F229" t="s">
-        <v>47</v>
-      </c>
-      <c r="G229" t="s">
-        <v>37</v>
-      </c>
-      <c r="K229">
-        <v>1.8</v>
-      </c>
-      <c r="L229">
-        <v>3.5</v>
-      </c>
-      <c r="M229">
-        <v>4</v>
-      </c>
-      <c r="N229">
-        <v>1.8</v>
-      </c>
-      <c r="O229">
-        <v>3.5</v>
-      </c>
-      <c r="P229">
-        <v>4</v>
-      </c>
-      <c r="Q229">
-        <v>-0.5</v>
-      </c>
-      <c r="R229">
-        <v>1.825</v>
-      </c>
-      <c r="S229">
-        <v>2.025</v>
-      </c>
-      <c r="T229">
-        <v>2.5</v>
-      </c>
-      <c r="U229">
-        <v>1.85</v>
-      </c>
-      <c r="V229">
-        <v>2</v>
-      </c>
-      <c r="W229">
-        <v>0</v>
-      </c>
-      <c r="X229">
-        <v>0</v>
-      </c>
-      <c r="Y229">
-        <v>0</v>
-      </c>
-      <c r="Z229">
-        <v>0</v>
-      </c>
-      <c r="AA229">
         <v>0</v>
       </c>
     </row>

--- a/Poland I Liga/Poland I Liga.xlsx
+++ b/Poland I Liga/Poland I Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -103,31 +103,31 @@
     <t>Poland I Liga</t>
   </si>
   <si>
-    <t>Termalica BB Nieciecza</t>
-  </si>
-  <si>
-    <t>Podbeskidzie Bielsko Biala</t>
-  </si>
-  <si>
-    <t>Chojniczanka Chojnice</t>
+    <t>LKS Lodz</t>
   </si>
   <si>
     <t>Gornik Leczna</t>
-  </si>
-  <si>
-    <t>LKS Lodz</t>
-  </si>
-  <si>
-    <t>Stal Rzeszow</t>
-  </si>
-  <si>
-    <t>Ruch Chorzow</t>
   </si>
   <si>
     <t>Zaglebie Sosnowiec</t>
   </si>
   <si>
     <t>MKS Puszcza Niepolomice</t>
+  </si>
+  <si>
+    <t>Podbeskidzie Bielsko Biala</t>
+  </si>
+  <si>
+    <t>Ruch Chorzow</t>
+  </si>
+  <si>
+    <t>Stal Rzeszow</t>
+  </si>
+  <si>
+    <t>Termalica BB Nieciecza</t>
+  </si>
+  <si>
+    <t>Chojniczanka Chojnice</t>
   </si>
   <si>
     <t>Wisla Krakow</t>
@@ -169,19 +169,19 @@
     <t>GKS Tychy 71</t>
   </si>
   <si>
-    <t>Skra Czestochowa</t>
+    <t>Sandecja Nowy Sacz</t>
   </si>
   <si>
-    <t>Sandecja Nowy Sacz</t>
+    <t>Skra Czestochowa</t>
   </si>
   <si>
     <t>H</t>
   </si>
   <si>
-    <t>D</t>
+    <t>A</t>
   </si>
   <si>
-    <t>A</t>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -543,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC228"/>
+  <dimension ref="A1:AC238"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5451608</v>
+        <v>5448049</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -655,55 +655,55 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>53</v>
       </c>
       <c r="K2">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L2">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M2">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N2">
-        <v>1.909</v>
+        <v>1.444</v>
       </c>
       <c r="O2">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P2">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="Q2">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R2">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S2">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T2">
         <v>2.75</v>
       </c>
       <c r="U2">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V2">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W2">
-        <v>0.909</v>
+        <v>0.444</v>
       </c>
       <c r="X2">
         <v>-1</v>
@@ -712,16 +712,16 @@
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB2">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -729,7 +729,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5451607</v>
+        <v>5447925</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -744,73 +744,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>3</v>
       </c>
       <c r="J3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K3">
+        <v>5.5</v>
+      </c>
+      <c r="L3">
+        <v>4</v>
+      </c>
+      <c r="M3">
+        <v>1.5</v>
+      </c>
+      <c r="N3">
+        <v>4.5</v>
+      </c>
+      <c r="O3">
+        <v>4</v>
+      </c>
+      <c r="P3">
         <v>1.615</v>
       </c>
-      <c r="L3">
-        <v>3.75</v>
-      </c>
-      <c r="M3">
-        <v>4.75</v>
-      </c>
-      <c r="N3">
-        <v>1.363</v>
-      </c>
-      <c r="O3">
-        <v>4.75</v>
-      </c>
-      <c r="P3">
-        <v>6</v>
-      </c>
       <c r="Q3">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R3">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S3">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T3">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U3">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V3">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W3">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z3">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>0.4875</v>
+        <v>0.8</v>
       </c>
       <c r="AB3">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -818,7 +818,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5448050</v>
+        <v>5448048</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -833,73 +833,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K4">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="L4">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M4">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="N4">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="O4">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P4">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R4">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S4">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T4">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U4">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V4">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA4">
-        <v>-0</v>
+        <v>0.4625</v>
       </c>
       <c r="AB4">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -907,7 +907,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5447925</v>
+        <v>5452381</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -922,52 +922,52 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K5">
-        <v>5.5</v>
+        <v>1.571</v>
       </c>
       <c r="L5">
         <v>4</v>
       </c>
       <c r="M5">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="N5">
+        <v>1.4</v>
+      </c>
+      <c r="O5">
         <v>4.5</v>
       </c>
-      <c r="O5">
-        <v>4</v>
-      </c>
       <c r="P5">
-        <v>1.615</v>
+        <v>6.5</v>
       </c>
       <c r="Q5">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R5">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S5">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T5">
         <v>3</v>
       </c>
       <c r="U5">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V5">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W5">
         <v>-1</v>
@@ -976,19 +976,19 @@
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>0.615</v>
+        <v>5.5</v>
       </c>
       <c r="Z5">
         <v>-1</v>
       </c>
       <c r="AA5">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -996,7 +996,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5448049</v>
+        <v>5451607</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1011,55 +1011,55 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J6" t="s">
         <v>53</v>
       </c>
       <c r="K6">
-        <v>1.571</v>
+        <v>1.615</v>
       </c>
       <c r="L6">
         <v>3.75</v>
       </c>
       <c r="M6">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="N6">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="O6">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P6">
         <v>6</v>
       </c>
       <c r="Q6">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R6">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S6">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T6">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U6">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V6">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W6">
-        <v>0.444</v>
+        <v>0.363</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1068,16 +1068,16 @@
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA6">
-        <v>-0</v>
+        <v>0.4875</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC6">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1085,7 +1085,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5451610</v>
+        <v>5451609</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1100,31 +1100,31 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
         <v>53</v>
       </c>
       <c r="K7">
-        <v>1.444</v>
+        <v>1.3</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M7">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="N7">
         <v>1.333</v>
       </c>
       <c r="O7">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="P7">
         <v>8</v>
@@ -1133,19 +1133,19 @@
         <v>-1.5</v>
       </c>
       <c r="R7">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S7">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T7">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U7">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V7">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W7">
         <v>0.333</v>
@@ -1160,13 +1160,13 @@
         <v>-1</v>
       </c>
       <c r="AA7">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB7">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1174,7 +1174,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5451609</v>
+        <v>5451610</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1189,31 +1189,31 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
         <v>1</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
       </c>
       <c r="J8" t="s">
         <v>53</v>
       </c>
       <c r="K8">
-        <v>1.3</v>
+        <v>1.444</v>
       </c>
       <c r="L8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M8">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="N8">
         <v>1.333</v>
       </c>
       <c r="O8">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="P8">
         <v>8</v>
@@ -1222,19 +1222,19 @@
         <v>-1.5</v>
       </c>
       <c r="R8">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S8">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T8">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U8">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V8">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W8">
         <v>0.333</v>
@@ -1249,13 +1249,13 @@
         <v>-1</v>
       </c>
       <c r="AA8">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC8">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1263,7 +1263,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5448048</v>
+        <v>5451608</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1278,73 +1278,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K9">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L9">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M9">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="N9">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O9">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P9">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q9">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R9">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S9">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T9">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U9">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V9">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X9">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
+        <v>0.95</v>
+      </c>
+      <c r="AA9">
+        <v>-1</v>
+      </c>
+      <c r="AB9">
+        <v>0.4</v>
+      </c>
+      <c r="AC9">
         <v>-0.5</v>
-      </c>
-      <c r="AA9">
-        <v>0.4625</v>
-      </c>
-      <c r="AB9">
-        <v>-0.5</v>
-      </c>
-      <c r="AC9">
-        <v>0.475</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1352,7 +1352,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5452381</v>
+        <v>5448050</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1367,73 +1367,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J10" t="s">
         <v>55</v>
       </c>
       <c r="K10">
-        <v>1.571</v>
+        <v>2.75</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M10">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="N10">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="O10">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="P10">
-        <v>6.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q10">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S10">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T10">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U10">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V10">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W10">
         <v>-1</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y10">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC10">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1456,7 +1456,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1465,7 +1465,7 @@
         <v>4</v>
       </c>
       <c r="J11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K11">
         <v>1.615</v>
@@ -1542,10 +1542,10 @@
         <v>45083.66666666666</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1631,10 +1631,10 @@
         <v>45088.54166666666</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1643,7 +1643,7 @@
         <v>3</v>
       </c>
       <c r="J13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K13">
         <v>1.95</v>
@@ -1723,7 +1723,7 @@
         <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1732,7 +1732,7 @@
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K14">
         <v>2.25</v>
@@ -1812,7 +1812,7 @@
         <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H15">
         <v>3</v>
@@ -1910,7 +1910,7 @@
         <v>4</v>
       </c>
       <c r="J16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K16">
         <v>2.8</v>
@@ -1987,7 +1987,7 @@
         <v>45129.52083333334</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
         <v>38</v>
@@ -1999,7 +1999,7 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K17">
         <v>3.8</v>
@@ -2088,7 +2088,7 @@
         <v>3</v>
       </c>
       <c r="J18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K18">
         <v>2.15</v>
@@ -2165,7 +2165,7 @@
         <v>45130.31944444445</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G19" t="s">
         <v>48</v>
@@ -2177,7 +2177,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K19">
         <v>2.5</v>
@@ -2432,7 +2432,7 @@
         <v>45131.54166666666</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2444,7 +2444,7 @@
         <v>5</v>
       </c>
       <c r="J22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K22">
         <v>1.8</v>
@@ -2521,7 +2521,7 @@
         <v>45135.54166666666</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G23" t="s">
         <v>39</v>
@@ -2533,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K23">
         <v>3.25</v>
@@ -2622,7 +2622,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K24">
         <v>1.5</v>
@@ -2699,7 +2699,7 @@
         <v>45136.41666666666</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G25" t="s">
         <v>43</v>
@@ -2711,7 +2711,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K25">
         <v>1.727</v>
@@ -2788,7 +2788,7 @@
         <v>45136.52083333334</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
         <v>48</v>
@@ -2800,7 +2800,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2877,7 +2877,7 @@
         <v>45136.625</v>
       </c>
       <c r="F27" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s">
         <v>44</v>
@@ -2889,7 +2889,7 @@
         <v>4</v>
       </c>
       <c r="J27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K27">
         <v>2.15</v>
@@ -2978,7 +2978,7 @@
         <v>3</v>
       </c>
       <c r="J28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K28">
         <v>3.4</v>
@@ -3144,7 +3144,7 @@
         <v>45137.54166666666</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G30" t="s">
         <v>50</v>
@@ -3156,7 +3156,7 @@
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K30">
         <v>2.15</v>
@@ -3325,7 +3325,7 @@
         <v>43</v>
       </c>
       <c r="G32" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3423,7 +3423,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K33">
         <v>1.909</v>
@@ -3503,7 +3503,7 @@
         <v>44</v>
       </c>
       <c r="G34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -3512,7 +3512,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K34">
         <v>1.8</v>
@@ -3592,7 +3592,7 @@
         <v>38</v>
       </c>
       <c r="G35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -3601,7 +3601,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K35">
         <v>1.5</v>
@@ -3681,7 +3681,7 @@
         <v>41</v>
       </c>
       <c r="G36" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -3690,7 +3690,7 @@
         <v>5</v>
       </c>
       <c r="J36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K36">
         <v>3.6</v>
@@ -3779,7 +3779,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K37">
         <v>3.2</v>
@@ -3868,7 +3868,7 @@
         <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K38">
         <v>2.15</v>
@@ -3957,7 +3957,7 @@
         <v>3</v>
       </c>
       <c r="J39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K39">
         <v>1.666</v>
@@ -4037,7 +4037,7 @@
         <v>49</v>
       </c>
       <c r="G40" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K40">
         <v>2.875</v>
@@ -4123,7 +4123,7 @@
         <v>45149.54166666666</v>
       </c>
       <c r="F41" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G41" t="s">
         <v>41</v>
@@ -4304,7 +4304,7 @@
         <v>46</v>
       </c>
       <c r="G43" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4479,7 +4479,7 @@
         <v>45150.625</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G45" t="s">
         <v>49</v>
@@ -4491,7 +4491,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K45">
         <v>1.833</v>
@@ -4657,7 +4657,7 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G47" t="s">
         <v>39</v>
@@ -4669,7 +4669,7 @@
         <v>3</v>
       </c>
       <c r="J47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K47">
         <v>2.5</v>
@@ -4746,7 +4746,7 @@
         <v>45151.54166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G48" t="s">
         <v>40</v>
@@ -4758,7 +4758,7 @@
         <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K48">
         <v>1.571</v>
@@ -4847,7 +4847,7 @@
         <v>4</v>
       </c>
       <c r="J49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K49">
         <v>3.6</v>
@@ -4924,10 +4924,10 @@
         <v>45156.54166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G50" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -5025,7 +5025,7 @@
         <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K51">
         <v>1.571</v>
@@ -5105,7 +5105,7 @@
         <v>48</v>
       </c>
       <c r="G52" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H52">
         <v>3</v>
@@ -5194,7 +5194,7 @@
         <v>40</v>
       </c>
       <c r="G53" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5203,7 +5203,7 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K53">
         <v>2.3</v>
@@ -5292,7 +5292,7 @@
         <v>3</v>
       </c>
       <c r="J54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K54">
         <v>2.2</v>
@@ -5461,7 +5461,7 @@
         <v>44</v>
       </c>
       <c r="G56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5648,7 +5648,7 @@
         <v>2</v>
       </c>
       <c r="J58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K58">
         <v>2.5</v>
@@ -5737,7 +5737,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K59">
         <v>2.875</v>
@@ -5817,7 +5817,7 @@
         <v>45</v>
       </c>
       <c r="G60" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H60">
         <v>3</v>
@@ -6004,7 +6004,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K62">
         <v>2.2</v>
@@ -6081,7 +6081,7 @@
         <v>45164.625</v>
       </c>
       <c r="F63" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G63" t="s">
         <v>48</v>
@@ -6259,7 +6259,7 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G65" t="s">
         <v>41</v>
@@ -6348,7 +6348,7 @@
         <v>45165.54166666666</v>
       </c>
       <c r="F66" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G66" t="s">
         <v>43</v>
@@ -6440,7 +6440,7 @@
         <v>46</v>
       </c>
       <c r="G67" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6449,7 +6449,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K67">
         <v>2.2</v>
@@ -6529,7 +6529,7 @@
         <v>49</v>
       </c>
       <c r="G68" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -6538,7 +6538,7 @@
         <v>4</v>
       </c>
       <c r="J68" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K68">
         <v>3.1</v>
@@ -6627,7 +6627,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K69">
         <v>2.25</v>
@@ -6885,7 +6885,7 @@
         <v>43</v>
       </c>
       <c r="G72" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -6894,7 +6894,7 @@
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K72">
         <v>2.15</v>
@@ -6971,7 +6971,7 @@
         <v>45172.31944444445</v>
       </c>
       <c r="F73" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G73" t="s">
         <v>45</v>
@@ -7060,7 +7060,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F74" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G74" t="s">
         <v>47</v>
@@ -7072,7 +7072,7 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K74">
         <v>2.3</v>
@@ -7137,7 +7137,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6805719</v>
+        <v>6803727</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7149,58 +7149,58 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F75" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G75" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="H75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
         <v>53</v>
       </c>
       <c r="K75">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="L75">
         <v>3.3</v>
       </c>
       <c r="M75">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="N75">
-        <v>2.05</v>
+        <v>3.75</v>
       </c>
       <c r="O75">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P75">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="Q75">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R75">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S75">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T75">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U75">
+        <v>1.925</v>
+      </c>
+      <c r="V75">
         <v>1.875</v>
       </c>
-      <c r="V75">
-        <v>1.975</v>
-      </c>
       <c r="W75">
-        <v>1.05</v>
+        <v>2.75</v>
       </c>
       <c r="X75">
         <v>-1</v>
@@ -7209,16 +7209,16 @@
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA75">
         <v>-1</v>
       </c>
       <c r="AB75">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7226,7 +7226,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6803727</v>
+        <v>6805719</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7238,58 +7238,58 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F76" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G76" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J76" t="s">
         <v>53</v>
       </c>
       <c r="K76">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="L76">
         <v>3.3</v>
       </c>
       <c r="M76">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="N76">
-        <v>3.75</v>
+        <v>2.05</v>
       </c>
       <c r="O76">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P76">
+        <v>3.2</v>
+      </c>
+      <c r="Q76">
+        <v>-0.25</v>
+      </c>
+      <c r="R76">
         <v>1.85</v>
       </c>
-      <c r="Q76">
-        <v>0.5</v>
-      </c>
-      <c r="R76">
-        <v>1.925</v>
-      </c>
       <c r="S76">
+        <v>2</v>
+      </c>
+      <c r="T76">
+        <v>2.5</v>
+      </c>
+      <c r="U76">
         <v>1.875</v>
       </c>
-      <c r="T76">
-        <v>2.75</v>
-      </c>
-      <c r="U76">
-        <v>1.925</v>
-      </c>
       <c r="V76">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W76">
-        <v>2.75</v>
+        <v>1.05</v>
       </c>
       <c r="X76">
         <v>-1</v>
@@ -7298,16 +7298,16 @@
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA76">
         <v>-1</v>
       </c>
       <c r="AB76">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AC76">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7327,7 +7327,7 @@
         <v>45184.54166666666</v>
       </c>
       <c r="F77" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G77" t="s">
         <v>48</v>
@@ -7339,7 +7339,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K77">
         <v>3.2</v>
@@ -7419,7 +7419,7 @@
         <v>47</v>
       </c>
       <c r="G78" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7428,7 +7428,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K78">
         <v>1.85</v>
@@ -7517,7 +7517,7 @@
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K79">
         <v>2.1</v>
@@ -7606,7 +7606,7 @@
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K80">
         <v>1.222</v>
@@ -7695,7 +7695,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K81">
         <v>2.05</v>
@@ -7861,10 +7861,10 @@
         <v>45186.45833333334</v>
       </c>
       <c r="F83" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G83" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -7873,7 +7873,7 @@
         <v>2</v>
       </c>
       <c r="J83" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K83">
         <v>1.85</v>
@@ -8039,7 +8039,7 @@
         <v>45187.54166666666</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G85" t="s">
         <v>49</v>
@@ -8116,7 +8116,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6803740</v>
+        <v>6803738</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8128,16 +8128,16 @@
         <v>45191.54166666666</v>
       </c>
       <c r="F86" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H86">
         <v>1</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J86" t="s">
         <v>55</v>
@@ -8149,55 +8149,55 @@
         <v>3.5</v>
       </c>
       <c r="M86">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="N86">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="O86">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P86">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q86">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R86">
+        <v>1.825</v>
+      </c>
+      <c r="S86">
         <v>1.975</v>
       </c>
-      <c r="S86">
+      <c r="T86">
+        <v>2.5</v>
+      </c>
+      <c r="U86">
         <v>1.825</v>
       </c>
-      <c r="T86">
-        <v>2.25</v>
-      </c>
-      <c r="U86">
-        <v>1.9</v>
-      </c>
       <c r="V86">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W86">
         <v>-1</v>
       </c>
       <c r="X86">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y86">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
         <v>-1</v>
       </c>
       <c r="AA86">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB86">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8205,7 +8205,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6803738</v>
+        <v>6803740</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8217,16 +8217,16 @@
         <v>45191.54166666666</v>
       </c>
       <c r="F87" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G87" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H87">
         <v>1</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J87" t="s">
         <v>54</v>
@@ -8238,55 +8238,55 @@
         <v>3.5</v>
       </c>
       <c r="M87">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="N87">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="O87">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P87">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q87">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R87">
+        <v>1.975</v>
+      </c>
+      <c r="S87">
         <v>1.825</v>
       </c>
-      <c r="S87">
-        <v>1.975</v>
-      </c>
       <c r="T87">
+        <v>2.25</v>
+      </c>
+      <c r="U87">
+        <v>1.9</v>
+      </c>
+      <c r="V87">
+        <v>1.9</v>
+      </c>
+      <c r="W87">
+        <v>-1</v>
+      </c>
+      <c r="X87">
+        <v>-1</v>
+      </c>
+      <c r="Y87">
         <v>2.5</v>
       </c>
-      <c r="U87">
-        <v>1.825</v>
-      </c>
-      <c r="V87">
-        <v>1.975</v>
-      </c>
-      <c r="W87">
-        <v>-1</v>
-      </c>
-      <c r="X87">
-        <v>2.8</v>
-      </c>
-      <c r="Y87">
-        <v>-1</v>
-      </c>
       <c r="Z87">
         <v>-1</v>
       </c>
       <c r="AA87">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC87">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8407,7 +8407,7 @@
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K89">
         <v>2.05</v>
@@ -8496,7 +8496,7 @@
         <v>4</v>
       </c>
       <c r="J90" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K90">
         <v>3.6</v>
@@ -8754,7 +8754,7 @@
         <v>43</v>
       </c>
       <c r="G93" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -8763,7 +8763,7 @@
         <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K93">
         <v>2.05</v>
@@ -8840,10 +8840,10 @@
         <v>45193.54166666666</v>
       </c>
       <c r="F94" t="s">
+        <v>31</v>
+      </c>
+      <c r="G94" t="s">
         <v>36</v>
-      </c>
-      <c r="G94" t="s">
-        <v>29</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -8852,7 +8852,7 @@
         <v>3</v>
       </c>
       <c r="J94" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K94">
         <v>2.8</v>
@@ -8932,7 +8932,7 @@
         <v>42</v>
       </c>
       <c r="G95" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H95">
         <v>2</v>
@@ -9119,7 +9119,7 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K97">
         <v>1.3</v>
@@ -9285,7 +9285,7 @@
         <v>45199.625</v>
       </c>
       <c r="F99" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G99" t="s">
         <v>49</v>
@@ -9386,7 +9386,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K100">
         <v>2</v>
@@ -9463,7 +9463,7 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G101" t="s">
         <v>45</v>
@@ -9475,7 +9475,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K101">
         <v>1.85</v>
@@ -9641,10 +9641,10 @@
         <v>45201.54166666666</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G103" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9653,7 +9653,7 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K103">
         <v>2.375</v>
@@ -9742,7 +9742,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K104">
         <v>4</v>
@@ -9822,7 +9822,7 @@
         <v>45</v>
       </c>
       <c r="G105" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9831,7 +9831,7 @@
         <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K105">
         <v>1.75</v>
@@ -9908,10 +9908,10 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F106" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G106" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -9920,7 +9920,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K106">
         <v>1.85</v>
@@ -10098,7 +10098,7 @@
         <v>3</v>
       </c>
       <c r="J108" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K108">
         <v>2.05</v>
@@ -10187,7 +10187,7 @@
         <v>3</v>
       </c>
       <c r="J109" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K109">
         <v>2.625</v>
@@ -10353,7 +10353,7 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F111" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G111" t="s">
         <v>42</v>
@@ -10365,7 +10365,7 @@
         <v>2</v>
       </c>
       <c r="J111" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K111">
         <v>2</v>
@@ -10445,7 +10445,7 @@
         <v>47</v>
       </c>
       <c r="G112" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -10454,7 +10454,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K112">
         <v>2.3</v>
@@ -10543,7 +10543,7 @@
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K113">
         <v>3.5</v>
@@ -10709,10 +10709,10 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F115" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G115" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -10721,7 +10721,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K115">
         <v>1.833</v>
@@ -10801,7 +10801,7 @@
         <v>50</v>
       </c>
       <c r="G116" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H116">
         <v>3</v>
@@ -10979,7 +10979,7 @@
         <v>46</v>
       </c>
       <c r="G118" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H118">
         <v>2</v>
@@ -11065,7 +11065,7 @@
         <v>45221.54166666666</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G119" t="s">
         <v>47</v>
@@ -11077,7 +11077,7 @@
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K119">
         <v>2.3</v>
@@ -11344,7 +11344,7 @@
         <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K122">
         <v>1.7</v>
@@ -11421,7 +11421,7 @@
         <v>45226.64583333334</v>
       </c>
       <c r="F123" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G123" t="s">
         <v>38</v>
@@ -11513,7 +11513,7 @@
         <v>45</v>
       </c>
       <c r="G124" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -11599,7 +11599,7 @@
         <v>45227.52083333334</v>
       </c>
       <c r="F125" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G125" t="s">
         <v>50</v>
@@ -11611,7 +11611,7 @@
         <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K125">
         <v>2.625</v>
@@ -11688,10 +11688,10 @@
         <v>45227.625</v>
       </c>
       <c r="F126" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G126" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H126">
         <v>3</v>
@@ -11878,7 +11878,7 @@
         <v>2</v>
       </c>
       <c r="J128" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K128">
         <v>3.4</v>
@@ -11967,7 +11967,7 @@
         <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K129">
         <v>2.9</v>
@@ -12056,7 +12056,7 @@
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K130">
         <v>2.6</v>
@@ -12145,7 +12145,7 @@
         <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K131">
         <v>1.533</v>
@@ -12225,7 +12225,7 @@
         <v>38</v>
       </c>
       <c r="G132" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -12234,7 +12234,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K132">
         <v>1.363</v>
@@ -12314,7 +12314,7 @@
         <v>39</v>
       </c>
       <c r="G133" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H133">
         <v>1</v>
@@ -12403,7 +12403,7 @@
         <v>46</v>
       </c>
       <c r="G134" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -12412,7 +12412,7 @@
         <v>3</v>
       </c>
       <c r="J134" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K134">
         <v>1.666</v>
@@ -12492,7 +12492,7 @@
         <v>42</v>
       </c>
       <c r="G135" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -12501,7 +12501,7 @@
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K135">
         <v>3.1</v>
@@ -12590,7 +12590,7 @@
         <v>3</v>
       </c>
       <c r="J136" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K136">
         <v>2.15</v>
@@ -12667,7 +12667,7 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F137" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G137" t="s">
         <v>47</v>
@@ -12679,7 +12679,7 @@
         <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K137">
         <v>2.45</v>
@@ -12768,7 +12768,7 @@
         <v>2</v>
       </c>
       <c r="J138" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K138">
         <v>2.5</v>
@@ -13035,7 +13035,7 @@
         <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K141">
         <v>3</v>
@@ -13112,7 +13112,7 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F142" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G142" t="s">
         <v>42</v>
@@ -13124,7 +13124,7 @@
         <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K142">
         <v>2.1</v>
@@ -13290,10 +13290,10 @@
         <v>45241.66666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G144" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H144">
         <v>1</v>
@@ -13302,7 +13302,7 @@
         <v>2</v>
       </c>
       <c r="J144" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K144">
         <v>1.8</v>
@@ -13480,7 +13480,7 @@
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K146">
         <v>1.909</v>
@@ -13545,7 +13545,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6803778</v>
+        <v>6803779</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13557,76 +13557,76 @@
         <v>45242.58333333334</v>
       </c>
       <c r="F147" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G147" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J147" t="s">
         <v>54</v>
       </c>
       <c r="K147">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="L147">
         <v>3.4</v>
       </c>
       <c r="M147">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="N147">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="O147">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P147">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="Q147">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R147">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S147">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T147">
         <v>2.5</v>
       </c>
       <c r="U147">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V147">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W147">
         <v>-1</v>
       </c>
       <c r="X147">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y147">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z147">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB147">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC147">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13634,7 +13634,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6803779</v>
+        <v>6803778</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13646,76 +13646,76 @@
         <v>45242.58333333334</v>
       </c>
       <c r="F148" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G148" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J148" t="s">
         <v>55</v>
       </c>
       <c r="K148">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="L148">
         <v>3.4</v>
       </c>
       <c r="M148">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="N148">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="O148">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P148">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="Q148">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R148">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S148">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T148">
         <v>2.5</v>
       </c>
       <c r="U148">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V148">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W148">
         <v>-1</v>
       </c>
       <c r="X148">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y148">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z148">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA148">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB148">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC148">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13738,7 +13738,7 @@
         <v>41</v>
       </c>
       <c r="G149" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H149">
         <v>3</v>
@@ -13913,10 +13913,10 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F151" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G151" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H151">
         <v>3</v>
@@ -14281,7 +14281,7 @@
         <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K155">
         <v>1.8</v>
@@ -14361,7 +14361,7 @@
         <v>44</v>
       </c>
       <c r="G156" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H156">
         <v>2</v>
@@ -14450,7 +14450,7 @@
         <v>50</v>
       </c>
       <c r="G157" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H157">
         <v>3</v>
@@ -14539,7 +14539,7 @@
         <v>42</v>
       </c>
       <c r="G158" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H158">
         <v>2</v>
@@ -14548,7 +14548,7 @@
         <v>2</v>
       </c>
       <c r="J158" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K158">
         <v>2.3</v>
@@ -14625,7 +14625,7 @@
         <v>45261.6875</v>
       </c>
       <c r="F159" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G159" t="s">
         <v>38</v>
@@ -14726,7 +14726,7 @@
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K160">
         <v>2.75</v>
@@ -15070,7 +15070,7 @@
         <v>45268.6875</v>
       </c>
       <c r="F164" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G164" t="s">
         <v>40</v>
@@ -15082,7 +15082,7 @@
         <v>4</v>
       </c>
       <c r="J164" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K164">
         <v>2.875</v>
@@ -15162,7 +15162,7 @@
         <v>48</v>
       </c>
       <c r="G165" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H165">
         <v>2</v>
@@ -15349,7 +15349,7 @@
         <v>2</v>
       </c>
       <c r="J167" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K167">
         <v>2.5</v>
@@ -15429,7 +15429,7 @@
         <v>38</v>
       </c>
       <c r="G168" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H168">
         <v>4</v>
@@ -15518,7 +15518,7 @@
         <v>46</v>
       </c>
       <c r="G169" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H169">
         <v>1</v>
@@ -15527,7 +15527,7 @@
         <v>1</v>
       </c>
       <c r="J169" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K169">
         <v>2.05</v>
@@ -15604,7 +15604,7 @@
         <v>45271.58333333334</v>
       </c>
       <c r="F170" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G170" t="s">
         <v>39</v>
@@ -15785,7 +15785,7 @@
         <v>48</v>
       </c>
       <c r="G172" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H172">
         <v>2</v>
@@ -15883,7 +15883,7 @@
         <v>4</v>
       </c>
       <c r="J173" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K173">
         <v>3.75</v>
@@ -15963,7 +15963,7 @@
         <v>39</v>
       </c>
       <c r="G174" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H174">
         <v>0</v>
@@ -15972,7 +15972,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K174">
         <v>1.55</v>
@@ -16230,7 +16230,7 @@
         <v>43</v>
       </c>
       <c r="G177" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H177">
         <v>0</v>
@@ -16239,7 +16239,7 @@
         <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K177">
         <v>2.3</v>
@@ -16319,7 +16319,7 @@
         <v>50</v>
       </c>
       <c r="G178" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H178">
         <v>2</v>
@@ -16408,7 +16408,7 @@
         <v>44</v>
       </c>
       <c r="G179" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H179">
         <v>2</v>
@@ -16417,7 +16417,7 @@
         <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K179">
         <v>2.05</v>
@@ -16494,7 +16494,7 @@
         <v>45279.5625</v>
       </c>
       <c r="F180" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G180" t="s">
         <v>41</v>
@@ -16506,7 +16506,7 @@
         <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K180">
         <v>1.833</v>
@@ -16595,7 +16595,7 @@
         <v>2</v>
       </c>
       <c r="J181" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K181">
         <v>3</v>
@@ -16672,7 +16672,7 @@
         <v>45338.58333333334</v>
       </c>
       <c r="F182" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G182" t="s">
         <v>44</v>
@@ -16684,7 +16684,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K182">
         <v>3.75</v>
@@ -16850,7 +16850,7 @@
         <v>45339.45833333334</v>
       </c>
       <c r="F184" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G184" t="s">
         <v>49</v>
@@ -16862,7 +16862,7 @@
         <v>2</v>
       </c>
       <c r="J184" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K184">
         <v>1.833</v>
@@ -16951,7 +16951,7 @@
         <v>3</v>
       </c>
       <c r="J185" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K185">
         <v>4.2</v>
@@ -17117,7 +17117,7 @@
         <v>45340.36111111111</v>
       </c>
       <c r="F187" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G187" t="s">
         <v>38</v>
@@ -17129,7 +17129,7 @@
         <v>2</v>
       </c>
       <c r="J187" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K187">
         <v>3.8</v>
@@ -17206,7 +17206,7 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G188" t="s">
         <v>41</v>
@@ -17218,7 +17218,7 @@
         <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K188">
         <v>1.55</v>
@@ -17295,7 +17295,7 @@
         <v>45340.58333333334</v>
       </c>
       <c r="F189" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G189" t="s">
         <v>43</v>
@@ -17307,7 +17307,7 @@
         <v>1</v>
       </c>
       <c r="J189" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K189">
         <v>2.3</v>
@@ -17473,7 +17473,7 @@
         <v>45342.58333333334</v>
       </c>
       <c r="F191" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G191" t="s">
         <v>50</v>
@@ -17663,7 +17663,7 @@
         <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K193">
         <v>1.666</v>
@@ -17740,7 +17740,7 @@
         <v>45346.36111111111</v>
       </c>
       <c r="F194" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G194" t="s">
         <v>46</v>
@@ -17752,7 +17752,7 @@
         <v>2</v>
       </c>
       <c r="J194" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K194">
         <v>2.5</v>
@@ -17921,7 +17921,7 @@
         <v>40</v>
       </c>
       <c r="G196" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -18010,7 +18010,7 @@
         <v>39</v>
       </c>
       <c r="G197" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H197">
         <v>5</v>
@@ -18108,7 +18108,7 @@
         <v>2</v>
       </c>
       <c r="J198" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K198">
         <v>3</v>
@@ -18188,7 +18188,7 @@
         <v>49</v>
       </c>
       <c r="G199" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H199">
         <v>1</v>
@@ -18277,7 +18277,7 @@
         <v>41</v>
       </c>
       <c r="G200" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H200">
         <v>0</v>
@@ -18286,7 +18286,7 @@
         <v>1</v>
       </c>
       <c r="J200" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K200">
         <v>3</v>
@@ -18452,7 +18452,7 @@
         <v>45350.58333333334</v>
       </c>
       <c r="F202" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G202" t="s">
         <v>40</v>
@@ -18464,7 +18464,7 @@
         <v>2</v>
       </c>
       <c r="J202" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K202">
         <v>2.4</v>
@@ -18541,7 +18541,7 @@
         <v>45352.58333333334</v>
       </c>
       <c r="F203" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G203" t="s">
         <v>44</v>
@@ -18553,7 +18553,7 @@
         <v>3</v>
       </c>
       <c r="J203" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K203">
         <v>3.5</v>
@@ -18642,7 +18642,7 @@
         <v>1</v>
       </c>
       <c r="J204" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K204">
         <v>2.8</v>
@@ -18808,7 +18808,7 @@
         <v>45353.45833333334</v>
       </c>
       <c r="F206" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G206" t="s">
         <v>48</v>
@@ -18820,7 +18820,7 @@
         <v>2</v>
       </c>
       <c r="J206" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K206">
         <v>2</v>
@@ -18909,7 +18909,7 @@
         <v>2</v>
       </c>
       <c r="J207" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K207">
         <v>3.8</v>
@@ -18986,7 +18986,7 @@
         <v>45354.36111111111</v>
       </c>
       <c r="F208" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G208" t="s">
         <v>40</v>
@@ -18998,7 +18998,7 @@
         <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K208">
         <v>2.2</v>
@@ -19087,7 +19087,7 @@
         <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K209">
         <v>1.909</v>
@@ -19164,10 +19164,10 @@
         <v>45354.58333333334</v>
       </c>
       <c r="F210" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G210" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H210">
         <v>0</v>
@@ -19176,7 +19176,7 @@
         <v>0</v>
       </c>
       <c r="J210" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K210">
         <v>2.5</v>
@@ -19345,7 +19345,7 @@
         <v>43</v>
       </c>
       <c r="G212" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H212">
         <v>2</v>
@@ -19443,7 +19443,7 @@
         <v>1</v>
       </c>
       <c r="J213" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K213">
         <v>2.2</v>
@@ -19532,7 +19532,7 @@
         <v>1</v>
       </c>
       <c r="J214" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K214">
         <v>1.75</v>
@@ -19612,7 +19612,7 @@
         <v>41</v>
       </c>
       <c r="G215" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H215">
         <v>2</v>
@@ -19710,7 +19710,7 @@
         <v>2</v>
       </c>
       <c r="J216" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K216">
         <v>2.05</v>
@@ -19787,7 +19787,7 @@
         <v>45361.36111111111</v>
       </c>
       <c r="F217" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G217" t="s">
         <v>45</v>
@@ -19799,7 +19799,7 @@
         <v>2</v>
       </c>
       <c r="J217" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K217">
         <v>3</v>
@@ -19888,7 +19888,7 @@
         <v>2</v>
       </c>
       <c r="J218" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K218">
         <v>3.5</v>
@@ -19965,7 +19965,7 @@
         <v>45361.58333333334</v>
       </c>
       <c r="F219" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G219" t="s">
         <v>46</v>
@@ -19977,7 +19977,7 @@
         <v>1</v>
       </c>
       <c r="J219" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K219">
         <v>2.75</v>
@@ -20057,7 +20057,7 @@
         <v>48</v>
       </c>
       <c r="G220" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H220">
         <v>2</v>
@@ -20131,7 +20131,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6805670</v>
+        <v>6805669</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20143,73 +20143,73 @@
         <v>45366.58333333334</v>
       </c>
       <c r="F221" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G221" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I221">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J221" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K221">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="L221">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M221">
-        <v>2.15</v>
+        <v>5.5</v>
       </c>
       <c r="N221">
-        <v>2.875</v>
+        <v>1.4</v>
       </c>
       <c r="O221">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="P221">
-        <v>2.3</v>
+        <v>7</v>
       </c>
       <c r="Q221">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R221">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S221">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T221">
         <v>2.5</v>
       </c>
       <c r="U221">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V221">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W221">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X221">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y221">
         <v>-1</v>
       </c>
       <c r="Z221">
-        <v>0.4</v>
+        <v>0.925</v>
       </c>
       <c r="AA221">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB221">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC221">
         <v>-1</v>
@@ -20220,7 +20220,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6805669</v>
+        <v>6805670</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20232,73 +20232,73 @@
         <v>45366.58333333334</v>
       </c>
       <c r="F222" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G222" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="H222">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I222">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J222" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K222">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="L222">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M222">
-        <v>5.5</v>
+        <v>2.15</v>
       </c>
       <c r="N222">
-        <v>1.4</v>
+        <v>2.875</v>
       </c>
       <c r="O222">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="P222">
-        <v>7</v>
+        <v>2.3</v>
       </c>
       <c r="Q222">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R222">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S222">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T222">
         <v>2.5</v>
       </c>
       <c r="U222">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V222">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W222">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X222">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y222">
         <v>-1</v>
       </c>
       <c r="Z222">
-        <v>0.925</v>
+        <v>0.4</v>
       </c>
       <c r="AA222">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB222">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC222">
         <v>-1</v>
@@ -20410,7 +20410,7 @@
         <v>45367.36111111111</v>
       </c>
       <c r="F224" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G224" t="s">
         <v>49</v>
@@ -20422,7 +20422,7 @@
         <v>4</v>
       </c>
       <c r="J224" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K224">
         <v>1.55</v>
@@ -20511,7 +20511,7 @@
         <v>2</v>
       </c>
       <c r="J225" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K225">
         <v>1.571</v>
@@ -20588,7 +20588,7 @@
         <v>45367.5625</v>
       </c>
       <c r="F226" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G226" t="s">
         <v>40</v>
@@ -20665,7 +20665,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6803831</v>
+        <v>6803828</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20674,64 +20674,79 @@
         <v>28</v>
       </c>
       <c r="E227" s="2">
-        <v>45368.45833333334</v>
+        <v>45368.36111111111</v>
       </c>
       <c r="F227" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G227" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="H227">
+        <v>2</v>
+      </c>
+      <c r="I227">
+        <v>2</v>
+      </c>
+      <c r="J227" t="s">
+        <v>55</v>
       </c>
       <c r="K227">
+        <v>1.55</v>
+      </c>
+      <c r="L227">
+        <v>3.75</v>
+      </c>
+      <c r="M227">
+        <v>5.5</v>
+      </c>
+      <c r="N227">
+        <v>1.533</v>
+      </c>
+      <c r="O227">
+        <v>3.75</v>
+      </c>
+      <c r="P227">
+        <v>6</v>
+      </c>
+      <c r="Q227">
+        <v>-1</v>
+      </c>
+      <c r="R227">
+        <v>1.95</v>
+      </c>
+      <c r="S227">
+        <v>1.85</v>
+      </c>
+      <c r="T227">
         <v>2.25</v>
       </c>
-      <c r="L227">
-        <v>3</v>
-      </c>
-      <c r="M227">
-        <v>3.25</v>
-      </c>
-      <c r="N227">
-        <v>2.25</v>
-      </c>
-      <c r="O227">
-        <v>3</v>
-      </c>
-      <c r="P227">
-        <v>3.25</v>
-      </c>
-      <c r="Q227">
-        <v>-0.25</v>
-      </c>
-      <c r="R227">
-        <v>1.975</v>
-      </c>
-      <c r="S227">
-        <v>1.875</v>
-      </c>
-      <c r="T227">
-        <v>2</v>
-      </c>
       <c r="U227">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V227">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W227">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X227">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="Y227">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z227">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA227">
-        <v>0</v>
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB227">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AC227">
+        <v>-1</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20739,72 +20754,842 @@
         <v>226</v>
       </c>
       <c r="B228">
+        <v>6803831</v>
+      </c>
+      <c r="C228" t="s">
+        <v>28</v>
+      </c>
+      <c r="D228" t="s">
+        <v>28</v>
+      </c>
+      <c r="E228" s="2">
+        <v>45368.45833333334</v>
+      </c>
+      <c r="F228" t="s">
+        <v>30</v>
+      </c>
+      <c r="G228" t="s">
+        <v>43</v>
+      </c>
+      <c r="H228">
+        <v>1</v>
+      </c>
+      <c r="I228">
+        <v>1</v>
+      </c>
+      <c r="J228" t="s">
+        <v>55</v>
+      </c>
+      <c r="K228">
+        <v>2.25</v>
+      </c>
+      <c r="L228">
+        <v>3</v>
+      </c>
+      <c r="M228">
+        <v>3.25</v>
+      </c>
+      <c r="N228">
+        <v>2.25</v>
+      </c>
+      <c r="O228">
+        <v>3</v>
+      </c>
+      <c r="P228">
+        <v>3.25</v>
+      </c>
+      <c r="Q228">
+        <v>-0.25</v>
+      </c>
+      <c r="R228">
+        <v>1.975</v>
+      </c>
+      <c r="S228">
+        <v>1.875</v>
+      </c>
+      <c r="T228">
+        <v>2</v>
+      </c>
+      <c r="U228">
+        <v>1.875</v>
+      </c>
+      <c r="V228">
+        <v>1.975</v>
+      </c>
+      <c r="W228">
+        <v>-1</v>
+      </c>
+      <c r="X228">
+        <v>2</v>
+      </c>
+      <c r="Y228">
+        <v>-1</v>
+      </c>
+      <c r="Z228">
+        <v>-0.5</v>
+      </c>
+      <c r="AA228">
+        <v>0.4375</v>
+      </c>
+      <c r="AB228">
+        <v>0</v>
+      </c>
+      <c r="AC228">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:29">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229">
         <v>7948879</v>
       </c>
-      <c r="C228" t="s">
-        <v>28</v>
-      </c>
-      <c r="D228" t="s">
-        <v>28</v>
-      </c>
-      <c r="E228" s="2">
-        <v>45368.58333333334</v>
-      </c>
-      <c r="F228" t="s">
+      <c r="C229" t="s">
+        <v>28</v>
+      </c>
+      <c r="D229" t="s">
+        <v>28</v>
+      </c>
+      <c r="E229" s="2">
+        <v>45368.45833333334</v>
+      </c>
+      <c r="F229" t="s">
         <v>47</v>
       </c>
-      <c r="G228" t="s">
+      <c r="G229" t="s">
+        <v>33</v>
+      </c>
+      <c r="H229">
+        <v>5</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229" t="s">
+        <v>53</v>
+      </c>
+      <c r="K229">
+        <v>1.8</v>
+      </c>
+      <c r="L229">
+        <v>3.5</v>
+      </c>
+      <c r="M229">
+        <v>4</v>
+      </c>
+      <c r="N229">
+        <v>1.909</v>
+      </c>
+      <c r="O229">
+        <v>3.3</v>
+      </c>
+      <c r="P229">
+        <v>3.6</v>
+      </c>
+      <c r="Q229">
+        <v>-0.5</v>
+      </c>
+      <c r="R229">
+        <v>1.95</v>
+      </c>
+      <c r="S229">
+        <v>1.9</v>
+      </c>
+      <c r="T229">
+        <v>2.5</v>
+      </c>
+      <c r="U229">
+        <v>2</v>
+      </c>
+      <c r="V229">
+        <v>1.85</v>
+      </c>
+      <c r="W229">
+        <v>0.909</v>
+      </c>
+      <c r="X229">
+        <v>-1</v>
+      </c>
+      <c r="Y229">
+        <v>-1</v>
+      </c>
+      <c r="Z229">
+        <v>0.95</v>
+      </c>
+      <c r="AA229">
+        <v>-1</v>
+      </c>
+      <c r="AB229">
+        <v>1</v>
+      </c>
+      <c r="AC229">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:29">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230">
+        <v>6803836</v>
+      </c>
+      <c r="C230" t="s">
+        <v>28</v>
+      </c>
+      <c r="D230" t="s">
+        <v>28</v>
+      </c>
+      <c r="E230" s="2">
+        <v>45381.36111111111</v>
+      </c>
+      <c r="F230" t="s">
+        <v>49</v>
+      </c>
+      <c r="G230" t="s">
         <v>30</v>
       </c>
-      <c r="K228">
+      <c r="K230">
+        <v>2.45</v>
+      </c>
+      <c r="L230">
+        <v>3.25</v>
+      </c>
+      <c r="M230">
+        <v>2.625</v>
+      </c>
+      <c r="N230">
+        <v>2.45</v>
+      </c>
+      <c r="O230">
+        <v>3.25</v>
+      </c>
+      <c r="P230">
+        <v>2.625</v>
+      </c>
+      <c r="Q230">
+        <v>0</v>
+      </c>
+      <c r="R230">
+        <v>1.85</v>
+      </c>
+      <c r="S230">
+        <v>2</v>
+      </c>
+      <c r="T230">
+        <v>2.5</v>
+      </c>
+      <c r="U230">
+        <v>2.025</v>
+      </c>
+      <c r="V230">
+        <v>1.825</v>
+      </c>
+      <c r="W230">
+        <v>0</v>
+      </c>
+      <c r="X230">
+        <v>0</v>
+      </c>
+      <c r="Y230">
+        <v>0</v>
+      </c>
+      <c r="Z230">
+        <v>0</v>
+      </c>
+      <c r="AA230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:29">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231">
+        <v>6803839</v>
+      </c>
+      <c r="C231" t="s">
+        <v>28</v>
+      </c>
+      <c r="D231" t="s">
+        <v>28</v>
+      </c>
+      <c r="E231" s="2">
+        <v>45381.45833333334</v>
+      </c>
+      <c r="F231" t="s">
+        <v>44</v>
+      </c>
+      <c r="G231" t="s">
+        <v>39</v>
+      </c>
+      <c r="K231">
+        <v>3</v>
+      </c>
+      <c r="L231">
+        <v>3.4</v>
+      </c>
+      <c r="M231">
+        <v>2.15</v>
+      </c>
+      <c r="N231">
+        <v>3</v>
+      </c>
+      <c r="O231">
+        <v>3.4</v>
+      </c>
+      <c r="P231">
+        <v>2.15</v>
+      </c>
+      <c r="Q231">
+        <v>0.25</v>
+      </c>
+      <c r="R231">
+        <v>1.925</v>
+      </c>
+      <c r="S231">
+        <v>1.925</v>
+      </c>
+      <c r="T231">
+        <v>2.5</v>
+      </c>
+      <c r="U231">
+        <v>1.925</v>
+      </c>
+      <c r="V231">
+        <v>1.925</v>
+      </c>
+      <c r="W231">
+        <v>0</v>
+      </c>
+      <c r="X231">
+        <v>0</v>
+      </c>
+      <c r="Y231">
+        <v>0</v>
+      </c>
+      <c r="Z231">
+        <v>0</v>
+      </c>
+      <c r="AA231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:29">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232">
+        <v>6803838</v>
+      </c>
+      <c r="C232" t="s">
+        <v>28</v>
+      </c>
+      <c r="D232" t="s">
+        <v>28</v>
+      </c>
+      <c r="E232" s="2">
+        <v>45381.5625</v>
+      </c>
+      <c r="F232" t="s">
+        <v>41</v>
+      </c>
+      <c r="G232" t="s">
+        <v>38</v>
+      </c>
+      <c r="K232">
+        <v>5.25</v>
+      </c>
+      <c r="L232">
+        <v>4</v>
+      </c>
+      <c r="M232">
+        <v>1.533</v>
+      </c>
+      <c r="N232">
+        <v>5.25</v>
+      </c>
+      <c r="O232">
+        <v>4</v>
+      </c>
+      <c r="P232">
+        <v>1.533</v>
+      </c>
+      <c r="Q232">
+        <v>1</v>
+      </c>
+      <c r="R232">
+        <v>1.9</v>
+      </c>
+      <c r="S232">
+        <v>1.95</v>
+      </c>
+      <c r="T232">
+        <v>2.75</v>
+      </c>
+      <c r="U232">
+        <v>1.925</v>
+      </c>
+      <c r="V232">
+        <v>1.925</v>
+      </c>
+      <c r="W232">
+        <v>0</v>
+      </c>
+      <c r="X232">
+        <v>0</v>
+      </c>
+      <c r="Y232">
+        <v>0</v>
+      </c>
+      <c r="Z232">
+        <v>0</v>
+      </c>
+      <c r="AA232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:29">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233">
+        <v>6803835</v>
+      </c>
+      <c r="C233" t="s">
+        <v>28</v>
+      </c>
+      <c r="D233" t="s">
+        <v>28</v>
+      </c>
+      <c r="E233" s="2">
+        <v>45381.66666666666</v>
+      </c>
+      <c r="F233" t="s">
+        <v>33</v>
+      </c>
+      <c r="G233" t="s">
+        <v>36</v>
+      </c>
+      <c r="K233">
+        <v>2.7</v>
+      </c>
+      <c r="L233">
+        <v>3.3</v>
+      </c>
+      <c r="M233">
+        <v>2.4</v>
+      </c>
+      <c r="N233">
+        <v>2.7</v>
+      </c>
+      <c r="O233">
+        <v>3.3</v>
+      </c>
+      <c r="P233">
+        <v>2.4</v>
+      </c>
+      <c r="Q233">
+        <v>0</v>
+      </c>
+      <c r="R233">
+        <v>2.05</v>
+      </c>
+      <c r="S233">
         <v>1.8</v>
       </c>
-      <c r="L228">
-        <v>3.5</v>
-      </c>
-      <c r="M228">
+      <c r="T233">
+        <v>2.5</v>
+      </c>
+      <c r="U233">
+        <v>1.875</v>
+      </c>
+      <c r="V233">
+        <v>1.975</v>
+      </c>
+      <c r="W233">
+        <v>0</v>
+      </c>
+      <c r="X233">
+        <v>0</v>
+      </c>
+      <c r="Y233">
+        <v>0</v>
+      </c>
+      <c r="Z233">
+        <v>0</v>
+      </c>
+      <c r="AA233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:29">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234">
+        <v>6805667</v>
+      </c>
+      <c r="C234" t="s">
+        <v>28</v>
+      </c>
+      <c r="D234" t="s">
+        <v>28</v>
+      </c>
+      <c r="E234" s="2">
+        <v>45383.31944444445</v>
+      </c>
+      <c r="F234" t="s">
+        <v>43</v>
+      </c>
+      <c r="G234" t="s">
+        <v>42</v>
+      </c>
+      <c r="K234">
+        <v>1.95</v>
+      </c>
+      <c r="L234">
+        <v>3.3</v>
+      </c>
+      <c r="M234">
+        <v>3.6</v>
+      </c>
+      <c r="N234">
+        <v>1.95</v>
+      </c>
+      <c r="O234">
+        <v>3.3</v>
+      </c>
+      <c r="P234">
+        <v>3.6</v>
+      </c>
+      <c r="Q234">
+        <v>-0.5</v>
+      </c>
+      <c r="R234">
+        <v>2.025</v>
+      </c>
+      <c r="S234">
+        <v>1.825</v>
+      </c>
+      <c r="T234">
+        <v>2.5</v>
+      </c>
+      <c r="U234">
+        <v>1.925</v>
+      </c>
+      <c r="V234">
+        <v>1.925</v>
+      </c>
+      <c r="W234">
+        <v>0</v>
+      </c>
+      <c r="X234">
+        <v>0</v>
+      </c>
+      <c r="Y234">
+        <v>0</v>
+      </c>
+      <c r="Z234">
+        <v>0</v>
+      </c>
+      <c r="AA234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:29">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235">
+        <v>6803834</v>
+      </c>
+      <c r="C235" t="s">
+        <v>28</v>
+      </c>
+      <c r="D235" t="s">
+        <v>28</v>
+      </c>
+      <c r="E235" s="2">
+        <v>45383.41666666666</v>
+      </c>
+      <c r="F235" t="s">
+        <v>31</v>
+      </c>
+      <c r="G235" t="s">
+        <v>47</v>
+      </c>
+      <c r="K235">
+        <v>3.4</v>
+      </c>
+      <c r="L235">
+        <v>3.3</v>
+      </c>
+      <c r="M235">
+        <v>2</v>
+      </c>
+      <c r="N235">
+        <v>3.6</v>
+      </c>
+      <c r="O235">
+        <v>3.4</v>
+      </c>
+      <c r="P235">
+        <v>1.909</v>
+      </c>
+      <c r="Q235">
+        <v>0.5</v>
+      </c>
+      <c r="R235">
+        <v>1.85</v>
+      </c>
+      <c r="S235">
+        <v>2</v>
+      </c>
+      <c r="T235">
+        <v>2.25</v>
+      </c>
+      <c r="U235">
+        <v>1.8</v>
+      </c>
+      <c r="V235">
+        <v>2.05</v>
+      </c>
+      <c r="W235">
+        <v>0</v>
+      </c>
+      <c r="X235">
+        <v>0</v>
+      </c>
+      <c r="Y235">
+        <v>0</v>
+      </c>
+      <c r="Z235">
+        <v>0</v>
+      </c>
+      <c r="AA235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:29">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236">
+        <v>6805666</v>
+      </c>
+      <c r="C236" t="s">
+        <v>28</v>
+      </c>
+      <c r="D236" t="s">
+        <v>28</v>
+      </c>
+      <c r="E236" s="2">
+        <v>45383.52083333334</v>
+      </c>
+      <c r="F236" t="s">
+        <v>40</v>
+      </c>
+      <c r="G236" t="s">
+        <v>50</v>
+      </c>
+      <c r="K236">
+        <v>2.3</v>
+      </c>
+      <c r="L236">
+        <v>3.3</v>
+      </c>
+      <c r="M236">
+        <v>2.75</v>
+      </c>
+      <c r="N236">
+        <v>2.3</v>
+      </c>
+      <c r="O236">
+        <v>3.3</v>
+      </c>
+      <c r="P236">
+        <v>2.75</v>
+      </c>
+      <c r="Q236">
+        <v>-0.25</v>
+      </c>
+      <c r="R236">
+        <v>2.1</v>
+      </c>
+      <c r="S236">
+        <v>1.775</v>
+      </c>
+      <c r="T236">
+        <v>2.5</v>
+      </c>
+      <c r="U236">
+        <v>1.975</v>
+      </c>
+      <c r="V236">
+        <v>1.875</v>
+      </c>
+      <c r="W236">
+        <v>0</v>
+      </c>
+      <c r="X236">
+        <v>0</v>
+      </c>
+      <c r="Y236">
+        <v>0</v>
+      </c>
+      <c r="Z236">
+        <v>0</v>
+      </c>
+      <c r="AA236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:29">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237">
+        <v>6803837</v>
+      </c>
+      <c r="C237" t="s">
+        <v>28</v>
+      </c>
+      <c r="D237" t="s">
+        <v>28</v>
+      </c>
+      <c r="E237" s="2">
+        <v>45384.54166666666</v>
+      </c>
+      <c r="F237" t="s">
+        <v>48</v>
+      </c>
+      <c r="G237" t="s">
+        <v>35</v>
+      </c>
+      <c r="K237">
+        <v>1.727</v>
+      </c>
+      <c r="L237">
+        <v>3.6</v>
+      </c>
+      <c r="M237">
+        <v>4.2</v>
+      </c>
+      <c r="N237">
+        <v>1.727</v>
+      </c>
+      <c r="O237">
+        <v>3.6</v>
+      </c>
+      <c r="P237">
+        <v>4.2</v>
+      </c>
+      <c r="Q237">
+        <v>-0.75</v>
+      </c>
+      <c r="R237">
+        <v>2</v>
+      </c>
+      <c r="S237">
+        <v>1.85</v>
+      </c>
+      <c r="T237">
+        <v>2.75</v>
+      </c>
+      <c r="U237">
+        <v>1.925</v>
+      </c>
+      <c r="V237">
+        <v>1.925</v>
+      </c>
+      <c r="W237">
+        <v>0</v>
+      </c>
+      <c r="X237">
+        <v>0</v>
+      </c>
+      <c r="Y237">
+        <v>0</v>
+      </c>
+      <c r="Z237">
+        <v>0</v>
+      </c>
+      <c r="AA237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:29">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238">
+        <v>6805668</v>
+      </c>
+      <c r="C238" t="s">
+        <v>28</v>
+      </c>
+      <c r="D238" t="s">
+        <v>28</v>
+      </c>
+      <c r="E238" s="2">
+        <v>45384.64583333334</v>
+      </c>
+      <c r="F238" t="s">
+        <v>45</v>
+      </c>
+      <c r="G238" t="s">
+        <v>46</v>
+      </c>
+      <c r="K238">
+        <v>1.571</v>
+      </c>
+      <c r="L238">
+        <v>3.8</v>
+      </c>
+      <c r="M238">
+        <v>5</v>
+      </c>
+      <c r="N238">
+        <v>1.533</v>
+      </c>
+      <c r="O238">
         <v>4</v>
       </c>
-      <c r="N228">
-        <v>1.85</v>
-      </c>
-      <c r="O228">
-        <v>3.4</v>
-      </c>
-      <c r="P228">
-        <v>3.8</v>
-      </c>
-      <c r="Q228">
-        <v>-0.5</v>
-      </c>
-      <c r="R228">
-        <v>1.95</v>
-      </c>
-      <c r="S228">
-        <v>1.9</v>
-      </c>
-      <c r="T228">
+      <c r="P238">
+        <v>5.25</v>
+      </c>
+      <c r="Q238">
+        <v>-1</v>
+      </c>
+      <c r="R238">
+        <v>1.975</v>
+      </c>
+      <c r="S238">
+        <v>1.875</v>
+      </c>
+      <c r="T238">
         <v>2.5</v>
       </c>
-      <c r="U228">
-        <v>2</v>
-      </c>
-      <c r="V228">
-        <v>1.85</v>
-      </c>
-      <c r="W228">
-        <v>0</v>
-      </c>
-      <c r="X228">
-        <v>0</v>
-      </c>
-      <c r="Y228">
-        <v>0</v>
-      </c>
-      <c r="Z228">
-        <v>0</v>
-      </c>
-      <c r="AA228">
+      <c r="U238">
+        <v>1.975</v>
+      </c>
+      <c r="V238">
+        <v>1.875</v>
+      </c>
+      <c r="W238">
+        <v>0</v>
+      </c>
+      <c r="X238">
+        <v>0</v>
+      </c>
+      <c r="Y238">
+        <v>0</v>
+      </c>
+      <c r="Z238">
+        <v>0</v>
+      </c>
+      <c r="AA238">
         <v>0</v>
       </c>
     </row>

--- a/Poland I Liga/Poland I Liga.xlsx
+++ b/Poland I Liga/Poland I Liga.xlsx
@@ -106,25 +106,25 @@
     <t>LKS Lodz</t>
   </si>
   <si>
+    <t>Zaglebie Sosnowiec</t>
+  </si>
+  <si>
     <t>Gornik Leczna</t>
   </si>
   <si>
-    <t>Zaglebie Sosnowiec</t>
+    <t>Podbeskidzie Bielsko Biala</t>
+  </si>
+  <si>
+    <t>Termalica BB Nieciecza</t>
+  </si>
+  <si>
+    <t>Stal Rzeszow</t>
   </si>
   <si>
     <t>MKS Puszcza Niepolomice</t>
   </si>
   <si>
-    <t>Podbeskidzie Bielsko Biala</t>
-  </si>
-  <si>
     <t>Ruch Chorzow</t>
-  </si>
-  <si>
-    <t>Stal Rzeszow</t>
-  </si>
-  <si>
-    <t>Termalica BB Nieciecza</t>
   </si>
   <si>
     <t>Chojniczanka Chojnice</t>
@@ -178,10 +178,10 @@
     <t>H</t>
   </si>
   <si>
-    <t>A</t>
+    <t>D</t>
   </si>
   <si>
-    <t>D</t>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -729,7 +729,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5447925</v>
+        <v>5448048</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -744,73 +744,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>54</v>
       </c>
       <c r="K3">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M3">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="N3">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="O3">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P3">
-        <v>1.615</v>
+        <v>3.1</v>
       </c>
       <c r="Q3">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R3">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S3">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T3">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U3">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V3">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y3">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA3">
-        <v>0.8</v>
+        <v>0.4625</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC3">
-        <v>-0</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -818,7 +818,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5448048</v>
+        <v>5447925</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -833,73 +833,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J4" t="s">
         <v>55</v>
       </c>
       <c r="K4">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="L4">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M4">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="N4">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="O4">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P4">
-        <v>3.1</v>
+        <v>1.615</v>
       </c>
       <c r="Q4">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R4">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S4">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T4">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U4">
+        <v>2</v>
+      </c>
+      <c r="V4">
         <v>1.85</v>
       </c>
-      <c r="V4">
-        <v>1.95</v>
-      </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z4">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
       <c r="AB4">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.475</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -907,7 +907,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5452381</v>
+        <v>5451607</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -922,73 +922,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K5">
-        <v>1.571</v>
+        <v>1.615</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M5">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="N5">
-        <v>1.4</v>
+        <v>1.363</v>
       </c>
       <c r="O5">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P5">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q5">
         <v>-1.25</v>
       </c>
       <c r="R5">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S5">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T5">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U5">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V5">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA5">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC5">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -996,7 +996,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5451607</v>
+        <v>5451608</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1011,55 +1011,55 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
         <v>53</v>
       </c>
       <c r="K6">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="L6">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M6">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="N6">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="O6">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P6">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="Q6">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R6">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S6">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T6">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U6">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V6">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W6">
-        <v>0.363</v>
+        <v>0.909</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1068,16 +1068,16 @@
         <v>-1</v>
       </c>
       <c r="Z6">
+        <v>0.95</v>
+      </c>
+      <c r="AA6">
+        <v>-1</v>
+      </c>
+      <c r="AB6">
+        <v>0.4</v>
+      </c>
+      <c r="AC6">
         <v>-0.5</v>
-      </c>
-      <c r="AA6">
-        <v>0.4875</v>
-      </c>
-      <c r="AB6">
-        <v>0.925</v>
-      </c>
-      <c r="AC6">
-        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1085,7 +1085,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5451609</v>
+        <v>5451610</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1100,31 +1100,31 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
         <v>1</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
       </c>
       <c r="J7" t="s">
         <v>53</v>
       </c>
       <c r="K7">
-        <v>1.3</v>
+        <v>1.444</v>
       </c>
       <c r="L7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="N7">
         <v>1.333</v>
       </c>
       <c r="O7">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="P7">
         <v>8</v>
@@ -1133,19 +1133,19 @@
         <v>-1.5</v>
       </c>
       <c r="R7">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S7">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T7">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U7">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V7">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W7">
         <v>0.333</v>
@@ -1160,13 +1160,13 @@
         <v>-1</v>
       </c>
       <c r="AA7">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC7">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1174,7 +1174,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5451610</v>
+        <v>5452381</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1189,73 +1189,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K8">
-        <v>1.444</v>
+        <v>1.571</v>
       </c>
       <c r="L8">
         <v>4</v>
       </c>
       <c r="M8">
+        <v>5</v>
+      </c>
+      <c r="N8">
+        <v>1.4</v>
+      </c>
+      <c r="O8">
+        <v>4.5</v>
+      </c>
+      <c r="P8">
         <v>6.5</v>
       </c>
-      <c r="N8">
-        <v>1.333</v>
-      </c>
-      <c r="O8">
-        <v>4.333</v>
-      </c>
-      <c r="P8">
-        <v>8</v>
-      </c>
       <c r="Q8">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R8">
+        <v>1.9</v>
+      </c>
+      <c r="S8">
         <v>1.95</v>
       </c>
-      <c r="S8">
-        <v>1.85</v>
-      </c>
       <c r="T8">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U8">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V8">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W8">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z8">
         <v>-1</v>
       </c>
       <c r="AA8">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB8">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1263,7 +1263,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5451608</v>
+        <v>5451609</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1278,55 +1278,55 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
         <v>53</v>
       </c>
       <c r="K9">
-        <v>1.909</v>
+        <v>1.3</v>
       </c>
       <c r="L9">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M9">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="N9">
-        <v>1.909</v>
+        <v>1.333</v>
       </c>
       <c r="O9">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P9">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="Q9">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R9">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S9">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T9">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U9">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V9">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W9">
-        <v>0.909</v>
+        <v>0.333</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1335,16 +1335,16 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB9">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1376,7 +1376,7 @@
         <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K10">
         <v>2.75</v>
@@ -1456,7 +1456,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1465,7 +1465,7 @@
         <v>4</v>
       </c>
       <c r="J11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K11">
         <v>1.615</v>
@@ -1542,10 +1542,10 @@
         <v>45083.66666666666</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1631,10 +1631,10 @@
         <v>45088.54166666666</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1643,7 +1643,7 @@
         <v>3</v>
       </c>
       <c r="J13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K13">
         <v>1.95</v>
@@ -1723,7 +1723,7 @@
         <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1732,7 +1732,7 @@
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K14">
         <v>2.25</v>
@@ -1812,7 +1812,7 @@
         <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H15">
         <v>3</v>
@@ -1910,7 +1910,7 @@
         <v>4</v>
       </c>
       <c r="J16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K16">
         <v>2.8</v>
@@ -1987,7 +1987,7 @@
         <v>45129.52083333334</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
         <v>38</v>
@@ -1999,7 +1999,7 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K17">
         <v>3.8</v>
@@ -2088,7 +2088,7 @@
         <v>3</v>
       </c>
       <c r="J18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K18">
         <v>2.15</v>
@@ -2165,7 +2165,7 @@
         <v>45130.31944444445</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G19" t="s">
         <v>48</v>
@@ -2177,7 +2177,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K19">
         <v>2.5</v>
@@ -2432,7 +2432,7 @@
         <v>45131.54166666666</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2444,7 +2444,7 @@
         <v>5</v>
       </c>
       <c r="J22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K22">
         <v>1.8</v>
@@ -2521,7 +2521,7 @@
         <v>45135.54166666666</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G23" t="s">
         <v>39</v>
@@ -2533,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K23">
         <v>3.25</v>
@@ -2622,7 +2622,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K24">
         <v>1.5</v>
@@ -2699,7 +2699,7 @@
         <v>45136.41666666666</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G25" t="s">
         <v>43</v>
@@ -2711,7 +2711,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K25">
         <v>1.727</v>
@@ -2788,7 +2788,7 @@
         <v>45136.52083333334</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G26" t="s">
         <v>48</v>
@@ -2800,7 +2800,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2877,7 +2877,7 @@
         <v>45136.625</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G27" t="s">
         <v>44</v>
@@ -2889,7 +2889,7 @@
         <v>4</v>
       </c>
       <c r="J27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K27">
         <v>2.15</v>
@@ -2978,7 +2978,7 @@
         <v>3</v>
       </c>
       <c r="J28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K28">
         <v>3.4</v>
@@ -3144,7 +3144,7 @@
         <v>45137.54166666666</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G30" t="s">
         <v>50</v>
@@ -3156,7 +3156,7 @@
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K30">
         <v>2.15</v>
@@ -3325,7 +3325,7 @@
         <v>43</v>
       </c>
       <c r="G32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3423,7 +3423,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K33">
         <v>1.909</v>
@@ -3503,7 +3503,7 @@
         <v>44</v>
       </c>
       <c r="G34" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -3512,7 +3512,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K34">
         <v>1.8</v>
@@ -3592,7 +3592,7 @@
         <v>38</v>
       </c>
       <c r="G35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -3601,7 +3601,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K35">
         <v>1.5</v>
@@ -3681,7 +3681,7 @@
         <v>41</v>
       </c>
       <c r="G36" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -3690,7 +3690,7 @@
         <v>5</v>
       </c>
       <c r="J36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K36">
         <v>3.6</v>
@@ -3779,7 +3779,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K37">
         <v>3.2</v>
@@ -3868,7 +3868,7 @@
         <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K38">
         <v>2.15</v>
@@ -3957,7 +3957,7 @@
         <v>3</v>
       </c>
       <c r="J39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K39">
         <v>1.666</v>
@@ -4037,7 +4037,7 @@
         <v>49</v>
       </c>
       <c r="G40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K40">
         <v>2.875</v>
@@ -4123,7 +4123,7 @@
         <v>45149.54166666666</v>
       </c>
       <c r="F41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G41" t="s">
         <v>41</v>
@@ -4304,7 +4304,7 @@
         <v>46</v>
       </c>
       <c r="G43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4479,7 +4479,7 @@
         <v>45150.625</v>
       </c>
       <c r="F45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G45" t="s">
         <v>49</v>
@@ -4491,7 +4491,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K45">
         <v>1.833</v>
@@ -4657,7 +4657,7 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G47" t="s">
         <v>39</v>
@@ -4669,7 +4669,7 @@
         <v>3</v>
       </c>
       <c r="J47" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K47">
         <v>2.5</v>
@@ -4746,7 +4746,7 @@
         <v>45151.54166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G48" t="s">
         <v>40</v>
@@ -4758,7 +4758,7 @@
         <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K48">
         <v>1.571</v>
@@ -4847,7 +4847,7 @@
         <v>4</v>
       </c>
       <c r="J49" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K49">
         <v>3.6</v>
@@ -4924,10 +4924,10 @@
         <v>45156.54166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -5025,7 +5025,7 @@
         <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K51">
         <v>1.571</v>
@@ -5105,7 +5105,7 @@
         <v>48</v>
       </c>
       <c r="G52" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H52">
         <v>3</v>
@@ -5194,7 +5194,7 @@
         <v>40</v>
       </c>
       <c r="G53" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5203,7 +5203,7 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K53">
         <v>2.3</v>
@@ -5292,7 +5292,7 @@
         <v>3</v>
       </c>
       <c r="J54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K54">
         <v>2.2</v>
@@ -5461,7 +5461,7 @@
         <v>44</v>
       </c>
       <c r="G56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5648,7 +5648,7 @@
         <v>2</v>
       </c>
       <c r="J58" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K58">
         <v>2.5</v>
@@ -5737,7 +5737,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K59">
         <v>2.875</v>
@@ -5817,7 +5817,7 @@
         <v>45</v>
       </c>
       <c r="G60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H60">
         <v>3</v>
@@ -6004,7 +6004,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K62">
         <v>2.2</v>
@@ -6081,7 +6081,7 @@
         <v>45164.625</v>
       </c>
       <c r="F63" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G63" t="s">
         <v>48</v>
@@ -6259,7 +6259,7 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G65" t="s">
         <v>41</v>
@@ -6348,7 +6348,7 @@
         <v>45165.54166666666</v>
       </c>
       <c r="F66" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G66" t="s">
         <v>43</v>
@@ -6440,7 +6440,7 @@
         <v>46</v>
       </c>
       <c r="G67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6449,7 +6449,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K67">
         <v>2.2</v>
@@ -6529,7 +6529,7 @@
         <v>49</v>
       </c>
       <c r="G68" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -6538,7 +6538,7 @@
         <v>4</v>
       </c>
       <c r="J68" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K68">
         <v>3.1</v>
@@ -6627,7 +6627,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K69">
         <v>2.25</v>
@@ -6885,7 +6885,7 @@
         <v>43</v>
       </c>
       <c r="G72" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -6894,7 +6894,7 @@
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K72">
         <v>2.15</v>
@@ -6971,7 +6971,7 @@
         <v>45172.31944444445</v>
       </c>
       <c r="F73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G73" t="s">
         <v>45</v>
@@ -7060,7 +7060,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G74" t="s">
         <v>47</v>
@@ -7072,7 +7072,7 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K74">
         <v>2.3</v>
@@ -7241,7 +7241,7 @@
         <v>40</v>
       </c>
       <c r="G76" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H76">
         <v>3</v>
@@ -7327,7 +7327,7 @@
         <v>45184.54166666666</v>
       </c>
       <c r="F77" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G77" t="s">
         <v>48</v>
@@ -7339,7 +7339,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K77">
         <v>3.2</v>
@@ -7419,7 +7419,7 @@
         <v>47</v>
       </c>
       <c r="G78" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7428,7 +7428,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K78">
         <v>1.85</v>
@@ -7517,7 +7517,7 @@
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K79">
         <v>2.1</v>
@@ -7606,7 +7606,7 @@
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K80">
         <v>1.222</v>
@@ -7695,7 +7695,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K81">
         <v>2.05</v>
@@ -7861,10 +7861,10 @@
         <v>45186.45833333334</v>
       </c>
       <c r="F83" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G83" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -7873,7 +7873,7 @@
         <v>2</v>
       </c>
       <c r="J83" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K83">
         <v>1.85</v>
@@ -8039,7 +8039,7 @@
         <v>45187.54166666666</v>
       </c>
       <c r="F85" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G85" t="s">
         <v>49</v>
@@ -8116,7 +8116,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6803738</v>
+        <v>6803740</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8128,16 +8128,16 @@
         <v>45191.54166666666</v>
       </c>
       <c r="F86" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G86" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H86">
         <v>1</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J86" t="s">
         <v>55</v>
@@ -8149,55 +8149,55 @@
         <v>3.5</v>
       </c>
       <c r="M86">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="N86">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="O86">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P86">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q86">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R86">
+        <v>1.975</v>
+      </c>
+      <c r="S86">
         <v>1.825</v>
       </c>
-      <c r="S86">
-        <v>1.975</v>
-      </c>
       <c r="T86">
+        <v>2.25</v>
+      </c>
+      <c r="U86">
+        <v>1.9</v>
+      </c>
+      <c r="V86">
+        <v>1.9</v>
+      </c>
+      <c r="W86">
+        <v>-1</v>
+      </c>
+      <c r="X86">
+        <v>-1</v>
+      </c>
+      <c r="Y86">
         <v>2.5</v>
       </c>
-      <c r="U86">
-        <v>1.825</v>
-      </c>
-      <c r="V86">
-        <v>1.975</v>
-      </c>
-      <c r="W86">
-        <v>-1</v>
-      </c>
-      <c r="X86">
-        <v>2.8</v>
-      </c>
-      <c r="Y86">
-        <v>-1</v>
-      </c>
       <c r="Z86">
         <v>-1</v>
       </c>
       <c r="AA86">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC86">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8205,7 +8205,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6803740</v>
+        <v>6803738</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8217,16 +8217,16 @@
         <v>45191.54166666666</v>
       </c>
       <c r="F87" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H87">
         <v>1</v>
       </c>
       <c r="I87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J87" t="s">
         <v>54</v>
@@ -8238,55 +8238,55 @@
         <v>3.5</v>
       </c>
       <c r="M87">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="N87">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="O87">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P87">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q87">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R87">
+        <v>1.825</v>
+      </c>
+      <c r="S87">
         <v>1.975</v>
       </c>
-      <c r="S87">
+      <c r="T87">
+        <v>2.5</v>
+      </c>
+      <c r="U87">
         <v>1.825</v>
       </c>
-      <c r="T87">
-        <v>2.25</v>
-      </c>
-      <c r="U87">
-        <v>1.9</v>
-      </c>
       <c r="V87">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W87">
         <v>-1</v>
       </c>
       <c r="X87">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y87">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
         <v>-1</v>
       </c>
       <c r="AA87">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB87">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8407,7 +8407,7 @@
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K89">
         <v>2.05</v>
@@ -8496,7 +8496,7 @@
         <v>4</v>
       </c>
       <c r="J90" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K90">
         <v>3.6</v>
@@ -8754,7 +8754,7 @@
         <v>43</v>
       </c>
       <c r="G93" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -8763,7 +8763,7 @@
         <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K93">
         <v>2.05</v>
@@ -8840,10 +8840,10 @@
         <v>45193.54166666666</v>
       </c>
       <c r="F94" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G94" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -8852,7 +8852,7 @@
         <v>3</v>
       </c>
       <c r="J94" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K94">
         <v>2.8</v>
@@ -8932,7 +8932,7 @@
         <v>42</v>
       </c>
       <c r="G95" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H95">
         <v>2</v>
@@ -9119,7 +9119,7 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K97">
         <v>1.3</v>
@@ -9285,7 +9285,7 @@
         <v>45199.625</v>
       </c>
       <c r="F99" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G99" t="s">
         <v>49</v>
@@ -9386,7 +9386,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K100">
         <v>2</v>
@@ -9463,7 +9463,7 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G101" t="s">
         <v>45</v>
@@ -9475,7 +9475,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K101">
         <v>1.85</v>
@@ -9641,10 +9641,10 @@
         <v>45201.54166666666</v>
       </c>
       <c r="F103" t="s">
+        <v>31</v>
+      </c>
+      <c r="G103" t="s">
         <v>30</v>
-      </c>
-      <c r="G103" t="s">
-        <v>31</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9653,7 +9653,7 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K103">
         <v>2.375</v>
@@ -9742,7 +9742,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K104">
         <v>4</v>
@@ -9822,7 +9822,7 @@
         <v>45</v>
       </c>
       <c r="G105" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9831,7 +9831,7 @@
         <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K105">
         <v>1.75</v>
@@ -9908,10 +9908,10 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F106" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G106" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -9920,7 +9920,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K106">
         <v>1.85</v>
@@ -10098,7 +10098,7 @@
         <v>3</v>
       </c>
       <c r="J108" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K108">
         <v>2.05</v>
@@ -10187,7 +10187,7 @@
         <v>3</v>
       </c>
       <c r="J109" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K109">
         <v>2.625</v>
@@ -10341,7 +10341,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6805706</v>
+        <v>6803754</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10353,76 +10353,76 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F111" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G111" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H111">
         <v>0</v>
       </c>
       <c r="I111">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J111" t="s">
         <v>54</v>
       </c>
       <c r="K111">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L111">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M111">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="N111">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="O111">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P111">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="Q111">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R111">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S111">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T111">
         <v>2.5</v>
       </c>
       <c r="U111">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V111">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W111">
         <v>-1</v>
       </c>
       <c r="X111">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y111">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA111">
+        <v>-0</v>
+      </c>
+      <c r="AB111">
+        <v>-1</v>
+      </c>
+      <c r="AC111">
         <v>0.95</v>
-      </c>
-      <c r="AB111">
-        <v>-1</v>
-      </c>
-      <c r="AC111">
-        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10430,7 +10430,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6803754</v>
+        <v>6805706</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10442,76 +10442,76 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F112" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G112" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H112">
         <v>0</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J112" t="s">
         <v>55</v>
       </c>
       <c r="K112">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L112">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M112">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="N112">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="O112">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P112">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="Q112">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R112">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S112">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T112">
         <v>2.5</v>
       </c>
       <c r="U112">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V112">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W112">
         <v>-1</v>
       </c>
       <c r="X112">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z112">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA112">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB112">
         <v>-1</v>
       </c>
       <c r="AC112">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10543,7 +10543,7 @@
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K113">
         <v>3.5</v>
@@ -10709,10 +10709,10 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F115" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G115" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -10721,7 +10721,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K115">
         <v>1.833</v>
@@ -10801,7 +10801,7 @@
         <v>50</v>
       </c>
       <c r="G116" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H116">
         <v>3</v>
@@ -10979,7 +10979,7 @@
         <v>46</v>
       </c>
       <c r="G118" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H118">
         <v>2</v>
@@ -11065,7 +11065,7 @@
         <v>45221.54166666666</v>
       </c>
       <c r="F119" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G119" t="s">
         <v>47</v>
@@ -11077,7 +11077,7 @@
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K119">
         <v>2.3</v>
@@ -11344,7 +11344,7 @@
         <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K122">
         <v>1.7</v>
@@ -11421,7 +11421,7 @@
         <v>45226.64583333334</v>
       </c>
       <c r="F123" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G123" t="s">
         <v>38</v>
@@ -11513,7 +11513,7 @@
         <v>45</v>
       </c>
       <c r="G124" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -11599,7 +11599,7 @@
         <v>45227.52083333334</v>
       </c>
       <c r="F125" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G125" t="s">
         <v>50</v>
@@ -11611,7 +11611,7 @@
         <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K125">
         <v>2.625</v>
@@ -11688,10 +11688,10 @@
         <v>45227.625</v>
       </c>
       <c r="F126" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G126" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H126">
         <v>3</v>
@@ -11878,7 +11878,7 @@
         <v>2</v>
       </c>
       <c r="J128" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K128">
         <v>3.4</v>
@@ -11967,7 +11967,7 @@
         <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K129">
         <v>2.9</v>
@@ -12056,7 +12056,7 @@
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K130">
         <v>2.6</v>
@@ -12145,7 +12145,7 @@
         <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K131">
         <v>1.533</v>
@@ -12225,7 +12225,7 @@
         <v>38</v>
       </c>
       <c r="G132" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -12234,7 +12234,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K132">
         <v>1.363</v>
@@ -12314,7 +12314,7 @@
         <v>39</v>
       </c>
       <c r="G133" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H133">
         <v>1</v>
@@ -12403,7 +12403,7 @@
         <v>46</v>
       </c>
       <c r="G134" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -12412,7 +12412,7 @@
         <v>3</v>
       </c>
       <c r="J134" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K134">
         <v>1.666</v>
@@ -12492,7 +12492,7 @@
         <v>42</v>
       </c>
       <c r="G135" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -12501,7 +12501,7 @@
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K135">
         <v>3.1</v>
@@ -12590,7 +12590,7 @@
         <v>3</v>
       </c>
       <c r="J136" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K136">
         <v>2.15</v>
@@ -12667,7 +12667,7 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F137" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G137" t="s">
         <v>47</v>
@@ -12679,7 +12679,7 @@
         <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K137">
         <v>2.45</v>
@@ -12768,7 +12768,7 @@
         <v>2</v>
       </c>
       <c r="J138" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K138">
         <v>2.5</v>
@@ -13035,7 +13035,7 @@
         <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K141">
         <v>3</v>
@@ -13112,7 +13112,7 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F142" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G142" t="s">
         <v>42</v>
@@ -13124,7 +13124,7 @@
         <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K142">
         <v>2.1</v>
@@ -13290,10 +13290,10 @@
         <v>45241.66666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G144" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H144">
         <v>1</v>
@@ -13302,7 +13302,7 @@
         <v>2</v>
       </c>
       <c r="J144" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K144">
         <v>1.8</v>
@@ -13480,7 +13480,7 @@
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K146">
         <v>1.909</v>
@@ -13545,7 +13545,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6803779</v>
+        <v>6803778</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13557,76 +13557,76 @@
         <v>45242.58333333334</v>
       </c>
       <c r="F147" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G147" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J147" t="s">
         <v>54</v>
       </c>
       <c r="K147">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="L147">
         <v>3.4</v>
       </c>
       <c r="M147">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="N147">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="O147">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P147">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="Q147">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R147">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S147">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T147">
         <v>2.5</v>
       </c>
       <c r="U147">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V147">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W147">
         <v>-1</v>
       </c>
       <c r="X147">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y147">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z147">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA147">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB147">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13634,7 +13634,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6803778</v>
+        <v>6803779</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13646,76 +13646,76 @@
         <v>45242.58333333334</v>
       </c>
       <c r="F148" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G148" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I148">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J148" t="s">
         <v>55</v>
       </c>
       <c r="K148">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="L148">
         <v>3.4</v>
       </c>
       <c r="M148">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="N148">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="O148">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P148">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="Q148">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R148">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S148">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T148">
         <v>2.5</v>
       </c>
       <c r="U148">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V148">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W148">
         <v>-1</v>
       </c>
       <c r="X148">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y148">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z148">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA148">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC148">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13738,7 +13738,7 @@
         <v>41</v>
       </c>
       <c r="G149" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H149">
         <v>3</v>
@@ -13913,10 +13913,10 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F151" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G151" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H151">
         <v>3</v>
@@ -14281,7 +14281,7 @@
         <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K155">
         <v>1.8</v>
@@ -14361,7 +14361,7 @@
         <v>44</v>
       </c>
       <c r="G156" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H156">
         <v>2</v>
@@ -14450,7 +14450,7 @@
         <v>50</v>
       </c>
       <c r="G157" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H157">
         <v>3</v>
@@ -14539,7 +14539,7 @@
         <v>42</v>
       </c>
       <c r="G158" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H158">
         <v>2</v>
@@ -14548,7 +14548,7 @@
         <v>2</v>
       </c>
       <c r="J158" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K158">
         <v>2.3</v>
@@ -14625,7 +14625,7 @@
         <v>45261.6875</v>
       </c>
       <c r="F159" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G159" t="s">
         <v>38</v>
@@ -14726,7 +14726,7 @@
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K160">
         <v>2.75</v>
@@ -15070,7 +15070,7 @@
         <v>45268.6875</v>
       </c>
       <c r="F164" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G164" t="s">
         <v>40</v>
@@ -15082,7 +15082,7 @@
         <v>4</v>
       </c>
       <c r="J164" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K164">
         <v>2.875</v>
@@ -15162,7 +15162,7 @@
         <v>48</v>
       </c>
       <c r="G165" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H165">
         <v>2</v>
@@ -15349,7 +15349,7 @@
         <v>2</v>
       </c>
       <c r="J167" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K167">
         <v>2.5</v>
@@ -15414,7 +15414,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6803794</v>
+        <v>6803793</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15426,76 +15426,76 @@
         <v>45270.36111111111</v>
       </c>
       <c r="F168" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G168" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H168">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K168">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="L168">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M168">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="N168">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="O168">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P168">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q168">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R168">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S168">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T168">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U168">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V168">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W168">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X168">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y168">
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA168">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB168">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC168">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15503,7 +15503,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6803793</v>
+        <v>6803794</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15515,76 +15515,76 @@
         <v>45270.36111111111</v>
       </c>
       <c r="F169" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G169" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K169">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="L169">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M169">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="N169">
-        <v>2.1</v>
+        <v>1.363</v>
       </c>
       <c r="O169">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P169">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="Q169">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R169">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S169">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T169">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U169">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V169">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W169">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X169">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y169">
         <v>-1</v>
       </c>
       <c r="Z169">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA169">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB169">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC169">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15604,7 +15604,7 @@
         <v>45271.58333333334</v>
       </c>
       <c r="F170" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G170" t="s">
         <v>39</v>
@@ -15785,7 +15785,7 @@
         <v>48</v>
       </c>
       <c r="G172" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H172">
         <v>2</v>
@@ -15883,7 +15883,7 @@
         <v>4</v>
       </c>
       <c r="J173" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K173">
         <v>3.75</v>
@@ -15963,7 +15963,7 @@
         <v>39</v>
       </c>
       <c r="G174" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H174">
         <v>0</v>
@@ -15972,7 +15972,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K174">
         <v>1.55</v>
@@ -16230,7 +16230,7 @@
         <v>43</v>
       </c>
       <c r="G177" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H177">
         <v>0</v>
@@ -16239,7 +16239,7 @@
         <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K177">
         <v>2.3</v>
@@ -16319,7 +16319,7 @@
         <v>50</v>
       </c>
       <c r="G178" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H178">
         <v>2</v>
@@ -16408,7 +16408,7 @@
         <v>44</v>
       </c>
       <c r="G179" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H179">
         <v>2</v>
@@ -16417,7 +16417,7 @@
         <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K179">
         <v>2.05</v>
@@ -16494,7 +16494,7 @@
         <v>45279.5625</v>
       </c>
       <c r="F180" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G180" t="s">
         <v>41</v>
@@ -16506,7 +16506,7 @@
         <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K180">
         <v>1.833</v>
@@ -16595,7 +16595,7 @@
         <v>2</v>
       </c>
       <c r="J181" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K181">
         <v>3</v>
@@ -16672,7 +16672,7 @@
         <v>45338.58333333334</v>
       </c>
       <c r="F182" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G182" t="s">
         <v>44</v>
@@ -16684,7 +16684,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K182">
         <v>3.75</v>
@@ -16850,7 +16850,7 @@
         <v>45339.45833333334</v>
       </c>
       <c r="F184" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G184" t="s">
         <v>49</v>
@@ -16862,7 +16862,7 @@
         <v>2</v>
       </c>
       <c r="J184" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K184">
         <v>1.833</v>
@@ -16951,7 +16951,7 @@
         <v>3</v>
       </c>
       <c r="J185" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K185">
         <v>4.2</v>
@@ -17117,7 +17117,7 @@
         <v>45340.36111111111</v>
       </c>
       <c r="F187" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G187" t="s">
         <v>38</v>
@@ -17129,7 +17129,7 @@
         <v>2</v>
       </c>
       <c r="J187" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K187">
         <v>3.8</v>
@@ -17206,7 +17206,7 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G188" t="s">
         <v>41</v>
@@ -17218,7 +17218,7 @@
         <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K188">
         <v>1.55</v>
@@ -17295,7 +17295,7 @@
         <v>45340.58333333334</v>
       </c>
       <c r="F189" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G189" t="s">
         <v>43</v>
@@ -17307,7 +17307,7 @@
         <v>1</v>
       </c>
       <c r="J189" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K189">
         <v>2.3</v>
@@ -17473,7 +17473,7 @@
         <v>45342.58333333334</v>
       </c>
       <c r="F191" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G191" t="s">
         <v>50</v>
@@ -17663,7 +17663,7 @@
         <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K193">
         <v>1.666</v>
@@ -17740,7 +17740,7 @@
         <v>45346.36111111111</v>
       </c>
       <c r="F194" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G194" t="s">
         <v>46</v>
@@ -17752,7 +17752,7 @@
         <v>2</v>
       </c>
       <c r="J194" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K194">
         <v>2.5</v>
@@ -17921,7 +17921,7 @@
         <v>40</v>
       </c>
       <c r="G196" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -18010,7 +18010,7 @@
         <v>39</v>
       </c>
       <c r="G197" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H197">
         <v>5</v>
@@ -18108,7 +18108,7 @@
         <v>2</v>
       </c>
       <c r="J198" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K198">
         <v>3</v>
@@ -18188,7 +18188,7 @@
         <v>49</v>
       </c>
       <c r="G199" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H199">
         <v>1</v>
@@ -18277,7 +18277,7 @@
         <v>41</v>
       </c>
       <c r="G200" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H200">
         <v>0</v>
@@ -18286,7 +18286,7 @@
         <v>1</v>
       </c>
       <c r="J200" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K200">
         <v>3</v>
@@ -18452,7 +18452,7 @@
         <v>45350.58333333334</v>
       </c>
       <c r="F202" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G202" t="s">
         <v>40</v>
@@ -18464,7 +18464,7 @@
         <v>2</v>
       </c>
       <c r="J202" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K202">
         <v>2.4</v>
@@ -18541,7 +18541,7 @@
         <v>45352.58333333334</v>
       </c>
       <c r="F203" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G203" t="s">
         <v>44</v>
@@ -18553,7 +18553,7 @@
         <v>3</v>
       </c>
       <c r="J203" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K203">
         <v>3.5</v>
@@ -18642,7 +18642,7 @@
         <v>1</v>
       </c>
       <c r="J204" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K204">
         <v>2.8</v>
@@ -18808,7 +18808,7 @@
         <v>45353.45833333334</v>
       </c>
       <c r="F206" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G206" t="s">
         <v>48</v>
@@ -18820,7 +18820,7 @@
         <v>2</v>
       </c>
       <c r="J206" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K206">
         <v>2</v>
@@ -18909,7 +18909,7 @@
         <v>2</v>
       </c>
       <c r="J207" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K207">
         <v>3.8</v>
@@ -18986,7 +18986,7 @@
         <v>45354.36111111111</v>
       </c>
       <c r="F208" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G208" t="s">
         <v>40</v>
@@ -18998,7 +18998,7 @@
         <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K208">
         <v>2.2</v>
@@ -19087,7 +19087,7 @@
         <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K209">
         <v>1.909</v>
@@ -19164,10 +19164,10 @@
         <v>45354.58333333334</v>
       </c>
       <c r="F210" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G210" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H210">
         <v>0</v>
@@ -19176,7 +19176,7 @@
         <v>0</v>
       </c>
       <c r="J210" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K210">
         <v>2.5</v>
@@ -19345,7 +19345,7 @@
         <v>43</v>
       </c>
       <c r="G212" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H212">
         <v>2</v>
@@ -19443,7 +19443,7 @@
         <v>1</v>
       </c>
       <c r="J213" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K213">
         <v>2.2</v>
@@ -19508,7 +19508,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6805672</v>
+        <v>6803822</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19520,76 +19520,76 @@
         <v>45360.45833333334</v>
       </c>
       <c r="F214" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G214" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I214">
         <v>1</v>
       </c>
       <c r="J214" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K214">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="L214">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M214">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="N214">
-        <v>1.75</v>
+        <v>2.625</v>
       </c>
       <c r="O214">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P214">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q214">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R214">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S214">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T214">
         <v>2.5</v>
       </c>
       <c r="U214">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V214">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W214">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X214">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y214">
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA214">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB214">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC214">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19597,7 +19597,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6803822</v>
+        <v>6805672</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19609,76 +19609,76 @@
         <v>45360.45833333334</v>
       </c>
       <c r="F215" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G215" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I215">
         <v>1</v>
       </c>
       <c r="J215" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K215">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="L215">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M215">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="N215">
-        <v>2.625</v>
+        <v>1.75</v>
       </c>
       <c r="O215">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P215">
-        <v>2.625</v>
+        <v>4.75</v>
       </c>
       <c r="Q215">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R215">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S215">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T215">
         <v>2.5</v>
       </c>
       <c r="U215">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V215">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W215">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X215">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y215">
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA215">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB215">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC215">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19710,7 +19710,7 @@
         <v>2</v>
       </c>
       <c r="J216" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K216">
         <v>2.05</v>
@@ -19787,7 +19787,7 @@
         <v>45361.36111111111</v>
       </c>
       <c r="F217" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G217" t="s">
         <v>45</v>
@@ -19799,7 +19799,7 @@
         <v>2</v>
       </c>
       <c r="J217" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K217">
         <v>3</v>
@@ -19888,7 +19888,7 @@
         <v>2</v>
       </c>
       <c r="J218" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K218">
         <v>3.5</v>
@@ -19965,7 +19965,7 @@
         <v>45361.58333333334</v>
       </c>
       <c r="F219" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G219" t="s">
         <v>46</v>
@@ -19977,7 +19977,7 @@
         <v>1</v>
       </c>
       <c r="J219" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K219">
         <v>2.75</v>
@@ -20057,7 +20057,7 @@
         <v>48</v>
       </c>
       <c r="G220" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H220">
         <v>2</v>
@@ -20146,7 +20146,7 @@
         <v>45</v>
       </c>
       <c r="G221" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H221">
         <v>4</v>
@@ -20244,7 +20244,7 @@
         <v>2</v>
       </c>
       <c r="J222" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K222">
         <v>3</v>
@@ -20410,7 +20410,7 @@
         <v>45367.36111111111</v>
       </c>
       <c r="F224" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G224" t="s">
         <v>49</v>
@@ -20422,7 +20422,7 @@
         <v>4</v>
       </c>
       <c r="J224" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K224">
         <v>1.55</v>
@@ -20511,7 +20511,7 @@
         <v>2</v>
       </c>
       <c r="J225" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K225">
         <v>1.571</v>
@@ -20588,7 +20588,7 @@
         <v>45367.5625</v>
       </c>
       <c r="F226" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G226" t="s">
         <v>40</v>
@@ -20689,7 +20689,7 @@
         <v>2</v>
       </c>
       <c r="J227" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K227">
         <v>1.55</v>
@@ -20766,7 +20766,7 @@
         <v>45368.45833333334</v>
       </c>
       <c r="F228" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G228" t="s">
         <v>43</v>
@@ -20778,7 +20778,7 @@
         <v>1</v>
       </c>
       <c r="J228" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K228">
         <v>2.25</v>
@@ -20858,7 +20858,7 @@
         <v>47</v>
       </c>
       <c r="G229" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H229">
         <v>5</v>
@@ -20947,7 +20947,7 @@
         <v>49</v>
       </c>
       <c r="G230" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K230">
         <v>2.45</v>
@@ -20962,7 +20962,7 @@
         <v>2.45</v>
       </c>
       <c r="O230">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P230">
         <v>2.625</v>
@@ -20971,19 +20971,19 @@
         <v>0</v>
       </c>
       <c r="R230">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S230">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T230">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U230">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V230">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W230">
         <v>0</v>
@@ -21054,10 +21054,10 @@
         <v>2.5</v>
       </c>
       <c r="U231">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V231">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W231">
         <v>0</v>
@@ -21119,19 +21119,19 @@
         <v>1</v>
       </c>
       <c r="R232">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S232">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T232">
         <v>2.75</v>
       </c>
       <c r="U232">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V232">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W232">
         <v>0</v>
@@ -21166,10 +21166,10 @@
         <v>45381.66666666666</v>
       </c>
       <c r="F233" t="s">
+        <v>32</v>
+      </c>
+      <c r="G233" t="s">
         <v>33</v>
-      </c>
-      <c r="G233" t="s">
-        <v>36</v>
       </c>
       <c r="K233">
         <v>2.7</v>
@@ -21314,7 +21314,7 @@
         <v>45383.41666666666</v>
       </c>
       <c r="F235" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G235" t="s">
         <v>47</v>
@@ -21341,10 +21341,10 @@
         <v>0.5</v>
       </c>
       <c r="R235">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S235">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T235">
         <v>2.25</v>
@@ -21465,7 +21465,7 @@
         <v>48</v>
       </c>
       <c r="G237" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K237">
         <v>1.727</v>
@@ -21563,19 +21563,19 @@
         <v>-1</v>
       </c>
       <c r="R238">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S238">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T238">
         <v>2.5</v>
       </c>
       <c r="U238">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V238">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W238">
         <v>0</v>

--- a/Poland I Liga/Poland I Liga.xlsx
+++ b/Poland I Liga/Poland I Liga.xlsx
@@ -118,6 +118,9 @@
     <t>Termalica BB Nieciecza</t>
   </si>
   <si>
+    <t>Chojniczanka Chojnice</t>
+  </si>
+  <si>
     <t>Stal Rzeszow</t>
   </si>
   <si>
@@ -125,9 +128,6 @@
   </si>
   <si>
     <t>Ruch Chorzow</t>
-  </si>
-  <si>
-    <t>Chojniczanka Chojnice</t>
   </si>
   <si>
     <t>Wisla Krakow</t>
@@ -1085,7 +1085,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5451610</v>
+        <v>5448050</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1100,73 +1100,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7">
+        <v>2.75</v>
+      </c>
+      <c r="L7">
+        <v>3.25</v>
+      </c>
+      <c r="M7">
+        <v>2.375</v>
+      </c>
+      <c r="N7">
+        <v>2.4</v>
+      </c>
+      <c r="O7">
+        <v>3.25</v>
+      </c>
+      <c r="P7">
+        <v>2.7</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>1.8</v>
+      </c>
+      <c r="S7">
+        <v>2.05</v>
+      </c>
+      <c r="T7">
+        <v>2.5</v>
+      </c>
+      <c r="U7">
+        <v>2</v>
+      </c>
+      <c r="V7">
+        <v>1.85</v>
+      </c>
+      <c r="W7">
+        <v>-1</v>
+      </c>
+      <c r="X7">
+        <v>2.25</v>
+      </c>
+      <c r="Y7">
+        <v>-1</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>-0</v>
+      </c>
+      <c r="AB7">
         <v>1</v>
       </c>
-      <c r="J7" t="s">
-        <v>53</v>
-      </c>
-      <c r="K7">
-        <v>1.444</v>
-      </c>
-      <c r="L7">
-        <v>4</v>
-      </c>
-      <c r="M7">
-        <v>6.5</v>
-      </c>
-      <c r="N7">
-        <v>1.333</v>
-      </c>
-      <c r="O7">
-        <v>4.333</v>
-      </c>
-      <c r="P7">
-        <v>8</v>
-      </c>
-      <c r="Q7">
-        <v>-1.5</v>
-      </c>
-      <c r="R7">
-        <v>1.95</v>
-      </c>
-      <c r="S7">
-        <v>1.85</v>
-      </c>
-      <c r="T7">
-        <v>2.75</v>
-      </c>
-      <c r="U7">
-        <v>1.875</v>
-      </c>
-      <c r="V7">
-        <v>1.925</v>
-      </c>
-      <c r="W7">
-        <v>0.333</v>
-      </c>
-      <c r="X7">
-        <v>-1</v>
-      </c>
-      <c r="Y7">
-        <v>-1</v>
-      </c>
-      <c r="Z7">
-        <v>-1</v>
-      </c>
-      <c r="AA7">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB7">
-        <v>0.4375</v>
-      </c>
       <c r="AC7">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1174,7 +1174,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5452381</v>
+        <v>5451610</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1189,73 +1189,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K8">
-        <v>1.571</v>
+        <v>1.444</v>
       </c>
       <c r="L8">
         <v>4</v>
       </c>
       <c r="M8">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="N8">
-        <v>1.4</v>
+        <v>1.333</v>
       </c>
       <c r="O8">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="P8">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="Q8">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R8">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S8">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T8">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U8">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V8">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
         <v>-1</v>
       </c>
       <c r="AA8">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC8">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1263,7 +1263,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5451609</v>
+        <v>5452381</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1278,73 +1278,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <v>1</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
       <c r="J9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K9">
-        <v>1.3</v>
+        <v>1.571</v>
       </c>
       <c r="L9">
+        <v>4</v>
+      </c>
+      <c r="M9">
         <v>5</v>
       </c>
-      <c r="M9">
-        <v>7.5</v>
-      </c>
       <c r="N9">
-        <v>1.333</v>
+        <v>1.4</v>
       </c>
       <c r="O9">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P9">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="Q9">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R9">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S9">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T9">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U9">
+        <v>2.025</v>
+      </c>
+      <c r="V9">
         <v>1.825</v>
       </c>
-      <c r="V9">
-        <v>1.975</v>
-      </c>
       <c r="W9">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z9">
         <v>-1</v>
       </c>
       <c r="AA9">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB9">
         <v>-1</v>
       </c>
       <c r="AC9">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1352,7 +1352,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5448050</v>
+        <v>5451609</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1367,73 +1367,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K10">
-        <v>2.75</v>
+        <v>1.3</v>
       </c>
       <c r="L10">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="M10">
-        <v>2.375</v>
+        <v>7.5</v>
       </c>
       <c r="N10">
-        <v>2.4</v>
+        <v>1.333</v>
       </c>
       <c r="O10">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="P10">
-        <v>2.7</v>
+        <v>8</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R10">
+        <v>2</v>
+      </c>
+      <c r="S10">
         <v>1.8</v>
-      </c>
-      <c r="S10">
-        <v>2.05</v>
       </c>
       <c r="T10">
         <v>2.5</v>
       </c>
       <c r="U10">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V10">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X10">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA10">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB10">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC10">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1456,7 +1456,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1545,7 +1545,7 @@
         <v>33</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1634,7 +1634,7 @@
         <v>33</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -2432,7 +2432,7 @@
         <v>45131.54166666666</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -3144,7 +3144,7 @@
         <v>45137.54166666666</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G30" t="s">
         <v>50</v>
@@ -3592,7 +3592,7 @@
         <v>38</v>
       </c>
       <c r="G35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -4657,7 +4657,7 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G47" t="s">
         <v>39</v>
@@ -5461,7 +5461,7 @@
         <v>44</v>
       </c>
       <c r="G56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -6259,7 +6259,7 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G65" t="s">
         <v>41</v>
@@ -7241,7 +7241,7 @@
         <v>40</v>
       </c>
       <c r="G76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H76">
         <v>3</v>
@@ -7327,7 +7327,7 @@
         <v>45184.54166666666</v>
       </c>
       <c r="F77" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G77" t="s">
         <v>48</v>
@@ -8754,7 +8754,7 @@
         <v>43</v>
       </c>
       <c r="G93" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -9285,7 +9285,7 @@
         <v>45199.625</v>
       </c>
       <c r="F99" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G99" t="s">
         <v>49</v>
@@ -9911,7 +9911,7 @@
         <v>32</v>
       </c>
       <c r="G106" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -10709,7 +10709,7 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F115" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G115" t="s">
         <v>30</v>
@@ -11513,7 +11513,7 @@
         <v>45</v>
       </c>
       <c r="G124" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -12667,7 +12667,7 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F137" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G137" t="s">
         <v>47</v>
@@ -13293,7 +13293,7 @@
         <v>33</v>
       </c>
       <c r="G144" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H144">
         <v>1</v>
@@ -13913,7 +13913,7 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F151" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G151" t="s">
         <v>31</v>
@@ -14539,7 +14539,7 @@
         <v>42</v>
       </c>
       <c r="G158" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H158">
         <v>2</v>
@@ -15429,7 +15429,7 @@
         <v>46</v>
       </c>
       <c r="G168" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -16319,7 +16319,7 @@
         <v>50</v>
       </c>
       <c r="G178" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H178">
         <v>2</v>
@@ -17117,7 +17117,7 @@
         <v>45340.36111111111</v>
       </c>
       <c r="F187" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G187" t="s">
         <v>38</v>
@@ -18010,7 +18010,7 @@
         <v>39</v>
       </c>
       <c r="G197" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H197">
         <v>5</v>
@@ -18541,7 +18541,7 @@
         <v>45352.58333333334</v>
       </c>
       <c r="F203" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G203" t="s">
         <v>44</v>
@@ -19523,7 +19523,7 @@
         <v>41</v>
       </c>
       <c r="G214" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H214">
         <v>2</v>
@@ -20588,7 +20588,7 @@
         <v>45367.5625</v>
       </c>
       <c r="F226" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G226" t="s">
         <v>40</v>
@@ -20754,7 +20754,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6803831</v>
+        <v>7948879</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20766,76 +20766,76 @@
         <v>45368.45833333334</v>
       </c>
       <c r="F228" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G228" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H228">
+        <v>5</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228" t="s">
+        <v>53</v>
+      </c>
+      <c r="K228">
+        <v>1.8</v>
+      </c>
+      <c r="L228">
+        <v>3.5</v>
+      </c>
+      <c r="M228">
+        <v>4</v>
+      </c>
+      <c r="N228">
+        <v>1.909</v>
+      </c>
+      <c r="O228">
+        <v>3.3</v>
+      </c>
+      <c r="P228">
+        <v>3.6</v>
+      </c>
+      <c r="Q228">
+        <v>-0.5</v>
+      </c>
+      <c r="R228">
+        <v>1.95</v>
+      </c>
+      <c r="S228">
+        <v>1.9</v>
+      </c>
+      <c r="T228">
+        <v>2.5</v>
+      </c>
+      <c r="U228">
+        <v>2</v>
+      </c>
+      <c r="V228">
+        <v>1.85</v>
+      </c>
+      <c r="W228">
+        <v>0.909</v>
+      </c>
+      <c r="X228">
+        <v>-1</v>
+      </c>
+      <c r="Y228">
+        <v>-1</v>
+      </c>
+      <c r="Z228">
+        <v>0.95</v>
+      </c>
+      <c r="AA228">
+        <v>-1</v>
+      </c>
+      <c r="AB228">
         <v>1</v>
       </c>
-      <c r="I228">
-        <v>1</v>
-      </c>
-      <c r="J228" t="s">
-        <v>54</v>
-      </c>
-      <c r="K228">
-        <v>2.25</v>
-      </c>
-      <c r="L228">
-        <v>3</v>
-      </c>
-      <c r="M228">
-        <v>3.25</v>
-      </c>
-      <c r="N228">
-        <v>2.25</v>
-      </c>
-      <c r="O228">
-        <v>3</v>
-      </c>
-      <c r="P228">
-        <v>3.25</v>
-      </c>
-      <c r="Q228">
-        <v>-0.25</v>
-      </c>
-      <c r="R228">
-        <v>1.975</v>
-      </c>
-      <c r="S228">
-        <v>1.875</v>
-      </c>
-      <c r="T228">
-        <v>2</v>
-      </c>
-      <c r="U228">
-        <v>1.875</v>
-      </c>
-      <c r="V228">
-        <v>1.975</v>
-      </c>
-      <c r="W228">
-        <v>-1</v>
-      </c>
-      <c r="X228">
-        <v>2</v>
-      </c>
-      <c r="Y228">
-        <v>-1</v>
-      </c>
-      <c r="Z228">
-        <v>-0.5</v>
-      </c>
-      <c r="AA228">
-        <v>0.4375</v>
-      </c>
-      <c r="AB228">
-        <v>0</v>
-      </c>
       <c r="AC228">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20843,7 +20843,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7948879</v>
+        <v>6803831</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20855,76 +20855,76 @@
         <v>45368.45833333334</v>
       </c>
       <c r="F229" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G229" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H229">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J229" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K229">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L229">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M229">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="N229">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="O229">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P229">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="Q229">
+        <v>-0.25</v>
+      </c>
+      <c r="R229">
+        <v>1.975</v>
+      </c>
+      <c r="S229">
+        <v>1.875</v>
+      </c>
+      <c r="T229">
+        <v>2</v>
+      </c>
+      <c r="U229">
+        <v>1.875</v>
+      </c>
+      <c r="V229">
+        <v>1.975</v>
+      </c>
+      <c r="W229">
+        <v>-1</v>
+      </c>
+      <c r="X229">
+        <v>2</v>
+      </c>
+      <c r="Y229">
+        <v>-1</v>
+      </c>
+      <c r="Z229">
         <v>-0.5</v>
       </c>
-      <c r="R229">
-        <v>1.95</v>
-      </c>
-      <c r="S229">
-        <v>1.9</v>
-      </c>
-      <c r="T229">
-        <v>2.5</v>
-      </c>
-      <c r="U229">
-        <v>2</v>
-      </c>
-      <c r="V229">
-        <v>1.85</v>
-      </c>
-      <c r="W229">
-        <v>0.909</v>
-      </c>
-      <c r="X229">
-        <v>-1</v>
-      </c>
-      <c r="Y229">
-        <v>-1</v>
-      </c>
-      <c r="Z229">
-        <v>0.95</v>
-      </c>
       <c r="AA229">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC229">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -21128,10 +21128,10 @@
         <v>2.75</v>
       </c>
       <c r="U232">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V232">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W232">
         <v>0</v>
@@ -21202,10 +21202,10 @@
         <v>2.5</v>
       </c>
       <c r="U233">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V233">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W233">
         <v>0</v>
@@ -21465,7 +21465,7 @@
         <v>48</v>
       </c>
       <c r="G237" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K237">
         <v>1.727</v>

--- a/Poland I Liga/Poland I Liga.xlsx
+++ b/Poland I Liga/Poland I Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -118,9 +118,6 @@
     <t>Termalica BB Nieciecza</t>
   </si>
   <si>
-    <t>Chojniczanka Chojnice</t>
-  </si>
-  <si>
     <t>Stal Rzeszow</t>
   </si>
   <si>
@@ -128,6 +125,9 @@
   </si>
   <si>
     <t>Ruch Chorzow</t>
+  </si>
+  <si>
+    <t>Chojniczanka Chojnice</t>
   </si>
   <si>
     <t>Wisla Krakow</t>
@@ -543,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC238"/>
+  <dimension ref="A1:AC234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1085,7 +1085,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5448050</v>
+        <v>5451610</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1100,73 +1100,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K7">
+        <v>1.444</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <v>6.5</v>
+      </c>
+      <c r="N7">
+        <v>1.333</v>
+      </c>
+      <c r="O7">
+        <v>4.333</v>
+      </c>
+      <c r="P7">
+        <v>8</v>
+      </c>
+      <c r="Q7">
+        <v>-1.5</v>
+      </c>
+      <c r="R7">
+        <v>1.95</v>
+      </c>
+      <c r="S7">
+        <v>1.85</v>
+      </c>
+      <c r="T7">
         <v>2.75</v>
       </c>
-      <c r="L7">
-        <v>3.25</v>
-      </c>
-      <c r="M7">
-        <v>2.375</v>
-      </c>
-      <c r="N7">
-        <v>2.4</v>
-      </c>
-      <c r="O7">
-        <v>3.25</v>
-      </c>
-      <c r="P7">
-        <v>2.7</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>1.8</v>
-      </c>
-      <c r="S7">
-        <v>2.05</v>
-      </c>
-      <c r="T7">
-        <v>2.5</v>
-      </c>
       <c r="U7">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V7">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X7">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB7">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1174,7 +1174,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5451610</v>
+        <v>5452381</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1189,73 +1189,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K8">
-        <v>1.444</v>
+        <v>1.571</v>
       </c>
       <c r="L8">
         <v>4</v>
       </c>
       <c r="M8">
+        <v>5</v>
+      </c>
+      <c r="N8">
+        <v>1.4</v>
+      </c>
+      <c r="O8">
+        <v>4.5</v>
+      </c>
+      <c r="P8">
         <v>6.5</v>
       </c>
-      <c r="N8">
-        <v>1.333</v>
-      </c>
-      <c r="O8">
-        <v>4.333</v>
-      </c>
-      <c r="P8">
-        <v>8</v>
-      </c>
       <c r="Q8">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R8">
+        <v>1.9</v>
+      </c>
+      <c r="S8">
         <v>1.95</v>
       </c>
-      <c r="S8">
-        <v>1.85</v>
-      </c>
       <c r="T8">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U8">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V8">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W8">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z8">
         <v>-1</v>
       </c>
       <c r="AA8">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB8">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1263,7 +1263,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5452381</v>
+        <v>5451609</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1278,73 +1278,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K9">
-        <v>1.571</v>
+        <v>1.3</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M9">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="N9">
-        <v>1.4</v>
+        <v>1.333</v>
       </c>
       <c r="O9">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P9">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="Q9">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R9">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S9">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T9">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U9">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V9">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
         <v>-1</v>
       </c>
       <c r="AA9">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB9">
         <v>-1</v>
       </c>
       <c r="AC9">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1352,7 +1352,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5451609</v>
+        <v>5448050</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1367,73 +1367,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10">
-        <v>1.3</v>
+        <v>2.75</v>
       </c>
       <c r="L10">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="M10">
-        <v>7.5</v>
+        <v>2.375</v>
       </c>
       <c r="N10">
-        <v>1.333</v>
+        <v>2.4</v>
       </c>
       <c r="O10">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="P10">
-        <v>8</v>
+        <v>2.7</v>
       </c>
       <c r="Q10">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S10">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T10">
         <v>2.5</v>
       </c>
       <c r="U10">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V10">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W10">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC10">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1456,7 +1456,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1545,7 +1545,7 @@
         <v>33</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1634,7 +1634,7 @@
         <v>33</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -2432,7 +2432,7 @@
         <v>45131.54166666666</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -3144,7 +3144,7 @@
         <v>45137.54166666666</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G30" t="s">
         <v>50</v>
@@ -3592,7 +3592,7 @@
         <v>38</v>
       </c>
       <c r="G35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -4657,7 +4657,7 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G47" t="s">
         <v>39</v>
@@ -5461,7 +5461,7 @@
         <v>44</v>
       </c>
       <c r="G56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -6259,7 +6259,7 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G65" t="s">
         <v>41</v>
@@ -7241,7 +7241,7 @@
         <v>40</v>
       </c>
       <c r="G76" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H76">
         <v>3</v>
@@ -7327,7 +7327,7 @@
         <v>45184.54166666666</v>
       </c>
       <c r="F77" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G77" t="s">
         <v>48</v>
@@ -8754,7 +8754,7 @@
         <v>43</v>
       </c>
       <c r="G93" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -9285,7 +9285,7 @@
         <v>45199.625</v>
       </c>
       <c r="F99" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G99" t="s">
         <v>49</v>
@@ -9911,7 +9911,7 @@
         <v>32</v>
       </c>
       <c r="G106" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -10709,7 +10709,7 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F115" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G115" t="s">
         <v>30</v>
@@ -11513,7 +11513,7 @@
         <v>45</v>
       </c>
       <c r="G124" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -12667,7 +12667,7 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F137" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G137" t="s">
         <v>47</v>
@@ -13293,7 +13293,7 @@
         <v>33</v>
       </c>
       <c r="G144" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H144">
         <v>1</v>
@@ -13913,7 +13913,7 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F151" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G151" t="s">
         <v>31</v>
@@ -14539,7 +14539,7 @@
         <v>42</v>
       </c>
       <c r="G158" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H158">
         <v>2</v>
@@ -15429,7 +15429,7 @@
         <v>46</v>
       </c>
       <c r="G168" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -16319,7 +16319,7 @@
         <v>50</v>
       </c>
       <c r="G178" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H178">
         <v>2</v>
@@ -17117,7 +17117,7 @@
         <v>45340.36111111111</v>
       </c>
       <c r="F187" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G187" t="s">
         <v>38</v>
@@ -18010,7 +18010,7 @@
         <v>39</v>
       </c>
       <c r="G197" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H197">
         <v>5</v>
@@ -18541,7 +18541,7 @@
         <v>45352.58333333334</v>
       </c>
       <c r="F203" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G203" t="s">
         <v>44</v>
@@ -19523,7 +19523,7 @@
         <v>41</v>
       </c>
       <c r="G214" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H214">
         <v>2</v>
@@ -20588,7 +20588,7 @@
         <v>45367.5625</v>
       </c>
       <c r="F226" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G226" t="s">
         <v>40</v>
@@ -20932,7 +20932,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6803836</v>
+        <v>6805667</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20941,49 +20941,49 @@
         <v>28</v>
       </c>
       <c r="E230" s="2">
-        <v>45381.36111111111</v>
+        <v>45383.31944444445</v>
       </c>
       <c r="F230" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G230" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="K230">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="L230">
+        <v>3.3</v>
+      </c>
+      <c r="M230">
+        <v>3.6</v>
+      </c>
+      <c r="N230">
+        <v>2</v>
+      </c>
+      <c r="O230">
         <v>3.25</v>
       </c>
-      <c r="M230">
-        <v>2.625</v>
-      </c>
-      <c r="N230">
-        <v>2.45</v>
-      </c>
-      <c r="O230">
-        <v>3.2</v>
-      </c>
       <c r="P230">
-        <v>2.625</v>
+        <v>3.5</v>
       </c>
       <c r="Q230">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R230">
+        <v>2.05</v>
+      </c>
+      <c r="S230">
         <v>1.8</v>
       </c>
-      <c r="S230">
-        <v>2.05</v>
-      </c>
       <c r="T230">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U230">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V230">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W230">
         <v>0</v>
@@ -21006,7 +21006,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6803839</v>
+        <v>6803834</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21015,49 +21015,49 @@
         <v>28</v>
       </c>
       <c r="E231" s="2">
-        <v>45381.45833333334</v>
+        <v>45383.41666666666</v>
       </c>
       <c r="F231" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G231" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="K231">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="L231">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M231">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="N231">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="O231">
         <v>3.4</v>
       </c>
       <c r="P231">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="Q231">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R231">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S231">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T231">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U231">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V231">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W231">
         <v>0</v>
@@ -21080,7 +21080,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6803838</v>
+        <v>6805666</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21089,49 +21089,49 @@
         <v>28</v>
       </c>
       <c r="E232" s="2">
-        <v>45381.5625</v>
+        <v>45383.52083333334</v>
       </c>
       <c r="F232" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G232" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="K232">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="L232">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M232">
-        <v>1.533</v>
+        <v>2.75</v>
       </c>
       <c r="N232">
-        <v>5.25</v>
+        <v>2.25</v>
       </c>
       <c r="O232">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P232">
-        <v>1.533</v>
+        <v>2.875</v>
       </c>
       <c r="Q232">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R232">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S232">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T232">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U232">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V232">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W232">
         <v>0</v>
@@ -21154,7 +21154,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6803835</v>
+        <v>6803837</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21163,49 +21163,49 @@
         <v>28</v>
       </c>
       <c r="E233" s="2">
-        <v>45381.66666666666</v>
+        <v>45384.54166666666</v>
       </c>
       <c r="F233" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G233" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K233">
-        <v>2.7</v>
+        <v>1.727</v>
       </c>
       <c r="L233">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M233">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="N233">
-        <v>2.7</v>
+        <v>1.727</v>
       </c>
       <c r="O233">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P233">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q233">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R233">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S233">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T233">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U233">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V233">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W233">
         <v>0</v>
@@ -21228,7 +21228,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6805667</v>
+        <v>6805668</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21237,49 +21237,49 @@
         <v>28</v>
       </c>
       <c r="E234" s="2">
-        <v>45383.31944444445</v>
+        <v>45384.64583333334</v>
       </c>
       <c r="F234" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G234" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K234">
-        <v>1.95</v>
+        <v>1.571</v>
       </c>
       <c r="L234">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M234">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="N234">
-        <v>1.95</v>
+        <v>1.533</v>
       </c>
       <c r="O234">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P234">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="Q234">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R234">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S234">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T234">
         <v>2.5</v>
       </c>
       <c r="U234">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V234">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W234">
         <v>0</v>
@@ -21294,302 +21294,6 @@
         <v>0</v>
       </c>
       <c r="AA234">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:29">
-      <c r="A235" s="1">
-        <v>233</v>
-      </c>
-      <c r="B235">
-        <v>6803834</v>
-      </c>
-      <c r="C235" t="s">
-        <v>28</v>
-      </c>
-      <c r="D235" t="s">
-        <v>28</v>
-      </c>
-      <c r="E235" s="2">
-        <v>45383.41666666666</v>
-      </c>
-      <c r="F235" t="s">
-        <v>30</v>
-      </c>
-      <c r="G235" t="s">
-        <v>47</v>
-      </c>
-      <c r="K235">
-        <v>3.4</v>
-      </c>
-      <c r="L235">
-        <v>3.3</v>
-      </c>
-      <c r="M235">
-        <v>2</v>
-      </c>
-      <c r="N235">
-        <v>3.6</v>
-      </c>
-      <c r="O235">
-        <v>3.4</v>
-      </c>
-      <c r="P235">
-        <v>1.909</v>
-      </c>
-      <c r="Q235">
-        <v>0.5</v>
-      </c>
-      <c r="R235">
-        <v>1.825</v>
-      </c>
-      <c r="S235">
-        <v>2.025</v>
-      </c>
-      <c r="T235">
-        <v>2.25</v>
-      </c>
-      <c r="U235">
-        <v>1.8</v>
-      </c>
-      <c r="V235">
-        <v>2.05</v>
-      </c>
-      <c r="W235">
-        <v>0</v>
-      </c>
-      <c r="X235">
-        <v>0</v>
-      </c>
-      <c r="Y235">
-        <v>0</v>
-      </c>
-      <c r="Z235">
-        <v>0</v>
-      </c>
-      <c r="AA235">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:29">
-      <c r="A236" s="1">
-        <v>234</v>
-      </c>
-      <c r="B236">
-        <v>6805666</v>
-      </c>
-      <c r="C236" t="s">
-        <v>28</v>
-      </c>
-      <c r="D236" t="s">
-        <v>28</v>
-      </c>
-      <c r="E236" s="2">
-        <v>45383.52083333334</v>
-      </c>
-      <c r="F236" t="s">
-        <v>40</v>
-      </c>
-      <c r="G236" t="s">
-        <v>50</v>
-      </c>
-      <c r="K236">
-        <v>2.3</v>
-      </c>
-      <c r="L236">
-        <v>3.3</v>
-      </c>
-      <c r="M236">
-        <v>2.75</v>
-      </c>
-      <c r="N236">
-        <v>2.3</v>
-      </c>
-      <c r="O236">
-        <v>3.3</v>
-      </c>
-      <c r="P236">
-        <v>2.75</v>
-      </c>
-      <c r="Q236">
-        <v>-0.25</v>
-      </c>
-      <c r="R236">
-        <v>2.1</v>
-      </c>
-      <c r="S236">
-        <v>1.775</v>
-      </c>
-      <c r="T236">
-        <v>2.5</v>
-      </c>
-      <c r="U236">
-        <v>1.975</v>
-      </c>
-      <c r="V236">
-        <v>1.875</v>
-      </c>
-      <c r="W236">
-        <v>0</v>
-      </c>
-      <c r="X236">
-        <v>0</v>
-      </c>
-      <c r="Y236">
-        <v>0</v>
-      </c>
-      <c r="Z236">
-        <v>0</v>
-      </c>
-      <c r="AA236">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:29">
-      <c r="A237" s="1">
-        <v>235</v>
-      </c>
-      <c r="B237">
-        <v>6803837</v>
-      </c>
-      <c r="C237" t="s">
-        <v>28</v>
-      </c>
-      <c r="D237" t="s">
-        <v>28</v>
-      </c>
-      <c r="E237" s="2">
-        <v>45384.54166666666</v>
-      </c>
-      <c r="F237" t="s">
-        <v>48</v>
-      </c>
-      <c r="G237" t="s">
-        <v>35</v>
-      </c>
-      <c r="K237">
-        <v>1.727</v>
-      </c>
-      <c r="L237">
-        <v>3.6</v>
-      </c>
-      <c r="M237">
-        <v>4.2</v>
-      </c>
-      <c r="N237">
-        <v>1.727</v>
-      </c>
-      <c r="O237">
-        <v>3.6</v>
-      </c>
-      <c r="P237">
-        <v>4.2</v>
-      </c>
-      <c r="Q237">
-        <v>-0.75</v>
-      </c>
-      <c r="R237">
-        <v>2</v>
-      </c>
-      <c r="S237">
-        <v>1.85</v>
-      </c>
-      <c r="T237">
-        <v>2.75</v>
-      </c>
-      <c r="U237">
-        <v>1.925</v>
-      </c>
-      <c r="V237">
-        <v>1.925</v>
-      </c>
-      <c r="W237">
-        <v>0</v>
-      </c>
-      <c r="X237">
-        <v>0</v>
-      </c>
-      <c r="Y237">
-        <v>0</v>
-      </c>
-      <c r="Z237">
-        <v>0</v>
-      </c>
-      <c r="AA237">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:29">
-      <c r="A238" s="1">
-        <v>236</v>
-      </c>
-      <c r="B238">
-        <v>6805668</v>
-      </c>
-      <c r="C238" t="s">
-        <v>28</v>
-      </c>
-      <c r="D238" t="s">
-        <v>28</v>
-      </c>
-      <c r="E238" s="2">
-        <v>45384.64583333334</v>
-      </c>
-      <c r="F238" t="s">
-        <v>45</v>
-      </c>
-      <c r="G238" t="s">
-        <v>46</v>
-      </c>
-      <c r="K238">
-        <v>1.571</v>
-      </c>
-      <c r="L238">
-        <v>3.8</v>
-      </c>
-      <c r="M238">
-        <v>5</v>
-      </c>
-      <c r="N238">
-        <v>1.533</v>
-      </c>
-      <c r="O238">
-        <v>4</v>
-      </c>
-      <c r="P238">
-        <v>5.25</v>
-      </c>
-      <c r="Q238">
-        <v>-1</v>
-      </c>
-      <c r="R238">
-        <v>2.025</v>
-      </c>
-      <c r="S238">
-        <v>1.825</v>
-      </c>
-      <c r="T238">
-        <v>2.5</v>
-      </c>
-      <c r="U238">
-        <v>2</v>
-      </c>
-      <c r="V238">
-        <v>1.85</v>
-      </c>
-      <c r="W238">
-        <v>0</v>
-      </c>
-      <c r="X238">
-        <v>0</v>
-      </c>
-      <c r="Y238">
-        <v>0</v>
-      </c>
-      <c r="Z238">
-        <v>0</v>
-      </c>
-      <c r="AA238">
         <v>0</v>
       </c>
     </row>

--- a/Poland I Liga/Poland I Liga.xlsx
+++ b/Poland I Liga/Poland I Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -103,28 +103,28 @@
     <t>Poland I Liga</t>
   </si>
   <si>
+    <t>Podbeskidzie Bielsko Biala</t>
+  </si>
+  <si>
     <t>LKS Lodz</t>
   </si>
   <si>
     <t>Zaglebie Sosnowiec</t>
   </si>
   <si>
-    <t>Gornik Leczna</t>
+    <t>MKS Puszcza Niepolomice</t>
   </si>
   <si>
-    <t>Podbeskidzie Bielsko Biala</t>
+    <t>Ruch Chorzow</t>
+  </si>
+  <si>
+    <t>Gornik Leczna</t>
   </si>
   <si>
     <t>Termalica BB Nieciecza</t>
   </si>
   <si>
     <t>Stal Rzeszow</t>
-  </si>
-  <si>
-    <t>MKS Puszcza Niepolomice</t>
-  </si>
-  <si>
-    <t>Ruch Chorzow</t>
   </si>
   <si>
     <t>Chojniczanka Chojnice</t>
@@ -543,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC234"/>
+  <dimension ref="A1:AC238"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5448049</v>
+        <v>5451607</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -655,55 +655,55 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J2" t="s">
         <v>53</v>
       </c>
       <c r="K2">
-        <v>1.571</v>
+        <v>1.615</v>
       </c>
       <c r="L2">
         <v>3.75</v>
       </c>
       <c r="M2">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="N2">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="O2">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P2">
         <v>6</v>
       </c>
       <c r="Q2">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R2">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S2">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T2">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U2">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V2">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W2">
-        <v>0.444</v>
+        <v>0.363</v>
       </c>
       <c r="X2">
         <v>-1</v>
@@ -712,16 +712,16 @@
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA2">
-        <v>-0</v>
+        <v>0.4875</v>
       </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC2">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -729,7 +729,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5448048</v>
+        <v>5448049</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -744,73 +744,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K3">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="L3">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M3">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="N3">
-        <v>2.1</v>
+        <v>1.444</v>
       </c>
       <c r="O3">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P3">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="Q3">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R3">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S3">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T3">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U3">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V3">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X3">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.4625</v>
+        <v>-0</v>
       </c>
       <c r="AB3">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.475</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -818,7 +818,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5447925</v>
+        <v>5448048</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -833,73 +833,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K4">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="L4">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M4">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="N4">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="O4">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P4">
-        <v>1.615</v>
+        <v>3.1</v>
       </c>
       <c r="Q4">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R4">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S4">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T4">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U4">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V4">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y4">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA4">
-        <v>0.8</v>
+        <v>0.4625</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC4">
-        <v>-0</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -907,7 +907,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5451607</v>
+        <v>5452381</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -922,73 +922,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5">
+        <v>1.571</v>
+      </c>
+      <c r="L5">
         <v>4</v>
       </c>
-      <c r="I5">
-        <v>3</v>
-      </c>
-      <c r="J5" t="s">
-        <v>53</v>
-      </c>
-      <c r="K5">
-        <v>1.615</v>
-      </c>
-      <c r="L5">
-        <v>3.75</v>
-      </c>
       <c r="M5">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="N5">
-        <v>1.363</v>
+        <v>1.4</v>
       </c>
       <c r="O5">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P5">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q5">
         <v>-1.25</v>
       </c>
       <c r="R5">
+        <v>1.9</v>
+      </c>
+      <c r="S5">
+        <v>1.95</v>
+      </c>
+      <c r="T5">
+        <v>3</v>
+      </c>
+      <c r="U5">
+        <v>2.025</v>
+      </c>
+      <c r="V5">
         <v>1.825</v>
       </c>
-      <c r="S5">
-        <v>1.975</v>
-      </c>
-      <c r="T5">
-        <v>3.25</v>
-      </c>
-      <c r="U5">
-        <v>1.925</v>
-      </c>
-      <c r="V5">
-        <v>1.875</v>
-      </c>
       <c r="W5">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z5">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AB5">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -996,7 +996,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5451608</v>
+        <v>5451609</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1011,55 +1011,55 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
         <v>53</v>
       </c>
       <c r="K6">
-        <v>1.909</v>
+        <v>1.3</v>
       </c>
       <c r="L6">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M6">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="N6">
-        <v>1.909</v>
+        <v>1.333</v>
       </c>
       <c r="O6">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P6">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="Q6">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R6">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S6">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T6">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U6">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V6">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W6">
-        <v>0.909</v>
+        <v>0.333</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1068,16 +1068,16 @@
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB6">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1085,7 +1085,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5451610</v>
+        <v>5447925</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1100,73 +1100,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K7">
-        <v>1.444</v>
+        <v>5.5</v>
       </c>
       <c r="L7">
         <v>4</v>
       </c>
       <c r="M7">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="N7">
-        <v>1.333</v>
+        <v>4.5</v>
       </c>
       <c r="O7">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P7">
-        <v>8</v>
+        <v>1.615</v>
       </c>
       <c r="Q7">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R7">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S7">
+        <v>1.8</v>
+      </c>
+      <c r="T7">
+        <v>3</v>
+      </c>
+      <c r="U7">
+        <v>2</v>
+      </c>
+      <c r="V7">
         <v>1.85</v>
       </c>
-      <c r="T7">
-        <v>2.75</v>
-      </c>
-      <c r="U7">
-        <v>1.875</v>
-      </c>
-      <c r="V7">
-        <v>1.925</v>
-      </c>
       <c r="W7">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z7">
         <v>-1</v>
       </c>
       <c r="AA7">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB7">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1174,7 +1174,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5452381</v>
+        <v>5451608</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1189,73 +1189,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K8">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L8">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M8">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N8">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="O8">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P8">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q8">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R8">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S8">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T8">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U8">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V8">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA8">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC8">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1263,7 +1263,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5451609</v>
+        <v>5451610</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1278,31 +1278,31 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
         <v>1</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
       </c>
       <c r="J9" t="s">
         <v>53</v>
       </c>
       <c r="K9">
-        <v>1.3</v>
+        <v>1.444</v>
       </c>
       <c r="L9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="N9">
         <v>1.333</v>
       </c>
       <c r="O9">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="P9">
         <v>8</v>
@@ -1311,19 +1311,19 @@
         <v>-1.5</v>
       </c>
       <c r="R9">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S9">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T9">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U9">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V9">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W9">
         <v>0.333</v>
@@ -1338,13 +1338,13 @@
         <v>-1</v>
       </c>
       <c r="AA9">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC9">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1456,7 +1456,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1542,10 +1542,10 @@
         <v>45083.66666666666</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1631,10 +1631,10 @@
         <v>45088.54166666666</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1723,7 +1723,7 @@
         <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1812,7 +1812,7 @@
         <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H15">
         <v>3</v>
@@ -1987,7 +1987,7 @@
         <v>45129.52083333334</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G17" t="s">
         <v>38</v>
@@ -2165,7 +2165,7 @@
         <v>45130.31944444445</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
         <v>48</v>
@@ -2432,7 +2432,7 @@
         <v>45131.54166666666</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2521,7 +2521,7 @@
         <v>45135.54166666666</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G23" t="s">
         <v>39</v>
@@ -2699,7 +2699,7 @@
         <v>45136.41666666666</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G25" t="s">
         <v>43</v>
@@ -2788,7 +2788,7 @@
         <v>45136.52083333334</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
         <v>48</v>
@@ -2877,7 +2877,7 @@
         <v>45136.625</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s">
         <v>44</v>
@@ -3144,7 +3144,7 @@
         <v>45137.54166666666</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G30" t="s">
         <v>50</v>
@@ -3325,7 +3325,7 @@
         <v>43</v>
       </c>
       <c r="G32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3503,7 +3503,7 @@
         <v>44</v>
       </c>
       <c r="G34" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -3592,7 +3592,7 @@
         <v>38</v>
       </c>
       <c r="G35" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>41</v>
       </c>
       <c r="G36" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -4037,7 +4037,7 @@
         <v>49</v>
       </c>
       <c r="G40" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4123,7 +4123,7 @@
         <v>45149.54166666666</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G41" t="s">
         <v>41</v>
@@ -4304,7 +4304,7 @@
         <v>46</v>
       </c>
       <c r="G43" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4479,7 +4479,7 @@
         <v>45150.625</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G45" t="s">
         <v>49</v>
@@ -4657,7 +4657,7 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F47" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G47" t="s">
         <v>39</v>
@@ -4746,7 +4746,7 @@
         <v>45151.54166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G48" t="s">
         <v>40</v>
@@ -4924,10 +4924,10 @@
         <v>45156.54166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G50" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -5105,7 +5105,7 @@
         <v>48</v>
       </c>
       <c r="G52" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H52">
         <v>3</v>
@@ -5194,7 +5194,7 @@
         <v>40</v>
       </c>
       <c r="G53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5461,7 +5461,7 @@
         <v>44</v>
       </c>
       <c r="G56" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5817,7 +5817,7 @@
         <v>45</v>
       </c>
       <c r="G60" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H60">
         <v>3</v>
@@ -6081,7 +6081,7 @@
         <v>45164.625</v>
       </c>
       <c r="F63" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G63" t="s">
         <v>48</v>
@@ -6259,7 +6259,7 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F65" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G65" t="s">
         <v>41</v>
@@ -6348,7 +6348,7 @@
         <v>45165.54166666666</v>
       </c>
       <c r="F66" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G66" t="s">
         <v>43</v>
@@ -6440,7 +6440,7 @@
         <v>46</v>
       </c>
       <c r="G67" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6529,7 +6529,7 @@
         <v>49</v>
       </c>
       <c r="G68" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -6885,7 +6885,7 @@
         <v>43</v>
       </c>
       <c r="G72" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -6971,7 +6971,7 @@
         <v>45172.31944444445</v>
       </c>
       <c r="F73" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G73" t="s">
         <v>45</v>
@@ -7060,7 +7060,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G74" t="s">
         <v>47</v>
@@ -7241,7 +7241,7 @@
         <v>40</v>
       </c>
       <c r="G76" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H76">
         <v>3</v>
@@ -7327,7 +7327,7 @@
         <v>45184.54166666666</v>
       </c>
       <c r="F77" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G77" t="s">
         <v>48</v>
@@ -7419,7 +7419,7 @@
         <v>47</v>
       </c>
       <c r="G78" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7861,10 +7861,10 @@
         <v>45186.45833333334</v>
       </c>
       <c r="F83" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G83" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -8039,7 +8039,7 @@
         <v>45187.54166666666</v>
       </c>
       <c r="F85" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G85" t="s">
         <v>49</v>
@@ -8217,10 +8217,10 @@
         <v>45191.54166666666</v>
       </c>
       <c r="F87" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G87" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -8754,7 +8754,7 @@
         <v>43</v>
       </c>
       <c r="G93" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -8840,10 +8840,10 @@
         <v>45193.54166666666</v>
       </c>
       <c r="F94" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G94" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -8932,7 +8932,7 @@
         <v>42</v>
       </c>
       <c r="G95" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H95">
         <v>2</v>
@@ -9285,7 +9285,7 @@
         <v>45199.625</v>
       </c>
       <c r="F99" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G99" t="s">
         <v>49</v>
@@ -9463,7 +9463,7 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G101" t="s">
         <v>45</v>
@@ -9641,10 +9641,10 @@
         <v>45201.54166666666</v>
       </c>
       <c r="F103" t="s">
+        <v>34</v>
+      </c>
+      <c r="G103" t="s">
         <v>31</v>
-      </c>
-      <c r="G103" t="s">
-        <v>30</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9822,7 +9822,7 @@
         <v>45</v>
       </c>
       <c r="G105" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9908,10 +9908,10 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F106" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G106" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -10356,7 +10356,7 @@
         <v>47</v>
       </c>
       <c r="G111" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -10442,7 +10442,7 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F112" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G112" t="s">
         <v>42</v>
@@ -10709,10 +10709,10 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F115" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G115" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -10801,7 +10801,7 @@
         <v>50</v>
       </c>
       <c r="G116" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H116">
         <v>3</v>
@@ -10979,7 +10979,7 @@
         <v>46</v>
       </c>
       <c r="G118" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H118">
         <v>2</v>
@@ -11065,7 +11065,7 @@
         <v>45221.54166666666</v>
       </c>
       <c r="F119" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G119" t="s">
         <v>47</v>
@@ -11421,7 +11421,7 @@
         <v>45226.64583333334</v>
       </c>
       <c r="F123" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G123" t="s">
         <v>38</v>
@@ -11513,7 +11513,7 @@
         <v>45</v>
       </c>
       <c r="G124" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -11599,7 +11599,7 @@
         <v>45227.52083333334</v>
       </c>
       <c r="F125" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G125" t="s">
         <v>50</v>
@@ -11688,10 +11688,10 @@
         <v>45227.625</v>
       </c>
       <c r="F126" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G126" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H126">
         <v>3</v>
@@ -12225,7 +12225,7 @@
         <v>38</v>
       </c>
       <c r="G132" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -12314,7 +12314,7 @@
         <v>39</v>
       </c>
       <c r="G133" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H133">
         <v>1</v>
@@ -12403,7 +12403,7 @@
         <v>46</v>
       </c>
       <c r="G134" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -12492,7 +12492,7 @@
         <v>42</v>
       </c>
       <c r="G135" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -12667,7 +12667,7 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F137" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G137" t="s">
         <v>47</v>
@@ -13112,7 +13112,7 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F142" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G142" t="s">
         <v>42</v>
@@ -13290,10 +13290,10 @@
         <v>45241.66666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G144" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H144">
         <v>1</v>
@@ -13545,7 +13545,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6803778</v>
+        <v>6803779</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13557,76 +13557,76 @@
         <v>45242.58333333334</v>
       </c>
       <c r="F147" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G147" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J147" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K147">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="L147">
         <v>3.4</v>
       </c>
       <c r="M147">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="N147">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="O147">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P147">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="Q147">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R147">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S147">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T147">
         <v>2.5</v>
       </c>
       <c r="U147">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V147">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W147">
         <v>-1</v>
       </c>
       <c r="X147">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y147">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z147">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB147">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC147">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13634,7 +13634,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6803779</v>
+        <v>6803778</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13646,76 +13646,76 @@
         <v>45242.58333333334</v>
       </c>
       <c r="F148" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G148" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K148">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="L148">
         <v>3.4</v>
       </c>
       <c r="M148">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="N148">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="O148">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P148">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="Q148">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R148">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S148">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T148">
         <v>2.5</v>
       </c>
       <c r="U148">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V148">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W148">
         <v>-1</v>
       </c>
       <c r="X148">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y148">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z148">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA148">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB148">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC148">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13738,7 +13738,7 @@
         <v>41</v>
       </c>
       <c r="G149" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H149">
         <v>3</v>
@@ -13913,10 +13913,10 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F151" t="s">
+        <v>36</v>
+      </c>
+      <c r="G151" t="s">
         <v>34</v>
-      </c>
-      <c r="G151" t="s">
-        <v>31</v>
       </c>
       <c r="H151">
         <v>3</v>
@@ -14361,7 +14361,7 @@
         <v>44</v>
       </c>
       <c r="G156" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H156">
         <v>2</v>
@@ -14450,7 +14450,7 @@
         <v>50</v>
       </c>
       <c r="G157" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H157">
         <v>3</v>
@@ -14539,7 +14539,7 @@
         <v>42</v>
       </c>
       <c r="G158" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H158">
         <v>2</v>
@@ -14625,7 +14625,7 @@
         <v>45261.6875</v>
       </c>
       <c r="F159" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G159" t="s">
         <v>38</v>
@@ -15070,7 +15070,7 @@
         <v>45268.6875</v>
       </c>
       <c r="F164" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G164" t="s">
         <v>40</v>
@@ -15162,7 +15162,7 @@
         <v>48</v>
       </c>
       <c r="G165" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H165">
         <v>2</v>
@@ -15429,7 +15429,7 @@
         <v>46</v>
       </c>
       <c r="G168" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -15518,7 +15518,7 @@
         <v>38</v>
       </c>
       <c r="G169" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H169">
         <v>4</v>
@@ -15604,7 +15604,7 @@
         <v>45271.58333333334</v>
       </c>
       <c r="F170" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G170" t="s">
         <v>39</v>
@@ -15785,7 +15785,7 @@
         <v>48</v>
       </c>
       <c r="G172" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H172">
         <v>2</v>
@@ -15963,7 +15963,7 @@
         <v>39</v>
       </c>
       <c r="G174" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H174">
         <v>0</v>
@@ -16230,7 +16230,7 @@
         <v>43</v>
       </c>
       <c r="G177" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H177">
         <v>0</v>
@@ -16319,7 +16319,7 @@
         <v>50</v>
       </c>
       <c r="G178" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H178">
         <v>2</v>
@@ -16408,7 +16408,7 @@
         <v>44</v>
       </c>
       <c r="G179" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H179">
         <v>2</v>
@@ -16494,7 +16494,7 @@
         <v>45279.5625</v>
       </c>
       <c r="F180" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G180" t="s">
         <v>41</v>
@@ -16672,7 +16672,7 @@
         <v>45338.58333333334</v>
       </c>
       <c r="F182" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G182" t="s">
         <v>44</v>
@@ -16850,7 +16850,7 @@
         <v>45339.45833333334</v>
       </c>
       <c r="F184" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G184" t="s">
         <v>49</v>
@@ -17117,7 +17117,7 @@
         <v>45340.36111111111</v>
       </c>
       <c r="F187" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G187" t="s">
         <v>38</v>
@@ -17206,7 +17206,7 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G188" t="s">
         <v>41</v>
@@ -17295,7 +17295,7 @@
         <v>45340.58333333334</v>
       </c>
       <c r="F189" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G189" t="s">
         <v>43</v>
@@ -17473,7 +17473,7 @@
         <v>45342.58333333334</v>
       </c>
       <c r="F191" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G191" t="s">
         <v>50</v>
@@ -17740,7 +17740,7 @@
         <v>45346.36111111111</v>
       </c>
       <c r="F194" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G194" t="s">
         <v>46</v>
@@ -17921,7 +17921,7 @@
         <v>40</v>
       </c>
       <c r="G196" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -18010,7 +18010,7 @@
         <v>39</v>
       </c>
       <c r="G197" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H197">
         <v>5</v>
@@ -18188,7 +18188,7 @@
         <v>49</v>
       </c>
       <c r="G199" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H199">
         <v>1</v>
@@ -18277,7 +18277,7 @@
         <v>41</v>
       </c>
       <c r="G200" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H200">
         <v>0</v>
@@ -18452,7 +18452,7 @@
         <v>45350.58333333334</v>
       </c>
       <c r="F202" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G202" t="s">
         <v>40</v>
@@ -18541,7 +18541,7 @@
         <v>45352.58333333334</v>
       </c>
       <c r="F203" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G203" t="s">
         <v>44</v>
@@ -18808,7 +18808,7 @@
         <v>45353.45833333334</v>
       </c>
       <c r="F206" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G206" t="s">
         <v>48</v>
@@ -18986,7 +18986,7 @@
         <v>45354.36111111111</v>
       </c>
       <c r="F208" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G208" t="s">
         <v>40</v>
@@ -19164,10 +19164,10 @@
         <v>45354.58333333334</v>
       </c>
       <c r="F210" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G210" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H210">
         <v>0</v>
@@ -19345,7 +19345,7 @@
         <v>43</v>
       </c>
       <c r="G212" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H212">
         <v>2</v>
@@ -19523,7 +19523,7 @@
         <v>41</v>
       </c>
       <c r="G214" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H214">
         <v>2</v>
@@ -19787,7 +19787,7 @@
         <v>45361.36111111111</v>
       </c>
       <c r="F217" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G217" t="s">
         <v>45</v>
@@ -19965,7 +19965,7 @@
         <v>45361.58333333334</v>
       </c>
       <c r="F219" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G219" t="s">
         <v>46</v>
@@ -20057,7 +20057,7 @@
         <v>48</v>
       </c>
       <c r="G220" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H220">
         <v>2</v>
@@ -20146,7 +20146,7 @@
         <v>45</v>
       </c>
       <c r="G221" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H221">
         <v>4</v>
@@ -20410,7 +20410,7 @@
         <v>45367.36111111111</v>
       </c>
       <c r="F224" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G224" t="s">
         <v>49</v>
@@ -20588,7 +20588,7 @@
         <v>45367.5625</v>
       </c>
       <c r="F226" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G226" t="s">
         <v>40</v>
@@ -20754,7 +20754,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>7948879</v>
+        <v>6803831</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20766,76 +20766,76 @@
         <v>45368.45833333334</v>
       </c>
       <c r="F228" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G228" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H228">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J228" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K228">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L228">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M228">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="N228">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="O228">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P228">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="Q228">
+        <v>-0.25</v>
+      </c>
+      <c r="R228">
+        <v>1.975</v>
+      </c>
+      <c r="S228">
+        <v>1.875</v>
+      </c>
+      <c r="T228">
+        <v>2</v>
+      </c>
+      <c r="U228">
+        <v>1.875</v>
+      </c>
+      <c r="V228">
+        <v>1.975</v>
+      </c>
+      <c r="W228">
+        <v>-1</v>
+      </c>
+      <c r="X228">
+        <v>2</v>
+      </c>
+      <c r="Y228">
+        <v>-1</v>
+      </c>
+      <c r="Z228">
         <v>-0.5</v>
       </c>
-      <c r="R228">
-        <v>1.95</v>
-      </c>
-      <c r="S228">
-        <v>1.9</v>
-      </c>
-      <c r="T228">
-        <v>2.5</v>
-      </c>
-      <c r="U228">
-        <v>2</v>
-      </c>
-      <c r="V228">
-        <v>1.85</v>
-      </c>
-      <c r="W228">
-        <v>0.909</v>
-      </c>
-      <c r="X228">
-        <v>-1</v>
-      </c>
-      <c r="Y228">
-        <v>-1</v>
-      </c>
-      <c r="Z228">
-        <v>0.95</v>
-      </c>
       <c r="AA228">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC228">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20843,7 +20843,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6803831</v>
+        <v>7948879</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20855,76 +20855,76 @@
         <v>45368.45833333334</v>
       </c>
       <c r="F229" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G229" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H229">
+        <v>5</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229" t="s">
+        <v>53</v>
+      </c>
+      <c r="K229">
+        <v>1.8</v>
+      </c>
+      <c r="L229">
+        <v>3.5</v>
+      </c>
+      <c r="M229">
+        <v>4</v>
+      </c>
+      <c r="N229">
+        <v>1.909</v>
+      </c>
+      <c r="O229">
+        <v>3.3</v>
+      </c>
+      <c r="P229">
+        <v>3.6</v>
+      </c>
+      <c r="Q229">
+        <v>-0.5</v>
+      </c>
+      <c r="R229">
+        <v>1.95</v>
+      </c>
+      <c r="S229">
+        <v>1.9</v>
+      </c>
+      <c r="T229">
+        <v>2.5</v>
+      </c>
+      <c r="U229">
+        <v>2</v>
+      </c>
+      <c r="V229">
+        <v>1.85</v>
+      </c>
+      <c r="W229">
+        <v>0.909</v>
+      </c>
+      <c r="X229">
+        <v>-1</v>
+      </c>
+      <c r="Y229">
+        <v>-1</v>
+      </c>
+      <c r="Z229">
+        <v>0.95</v>
+      </c>
+      <c r="AA229">
+        <v>-1</v>
+      </c>
+      <c r="AB229">
         <v>1</v>
       </c>
-      <c r="I229">
-        <v>1</v>
-      </c>
-      <c r="J229" t="s">
-        <v>54</v>
-      </c>
-      <c r="K229">
-        <v>2.25</v>
-      </c>
-      <c r="L229">
-        <v>3</v>
-      </c>
-      <c r="M229">
-        <v>3.25</v>
-      </c>
-      <c r="N229">
-        <v>2.25</v>
-      </c>
-      <c r="O229">
-        <v>3</v>
-      </c>
-      <c r="P229">
-        <v>3.25</v>
-      </c>
-      <c r="Q229">
-        <v>-0.25</v>
-      </c>
-      <c r="R229">
-        <v>1.975</v>
-      </c>
-      <c r="S229">
-        <v>1.875</v>
-      </c>
-      <c r="T229">
-        <v>2</v>
-      </c>
-      <c r="U229">
-        <v>1.875</v>
-      </c>
-      <c r="V229">
-        <v>1.975</v>
-      </c>
-      <c r="W229">
-        <v>-1</v>
-      </c>
-      <c r="X229">
-        <v>2</v>
-      </c>
-      <c r="Y229">
-        <v>-1</v>
-      </c>
-      <c r="Z229">
-        <v>-0.5</v>
-      </c>
-      <c r="AA229">
-        <v>0.4375</v>
-      </c>
-      <c r="AB229">
-        <v>0</v>
-      </c>
       <c r="AC229">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20932,7 +20932,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6805667</v>
+        <v>6803836</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20941,64 +20941,79 @@
         <v>28</v>
       </c>
       <c r="E230" s="2">
-        <v>45383.31944444445</v>
+        <v>45381.36111111111</v>
       </c>
       <c r="F230" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G230" t="s">
-        <v>42</v>
+        <v>34</v>
+      </c>
+      <c r="H230">
+        <v>2</v>
+      </c>
+      <c r="I230">
+        <v>3</v>
+      </c>
+      <c r="J230" t="s">
+        <v>55</v>
       </c>
       <c r="K230">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="L230">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M230">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="N230">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="O230">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P230">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q230">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R230">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S230">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T230">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U230">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V230">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W230">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X230">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y230">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="Z230">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA230">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AB230">
+        <v>0.925</v>
+      </c>
+      <c r="AC230">
+        <v>-1</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21006,7 +21021,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6803834</v>
+        <v>6803839</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21015,64 +21030,79 @@
         <v>28</v>
       </c>
       <c r="E231" s="2">
-        <v>45383.41666666666</v>
+        <v>45381.45833333334</v>
       </c>
       <c r="F231" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G231" t="s">
-        <v>47</v>
+        <v>39</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231">
+        <v>1</v>
+      </c>
+      <c r="J231" t="s">
+        <v>55</v>
       </c>
       <c r="K231">
+        <v>3</v>
+      </c>
+      <c r="L231">
         <v>3.4</v>
       </c>
-      <c r="L231">
+      <c r="M231">
+        <v>2.15</v>
+      </c>
+      <c r="N231">
+        <v>3</v>
+      </c>
+      <c r="O231">
         <v>3.3</v>
       </c>
-      <c r="M231">
-        <v>2</v>
-      </c>
-      <c r="N231">
-        <v>3.6</v>
-      </c>
-      <c r="O231">
-        <v>3.4</v>
-      </c>
       <c r="P231">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="Q231">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R231">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S231">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T231">
         <v>2.25</v>
       </c>
       <c r="U231">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V231">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W231">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X231">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y231">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="Z231">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA231">
-        <v>0</v>
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB231">
+        <v>-1</v>
+      </c>
+      <c r="AC231">
+        <v>1.025</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21080,7 +21110,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6805666</v>
+        <v>6803838</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21089,64 +21119,79 @@
         <v>28</v>
       </c>
       <c r="E232" s="2">
-        <v>45383.52083333334</v>
+        <v>45381.5625</v>
       </c>
       <c r="F232" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G232" t="s">
-        <v>50</v>
+        <v>38</v>
+      </c>
+      <c r="H232">
+        <v>3</v>
+      </c>
+      <c r="I232">
+        <v>2</v>
+      </c>
+      <c r="J232" t="s">
+        <v>53</v>
       </c>
       <c r="K232">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="L232">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M232">
-        <v>2.75</v>
+        <v>1.533</v>
       </c>
       <c r="N232">
-        <v>2.25</v>
+        <v>4.75</v>
       </c>
       <c r="O232">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P232">
-        <v>2.875</v>
+        <v>1.6</v>
       </c>
       <c r="Q232">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R232">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S232">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T232">
         <v>2.5</v>
       </c>
       <c r="U232">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V232">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W232">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="X232">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y232">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z232">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA232">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB232">
+        <v>0.825</v>
+      </c>
+      <c r="AC232">
+        <v>-1</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21154,7 +21199,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6803837</v>
+        <v>6803835</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21163,64 +21208,79 @@
         <v>28</v>
       </c>
       <c r="E233" s="2">
-        <v>45384.54166666666</v>
+        <v>45381.66666666666</v>
       </c>
       <c r="F233" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G233" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="H233">
+        <v>2</v>
+      </c>
+      <c r="I233">
+        <v>1</v>
+      </c>
+      <c r="J233" t="s">
+        <v>53</v>
       </c>
       <c r="K233">
-        <v>1.727</v>
+        <v>2.7</v>
       </c>
       <c r="L233">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M233">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="N233">
-        <v>1.727</v>
+        <v>2.55</v>
       </c>
       <c r="O233">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P233">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="Q233">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R233">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S233">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T233">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U233">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V233">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W233">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="X233">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y233">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z233">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA233">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB233">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC233">
+        <v>-1</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21228,7 +21288,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6805668</v>
+        <v>6805667</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21237,63 +21297,359 @@
         <v>28</v>
       </c>
       <c r="E234" s="2">
-        <v>45384.64583333334</v>
+        <v>45383.31944444445</v>
       </c>
       <c r="F234" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G234" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K234">
-        <v>1.571</v>
+        <v>1.95</v>
       </c>
       <c r="L234">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M234">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="N234">
-        <v>1.533</v>
+        <v>2.05</v>
       </c>
       <c r="O234">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P234">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q234">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R234">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S234">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T234">
         <v>2.5</v>
       </c>
       <c r="U234">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V234">
+        <v>1.825</v>
+      </c>
+      <c r="W234">
+        <v>0</v>
+      </c>
+      <c r="X234">
+        <v>0</v>
+      </c>
+      <c r="Y234">
+        <v>0</v>
+      </c>
+      <c r="Z234">
+        <v>0</v>
+      </c>
+      <c r="AA234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:29">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235">
+        <v>6803834</v>
+      </c>
+      <c r="C235" t="s">
+        <v>28</v>
+      </c>
+      <c r="D235" t="s">
+        <v>28</v>
+      </c>
+      <c r="E235" s="2">
+        <v>45383.41666666666</v>
+      </c>
+      <c r="F235" t="s">
+        <v>31</v>
+      </c>
+      <c r="G235" t="s">
+        <v>47</v>
+      </c>
+      <c r="K235">
+        <v>3.4</v>
+      </c>
+      <c r="L235">
+        <v>3.3</v>
+      </c>
+      <c r="M235">
+        <v>2</v>
+      </c>
+      <c r="N235">
+        <v>3.75</v>
+      </c>
+      <c r="O235">
+        <v>3.4</v>
+      </c>
+      <c r="P235">
+        <v>1.909</v>
+      </c>
+      <c r="Q235">
+        <v>0.5</v>
+      </c>
+      <c r="R235">
+        <v>1.875</v>
+      </c>
+      <c r="S235">
+        <v>1.975</v>
+      </c>
+      <c r="T235">
+        <v>2.25</v>
+      </c>
+      <c r="U235">
+        <v>1.8</v>
+      </c>
+      <c r="V235">
+        <v>2.05</v>
+      </c>
+      <c r="W235">
+        <v>0</v>
+      </c>
+      <c r="X235">
+        <v>0</v>
+      </c>
+      <c r="Y235">
+        <v>0</v>
+      </c>
+      <c r="Z235">
+        <v>0</v>
+      </c>
+      <c r="AA235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:29">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236">
+        <v>6805666</v>
+      </c>
+      <c r="C236" t="s">
+        <v>28</v>
+      </c>
+      <c r="D236" t="s">
+        <v>28</v>
+      </c>
+      <c r="E236" s="2">
+        <v>45383.52083333334</v>
+      </c>
+      <c r="F236" t="s">
+        <v>40</v>
+      </c>
+      <c r="G236" t="s">
+        <v>50</v>
+      </c>
+      <c r="K236">
+        <v>2.3</v>
+      </c>
+      <c r="L236">
+        <v>3.3</v>
+      </c>
+      <c r="M236">
+        <v>2.75</v>
+      </c>
+      <c r="N236">
+        <v>2.25</v>
+      </c>
+      <c r="O236">
+        <v>3.3</v>
+      </c>
+      <c r="P236">
+        <v>2.875</v>
+      </c>
+      <c r="Q236">
+        <v>-0.25</v>
+      </c>
+      <c r="R236">
+        <v>2.025</v>
+      </c>
+      <c r="S236">
+        <v>1.825</v>
+      </c>
+      <c r="T236">
+        <v>2.5</v>
+      </c>
+      <c r="U236">
+        <v>2.025</v>
+      </c>
+      <c r="V236">
+        <v>1.825</v>
+      </c>
+      <c r="W236">
+        <v>0</v>
+      </c>
+      <c r="X236">
+        <v>0</v>
+      </c>
+      <c r="Y236">
+        <v>0</v>
+      </c>
+      <c r="Z236">
+        <v>0</v>
+      </c>
+      <c r="AA236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:29">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237">
+        <v>6803837</v>
+      </c>
+      <c r="C237" t="s">
+        <v>28</v>
+      </c>
+      <c r="D237" t="s">
+        <v>28</v>
+      </c>
+      <c r="E237" s="2">
+        <v>45384.54166666666</v>
+      </c>
+      <c r="F237" t="s">
+        <v>48</v>
+      </c>
+      <c r="G237" t="s">
+        <v>36</v>
+      </c>
+      <c r="K237">
+        <v>1.727</v>
+      </c>
+      <c r="L237">
+        <v>3.6</v>
+      </c>
+      <c r="M237">
+        <v>4.2</v>
+      </c>
+      <c r="N237">
+        <v>1.727</v>
+      </c>
+      <c r="O237">
+        <v>3.6</v>
+      </c>
+      <c r="P237">
+        <v>4.2</v>
+      </c>
+      <c r="Q237">
+        <v>-0.75</v>
+      </c>
+      <c r="R237">
+        <v>2</v>
+      </c>
+      <c r="S237">
         <v>1.85</v>
       </c>
-      <c r="W234">
-        <v>0</v>
-      </c>
-      <c r="X234">
-        <v>0</v>
-      </c>
-      <c r="Y234">
-        <v>0</v>
-      </c>
-      <c r="Z234">
-        <v>0</v>
-      </c>
-      <c r="AA234">
+      <c r="T237">
+        <v>2.75</v>
+      </c>
+      <c r="U237">
+        <v>1.925</v>
+      </c>
+      <c r="V237">
+        <v>1.925</v>
+      </c>
+      <c r="W237">
+        <v>0</v>
+      </c>
+      <c r="X237">
+        <v>0</v>
+      </c>
+      <c r="Y237">
+        <v>0</v>
+      </c>
+      <c r="Z237">
+        <v>0</v>
+      </c>
+      <c r="AA237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:29">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238">
+        <v>6805668</v>
+      </c>
+      <c r="C238" t="s">
+        <v>28</v>
+      </c>
+      <c r="D238" t="s">
+        <v>28</v>
+      </c>
+      <c r="E238" s="2">
+        <v>45384.64583333334</v>
+      </c>
+      <c r="F238" t="s">
+        <v>45</v>
+      </c>
+      <c r="G238" t="s">
+        <v>46</v>
+      </c>
+      <c r="K238">
+        <v>1.571</v>
+      </c>
+      <c r="L238">
+        <v>3.8</v>
+      </c>
+      <c r="M238">
+        <v>5</v>
+      </c>
+      <c r="N238">
+        <v>1.533</v>
+      </c>
+      <c r="O238">
+        <v>4</v>
+      </c>
+      <c r="P238">
+        <v>5.25</v>
+      </c>
+      <c r="Q238">
+        <v>-1</v>
+      </c>
+      <c r="R238">
+        <v>1.95</v>
+      </c>
+      <c r="S238">
+        <v>1.9</v>
+      </c>
+      <c r="T238">
+        <v>2.5</v>
+      </c>
+      <c r="U238">
+        <v>1.975</v>
+      </c>
+      <c r="V238">
+        <v>1.875</v>
+      </c>
+      <c r="W238">
+        <v>0</v>
+      </c>
+      <c r="X238">
+        <v>0</v>
+      </c>
+      <c r="Y238">
+        <v>0</v>
+      </c>
+      <c r="Z238">
+        <v>0</v>
+      </c>
+      <c r="AA238">
         <v>0</v>
       </c>
     </row>

--- a/Poland I Liga/Poland I Liga.xlsx
+++ b/Poland I Liga/Poland I Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -103,31 +103,31 @@
     <t>Poland I Liga</t>
   </si>
   <si>
-    <t>Podbeskidzie Bielsko Biala</t>
+    <t>Stal Rzeszow</t>
+  </si>
+  <si>
+    <t>Termalica BB Nieciecza</t>
+  </si>
+  <si>
+    <t>Zaglebie Sosnowiec</t>
+  </si>
+  <si>
+    <t>Gornik Leczna</t>
   </si>
   <si>
     <t>LKS Lodz</t>
   </si>
   <si>
-    <t>Zaglebie Sosnowiec</t>
+    <t>Chojniczanka Chojnice</t>
+  </si>
+  <si>
+    <t>Podbeskidzie Bielsko Biala</t>
   </si>
   <si>
     <t>MKS Puszcza Niepolomice</t>
   </si>
   <si>
     <t>Ruch Chorzow</t>
-  </si>
-  <si>
-    <t>Gornik Leczna</t>
-  </si>
-  <si>
-    <t>Termalica BB Nieciecza</t>
-  </si>
-  <si>
-    <t>Stal Rzeszow</t>
-  </si>
-  <si>
-    <t>Chojniczanka Chojnice</t>
   </si>
   <si>
     <t>Wisla Krakow</t>
@@ -169,10 +169,10 @@
     <t>GKS Tychy 71</t>
   </si>
   <si>
-    <t>Sandecja Nowy Sacz</t>
+    <t>Skra Czestochowa</t>
   </si>
   <si>
-    <t>Skra Czestochowa</t>
+    <t>Sandecja Nowy Sacz</t>
   </si>
   <si>
     <t>H</t>
@@ -543,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC238"/>
+  <dimension ref="A1:AC240"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5451607</v>
+        <v>5451610</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -655,55 +655,55 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>53</v>
       </c>
       <c r="K2">
-        <v>1.615</v>
+        <v>1.444</v>
       </c>
       <c r="L2">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M2">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="N2">
-        <v>1.363</v>
+        <v>1.333</v>
       </c>
       <c r="O2">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="P2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q2">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R2">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S2">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T2">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U2">
+        <v>1.875</v>
+      </c>
+      <c r="V2">
         <v>1.925</v>
       </c>
-      <c r="V2">
-        <v>1.875</v>
-      </c>
       <c r="W2">
-        <v>0.363</v>
+        <v>0.333</v>
       </c>
       <c r="X2">
         <v>-1</v>
@@ -712,16 +712,16 @@
         <v>-1</v>
       </c>
       <c r="Z2">
+        <v>-1</v>
+      </c>
+      <c r="AA2">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB2">
+        <v>0.4375</v>
+      </c>
+      <c r="AC2">
         <v>-0.5</v>
-      </c>
-      <c r="AA2">
-        <v>0.4875</v>
-      </c>
-      <c r="AB2">
-        <v>0.925</v>
-      </c>
-      <c r="AC2">
-        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -729,7 +729,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5448049</v>
+        <v>5451608</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -744,55 +744,55 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
         <v>1</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>53</v>
       </c>
       <c r="K3">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L3">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M3">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N3">
-        <v>1.444</v>
+        <v>1.909</v>
       </c>
       <c r="O3">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P3">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="Q3">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R3">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S3">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T3">
         <v>2.75</v>
       </c>
       <c r="U3">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V3">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W3">
-        <v>0.444</v>
+        <v>0.9